--- a/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v5.xlsx
+++ b/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v5.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel Puerto\Desktop\EASA-UMB\Diseño II Plantas de potabilización\Proyecto Diseño II de planta de potabilización\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco V\Desktop\Proyecto\Aplicacion\GitHub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sedimentador alta tasa" sheetId="1" r:id="rId1"/>
     <sheet name="Sedimentador alta tasa (Romero)" sheetId="2" r:id="rId2"/>
     <sheet name="Filtro rápido" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="413">
   <si>
     <t>Q</t>
   </si>
@@ -3376,11 +3376,14 @@
   <si>
     <t>Área del lateral / área de orificios del lateral</t>
   </si>
+  <si>
+    <t>Pérdidad de carga a través del lecho de grava</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="12">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
@@ -3395,7 +3398,7 @@
     <numFmt numFmtId="174" formatCode="0.000"/>
     <numFmt numFmtId="175" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3689,8 +3692,16 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3736,6 +3747,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3921,7 +3944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="473">
+  <cellXfs count="499">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4728,6 +4751,53 @@
     <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -4923,14 +4993,14 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4946,6 +5016,12 @@
     </xf>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4971,10 +5047,10 @@
     <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4995,11 +5071,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5055,11 +5137,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5184,22 +5293,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5226,42 +5335,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -5271,6 +5344,26 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31842,8 +31935,8 @@
       <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532453" cy="345672"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="CuadroTexto 22"/>
@@ -31889,7 +31982,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-MX" sz="1100" b="0" i="0">
+                          <a:rPr lang="es-MX" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -32014,7 +32107,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="CuadroTexto 22"/>
@@ -32594,8 +32687,8 @@
       <xdr:rowOff>42335</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1575890" cy="380999"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24"/>
@@ -32641,7 +32734,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-CO" sz="1100" i="0">
+                          <a:rPr lang="es-CO" sz="1100" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -32679,7 +32772,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-CO" sz="1100" i="0">
+                          <a:rPr lang="es-CO" sz="1100" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -32720,7 +32813,7 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-CO" sz="1100" i="0">
+                          <a:rPr lang="es-CO" sz="1100" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -32730,7 +32823,7 @@
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="es-CO" sz="1100" i="0">
+                              <a:rPr lang="es-CO" sz="1100" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
@@ -32766,7 +32859,7 @@
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="es-CO" sz="1100" i="0">
+                              <a:rPr lang="es-CO" sz="1100" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
@@ -32821,7 +32914,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="CuadroTexto 24"/>
@@ -32997,8 +33090,8 @@
       <xdr:rowOff>37571</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="856838" cy="345479"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="CuadroTexto 32"/>
@@ -33034,6 +33127,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -33043,7 +33137,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-CO" sz="1100" i="0">
+                          <a:rPr lang="es-CO" sz="1100" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -33095,7 +33189,7 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-MX" sz="1100" b="0" i="0">
+                          <a:rPr lang="es-MX" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -33105,7 +33199,7 @@
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="es-MX" sz="1100" b="0" i="0">
+                              <a:rPr lang="es-MX" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
@@ -33141,7 +33235,7 @@
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="es-MX" sz="1100" b="0" i="0">
+                              <a:rPr lang="es-MX" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
@@ -33182,7 +33276,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="CuadroTexto 32"/>
@@ -33266,8 +33360,8 @@
       <xdr:rowOff>29632</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1290289" cy="351828"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="CuadroTexto 34"/>
@@ -33303,6 +33397,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -33312,7 +33407,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-CO" sz="1100" i="0">
+                          <a:rPr lang="es-CO" sz="1100" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -33350,7 +33445,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-CO" sz="1100" i="0">
+                          <a:rPr lang="es-CO" sz="1100" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -33391,7 +33486,7 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-CO" sz="1100" i="0">
+                          <a:rPr lang="es-CO" sz="1100" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
@@ -33411,7 +33506,7 @@
                         <m:sSup>
                           <m:sSupPr>
                             <m:ctrlPr>
-                              <a:rPr lang="el-GR" sz="1100" i="0">
+                              <a:rPr lang="el-GR" sz="1100" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
@@ -33421,7 +33516,7 @@
                             <m:sSub>
                               <m:sSubPr>
                                 <m:ctrlPr>
-                                  <a:rPr lang="el-GR" sz="1100" i="0">
+                                  <a:rPr lang="el-GR" sz="1100" i="1">
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
@@ -33482,7 +33577,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="CuadroTexto 34"/>
@@ -33629,8 +33724,8 @@
       <xdr:rowOff>29633</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="647699" cy="346633"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="CuadroTexto 35"/>
@@ -33666,6 +33761,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -33675,7 +33771,7 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-CO" sz="1100" i="0">
+                          <a:rPr lang="es-CO" sz="1100" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -33684,7 +33780,7 @@
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="es-CO" sz="1100" i="0">
+                              <a:rPr lang="es-CO" sz="1100" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
@@ -33717,7 +33813,7 @@
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="es-CO" sz="1100" i="0">
+                              <a:rPr lang="es-CO" sz="1100" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
@@ -33769,7 +33865,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="CuadroTexto 35"/>
@@ -34222,7 +34318,7 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" s="43"/>
-      <c r="C2" s="310"/>
+      <c r="C2" s="327"/>
       <c r="D2" s="41" t="s">
         <v>119</v>
       </c>
@@ -34236,14 +34332,14 @@
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="43"/>
-      <c r="C3" s="310"/>
+      <c r="C3" s="327"/>
       <c r="D3" s="41" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
-      <c r="C4" s="310"/>
+      <c r="C4" s="327"/>
       <c r="D4" s="41" t="s">
         <v>121</v>
       </c>
@@ -34252,7 +34348,7 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="43"/>
-      <c r="C5" s="310"/>
+      <c r="C5" s="327"/>
       <c r="D5" s="41" t="s">
         <v>127</v>
       </c>
@@ -34273,27 +34369,27 @@
       </c>
     </row>
     <row r="7" spans="2:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="323" t="s">
+      <c r="B7" s="340" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="323"/>
-      <c r="D7" s="323"/>
-      <c r="E7" s="323"/>
-      <c r="F7" s="323"/>
-      <c r="G7" s="323"/>
+      <c r="C7" s="340"/>
+      <c r="D7" s="340"/>
+      <c r="E7" s="340"/>
+      <c r="F7" s="340"/>
+      <c r="G7" s="340"/>
       <c r="H7" s="40"/>
-      <c r="J7" s="322" t="s">
+      <c r="J7" s="339" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="322"/>
-      <c r="L7" s="322"/>
-      <c r="M7" s="322"/>
+      <c r="K7" s="339"/>
+      <c r="L7" s="339"/>
+      <c r="M7" s="339"/>
     </row>
     <row r="8" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="309" t="s">
+      <c r="B8" s="326" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="309"/>
+      <c r="C8" s="326"/>
       <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
@@ -34335,10 +34431,10 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="309" t="s">
+      <c r="B9" s="326" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="309"/>
+      <c r="C9" s="326"/>
       <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
@@ -34368,10 +34464,10 @@
       </c>
     </row>
     <row r="10" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="309" t="s">
+      <c r="B10" s="326" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="309"/>
+      <c r="C10" s="326"/>
       <c r="D10" s="9" t="s">
         <v>92</v>
       </c>
@@ -34406,10 +34502,10 @@
       </c>
     </row>
     <row r="11" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="309" t="s">
+      <c r="B11" s="326" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="309"/>
+      <c r="C11" s="326"/>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
@@ -34439,10 +34535,10 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="309" t="s">
+      <c r="B12" s="326" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="309"/>
+      <c r="C12" s="326"/>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
@@ -34468,11 +34564,11 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="309" t="str">
+      <c r="B13" s="326" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F12</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C13" s="309"/>
+      <c r="C13" s="326"/>
       <c r="D13" s="8" t="s">
         <v>108</v>
       </c>
@@ -34507,10 +34603,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="309" t="s">
+      <c r="B14" s="326" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="309"/>
+      <c r="C14" s="326"/>
       <c r="D14" s="9" t="s">
         <v>11</v>
       </c>
@@ -34545,10 +34641,10 @@
       </c>
     </row>
     <row r="15" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="309" t="s">
+      <c r="B15" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="309"/>
+      <c r="C15" s="326"/>
       <c r="D15" s="9" t="s">
         <v>105</v>
       </c>
@@ -34580,10 +34676,10 @@
       </c>
     </row>
     <row r="16" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="309" t="s">
+      <c r="B16" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="309"/>
+      <c r="C16" s="326"/>
       <c r="D16" s="9" t="s">
         <v>105</v>
       </c>
@@ -34614,10 +34710,10 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="309" t="s">
+      <c r="B17" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="309"/>
+      <c r="C17" s="326"/>
       <c r="D17" s="9" t="s">
         <v>105</v>
       </c>
@@ -34650,10 +34746,10 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="309" t="s">
+      <c r="B18" s="326" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="309"/>
+      <c r="C18" s="326"/>
       <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
@@ -34683,10 +34779,10 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="309" t="s">
+      <c r="B19" s="326" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="309"/>
+      <c r="C19" s="326"/>
       <c r="D19" s="177" t="s">
         <v>13</v>
       </c>
@@ -34716,10 +34812,10 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="309" t="s">
+      <c r="B20" s="326" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="309"/>
+      <c r="C20" s="326"/>
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
@@ -34749,10 +34845,10 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="309" t="s">
+      <c r="B21" s="326" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="309"/>
+      <c r="C21" s="326"/>
       <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
@@ -34834,10 +34930,10 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="309" t="s">
+      <c r="B24" s="326" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="309"/>
+      <c r="C24" s="326"/>
       <c r="D24" s="9" t="s">
         <v>46</v>
       </c>
@@ -34869,10 +34965,10 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="312" t="s">
+      <c r="B25" s="329" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="313"/>
+      <c r="C25" s="330"/>
       <c r="D25" s="28" t="s">
         <v>158</v>
       </c>
@@ -34904,10 +35000,10 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="309" t="s">
+      <c r="B26" s="326" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="309"/>
+      <c r="C26" s="326"/>
       <c r="D26" s="9" t="s">
         <v>54</v>
       </c>
@@ -34939,10 +35035,10 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="329" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="313"/>
+      <c r="C27" s="330"/>
       <c r="D27" s="9" t="s">
         <v>63</v>
       </c>
@@ -34972,10 +35068,10 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="312" t="s">
+      <c r="B28" s="329" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="313"/>
+      <c r="C28" s="330"/>
       <c r="D28" s="9" t="s">
         <v>75</v>
       </c>
@@ -35040,10 +35136,10 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="309" t="s">
+      <c r="B30" s="326" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="309"/>
+      <c r="C30" s="326"/>
       <c r="D30" s="9" t="s">
         <v>84</v>
       </c>
@@ -35075,8 +35171,8 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="310"/>
-      <c r="C31" s="310"/>
+      <c r="B31" s="327"/>
+      <c r="C31" s="327"/>
       <c r="D31" s="11"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
@@ -35086,14 +35182,14 @@
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="305" t="s">
+      <c r="B32" s="322" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="305"/>
-      <c r="D32" s="305"/>
-      <c r="E32" s="305"/>
-      <c r="F32" s="305"/>
-      <c r="G32" s="305"/>
+      <c r="C32" s="322"/>
+      <c r="D32" s="322"/>
+      <c r="E32" s="322"/>
+      <c r="F32" s="322"/>
+      <c r="G32" s="322"/>
       <c r="H32" s="66"/>
       <c r="J32" s="22"/>
       <c r="K32" s="23"/>
@@ -35101,10 +35197,10 @@
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="314" t="s">
+      <c r="B33" s="331" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="314"/>
+      <c r="C33" s="331"/>
       <c r="D33" s="7" t="s">
         <v>157</v>
       </c>
@@ -35122,10 +35218,10 @@
       <c r="M33" s="24"/>
     </row>
     <row r="34" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="315" t="s">
+      <c r="B34" s="332" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="316"/>
+      <c r="C34" s="333"/>
       <c r="D34" s="7" t="s">
         <v>166</v>
       </c>
@@ -35169,10 +35265,10 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="3.5">
-      <c r="B37" s="309" t="s">
+      <c r="B37" s="326" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="309"/>
+      <c r="C37" s="326"/>
       <c r="D37" s="38" t="s">
         <v>258</v>
       </c>
@@ -35183,22 +35279,22 @@
         <f>J9</f>
         <v>3.4760947255444699E-3</v>
       </c>
-      <c r="G37" s="297"/>
-      <c r="H37" s="299"/>
-      <c r="I37" s="319" t="s">
+      <c r="G37" s="314"/>
+      <c r="H37" s="316"/>
+      <c r="I37" s="336" t="s">
         <v>72</v>
       </c>
-      <c r="J37" s="320"/>
-      <c r="K37" s="320"/>
-      <c r="L37" s="320"/>
-      <c r="M37" s="320"/>
-      <c r="N37" s="321"/>
+      <c r="J37" s="337"/>
+      <c r="K37" s="337"/>
+      <c r="L37" s="337"/>
+      <c r="M37" s="337"/>
+      <c r="N37" s="338"/>
     </row>
     <row r="38" spans="2:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="311" t="s">
+      <c r="B38" s="328" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="311"/>
+      <c r="C38" s="328"/>
       <c r="D38" s="45" t="s">
         <v>135</v>
       </c>
@@ -35209,20 +35305,20 @@
         <f>ROUND(MIN(J16:J30),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G38" s="297"/>
-      <c r="H38" s="299"/>
-      <c r="I38" s="297"/>
-      <c r="J38" s="298"/>
-      <c r="K38" s="298"/>
-      <c r="L38" s="298"/>
-      <c r="M38" s="298"/>
-      <c r="N38" s="299"/>
+      <c r="G38" s="314"/>
+      <c r="H38" s="316"/>
+      <c r="I38" s="314"/>
+      <c r="J38" s="315"/>
+      <c r="K38" s="315"/>
+      <c r="L38" s="315"/>
+      <c r="M38" s="315"/>
+      <c r="N38" s="316"/>
     </row>
     <row r="39" spans="2:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="311" t="s">
+      <c r="B39" s="328" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="311"/>
+      <c r="C39" s="328"/>
       <c r="D39" s="45" t="s">
         <v>135</v>
       </c>
@@ -35233,20 +35329,20 @@
         <f>ROUND((F16/F13*(SIN(F21*PI()/180)+(F18/F14)*COS(F21*PI()/180)))/(1+0.058*(F16/F13)*(F14/F11)*COS(F21*PI()/180)),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G39" s="297"/>
-      <c r="H39" s="299"/>
-      <c r="I39" s="297"/>
-      <c r="J39" s="298"/>
-      <c r="K39" s="298"/>
-      <c r="L39" s="298"/>
-      <c r="M39" s="298"/>
-      <c r="N39" s="299"/>
+      <c r="G39" s="314"/>
+      <c r="H39" s="316"/>
+      <c r="I39" s="314"/>
+      <c r="J39" s="315"/>
+      <c r="K39" s="315"/>
+      <c r="L39" s="315"/>
+      <c r="M39" s="315"/>
+      <c r="N39" s="316"/>
     </row>
     <row r="40" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="311" t="s">
+      <c r="B40" s="328" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="311"/>
+      <c r="C40" s="328"/>
       <c r="D40" s="45" t="s">
         <v>259</v>
       </c>
@@ -35257,20 +35353,20 @@
         <f>(F18/F39)/60</f>
         <v>8.095617529880478</v>
       </c>
-      <c r="G40" s="297"/>
-      <c r="H40" s="299"/>
-      <c r="I40" s="297"/>
-      <c r="J40" s="298"/>
-      <c r="K40" s="298"/>
-      <c r="L40" s="298"/>
-      <c r="M40" s="298"/>
-      <c r="N40" s="299"/>
+      <c r="G40" s="314"/>
+      <c r="H40" s="316"/>
+      <c r="I40" s="314"/>
+      <c r="J40" s="315"/>
+      <c r="K40" s="315"/>
+      <c r="L40" s="315"/>
+      <c r="M40" s="315"/>
+      <c r="N40" s="316"/>
     </row>
     <row r="41" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="311" t="s">
+      <c r="B41" s="328" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="311"/>
+      <c r="C41" s="328"/>
       <c r="D41" s="45" t="s">
         <v>27</v>
       </c>
@@ -35281,20 +35377,20 @@
         <f>ROUND(F10/(F20*F14*F39),0)</f>
         <v>94</v>
       </c>
-      <c r="G41" s="297"/>
-      <c r="H41" s="299"/>
-      <c r="I41" s="297"/>
-      <c r="J41" s="298"/>
-      <c r="K41" s="298"/>
-      <c r="L41" s="298"/>
-      <c r="M41" s="298"/>
-      <c r="N41" s="299"/>
+      <c r="G41" s="314"/>
+      <c r="H41" s="316"/>
+      <c r="I41" s="314"/>
+      <c r="J41" s="315"/>
+      <c r="K41" s="315"/>
+      <c r="L41" s="315"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="316"/>
     </row>
     <row r="42" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="311" t="s">
+      <c r="B42" s="328" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="311"/>
+      <c r="C42" s="328"/>
       <c r="D42" s="45" t="s">
         <v>260</v>
       </c>
@@ -35305,23 +35401,23 @@
         <f>((F41*F14+(F41-1)*F19)/SIN(F21*PI()/180))</f>
         <v>5.8566411306595638</v>
       </c>
-      <c r="G42" s="297"/>
-      <c r="H42" s="299"/>
-      <c r="I42" s="306" t="s">
+      <c r="G42" s="314"/>
+      <c r="H42" s="316"/>
+      <c r="I42" s="323" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="307"/>
-      <c r="K42" s="307"/>
-      <c r="L42" s="307"/>
-      <c r="M42" s="307"/>
-      <c r="N42" s="308"/>
+      <c r="J42" s="324"/>
+      <c r="K42" s="324"/>
+      <c r="L42" s="324"/>
+      <c r="M42" s="324"/>
+      <c r="N42" s="325"/>
       <c r="O42" s="74"/>
     </row>
     <row r="43" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="311" t="s">
+      <c r="B43" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="311"/>
+      <c r="C43" s="328"/>
       <c r="D43" s="45" t="s">
         <v>261</v>
       </c>
@@ -35332,20 +35428,20 @@
         <f>F18*SIN(F21*PI()/180)</f>
         <v>1.0558581722939875</v>
       </c>
-      <c r="G43" s="297"/>
-      <c r="H43" s="299"/>
-      <c r="I43" s="297"/>
-      <c r="J43" s="298"/>
-      <c r="K43" s="298"/>
-      <c r="L43" s="298"/>
-      <c r="M43" s="298"/>
-      <c r="N43" s="299"/>
+      <c r="G43" s="314"/>
+      <c r="H43" s="316"/>
+      <c r="I43" s="314"/>
+      <c r="J43" s="315"/>
+      <c r="K43" s="315"/>
+      <c r="L43" s="315"/>
+      <c r="M43" s="315"/>
+      <c r="N43" s="316"/>
     </row>
     <row r="44" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="293" t="s">
+      <c r="B44" s="310" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="294"/>
+      <c r="C44" s="311"/>
       <c r="D44" s="56" t="s">
         <v>262</v>
       </c>
@@ -35356,20 +35452,20 @@
         <f>1.5*F24</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G44" s="297"/>
-      <c r="H44" s="299"/>
-      <c r="I44" s="297"/>
-      <c r="J44" s="298"/>
-      <c r="K44" s="298"/>
-      <c r="L44" s="298"/>
-      <c r="M44" s="298"/>
-      <c r="N44" s="299"/>
+      <c r="G44" s="314"/>
+      <c r="H44" s="316"/>
+      <c r="I44" s="314"/>
+      <c r="J44" s="315"/>
+      <c r="K44" s="315"/>
+      <c r="L44" s="315"/>
+      <c r="M44" s="315"/>
+      <c r="N44" s="316"/>
     </row>
     <row r="45" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="293" t="s">
+      <c r="B45" s="310" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="294"/>
+      <c r="C45" s="311"/>
       <c r="D45" s="56" t="s">
         <v>263</v>
       </c>
@@ -35390,10 +35486,10 @@
       <c r="N45" s="93"/>
     </row>
     <row r="46" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="293" t="s">
+      <c r="B46" s="310" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="294"/>
+      <c r="C46" s="311"/>
       <c r="D46" s="56" t="s">
         <v>262</v>
       </c>
@@ -35414,10 +35510,10 @@
       <c r="N46" s="93"/>
     </row>
     <row r="47" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="311" t="s">
+      <c r="B47" s="328" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="311"/>
+      <c r="C47" s="328"/>
       <c r="D47" s="56" t="s">
         <v>264</v>
       </c>
@@ -35428,24 +35524,24 @@
         <f>F25+F43+F24</f>
         <v>2.2558581722939874</v>
       </c>
-      <c r="G47" s="297"/>
-      <c r="H47" s="299"/>
-      <c r="I47" s="297"/>
-      <c r="J47" s="298"/>
-      <c r="K47" s="298"/>
-      <c r="L47" s="298"/>
-      <c r="M47" s="298"/>
-      <c r="N47" s="299"/>
+      <c r="G47" s="314"/>
+      <c r="H47" s="316"/>
+      <c r="I47" s="314"/>
+      <c r="J47" s="315"/>
+      <c r="K47" s="315"/>
+      <c r="L47" s="315"/>
+      <c r="M47" s="315"/>
+      <c r="N47" s="316"/>
       <c r="Q47" s="12">
         <f>6*0.0254</f>
         <v>0.15239999999999998</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="293" t="s">
+      <c r="B48" s="310" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="294"/>
+      <c r="C48" s="311"/>
       <c r="D48" s="56" t="s">
         <v>265</v>
       </c>
@@ -35456,26 +35552,26 @@
         <f>F47*F42*F20-(F41-1)*F18*F20*F19</f>
         <v>15.554808847800167</v>
       </c>
-      <c r="G48" s="297"/>
-      <c r="H48" s="299"/>
-      <c r="I48" s="306" t="s">
+      <c r="G48" s="314"/>
+      <c r="H48" s="316"/>
+      <c r="I48" s="323" t="s">
         <v>130</v>
       </c>
-      <c r="J48" s="307"/>
-      <c r="K48" s="307"/>
-      <c r="L48" s="307"/>
-      <c r="M48" s="307"/>
-      <c r="N48" s="308"/>
+      <c r="J48" s="324"/>
+      <c r="K48" s="324"/>
+      <c r="L48" s="324"/>
+      <c r="M48" s="324"/>
+      <c r="N48" s="325"/>
       <c r="Q48" s="75">
         <f>Q47/2</f>
         <v>7.619999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="311" t="s">
+      <c r="B49" s="328" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="311"/>
+      <c r="C49" s="328"/>
       <c r="D49" s="56" t="s">
         <v>266</v>
       </c>
@@ -35486,24 +35582,24 @@
         <f>(F48/F10)/60</f>
         <v>18.110151179182871</v>
       </c>
-      <c r="G49" s="297"/>
-      <c r="H49" s="299"/>
-      <c r="I49" s="297"/>
-      <c r="J49" s="298"/>
-      <c r="K49" s="298"/>
-      <c r="L49" s="298"/>
-      <c r="M49" s="298"/>
-      <c r="N49" s="299"/>
+      <c r="G49" s="314"/>
+      <c r="H49" s="316"/>
+      <c r="I49" s="314"/>
+      <c r="J49" s="315"/>
+      <c r="K49" s="315"/>
+      <c r="L49" s="315"/>
+      <c r="M49" s="315"/>
+      <c r="N49" s="316"/>
       <c r="Q49" s="12">
         <f>Q48/3</f>
         <v>2.5399999999999995E-2</v>
       </c>
     </row>
     <row r="50" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="293" t="s">
+      <c r="B50" s="310" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="294"/>
+      <c r="C50" s="311"/>
       <c r="D50" s="56" t="s">
         <v>91</v>
       </c>
@@ -35514,14 +35610,14 @@
         <f>F10*86400/(F42*F20)</f>
         <v>173.21341640466753</v>
       </c>
-      <c r="G50" s="297"/>
-      <c r="H50" s="299"/>
-      <c r="I50" s="297"/>
-      <c r="J50" s="298"/>
-      <c r="K50" s="298"/>
-      <c r="L50" s="298"/>
-      <c r="M50" s="298"/>
-      <c r="N50" s="299"/>
+      <c r="G50" s="314"/>
+      <c r="H50" s="316"/>
+      <c r="I50" s="314"/>
+      <c r="J50" s="315"/>
+      <c r="K50" s="315"/>
+      <c r="L50" s="315"/>
+      <c r="M50" s="315"/>
+      <c r="N50" s="316"/>
       <c r="Q50" s="12">
         <f>Q49/2</f>
         <v>1.2699999999999998E-2</v>
@@ -35532,10 +35628,10 @@
       </c>
     </row>
     <row r="51" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="311" t="s">
+      <c r="B51" s="328" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="311"/>
+      <c r="C51" s="328"/>
       <c r="D51" s="56" t="s">
         <v>73</v>
       </c>
@@ -35544,20 +35640,20 @@
         <f>"1: "&amp;ROUND(F42/F20,1)</f>
         <v>1: 4,8</v>
       </c>
-      <c r="G51" s="297"/>
-      <c r="H51" s="299"/>
-      <c r="I51" s="297"/>
-      <c r="J51" s="298"/>
-      <c r="K51" s="298"/>
-      <c r="L51" s="298"/>
-      <c r="M51" s="298"/>
-      <c r="N51" s="299"/>
+      <c r="G51" s="314"/>
+      <c r="H51" s="316"/>
+      <c r="I51" s="314"/>
+      <c r="J51" s="315"/>
+      <c r="K51" s="315"/>
+      <c r="L51" s="315"/>
+      <c r="M51" s="315"/>
+      <c r="N51" s="316"/>
     </row>
     <row r="52" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="293" t="s">
+      <c r="B52" s="310" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="294"/>
+      <c r="C52" s="311"/>
       <c r="D52" s="56" t="s">
         <v>267</v>
       </c>
@@ -35568,20 +35664,20 @@
         <f>((F20-F30)/2)*TAN(F29*PI()/180)</f>
         <v>0.79919162457288717</v>
       </c>
-      <c r="G52" s="297"/>
-      <c r="H52" s="299"/>
-      <c r="I52" s="297"/>
-      <c r="J52" s="298"/>
-      <c r="K52" s="298"/>
-      <c r="L52" s="298"/>
-      <c r="M52" s="298"/>
-      <c r="N52" s="299"/>
+      <c r="G52" s="314"/>
+      <c r="H52" s="316"/>
+      <c r="I52" s="314"/>
+      <c r="J52" s="315"/>
+      <c r="K52" s="315"/>
+      <c r="L52" s="315"/>
+      <c r="M52" s="315"/>
+      <c r="N52" s="316"/>
     </row>
     <row r="53" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="293" t="s">
+      <c r="B53" s="310" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="294"/>
+      <c r="C53" s="311"/>
       <c r="D53" s="56" t="s">
         <v>268</v>
       </c>
@@ -35592,20 +35688,20 @@
         <f>2*F28+F42</f>
         <v>6.4566411306595635</v>
       </c>
-      <c r="G53" s="297"/>
-      <c r="H53" s="299"/>
-      <c r="I53" s="297"/>
-      <c r="J53" s="298"/>
-      <c r="K53" s="298"/>
-      <c r="L53" s="298"/>
-      <c r="M53" s="298"/>
-      <c r="N53" s="299"/>
+      <c r="G53" s="314"/>
+      <c r="H53" s="316"/>
+      <c r="I53" s="314"/>
+      <c r="J53" s="315"/>
+      <c r="K53" s="315"/>
+      <c r="L53" s="315"/>
+      <c r="M53" s="315"/>
+      <c r="N53" s="316"/>
     </row>
     <row r="54" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="293" t="s">
+      <c r="B54" s="310" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="294"/>
+      <c r="C54" s="311"/>
       <c r="D54" s="56" t="s">
         <v>269</v>
       </c>
@@ -35616,20 +35712,20 @@
         <f>(2*F28+F20)*F9+(F9-1)*F27</f>
         <v>7.8767999999999994</v>
       </c>
-      <c r="G54" s="297"/>
-      <c r="H54" s="299"/>
-      <c r="I54" s="297"/>
-      <c r="J54" s="298"/>
-      <c r="K54" s="298"/>
-      <c r="L54" s="298"/>
-      <c r="M54" s="298"/>
-      <c r="N54" s="299"/>
+      <c r="G54" s="314"/>
+      <c r="H54" s="316"/>
+      <c r="I54" s="314"/>
+      <c r="J54" s="315"/>
+      <c r="K54" s="315"/>
+      <c r="L54" s="315"/>
+      <c r="M54" s="315"/>
+      <c r="N54" s="316"/>
     </row>
     <row r="55" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="311" t="s">
+      <c r="B55" s="328" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="311"/>
+      <c r="C55" s="328"/>
       <c r="D55" s="56" t="s">
         <v>270</v>
       </c>
@@ -35640,14 +35736,14 @@
         <f>F28+F52+F25+F43+F24+F26</f>
         <v>3.6550497968668743</v>
       </c>
-      <c r="G55" s="297"/>
-      <c r="H55" s="299"/>
-      <c r="I55" s="297"/>
-      <c r="J55" s="298"/>
-      <c r="K55" s="298"/>
-      <c r="L55" s="298"/>
-      <c r="M55" s="298"/>
-      <c r="N55" s="299"/>
+      <c r="G55" s="314"/>
+      <c r="H55" s="316"/>
+      <c r="I55" s="314"/>
+      <c r="J55" s="315"/>
+      <c r="K55" s="315"/>
+      <c r="L55" s="315"/>
+      <c r="M55" s="315"/>
+      <c r="N55" s="316"/>
     </row>
     <row r="56" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="80"/>
@@ -35682,10 +35778,10 @@
       <c r="N57" s="83"/>
     </row>
     <row r="58" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="293" t="s">
+      <c r="B58" s="310" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="294"/>
+      <c r="C58" s="311"/>
       <c r="D58" s="56" t="s">
         <v>271</v>
       </c>
@@ -35696,20 +35792,20 @@
         <f>F42+F28</f>
         <v>6.1566411306595636</v>
       </c>
-      <c r="G58" s="297"/>
-      <c r="H58" s="299"/>
-      <c r="I58" s="297"/>
-      <c r="J58" s="298"/>
-      <c r="K58" s="298"/>
-      <c r="L58" s="298"/>
-      <c r="M58" s="298"/>
-      <c r="N58" s="299"/>
+      <c r="G58" s="314"/>
+      <c r="H58" s="316"/>
+      <c r="I58" s="314"/>
+      <c r="J58" s="315"/>
+      <c r="K58" s="315"/>
+      <c r="L58" s="315"/>
+      <c r="M58" s="315"/>
+      <c r="N58" s="316"/>
     </row>
     <row r="59" spans="2:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="293" t="s">
+      <c r="B59" s="310" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="294"/>
+      <c r="C59" s="311"/>
       <c r="D59" s="56" t="s">
         <v>272</v>
       </c>
@@ -35719,20 +35815,20 @@
       <c r="F59" s="95">
         <v>8</v>
       </c>
-      <c r="G59" s="297"/>
-      <c r="H59" s="299"/>
-      <c r="I59" s="297"/>
-      <c r="J59" s="298"/>
-      <c r="K59" s="298"/>
-      <c r="L59" s="298"/>
-      <c r="M59" s="298"/>
-      <c r="N59" s="299"/>
+      <c r="G59" s="314"/>
+      <c r="H59" s="316"/>
+      <c r="I59" s="314"/>
+      <c r="J59" s="315"/>
+      <c r="K59" s="315"/>
+      <c r="L59" s="315"/>
+      <c r="M59" s="315"/>
+      <c r="N59" s="316"/>
     </row>
     <row r="60" spans="2:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="293" t="s">
+      <c r="B60" s="310" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="294"/>
+      <c r="C60" s="311"/>
       <c r="D60" s="56" t="s">
         <v>273</v>
       </c>
@@ -35743,8 +35839,8 @@
         <f>IF(F59=4,0.10342,IF(F59=6,0.15222,IF(F59=8,0.20942)))</f>
         <v>0.20942</v>
       </c>
-      <c r="G60" s="297"/>
-      <c r="H60" s="299"/>
+      <c r="G60" s="314"/>
+      <c r="H60" s="316"/>
       <c r="I60" s="67"/>
       <c r="J60" s="68"/>
       <c r="K60" s="68"/>
@@ -35753,10 +35849,10 @@
       <c r="N60" s="69"/>
     </row>
     <row r="61" spans="2:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="300" t="s">
+      <c r="B61" s="317" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="300"/>
+      <c r="C61" s="317"/>
       <c r="D61" s="176" t="s">
         <v>274</v>
       </c>
@@ -35767,20 +35863,20 @@
         <f>F60*SQRT(0.4/F33)</f>
         <v>4.1884000000000005E-2</v>
       </c>
-      <c r="G61" s="297"/>
-      <c r="H61" s="299"/>
-      <c r="I61" s="301"/>
-      <c r="J61" s="302"/>
-      <c r="K61" s="302"/>
-      <c r="L61" s="302"/>
-      <c r="M61" s="302"/>
-      <c r="N61" s="303"/>
+      <c r="G61" s="314"/>
+      <c r="H61" s="316"/>
+      <c r="I61" s="318"/>
+      <c r="J61" s="319"/>
+      <c r="K61" s="319"/>
+      <c r="L61" s="319"/>
+      <c r="M61" s="319"/>
+      <c r="N61" s="320"/>
     </row>
     <row r="62" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="300" t="s">
+      <c r="B62" s="317" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="300"/>
+      <c r="C62" s="317"/>
       <c r="D62" s="176" t="s">
         <v>275</v>
       </c>
@@ -35791,8 +35887,8 @@
         <f>IF(AND(F61&gt;0.02363,F61&lt;0.0302),1,IF(AND(F61&gt;0.0302,F61&lt;0.03814),1.25,IF(AND(F61&gt;0.03814,F61&lt;0.04368),1.5,IF(AND(F61&gt;0.04368,F61&lt;0.05458),2,IF(AND(F61&gt;0.05458,F61&lt;0.06607),2.5,IF(AND(F61&gt;0.06607,F61&lt;0.08042),3,IF(AND(F61&gt;0.08042,F61&lt;0.10342),4)))))))</f>
         <v>1.5</v>
       </c>
-      <c r="G62" s="295"/>
-      <c r="H62" s="296"/>
+      <c r="G62" s="312"/>
+      <c r="H62" s="313"/>
       <c r="I62" s="76"/>
       <c r="J62" s="77"/>
       <c r="K62" s="77"/>
@@ -35801,10 +35897,10 @@
       <c r="N62" s="78"/>
     </row>
     <row r="63" spans="2:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="300" t="s">
+      <c r="B63" s="317" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="300"/>
+      <c r="C63" s="317"/>
       <c r="D63" s="176" t="s">
         <v>274</v>
       </c>
@@ -35815,8 +35911,8 @@
         <f>IF(F62=1,0.0302,IF(F62=1.25,0.03814,IF(F62=1.5,0.04368,IF(F62=2,0.05458,IF(F62=2.5,0.06607,IF(F62=3,0.08042,IF(F62=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G63" s="297"/>
-      <c r="H63" s="299"/>
+      <c r="G63" s="314"/>
+      <c r="H63" s="316"/>
       <c r="I63" s="98"/>
       <c r="J63" s="77"/>
       <c r="K63" s="77"/>
@@ -35825,30 +35921,30 @@
       <c r="N63" s="78"/>
     </row>
     <row r="64" spans="2:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="317" t="s">
+      <c r="B64" s="334" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="318"/>
+      <c r="C64" s="335"/>
       <c r="D64" s="56"/>
       <c r="E64" s="46"/>
       <c r="F64" s="89">
         <f>(F63/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G64" s="297"/>
-      <c r="H64" s="299"/>
-      <c r="I64" s="297"/>
-      <c r="J64" s="298"/>
-      <c r="K64" s="298"/>
-      <c r="L64" s="298"/>
-      <c r="M64" s="298"/>
-      <c r="N64" s="299"/>
+      <c r="G64" s="314"/>
+      <c r="H64" s="316"/>
+      <c r="I64" s="314"/>
+      <c r="J64" s="315"/>
+      <c r="K64" s="315"/>
+      <c r="L64" s="315"/>
+      <c r="M64" s="315"/>
+      <c r="N64" s="316"/>
     </row>
     <row r="65" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="300" t="s">
+      <c r="B65" s="317" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="300"/>
+      <c r="C65" s="317"/>
       <c r="D65" s="176" t="s">
         <v>275</v>
       </c>
@@ -35869,10 +35965,10 @@
       <c r="N65" s="93"/>
     </row>
     <row r="66" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="300" t="s">
+      <c r="B66" s="317" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="300"/>
+      <c r="C66" s="317"/>
       <c r="D66" s="176" t="s">
         <v>274</v>
       </c>
@@ -35881,8 +35977,8 @@
         <f>IF(F65=1,0.0302,IF(F65=1.25,0.03814,IF(F65=1.5,0.04368,IF(F65=2,0.05458,IF(F65=2.5,0.06607,IF(F65=3,0.08042,IF(F65=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G66" s="297"/>
-      <c r="H66" s="299"/>
+      <c r="G66" s="314"/>
+      <c r="H66" s="316"/>
       <c r="I66" s="92"/>
       <c r="J66" s="94"/>
       <c r="K66" s="94"/>
@@ -35891,18 +35987,18 @@
       <c r="N66" s="93"/>
     </row>
     <row r="67" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="317" t="s">
+      <c r="B67" s="334" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="318"/>
+      <c r="C67" s="335"/>
       <c r="D67" s="56"/>
       <c r="E67" s="46"/>
       <c r="F67" s="89">
         <f>(F66/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G67" s="297"/>
-      <c r="H67" s="299"/>
+      <c r="G67" s="314"/>
+      <c r="H67" s="316"/>
       <c r="I67" s="92"/>
       <c r="J67" s="101"/>
       <c r="K67" s="94"/>
@@ -35911,10 +36007,10 @@
       <c r="N67" s="93"/>
     </row>
     <row r="68" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="293" t="s">
+      <c r="B68" s="310" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="294"/>
+      <c r="C68" s="311"/>
       <c r="D68" s="56" t="s">
         <v>276</v>
       </c>
@@ -35925,8 +36021,8 @@
         <f>F52+F25+F43+F24</f>
         <v>3.0550497968668746</v>
       </c>
-      <c r="G68" s="297"/>
-      <c r="H68" s="299"/>
+      <c r="G68" s="314"/>
+      <c r="H68" s="316"/>
       <c r="I68" s="76"/>
       <c r="J68" s="77"/>
       <c r="K68" s="77"/>
@@ -35935,10 +36031,10 @@
       <c r="N68" s="78"/>
     </row>
     <row r="69" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="293" t="s">
+      <c r="B69" s="310" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="294"/>
+      <c r="C69" s="311"/>
       <c r="D69" s="56" t="s">
         <v>277</v>
       </c>
@@ -35947,8 +36043,8 @@
         <f>F58/F33</f>
         <v>0.61566411306595636</v>
       </c>
-      <c r="G69" s="295"/>
-      <c r="H69" s="296"/>
+      <c r="G69" s="312"/>
+      <c r="H69" s="313"/>
       <c r="I69" s="76"/>
       <c r="J69" s="77"/>
       <c r="K69" s="77"/>
@@ -35957,10 +36053,10 @@
       <c r="N69" s="78"/>
     </row>
     <row r="70" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="317" t="s">
+      <c r="B70" s="334" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="318"/>
+      <c r="C70" s="335"/>
       <c r="D70" s="56" t="s">
         <v>278</v>
       </c>
@@ -35981,10 +36077,10 @@
       <c r="N70" s="78"/>
     </row>
     <row r="71" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="317" t="s">
+      <c r="B71" s="334" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="318"/>
+      <c r="C71" s="335"/>
       <c r="D71" s="56" t="s">
         <v>278</v>
       </c>
@@ -35993,30 +36089,30 @@
         <f>F42/F33</f>
         <v>0.58566411306595634</v>
       </c>
-      <c r="G71" s="297"/>
-      <c r="H71" s="299"/>
-      <c r="I71" s="324" t="s">
+      <c r="G71" s="314"/>
+      <c r="H71" s="316"/>
+      <c r="I71" s="341" t="s">
         <v>171</v>
       </c>
-      <c r="J71" s="325"/>
-      <c r="K71" s="325"/>
-      <c r="L71" s="325"/>
-      <c r="M71" s="325"/>
-      <c r="N71" s="326"/>
+      <c r="J71" s="342"/>
+      <c r="K71" s="342"/>
+      <c r="L71" s="342"/>
+      <c r="M71" s="342"/>
+      <c r="N71" s="343"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="310"/>
-      <c r="C72" s="310"/>
+      <c r="B72" s="327"/>
+      <c r="C72" s="327"/>
       <c r="J72" s="22"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="24"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="305" t="s">
+      <c r="B73" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="305"/>
+      <c r="C73" s="322"/>
       <c r="J73" s="22"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
@@ -36032,13 +36128,13 @@
       <c r="B75" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="292" t="s">
+      <c r="C75" s="309" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="292"/>
-      <c r="E75" s="292"/>
-      <c r="F75" s="292"/>
-      <c r="G75" s="292"/>
+      <c r="D75" s="309"/>
+      <c r="E75" s="309"/>
+      <c r="F75" s="309"/>
+      <c r="G75" s="309"/>
       <c r="H75" s="65"/>
       <c r="I75" s="96"/>
       <c r="J75" s="22"/>
@@ -36050,13 +36146,13 @@
       <c r="B76" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="292" t="s">
+      <c r="C76" s="309" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="292"/>
-      <c r="E76" s="292"/>
-      <c r="F76" s="292"/>
-      <c r="G76" s="292"/>
+      <c r="D76" s="309"/>
+      <c r="E76" s="309"/>
+      <c r="F76" s="309"/>
+      <c r="G76" s="309"/>
       <c r="H76" s="65"/>
       <c r="J76" s="97"/>
       <c r="K76" s="23"/>
@@ -36067,13 +36163,13 @@
       <c r="B77" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="304" t="s">
+      <c r="C77" s="321" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="304"/>
-      <c r="E77" s="304"/>
-      <c r="F77" s="304"/>
-      <c r="G77" s="304"/>
+      <c r="D77" s="321"/>
+      <c r="E77" s="321"/>
+      <c r="F77" s="321"/>
+      <c r="G77" s="321"/>
       <c r="H77" s="64"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23"/>
@@ -36084,13 +36180,13 @@
       <c r="B78" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="292" t="s">
+      <c r="C78" s="309" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="292"/>
-      <c r="E78" s="292"/>
-      <c r="F78" s="292"/>
-      <c r="G78" s="292"/>
+      <c r="D78" s="309"/>
+      <c r="E78" s="309"/>
+      <c r="F78" s="309"/>
+      <c r="G78" s="309"/>
       <c r="H78" s="65"/>
       <c r="J78" s="22"/>
       <c r="K78" s="23"/>
@@ -36101,16 +36197,16 @@
       <c r="B79" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="292" t="s">
+      <c r="C79" s="309" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="292"/>
-      <c r="E79" s="292"/>
-      <c r="F79" s="292"/>
-      <c r="G79" s="292"/>
+      <c r="D79" s="309"/>
+      <c r="E79" s="309"/>
+      <c r="F79" s="309"/>
+      <c r="G79" s="309"/>
       <c r="H79" s="65"/>
-      <c r="J79" s="327"/>
-      <c r="K79" s="327"/>
+      <c r="J79" s="344"/>
+      <c r="K79" s="344"/>
       <c r="L79" s="23"/>
       <c r="M79" s="24"/>
     </row>
@@ -36118,13 +36214,13 @@
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="304" t="s">
+      <c r="C80" s="321" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="304"/>
-      <c r="E80" s="304"/>
-      <c r="F80" s="304"/>
-      <c r="G80" s="304"/>
+      <c r="D80" s="321"/>
+      <c r="E80" s="321"/>
+      <c r="F80" s="321"/>
+      <c r="G80" s="321"/>
       <c r="H80" s="64"/>
       <c r="J80" s="22"/>
       <c r="K80" s="23"/>
@@ -36135,13 +36231,13 @@
       <c r="B81" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="304" t="s">
+      <c r="C81" s="321" t="s">
         <v>78</v>
       </c>
-      <c r="D81" s="304"/>
-      <c r="E81" s="304"/>
-      <c r="F81" s="304"/>
-      <c r="G81" s="304"/>
+      <c r="D81" s="321"/>
+      <c r="E81" s="321"/>
+      <c r="F81" s="321"/>
+      <c r="G81" s="321"/>
       <c r="H81" s="64"/>
       <c r="J81" s="22"/>
       <c r="K81" s="23"/>
@@ -36152,13 +36248,13 @@
       <c r="B82" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="292" t="s">
+      <c r="C82" s="309" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="292"/>
-      <c r="E82" s="292"/>
-      <c r="F82" s="292"/>
-      <c r="G82" s="292"/>
+      <c r="D82" s="309"/>
+      <c r="E82" s="309"/>
+      <c r="F82" s="309"/>
+      <c r="G82" s="309"/>
       <c r="H82" s="65"/>
       <c r="J82" s="22"/>
       <c r="K82" s="23"/>
@@ -36169,13 +36265,13 @@
       <c r="B83" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="292" t="s">
+      <c r="C83" s="309" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="292"/>
-      <c r="E83" s="292"/>
-      <c r="F83" s="292"/>
-      <c r="G83" s="292"/>
+      <c r="D83" s="309"/>
+      <c r="E83" s="309"/>
+      <c r="F83" s="309"/>
+      <c r="G83" s="309"/>
       <c r="H83" s="79"/>
       <c r="J83" s="22"/>
       <c r="K83" s="23"/>
@@ -37772,13 +37868,13 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="329" t="s">
+      <c r="B7" s="346" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="329"/>
-      <c r="D7" s="329"/>
-      <c r="E7" s="329"/>
-      <c r="F7" s="329"/>
+      <c r="C7" s="346"/>
+      <c r="D7" s="346"/>
+      <c r="E7" s="346"/>
+      <c r="F7" s="346"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
@@ -37787,10 +37883,10 @@
       <c r="C9" s="41"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="312" t="s">
+      <c r="B10" s="329" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="313"/>
+      <c r="C10" s="330"/>
       <c r="D10" s="9" t="s">
         <v>0</v>
       </c>
@@ -37802,10 +37898,10 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="312" t="s">
+      <c r="B11" s="329" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="313"/>
+      <c r="C11" s="330"/>
       <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
@@ -37817,10 +37913,10 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="312" t="s">
+      <c r="B12" s="329" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="313"/>
+      <c r="C12" s="330"/>
       <c r="D12" s="9" t="s">
         <v>92</v>
       </c>
@@ -37833,10 +37929,10 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="312" t="s">
+      <c r="B13" s="329" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="313"/>
+      <c r="C13" s="330"/>
       <c r="D13" s="9" t="s">
         <v>2</v>
       </c>
@@ -37848,10 +37944,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="312" t="s">
+      <c r="B14" s="329" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="313"/>
+      <c r="C14" s="330"/>
       <c r="D14" s="36"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3" t="s">
@@ -37859,11 +37955,11 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="312" t="str">
+      <c r="B15" s="329" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F14</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C15" s="313"/>
+      <c r="C15" s="330"/>
       <c r="D15" s="8" t="s">
         <v>108</v>
       </c>
@@ -37873,10 +37969,10 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="312" t="s">
+      <c r="B16" s="329" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="313"/>
+      <c r="C16" s="330"/>
       <c r="D16" s="9" t="s">
         <v>11</v>
       </c>
@@ -37889,10 +37985,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="312" t="s">
+      <c r="B17" s="329" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="313"/>
+      <c r="C17" s="330"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -37905,10 +38001,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="312" t="s">
+      <c r="B18" s="329" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="313"/>
+      <c r="C18" s="330"/>
       <c r="D18" s="25" t="s">
         <v>13</v>
       </c>
@@ -37922,10 +38018,10 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="312" t="s">
+      <c r="B19" s="329" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="313"/>
+      <c r="C19" s="330"/>
       <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
@@ -37938,10 +38034,10 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="312" t="s">
+      <c r="B20" s="329" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="313"/>
+      <c r="C20" s="330"/>
       <c r="D20" s="7" t="s">
         <v>24</v>
       </c>
@@ -37970,10 +38066,10 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="312" t="s">
+      <c r="B23" s="329" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="313"/>
+      <c r="C23" s="330"/>
       <c r="D23" s="9" t="s">
         <v>46</v>
       </c>
@@ -37985,10 +38081,10 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="331" t="s">
+      <c r="B24" s="348" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="332"/>
+      <c r="C24" s="349"/>
       <c r="D24" s="28" t="s">
         <v>61</v>
       </c>
@@ -38017,22 +38113,22 @@
       <c r="C27" s="41"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="328" t="s">
+      <c r="B28" s="345" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="328"/>
-      <c r="D28" s="328"/>
-      <c r="E28" s="328"/>
-      <c r="F28" s="328"/>
-      <c r="G28" s="328"/>
+      <c r="C28" s="345"/>
+      <c r="D28" s="345"/>
+      <c r="E28" s="345"/>
+      <c r="F28" s="345"/>
+      <c r="G28" s="345"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="328"/>
-      <c r="C29" s="328"/>
-      <c r="D29" s="328"/>
-      <c r="E29" s="328"/>
-      <c r="F29" s="328"/>
-      <c r="G29" s="328"/>
+      <c r="B29" s="345"/>
+      <c r="C29" s="345"/>
+      <c r="D29" s="345"/>
+      <c r="E29" s="345"/>
+      <c r="F29" s="345"/>
+      <c r="G29" s="345"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="53"/>
@@ -38043,10 +38139,10 @@
       <c r="G30" s="53"/>
     </row>
     <row r="31" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="293" t="s">
+      <c r="B31" s="310" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="294"/>
+      <c r="C31" s="311"/>
       <c r="D31" s="51" t="s">
         <v>137</v>
       </c>
@@ -38060,10 +38156,10 @@
       <c r="G31" s="53"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="293" t="s">
+      <c r="B32" s="310" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="294"/>
+      <c r="C32" s="311"/>
       <c r="D32" s="51" t="s">
         <v>14</v>
       </c>
@@ -38103,10 +38199,10 @@
       <c r="G35" s="53"/>
     </row>
     <row r="36" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="293" t="s">
+      <c r="B36" s="310" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="294"/>
+      <c r="C36" s="311"/>
       <c r="D36" s="55" t="s">
         <v>91</v>
       </c>
@@ -38128,14 +38224,14 @@
       <c r="G37" s="53"/>
     </row>
     <row r="38" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="328" t="s">
+      <c r="B38" s="345" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="328"/>
-      <c r="D38" s="328"/>
-      <c r="E38" s="328"/>
-      <c r="F38" s="328"/>
-      <c r="G38" s="328"/>
+      <c r="C38" s="345"/>
+      <c r="D38" s="345"/>
+      <c r="E38" s="345"/>
+      <c r="F38" s="345"/>
+      <c r="G38" s="345"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="53"/>
@@ -38146,10 +38242,10 @@
       <c r="G39" s="53"/>
     </row>
     <row r="40" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="293" t="s">
+      <c r="B40" s="310" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="294"/>
+      <c r="C40" s="311"/>
       <c r="D40" s="51" t="s">
         <v>131</v>
       </c>
@@ -38163,10 +38259,10 @@
       <c r="G40" s="49"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="293" t="s">
+      <c r="B41" s="310" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="294"/>
+      <c r="C41" s="311"/>
       <c r="D41" s="48" t="s">
         <v>144</v>
       </c>
@@ -38181,10 +38277,10 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="293" t="s">
+      <c r="B42" s="310" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="294"/>
+      <c r="C42" s="311"/>
       <c r="D42" s="45" t="s">
         <v>135</v>
       </c>
@@ -38224,10 +38320,10 @@
       <c r="G45" s="53"/>
     </row>
     <row r="46" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="293" t="s">
+      <c r="B46" s="310" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="294"/>
+      <c r="C46" s="311"/>
       <c r="D46" s="51" t="s">
         <v>88</v>
       </c>
@@ -38239,10 +38335,10 @@
       <c r="G46" s="49"/>
     </row>
     <row r="47" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="293" t="s">
+      <c r="B47" s="310" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="294"/>
+      <c r="C47" s="311"/>
       <c r="D47" s="51" t="s">
         <v>101</v>
       </c>
@@ -38254,10 +38350,10 @@
       <c r="G47" s="49"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="293" t="s">
+      <c r="B48" s="310" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="294"/>
+      <c r="C48" s="311"/>
       <c r="D48" s="51" t="s">
         <v>145</v>
       </c>
@@ -38295,10 +38391,10 @@
       <c r="G51" s="53"/>
     </row>
     <row r="52" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="293" t="s">
+      <c r="B52" s="310" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="294"/>
+      <c r="C52" s="311"/>
       <c r="D52" s="51" t="s">
         <v>146</v>
       </c>
@@ -38356,10 +38452,10 @@
       <c r="G57" s="53"/>
     </row>
     <row r="58" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="293" t="s">
+      <c r="B58" s="310" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="294"/>
+      <c r="C58" s="311"/>
       <c r="D58" s="56" t="s">
         <v>1</v>
       </c>
@@ -38397,10 +38493,10 @@
       <c r="G61" s="53"/>
     </row>
     <row r="62" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="293" t="s">
+      <c r="B62" s="310" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="294"/>
+      <c r="C62" s="311"/>
       <c r="D62" s="48" t="s">
         <v>136</v>
       </c>
@@ -38422,14 +38518,14 @@
       <c r="G63" s="53"/>
     </row>
     <row r="64" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="328" t="s">
+      <c r="B64" s="345" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="328"/>
-      <c r="D64" s="328"/>
-      <c r="E64" s="328"/>
-      <c r="F64" s="328"/>
-      <c r="G64" s="328"/>
+      <c r="C64" s="345"/>
+      <c r="D64" s="345"/>
+      <c r="E64" s="345"/>
+      <c r="F64" s="345"/>
+      <c r="G64" s="345"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="53"/>
@@ -38440,10 +38536,10 @@
       <c r="G65" s="53"/>
     </row>
     <row r="66" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="293" t="s">
+      <c r="B66" s="310" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="294"/>
+      <c r="C66" s="311"/>
       <c r="D66" s="51" t="s">
         <v>27</v>
       </c>
@@ -38483,10 +38579,10 @@
       <c r="G69" s="53"/>
     </row>
     <row r="70" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="293" t="s">
+      <c r="B70" s="310" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="294"/>
+      <c r="C70" s="311"/>
       <c r="D70" s="48" t="s">
         <v>138</v>
       </c>
@@ -38500,10 +38596,10 @@
       <c r="G70" s="49"/>
     </row>
     <row r="71" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="293" t="s">
+      <c r="B71" s="310" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="294"/>
+      <c r="C71" s="311"/>
       <c r="D71" s="51" t="s">
         <v>139</v>
       </c>
@@ -38517,10 +38613,10 @@
       <c r="G71" s="49"/>
     </row>
     <row r="72" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="293" t="s">
+      <c r="B72" s="310" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="294"/>
+      <c r="C72" s="311"/>
       <c r="D72" s="51" t="s">
         <v>140</v>
       </c>
@@ -38534,10 +38630,10 @@
       <c r="G72" s="49"/>
     </row>
     <row r="73" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="293" t="s">
+      <c r="B73" s="310" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="294"/>
+      <c r="C73" s="311"/>
       <c r="D73" s="51" t="s">
         <v>142</v>
       </c>
@@ -38557,46 +38653,46 @@
       <c r="C75" s="41"/>
     </row>
     <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="330" t="s">
+      <c r="B76" s="347" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="330"/>
-      <c r="D76" s="330"/>
-      <c r="E76" s="330"/>
-      <c r="F76" s="330"/>
-      <c r="G76" s="330"/>
+      <c r="C76" s="347"/>
+      <c r="D76" s="347"/>
+      <c r="E76" s="347"/>
+      <c r="F76" s="347"/>
+      <c r="G76" s="347"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="330"/>
-      <c r="C77" s="330"/>
-      <c r="D77" s="330"/>
-      <c r="E77" s="330"/>
-      <c r="F77" s="330"/>
-      <c r="G77" s="330"/>
+      <c r="B77" s="347"/>
+      <c r="C77" s="347"/>
+      <c r="D77" s="347"/>
+      <c r="E77" s="347"/>
+      <c r="F77" s="347"/>
+      <c r="G77" s="347"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="330"/>
-      <c r="C78" s="330"/>
-      <c r="D78" s="330"/>
-      <c r="E78" s="330"/>
-      <c r="F78" s="330"/>
-      <c r="G78" s="330"/>
+      <c r="B78" s="347"/>
+      <c r="C78" s="347"/>
+      <c r="D78" s="347"/>
+      <c r="E78" s="347"/>
+      <c r="F78" s="347"/>
+      <c r="G78" s="347"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="330"/>
-      <c r="C79" s="330"/>
-      <c r="D79" s="330"/>
-      <c r="E79" s="330"/>
-      <c r="F79" s="330"/>
-      <c r="G79" s="330"/>
+      <c r="B79" s="347"/>
+      <c r="C79" s="347"/>
+      <c r="D79" s="347"/>
+      <c r="E79" s="347"/>
+      <c r="F79" s="347"/>
+      <c r="G79" s="347"/>
     </row>
     <row r="80" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="330"/>
-      <c r="C80" s="330"/>
-      <c r="D80" s="330"/>
-      <c r="E80" s="330"/>
-      <c r="F80" s="330"/>
-      <c r="G80" s="330"/>
+      <c r="B80" s="347"/>
+      <c r="C80" s="347"/>
+      <c r="D80" s="347"/>
+      <c r="E80" s="347"/>
+      <c r="F80" s="347"/>
+      <c r="G80" s="347"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="42"/>
@@ -38680,8 +38776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P157" sqref="P157"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38729,11 +38825,11 @@
     </row>
     <row r="2" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="438"/>
-      <c r="C2" s="438"/>
-      <c r="D2" s="438"/>
-      <c r="E2" s="438"/>
-      <c r="F2" s="438"/>
+      <c r="B2" s="468"/>
+      <c r="C2" s="468"/>
+      <c r="D2" s="468"/>
+      <c r="E2" s="468"/>
+      <c r="F2" s="468"/>
       <c r="G2" s="254" t="s">
         <v>119</v>
       </c>
@@ -38746,11 +38842,11 @@
     </row>
     <row r="3" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="438"/>
-      <c r="C3" s="438"/>
-      <c r="D3" s="438"/>
-      <c r="E3" s="438"/>
-      <c r="F3" s="438"/>
+      <c r="B3" s="468"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="468"/>
+      <c r="F3" s="468"/>
       <c r="G3" s="254" t="s">
         <v>120</v>
       </c>
@@ -38763,11 +38859,11 @@
     </row>
     <row r="4" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="438"/>
-      <c r="C4" s="438"/>
-      <c r="D4" s="438"/>
-      <c r="E4" s="438"/>
-      <c r="F4" s="438"/>
+      <c r="B4" s="468"/>
+      <c r="C4" s="468"/>
+      <c r="D4" s="468"/>
+      <c r="E4" s="468"/>
+      <c r="F4" s="468"/>
       <c r="G4" s="254" t="s">
         <v>121</v>
       </c>
@@ -38780,11 +38876,11 @@
     </row>
     <row r="5" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="438"/>
-      <c r="C5" s="438"/>
-      <c r="D5" s="438"/>
-      <c r="E5" s="438"/>
-      <c r="F5" s="438"/>
+      <c r="B5" s="468"/>
+      <c r="C5" s="468"/>
+      <c r="D5" s="468"/>
+      <c r="E5" s="468"/>
+      <c r="F5" s="468"/>
       <c r="G5" s="254" t="s">
         <v>314</v>
       </c>
@@ -38857,23 +38953,23 @@
       </c>
       <c r="AJ7" s="217"/>
       <c r="AK7" s="217"/>
-      <c r="AL7" s="464" t="s">
+      <c r="AL7" s="296" t="s">
         <v>400</v>
       </c>
-      <c r="AM7" s="464" t="s">
+      <c r="AM7" s="296" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="311" t="s">
+      <c r="B8" s="328" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="311"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="311"/>
-      <c r="F8" s="311"/>
-      <c r="G8" s="311"/>
-      <c r="H8" s="311"/>
+      <c r="C8" s="328"/>
+      <c r="D8" s="328"/>
+      <c r="E8" s="328"/>
+      <c r="F8" s="328"/>
+      <c r="G8" s="328"/>
+      <c r="H8" s="328"/>
       <c r="I8" s="247" t="s">
         <v>310</v>
       </c>
@@ -38882,10 +38978,10 @@
       </c>
       <c r="K8" s="49"/>
       <c r="L8" s="253"/>
-      <c r="X8" s="311" t="s">
+      <c r="X8" s="328" t="s">
         <v>315</v>
       </c>
-      <c r="Y8" s="311"/>
+      <c r="Y8" s="328"/>
       <c r="Z8" s="116"/>
       <c r="AA8" s="13" t="s">
         <v>313</v>
@@ -38907,21 +39003,21 @@
       <c r="AL8" s="165" t="s">
         <v>397</v>
       </c>
-      <c r="AM8" s="465">
+      <c r="AM8" s="297">
         <f>((4*0.0254)^2)</f>
         <v>1.032256E-2</v>
       </c>
     </row>
     <row r="9" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="311" t="s">
+      <c r="B9" s="328" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="311"/>
-      <c r="D9" s="311"/>
-      <c r="E9" s="311"/>
-      <c r="F9" s="311"/>
-      <c r="G9" s="311"/>
-      <c r="H9" s="311"/>
+      <c r="C9" s="328"/>
+      <c r="D9" s="328"/>
+      <c r="E9" s="328"/>
+      <c r="F9" s="328"/>
+      <c r="G9" s="328"/>
+      <c r="H9" s="328"/>
       <c r="I9" s="247" t="s">
         <v>311</v>
       </c>
@@ -38930,10 +39026,10 @@
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="253"/>
-      <c r="X9" s="311" t="s">
+      <c r="X9" s="328" t="s">
         <v>316</v>
       </c>
-      <c r="Y9" s="311"/>
+      <c r="Y9" s="328"/>
       <c r="Z9" s="116"/>
       <c r="AA9" s="13" t="s">
         <v>326</v>
@@ -38959,21 +39055,21 @@
       <c r="AL9" s="165" t="s">
         <v>398</v>
       </c>
-      <c r="AM9" s="465">
+      <c r="AM9" s="297">
         <f>((6*0.0254)^2)</f>
         <v>2.3225759999999995E-2</v>
       </c>
     </row>
     <row r="10" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="311" t="s">
+      <c r="B10" s="328" t="s">
         <v>304</v>
       </c>
-      <c r="C10" s="311"/>
-      <c r="D10" s="311"/>
-      <c r="E10" s="311"/>
-      <c r="F10" s="311"/>
-      <c r="G10" s="311"/>
-      <c r="H10" s="311"/>
+      <c r="C10" s="328"/>
+      <c r="D10" s="328"/>
+      <c r="E10" s="328"/>
+      <c r="F10" s="328"/>
+      <c r="G10" s="328"/>
+      <c r="H10" s="328"/>
       <c r="I10" s="247" t="s">
         <v>305</v>
       </c>
@@ -38983,7 +39079,7 @@
       <c r="K10" s="247" t="s">
         <v>291</v>
       </c>
-      <c r="L10" s="253"/>
+      <c r="L10" s="496"/>
       <c r="X10" s="192" t="s">
         <v>317</v>
       </c>
@@ -39013,7 +39109,7 @@
       <c r="AL10" s="165" t="s">
         <v>399</v>
       </c>
-      <c r="AM10" s="465">
+      <c r="AM10" s="297">
         <f>((8*0.0254)^2)</f>
         <v>4.1290239999999999E-2</v>
       </c>
@@ -39022,15 +39118,15 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="311" t="s">
+      <c r="B11" s="328" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="311"/>
-      <c r="D11" s="311"/>
-      <c r="E11" s="311"/>
-      <c r="F11" s="311"/>
-      <c r="G11" s="311"/>
-      <c r="H11" s="311"/>
+      <c r="C11" s="328"/>
+      <c r="D11" s="328"/>
+      <c r="E11" s="328"/>
+      <c r="F11" s="328"/>
+      <c r="G11" s="328"/>
+      <c r="H11" s="328"/>
       <c r="I11" s="247" t="s">
         <v>302</v>
       </c>
@@ -39041,7 +39137,7 @@
       <c r="K11" s="247" t="s">
         <v>291</v>
       </c>
-      <c r="L11" s="249"/>
+      <c r="L11" s="497"/>
       <c r="X11" s="192" t="s">
         <v>357</v>
       </c>
@@ -39069,21 +39165,21 @@
       <c r="AL11" s="165" t="s">
         <v>401</v>
       </c>
-      <c r="AM11" s="465">
+      <c r="AM11" s="297">
         <f>((10*0.0254)^2)</f>
         <v>6.4516000000000004E-2</v>
       </c>
     </row>
     <row r="12" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="311" t="s">
+      <c r="B12" s="328" t="s">
         <v>306</v>
       </c>
-      <c r="C12" s="311"/>
-      <c r="D12" s="311"/>
-      <c r="E12" s="311"/>
-      <c r="F12" s="311"/>
-      <c r="G12" s="311"/>
-      <c r="H12" s="311"/>
+      <c r="C12" s="328"/>
+      <c r="D12" s="328"/>
+      <c r="E12" s="328"/>
+      <c r="F12" s="328"/>
+      <c r="G12" s="328"/>
+      <c r="H12" s="328"/>
       <c r="I12" s="247" t="s">
         <v>346</v>
       </c>
@@ -39094,7 +39190,7 @@
       <c r="K12" s="247" t="s">
         <v>291</v>
       </c>
-      <c r="L12" s="249"/>
+      <c r="L12" s="497"/>
       <c r="X12" s="268" t="s">
         <v>359</v>
       </c>
@@ -39120,7 +39216,7 @@
       <c r="AL12" s="165" t="s">
         <v>402</v>
       </c>
-      <c r="AM12" s="465">
+      <c r="AM12" s="297">
         <f>((12*0.0254)^2)</f>
         <v>9.2903039999999978E-2</v>
       </c>
@@ -39160,7 +39256,7 @@
       <c r="AL13" s="165" t="s">
         <v>403</v>
       </c>
-      <c r="AM13" s="465">
+      <c r="AM13" s="297">
         <f>((14*0.0254)^2)</f>
         <v>0.12645135999999998</v>
       </c>
@@ -39202,24 +39298,24 @@
       <c r="AL14" s="165" t="s">
         <v>404</v>
       </c>
-      <c r="AM14" s="465">
+      <c r="AM14" s="297">
         <f>((16*0.0254)^2)</f>
         <v>0.16516096</v>
       </c>
     </row>
     <row r="15" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="293" t="s">
+      <c r="B15" s="310" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="352"/>
-      <c r="D15" s="352"/>
-      <c r="E15" s="352"/>
-      <c r="F15" s="352"/>
-      <c r="G15" s="294"/>
-      <c r="H15" s="293" t="s">
+      <c r="C15" s="369"/>
+      <c r="D15" s="369"/>
+      <c r="E15" s="369"/>
+      <c r="F15" s="369"/>
+      <c r="G15" s="311"/>
+      <c r="H15" s="310" t="s">
         <v>313</v>
       </c>
-      <c r="I15" s="294"/>
+      <c r="I15" s="311"/>
       <c r="J15" s="208"/>
       <c r="K15" s="196"/>
       <c r="L15" s="249"/>
@@ -39246,25 +39342,25 @@
       <c r="AL15" s="165" t="s">
         <v>405</v>
       </c>
-      <c r="AM15" s="465">
+      <c r="AM15" s="297">
         <f>((18*0.0254)^2)</f>
         <v>0.20903184</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="293" t="s">
+      <c r="B16" s="310" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="352"/>
-      <c r="D16" s="352"/>
-      <c r="E16" s="352"/>
-      <c r="F16" s="352"/>
-      <c r="G16" s="294"/>
-      <c r="H16" s="293" t="str">
+      <c r="C16" s="369"/>
+      <c r="D16" s="369"/>
+      <c r="E16" s="369"/>
+      <c r="F16" s="369"/>
+      <c r="G16" s="311"/>
+      <c r="H16" s="310" t="str">
         <f>IF($H$15=$AA$8,$AA$9,IF($H$15=$AB$8,$AB$9,""))</f>
         <v>Arena</v>
       </c>
-      <c r="I16" s="294"/>
+      <c r="I16" s="311"/>
       <c r="J16" s="208"/>
       <c r="K16" s="196"/>
       <c r="L16" s="249"/>
@@ -39291,25 +39387,25 @@
       <c r="AL16" s="165" t="s">
         <v>406</v>
       </c>
-      <c r="AM16" s="465">
+      <c r="AM16" s="297">
         <f>((20*0.0254)^2)</f>
         <v>0.25806400000000002</v>
       </c>
     </row>
     <row r="17" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="293" t="s">
+      <c r="B17" s="310" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="352"/>
-      <c r="D17" s="352"/>
-      <c r="E17" s="352"/>
-      <c r="F17" s="352"/>
-      <c r="G17" s="294"/>
-      <c r="H17" s="293" t="str">
+      <c r="C17" s="369"/>
+      <c r="D17" s="369"/>
+      <c r="E17" s="369"/>
+      <c r="F17" s="369"/>
+      <c r="G17" s="311"/>
+      <c r="H17" s="310" t="str">
         <f>IF($H$15=$AA$8,AA10,IF($H$15=$AB$8,AB10,""))</f>
         <v>Estratificado fino a grueso</v>
       </c>
-      <c r="I17" s="294"/>
+      <c r="I17" s="311"/>
       <c r="J17" s="208"/>
       <c r="K17" s="196"/>
       <c r="L17" s="249"/>
@@ -39335,18 +39431,18 @@
       <c r="AK17" s="217"/>
     </row>
     <row r="18" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="293" t="s">
+      <c r="B18" s="310" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="352"/>
-      <c r="D18" s="352"/>
-      <c r="E18" s="352"/>
-      <c r="F18" s="352"/>
-      <c r="G18" s="294"/>
-      <c r="H18" s="293" t="s">
+      <c r="C18" s="369"/>
+      <c r="D18" s="369"/>
+      <c r="E18" s="369"/>
+      <c r="F18" s="369"/>
+      <c r="G18" s="311"/>
+      <c r="H18" s="310" t="s">
         <v>328</v>
       </c>
-      <c r="I18" s="294"/>
+      <c r="I18" s="311"/>
       <c r="J18" s="208"/>
       <c r="K18" s="196"/>
       <c r="L18" s="249"/>
@@ -39368,19 +39464,19 @@
       <c r="AK18" s="217"/>
     </row>
     <row r="19" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="293" t="s">
+      <c r="B19" s="310" t="s">
         <v>357</v>
       </c>
-      <c r="C19" s="352"/>
-      <c r="D19" s="352"/>
-      <c r="E19" s="352"/>
-      <c r="F19" s="352"/>
-      <c r="G19" s="294"/>
-      <c r="H19" s="350">
+      <c r="C19" s="369"/>
+      <c r="D19" s="369"/>
+      <c r="E19" s="369"/>
+      <c r="F19" s="369"/>
+      <c r="G19" s="311"/>
+      <c r="H19" s="367">
         <f t="shared" ref="H19:H25" si="0">IF($H$15=$AA$8,AA11,IF($H$15=$AB$8,AB11,""))</f>
         <v>120</v>
       </c>
-      <c r="I19" s="351"/>
+      <c r="I19" s="368"/>
       <c r="J19" s="247" t="s">
         <v>4</v>
       </c>
@@ -39411,23 +39507,23 @@
       <c r="AK19" s="217"/>
     </row>
     <row r="20" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="293" t="s">
+      <c r="B20" s="430" t="s">
         <v>359</v>
       </c>
-      <c r="C20" s="352"/>
-      <c r="D20" s="352"/>
-      <c r="E20" s="352"/>
-      <c r="F20" s="352"/>
-      <c r="G20" s="294"/>
-      <c r="H20" s="350">
+      <c r="C20" s="431"/>
+      <c r="D20" s="431"/>
+      <c r="E20" s="431"/>
+      <c r="F20" s="431"/>
+      <c r="G20" s="432"/>
+      <c r="H20" s="367">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I20" s="351"/>
+      <c r="I20" s="368"/>
       <c r="J20" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="196"/>
+      <c r="K20" s="494"/>
       <c r="L20" s="249"/>
       <c r="M20" s="236"/>
       <c r="N20" s="236"/>
@@ -39452,19 +39548,19 @@
       <c r="AK20" s="217"/>
     </row>
     <row r="21" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="293" t="s">
+      <c r="B21" s="310" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="352"/>
-      <c r="D21" s="352"/>
-      <c r="E21" s="352"/>
-      <c r="F21" s="352"/>
-      <c r="G21" s="294"/>
-      <c r="H21" s="350" t="str">
+      <c r="C21" s="369"/>
+      <c r="D21" s="369"/>
+      <c r="E21" s="369"/>
+      <c r="F21" s="369"/>
+      <c r="G21" s="311"/>
+      <c r="H21" s="367" t="str">
         <f t="shared" si="0"/>
         <v>12 - 36</v>
       </c>
-      <c r="I21" s="351"/>
+      <c r="I21" s="368"/>
       <c r="J21" s="266" t="s">
         <v>331</v>
       </c>
@@ -39491,19 +39587,19 @@
       <c r="AK21" s="217"/>
     </row>
     <row r="22" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="293" t="s">
+      <c r="B22" s="310" t="s">
         <v>319</v>
       </c>
-      <c r="C22" s="352"/>
-      <c r="D22" s="352"/>
-      <c r="E22" s="352"/>
-      <c r="F22" s="352"/>
-      <c r="G22" s="294"/>
-      <c r="H22" s="350">
+      <c r="C22" s="369"/>
+      <c r="D22" s="369"/>
+      <c r="E22" s="369"/>
+      <c r="F22" s="369"/>
+      <c r="G22" s="311"/>
+      <c r="H22" s="367">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="I22" s="351"/>
+      <c r="I22" s="368"/>
       <c r="J22" s="266" t="s">
         <v>3</v>
       </c>
@@ -39530,19 +39626,19 @@
       <c r="AK22" s="217"/>
     </row>
     <row r="23" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="293" t="s">
+      <c r="B23" s="310" t="s">
         <v>320</v>
       </c>
-      <c r="C23" s="352"/>
-      <c r="D23" s="352"/>
-      <c r="E23" s="352"/>
-      <c r="F23" s="352"/>
-      <c r="G23" s="294"/>
-      <c r="H23" s="350" t="str">
+      <c r="C23" s="369"/>
+      <c r="D23" s="369"/>
+      <c r="E23" s="369"/>
+      <c r="F23" s="369"/>
+      <c r="G23" s="311"/>
+      <c r="H23" s="367" t="str">
         <f t="shared" si="0"/>
         <v>2,4 - 3,0</v>
       </c>
-      <c r="I23" s="351"/>
+      <c r="I23" s="368"/>
       <c r="J23" s="266" t="s">
         <v>3</v>
       </c>
@@ -39567,19 +39663,19 @@
       <c r="AK23" s="217"/>
     </row>
     <row r="24" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="293" t="s">
+      <c r="B24" s="310" t="s">
         <v>330</v>
       </c>
-      <c r="C24" s="352"/>
-      <c r="D24" s="352"/>
-      <c r="E24" s="352"/>
-      <c r="F24" s="352"/>
-      <c r="G24" s="294"/>
-      <c r="H24" s="350" t="str">
+      <c r="C24" s="369"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="311"/>
+      <c r="H24" s="367" t="str">
         <f t="shared" si="0"/>
         <v>2 - 4</v>
       </c>
-      <c r="I24" s="351"/>
+      <c r="I24" s="368"/>
       <c r="J24" s="266" t="s">
         <v>332</v>
       </c>
@@ -39588,11 +39684,11 @@
       <c r="M24" s="236"/>
       <c r="N24" s="236"/>
       <c r="O24" s="236"/>
-      <c r="X24" s="334"/>
-      <c r="Y24" s="334"/>
+      <c r="X24" s="351"/>
+      <c r="Y24" s="351"/>
       <c r="Z24" s="207"/>
-      <c r="AA24" s="333"/>
-      <c r="AB24" s="333"/>
+      <c r="AA24" s="350"/>
+      <c r="AB24" s="350"/>
       <c r="AC24" s="113"/>
       <c r="AD24" s="217"/>
       <c r="AE24" s="217"/>
@@ -39604,20 +39700,20 @@
       <c r="AK24" s="217"/>
     </row>
     <row r="25" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="293" t="str">
+      <c r="B25" s="310" t="str">
         <f>IF($H$15=$AA$8,$X$17,IF($H$15=$AB$8,X17&amp;" (antracita)",IF($H$15="",X17&amp;" (antracita)")))</f>
         <v>Profundidad del medio</v>
       </c>
-      <c r="C25" s="352"/>
-      <c r="D25" s="352"/>
-      <c r="E25" s="352"/>
-      <c r="F25" s="352"/>
-      <c r="G25" s="294"/>
-      <c r="H25" s="350" t="str">
+      <c r="C25" s="369"/>
+      <c r="D25" s="369"/>
+      <c r="E25" s="369"/>
+      <c r="F25" s="369"/>
+      <c r="G25" s="311"/>
+      <c r="H25" s="367" t="str">
         <f t="shared" si="0"/>
         <v>0,60 - 0,75</v>
       </c>
-      <c r="I25" s="351"/>
+      <c r="I25" s="368"/>
       <c r="J25" s="266" t="s">
         <v>3</v>
       </c>
@@ -39626,11 +39722,11 @@
       <c r="M25" s="236"/>
       <c r="N25" s="236"/>
       <c r="O25" s="236"/>
-      <c r="X25" s="334"/>
-      <c r="Y25" s="334"/>
+      <c r="X25" s="351"/>
+      <c r="Y25" s="351"/>
       <c r="Z25" s="207"/>
-      <c r="AA25" s="333"/>
-      <c r="AB25" s="333"/>
+      <c r="AA25" s="350"/>
+      <c r="AB25" s="350"/>
       <c r="AC25" s="113"/>
       <c r="AD25" s="217"/>
       <c r="AE25" s="217"/>
@@ -39642,20 +39738,20 @@
       <c r="AK25" s="217"/>
     </row>
     <row r="26" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="293" t="str">
+      <c r="B26" s="310" t="str">
         <f>IF($H$15=$AA$8,$X$19,IF($H$15=$AB$8,X17&amp;" (arena)",IF($H$15="",X17&amp;" (arena)")))</f>
         <v>Profundidad de grava</v>
       </c>
-      <c r="C26" s="352"/>
-      <c r="D26" s="352"/>
-      <c r="E26" s="352"/>
-      <c r="F26" s="352"/>
-      <c r="G26" s="294"/>
-      <c r="H26" s="350" t="str">
+      <c r="C26" s="369"/>
+      <c r="D26" s="369"/>
+      <c r="E26" s="369"/>
+      <c r="F26" s="369"/>
+      <c r="G26" s="311"/>
+      <c r="H26" s="367" t="str">
         <f>IF($H$15=$AA$8,AA19,IF($H$15=$AB$8,AB18,""))</f>
         <v>0,30 - 0,45</v>
       </c>
-      <c r="I26" s="351"/>
+      <c r="I26" s="368"/>
       <c r="J26" s="266" t="s">
         <v>3</v>
       </c>
@@ -39664,11 +39760,11 @@
       <c r="M26" s="236"/>
       <c r="N26" s="236"/>
       <c r="O26" s="236"/>
-      <c r="X26" s="334"/>
-      <c r="Y26" s="334"/>
+      <c r="X26" s="351"/>
+      <c r="Y26" s="351"/>
       <c r="Z26" s="207"/>
-      <c r="AA26" s="333"/>
-      <c r="AB26" s="333"/>
+      <c r="AA26" s="350"/>
+      <c r="AB26" s="350"/>
       <c r="AD26" s="217"/>
       <c r="AE26" s="217"/>
       <c r="AF26" s="217"/>
@@ -39679,20 +39775,20 @@
       <c r="AK26" s="217"/>
     </row>
     <row r="27" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="293" t="str">
+      <c r="B27" s="310" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$X$19,IF($H$15="",$X$19)))</f>
         <v/>
       </c>
-      <c r="C27" s="352"/>
-      <c r="D27" s="352"/>
-      <c r="E27" s="352"/>
-      <c r="F27" s="352"/>
-      <c r="G27" s="352"/>
-      <c r="H27" s="350" t="str">
+      <c r="C27" s="369"/>
+      <c r="D27" s="369"/>
+      <c r="E27" s="369"/>
+      <c r="F27" s="369"/>
+      <c r="G27" s="369"/>
+      <c r="H27" s="367" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$AB$19,IF($H$15="","")))</f>
         <v/>
       </c>
-      <c r="I27" s="351"/>
+      <c r="I27" s="368"/>
       <c r="J27" s="267" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,"m",IF($H$15="","m")))</f>
         <v/>
@@ -39762,20 +39858,20 @@
       <c r="AB29" s="207"/>
     </row>
     <row r="30" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="311" t="s">
+      <c r="B30" s="328" t="s">
         <v>254</v>
       </c>
-      <c r="C30" s="311"/>
-      <c r="D30" s="311"/>
-      <c r="E30" s="311"/>
-      <c r="F30" s="311"/>
-      <c r="G30" s="311"/>
-      <c r="H30" s="311"/>
+      <c r="C30" s="328"/>
+      <c r="D30" s="328"/>
+      <c r="E30" s="328"/>
+      <c r="F30" s="328"/>
+      <c r="G30" s="328"/>
+      <c r="H30" s="328"/>
       <c r="I30" s="247" t="s">
         <v>251</v>
       </c>
       <c r="J30" s="198">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="K30" s="247" t="s">
         <v>255</v>
@@ -39788,22 +39884,22 @@
       <c r="AB30" s="207"/>
     </row>
     <row r="31" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="311" t="str">
+      <c r="B31" s="328" t="str">
         <f>"Densidad del agua a "&amp;J30&amp;" °C"</f>
-        <v>Densidad del agua a 28 °C</v>
-      </c>
-      <c r="C31" s="311"/>
-      <c r="D31" s="311"/>
-      <c r="E31" s="311"/>
-      <c r="F31" s="311"/>
-      <c r="G31" s="311"/>
-      <c r="H31" s="311"/>
+        <v>Densidad del agua a 3 °C</v>
+      </c>
+      <c r="C31" s="328"/>
+      <c r="D31" s="328"/>
+      <c r="E31" s="328"/>
+      <c r="F31" s="328"/>
+      <c r="G31" s="328"/>
+      <c r="H31" s="328"/>
       <c r="I31" s="275" t="s">
         <v>250</v>
       </c>
       <c r="J31" s="199">
         <f>IF(J30="…","",ROUND(VLOOKUP(J30,X$35:AA$70,2,FALSE),9))</f>
-        <v>996.31</v>
+        <v>999.98</v>
       </c>
       <c r="K31" s="247" t="s">
         <v>292</v>
@@ -39815,31 +39911,31 @@
       <c r="Y31" s="183" t="s">
         <v>312</v>
       </c>
-      <c r="Z31" s="354" t="s">
+      <c r="Z31" s="371" t="s">
         <v>248</v>
       </c>
-      <c r="AA31" s="354" t="s">
+      <c r="AA31" s="371" t="s">
         <v>246</v>
       </c>
       <c r="AB31" s="181"/>
     </row>
     <row r="32" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="311" t="str">
+      <c r="B32" s="328" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J30&amp;" °C"</f>
-        <v>Viscocidad dinámica del agua a 28 °C</v>
-      </c>
-      <c r="C32" s="311"/>
-      <c r="D32" s="311"/>
-      <c r="E32" s="311"/>
-      <c r="F32" s="311"/>
-      <c r="G32" s="311"/>
-      <c r="H32" s="311"/>
+        <v>Viscocidad dinámica del agua a 3 °C</v>
+      </c>
+      <c r="C32" s="328"/>
+      <c r="D32" s="328"/>
+      <c r="E32" s="328"/>
+      <c r="F32" s="328"/>
+      <c r="G32" s="328"/>
+      <c r="H32" s="328"/>
       <c r="I32" s="275" t="s">
         <v>213</v>
       </c>
       <c r="J32" s="255">
         <f>IF(J30="…","",ROUND(VLOOKUP(J30,X$35:AA$70,3,FALSE),9))</f>
-        <v>8.3600000000000005E-4</v>
+        <v>1.619E-3</v>
       </c>
       <c r="K32" s="204" t="s">
         <v>293</v>
@@ -39851,27 +39947,27 @@
       <c r="Y32" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="Z32" s="355"/>
-      <c r="AA32" s="355"/>
+      <c r="Z32" s="372"/>
+      <c r="AA32" s="372"/>
       <c r="AB32" s="181"/>
     </row>
     <row r="33" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="440" t="str">
+      <c r="B33" s="470" t="str">
         <f>"Viscocidad cinemática del agua a "&amp;J30&amp;" °C"</f>
-        <v>Viscocidad cinemática del agua a 28 °C</v>
-      </c>
-      <c r="C33" s="440"/>
-      <c r="D33" s="440"/>
-      <c r="E33" s="440"/>
-      <c r="F33" s="440"/>
-      <c r="G33" s="440"/>
-      <c r="H33" s="440"/>
+        <v>Viscocidad cinemática del agua a 3 °C</v>
+      </c>
+      <c r="C33" s="470"/>
+      <c r="D33" s="470"/>
+      <c r="E33" s="470"/>
+      <c r="F33" s="470"/>
+      <c r="G33" s="470"/>
+      <c r="H33" s="470"/>
       <c r="I33" s="51" t="s">
         <v>2</v>
       </c>
       <c r="J33" s="255">
         <f>IF(J30="…","",ROUND(VLOOKUP(J30,X$35:AA$70,4,FALSE),9))</f>
-        <v>8.3900000000000004E-7</v>
+        <v>1.6190000000000001E-6</v>
       </c>
       <c r="K33" s="204" t="s">
         <v>294</v>
@@ -39999,26 +40095,26 @@
       <c r="AB37" s="157"/>
     </row>
     <row r="38" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="383" t="s">
+      <c r="B38" s="404" t="s">
         <v>192</v>
       </c>
-      <c r="C38" s="384"/>
+      <c r="C38" s="405"/>
       <c r="D38" s="54"/>
       <c r="E38" s="248"/>
-      <c r="F38" s="337" t="s">
+      <c r="F38" s="354" t="s">
         <v>204</v>
       </c>
-      <c r="G38" s="337" t="s">
+      <c r="G38" s="354" t="s">
         <v>203</v>
       </c>
-      <c r="H38" s="406" t="s">
+      <c r="H38" s="436" t="s">
         <v>210</v>
       </c>
-      <c r="I38" s="407"/>
-      <c r="J38" s="406" t="s">
+      <c r="I38" s="437"/>
+      <c r="J38" s="436" t="s">
         <v>209</v>
       </c>
-      <c r="K38" s="407"/>
+      <c r="K38" s="437"/>
       <c r="L38" s="253"/>
       <c r="X38" s="165">
         <v>3</v>
@@ -40036,22 +40132,22 @@
       <c r="AB38" s="157"/>
     </row>
     <row r="39" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="385"/>
-      <c r="C39" s="386"/>
+      <c r="B39" s="406"/>
+      <c r="C39" s="407"/>
       <c r="D39" s="54"/>
       <c r="E39" s="248"/>
-      <c r="F39" s="338"/>
-      <c r="G39" s="338"/>
-      <c r="H39" s="337" t="s">
+      <c r="F39" s="355"/>
+      <c r="G39" s="355"/>
+      <c r="H39" s="354" t="s">
         <v>186</v>
       </c>
-      <c r="I39" s="337" t="s">
+      <c r="I39" s="354" t="s">
         <v>207</v>
       </c>
-      <c r="J39" s="337" t="s">
+      <c r="J39" s="354" t="s">
         <v>186</v>
       </c>
-      <c r="K39" s="337" t="s">
+      <c r="K39" s="354" t="s">
         <v>207</v>
       </c>
       <c r="L39" s="253"/>
@@ -40071,16 +40167,16 @@
       <c r="AB39" s="157"/>
     </row>
     <row r="40" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="385"/>
-      <c r="C40" s="386"/>
+      <c r="B40" s="406"/>
+      <c r="C40" s="407"/>
       <c r="D40" s="54"/>
       <c r="E40" s="248"/>
-      <c r="F40" s="338"/>
-      <c r="G40" s="338"/>
-      <c r="H40" s="338"/>
-      <c r="I40" s="338"/>
-      <c r="J40" s="338"/>
-      <c r="K40" s="338"/>
+      <c r="F40" s="355"/>
+      <c r="G40" s="355"/>
+      <c r="H40" s="355"/>
+      <c r="I40" s="355"/>
+      <c r="J40" s="355"/>
+      <c r="K40" s="355"/>
       <c r="L40" s="253"/>
       <c r="X40" s="165">
         <v>5</v>
@@ -40098,16 +40194,16 @@
       <c r="AB40" s="157"/>
     </row>
     <row r="41" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="387"/>
-      <c r="C41" s="388"/>
+      <c r="B41" s="408"/>
+      <c r="C41" s="409"/>
       <c r="D41" s="54"/>
       <c r="E41" s="248"/>
-      <c r="F41" s="339"/>
-      <c r="G41" s="339"/>
-      <c r="H41" s="339"/>
-      <c r="I41" s="339"/>
-      <c r="J41" s="339"/>
-      <c r="K41" s="339"/>
+      <c r="F41" s="356"/>
+      <c r="G41" s="356"/>
+      <c r="H41" s="356"/>
+      <c r="I41" s="356"/>
+      <c r="J41" s="356"/>
+      <c r="K41" s="356"/>
       <c r="L41" s="253"/>
       <c r="X41" s="165">
         <v>6</v>
@@ -40125,10 +40221,10 @@
       <c r="AB41" s="157"/>
     </row>
     <row r="42" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="350" t="s">
+      <c r="B42" s="367" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="351"/>
+      <c r="C42" s="368"/>
       <c r="D42" s="128">
         <f>LEFT(B42,2)+0</f>
         <v>14</v>
@@ -40179,10 +40275,10 @@
       <c r="AB42" s="157"/>
     </row>
     <row r="43" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="350" t="s">
+      <c r="B43" s="367" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="351"/>
+      <c r="C43" s="368"/>
       <c r="D43" s="128">
         <f t="shared" ref="D43:D50" si="3">LEFT(B43,2)+0</f>
         <v>20</v>
@@ -40233,10 +40329,10 @@
       <c r="AB43" s="157"/>
     </row>
     <row r="44" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="350" t="s">
+      <c r="B44" s="367" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="351"/>
+      <c r="C44" s="368"/>
       <c r="D44" s="128">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -40287,10 +40383,10 @@
       <c r="AB44" s="157"/>
     </row>
     <row r="45" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="350" t="s">
+      <c r="B45" s="367" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="351"/>
+      <c r="C45" s="368"/>
       <c r="D45" s="128">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -40341,10 +40437,10 @@
       <c r="AB45" s="157"/>
     </row>
     <row r="46" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="350" t="s">
+      <c r="B46" s="367" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="351"/>
+      <c r="C46" s="368"/>
       <c r="D46" s="128">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -40395,10 +40491,10 @@
       <c r="AB46" s="157"/>
     </row>
     <row r="47" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="350" t="s">
+      <c r="B47" s="367" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="351"/>
+      <c r="C47" s="368"/>
       <c r="D47" s="128">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -40449,10 +40545,10 @@
       <c r="AB47" s="157"/>
     </row>
     <row r="48" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="350" t="s">
+      <c r="B48" s="367" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="351"/>
+      <c r="C48" s="368"/>
       <c r="D48" s="128">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -40503,10 +40599,10 @@
       <c r="AB48" s="157"/>
     </row>
     <row r="49" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="350" t="s">
+      <c r="B49" s="367" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="351"/>
+      <c r="C49" s="368"/>
       <c r="D49" s="128">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -40557,10 +40653,10 @@
       <c r="AB49" s="157"/>
     </row>
     <row r="50" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="350" t="s">
+      <c r="B50" s="367" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="351"/>
+      <c r="C50" s="368"/>
       <c r="D50" s="128">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -40665,20 +40761,20 @@
       <c r="AB52" s="157"/>
     </row>
     <row r="53" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="421"/>
-      <c r="C53" s="421"/>
+      <c r="B53" s="451"/>
+      <c r="C53" s="451"/>
       <c r="D53" s="54"/>
       <c r="E53" s="248"/>
-      <c r="F53" s="403" t="s">
+      <c r="F53" s="433" t="s">
         <v>186</v>
       </c>
-      <c r="G53" s="403" t="s">
+      <c r="G53" s="433" t="s">
         <v>207</v>
       </c>
-      <c r="H53" s="405"/>
-      <c r="I53" s="405"/>
-      <c r="J53" s="405"/>
-      <c r="K53" s="404" t="s">
+      <c r="H53" s="435"/>
+      <c r="I53" s="435"/>
+      <c r="J53" s="435"/>
+      <c r="K53" s="434" t="s">
         <v>349</v>
       </c>
       <c r="L53" s="253"/>
@@ -40698,16 +40794,16 @@
       <c r="AB53" s="157"/>
     </row>
     <row r="54" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="421"/>
-      <c r="C54" s="421"/>
+      <c r="B54" s="451"/>
+      <c r="C54" s="451"/>
       <c r="D54" s="54"/>
       <c r="E54" s="248"/>
-      <c r="F54" s="403"/>
-      <c r="G54" s="403"/>
-      <c r="H54" s="405"/>
-      <c r="I54" s="405"/>
-      <c r="J54" s="405"/>
-      <c r="K54" s="404"/>
+      <c r="F54" s="433"/>
+      <c r="G54" s="433"/>
+      <c r="H54" s="435"/>
+      <c r="I54" s="435"/>
+      <c r="J54" s="435"/>
+      <c r="K54" s="434"/>
       <c r="L54" s="253"/>
       <c r="X54" s="165">
         <v>19</v>
@@ -40726,16 +40822,16 @@
       <c r="AD54" s="172"/>
     </row>
     <row r="55" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="421"/>
-      <c r="C55" s="421"/>
+      <c r="B55" s="451"/>
+      <c r="C55" s="451"/>
       <c r="D55" s="54"/>
       <c r="E55" s="248"/>
-      <c r="F55" s="403"/>
-      <c r="G55" s="403"/>
-      <c r="H55" s="405"/>
-      <c r="I55" s="405"/>
-      <c r="J55" s="405"/>
-      <c r="K55" s="404"/>
+      <c r="F55" s="433"/>
+      <c r="G55" s="433"/>
+      <c r="H55" s="435"/>
+      <c r="I55" s="435"/>
+      <c r="J55" s="435"/>
+      <c r="K55" s="434"/>
       <c r="L55" s="253"/>
       <c r="X55" s="167">
         <v>20</v>
@@ -40754,10 +40850,10 @@
       <c r="AD55" s="172"/>
     </row>
     <row r="56" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="405" t="s">
+      <c r="B56" s="435" t="s">
         <v>350</v>
       </c>
-      <c r="C56" s="405"/>
+      <c r="C56" s="435"/>
       <c r="D56" s="54"/>
       <c r="E56" s="248"/>
       <c r="F56" s="114">
@@ -40768,13 +40864,13 @@
         <f>VLOOKUP(F56,J$42:K$50,2,FALSE)</f>
         <v>2.0699999999999932</v>
       </c>
-      <c r="H56" s="421">
+      <c r="H56" s="451">
         <f>(LOG(F56)+((10-G56)/(G57-G56))*LOG(F57/F56))</f>
         <v>-0.61321454811239473</v>
       </c>
-      <c r="I56" s="421"/>
-      <c r="J56" s="421"/>
-      <c r="K56" s="405">
+      <c r="I56" s="451"/>
+      <c r="J56" s="451"/>
+      <c r="K56" s="435">
         <f>10^(H56)</f>
         <v>0.2436606799987964</v>
       </c>
@@ -40795,10 +40891,10 @@
       <c r="AB56" s="157"/>
     </row>
     <row r="57" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="405" t="s">
+      <c r="B57" s="435" t="s">
         <v>351</v>
       </c>
-      <c r="C57" s="405"/>
+      <c r="C57" s="435"/>
       <c r="D57" s="54"/>
       <c r="E57" s="248"/>
       <c r="F57" s="114">
@@ -40809,10 +40905,10 @@
         <f>VLOOKUP(F57,J$42:K$50,2,FALSE)</f>
         <v>11.36999999999999</v>
       </c>
-      <c r="H57" s="421"/>
-      <c r="I57" s="421"/>
-      <c r="J57" s="421"/>
-      <c r="K57" s="405"/>
+      <c r="H57" s="451"/>
+      <c r="I57" s="451"/>
+      <c r="J57" s="451"/>
+      <c r="K57" s="435"/>
       <c r="L57" s="253"/>
       <c r="X57" s="165">
         <v>22</v>
@@ -40886,20 +40982,20 @@
       <c r="AB59" s="157"/>
     </row>
     <row r="60" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="421"/>
-      <c r="C60" s="421"/>
+      <c r="B60" s="451"/>
+      <c r="C60" s="451"/>
       <c r="D60" s="54"/>
       <c r="E60" s="248"/>
-      <c r="F60" s="403" t="s">
+      <c r="F60" s="433" t="s">
         <v>186</v>
       </c>
-      <c r="G60" s="403" t="s">
+      <c r="G60" s="433" t="s">
         <v>207</v>
       </c>
-      <c r="H60" s="405"/>
-      <c r="I60" s="405"/>
-      <c r="J60" s="405"/>
-      <c r="K60" s="404" t="s">
+      <c r="H60" s="435"/>
+      <c r="I60" s="435"/>
+      <c r="J60" s="435"/>
+      <c r="K60" s="434" t="s">
         <v>353</v>
       </c>
       <c r="L60" s="253"/>
@@ -40919,16 +41015,16 @@
       <c r="AB60" s="157"/>
     </row>
     <row r="61" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="421"/>
-      <c r="C61" s="421"/>
+      <c r="B61" s="451"/>
+      <c r="C61" s="451"/>
       <c r="D61" s="54"/>
       <c r="E61" s="248"/>
-      <c r="F61" s="403"/>
-      <c r="G61" s="403"/>
-      <c r="H61" s="405"/>
-      <c r="I61" s="405"/>
-      <c r="J61" s="405"/>
-      <c r="K61" s="404"/>
+      <c r="F61" s="433"/>
+      <c r="G61" s="433"/>
+      <c r="H61" s="435"/>
+      <c r="I61" s="435"/>
+      <c r="J61" s="435"/>
+      <c r="K61" s="434"/>
       <c r="L61" s="253"/>
       <c r="X61" s="165">
         <v>26</v>
@@ -40946,16 +41042,16 @@
       <c r="AB61" s="157"/>
     </row>
     <row r="62" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="421"/>
-      <c r="C62" s="421"/>
+      <c r="B62" s="451"/>
+      <c r="C62" s="451"/>
       <c r="D62" s="54"/>
       <c r="E62" s="248"/>
-      <c r="F62" s="403"/>
-      <c r="G62" s="403"/>
-      <c r="H62" s="405"/>
-      <c r="I62" s="405"/>
-      <c r="J62" s="405"/>
-      <c r="K62" s="404"/>
+      <c r="F62" s="433"/>
+      <c r="G62" s="433"/>
+      <c r="H62" s="435"/>
+      <c r="I62" s="435"/>
+      <c r="J62" s="435"/>
+      <c r="K62" s="434"/>
       <c r="L62" s="253"/>
       <c r="X62" s="165">
         <v>27</v>
@@ -40973,10 +41069,10 @@
       <c r="AB62" s="157"/>
     </row>
     <row r="63" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="405" t="s">
+      <c r="B63" s="435" t="s">
         <v>350</v>
       </c>
-      <c r="C63" s="405"/>
+      <c r="C63" s="435"/>
       <c r="D63" s="54"/>
       <c r="E63" s="248"/>
       <c r="F63" s="114">
@@ -40987,13 +41083,13 @@
         <f>VLOOKUP(F63,J$42:K$50,2,FALSE)</f>
         <v>45.269999999999996</v>
       </c>
-      <c r="H63" s="421">
+      <c r="H63" s="451">
         <f>(LOG(F63)+((60-G63)/(G64-G63))*LOG(F64/F63))</f>
         <v>-0.31867934839393264</v>
       </c>
-      <c r="I63" s="421"/>
-      <c r="J63" s="421"/>
-      <c r="K63" s="405">
+      <c r="I63" s="451"/>
+      <c r="J63" s="451"/>
+      <c r="K63" s="435">
         <f>10^(H63)</f>
         <v>0.48008777987655482</v>
       </c>
@@ -41014,10 +41110,10 @@
       <c r="AB63" s="157"/>
     </row>
     <row r="64" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="405" t="s">
+      <c r="B64" s="435" t="s">
         <v>351</v>
       </c>
-      <c r="C64" s="405"/>
+      <c r="C64" s="435"/>
       <c r="D64" s="54"/>
       <c r="E64" s="248"/>
       <c r="F64" s="114">
@@ -41028,10 +41124,10 @@
         <f>VLOOKUP(F64,J$42:K$50,2,FALSE)</f>
         <v>63.28</v>
       </c>
-      <c r="H64" s="421"/>
-      <c r="I64" s="421"/>
-      <c r="J64" s="421"/>
-      <c r="K64" s="405"/>
+      <c r="H64" s="451"/>
+      <c r="I64" s="451"/>
+      <c r="J64" s="451"/>
+      <c r="K64" s="435"/>
       <c r="L64" s="253"/>
       <c r="X64" s="165">
         <v>29</v>
@@ -41105,19 +41201,19 @@
       <c r="AB66" s="157"/>
     </row>
     <row r="67" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="383" t="s">
+      <c r="B67" s="404" t="s">
         <v>354</v>
       </c>
-      <c r="C67" s="384"/>
+      <c r="C67" s="405"/>
       <c r="D67" s="54"/>
       <c r="E67" s="248"/>
-      <c r="F67" s="383" t="s">
+      <c r="F67" s="404" t="s">
         <v>353</v>
       </c>
-      <c r="G67" s="436" t="s">
+      <c r="G67" s="466" t="s">
         <v>211</v>
       </c>
-      <c r="H67" s="436"/>
+      <c r="H67" s="466"/>
       <c r="I67" s="249"/>
       <c r="J67" s="249"/>
       <c r="K67" s="135"/>
@@ -41138,13 +41234,13 @@
       <c r="AB67" s="157"/>
     </row>
     <row r="68" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="385"/>
-      <c r="C68" s="386"/>
+      <c r="B68" s="406"/>
+      <c r="C68" s="407"/>
       <c r="D68" s="54"/>
       <c r="E68" s="248"/>
-      <c r="F68" s="385"/>
-      <c r="G68" s="436"/>
-      <c r="H68" s="436"/>
+      <c r="F68" s="406"/>
+      <c r="G68" s="466"/>
+      <c r="H68" s="466"/>
       <c r="I68" s="249"/>
       <c r="J68" s="249"/>
       <c r="K68" s="135"/>
@@ -41166,13 +41262,13 @@
       <c r="AB68" s="157"/>
     </row>
     <row r="69" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="387"/>
-      <c r="C69" s="388"/>
+      <c r="B69" s="408"/>
+      <c r="C69" s="409"/>
       <c r="D69" s="54"/>
       <c r="E69" s="248"/>
-      <c r="F69" s="387"/>
-      <c r="G69" s="436"/>
-      <c r="H69" s="436"/>
+      <c r="F69" s="408"/>
+      <c r="G69" s="466"/>
+      <c r="H69" s="466"/>
       <c r="I69" s="249"/>
       <c r="J69" s="249"/>
       <c r="K69" s="135"/>
@@ -41194,22 +41290,22 @@
       <c r="AB69" s="157"/>
     </row>
     <row r="70" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="405">
+      <c r="B70" s="435">
         <f>K56</f>
         <v>0.2436606799987964</v>
       </c>
-      <c r="C70" s="405"/>
+      <c r="C70" s="435"/>
       <c r="D70" s="54"/>
       <c r="E70" s="248"/>
       <c r="F70" s="114">
         <f>K63</f>
         <v>0.48008777987655482</v>
       </c>
-      <c r="G70" s="437">
+      <c r="G70" s="467">
         <f>F70/B70</f>
         <v>1.9703128952891631</v>
       </c>
-      <c r="H70" s="437"/>
+      <c r="H70" s="467"/>
       <c r="I70" s="249"/>
       <c r="J70" s="249"/>
       <c r="K70" s="135"/>
@@ -41231,6 +41327,7 @@
       <c r="AB70" s="157"/>
     </row>
     <row r="71" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M71" s="498"/>
       <c r="W71" s="113"/>
       <c r="X71" s="113"/>
       <c r="Y71" s="113"/>
@@ -41251,26 +41348,26 @@
       <c r="AB72" s="157"/>
     </row>
     <row r="73" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="389" t="s">
+      <c r="B73" s="410" t="s">
         <v>358</v>
       </c>
-      <c r="C73" s="390"/>
-      <c r="D73" s="390"/>
-      <c r="E73" s="390"/>
-      <c r="F73" s="390"/>
-      <c r="G73" s="390"/>
-      <c r="H73" s="391"/>
+      <c r="C73" s="411"/>
+      <c r="D73" s="411"/>
+      <c r="E73" s="411"/>
+      <c r="F73" s="411"/>
+      <c r="G73" s="411"/>
+      <c r="H73" s="412"/>
       <c r="I73" s="206" t="s">
         <v>181</v>
       </c>
-      <c r="J73" s="205">
+      <c r="J73" s="302">
         <f>H20/24</f>
         <v>6.25</v>
       </c>
       <c r="K73" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="L73" s="82"/>
+      <c r="L73" s="494"/>
       <c r="W73" s="113"/>
       <c r="X73" s="113"/>
       <c r="Y73" s="113"/>
@@ -41278,15 +41375,15 @@
       <c r="AA73" s="113"/>
     </row>
     <row r="74" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="389" t="s">
+      <c r="B74" s="410" t="s">
         <v>287</v>
       </c>
-      <c r="C74" s="390"/>
-      <c r="D74" s="390"/>
-      <c r="E74" s="390"/>
-      <c r="F74" s="390"/>
-      <c r="G74" s="390"/>
-      <c r="H74" s="391"/>
+      <c r="C74" s="411"/>
+      <c r="D74" s="411"/>
+      <c r="E74" s="411"/>
+      <c r="F74" s="411"/>
+      <c r="G74" s="411"/>
+      <c r="H74" s="412"/>
       <c r="I74" s="251" t="s">
         <v>88</v>
       </c>
@@ -41304,15 +41401,15 @@
       <c r="AA74" s="113"/>
     </row>
     <row r="75" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="389" t="s">
+      <c r="B75" s="410" t="s">
         <v>283</v>
       </c>
-      <c r="C75" s="390"/>
-      <c r="D75" s="390"/>
-      <c r="E75" s="390"/>
-      <c r="F75" s="390"/>
-      <c r="G75" s="390"/>
-      <c r="H75" s="391"/>
+      <c r="C75" s="411"/>
+      <c r="D75" s="411"/>
+      <c r="E75" s="411"/>
+      <c r="F75" s="411"/>
+      <c r="G75" s="411"/>
+      <c r="H75" s="412"/>
       <c r="I75" s="251" t="s">
         <v>284</v>
       </c>
@@ -41328,15 +41425,15 @@
       <c r="AA75" s="113"/>
     </row>
     <row r="76" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="389" t="s">
+      <c r="B76" s="410" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="390"/>
-      <c r="D76" s="390"/>
-      <c r="E76" s="390"/>
-      <c r="F76" s="390"/>
-      <c r="G76" s="390"/>
-      <c r="H76" s="391"/>
+      <c r="C76" s="411"/>
+      <c r="D76" s="411"/>
+      <c r="E76" s="411"/>
+      <c r="F76" s="411"/>
+      <c r="G76" s="411"/>
+      <c r="H76" s="412"/>
       <c r="I76" s="251" t="s">
         <v>240</v>
       </c>
@@ -41352,15 +41449,15 @@
       <c r="AA76" s="113"/>
     </row>
     <row r="77" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="389" t="s">
+      <c r="B77" s="410" t="s">
         <v>190</v>
       </c>
-      <c r="C77" s="390"/>
-      <c r="D77" s="390"/>
-      <c r="E77" s="390"/>
-      <c r="F77" s="390"/>
-      <c r="G77" s="390"/>
-      <c r="H77" s="391"/>
+      <c r="C77" s="411"/>
+      <c r="D77" s="411"/>
+      <c r="E77" s="411"/>
+      <c r="F77" s="411"/>
+      <c r="G77" s="411"/>
+      <c r="H77" s="412"/>
       <c r="I77" s="251" t="s">
         <v>191</v>
       </c>
@@ -41376,15 +41473,15 @@
       <c r="AA77" s="113"/>
     </row>
     <row r="78" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="389" t="s">
+      <c r="B78" s="410" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="390"/>
-      <c r="D78" s="390"/>
-      <c r="E78" s="390"/>
-      <c r="F78" s="390"/>
-      <c r="G78" s="390"/>
-      <c r="H78" s="391"/>
+      <c r="C78" s="411"/>
+      <c r="D78" s="411"/>
+      <c r="E78" s="411"/>
+      <c r="F78" s="411"/>
+      <c r="G78" s="411"/>
+      <c r="H78" s="412"/>
       <c r="I78" s="252" t="s">
         <v>189</v>
       </c>
@@ -41400,15 +41497,15 @@
       <c r="AA78" s="113"/>
     </row>
     <row r="79" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="389" t="s">
+      <c r="B79" s="410" t="s">
         <v>230</v>
       </c>
-      <c r="C79" s="390"/>
-      <c r="D79" s="390"/>
-      <c r="E79" s="390"/>
-      <c r="F79" s="390"/>
-      <c r="G79" s="390"/>
-      <c r="H79" s="391"/>
+      <c r="C79" s="411"/>
+      <c r="D79" s="411"/>
+      <c r="E79" s="411"/>
+      <c r="F79" s="411"/>
+      <c r="G79" s="411"/>
+      <c r="H79" s="412"/>
       <c r="I79" s="252" t="s">
         <v>189</v>
       </c>
@@ -41424,15 +41521,15 @@
       <c r="AA79" s="113"/>
     </row>
     <row r="80" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="389" t="s">
+      <c r="B80" s="410" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="390"/>
-      <c r="D80" s="390"/>
-      <c r="E80" s="390"/>
-      <c r="F80" s="390"/>
-      <c r="G80" s="390"/>
-      <c r="H80" s="391"/>
+      <c r="C80" s="411"/>
+      <c r="D80" s="411"/>
+      <c r="E80" s="411"/>
+      <c r="F80" s="411"/>
+      <c r="G80" s="411"/>
+      <c r="H80" s="412"/>
       <c r="I80" s="151" t="s">
         <v>238</v>
       </c>
@@ -41514,139 +41611,139 @@
       <c r="Z83" s="109"/>
     </row>
     <row r="84" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="383" t="s">
+      <c r="B84" s="404" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="384"/>
-      <c r="D84" s="403"/>
-      <c r="E84" s="337"/>
-      <c r="F84" s="337" t="s">
+      <c r="C84" s="405"/>
+      <c r="D84" s="433"/>
+      <c r="E84" s="354"/>
+      <c r="F84" s="354" t="s">
         <v>204</v>
       </c>
-      <c r="G84" s="337" t="s">
+      <c r="G84" s="354" t="s">
         <v>205</v>
       </c>
-      <c r="H84" s="337" t="s">
+      <c r="H84" s="354" t="s">
         <v>206</v>
       </c>
-      <c r="I84" s="424" t="s">
+      <c r="I84" s="454" t="s">
         <v>208</v>
       </c>
-      <c r="J84" s="441" t="s">
+      <c r="J84" s="471" t="s">
         <v>182</v>
       </c>
-      <c r="K84" s="442"/>
-      <c r="L84" s="442"/>
-      <c r="M84" s="443"/>
-      <c r="N84" s="417" t="s">
+      <c r="K84" s="472"/>
+      <c r="L84" s="472"/>
+      <c r="M84" s="473"/>
+      <c r="N84" s="447" t="s">
         <v>183</v>
       </c>
-      <c r="O84" s="418"/>
-      <c r="P84" s="418"/>
-      <c r="Q84" s="418"/>
-      <c r="R84" s="419"/>
-      <c r="S84" s="343" t="s">
+      <c r="O84" s="448"/>
+      <c r="P84" s="448"/>
+      <c r="Q84" s="448"/>
+      <c r="R84" s="449"/>
+      <c r="S84" s="360" t="s">
         <v>184</v>
       </c>
-      <c r="T84" s="343"/>
-      <c r="U84" s="343"/>
-      <c r="V84" s="343"/>
+      <c r="T84" s="360"/>
+      <c r="U84" s="360"/>
+      <c r="V84" s="360"/>
       <c r="W84" s="112"/>
-      <c r="X84" s="337" t="s">
+      <c r="X84" s="354" t="s">
         <v>185</v>
       </c>
-      <c r="Y84" s="337" t="s">
+      <c r="Y84" s="354" t="s">
         <v>186</v>
       </c>
       <c r="Z84" s="109"/>
     </row>
     <row r="85" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="385"/>
-      <c r="C85" s="386"/>
-      <c r="D85" s="403"/>
-      <c r="E85" s="339"/>
-      <c r="F85" s="338"/>
-      <c r="G85" s="338"/>
-      <c r="H85" s="338"/>
-      <c r="I85" s="425"/>
-      <c r="J85" s="347" t="s">
+      <c r="B85" s="406"/>
+      <c r="C85" s="407"/>
+      <c r="D85" s="433"/>
+      <c r="E85" s="356"/>
+      <c r="F85" s="355"/>
+      <c r="G85" s="355"/>
+      <c r="H85" s="355"/>
+      <c r="I85" s="455"/>
+      <c r="J85" s="364" t="s">
         <v>187</v>
       </c>
-      <c r="K85" s="408"/>
-      <c r="L85" s="414"/>
-      <c r="M85" s="409"/>
-      <c r="N85" s="420"/>
-      <c r="O85" s="408"/>
-      <c r="P85" s="409"/>
-      <c r="Q85" s="347" t="s">
+      <c r="K85" s="438"/>
+      <c r="L85" s="444"/>
+      <c r="M85" s="439"/>
+      <c r="N85" s="450"/>
+      <c r="O85" s="438"/>
+      <c r="P85" s="439"/>
+      <c r="Q85" s="364" t="s">
         <v>188</v>
       </c>
-      <c r="R85" s="344"/>
-      <c r="S85" s="344"/>
-      <c r="T85" s="344"/>
-      <c r="U85" s="347" t="s">
+      <c r="R85" s="361"/>
+      <c r="S85" s="361"/>
+      <c r="T85" s="361"/>
+      <c r="U85" s="364" t="s">
         <v>188</v>
       </c>
-      <c r="V85" s="344"/>
-      <c r="X85" s="338"/>
-      <c r="Y85" s="338"/>
+      <c r="V85" s="361"/>
+      <c r="X85" s="355"/>
+      <c r="Y85" s="355"/>
     </row>
     <row r="86" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="385"/>
-      <c r="C86" s="386"/>
+      <c r="B86" s="406"/>
+      <c r="C86" s="407"/>
       <c r="D86" s="123"/>
       <c r="E86" s="124"/>
-      <c r="F86" s="338"/>
-      <c r="G86" s="338"/>
-      <c r="H86" s="338"/>
-      <c r="I86" s="425"/>
-      <c r="J86" s="348"/>
-      <c r="K86" s="410"/>
-      <c r="L86" s="415"/>
-      <c r="M86" s="411"/>
-      <c r="N86" s="420"/>
-      <c r="O86" s="410"/>
-      <c r="P86" s="411"/>
-      <c r="Q86" s="348"/>
-      <c r="R86" s="345"/>
-      <c r="S86" s="345"/>
-      <c r="T86" s="345"/>
-      <c r="U86" s="348"/>
-      <c r="V86" s="345"/>
-      <c r="X86" s="338"/>
-      <c r="Y86" s="338"/>
+      <c r="F86" s="355"/>
+      <c r="G86" s="355"/>
+      <c r="H86" s="355"/>
+      <c r="I86" s="455"/>
+      <c r="J86" s="365"/>
+      <c r="K86" s="440"/>
+      <c r="L86" s="445"/>
+      <c r="M86" s="441"/>
+      <c r="N86" s="450"/>
+      <c r="O86" s="440"/>
+      <c r="P86" s="441"/>
+      <c r="Q86" s="365"/>
+      <c r="R86" s="362"/>
+      <c r="S86" s="362"/>
+      <c r="T86" s="362"/>
+      <c r="U86" s="365"/>
+      <c r="V86" s="362"/>
+      <c r="X86" s="355"/>
+      <c r="Y86" s="355"/>
     </row>
     <row r="87" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="387"/>
-      <c r="C87" s="388"/>
+      <c r="B87" s="408"/>
+      <c r="C87" s="409"/>
       <c r="D87" s="123"/>
       <c r="E87" s="124"/>
-      <c r="F87" s="339"/>
-      <c r="G87" s="339"/>
-      <c r="H87" s="339"/>
-      <c r="I87" s="426"/>
-      <c r="J87" s="349"/>
-      <c r="K87" s="412"/>
-      <c r="L87" s="416"/>
-      <c r="M87" s="413"/>
-      <c r="N87" s="420"/>
-      <c r="O87" s="412"/>
-      <c r="P87" s="413"/>
-      <c r="Q87" s="349"/>
-      <c r="R87" s="346"/>
-      <c r="S87" s="346"/>
-      <c r="T87" s="346"/>
-      <c r="U87" s="349"/>
-      <c r="V87" s="346"/>
-      <c r="X87" s="339"/>
-      <c r="Y87" s="339"/>
+      <c r="F87" s="356"/>
+      <c r="G87" s="356"/>
+      <c r="H87" s="356"/>
+      <c r="I87" s="456"/>
+      <c r="J87" s="366"/>
+      <c r="K87" s="442"/>
+      <c r="L87" s="446"/>
+      <c r="M87" s="443"/>
+      <c r="N87" s="450"/>
+      <c r="O87" s="442"/>
+      <c r="P87" s="443"/>
+      <c r="Q87" s="366"/>
+      <c r="R87" s="363"/>
+      <c r="S87" s="363"/>
+      <c r="T87" s="363"/>
+      <c r="U87" s="366"/>
+      <c r="V87" s="363"/>
+      <c r="X87" s="356"/>
+      <c r="Y87" s="356"/>
     </row>
     <row r="88" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="350" t="str">
+      <c r="B88" s="367" t="str">
         <f t="shared" ref="B88:B96" si="6">B42</f>
         <v>14-20</v>
       </c>
-      <c r="C88" s="351"/>
+      <c r="C88" s="368"/>
       <c r="D88" s="128">
         <f>LEFT(B88,2)+0</f>
         <v>14</v>
@@ -41675,44 +41772,44 @@
         <f t="shared" ref="J88:J96" si="10">(F88/100)/((I88/1000)^2)</f>
         <v>6746.44335939147</v>
       </c>
-      <c r="K88" s="427" t="str">
+      <c r="K88" s="457" t="str">
         <f>ROUND((J77*J33*((1-J76)^2)/(J76^3)*(J74*(J73/3600))/9.806*((6/J78)^2)*J97),4)&amp;" m"</f>
-        <v>0,5876 m</v>
-      </c>
-      <c r="L88" s="428"/>
-      <c r="M88" s="429"/>
+        <v>1.1339 m</v>
+      </c>
+      <c r="L88" s="458"/>
+      <c r="M88" s="459"/>
       <c r="N88" s="103">
         <f t="shared" ref="N88:N96" si="11">$J$79*(I88/1000)*($J$73/3600)/$J$33</f>
-        <v>1.9153230520524316</v>
-      </c>
-      <c r="O88" s="381">
+        <v>0.99256086514638053</v>
+      </c>
+      <c r="O88" s="382">
         <f>150*(1-$J$76)/N88+1.75</f>
-        <v>44.823673609052129</v>
-      </c>
-      <c r="P88" s="382"/>
+        <v>84.868328454178069</v>
+      </c>
+      <c r="P88" s="383"/>
       <c r="Q88" s="116">
         <f t="shared" ref="Q88:Q96" si="12">O88*(F88/100)/(I88/1000)</f>
-        <v>329.29859660284723</v>
-      </c>
-      <c r="R88" s="335" t="str">
+        <v>623.48797422856558</v>
+      </c>
+      <c r="R88" s="352" t="str">
         <f>ROUND((1/J79*(1-J76)/(J76^3)*J74*((J73/3600)^2)/9.806*Q97),4)&amp; " m"</f>
-        <v>0,4957 m</v>
+        <v>0.951 m</v>
       </c>
       <c r="S88" s="117">
         <f t="shared" ref="S88:S96" si="13">(I88/1000)*($J$73/3600)/$J$33</f>
-        <v>2.253321237708743</v>
+        <v>1.1677186648780948</v>
       </c>
       <c r="T88" s="118">
         <f>24/S88+3/(S88^(1/2))+0.34</f>
-        <v>12.989470273475625</v>
+        <v>23.669104673078458</v>
       </c>
       <c r="U88" s="116">
         <f t="shared" ref="U88:U96" si="14">T88*(F88/100)/(I88/1000)</f>
-        <v>95.427571800052164</v>
-      </c>
-      <c r="V88" s="335" t="str">
+        <v>173.88585816662274</v>
+      </c>
+      <c r="V88" s="352" t="str">
         <f>ROUND((0.178*((J73/3600)^2)*J74*1/(9.806*(J76^4))*J80*U97),4)&amp;" m"</f>
-        <v>0,51 m</v>
+        <v>0.9548 m</v>
       </c>
       <c r="X88" s="46">
         <v>140</v>
@@ -41725,11 +41822,11 @@
       <c r="AM88" s="155"/>
     </row>
     <row r="89" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="350" t="str">
+      <c r="B89" s="367" t="str">
         <f t="shared" si="6"/>
         <v>20-25</v>
       </c>
-      <c r="C89" s="351"/>
+      <c r="C89" s="368"/>
       <c r="D89" s="128">
         <f t="shared" ref="D89:D96" si="15">LEFT(B89,2)+0</f>
         <v>20</v>
@@ -41758,36 +41855,36 @@
         <f t="shared" si="10"/>
         <v>71478.185698644607</v>
       </c>
-      <c r="K89" s="430"/>
-      <c r="L89" s="431"/>
-      <c r="M89" s="432"/>
+      <c r="K89" s="460"/>
+      <c r="L89" s="461"/>
+      <c r="M89" s="462"/>
       <c r="N89" s="103">
         <f t="shared" si="11"/>
-        <v>1.3562576044464323</v>
-      </c>
-      <c r="O89" s="381">
+        <v>0.70284134041417956</v>
+      </c>
+      <c r="O89" s="382">
         <f t="shared" ref="O89:O96" si="18">150*(1-$J$76)/N89+1.75</f>
-        <v>62.57915202062447</v>
-      </c>
-      <c r="P89" s="382"/>
+        <v>119.13068786816569</v>
+      </c>
+      <c r="P89" s="383"/>
       <c r="Q89" s="116">
         <f t="shared" si="12"/>
-        <v>3449.1406077808301</v>
-      </c>
-      <c r="R89" s="335"/>
+        <v>6566.0604193475147</v>
+      </c>
+      <c r="R89" s="352"/>
       <c r="S89" s="117">
         <f t="shared" si="13"/>
-        <v>1.5955971817016852</v>
+        <v>0.82687216519315243</v>
       </c>
       <c r="T89" s="118">
         <f t="shared" ref="T89:T96" si="19">24/S89+3/(S89^(1/2))+0.34</f>
-        <v>17.756368500713286</v>
+        <v>32.664192868984671</v>
       </c>
       <c r="U89" s="116">
         <f t="shared" si="14"/>
-        <v>978.66796952355799</v>
-      </c>
-      <c r="V89" s="335"/>
+        <v>1800.334303150498</v>
+      </c>
+      <c r="V89" s="352"/>
       <c r="X89" s="46">
         <v>100</v>
       </c>
@@ -41799,11 +41896,11 @@
       <c r="AM89" s="155"/>
     </row>
     <row r="90" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="350" t="str">
+      <c r="B90" s="367" t="str">
         <f t="shared" si="6"/>
         <v>25-30</v>
       </c>
-      <c r="C90" s="351"/>
+      <c r="C90" s="368"/>
       <c r="D90" s="128">
         <f t="shared" si="15"/>
         <v>25</v>
@@ -41832,36 +41929,36 @@
         <f t="shared" si="10"/>
         <v>357053.7125741386</v>
       </c>
-      <c r="K90" s="430"/>
-      <c r="L90" s="431"/>
-      <c r="M90" s="432"/>
+      <c r="K90" s="460"/>
+      <c r="L90" s="461"/>
+      <c r="M90" s="462"/>
       <c r="N90" s="103">
         <f t="shared" si="11"/>
-        <v>1.1407820295349305</v>
-      </c>
-      <c r="O90" s="381">
+        <v>0.59117734575652048</v>
+      </c>
+      <c r="O90" s="382">
         <f t="shared" si="18"/>
-        <v>74.068811012155649</v>
-      </c>
-      <c r="P90" s="382"/>
+        <v>141.3020322153516</v>
+      </c>
+      <c r="P90" s="383"/>
       <c r="Q90" s="116">
         <f t="shared" si="12"/>
-        <v>17152.882637154089</v>
-      </c>
-      <c r="R90" s="335"/>
+        <v>32722.776859257607</v>
+      </c>
+      <c r="R90" s="352"/>
       <c r="S90" s="117">
         <f t="shared" si="13"/>
-        <v>1.3420965053352123</v>
+        <v>0.69550275971355346</v>
       </c>
       <c r="T90" s="118">
         <f t="shared" si="19"/>
-        <v>20.81204992859961</v>
+        <v>38.44467158055798</v>
       </c>
       <c r="U90" s="116">
         <f t="shared" si="14"/>
-        <v>4819.662216601183</v>
-      </c>
-      <c r="V90" s="335"/>
+        <v>8903.0312574751879</v>
+      </c>
+      <c r="V90" s="352"/>
       <c r="X90" s="46">
         <v>80</v>
       </c>
@@ -41873,11 +41970,11 @@
       <c r="AM90" s="155"/>
     </row>
     <row r="91" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="350" t="str">
+      <c r="B91" s="367" t="str">
         <f t="shared" si="6"/>
         <v>30-35</v>
       </c>
-      <c r="C91" s="351"/>
+      <c r="C91" s="368"/>
       <c r="D91" s="128">
         <f t="shared" si="15"/>
         <v>30</v>
@@ -41906,36 +42003,36 @@
         <f t="shared" si="10"/>
         <v>559663.86554621835</v>
       </c>
-      <c r="K91" s="430"/>
-      <c r="L91" s="431"/>
-      <c r="M91" s="432"/>
+      <c r="K91" s="460"/>
+      <c r="L91" s="461"/>
+      <c r="M91" s="462"/>
       <c r="N91" s="103">
         <f t="shared" si="11"/>
-        <v>0.95935195849891119</v>
-      </c>
-      <c r="O91" s="381">
+        <v>0.4971564503894913</v>
+      </c>
+      <c r="O91" s="382">
         <f t="shared" si="18"/>
-        <v>87.745550714345711</v>
-      </c>
-      <c r="P91" s="382"/>
+        <v>167.69373850599013</v>
+      </c>
+      <c r="P91" s="383"/>
       <c r="Q91" s="116">
         <f t="shared" si="12"/>
-        <v>26785.259415430879</v>
-      </c>
-      <c r="R91" s="335"/>
+        <v>51190.291150477846</v>
+      </c>
+      <c r="R91" s="352"/>
       <c r="S91" s="117">
         <f t="shared" si="13"/>
-        <v>1.1286493629398955</v>
+        <v>0.58488994163469576</v>
       </c>
       <c r="T91" s="118">
         <f t="shared" si="19"/>
-        <v>24.42820507767318</v>
+        <v>45.296052510087776</v>
       </c>
       <c r="U91" s="116">
         <f t="shared" si="14"/>
-        <v>7456.9685269733736</v>
-      </c>
-      <c r="V91" s="335"/>
+        <v>13827.100144683696</v>
+      </c>
+      <c r="V91" s="352"/>
       <c r="X91" s="46">
         <v>70</v>
       </c>
@@ -41947,11 +42044,11 @@
       <c r="AF91" s="141"/>
     </row>
     <row r="92" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="350" t="str">
+      <c r="B92" s="367" t="str">
         <f t="shared" si="6"/>
         <v>35-40</v>
       </c>
-      <c r="C92" s="351"/>
+      <c r="C92" s="368"/>
       <c r="D92" s="128">
         <f t="shared" si="15"/>
         <v>35</v>
@@ -41980,36 +42077,36 @@
         <f t="shared" si="10"/>
         <v>900500</v>
       </c>
-      <c r="K92" s="430"/>
-      <c r="L92" s="431"/>
-      <c r="M92" s="432"/>
+      <c r="K92" s="460"/>
+      <c r="L92" s="461"/>
+      <c r="M92" s="462"/>
       <c r="N92" s="103">
         <f t="shared" si="11"/>
-        <v>0.78659191699560538</v>
-      </c>
-      <c r="O92" s="381">
+        <v>0.40762854747332483</v>
+      </c>
+      <c r="O92" s="382">
         <f t="shared" si="18"/>
-        <v>106.63284740467391</v>
-      </c>
-      <c r="P92" s="382"/>
+        <v>204.14014296563414</v>
+      </c>
+      <c r="P92" s="383"/>
       <c r="Q92" s="116">
         <f t="shared" si="12"/>
-        <v>42942.737007161442</v>
-      </c>
-      <c r="R92" s="335"/>
+        <v>82210.469713043785</v>
+      </c>
+      <c r="R92" s="352"/>
       <c r="S92" s="117">
         <f t="shared" si="13"/>
-        <v>0.92540225528894748</v>
+        <v>0.47956299702744098</v>
       </c>
       <c r="T92" s="118">
         <f t="shared" si="19"/>
-        <v>29.393241177119567</v>
+        <v>54.717662113401744</v>
       </c>
       <c r="U92" s="116">
         <f t="shared" si="14"/>
-        <v>11837.123891730462</v>
-      </c>
-      <c r="V92" s="335"/>
+        <v>22035.669411183146</v>
+      </c>
+      <c r="V92" s="352"/>
       <c r="X92" s="46">
         <v>60</v>
       </c>
@@ -42022,11 +42119,11 @@
       <c r="AF92" s="141"/>
     </row>
     <row r="93" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="350" t="str">
+      <c r="B93" s="367" t="str">
         <f t="shared" si="6"/>
         <v>40-50</v>
       </c>
-      <c r="C93" s="351"/>
+      <c r="C93" s="368"/>
       <c r="D93" s="128">
         <f t="shared" si="15"/>
         <v>40</v>
@@ -42055,36 +42152,36 @@
         <f t="shared" si="10"/>
         <v>1536195.2861952859</v>
       </c>
-      <c r="K93" s="430"/>
-      <c r="L93" s="431"/>
-      <c r="M93" s="432"/>
+      <c r="K93" s="460"/>
+      <c r="L93" s="461"/>
+      <c r="M93" s="462"/>
       <c r="N93" s="103">
         <f t="shared" si="11"/>
-        <v>0.60623736709839648</v>
-      </c>
-      <c r="O93" s="381">
+        <v>0.31416500987989782</v>
+      </c>
+      <c r="O93" s="382">
         <f t="shared" si="18"/>
-        <v>137.83530994198793</v>
-      </c>
-      <c r="P93" s="382"/>
+        <v>264.35085434574313</v>
+      </c>
+      <c r="P93" s="383"/>
       <c r="Q93" s="116">
         <f t="shared" si="12"/>
-        <v>72981.89497382789</v>
-      </c>
-      <c r="R93" s="335"/>
+        <v>139970.13026794555</v>
+      </c>
+      <c r="R93" s="352"/>
       <c r="S93" s="117">
         <f t="shared" si="13"/>
-        <v>0.71322043188046635</v>
+        <v>0.36960589397635041</v>
       </c>
       <c r="T93" s="118">
         <f t="shared" si="19"/>
-        <v>37.54248352960105</v>
+        <v>70.20862780478781</v>
       </c>
       <c r="U93" s="116">
         <f t="shared" si="14"/>
-        <v>19878.227075247876</v>
-      </c>
-      <c r="V93" s="335"/>
+        <v>37174.499791542286</v>
+      </c>
+      <c r="V93" s="352"/>
       <c r="W93" s="121"/>
       <c r="X93" s="46">
         <v>50</v>
@@ -42098,11 +42195,11 @@
       <c r="AF93" s="141"/>
     </row>
     <row r="94" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="350" t="str">
+      <c r="B94" s="367" t="str">
         <f t="shared" si="6"/>
         <v>50-60</v>
       </c>
-      <c r="C94" s="351"/>
+      <c r="C94" s="368"/>
       <c r="D94" s="128">
         <f t="shared" si="15"/>
         <v>50</v>
@@ -42131,36 +42228,36 @@
         <f t="shared" si="10"/>
         <v>2107744.1077441075</v>
       </c>
-      <c r="K94" s="430"/>
-      <c r="L94" s="431"/>
-      <c r="M94" s="432"/>
+      <c r="K94" s="460"/>
+      <c r="L94" s="461"/>
+      <c r="M94" s="462"/>
       <c r="N94" s="103">
         <f t="shared" si="11"/>
-        <v>0.47927272068363896</v>
-      </c>
-      <c r="O94" s="381">
+        <v>0.24836924808744476</v>
+      </c>
+      <c r="O94" s="382">
         <f t="shared" si="18"/>
-        <v>173.88581420265533</v>
-      </c>
-      <c r="P94" s="382"/>
+        <v>333.91672609546958</v>
+      </c>
+      <c r="P94" s="383"/>
       <c r="Q94" s="116">
         <f t="shared" si="12"/>
-        <v>99868.899935285823</v>
-      </c>
-      <c r="R94" s="335"/>
+        <v>191780.42934705055</v>
+      </c>
+      <c r="R94" s="352"/>
       <c r="S94" s="117">
         <f t="shared" si="13"/>
-        <v>0.56385025962781055</v>
+        <v>0.29219911539699384</v>
       </c>
       <c r="T94" s="118">
         <f t="shared" si="19"/>
-        <v>46.899699942150768</v>
+        <v>88.025629440355374</v>
       </c>
       <c r="U94" s="116">
         <f t="shared" si="14"/>
-        <v>26936.190637488246</v>
-      </c>
-      <c r="V94" s="335"/>
+        <v>50556.296490488276</v>
+      </c>
+      <c r="V94" s="352"/>
       <c r="W94" s="121"/>
       <c r="X94" s="46">
         <v>45</v>
@@ -42173,11 +42270,11 @@
       <c r="AF94" s="141"/>
     </row>
     <row r="95" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="350" t="str">
+      <c r="B95" s="367" t="str">
         <f t="shared" si="6"/>
         <v>60-70</v>
       </c>
-      <c r="C95" s="351"/>
+      <c r="C95" s="368"/>
       <c r="D95" s="128">
         <f t="shared" si="15"/>
         <v>60</v>
@@ -42206,36 +42303,36 @@
         <f t="shared" si="10"/>
         <v>1771428.5714285716</v>
       </c>
-      <c r="K95" s="430"/>
-      <c r="L95" s="431"/>
-      <c r="M95" s="432"/>
+      <c r="K95" s="460"/>
+      <c r="L95" s="461"/>
+      <c r="M95" s="462"/>
       <c r="N95" s="103">
         <f t="shared" si="11"/>
-        <v>0.40300843231778738</v>
-      </c>
-      <c r="O95" s="381">
+        <v>0.20884748283793922</v>
+      </c>
+      <c r="O95" s="382">
         <f t="shared" si="18"/>
-        <v>206.46035686654227</v>
-      </c>
-      <c r="P95" s="382"/>
+        <v>396.77511056845287</v>
+      </c>
+      <c r="P95" s="383"/>
       <c r="Q95" s="116">
         <f t="shared" si="12"/>
-        <v>83799.218896583712</v>
-      </c>
-      <c r="R95" s="335"/>
+        <v>161045.17519910476</v>
+      </c>
+      <c r="R95" s="352"/>
       <c r="S95" s="117">
         <f t="shared" si="13"/>
-        <v>0.47412756743269102</v>
+        <v>0.24570292098581084</v>
       </c>
       <c r="T95" s="118">
         <f t="shared" si="19"/>
-        <v>55.316148706042839</v>
+        <v>104.07117578247274</v>
       </c>
       <c r="U95" s="116">
         <f t="shared" si="14"/>
-        <v>22452.010275900346</v>
-      </c>
-      <c r="V95" s="335"/>
+        <v>42240.957889352372</v>
+      </c>
+      <c r="V95" s="352"/>
       <c r="W95" s="121"/>
       <c r="X95" s="46">
         <v>40</v>
@@ -42248,11 +42345,11 @@
       <c r="AF95" s="141"/>
     </row>
     <row r="96" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="350" t="str">
+      <c r="B96" s="367" t="str">
         <f t="shared" si="6"/>
         <v>70-100</v>
       </c>
-      <c r="C96" s="351"/>
+      <c r="C96" s="368"/>
       <c r="D96" s="128">
         <f t="shared" si="15"/>
         <v>70</v>
@@ -42281,36 +42378,36 @@
         <f t="shared" si="10"/>
         <v>661553.21188878256</v>
       </c>
-      <c r="K96" s="433"/>
-      <c r="L96" s="434"/>
-      <c r="M96" s="435"/>
+      <c r="K96" s="463"/>
+      <c r="L96" s="464"/>
+      <c r="M96" s="465"/>
       <c r="N96" s="103">
         <f t="shared" si="11"/>
-        <v>0.31112668597448756</v>
-      </c>
-      <c r="O96" s="381">
+        <v>0.16123242095898396</v>
+      </c>
+      <c r="O96" s="382">
         <f t="shared" si="18"/>
-        <v>266.91529670735162</v>
-      </c>
-      <c r="P96" s="382"/>
+        <v>513.43368935542583</v>
+      </c>
+      <c r="P96" s="383"/>
       <c r="Q96" s="116">
         <f t="shared" si="12"/>
-        <v>31234.965275027596</v>
-      </c>
-      <c r="R96" s="335"/>
+        <v>60083.043781598011</v>
+      </c>
+      <c r="R96" s="352"/>
       <c r="S96" s="117">
         <f t="shared" si="13"/>
-        <v>0.366031395264103</v>
+        <v>0.18968520112821644</v>
       </c>
       <c r="T96" s="118">
         <f t="shared" si="19"/>
-        <v>70.86678046190849</v>
+        <v>133.75360204299702</v>
       </c>
       <c r="U96" s="116">
         <f t="shared" si="14"/>
-        <v>8292.9732922262647</v>
-      </c>
-      <c r="V96" s="335"/>
+        <v>15652.115733941762</v>
+      </c>
+      <c r="V96" s="352"/>
       <c r="W96" s="121"/>
       <c r="X96" s="46">
         <v>35</v>
@@ -42334,7 +42431,7 @@
       <c r="G97" s="127"/>
       <c r="H97" s="5"/>
       <c r="I97" s="121"/>
-      <c r="J97" s="439">
+      <c r="J97" s="469">
         <f>SUM(J88:J96)</f>
         <v>7972363.3844351405</v>
       </c>
@@ -42344,16 +42441,16 @@
       <c r="N97" s="121"/>
       <c r="O97" s="121"/>
       <c r="P97" s="121"/>
-      <c r="Q97" s="336">
+      <c r="Q97" s="353">
         <f>SUM(Q88:Q96)</f>
-        <v>378544.29734485515</v>
+        <v>726191.86471205414</v>
       </c>
       <c r="R97" s="121"/>
       <c r="S97" s="121"/>
       <c r="T97" s="121"/>
-      <c r="U97" s="340">
+      <c r="U97" s="357">
         <f>SUM(U88:U96)</f>
-        <v>102747.25145749135</v>
+        <v>192363.89087998384</v>
       </c>
       <c r="V97" s="121"/>
       <c r="W97" s="121"/>
@@ -42374,18 +42471,18 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="121"/>
-      <c r="J98" s="336"/>
+      <c r="J98" s="353"/>
       <c r="K98" s="121"/>
       <c r="L98" s="121"/>
       <c r="M98" s="121"/>
       <c r="N98" s="121"/>
       <c r="O98" s="121"/>
       <c r="P98" s="121"/>
-      <c r="Q98" s="336"/>
+      <c r="Q98" s="353"/>
       <c r="R98" s="121"/>
       <c r="S98" s="121"/>
       <c r="T98" s="121"/>
-      <c r="U98" s="341"/>
+      <c r="U98" s="358"/>
       <c r="V98" s="121"/>
       <c r="W98" s="121"/>
       <c r="X98" s="46">
@@ -42405,7 +42502,7 @@
       <c r="G99" s="122"/>
       <c r="H99" s="122"/>
       <c r="I99" s="121"/>
-      <c r="J99" s="336"/>
+      <c r="J99" s="353"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6">
@@ -42414,13 +42511,13 @@
       <c r="N99" s="121"/>
       <c r="O99" s="121"/>
       <c r="P99" s="121"/>
-      <c r="Q99" s="336"/>
+      <c r="Q99" s="353"/>
       <c r="R99" s="6">
         <v>0.47220000000000001</v>
       </c>
       <c r="S99" s="121"/>
       <c r="T99" s="121"/>
-      <c r="U99" s="342"/>
+      <c r="U99" s="359"/>
       <c r="V99" s="6" t="s">
         <v>239</v>
       </c>
@@ -42498,19 +42595,19 @@
       <c r="Z101" s="120"/>
     </row>
     <row r="102" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="392" t="s">
+      <c r="B102" s="413" t="s">
         <v>224</v>
       </c>
-      <c r="C102" s="393"/>
+      <c r="C102" s="414"/>
       <c r="D102" s="145"/>
       <c r="E102" s="186"/>
-      <c r="F102" s="354" t="s">
+      <c r="F102" s="371" t="s">
         <v>222</v>
       </c>
-      <c r="G102" s="354" t="s">
+      <c r="G102" s="371" t="s">
         <v>223</v>
       </c>
-      <c r="H102" s="354" t="s">
+      <c r="H102" s="371" t="s">
         <v>216</v>
       </c>
       <c r="I102" s="121"/>
@@ -42537,13 +42634,13 @@
       <c r="Z102" s="120"/>
     </row>
     <row r="103" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="394"/>
-      <c r="C103" s="395"/>
+      <c r="B103" s="415"/>
+      <c r="C103" s="416"/>
       <c r="D103" s="145"/>
       <c r="E103" s="186"/>
-      <c r="F103" s="355"/>
-      <c r="G103" s="355"/>
-      <c r="H103" s="355"/>
+      <c r="F103" s="372"/>
+      <c r="G103" s="372"/>
+      <c r="H103" s="372"/>
       <c r="I103" s="121"/>
       <c r="J103" s="144"/>
       <c r="K103" s="6"/>
@@ -42568,13 +42665,13 @@
       <c r="Z103" s="120"/>
     </row>
     <row r="104" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="394"/>
-      <c r="C104" s="395"/>
+      <c r="B104" s="415"/>
+      <c r="C104" s="416"/>
       <c r="D104" s="145"/>
       <c r="E104" s="186"/>
-      <c r="F104" s="355"/>
-      <c r="G104" s="355"/>
-      <c r="H104" s="355"/>
+      <c r="F104" s="372"/>
+      <c r="G104" s="372"/>
+      <c r="H104" s="372"/>
       <c r="I104" s="150"/>
       <c r="J104" s="150"/>
       <c r="K104" s="150"/>
@@ -42599,13 +42696,13 @@
       <c r="Z104" s="120"/>
     </row>
     <row r="105" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="396"/>
-      <c r="C105" s="397"/>
+      <c r="B105" s="417"/>
+      <c r="C105" s="418"/>
       <c r="D105" s="145"/>
       <c r="E105" s="186"/>
-      <c r="F105" s="398"/>
-      <c r="G105" s="398"/>
-      <c r="H105" s="398"/>
+      <c r="F105" s="419"/>
+      <c r="G105" s="419"/>
+      <c r="H105" s="419"/>
       <c r="I105" s="150"/>
       <c r="J105" s="150"/>
       <c r="K105" s="150"/>
@@ -42630,10 +42727,10 @@
       <c r="Z105" s="120"/>
     </row>
     <row r="106" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="399">
+      <c r="B106" s="420">
         <v>1</v>
       </c>
-      <c r="C106" s="400"/>
+      <c r="C106" s="421"/>
       <c r="D106" s="146"/>
       <c r="E106" s="132"/>
       <c r="F106" s="148">
@@ -42665,10 +42762,10 @@
       <c r="Z106" s="120"/>
     </row>
     <row r="107" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="399">
+      <c r="B107" s="420">
         <v>2</v>
       </c>
-      <c r="C107" s="400"/>
+      <c r="C107" s="421"/>
       <c r="D107" s="146"/>
       <c r="E107" s="132"/>
       <c r="F107" s="148" t="s">
@@ -42700,10 +42797,10 @@
       <c r="Z107" s="120"/>
     </row>
     <row r="108" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="399">
+      <c r="B108" s="420">
         <v>3</v>
       </c>
-      <c r="C108" s="400"/>
+      <c r="C108" s="421"/>
       <c r="D108" s="146"/>
       <c r="E108" s="132"/>
       <c r="F108" s="148" t="s">
@@ -42735,10 +42832,10 @@
       <c r="Z108" s="120"/>
     </row>
     <row r="109" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="399">
+      <c r="B109" s="420">
         <v>4</v>
       </c>
-      <c r="C109" s="400"/>
+      <c r="C109" s="421"/>
       <c r="D109" s="146"/>
       <c r="E109" s="132"/>
       <c r="F109" s="148" t="s">
@@ -42770,10 +42867,10 @@
       <c r="Z109" s="120"/>
     </row>
     <row r="110" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="399">
+      <c r="B110" s="420">
         <v>5</v>
       </c>
-      <c r="C110" s="400"/>
+      <c r="C110" s="421"/>
       <c r="D110" s="182"/>
       <c r="E110" s="187"/>
       <c r="F110" s="133" t="s">
@@ -42861,29 +42958,29 @@
       <c r="Z112" s="120"/>
     </row>
     <row r="113" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="311" t="s">
+      <c r="B113" s="328" t="s">
         <v>180</v>
       </c>
-      <c r="C113" s="311"/>
-      <c r="D113" s="311"/>
-      <c r="E113" s="311"/>
-      <c r="F113" s="311"/>
-      <c r="G113" s="311"/>
-      <c r="H113" s="311"/>
+      <c r="C113" s="328"/>
+      <c r="D113" s="328"/>
+      <c r="E113" s="328"/>
+      <c r="F113" s="328"/>
+      <c r="G113" s="328"/>
+      <c r="H113" s="328"/>
       <c r="I113" s="206" t="s">
         <v>212</v>
       </c>
-      <c r="J113" s="208">
+      <c r="J113" s="303">
         <f>H20</f>
         <v>150</v>
       </c>
       <c r="K113" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="L113" s="357"/>
-      <c r="M113" s="358"/>
-      <c r="N113" s="358"/>
-      <c r="O113" s="359"/>
+      <c r="L113" s="400"/>
+      <c r="M113" s="401"/>
+      <c r="N113" s="401"/>
+      <c r="O113" s="402"/>
       <c r="P113" s="121"/>
       <c r="Q113" s="188"/>
       <c r="R113" s="6"/>
@@ -42897,15 +42994,15 @@
       <c r="Z113" s="120"/>
     </row>
     <row r="114" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="293" t="s">
+      <c r="B114" s="310" t="s">
         <v>295</v>
       </c>
-      <c r="C114" s="352"/>
-      <c r="D114" s="352"/>
-      <c r="E114" s="352"/>
-      <c r="F114" s="352"/>
-      <c r="G114" s="352"/>
-      <c r="H114" s="294"/>
+      <c r="C114" s="369"/>
+      <c r="D114" s="369"/>
+      <c r="E114" s="369"/>
+      <c r="F114" s="369"/>
+      <c r="G114" s="369"/>
+      <c r="H114" s="311"/>
       <c r="I114" s="206" t="s">
         <v>296</v>
       </c>
@@ -42916,10 +43013,10 @@
       <c r="K114" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L114" s="357"/>
-      <c r="M114" s="358"/>
-      <c r="N114" s="358"/>
-      <c r="O114" s="359"/>
+      <c r="L114" s="400"/>
+      <c r="M114" s="401"/>
+      <c r="N114" s="401"/>
+      <c r="O114" s="402"/>
       <c r="P114" s="121"/>
       <c r="Q114" s="188"/>
       <c r="R114" s="6"/>
@@ -42933,29 +43030,29 @@
       <c r="Z114" s="120"/>
     </row>
     <row r="115" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="365" t="s">
+      <c r="B115" s="384" t="s">
         <v>298</v>
       </c>
-      <c r="C115" s="366"/>
-      <c r="D115" s="366"/>
-      <c r="E115" s="366"/>
-      <c r="F115" s="366"/>
-      <c r="G115" s="366"/>
-      <c r="H115" s="367"/>
-      <c r="I115" s="371" t="s">
+      <c r="C115" s="385"/>
+      <c r="D115" s="385"/>
+      <c r="E115" s="385"/>
+      <c r="F115" s="385"/>
+      <c r="G115" s="385"/>
+      <c r="H115" s="386"/>
+      <c r="I115" s="390" t="s">
         <v>299</v>
       </c>
-      <c r="J115" s="373">
+      <c r="J115" s="392">
         <f>J113/(24*60)*J114/3</f>
         <v>1.5625E-2</v>
       </c>
-      <c r="K115" s="371" t="s">
+      <c r="K115" s="390" t="s">
         <v>3</v>
       </c>
-      <c r="L115" s="375"/>
-      <c r="M115" s="376"/>
-      <c r="N115" s="376"/>
-      <c r="O115" s="377"/>
+      <c r="L115" s="394"/>
+      <c r="M115" s="395"/>
+      <c r="N115" s="395"/>
+      <c r="O115" s="396"/>
       <c r="P115" s="121"/>
       <c r="Q115" s="188"/>
       <c r="R115" s="6"/>
@@ -42969,20 +43066,20 @@
       <c r="Z115" s="120"/>
     </row>
     <row r="116" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="368"/>
-      <c r="C116" s="369"/>
-      <c r="D116" s="369"/>
-      <c r="E116" s="369"/>
-      <c r="F116" s="369"/>
-      <c r="G116" s="369"/>
-      <c r="H116" s="370"/>
-      <c r="I116" s="372"/>
-      <c r="J116" s="374"/>
-      <c r="K116" s="372"/>
-      <c r="L116" s="378"/>
-      <c r="M116" s="379"/>
-      <c r="N116" s="379"/>
-      <c r="O116" s="380"/>
+      <c r="B116" s="387"/>
+      <c r="C116" s="388"/>
+      <c r="D116" s="388"/>
+      <c r="E116" s="388"/>
+      <c r="F116" s="388"/>
+      <c r="G116" s="388"/>
+      <c r="H116" s="389"/>
+      <c r="I116" s="391"/>
+      <c r="J116" s="393"/>
+      <c r="K116" s="391"/>
+      <c r="L116" s="397"/>
+      <c r="M116" s="398"/>
+      <c r="N116" s="398"/>
+      <c r="O116" s="399"/>
       <c r="P116" s="121"/>
       <c r="Q116" s="188"/>
       <c r="R116" s="6"/>
@@ -43023,14 +43120,14 @@
       <c r="Z117" s="120"/>
     </row>
     <row r="118" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="110" t="s">
+      <c r="B118" s="304" t="s">
         <v>344</v>
       </c>
-      <c r="C118" s="82"/>
-      <c r="D118" s="130"/>
-      <c r="E118" s="195"/>
-      <c r="F118" s="130"/>
-      <c r="G118" s="137"/>
+      <c r="C118" s="305"/>
+      <c r="D118" s="306"/>
+      <c r="E118" s="307"/>
+      <c r="F118" s="306"/>
+      <c r="G118" s="308"/>
       <c r="H118" s="131"/>
       <c r="I118" s="138"/>
       <c r="J118" s="131"/>
@@ -43052,15 +43149,15 @@
       <c r="Z118" s="120"/>
     </row>
     <row r="119" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="293" t="s">
+      <c r="B119" s="310" t="s">
         <v>33</v>
       </c>
-      <c r="C119" s="352"/>
-      <c r="D119" s="352"/>
-      <c r="E119" s="352"/>
-      <c r="F119" s="352"/>
-      <c r="G119" s="352"/>
-      <c r="H119" s="294"/>
+      <c r="C119" s="369"/>
+      <c r="D119" s="369"/>
+      <c r="E119" s="369"/>
+      <c r="F119" s="369"/>
+      <c r="G119" s="369"/>
+      <c r="H119" s="311"/>
       <c r="I119" s="250" t="s">
         <v>0</v>
       </c>
@@ -43071,11 +43168,11 @@
       <c r="K119" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="L119" s="357"/>
-      <c r="M119" s="358"/>
-      <c r="N119" s="358"/>
-      <c r="O119" s="359"/>
-      <c r="P119" s="121"/>
+      <c r="L119" s="400"/>
+      <c r="M119" s="401"/>
+      <c r="N119" s="401"/>
+      <c r="O119" s="402"/>
+      <c r="P119" s="495"/>
       <c r="Q119" s="196"/>
       <c r="R119" s="6"/>
       <c r="S119" s="121"/>
@@ -43088,15 +43185,15 @@
       <c r="Z119" s="120"/>
     </row>
     <row r="120" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="293" t="s">
+      <c r="B120" s="430" t="s">
         <v>347</v>
       </c>
-      <c r="C120" s="352"/>
-      <c r="D120" s="352"/>
-      <c r="E120" s="352"/>
-      <c r="F120" s="352"/>
-      <c r="G120" s="352"/>
-      <c r="H120" s="294"/>
+      <c r="C120" s="431"/>
+      <c r="D120" s="431"/>
+      <c r="E120" s="431"/>
+      <c r="F120" s="431"/>
+      <c r="G120" s="431"/>
+      <c r="H120" s="432"/>
       <c r="I120" s="206" t="s">
         <v>212</v>
       </c>
@@ -43124,15 +43221,15 @@
       <c r="Z120" s="120"/>
     </row>
     <row r="121" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="293" t="s">
+      <c r="B121" s="430" t="s">
         <v>355</v>
       </c>
-      <c r="C121" s="352"/>
-      <c r="D121" s="352"/>
-      <c r="E121" s="352"/>
-      <c r="F121" s="352"/>
-      <c r="G121" s="352"/>
-      <c r="H121" s="294"/>
+      <c r="C121" s="431"/>
+      <c r="D121" s="431"/>
+      <c r="E121" s="431"/>
+      <c r="F121" s="431"/>
+      <c r="G121" s="431"/>
+      <c r="H121" s="432"/>
       <c r="I121" s="206" t="s">
         <v>356</v>
       </c>
@@ -43160,29 +43257,29 @@
       <c r="Z121" s="120"/>
     </row>
     <row r="122" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="365" t="s">
+      <c r="B122" s="422" t="s">
         <v>365</v>
       </c>
-      <c r="C122" s="366"/>
-      <c r="D122" s="366"/>
-      <c r="E122" s="366"/>
-      <c r="F122" s="366"/>
-      <c r="G122" s="366"/>
-      <c r="H122" s="367"/>
-      <c r="I122" s="401" t="s">
+      <c r="C122" s="423"/>
+      <c r="D122" s="423"/>
+      <c r="E122" s="423"/>
+      <c r="F122" s="423"/>
+      <c r="G122" s="423"/>
+      <c r="H122" s="424"/>
+      <c r="I122" s="428" t="s">
         <v>269</v>
       </c>
-      <c r="J122" s="363">
+      <c r="J122" s="380">
         <f>(J119*86400)/J120</f>
         <v>41.221440000000001</v>
       </c>
-      <c r="K122" s="401" t="s">
+      <c r="K122" s="428" t="s">
         <v>363</v>
       </c>
-      <c r="L122" s="375"/>
-      <c r="M122" s="376"/>
-      <c r="N122" s="376"/>
-      <c r="O122" s="377"/>
+      <c r="L122" s="394"/>
+      <c r="M122" s="395"/>
+      <c r="N122" s="395"/>
+      <c r="O122" s="396"/>
       <c r="P122" s="121"/>
       <c r="Q122" s="196"/>
       <c r="R122" s="6"/>
@@ -43196,20 +43293,20 @@
       <c r="Z122" s="120"/>
     </row>
     <row r="123" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="368"/>
-      <c r="C123" s="369"/>
-      <c r="D123" s="369"/>
-      <c r="E123" s="369"/>
-      <c r="F123" s="369"/>
-      <c r="G123" s="369"/>
-      <c r="H123" s="370"/>
-      <c r="I123" s="402"/>
-      <c r="J123" s="364"/>
-      <c r="K123" s="402"/>
-      <c r="L123" s="378"/>
-      <c r="M123" s="379"/>
-      <c r="N123" s="379"/>
-      <c r="O123" s="380"/>
+      <c r="B123" s="425"/>
+      <c r="C123" s="426"/>
+      <c r="D123" s="426"/>
+      <c r="E123" s="426"/>
+      <c r="F123" s="426"/>
+      <c r="G123" s="426"/>
+      <c r="H123" s="427"/>
+      <c r="I123" s="429"/>
+      <c r="J123" s="381"/>
+      <c r="K123" s="429"/>
+      <c r="L123" s="397"/>
+      <c r="M123" s="398"/>
+      <c r="N123" s="398"/>
+      <c r="O123" s="399"/>
       <c r="P123" s="121"/>
       <c r="Q123" s="196"/>
       <c r="R123" s="6"/>
@@ -43223,29 +43320,29 @@
       <c r="Z123" s="120"/>
     </row>
     <row r="124" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="365" t="s">
+      <c r="B124" s="422" t="s">
         <v>366</v>
       </c>
-      <c r="C124" s="366"/>
-      <c r="D124" s="366"/>
-      <c r="E124" s="366"/>
-      <c r="F124" s="366"/>
-      <c r="G124" s="366"/>
-      <c r="H124" s="367"/>
-      <c r="I124" s="401" t="s">
+      <c r="C124" s="423"/>
+      <c r="D124" s="423"/>
+      <c r="E124" s="423"/>
+      <c r="F124" s="423"/>
+      <c r="G124" s="423"/>
+      <c r="H124" s="424"/>
+      <c r="I124" s="428" t="s">
         <v>369</v>
       </c>
-      <c r="J124" s="363">
+      <c r="J124" s="380">
         <f>(J119*86400)/J121</f>
         <v>32.977151999999997</v>
       </c>
-      <c r="K124" s="401" t="s">
+      <c r="K124" s="428" t="s">
         <v>363</v>
       </c>
-      <c r="L124" s="375"/>
-      <c r="M124" s="376"/>
-      <c r="N124" s="376"/>
-      <c r="O124" s="377"/>
+      <c r="L124" s="394"/>
+      <c r="M124" s="395"/>
+      <c r="N124" s="395"/>
+      <c r="O124" s="396"/>
       <c r="P124" s="121"/>
       <c r="Q124" s="196"/>
       <c r="R124" s="6"/>
@@ -43259,20 +43356,20 @@
       <c r="Z124" s="120"/>
     </row>
     <row r="125" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="368"/>
-      <c r="C125" s="369"/>
-      <c r="D125" s="369"/>
-      <c r="E125" s="369"/>
-      <c r="F125" s="369"/>
-      <c r="G125" s="369"/>
-      <c r="H125" s="370"/>
-      <c r="I125" s="402"/>
-      <c r="J125" s="364"/>
-      <c r="K125" s="402"/>
-      <c r="L125" s="378"/>
-      <c r="M125" s="379"/>
-      <c r="N125" s="379"/>
-      <c r="O125" s="380"/>
+      <c r="B125" s="425"/>
+      <c r="C125" s="426"/>
+      <c r="D125" s="426"/>
+      <c r="E125" s="426"/>
+      <c r="F125" s="426"/>
+      <c r="G125" s="426"/>
+      <c r="H125" s="427"/>
+      <c r="I125" s="429"/>
+      <c r="J125" s="381"/>
+      <c r="K125" s="429"/>
+      <c r="L125" s="397"/>
+      <c r="M125" s="398"/>
+      <c r="N125" s="398"/>
+      <c r="O125" s="399"/>
       <c r="P125" s="121"/>
       <c r="Q125" s="196"/>
       <c r="R125" s="6"/>
@@ -43286,15 +43383,15 @@
       <c r="Z125" s="120"/>
     </row>
     <row r="126" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="293" t="s">
+      <c r="B126" s="430" t="s">
         <v>367</v>
       </c>
-      <c r="C126" s="352"/>
-      <c r="D126" s="352"/>
-      <c r="E126" s="352"/>
-      <c r="F126" s="352"/>
-      <c r="G126" s="352"/>
-      <c r="H126" s="294"/>
+      <c r="C126" s="431"/>
+      <c r="D126" s="431"/>
+      <c r="E126" s="431"/>
+      <c r="F126" s="431"/>
+      <c r="G126" s="431"/>
+      <c r="H126" s="432"/>
       <c r="I126" s="281" t="s">
         <v>368</v>
       </c>
@@ -43305,10 +43402,10 @@
       <c r="K126" s="281" t="s">
         <v>363</v>
       </c>
-      <c r="L126" s="357"/>
-      <c r="M126" s="358"/>
-      <c r="N126" s="358"/>
-      <c r="O126" s="359"/>
+      <c r="L126" s="400"/>
+      <c r="M126" s="401"/>
+      <c r="N126" s="401"/>
+      <c r="O126" s="402"/>
       <c r="P126" s="121"/>
       <c r="Q126" s="196"/>
       <c r="R126" s="6"/>
@@ -43322,27 +43419,27 @@
       <c r="Z126" s="120"/>
     </row>
     <row r="127" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="365" t="s">
+      <c r="B127" s="384" t="s">
         <v>345</v>
       </c>
-      <c r="C127" s="366"/>
-      <c r="D127" s="366"/>
-      <c r="E127" s="366"/>
-      <c r="F127" s="366"/>
-      <c r="G127" s="366"/>
-      <c r="H127" s="367"/>
-      <c r="I127" s="401" t="s">
+      <c r="C127" s="385"/>
+      <c r="D127" s="385"/>
+      <c r="E127" s="385"/>
+      <c r="F127" s="385"/>
+      <c r="G127" s="385"/>
+      <c r="H127" s="386"/>
+      <c r="I127" s="428" t="s">
         <v>381</v>
       </c>
-      <c r="J127" s="363">
+      <c r="J127" s="380">
         <f>ROUND(J122/J126,2)</f>
         <v>5</v>
       </c>
-      <c r="K127" s="401"/>
-      <c r="L127" s="375"/>
-      <c r="M127" s="376"/>
-      <c r="N127" s="376"/>
-      <c r="O127" s="377"/>
+      <c r="K127" s="428"/>
+      <c r="L127" s="394"/>
+      <c r="M127" s="395"/>
+      <c r="N127" s="395"/>
+      <c r="O127" s="396"/>
       <c r="P127" s="121"/>
       <c r="Q127" s="196"/>
       <c r="R127" s="6"/>
@@ -43356,20 +43453,20 @@
       <c r="Z127" s="120"/>
     </row>
     <row r="128" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="368"/>
-      <c r="C128" s="369"/>
-      <c r="D128" s="369"/>
-      <c r="E128" s="369"/>
-      <c r="F128" s="369"/>
-      <c r="G128" s="369"/>
-      <c r="H128" s="370"/>
-      <c r="I128" s="402"/>
-      <c r="J128" s="364"/>
-      <c r="K128" s="402"/>
-      <c r="L128" s="378"/>
-      <c r="M128" s="379"/>
-      <c r="N128" s="379"/>
-      <c r="O128" s="380"/>
+      <c r="B128" s="387"/>
+      <c r="C128" s="388"/>
+      <c r="D128" s="388"/>
+      <c r="E128" s="388"/>
+      <c r="F128" s="388"/>
+      <c r="G128" s="388"/>
+      <c r="H128" s="389"/>
+      <c r="I128" s="429"/>
+      <c r="J128" s="381"/>
+      <c r="K128" s="429"/>
+      <c r="L128" s="397"/>
+      <c r="M128" s="398"/>
+      <c r="N128" s="398"/>
+      <c r="O128" s="399"/>
       <c r="P128" s="121"/>
       <c r="Q128" s="196"/>
       <c r="R128" s="6"/>
@@ -43383,15 +43480,15 @@
       <c r="Z128" s="120"/>
     </row>
     <row r="129" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="311" t="s">
+      <c r="B129" s="403" t="s">
         <v>371</v>
       </c>
-      <c r="C129" s="311"/>
-      <c r="D129" s="311"/>
-      <c r="E129" s="311"/>
-      <c r="F129" s="311"/>
-      <c r="G129" s="311"/>
-      <c r="H129" s="311"/>
+      <c r="C129" s="403"/>
+      <c r="D129" s="403"/>
+      <c r="E129" s="403"/>
+      <c r="F129" s="403"/>
+      <c r="G129" s="403"/>
+      <c r="H129" s="403"/>
       <c r="I129" s="275" t="s">
         <v>370</v>
       </c>
@@ -43402,10 +43499,10 @@
       <c r="K129" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="L129" s="336"/>
-      <c r="M129" s="336"/>
-      <c r="N129" s="336"/>
-      <c r="O129" s="336"/>
+      <c r="L129" s="353"/>
+      <c r="M129" s="353"/>
+      <c r="N129" s="353"/>
+      <c r="O129" s="353"/>
       <c r="P129" s="121"/>
       <c r="Q129" s="196"/>
       <c r="R129" s="6"/>
@@ -43531,15 +43628,15 @@
       <c r="Z133" s="120"/>
     </row>
     <row r="134" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="389" t="s">
+      <c r="B134" s="410" t="s">
         <v>231</v>
       </c>
-      <c r="C134" s="390"/>
-      <c r="D134" s="390"/>
-      <c r="E134" s="390"/>
-      <c r="F134" s="390"/>
-      <c r="G134" s="390"/>
-      <c r="H134" s="391"/>
+      <c r="C134" s="411"/>
+      <c r="D134" s="411"/>
+      <c r="E134" s="411"/>
+      <c r="F134" s="411"/>
+      <c r="G134" s="411"/>
+      <c r="H134" s="412"/>
       <c r="I134" s="56" t="s">
         <v>11</v>
       </c>
@@ -43548,10 +43645,10 @@
         <v>0.45</v>
       </c>
       <c r="K134" s="203"/>
-      <c r="L134" s="357"/>
-      <c r="M134" s="358"/>
-      <c r="N134" s="358"/>
-      <c r="O134" s="359"/>
+      <c r="L134" s="400"/>
+      <c r="M134" s="401"/>
+      <c r="N134" s="401"/>
+      <c r="O134" s="402"/>
       <c r="P134" s="121"/>
       <c r="Q134" s="188"/>
       <c r="R134" s="6"/>
@@ -43565,22 +43662,22 @@
       <c r="Z134" s="120"/>
     </row>
     <row r="135" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="389" t="str">
+      <c r="B135" s="410" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J30&amp;" °C"</f>
-        <v>Viscocidad dinámica del agua a 28 °C</v>
-      </c>
-      <c r="C135" s="390"/>
-      <c r="D135" s="390"/>
-      <c r="E135" s="390"/>
-      <c r="F135" s="390"/>
-      <c r="G135" s="390"/>
-      <c r="H135" s="391"/>
+        <v>Viscocidad dinámica del agua a 3 °C</v>
+      </c>
+      <c r="C135" s="411"/>
+      <c r="D135" s="411"/>
+      <c r="E135" s="411"/>
+      <c r="F135" s="411"/>
+      <c r="G135" s="411"/>
+      <c r="H135" s="412"/>
       <c r="I135" s="275" t="s">
         <v>213</v>
       </c>
       <c r="J135" s="202">
         <f>J32*1000</f>
-        <v>0.83600000000000008</v>
+        <v>1.619</v>
       </c>
       <c r="K135" s="204" t="s">
         <v>290</v>
@@ -43602,15 +43699,15 @@
       <c r="Z135" s="120"/>
     </row>
     <row r="136" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="312" t="s">
+      <c r="B136" s="329" t="s">
         <v>243</v>
       </c>
-      <c r="C136" s="353"/>
-      <c r="D136" s="353"/>
-      <c r="E136" s="353"/>
-      <c r="F136" s="353"/>
-      <c r="G136" s="353"/>
-      <c r="H136" s="313"/>
+      <c r="C136" s="370"/>
+      <c r="D136" s="370"/>
+      <c r="E136" s="370"/>
+      <c r="F136" s="370"/>
+      <c r="G136" s="370"/>
+      <c r="H136" s="330"/>
       <c r="I136" s="153" t="s">
         <v>257</v>
       </c>
@@ -43621,10 +43718,10 @@
       <c r="K136" s="153" t="s">
         <v>244</v>
       </c>
-      <c r="L136" s="356"/>
-      <c r="M136" s="356"/>
-      <c r="N136" s="356"/>
-      <c r="O136" s="356"/>
+      <c r="L136" s="373"/>
+      <c r="M136" s="373"/>
+      <c r="N136" s="373"/>
+      <c r="O136" s="373"/>
       <c r="P136" s="161"/>
       <c r="Q136" s="149"/>
       <c r="R136" s="6"/>
@@ -43638,15 +43735,15 @@
       <c r="Z136" s="120"/>
     </row>
     <row r="137" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="312" t="s">
+      <c r="B137" s="329" t="s">
         <v>280</v>
       </c>
-      <c r="C137" s="353"/>
-      <c r="D137" s="353"/>
-      <c r="E137" s="353"/>
-      <c r="F137" s="353"/>
-      <c r="G137" s="353"/>
-      <c r="H137" s="313"/>
+      <c r="C137" s="370"/>
+      <c r="D137" s="370"/>
+      <c r="E137" s="370"/>
+      <c r="F137" s="370"/>
+      <c r="G137" s="370"/>
+      <c r="H137" s="330"/>
       <c r="I137" s="153" t="s">
         <v>279</v>
       </c>
@@ -43657,10 +43754,10 @@
       <c r="K137" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L137" s="356"/>
-      <c r="M137" s="356"/>
-      <c r="N137" s="356"/>
-      <c r="O137" s="356"/>
+      <c r="L137" s="373"/>
+      <c r="M137" s="373"/>
+      <c r="N137" s="373"/>
+      <c r="O137" s="373"/>
       <c r="P137" s="161"/>
       <c r="Q137" s="149"/>
       <c r="R137" s="6"/>
@@ -43674,30 +43771,30 @@
       <c r="Z137" s="120"/>
     </row>
     <row r="138" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="312" t="str">
+      <c r="B138" s="329" t="str">
         <f>"Velocidad de arrastre del medio filtrante a "&amp;J30&amp;" °C"</f>
-        <v>Velocidad de arrastre del medio filtrante a 28 °C</v>
-      </c>
-      <c r="C138" s="353"/>
-      <c r="D138" s="353"/>
-      <c r="E138" s="353"/>
-      <c r="F138" s="353"/>
-      <c r="G138" s="353"/>
-      <c r="H138" s="313"/>
+        <v>Velocidad de arrastre del medio filtrante a 3 °C</v>
+      </c>
+      <c r="C138" s="370"/>
+      <c r="D138" s="370"/>
+      <c r="E138" s="370"/>
+      <c r="F138" s="370"/>
+      <c r="G138" s="370"/>
+      <c r="H138" s="330"/>
       <c r="I138" s="153" t="s">
         <v>289</v>
       </c>
       <c r="J138" s="143">
         <f>IF(J30=20,J137,J137*((J135)^(-1/3)))</f>
-        <v>5.0962637059663027</v>
+        <v>4.0885724887338961</v>
       </c>
       <c r="K138" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L138" s="356"/>
-      <c r="M138" s="356"/>
-      <c r="N138" s="356"/>
-      <c r="O138" s="356"/>
+      <c r="L138" s="373"/>
+      <c r="M138" s="373"/>
+      <c r="N138" s="373"/>
+      <c r="O138" s="373"/>
       <c r="P138" s="161"/>
       <c r="Q138" s="149"/>
       <c r="R138" s="6"/>
@@ -43711,30 +43808,30 @@
       <c r="Z138" s="120"/>
     </row>
     <row r="139" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="312" t="str">
+      <c r="B139" s="329" t="str">
         <f>"Velocidad de fluidización del medio filtrante a "&amp;J30&amp;" °C"</f>
-        <v>Velocidad de fluidización del medio filtrante a 28 °C</v>
-      </c>
-      <c r="C139" s="353"/>
-      <c r="D139" s="353"/>
-      <c r="E139" s="353"/>
-      <c r="F139" s="353"/>
-      <c r="G139" s="353"/>
-      <c r="H139" s="313"/>
+        <v>Velocidad de fluidización del medio filtrante a 3 °C</v>
+      </c>
+      <c r="C139" s="370"/>
+      <c r="D139" s="370"/>
+      <c r="E139" s="370"/>
+      <c r="F139" s="370"/>
+      <c r="G139" s="370"/>
+      <c r="H139" s="330"/>
       <c r="I139" s="153" t="s">
         <v>288</v>
       </c>
       <c r="J139" s="143">
         <f>J138*(J134^4.5)</f>
-        <v>0.14018714929215545</v>
+        <v>0.1124677518549367</v>
       </c>
       <c r="K139" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L139" s="360"/>
-      <c r="M139" s="361"/>
-      <c r="N139" s="361"/>
-      <c r="O139" s="362"/>
+      <c r="L139" s="377"/>
+      <c r="M139" s="378"/>
+      <c r="N139" s="378"/>
+      <c r="O139" s="379"/>
       <c r="P139" s="161"/>
       <c r="Q139" s="188"/>
       <c r="R139" s="6"/>
@@ -43748,30 +43845,30 @@
       <c r="Z139" s="120"/>
     </row>
     <row r="140" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="312" t="str">
+      <c r="B140" s="329" t="str">
         <f>"Velocidad óptima de lavado a "&amp;J30&amp;" °C"</f>
-        <v>Velocidad óptima de lavado a 28 °C</v>
-      </c>
-      <c r="C140" s="353"/>
-      <c r="D140" s="353"/>
-      <c r="E140" s="353"/>
-      <c r="F140" s="353"/>
-      <c r="G140" s="353"/>
-      <c r="H140" s="313"/>
+        <v>Velocidad óptima de lavado a 3 °C</v>
+      </c>
+      <c r="C140" s="370"/>
+      <c r="D140" s="370"/>
+      <c r="E140" s="370"/>
+      <c r="F140" s="370"/>
+      <c r="G140" s="370"/>
+      <c r="H140" s="330"/>
       <c r="I140" s="153" t="s">
         <v>281</v>
       </c>
       <c r="J140" s="143">
         <f>0.1*J138</f>
-        <v>0.5096263705966303</v>
+        <v>0.40885724887338964</v>
       </c>
       <c r="K140" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L140" s="356"/>
-      <c r="M140" s="356"/>
-      <c r="N140" s="356"/>
-      <c r="O140" s="356"/>
+      <c r="L140" s="373"/>
+      <c r="M140" s="373"/>
+      <c r="N140" s="373"/>
+      <c r="O140" s="373"/>
       <c r="P140" s="161"/>
       <c r="Q140" s="149"/>
       <c r="R140" s="6"/>
@@ -43841,16 +43938,16 @@
       <c r="Z142" s="120"/>
     </row>
     <row r="143" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="312" t="s">
+      <c r="B143" s="374" t="s">
         <v>374</v>
       </c>
-      <c r="C143" s="353"/>
-      <c r="D143" s="353"/>
-      <c r="E143" s="353"/>
-      <c r="F143" s="353"/>
-      <c r="G143" s="353"/>
-      <c r="H143" s="313"/>
-      <c r="I143" s="466" t="s">
+      <c r="C143" s="375"/>
+      <c r="D143" s="375"/>
+      <c r="E143" s="375"/>
+      <c r="F143" s="375"/>
+      <c r="G143" s="375"/>
+      <c r="H143" s="376"/>
+      <c r="I143" s="298" t="s">
         <v>382</v>
       </c>
       <c r="J143" s="286">
@@ -43859,10 +43956,10 @@
       <c r="K143" s="153" t="s">
         <v>375</v>
       </c>
-      <c r="L143" s="360"/>
-      <c r="M143" s="361"/>
-      <c r="N143" s="361"/>
-      <c r="O143" s="362"/>
+      <c r="L143" s="377"/>
+      <c r="M143" s="378"/>
+      <c r="N143" s="378"/>
+      <c r="O143" s="379"/>
       <c r="P143" s="161"/>
       <c r="Q143" s="188"/>
       <c r="R143" s="6"/>
@@ -43876,16 +43973,16 @@
       <c r="Z143" s="120"/>
     </row>
     <row r="144" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="312" t="s">
+      <c r="B144" s="374" t="s">
         <v>376</v>
       </c>
-      <c r="C144" s="353"/>
-      <c r="D144" s="353"/>
-      <c r="E144" s="353"/>
-      <c r="F144" s="353"/>
-      <c r="G144" s="353"/>
-      <c r="H144" s="313"/>
-      <c r="I144" s="467" t="s">
+      <c r="C144" s="375"/>
+      <c r="D144" s="375"/>
+      <c r="E144" s="375"/>
+      <c r="F144" s="375"/>
+      <c r="G144" s="375"/>
+      <c r="H144" s="376"/>
+      <c r="I144" s="299" t="s">
         <v>383</v>
       </c>
       <c r="J144" s="143">
@@ -43895,10 +43992,10 @@
       <c r="K144" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L144" s="360"/>
-      <c r="M144" s="361"/>
-      <c r="N144" s="361"/>
-      <c r="O144" s="362"/>
+      <c r="L144" s="377"/>
+      <c r="M144" s="378"/>
+      <c r="N144" s="378"/>
+      <c r="O144" s="379"/>
       <c r="P144" s="161"/>
       <c r="Q144" s="188"/>
       <c r="R144" s="6"/>
@@ -43912,16 +44009,16 @@
       <c r="Z144" s="120"/>
     </row>
     <row r="145" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="312" t="s">
+      <c r="B145" s="374" t="s">
         <v>377</v>
       </c>
-      <c r="C145" s="353"/>
-      <c r="D145" s="353"/>
-      <c r="E145" s="353"/>
-      <c r="F145" s="353"/>
-      <c r="G145" s="353"/>
-      <c r="H145" s="313"/>
-      <c r="I145" s="468" t="s">
+      <c r="C145" s="375"/>
+      <c r="D145" s="375"/>
+      <c r="E145" s="375"/>
+      <c r="F145" s="375"/>
+      <c r="G145" s="375"/>
+      <c r="H145" s="376"/>
+      <c r="I145" s="300" t="s">
         <v>384</v>
       </c>
       <c r="J145" s="279">
@@ -43931,10 +44028,10 @@
       <c r="K145" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L145" s="360"/>
-      <c r="M145" s="361"/>
-      <c r="N145" s="361"/>
-      <c r="O145" s="362"/>
+      <c r="L145" s="377"/>
+      <c r="M145" s="378"/>
+      <c r="N145" s="378"/>
+      <c r="O145" s="379"/>
       <c r="P145" s="161"/>
       <c r="Q145" s="188"/>
       <c r="R145" s="6"/>
@@ -43948,16 +44045,16 @@
       <c r="Z145" s="120"/>
     </row>
     <row r="146" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="312" t="s">
+      <c r="B146" s="374" t="s">
         <v>378</v>
       </c>
-      <c r="C146" s="353"/>
-      <c r="D146" s="353"/>
-      <c r="E146" s="353"/>
-      <c r="F146" s="353"/>
-      <c r="G146" s="353"/>
-      <c r="H146" s="313"/>
-      <c r="I146" s="467" t="s">
+      <c r="C146" s="375"/>
+      <c r="D146" s="375"/>
+      <c r="E146" s="375"/>
+      <c r="F146" s="375"/>
+      <c r="G146" s="375"/>
+      <c r="H146" s="376"/>
+      <c r="I146" s="299" t="s">
         <v>385</v>
       </c>
       <c r="J146" s="279">
@@ -43966,10 +44063,10 @@
       <c r="K146" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L146" s="360"/>
-      <c r="M146" s="361"/>
-      <c r="N146" s="361"/>
-      <c r="O146" s="362"/>
+      <c r="L146" s="377"/>
+      <c r="M146" s="378"/>
+      <c r="N146" s="378"/>
+      <c r="O146" s="379"/>
       <c r="P146" s="161"/>
       <c r="Q146" s="188"/>
       <c r="R146" s="6"/>
@@ -43983,16 +44080,16 @@
       <c r="Z146" s="120"/>
     </row>
     <row r="147" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="312" t="s">
+      <c r="B147" s="374" t="s">
         <v>379</v>
       </c>
-      <c r="C147" s="353"/>
-      <c r="D147" s="353"/>
-      <c r="E147" s="353"/>
-      <c r="F147" s="353"/>
-      <c r="G147" s="353"/>
-      <c r="H147" s="313"/>
-      <c r="I147" s="466" t="s">
+      <c r="C147" s="375"/>
+      <c r="D147" s="375"/>
+      <c r="E147" s="375"/>
+      <c r="F147" s="375"/>
+      <c r="G147" s="375"/>
+      <c r="H147" s="376"/>
+      <c r="I147" s="298" t="s">
         <v>386</v>
       </c>
       <c r="J147" s="286">
@@ -44002,10 +44099,10 @@
       <c r="K147" s="153" t="s">
         <v>375</v>
       </c>
-      <c r="L147" s="360"/>
-      <c r="M147" s="361"/>
-      <c r="N147" s="361"/>
-      <c r="O147" s="362"/>
+      <c r="L147" s="377"/>
+      <c r="M147" s="378"/>
+      <c r="N147" s="378"/>
+      <c r="O147" s="379"/>
       <c r="P147" s="161"/>
       <c r="Q147" s="188"/>
       <c r="R147" s="6"/>
@@ -44019,32 +44116,32 @@
       <c r="Z147" s="120"/>
     </row>
     <row r="148" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="444" t="s">
+      <c r="B148" s="474" t="s">
         <v>389</v>
       </c>
-      <c r="C148" s="445"/>
-      <c r="D148" s="445"/>
-      <c r="E148" s="445"/>
-      <c r="F148" s="445"/>
-      <c r="G148" s="445"/>
-      <c r="H148" s="446"/>
-      <c r="I148" s="371" t="s">
+      <c r="C148" s="475"/>
+      <c r="D148" s="475"/>
+      <c r="E148" s="475"/>
+      <c r="F148" s="475"/>
+      <c r="G148" s="475"/>
+      <c r="H148" s="476"/>
+      <c r="I148" s="390" t="s">
         <v>388</v>
       </c>
-      <c r="J148" s="450">
+      <c r="J148" s="480">
         <f>ROUNDDOWN(2*(J129/J146),0)</f>
         <v>28</v>
       </c>
-      <c r="K148" s="371"/>
-      <c r="L148" s="452"/>
-      <c r="M148" s="453"/>
-      <c r="N148" s="453"/>
-      <c r="O148" s="454"/>
+      <c r="K148" s="390"/>
+      <c r="L148" s="482"/>
+      <c r="M148" s="483"/>
+      <c r="N148" s="483"/>
+      <c r="O148" s="484"/>
       <c r="P148" s="161"/>
       <c r="Q148" s="290"/>
       <c r="R148" s="6"/>
       <c r="S148" s="83"/>
-      <c r="T148" s="469"/>
+      <c r="T148" s="301"/>
       <c r="U148" s="290"/>
       <c r="V148" s="6"/>
       <c r="W148" s="121"/>
@@ -44053,25 +44150,25 @@
       <c r="Z148" s="120"/>
     </row>
     <row r="149" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="447"/>
-      <c r="C149" s="448"/>
-      <c r="D149" s="448"/>
-      <c r="E149" s="448"/>
-      <c r="F149" s="448"/>
-      <c r="G149" s="448"/>
-      <c r="H149" s="449"/>
-      <c r="I149" s="372"/>
-      <c r="J149" s="451"/>
-      <c r="K149" s="372"/>
-      <c r="L149" s="455"/>
-      <c r="M149" s="456"/>
-      <c r="N149" s="456"/>
-      <c r="O149" s="457"/>
+      <c r="B149" s="477"/>
+      <c r="C149" s="478"/>
+      <c r="D149" s="478"/>
+      <c r="E149" s="478"/>
+      <c r="F149" s="478"/>
+      <c r="G149" s="478"/>
+      <c r="H149" s="479"/>
+      <c r="I149" s="391"/>
+      <c r="J149" s="481"/>
+      <c r="K149" s="391"/>
+      <c r="L149" s="485"/>
+      <c r="M149" s="486"/>
+      <c r="N149" s="486"/>
+      <c r="O149" s="487"/>
       <c r="P149" s="161"/>
       <c r="Q149" s="280"/>
       <c r="R149" s="6"/>
       <c r="S149" s="83"/>
-      <c r="T149" s="469"/>
+      <c r="T149" s="301"/>
       <c r="U149" s="290"/>
       <c r="V149" s="6"/>
       <c r="W149" s="121"/>
@@ -44080,32 +44177,32 @@
       <c r="Z149" s="120"/>
     </row>
     <row r="150" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="444" t="s">
+      <c r="B150" s="474" t="s">
         <v>390</v>
       </c>
-      <c r="C150" s="445"/>
-      <c r="D150" s="445"/>
-      <c r="E150" s="445"/>
-      <c r="F150" s="445"/>
-      <c r="G150" s="445"/>
-      <c r="H150" s="446"/>
-      <c r="I150" s="371" t="s">
+      <c r="C150" s="475"/>
+      <c r="D150" s="475"/>
+      <c r="E150" s="475"/>
+      <c r="F150" s="475"/>
+      <c r="G150" s="475"/>
+      <c r="H150" s="476"/>
+      <c r="I150" s="390" t="s">
         <v>387</v>
       </c>
-      <c r="J150" s="450">
+      <c r="J150" s="480">
         <f>J148*ROUND(J145/J144,0)*2</f>
         <v>1008</v>
       </c>
-      <c r="K150" s="371"/>
-      <c r="L150" s="452"/>
-      <c r="M150" s="453"/>
-      <c r="N150" s="453"/>
-      <c r="O150" s="454"/>
+      <c r="K150" s="390"/>
+      <c r="L150" s="482"/>
+      <c r="M150" s="483"/>
+      <c r="N150" s="483"/>
+      <c r="O150" s="484"/>
       <c r="P150" s="161"/>
       <c r="Q150" s="290"/>
       <c r="R150" s="6"/>
       <c r="S150" s="83"/>
-      <c r="T150" s="469"/>
+      <c r="T150" s="301"/>
       <c r="U150" s="290"/>
       <c r="V150" s="6"/>
       <c r="W150" s="121"/>
@@ -44114,25 +44211,25 @@
       <c r="Z150" s="120"/>
     </row>
     <row r="151" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="447"/>
-      <c r="C151" s="448"/>
-      <c r="D151" s="448"/>
-      <c r="E151" s="448"/>
-      <c r="F151" s="448"/>
-      <c r="G151" s="448"/>
-      <c r="H151" s="449"/>
-      <c r="I151" s="372"/>
-      <c r="J151" s="451"/>
-      <c r="K151" s="372"/>
-      <c r="L151" s="455"/>
-      <c r="M151" s="456"/>
-      <c r="N151" s="456"/>
-      <c r="O151" s="457"/>
+      <c r="B151" s="477"/>
+      <c r="C151" s="478"/>
+      <c r="D151" s="478"/>
+      <c r="E151" s="478"/>
+      <c r="F151" s="478"/>
+      <c r="G151" s="478"/>
+      <c r="H151" s="479"/>
+      <c r="I151" s="391"/>
+      <c r="J151" s="481"/>
+      <c r="K151" s="391"/>
+      <c r="L151" s="485"/>
+      <c r="M151" s="486"/>
+      <c r="N151" s="486"/>
+      <c r="O151" s="487"/>
       <c r="P151" s="161"/>
       <c r="Q151" s="280"/>
       <c r="R151" s="6"/>
       <c r="S151" s="83"/>
-      <c r="T151" s="469"/>
+      <c r="T151" s="301"/>
       <c r="U151" s="290"/>
       <c r="V151" s="6"/>
       <c r="W151" s="121"/>
@@ -44141,34 +44238,34 @@
       <c r="Z151" s="120"/>
     </row>
     <row r="152" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="444" t="s">
+      <c r="B152" s="474" t="s">
         <v>392</v>
       </c>
-      <c r="C152" s="445"/>
-      <c r="D152" s="445"/>
-      <c r="E152" s="445"/>
-      <c r="F152" s="445"/>
-      <c r="G152" s="445"/>
-      <c r="H152" s="446"/>
-      <c r="I152" s="371" t="s">
+      <c r="C152" s="475"/>
+      <c r="D152" s="475"/>
+      <c r="E152" s="475"/>
+      <c r="F152" s="475"/>
+      <c r="G152" s="475"/>
+      <c r="H152" s="476"/>
+      <c r="I152" s="390" t="s">
         <v>391</v>
       </c>
-      <c r="J152" s="463">
+      <c r="J152" s="491">
         <f>J150*PI()*(((J143*0.0254)^2)/4)</f>
         <v>3.1922571183142359E-2</v>
       </c>
-      <c r="K152" s="371" t="s">
+      <c r="K152" s="390" t="s">
         <v>393</v>
       </c>
-      <c r="L152" s="452"/>
-      <c r="M152" s="453"/>
-      <c r="N152" s="453"/>
-      <c r="O152" s="454"/>
+      <c r="L152" s="482"/>
+      <c r="M152" s="483"/>
+      <c r="N152" s="483"/>
+      <c r="O152" s="484"/>
       <c r="P152" s="161"/>
       <c r="Q152" s="290"/>
       <c r="R152" s="6"/>
       <c r="S152" s="83"/>
-      <c r="T152" s="469"/>
+      <c r="T152" s="301"/>
       <c r="U152" s="290"/>
       <c r="V152" s="6"/>
       <c r="W152" s="121"/>
@@ -44177,25 +44274,25 @@
       <c r="Z152" s="120"/>
     </row>
     <row r="153" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="447"/>
-      <c r="C153" s="448"/>
-      <c r="D153" s="448"/>
-      <c r="E153" s="448"/>
-      <c r="F153" s="448"/>
-      <c r="G153" s="448"/>
-      <c r="H153" s="449"/>
-      <c r="I153" s="372"/>
-      <c r="J153" s="462"/>
-      <c r="K153" s="372"/>
-      <c r="L153" s="455"/>
-      <c r="M153" s="456"/>
-      <c r="N153" s="456"/>
-      <c r="O153" s="457"/>
+      <c r="B153" s="477"/>
+      <c r="C153" s="478"/>
+      <c r="D153" s="478"/>
+      <c r="E153" s="478"/>
+      <c r="F153" s="478"/>
+      <c r="G153" s="478"/>
+      <c r="H153" s="479"/>
+      <c r="I153" s="391"/>
+      <c r="J153" s="492"/>
+      <c r="K153" s="391"/>
+      <c r="L153" s="485"/>
+      <c r="M153" s="486"/>
+      <c r="N153" s="486"/>
+      <c r="O153" s="487"/>
       <c r="P153" s="161"/>
       <c r="Q153" s="290"/>
       <c r="R153" s="6"/>
       <c r="S153" s="83"/>
-      <c r="T153" s="469"/>
+      <c r="T153" s="301"/>
       <c r="U153" s="290"/>
       <c r="V153" s="6"/>
       <c r="W153" s="121"/>
@@ -44204,34 +44301,34 @@
       <c r="Z153" s="120"/>
     </row>
     <row r="154" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="444" t="s">
+      <c r="B154" s="474" t="s">
         <v>394</v>
       </c>
-      <c r="C154" s="445"/>
-      <c r="D154" s="445"/>
-      <c r="E154" s="445"/>
-      <c r="F154" s="445"/>
-      <c r="G154" s="445"/>
-      <c r="H154" s="446"/>
-      <c r="I154" s="371" t="s">
+      <c r="C154" s="475"/>
+      <c r="D154" s="475"/>
+      <c r="E154" s="475"/>
+      <c r="F154" s="475"/>
+      <c r="G154" s="475"/>
+      <c r="H154" s="476"/>
+      <c r="I154" s="390" t="s">
         <v>395</v>
       </c>
-      <c r="J154" s="463">
+      <c r="J154" s="491">
         <f>J152/0.4</f>
         <v>7.9806427957855891E-2</v>
       </c>
-      <c r="K154" s="371" t="s">
+      <c r="K154" s="390" t="s">
         <v>393</v>
       </c>
-      <c r="L154" s="452"/>
-      <c r="M154" s="453"/>
-      <c r="N154" s="453"/>
-      <c r="O154" s="454"/>
+      <c r="L154" s="482"/>
+      <c r="M154" s="483"/>
+      <c r="N154" s="483"/>
+      <c r="O154" s="484"/>
       <c r="P154" s="161"/>
       <c r="Q154" s="290"/>
       <c r="R154" s="6"/>
       <c r="S154" s="83"/>
-      <c r="T154" s="469"/>
+      <c r="T154" s="301"/>
       <c r="U154" s="290"/>
       <c r="V154" s="6"/>
       <c r="W154" s="121"/>
@@ -44240,25 +44337,25 @@
       <c r="Z154" s="120"/>
     </row>
     <row r="155" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="447"/>
-      <c r="C155" s="448"/>
-      <c r="D155" s="448"/>
-      <c r="E155" s="448"/>
-      <c r="F155" s="448"/>
-      <c r="G155" s="448"/>
-      <c r="H155" s="449"/>
-      <c r="I155" s="372"/>
-      <c r="J155" s="462"/>
-      <c r="K155" s="372"/>
-      <c r="L155" s="455"/>
-      <c r="M155" s="456"/>
-      <c r="N155" s="456"/>
-      <c r="O155" s="457"/>
+      <c r="B155" s="477"/>
+      <c r="C155" s="478"/>
+      <c r="D155" s="478"/>
+      <c r="E155" s="478"/>
+      <c r="F155" s="478"/>
+      <c r="G155" s="478"/>
+      <c r="H155" s="479"/>
+      <c r="I155" s="391"/>
+      <c r="J155" s="492"/>
+      <c r="K155" s="391"/>
+      <c r="L155" s="485"/>
+      <c r="M155" s="486"/>
+      <c r="N155" s="486"/>
+      <c r="O155" s="487"/>
       <c r="P155" s="161"/>
       <c r="Q155" s="280"/>
       <c r="R155" s="6"/>
       <c r="S155" s="83"/>
-      <c r="T155" s="469"/>
+      <c r="T155" s="301"/>
       <c r="U155" s="290"/>
       <c r="V155" s="6"/>
       <c r="W155" s="121"/>
@@ -44267,32 +44364,32 @@
       <c r="Z155" s="120"/>
     </row>
     <row r="156" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="312" t="s">
+      <c r="B156" s="374" t="s">
         <v>396</v>
       </c>
-      <c r="C156" s="353"/>
-      <c r="D156" s="353"/>
-      <c r="E156" s="353"/>
-      <c r="F156" s="353"/>
-      <c r="G156" s="353"/>
-      <c r="H156" s="313"/>
+      <c r="C156" s="375"/>
+      <c r="D156" s="375"/>
+      <c r="E156" s="375"/>
+      <c r="F156" s="375"/>
+      <c r="G156" s="375"/>
+      <c r="H156" s="376"/>
       <c r="I156" s="291"/>
-      <c r="J156" s="461" t="str">
+      <c r="J156" s="295" t="str">
         <f>INDEX(AL8:AL16,MATCH(J154,AM8:AM16,1),1)</f>
         <v>10 X 10</v>
       </c>
       <c r="K156" s="153" t="s">
         <v>408</v>
       </c>
-      <c r="L156" s="458"/>
-      <c r="M156" s="459"/>
-      <c r="N156" s="459"/>
-      <c r="O156" s="460"/>
+      <c r="L156" s="292"/>
+      <c r="M156" s="293"/>
+      <c r="N156" s="293"/>
+      <c r="O156" s="294"/>
       <c r="P156" s="161"/>
       <c r="Q156" s="290"/>
       <c r="R156" s="6"/>
       <c r="S156" s="83"/>
-      <c r="T156" s="469"/>
+      <c r="T156" s="301"/>
       <c r="U156" s="290"/>
       <c r="V156" s="6"/>
       <c r="W156" s="121"/>
@@ -44301,16 +44398,16 @@
       <c r="Z156" s="120"/>
     </row>
     <row r="157" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="309" t="s">
+      <c r="B157" s="493" t="s">
         <v>410</v>
       </c>
-      <c r="C157" s="309"/>
-      <c r="D157" s="309"/>
-      <c r="E157" s="309"/>
-      <c r="F157" s="309"/>
-      <c r="G157" s="309"/>
-      <c r="H157" s="309"/>
-      <c r="I157" s="468" t="s">
+      <c r="C157" s="493"/>
+      <c r="D157" s="493"/>
+      <c r="E157" s="493"/>
+      <c r="F157" s="493"/>
+      <c r="G157" s="493"/>
+      <c r="H157" s="493"/>
+      <c r="I157" s="300" t="s">
         <v>395</v>
       </c>
       <c r="J157" s="289">
@@ -44320,10 +44417,10 @@
       <c r="K157" s="153" t="s">
         <v>393</v>
       </c>
-      <c r="L157" s="360"/>
-      <c r="M157" s="361"/>
-      <c r="N157" s="361"/>
-      <c r="O157" s="362"/>
+      <c r="L157" s="377"/>
+      <c r="M157" s="378"/>
+      <c r="N157" s="378"/>
+      <c r="O157" s="379"/>
       <c r="P157" s="161"/>
       <c r="Q157" s="290"/>
       <c r="R157" s="6"/>
@@ -44337,28 +44434,28 @@
       <c r="Z157" s="120"/>
     </row>
     <row r="158" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="312" t="s">
+      <c r="B158" s="374" t="s">
         <v>409</v>
       </c>
-      <c r="C158" s="353"/>
-      <c r="D158" s="353"/>
-      <c r="E158" s="353"/>
-      <c r="F158" s="353"/>
-      <c r="G158" s="353"/>
-      <c r="H158" s="313"/>
-      <c r="I158" s="468"/>
+      <c r="C158" s="375"/>
+      <c r="D158" s="375"/>
+      <c r="E158" s="375"/>
+      <c r="F158" s="375"/>
+      <c r="G158" s="375"/>
+      <c r="H158" s="376"/>
+      <c r="I158" s="300"/>
       <c r="J158" s="289">
         <f>J152/J126</f>
         <v>3.8740984445561114E-3</v>
       </c>
       <c r="K158" s="291"/>
-      <c r="L158" s="470" t="str">
+      <c r="L158" s="488" t="str">
         <f>IF(AND(J158&gt;0.0015,J158&lt;0.005),"¡ok!","¡error!")</f>
         <v>¡ok!</v>
       </c>
-      <c r="M158" s="471"/>
-      <c r="N158" s="471"/>
-      <c r="O158" s="472"/>
+      <c r="M158" s="489"/>
+      <c r="N158" s="489"/>
+      <c r="O158" s="490"/>
       <c r="P158" s="161"/>
       <c r="Q158" s="290"/>
       <c r="R158" s="6"/>
@@ -44372,28 +44469,28 @@
       <c r="Z158" s="120"/>
     </row>
     <row r="159" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="312" t="s">
+      <c r="B159" s="374" t="s">
         <v>411</v>
       </c>
-      <c r="C159" s="353"/>
-      <c r="D159" s="353"/>
-      <c r="E159" s="353"/>
-      <c r="F159" s="353"/>
-      <c r="G159" s="353"/>
-      <c r="H159" s="313"/>
-      <c r="I159" s="468"/>
+      <c r="C159" s="375"/>
+      <c r="D159" s="375"/>
+      <c r="E159" s="375"/>
+      <c r="F159" s="375"/>
+      <c r="G159" s="375"/>
+      <c r="H159" s="376"/>
+      <c r="I159" s="300"/>
       <c r="J159" s="289">
         <f>((0.0254*J147)^2)/(J152/J148)</f>
         <v>3.5367765131532298</v>
       </c>
       <c r="K159" s="291"/>
-      <c r="L159" s="470" t="str">
+      <c r="L159" s="488" t="str">
         <f>IF(AND(J159&gt;2,J159&lt;4),"¡ok!","¡error!")</f>
         <v>¡ok!</v>
       </c>
-      <c r="M159" s="471"/>
-      <c r="N159" s="471"/>
-      <c r="O159" s="472"/>
+      <c r="M159" s="489"/>
+      <c r="N159" s="489"/>
+      <c r="O159" s="490"/>
       <c r="P159" s="161"/>
       <c r="Q159" s="290"/>
       <c r="R159" s="6"/>
@@ -44463,15 +44560,15 @@
       <c r="Z161" s="120"/>
     </row>
     <row r="162" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="312" t="s">
+      <c r="B162" s="329" t="s">
         <v>232</v>
       </c>
-      <c r="C162" s="353"/>
-      <c r="D162" s="353"/>
-      <c r="E162" s="353"/>
-      <c r="F162" s="353"/>
-      <c r="G162" s="353"/>
-      <c r="H162" s="313"/>
+      <c r="C162" s="370"/>
+      <c r="D162" s="370"/>
+      <c r="E162" s="370"/>
+      <c r="F162" s="370"/>
+      <c r="G162" s="370"/>
+      <c r="H162" s="330"/>
       <c r="I162" s="153" t="s">
         <v>88</v>
       </c>
@@ -44482,10 +44579,10 @@
       <c r="K162" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="L162" s="356"/>
-      <c r="M162" s="356"/>
-      <c r="N162" s="356"/>
-      <c r="O162" s="356"/>
+      <c r="L162" s="373"/>
+      <c r="M162" s="373"/>
+      <c r="N162" s="373"/>
+      <c r="O162" s="373"/>
       <c r="P162" s="121"/>
       <c r="Q162" s="121"/>
       <c r="R162" s="121"/>
@@ -44499,15 +44596,15 @@
       <c r="Z162" s="120"/>
     </row>
     <row r="163" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="312" t="s">
+      <c r="B163" s="329" t="s">
         <v>231</v>
       </c>
-      <c r="C163" s="353"/>
-      <c r="D163" s="353"/>
-      <c r="E163" s="353"/>
-      <c r="F163" s="353"/>
-      <c r="G163" s="353"/>
-      <c r="H163" s="313"/>
+      <c r="C163" s="370"/>
+      <c r="D163" s="370"/>
+      <c r="E163" s="370"/>
+      <c r="F163" s="370"/>
+      <c r="G163" s="370"/>
+      <c r="H163" s="330"/>
       <c r="I163" s="153" t="s">
         <v>11</v>
       </c>
@@ -44516,10 +44613,10 @@
         <v>0.45</v>
       </c>
       <c r="K163" s="156"/>
-      <c r="L163" s="356"/>
-      <c r="M163" s="356"/>
-      <c r="N163" s="356"/>
-      <c r="O163" s="356"/>
+      <c r="L163" s="373"/>
+      <c r="M163" s="373"/>
+      <c r="N163" s="373"/>
+      <c r="O163" s="373"/>
       <c r="P163" s="121"/>
       <c r="Q163" s="121"/>
       <c r="R163" s="121"/>
@@ -44533,15 +44630,15 @@
       <c r="Z163" s="120"/>
     </row>
     <row r="164" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="312" t="s">
+      <c r="B164" s="329" t="s">
         <v>233</v>
       </c>
-      <c r="C164" s="353"/>
-      <c r="D164" s="353"/>
-      <c r="E164" s="353"/>
-      <c r="F164" s="353"/>
-      <c r="G164" s="353"/>
-      <c r="H164" s="313"/>
+      <c r="C164" s="370"/>
+      <c r="D164" s="370"/>
+      <c r="E164" s="370"/>
+      <c r="F164" s="370"/>
+      <c r="G164" s="370"/>
+      <c r="H164" s="330"/>
       <c r="I164" s="153" t="s">
         <v>234</v>
       </c>
@@ -44550,10 +44647,10 @@
         <v>2.65</v>
       </c>
       <c r="K164" s="156"/>
-      <c r="L164" s="356"/>
-      <c r="M164" s="356"/>
-      <c r="N164" s="356"/>
-      <c r="O164" s="356"/>
+      <c r="L164" s="373"/>
+      <c r="M164" s="373"/>
+      <c r="N164" s="373"/>
+      <c r="O164" s="373"/>
       <c r="P164" s="121"/>
       <c r="Q164" s="121"/>
       <c r="R164" s="121"/>
@@ -44567,15 +44664,15 @@
       <c r="Z164" s="120"/>
     </row>
     <row r="165" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="309" t="s">
+      <c r="B165" s="326" t="s">
         <v>236</v>
       </c>
-      <c r="C165" s="309"/>
-      <c r="D165" s="309"/>
-      <c r="E165" s="309"/>
-      <c r="F165" s="309"/>
-      <c r="G165" s="309"/>
-      <c r="H165" s="309"/>
+      <c r="C165" s="326"/>
+      <c r="D165" s="326"/>
+      <c r="E165" s="326"/>
+      <c r="F165" s="326"/>
+      <c r="G165" s="326"/>
+      <c r="H165" s="326"/>
       <c r="I165" s="153" t="s">
         <v>235</v>
       </c>
@@ -44586,10 +44683,10 @@
       <c r="K165" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="L165" s="356"/>
-      <c r="M165" s="356"/>
-      <c r="N165" s="356"/>
-      <c r="O165" s="356"/>
+      <c r="L165" s="373"/>
+      <c r="M165" s="373"/>
+      <c r="N165" s="373"/>
+      <c r="O165" s="373"/>
       <c r="P165" s="121"/>
       <c r="Q165" s="121"/>
       <c r="R165" s="121"/>
@@ -44657,12 +44754,14 @@
       <c r="Z167" s="120"/>
     </row>
     <row r="168" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="110"/>
-      <c r="C168" s="82"/>
-      <c r="D168" s="130"/>
-      <c r="E168" s="149"/>
-      <c r="F168" s="130"/>
-      <c r="G168" s="137"/>
+      <c r="B168" s="304" t="s">
+        <v>412</v>
+      </c>
+      <c r="C168" s="305"/>
+      <c r="D168" s="306"/>
+      <c r="E168" s="307"/>
+      <c r="F168" s="306"/>
+      <c r="G168" s="308"/>
       <c r="H168" s="131"/>
       <c r="I168" s="138"/>
       <c r="J168" s="131"/>
@@ -44711,8 +44810,8 @@
       <c r="Z169" s="120"/>
     </row>
     <row r="170" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="423"/>
-      <c r="C170" s="423"/>
+      <c r="B170" s="453"/>
+      <c r="C170" s="453"/>
       <c r="D170" s="130"/>
       <c r="E170" s="5"/>
       <c r="F170" s="131"/>
@@ -44817,13 +44916,13 @@
       <c r="Y173" s="113"/>
     </row>
     <row r="174" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="305" t="s">
+      <c r="B174" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="305"/>
-      <c r="D174" s="305"/>
-      <c r="E174" s="305"/>
-      <c r="F174" s="305"/>
+      <c r="C174" s="322"/>
+      <c r="D174" s="322"/>
+      <c r="E174" s="322"/>
+      <c r="F174" s="322"/>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
@@ -44874,16 +44973,16 @@
       <c r="B176" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C176" s="292" t="s">
+      <c r="C176" s="309" t="s">
         <v>202</v>
       </c>
-      <c r="D176" s="292"/>
-      <c r="E176" s="292"/>
-      <c r="F176" s="292"/>
-      <c r="G176" s="292"/>
-      <c r="H176" s="292"/>
-      <c r="I176" s="292"/>
-      <c r="J176" s="292"/>
+      <c r="D176" s="309"/>
+      <c r="E176" s="309"/>
+      <c r="F176" s="309"/>
+      <c r="G176" s="309"/>
+      <c r="H176" s="309"/>
+      <c r="I176" s="309"/>
+      <c r="J176" s="309"/>
       <c r="K176" s="113"/>
       <c r="L176" s="113"/>
       <c r="M176" s="113"/>
@@ -44904,16 +45003,16 @@
       <c r="B177" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C177" s="292" t="s">
+      <c r="C177" s="309" t="s">
         <v>64</v>
       </c>
-      <c r="D177" s="292"/>
-      <c r="E177" s="292"/>
-      <c r="F177" s="292"/>
-      <c r="G177" s="292"/>
-      <c r="H177" s="292"/>
-      <c r="I177" s="292"/>
-      <c r="J177" s="292"/>
+      <c r="D177" s="309"/>
+      <c r="E177" s="309"/>
+      <c r="F177" s="309"/>
+      <c r="G177" s="309"/>
+      <c r="H177" s="309"/>
+      <c r="I177" s="309"/>
+      <c r="J177" s="309"/>
       <c r="K177" s="113"/>
       <c r="L177" s="113"/>
       <c r="M177" s="113"/>
@@ -44934,16 +45033,16 @@
       <c r="B178" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C178" s="422" t="s">
+      <c r="C178" s="452" t="s">
         <v>40</v>
       </c>
-      <c r="D178" s="422"/>
-      <c r="E178" s="422"/>
-      <c r="F178" s="422"/>
-      <c r="G178" s="422"/>
-      <c r="H178" s="422"/>
-      <c r="I178" s="422"/>
-      <c r="J178" s="422"/>
+      <c r="D178" s="452"/>
+      <c r="E178" s="452"/>
+      <c r="F178" s="452"/>
+      <c r="G178" s="452"/>
+      <c r="H178" s="452"/>
+      <c r="I178" s="452"/>
+      <c r="J178" s="452"/>
       <c r="K178" s="23"/>
       <c r="L178" s="23"/>
       <c r="M178" s="23"/>
@@ -44964,16 +45063,16 @@
       <c r="B179" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C179" s="292" t="s">
+      <c r="C179" s="309" t="s">
         <v>65</v>
       </c>
-      <c r="D179" s="292"/>
-      <c r="E179" s="292"/>
-      <c r="F179" s="292"/>
-      <c r="G179" s="292"/>
-      <c r="H179" s="292"/>
-      <c r="I179" s="292"/>
-      <c r="J179" s="292"/>
+      <c r="D179" s="309"/>
+      <c r="E179" s="309"/>
+      <c r="F179" s="309"/>
+      <c r="G179" s="309"/>
+      <c r="H179" s="309"/>
+      <c r="I179" s="309"/>
+      <c r="J179" s="309"/>
       <c r="K179" s="23"/>
       <c r="L179" s="23"/>
       <c r="M179" s="23"/>
@@ -44994,16 +45093,16 @@
       <c r="B180" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C180" s="292" t="s">
+      <c r="C180" s="309" t="s">
         <v>66</v>
       </c>
-      <c r="D180" s="292"/>
-      <c r="E180" s="292"/>
-      <c r="F180" s="292"/>
-      <c r="G180" s="292"/>
-      <c r="H180" s="292"/>
-      <c r="I180" s="292"/>
-      <c r="J180" s="292"/>
+      <c r="D180" s="309"/>
+      <c r="E180" s="309"/>
+      <c r="F180" s="309"/>
+      <c r="G180" s="309"/>
+      <c r="H180" s="309"/>
+      <c r="I180" s="309"/>
+      <c r="J180" s="309"/>
       <c r="K180" s="23"/>
       <c r="L180" s="23"/>
       <c r="M180" s="23"/>
@@ -45024,16 +45123,16 @@
       <c r="B181" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C181" s="304" t="s">
+      <c r="C181" s="321" t="s">
         <v>56</v>
       </c>
-      <c r="D181" s="304"/>
-      <c r="E181" s="304"/>
-      <c r="F181" s="304"/>
-      <c r="G181" s="304"/>
-      <c r="H181" s="304"/>
-      <c r="I181" s="304"/>
-      <c r="J181" s="304"/>
+      <c r="D181" s="321"/>
+      <c r="E181" s="321"/>
+      <c r="F181" s="321"/>
+      <c r="G181" s="321"/>
+      <c r="H181" s="321"/>
+      <c r="I181" s="321"/>
+      <c r="J181" s="321"/>
       <c r="K181" s="113"/>
       <c r="L181" s="113"/>
       <c r="M181" s="113"/>
@@ -45054,16 +45153,16 @@
       <c r="B182" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C182" s="422" t="s">
+      <c r="C182" s="452" t="s">
         <v>78</v>
       </c>
-      <c r="D182" s="422"/>
-      <c r="E182" s="422"/>
-      <c r="F182" s="422"/>
-      <c r="G182" s="422"/>
-      <c r="H182" s="422"/>
-      <c r="I182" s="422"/>
-      <c r="J182" s="422"/>
+      <c r="D182" s="452"/>
+      <c r="E182" s="452"/>
+      <c r="F182" s="452"/>
+      <c r="G182" s="452"/>
+      <c r="H182" s="452"/>
+      <c r="I182" s="452"/>
+      <c r="J182" s="452"/>
       <c r="K182" s="113"/>
       <c r="L182" s="113"/>
       <c r="M182" s="113"/>
@@ -45084,16 +45183,16 @@
       <c r="B183" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C183" s="292" t="s">
+      <c r="C183" s="309" t="s">
         <v>83</v>
       </c>
-      <c r="D183" s="292"/>
-      <c r="E183" s="292"/>
-      <c r="F183" s="292"/>
-      <c r="G183" s="292"/>
-      <c r="H183" s="292"/>
-      <c r="I183" s="292"/>
-      <c r="J183" s="292"/>
+      <c r="D183" s="309"/>
+      <c r="E183" s="309"/>
+      <c r="F183" s="309"/>
+      <c r="G183" s="309"/>
+      <c r="H183" s="309"/>
+      <c r="I183" s="309"/>
+      <c r="J183" s="309"/>
       <c r="K183" s="113"/>
       <c r="L183" s="113"/>
       <c r="M183" s="113"/>
@@ -45114,16 +45213,16 @@
       <c r="B184" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C184" s="292" t="s">
+      <c r="C184" s="309" t="s">
         <v>169</v>
       </c>
-      <c r="D184" s="292"/>
-      <c r="E184" s="292"/>
-      <c r="F184" s="292"/>
-      <c r="G184" s="292"/>
-      <c r="H184" s="292"/>
-      <c r="I184" s="292"/>
-      <c r="J184" s="292"/>
+      <c r="D184" s="309"/>
+      <c r="E184" s="309"/>
+      <c r="F184" s="309"/>
+      <c r="G184" s="309"/>
+      <c r="H184" s="309"/>
+      <c r="I184" s="309"/>
+      <c r="J184" s="309"/>
       <c r="K184" s="121"/>
       <c r="L184" s="121"/>
       <c r="M184" s="121"/>
@@ -46786,8 +46885,6 @@
     </row>
   </sheetData>
   <mergeCells count="251">
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="B158:H158"/>
     <mergeCell ref="L158:O158"/>
     <mergeCell ref="B159:H159"/>
     <mergeCell ref="L159:O159"/>
@@ -46803,16 +46900,6 @@
     <mergeCell ref="L154:O155"/>
     <mergeCell ref="B157:H157"/>
     <mergeCell ref="L157:O157"/>
-    <mergeCell ref="B148:H149"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="J148:J149"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="L148:O149"/>
-    <mergeCell ref="B150:H151"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="L150:O151"/>
     <mergeCell ref="B2:F5"/>
     <mergeCell ref="B74:H74"/>
     <mergeCell ref="B76:H76"/>
@@ -46986,6 +47073,18 @@
     <mergeCell ref="L145:O145"/>
     <mergeCell ref="L146:O146"/>
     <mergeCell ref="L147:O147"/>
+    <mergeCell ref="B148:H149"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="L148:O149"/>
+    <mergeCell ref="B150:H151"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="L150:O151"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="B158:H158"/>
     <mergeCell ref="B139:H139"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B12:H12"/>

--- a/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v5.xlsx
+++ b/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco V\Desktop\Proyecto\Aplicacion\GitHub\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco V\Desktop\Proyecto\Aplicacion\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7350" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sedimentador alta tasa" sheetId="1" r:id="rId1"/>
@@ -4798,8 +4798,43 @@
     <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4807,34 +4842,49 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4849,71 +4899,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4921,77 +4929,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5000,6 +4948,57 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5011,46 +5010,142 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5071,71 +5166,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5155,29 +5196,17 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5224,91 +5253,88 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="174" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="174" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5317,53 +5343,27 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -34318,7 +34318,7 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" s="43"/>
-      <c r="C2" s="327"/>
+      <c r="C2" s="333"/>
       <c r="D2" s="41" t="s">
         <v>119</v>
       </c>
@@ -34332,14 +34332,14 @@
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="43"/>
-      <c r="C3" s="327"/>
+      <c r="C3" s="333"/>
       <c r="D3" s="41" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
-      <c r="C4" s="327"/>
+      <c r="C4" s="333"/>
       <c r="D4" s="41" t="s">
         <v>121</v>
       </c>
@@ -34348,7 +34348,7 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="43"/>
-      <c r="C5" s="327"/>
+      <c r="C5" s="333"/>
       <c r="D5" s="41" t="s">
         <v>127</v>
       </c>
@@ -34369,27 +34369,27 @@
       </c>
     </row>
     <row r="7" spans="2:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="340" t="s">
+      <c r="B7" s="328" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="340"/>
-      <c r="D7" s="340"/>
-      <c r="E7" s="340"/>
-      <c r="F7" s="340"/>
-      <c r="G7" s="340"/>
+      <c r="C7" s="328"/>
+      <c r="D7" s="328"/>
+      <c r="E7" s="328"/>
+      <c r="F7" s="328"/>
+      <c r="G7" s="328"/>
       <c r="H7" s="40"/>
-      <c r="J7" s="339" t="s">
+      <c r="J7" s="326" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="339"/>
-      <c r="L7" s="339"/>
-      <c r="M7" s="339"/>
+      <c r="K7" s="326"/>
+      <c r="L7" s="326"/>
+      <c r="M7" s="326"/>
     </row>
     <row r="8" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="326" t="s">
+      <c r="B8" s="327" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="326"/>
+      <c r="C8" s="327"/>
       <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
@@ -34431,10 +34431,10 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="326" t="s">
+      <c r="B9" s="327" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="326"/>
+      <c r="C9" s="327"/>
       <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
@@ -34464,10 +34464,10 @@
       </c>
     </row>
     <row r="10" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="326" t="s">
+      <c r="B10" s="327" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="326"/>
+      <c r="C10" s="327"/>
       <c r="D10" s="9" t="s">
         <v>92</v>
       </c>
@@ -34502,10 +34502,10 @@
       </c>
     </row>
     <row r="11" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="326" t="s">
+      <c r="B11" s="327" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="326"/>
+      <c r="C11" s="327"/>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
@@ -34535,10 +34535,10 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="326" t="s">
+      <c r="B12" s="327" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="326"/>
+      <c r="C12" s="327"/>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
@@ -34564,11 +34564,11 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="326" t="str">
+      <c r="B13" s="327" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F12</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C13" s="326"/>
+      <c r="C13" s="327"/>
       <c r="D13" s="8" t="s">
         <v>108</v>
       </c>
@@ -34603,10 +34603,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="326" t="s">
+      <c r="B14" s="327" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="326"/>
+      <c r="C14" s="327"/>
       <c r="D14" s="9" t="s">
         <v>11</v>
       </c>
@@ -34641,10 +34641,10 @@
       </c>
     </row>
     <row r="15" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="326" t="s">
+      <c r="B15" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="326"/>
+      <c r="C15" s="327"/>
       <c r="D15" s="9" t="s">
         <v>105</v>
       </c>
@@ -34676,10 +34676,10 @@
       </c>
     </row>
     <row r="16" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="326" t="s">
+      <c r="B16" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="326"/>
+      <c r="C16" s="327"/>
       <c r="D16" s="9" t="s">
         <v>105</v>
       </c>
@@ -34710,10 +34710,10 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="326" t="s">
+      <c r="B17" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="326"/>
+      <c r="C17" s="327"/>
       <c r="D17" s="9" t="s">
         <v>105</v>
       </c>
@@ -34746,10 +34746,10 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="326" t="s">
+      <c r="B18" s="327" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="326"/>
+      <c r="C18" s="327"/>
       <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
@@ -34779,10 +34779,10 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="326" t="s">
+      <c r="B19" s="327" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="326"/>
+      <c r="C19" s="327"/>
       <c r="D19" s="177" t="s">
         <v>13</v>
       </c>
@@ -34812,10 +34812,10 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="326" t="s">
+      <c r="B20" s="327" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="326"/>
+      <c r="C20" s="327"/>
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
@@ -34845,10 +34845,10 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="326" t="s">
+      <c r="B21" s="327" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="326"/>
+      <c r="C21" s="327"/>
       <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
@@ -34930,10 +34930,10 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="326" t="s">
+      <c r="B24" s="327" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="326"/>
+      <c r="C24" s="327"/>
       <c r="D24" s="9" t="s">
         <v>46</v>
       </c>
@@ -34965,10 +34965,10 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="329" t="s">
+      <c r="B25" s="334" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="330"/>
+      <c r="C25" s="335"/>
       <c r="D25" s="28" t="s">
         <v>158</v>
       </c>
@@ -35000,10 +35000,10 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="326" t="s">
+      <c r="B26" s="327" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="326"/>
+      <c r="C26" s="327"/>
       <c r="D26" s="9" t="s">
         <v>54</v>
       </c>
@@ -35035,10 +35035,10 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="329" t="s">
+      <c r="B27" s="334" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="330"/>
+      <c r="C27" s="335"/>
       <c r="D27" s="9" t="s">
         <v>63</v>
       </c>
@@ -35068,10 +35068,10 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="329" t="s">
+      <c r="B28" s="334" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="330"/>
+      <c r="C28" s="335"/>
       <c r="D28" s="9" t="s">
         <v>75</v>
       </c>
@@ -35136,10 +35136,10 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="326" t="s">
+      <c r="B30" s="327" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="326"/>
+      <c r="C30" s="327"/>
       <c r="D30" s="9" t="s">
         <v>84</v>
       </c>
@@ -35171,8 +35171,8 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="327"/>
-      <c r="C31" s="327"/>
+      <c r="B31" s="333"/>
+      <c r="C31" s="333"/>
       <c r="D31" s="11"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
@@ -35182,14 +35182,14 @@
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="322" t="s">
+      <c r="B32" s="340" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="322"/>
-      <c r="D32" s="322"/>
-      <c r="E32" s="322"/>
-      <c r="F32" s="322"/>
-      <c r="G32" s="322"/>
+      <c r="C32" s="340"/>
+      <c r="D32" s="340"/>
+      <c r="E32" s="340"/>
+      <c r="F32" s="340"/>
+      <c r="G32" s="340"/>
       <c r="H32" s="66"/>
       <c r="J32" s="22"/>
       <c r="K32" s="23"/>
@@ -35197,10 +35197,10 @@
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="331" t="s">
+      <c r="B33" s="337" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="331"/>
+      <c r="C33" s="337"/>
       <c r="D33" s="7" t="s">
         <v>157</v>
       </c>
@@ -35218,10 +35218,10 @@
       <c r="M33" s="24"/>
     </row>
     <row r="34" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="332" t="s">
+      <c r="B34" s="338" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="333"/>
+      <c r="C34" s="339"/>
       <c r="D34" s="7" t="s">
         <v>166</v>
       </c>
@@ -35265,10 +35265,10 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="3.5">
-      <c r="B37" s="326" t="s">
+      <c r="B37" s="327" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="326"/>
+      <c r="C37" s="327"/>
       <c r="D37" s="38" t="s">
         <v>258</v>
       </c>
@@ -35279,22 +35279,22 @@
         <f>J9</f>
         <v>3.4760947255444699E-3</v>
       </c>
-      <c r="G37" s="314"/>
-      <c r="H37" s="316"/>
-      <c r="I37" s="336" t="s">
+      <c r="G37" s="321"/>
+      <c r="H37" s="322"/>
+      <c r="I37" s="330" t="s">
         <v>72</v>
       </c>
-      <c r="J37" s="337"/>
-      <c r="K37" s="337"/>
-      <c r="L37" s="337"/>
-      <c r="M37" s="337"/>
-      <c r="N37" s="338"/>
+      <c r="J37" s="331"/>
+      <c r="K37" s="331"/>
+      <c r="L37" s="331"/>
+      <c r="M37" s="331"/>
+      <c r="N37" s="332"/>
     </row>
     <row r="38" spans="2:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="328" t="s">
+      <c r="B38" s="329" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="328"/>
+      <c r="C38" s="329"/>
       <c r="D38" s="45" t="s">
         <v>135</v>
       </c>
@@ -35305,20 +35305,20 @@
         <f>ROUND(MIN(J16:J30),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G38" s="314"/>
-      <c r="H38" s="316"/>
-      <c r="I38" s="314"/>
-      <c r="J38" s="315"/>
-      <c r="K38" s="315"/>
-      <c r="L38" s="315"/>
-      <c r="M38" s="315"/>
-      <c r="N38" s="316"/>
+      <c r="G38" s="321"/>
+      <c r="H38" s="322"/>
+      <c r="I38" s="321"/>
+      <c r="J38" s="325"/>
+      <c r="K38" s="325"/>
+      <c r="L38" s="325"/>
+      <c r="M38" s="325"/>
+      <c r="N38" s="322"/>
     </row>
     <row r="39" spans="2:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="328" t="s">
+      <c r="B39" s="329" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="328"/>
+      <c r="C39" s="329"/>
       <c r="D39" s="45" t="s">
         <v>135</v>
       </c>
@@ -35329,20 +35329,20 @@
         <f>ROUND((F16/F13*(SIN(F21*PI()/180)+(F18/F14)*COS(F21*PI()/180)))/(1+0.058*(F16/F13)*(F14/F11)*COS(F21*PI()/180)),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G39" s="314"/>
-      <c r="H39" s="316"/>
-      <c r="I39" s="314"/>
-      <c r="J39" s="315"/>
-      <c r="K39" s="315"/>
-      <c r="L39" s="315"/>
-      <c r="M39" s="315"/>
-      <c r="N39" s="316"/>
+      <c r="G39" s="321"/>
+      <c r="H39" s="322"/>
+      <c r="I39" s="321"/>
+      <c r="J39" s="325"/>
+      <c r="K39" s="325"/>
+      <c r="L39" s="325"/>
+      <c r="M39" s="325"/>
+      <c r="N39" s="322"/>
     </row>
     <row r="40" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="328" t="s">
+      <c r="B40" s="329" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="328"/>
+      <c r="C40" s="329"/>
       <c r="D40" s="45" t="s">
         <v>259</v>
       </c>
@@ -35353,20 +35353,20 @@
         <f>(F18/F39)/60</f>
         <v>8.095617529880478</v>
       </c>
-      <c r="G40" s="314"/>
-      <c r="H40" s="316"/>
-      <c r="I40" s="314"/>
-      <c r="J40" s="315"/>
-      <c r="K40" s="315"/>
-      <c r="L40" s="315"/>
-      <c r="M40" s="315"/>
-      <c r="N40" s="316"/>
+      <c r="G40" s="321"/>
+      <c r="H40" s="322"/>
+      <c r="I40" s="321"/>
+      <c r="J40" s="325"/>
+      <c r="K40" s="325"/>
+      <c r="L40" s="325"/>
+      <c r="M40" s="325"/>
+      <c r="N40" s="322"/>
     </row>
     <row r="41" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="328" t="s">
+      <c r="B41" s="329" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="328"/>
+      <c r="C41" s="329"/>
       <c r="D41" s="45" t="s">
         <v>27</v>
       </c>
@@ -35377,20 +35377,20 @@
         <f>ROUND(F10/(F20*F14*F39),0)</f>
         <v>94</v>
       </c>
-      <c r="G41" s="314"/>
-      <c r="H41" s="316"/>
-      <c r="I41" s="314"/>
-      <c r="J41" s="315"/>
-      <c r="K41" s="315"/>
-      <c r="L41" s="315"/>
-      <c r="M41" s="315"/>
-      <c r="N41" s="316"/>
+      <c r="G41" s="321"/>
+      <c r="H41" s="322"/>
+      <c r="I41" s="321"/>
+      <c r="J41" s="325"/>
+      <c r="K41" s="325"/>
+      <c r="L41" s="325"/>
+      <c r="M41" s="325"/>
+      <c r="N41" s="322"/>
     </row>
     <row r="42" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="328" t="s">
+      <c r="B42" s="329" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="328"/>
+      <c r="C42" s="329"/>
       <c r="D42" s="45" t="s">
         <v>260</v>
       </c>
@@ -35401,23 +35401,23 @@
         <f>((F41*F14+(F41-1)*F19)/SIN(F21*PI()/180))</f>
         <v>5.8566411306595638</v>
       </c>
-      <c r="G42" s="314"/>
-      <c r="H42" s="316"/>
-      <c r="I42" s="323" t="s">
+      <c r="G42" s="321"/>
+      <c r="H42" s="322"/>
+      <c r="I42" s="341" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="324"/>
-      <c r="K42" s="324"/>
-      <c r="L42" s="324"/>
-      <c r="M42" s="324"/>
-      <c r="N42" s="325"/>
+      <c r="J42" s="342"/>
+      <c r="K42" s="342"/>
+      <c r="L42" s="342"/>
+      <c r="M42" s="342"/>
+      <c r="N42" s="343"/>
       <c r="O42" s="74"/>
     </row>
     <row r="43" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="328" t="s">
+      <c r="B43" s="329" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="328"/>
+      <c r="C43" s="329"/>
       <c r="D43" s="45" t="s">
         <v>261</v>
       </c>
@@ -35428,20 +35428,20 @@
         <f>F18*SIN(F21*PI()/180)</f>
         <v>1.0558581722939875</v>
       </c>
-      <c r="G43" s="314"/>
-      <c r="H43" s="316"/>
-      <c r="I43" s="314"/>
-      <c r="J43" s="315"/>
-      <c r="K43" s="315"/>
-      <c r="L43" s="315"/>
-      <c r="M43" s="315"/>
-      <c r="N43" s="316"/>
+      <c r="G43" s="321"/>
+      <c r="H43" s="322"/>
+      <c r="I43" s="321"/>
+      <c r="J43" s="325"/>
+      <c r="K43" s="325"/>
+      <c r="L43" s="325"/>
+      <c r="M43" s="325"/>
+      <c r="N43" s="322"/>
     </row>
     <row r="44" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="310" t="s">
+      <c r="B44" s="323" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="311"/>
+      <c r="C44" s="324"/>
       <c r="D44" s="56" t="s">
         <v>262</v>
       </c>
@@ -35452,20 +35452,20 @@
         <f>1.5*F24</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G44" s="314"/>
-      <c r="H44" s="316"/>
-      <c r="I44" s="314"/>
-      <c r="J44" s="315"/>
-      <c r="K44" s="315"/>
-      <c r="L44" s="315"/>
-      <c r="M44" s="315"/>
-      <c r="N44" s="316"/>
+      <c r="G44" s="321"/>
+      <c r="H44" s="322"/>
+      <c r="I44" s="321"/>
+      <c r="J44" s="325"/>
+      <c r="K44" s="325"/>
+      <c r="L44" s="325"/>
+      <c r="M44" s="325"/>
+      <c r="N44" s="322"/>
     </row>
     <row r="45" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="310" t="s">
+      <c r="B45" s="323" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="311"/>
+      <c r="C45" s="324"/>
       <c r="D45" s="56" t="s">
         <v>263</v>
       </c>
@@ -35486,10 +35486,10 @@
       <c r="N45" s="93"/>
     </row>
     <row r="46" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="310" t="s">
+      <c r="B46" s="323" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="311"/>
+      <c r="C46" s="324"/>
       <c r="D46" s="56" t="s">
         <v>262</v>
       </c>
@@ -35510,10 +35510,10 @@
       <c r="N46" s="93"/>
     </row>
     <row r="47" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="328" t="s">
+      <c r="B47" s="329" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="328"/>
+      <c r="C47" s="329"/>
       <c r="D47" s="56" t="s">
         <v>264</v>
       </c>
@@ -35524,24 +35524,24 @@
         <f>F25+F43+F24</f>
         <v>2.2558581722939874</v>
       </c>
-      <c r="G47" s="314"/>
-      <c r="H47" s="316"/>
-      <c r="I47" s="314"/>
-      <c r="J47" s="315"/>
-      <c r="K47" s="315"/>
-      <c r="L47" s="315"/>
-      <c r="M47" s="315"/>
-      <c r="N47" s="316"/>
+      <c r="G47" s="321"/>
+      <c r="H47" s="322"/>
+      <c r="I47" s="321"/>
+      <c r="J47" s="325"/>
+      <c r="K47" s="325"/>
+      <c r="L47" s="325"/>
+      <c r="M47" s="325"/>
+      <c r="N47" s="322"/>
       <c r="Q47" s="12">
         <f>6*0.0254</f>
         <v>0.15239999999999998</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="310" t="s">
+      <c r="B48" s="323" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="311"/>
+      <c r="C48" s="324"/>
       <c r="D48" s="56" t="s">
         <v>265</v>
       </c>
@@ -35552,26 +35552,26 @@
         <f>F47*F42*F20-(F41-1)*F18*F20*F19</f>
         <v>15.554808847800167</v>
       </c>
-      <c r="G48" s="314"/>
-      <c r="H48" s="316"/>
-      <c r="I48" s="323" t="s">
+      <c r="G48" s="321"/>
+      <c r="H48" s="322"/>
+      <c r="I48" s="341" t="s">
         <v>130</v>
       </c>
-      <c r="J48" s="324"/>
-      <c r="K48" s="324"/>
-      <c r="L48" s="324"/>
-      <c r="M48" s="324"/>
-      <c r="N48" s="325"/>
+      <c r="J48" s="342"/>
+      <c r="K48" s="342"/>
+      <c r="L48" s="342"/>
+      <c r="M48" s="342"/>
+      <c r="N48" s="343"/>
       <c r="Q48" s="75">
         <f>Q47/2</f>
         <v>7.619999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="328" t="s">
+      <c r="B49" s="329" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="328"/>
+      <c r="C49" s="329"/>
       <c r="D49" s="56" t="s">
         <v>266</v>
       </c>
@@ -35582,24 +35582,24 @@
         <f>(F48/F10)/60</f>
         <v>18.110151179182871</v>
       </c>
-      <c r="G49" s="314"/>
-      <c r="H49" s="316"/>
-      <c r="I49" s="314"/>
-      <c r="J49" s="315"/>
-      <c r="K49" s="315"/>
-      <c r="L49" s="315"/>
-      <c r="M49" s="315"/>
-      <c r="N49" s="316"/>
+      <c r="G49" s="321"/>
+      <c r="H49" s="322"/>
+      <c r="I49" s="321"/>
+      <c r="J49" s="325"/>
+      <c r="K49" s="325"/>
+      <c r="L49" s="325"/>
+      <c r="M49" s="325"/>
+      <c r="N49" s="322"/>
       <c r="Q49" s="12">
         <f>Q48/3</f>
         <v>2.5399999999999995E-2</v>
       </c>
     </row>
     <row r="50" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="310" t="s">
+      <c r="B50" s="323" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="311"/>
+      <c r="C50" s="324"/>
       <c r="D50" s="56" t="s">
         <v>91</v>
       </c>
@@ -35610,14 +35610,14 @@
         <f>F10*86400/(F42*F20)</f>
         <v>173.21341640466753</v>
       </c>
-      <c r="G50" s="314"/>
-      <c r="H50" s="316"/>
-      <c r="I50" s="314"/>
-      <c r="J50" s="315"/>
-      <c r="K50" s="315"/>
-      <c r="L50" s="315"/>
-      <c r="M50" s="315"/>
-      <c r="N50" s="316"/>
+      <c r="G50" s="321"/>
+      <c r="H50" s="322"/>
+      <c r="I50" s="321"/>
+      <c r="J50" s="325"/>
+      <c r="K50" s="325"/>
+      <c r="L50" s="325"/>
+      <c r="M50" s="325"/>
+      <c r="N50" s="322"/>
       <c r="Q50" s="12">
         <f>Q49/2</f>
         <v>1.2699999999999998E-2</v>
@@ -35628,10 +35628,10 @@
       </c>
     </row>
     <row r="51" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="328" t="s">
+      <c r="B51" s="329" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="328"/>
+      <c r="C51" s="329"/>
       <c r="D51" s="56" t="s">
         <v>73</v>
       </c>
@@ -35640,20 +35640,20 @@
         <f>"1: "&amp;ROUND(F42/F20,1)</f>
         <v>1: 4,8</v>
       </c>
-      <c r="G51" s="314"/>
-      <c r="H51" s="316"/>
-      <c r="I51" s="314"/>
-      <c r="J51" s="315"/>
-      <c r="K51" s="315"/>
-      <c r="L51" s="315"/>
-      <c r="M51" s="315"/>
-      <c r="N51" s="316"/>
+      <c r="G51" s="321"/>
+      <c r="H51" s="322"/>
+      <c r="I51" s="321"/>
+      <c r="J51" s="325"/>
+      <c r="K51" s="325"/>
+      <c r="L51" s="325"/>
+      <c r="M51" s="325"/>
+      <c r="N51" s="322"/>
     </row>
     <row r="52" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="310" t="s">
+      <c r="B52" s="323" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="311"/>
+      <c r="C52" s="324"/>
       <c r="D52" s="56" t="s">
         <v>267</v>
       </c>
@@ -35664,20 +35664,20 @@
         <f>((F20-F30)/2)*TAN(F29*PI()/180)</f>
         <v>0.79919162457288717</v>
       </c>
-      <c r="G52" s="314"/>
-      <c r="H52" s="316"/>
-      <c r="I52" s="314"/>
-      <c r="J52" s="315"/>
-      <c r="K52" s="315"/>
-      <c r="L52" s="315"/>
-      <c r="M52" s="315"/>
-      <c r="N52" s="316"/>
+      <c r="G52" s="321"/>
+      <c r="H52" s="322"/>
+      <c r="I52" s="321"/>
+      <c r="J52" s="325"/>
+      <c r="K52" s="325"/>
+      <c r="L52" s="325"/>
+      <c r="M52" s="325"/>
+      <c r="N52" s="322"/>
     </row>
     <row r="53" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="310" t="s">
+      <c r="B53" s="323" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="311"/>
+      <c r="C53" s="324"/>
       <c r="D53" s="56" t="s">
         <v>268</v>
       </c>
@@ -35688,20 +35688,20 @@
         <f>2*F28+F42</f>
         <v>6.4566411306595635</v>
       </c>
-      <c r="G53" s="314"/>
-      <c r="H53" s="316"/>
-      <c r="I53" s="314"/>
-      <c r="J53" s="315"/>
-      <c r="K53" s="315"/>
-      <c r="L53" s="315"/>
-      <c r="M53" s="315"/>
-      <c r="N53" s="316"/>
+      <c r="G53" s="321"/>
+      <c r="H53" s="322"/>
+      <c r="I53" s="321"/>
+      <c r="J53" s="325"/>
+      <c r="K53" s="325"/>
+      <c r="L53" s="325"/>
+      <c r="M53" s="325"/>
+      <c r="N53" s="322"/>
     </row>
     <row r="54" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="310" t="s">
+      <c r="B54" s="323" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="311"/>
+      <c r="C54" s="324"/>
       <c r="D54" s="56" t="s">
         <v>269</v>
       </c>
@@ -35712,20 +35712,20 @@
         <f>(2*F28+F20)*F9+(F9-1)*F27</f>
         <v>7.8767999999999994</v>
       </c>
-      <c r="G54" s="314"/>
-      <c r="H54" s="316"/>
-      <c r="I54" s="314"/>
-      <c r="J54" s="315"/>
-      <c r="K54" s="315"/>
-      <c r="L54" s="315"/>
-      <c r="M54" s="315"/>
-      <c r="N54" s="316"/>
+      <c r="G54" s="321"/>
+      <c r="H54" s="322"/>
+      <c r="I54" s="321"/>
+      <c r="J54" s="325"/>
+      <c r="K54" s="325"/>
+      <c r="L54" s="325"/>
+      <c r="M54" s="325"/>
+      <c r="N54" s="322"/>
     </row>
     <row r="55" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="328" t="s">
+      <c r="B55" s="329" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="328"/>
+      <c r="C55" s="329"/>
       <c r="D55" s="56" t="s">
         <v>270</v>
       </c>
@@ -35736,14 +35736,14 @@
         <f>F28+F52+F25+F43+F24+F26</f>
         <v>3.6550497968668743</v>
       </c>
-      <c r="G55" s="314"/>
-      <c r="H55" s="316"/>
-      <c r="I55" s="314"/>
-      <c r="J55" s="315"/>
-      <c r="K55" s="315"/>
-      <c r="L55" s="315"/>
-      <c r="M55" s="315"/>
-      <c r="N55" s="316"/>
+      <c r="G55" s="321"/>
+      <c r="H55" s="322"/>
+      <c r="I55" s="321"/>
+      <c r="J55" s="325"/>
+      <c r="K55" s="325"/>
+      <c r="L55" s="325"/>
+      <c r="M55" s="325"/>
+      <c r="N55" s="322"/>
     </row>
     <row r="56" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="80"/>
@@ -35778,10 +35778,10 @@
       <c r="N57" s="83"/>
     </row>
     <row r="58" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="310" t="s">
+      <c r="B58" s="323" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="311"/>
+      <c r="C58" s="324"/>
       <c r="D58" s="56" t="s">
         <v>271</v>
       </c>
@@ -35792,20 +35792,20 @@
         <f>F42+F28</f>
         <v>6.1566411306595636</v>
       </c>
-      <c r="G58" s="314"/>
-      <c r="H58" s="316"/>
-      <c r="I58" s="314"/>
-      <c r="J58" s="315"/>
-      <c r="K58" s="315"/>
-      <c r="L58" s="315"/>
-      <c r="M58" s="315"/>
-      <c r="N58" s="316"/>
+      <c r="G58" s="321"/>
+      <c r="H58" s="322"/>
+      <c r="I58" s="321"/>
+      <c r="J58" s="325"/>
+      <c r="K58" s="325"/>
+      <c r="L58" s="325"/>
+      <c r="M58" s="325"/>
+      <c r="N58" s="322"/>
     </row>
     <row r="59" spans="2:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="310" t="s">
+      <c r="B59" s="323" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="311"/>
+      <c r="C59" s="324"/>
       <c r="D59" s="56" t="s">
         <v>272</v>
       </c>
@@ -35815,20 +35815,20 @@
       <c r="F59" s="95">
         <v>8</v>
       </c>
-      <c r="G59" s="314"/>
-      <c r="H59" s="316"/>
-      <c r="I59" s="314"/>
-      <c r="J59" s="315"/>
-      <c r="K59" s="315"/>
-      <c r="L59" s="315"/>
-      <c r="M59" s="315"/>
-      <c r="N59" s="316"/>
+      <c r="G59" s="321"/>
+      <c r="H59" s="322"/>
+      <c r="I59" s="321"/>
+      <c r="J59" s="325"/>
+      <c r="K59" s="325"/>
+      <c r="L59" s="325"/>
+      <c r="M59" s="325"/>
+      <c r="N59" s="322"/>
     </row>
     <row r="60" spans="2:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="310" t="s">
+      <c r="B60" s="323" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="311"/>
+      <c r="C60" s="324"/>
       <c r="D60" s="56" t="s">
         <v>273</v>
       </c>
@@ -35839,8 +35839,8 @@
         <f>IF(F59=4,0.10342,IF(F59=6,0.15222,IF(F59=8,0.20942)))</f>
         <v>0.20942</v>
       </c>
-      <c r="G60" s="314"/>
-      <c r="H60" s="316"/>
+      <c r="G60" s="321"/>
+      <c r="H60" s="322"/>
       <c r="I60" s="67"/>
       <c r="J60" s="68"/>
       <c r="K60" s="68"/>
@@ -35849,10 +35849,10 @@
       <c r="N60" s="69"/>
     </row>
     <row r="61" spans="2:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="317" t="s">
+      <c r="B61" s="318" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="317"/>
+      <c r="C61" s="318"/>
       <c r="D61" s="176" t="s">
         <v>274</v>
       </c>
@@ -35863,20 +35863,20 @@
         <f>F60*SQRT(0.4/F33)</f>
         <v>4.1884000000000005E-2</v>
       </c>
-      <c r="G61" s="314"/>
-      <c r="H61" s="316"/>
-      <c r="I61" s="318"/>
-      <c r="J61" s="319"/>
-      <c r="K61" s="319"/>
-      <c r="L61" s="319"/>
-      <c r="M61" s="319"/>
-      <c r="N61" s="320"/>
+      <c r="G61" s="321"/>
+      <c r="H61" s="322"/>
+      <c r="I61" s="347"/>
+      <c r="J61" s="348"/>
+      <c r="K61" s="348"/>
+      <c r="L61" s="348"/>
+      <c r="M61" s="348"/>
+      <c r="N61" s="349"/>
     </row>
     <row r="62" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="317" t="s">
+      <c r="B62" s="318" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="317"/>
+      <c r="C62" s="318"/>
       <c r="D62" s="176" t="s">
         <v>275</v>
       </c>
@@ -35887,8 +35887,8 @@
         <f>IF(AND(F61&gt;0.02363,F61&lt;0.0302),1,IF(AND(F61&gt;0.0302,F61&lt;0.03814),1.25,IF(AND(F61&gt;0.03814,F61&lt;0.04368),1.5,IF(AND(F61&gt;0.04368,F61&lt;0.05458),2,IF(AND(F61&gt;0.05458,F61&lt;0.06607),2.5,IF(AND(F61&gt;0.06607,F61&lt;0.08042),3,IF(AND(F61&gt;0.08042,F61&lt;0.10342),4)))))))</f>
         <v>1.5</v>
       </c>
-      <c r="G62" s="312"/>
-      <c r="H62" s="313"/>
+      <c r="G62" s="345"/>
+      <c r="H62" s="346"/>
       <c r="I62" s="76"/>
       <c r="J62" s="77"/>
       <c r="K62" s="77"/>
@@ -35897,10 +35897,10 @@
       <c r="N62" s="78"/>
     </row>
     <row r="63" spans="2:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="317" t="s">
+      <c r="B63" s="318" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="317"/>
+      <c r="C63" s="318"/>
       <c r="D63" s="176" t="s">
         <v>274</v>
       </c>
@@ -35911,8 +35911,8 @@
         <f>IF(F62=1,0.0302,IF(F62=1.25,0.03814,IF(F62=1.5,0.04368,IF(F62=2,0.05458,IF(F62=2.5,0.06607,IF(F62=3,0.08042,IF(F62=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G63" s="314"/>
-      <c r="H63" s="316"/>
+      <c r="G63" s="321"/>
+      <c r="H63" s="322"/>
       <c r="I63" s="98"/>
       <c r="J63" s="77"/>
       <c r="K63" s="77"/>
@@ -35921,30 +35921,30 @@
       <c r="N63" s="78"/>
     </row>
     <row r="64" spans="2:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="334" t="s">
+      <c r="B64" s="319" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="335"/>
+      <c r="C64" s="320"/>
       <c r="D64" s="56"/>
       <c r="E64" s="46"/>
       <c r="F64" s="89">
         <f>(F63/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G64" s="314"/>
-      <c r="H64" s="316"/>
-      <c r="I64" s="314"/>
-      <c r="J64" s="315"/>
-      <c r="K64" s="315"/>
-      <c r="L64" s="315"/>
-      <c r="M64" s="315"/>
-      <c r="N64" s="316"/>
+      <c r="G64" s="321"/>
+      <c r="H64" s="322"/>
+      <c r="I64" s="321"/>
+      <c r="J64" s="325"/>
+      <c r="K64" s="325"/>
+      <c r="L64" s="325"/>
+      <c r="M64" s="325"/>
+      <c r="N64" s="322"/>
     </row>
     <row r="65" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="317" t="s">
+      <c r="B65" s="318" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="317"/>
+      <c r="C65" s="318"/>
       <c r="D65" s="176" t="s">
         <v>275</v>
       </c>
@@ -35965,10 +35965,10 @@
       <c r="N65" s="93"/>
     </row>
     <row r="66" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="317" t="s">
+      <c r="B66" s="318" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="317"/>
+      <c r="C66" s="318"/>
       <c r="D66" s="176" t="s">
         <v>274</v>
       </c>
@@ -35977,8 +35977,8 @@
         <f>IF(F65=1,0.0302,IF(F65=1.25,0.03814,IF(F65=1.5,0.04368,IF(F65=2,0.05458,IF(F65=2.5,0.06607,IF(F65=3,0.08042,IF(F65=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G66" s="314"/>
-      <c r="H66" s="316"/>
+      <c r="G66" s="321"/>
+      <c r="H66" s="322"/>
       <c r="I66" s="92"/>
       <c r="J66" s="94"/>
       <c r="K66" s="94"/>
@@ -35987,18 +35987,18 @@
       <c r="N66" s="93"/>
     </row>
     <row r="67" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="334" t="s">
+      <c r="B67" s="319" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="335"/>
+      <c r="C67" s="320"/>
       <c r="D67" s="56"/>
       <c r="E67" s="46"/>
       <c r="F67" s="89">
         <f>(F66/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G67" s="314"/>
-      <c r="H67" s="316"/>
+      <c r="G67" s="321"/>
+      <c r="H67" s="322"/>
       <c r="I67" s="92"/>
       <c r="J67" s="101"/>
       <c r="K67" s="94"/>
@@ -36007,10 +36007,10 @@
       <c r="N67" s="93"/>
     </row>
     <row r="68" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="310" t="s">
+      <c r="B68" s="323" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="311"/>
+      <c r="C68" s="324"/>
       <c r="D68" s="56" t="s">
         <v>276</v>
       </c>
@@ -36021,8 +36021,8 @@
         <f>F52+F25+F43+F24</f>
         <v>3.0550497968668746</v>
       </c>
-      <c r="G68" s="314"/>
-      <c r="H68" s="316"/>
+      <c r="G68" s="321"/>
+      <c r="H68" s="322"/>
       <c r="I68" s="76"/>
       <c r="J68" s="77"/>
       <c r="K68" s="77"/>
@@ -36031,10 +36031,10 @@
       <c r="N68" s="78"/>
     </row>
     <row r="69" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="310" t="s">
+      <c r="B69" s="323" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="311"/>
+      <c r="C69" s="324"/>
       <c r="D69" s="56" t="s">
         <v>277</v>
       </c>
@@ -36043,8 +36043,8 @@
         <f>F58/F33</f>
         <v>0.61566411306595636</v>
       </c>
-      <c r="G69" s="312"/>
-      <c r="H69" s="313"/>
+      <c r="G69" s="345"/>
+      <c r="H69" s="346"/>
       <c r="I69" s="76"/>
       <c r="J69" s="77"/>
       <c r="K69" s="77"/>
@@ -36053,10 +36053,10 @@
       <c r="N69" s="78"/>
     </row>
     <row r="70" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="334" t="s">
+      <c r="B70" s="319" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="335"/>
+      <c r="C70" s="320"/>
       <c r="D70" s="56" t="s">
         <v>278</v>
       </c>
@@ -36077,10 +36077,10 @@
       <c r="N70" s="78"/>
     </row>
     <row r="71" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="334" t="s">
+      <c r="B71" s="319" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="335"/>
+      <c r="C71" s="320"/>
       <c r="D71" s="56" t="s">
         <v>278</v>
       </c>
@@ -36089,30 +36089,30 @@
         <f>F42/F33</f>
         <v>0.58566411306595634</v>
       </c>
-      <c r="G71" s="314"/>
-      <c r="H71" s="316"/>
-      <c r="I71" s="341" t="s">
+      <c r="G71" s="321"/>
+      <c r="H71" s="322"/>
+      <c r="I71" s="314" t="s">
         <v>171</v>
       </c>
-      <c r="J71" s="342"/>
-      <c r="K71" s="342"/>
-      <c r="L71" s="342"/>
-      <c r="M71" s="342"/>
-      <c r="N71" s="343"/>
+      <c r="J71" s="315"/>
+      <c r="K71" s="315"/>
+      <c r="L71" s="315"/>
+      <c r="M71" s="315"/>
+      <c r="N71" s="316"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="327"/>
-      <c r="C72" s="327"/>
+      <c r="B72" s="333"/>
+      <c r="C72" s="333"/>
       <c r="J72" s="22"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="24"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="322" t="s">
+      <c r="B73" s="340" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="322"/>
+      <c r="C73" s="340"/>
       <c r="J73" s="22"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
@@ -36128,13 +36128,13 @@
       <c r="B75" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="309" t="s">
+      <c r="C75" s="344" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="309"/>
-      <c r="E75" s="309"/>
-      <c r="F75" s="309"/>
-      <c r="G75" s="309"/>
+      <c r="D75" s="344"/>
+      <c r="E75" s="344"/>
+      <c r="F75" s="344"/>
+      <c r="G75" s="344"/>
       <c r="H75" s="65"/>
       <c r="I75" s="96"/>
       <c r="J75" s="22"/>
@@ -36146,13 +36146,13 @@
       <c r="B76" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="309" t="s">
+      <c r="C76" s="344" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="309"/>
-      <c r="E76" s="309"/>
-      <c r="F76" s="309"/>
-      <c r="G76" s="309"/>
+      <c r="D76" s="344"/>
+      <c r="E76" s="344"/>
+      <c r="F76" s="344"/>
+      <c r="G76" s="344"/>
       <c r="H76" s="65"/>
       <c r="J76" s="97"/>
       <c r="K76" s="23"/>
@@ -36163,13 +36163,13 @@
       <c r="B77" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="321" t="s">
+      <c r="C77" s="336" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="321"/>
-      <c r="E77" s="321"/>
-      <c r="F77" s="321"/>
-      <c r="G77" s="321"/>
+      <c r="D77" s="336"/>
+      <c r="E77" s="336"/>
+      <c r="F77" s="336"/>
+      <c r="G77" s="336"/>
       <c r="H77" s="64"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23"/>
@@ -36180,13 +36180,13 @@
       <c r="B78" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="309" t="s">
+      <c r="C78" s="344" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="309"/>
-      <c r="E78" s="309"/>
-      <c r="F78" s="309"/>
-      <c r="G78" s="309"/>
+      <c r="D78" s="344"/>
+      <c r="E78" s="344"/>
+      <c r="F78" s="344"/>
+      <c r="G78" s="344"/>
       <c r="H78" s="65"/>
       <c r="J78" s="22"/>
       <c r="K78" s="23"/>
@@ -36197,16 +36197,16 @@
       <c r="B79" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="309" t="s">
+      <c r="C79" s="344" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="309"/>
-      <c r="E79" s="309"/>
-      <c r="F79" s="309"/>
-      <c r="G79" s="309"/>
+      <c r="D79" s="344"/>
+      <c r="E79" s="344"/>
+      <c r="F79" s="344"/>
+      <c r="G79" s="344"/>
       <c r="H79" s="65"/>
-      <c r="J79" s="344"/>
-      <c r="K79" s="344"/>
+      <c r="J79" s="317"/>
+      <c r="K79" s="317"/>
       <c r="L79" s="23"/>
       <c r="M79" s="24"/>
     </row>
@@ -36214,13 +36214,13 @@
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="321" t="s">
+      <c r="C80" s="336" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="321"/>
-      <c r="E80" s="321"/>
-      <c r="F80" s="321"/>
-      <c r="G80" s="321"/>
+      <c r="D80" s="336"/>
+      <c r="E80" s="336"/>
+      <c r="F80" s="336"/>
+      <c r="G80" s="336"/>
       <c r="H80" s="64"/>
       <c r="J80" s="22"/>
       <c r="K80" s="23"/>
@@ -36231,13 +36231,13 @@
       <c r="B81" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="321" t="s">
+      <c r="C81" s="336" t="s">
         <v>78</v>
       </c>
-      <c r="D81" s="321"/>
-      <c r="E81" s="321"/>
-      <c r="F81" s="321"/>
-      <c r="G81" s="321"/>
+      <c r="D81" s="336"/>
+      <c r="E81" s="336"/>
+      <c r="F81" s="336"/>
+      <c r="G81" s="336"/>
       <c r="H81" s="64"/>
       <c r="J81" s="22"/>
       <c r="K81" s="23"/>
@@ -36248,13 +36248,13 @@
       <c r="B82" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="309" t="s">
+      <c r="C82" s="344" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="309"/>
-      <c r="E82" s="309"/>
-      <c r="F82" s="309"/>
-      <c r="G82" s="309"/>
+      <c r="D82" s="344"/>
+      <c r="E82" s="344"/>
+      <c r="F82" s="344"/>
+      <c r="G82" s="344"/>
       <c r="H82" s="65"/>
       <c r="J82" s="22"/>
       <c r="K82" s="23"/>
@@ -36265,13 +36265,13 @@
       <c r="B83" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="309" t="s">
+      <c r="C83" s="344" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="309"/>
-      <c r="E83" s="309"/>
-      <c r="F83" s="309"/>
-      <c r="G83" s="309"/>
+      <c r="D83" s="344"/>
+      <c r="E83" s="344"/>
+      <c r="F83" s="344"/>
+      <c r="G83" s="344"/>
       <c r="H83" s="79"/>
       <c r="J83" s="22"/>
       <c r="K83" s="23"/>
@@ -37693,6 +37693,105 @@
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="I71:N71"/>
     <mergeCell ref="J79:K79"/>
     <mergeCell ref="B65:C65"/>
@@ -37717,105 +37816,6 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="I52:N52"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="I61:N61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="B73:C73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37868,13 +37868,13 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="346" t="s">
+      <c r="B7" s="354" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="346"/>
-      <c r="D7" s="346"/>
-      <c r="E7" s="346"/>
-      <c r="F7" s="346"/>
+      <c r="C7" s="354"/>
+      <c r="D7" s="354"/>
+      <c r="E7" s="354"/>
+      <c r="F7" s="354"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
@@ -37883,10 +37883,10 @@
       <c r="C9" s="41"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="329" t="s">
+      <c r="B10" s="334" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="330"/>
+      <c r="C10" s="335"/>
       <c r="D10" s="9" t="s">
         <v>0</v>
       </c>
@@ -37898,10 +37898,10 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="329" t="s">
+      <c r="B11" s="334" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="330"/>
+      <c r="C11" s="335"/>
       <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
@@ -37913,10 +37913,10 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="329" t="s">
+      <c r="B12" s="334" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="330"/>
+      <c r="C12" s="335"/>
       <c r="D12" s="9" t="s">
         <v>92</v>
       </c>
@@ -37929,10 +37929,10 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="329" t="s">
+      <c r="B13" s="334" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="330"/>
+      <c r="C13" s="335"/>
       <c r="D13" s="9" t="s">
         <v>2</v>
       </c>
@@ -37944,10 +37944,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="329" t="s">
+      <c r="B14" s="334" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="330"/>
+      <c r="C14" s="335"/>
       <c r="D14" s="36"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3" t="s">
@@ -37955,11 +37955,11 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="329" t="str">
+      <c r="B15" s="334" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F14</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C15" s="330"/>
+      <c r="C15" s="335"/>
       <c r="D15" s="8" t="s">
         <v>108</v>
       </c>
@@ -37969,10 +37969,10 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="329" t="s">
+      <c r="B16" s="334" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="330"/>
+      <c r="C16" s="335"/>
       <c r="D16" s="9" t="s">
         <v>11</v>
       </c>
@@ -37985,10 +37985,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="329" t="s">
+      <c r="B17" s="334" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="330"/>
+      <c r="C17" s="335"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -38001,10 +38001,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="329" t="s">
+      <c r="B18" s="334" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="330"/>
+      <c r="C18" s="335"/>
       <c r="D18" s="25" t="s">
         <v>13</v>
       </c>
@@ -38018,10 +38018,10 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="329" t="s">
+      <c r="B19" s="334" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="330"/>
+      <c r="C19" s="335"/>
       <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
@@ -38034,10 +38034,10 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="329" t="s">
+      <c r="B20" s="334" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="330"/>
+      <c r="C20" s="335"/>
       <c r="D20" s="7" t="s">
         <v>24</v>
       </c>
@@ -38066,10 +38066,10 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="329" t="s">
+      <c r="B23" s="334" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="330"/>
+      <c r="C23" s="335"/>
       <c r="D23" s="9" t="s">
         <v>46</v>
       </c>
@@ -38081,10 +38081,10 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="348" t="s">
+      <c r="B24" s="352" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="349"/>
+      <c r="C24" s="353"/>
       <c r="D24" s="28" t="s">
         <v>61</v>
       </c>
@@ -38113,22 +38113,22 @@
       <c r="C27" s="41"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="345" t="s">
+      <c r="B28" s="351" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="345"/>
-      <c r="D28" s="345"/>
-      <c r="E28" s="345"/>
-      <c r="F28" s="345"/>
-      <c r="G28" s="345"/>
+      <c r="C28" s="351"/>
+      <c r="D28" s="351"/>
+      <c r="E28" s="351"/>
+      <c r="F28" s="351"/>
+      <c r="G28" s="351"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="345"/>
-      <c r="C29" s="345"/>
-      <c r="D29" s="345"/>
-      <c r="E29" s="345"/>
-      <c r="F29" s="345"/>
-      <c r="G29" s="345"/>
+      <c r="B29" s="351"/>
+      <c r="C29" s="351"/>
+      <c r="D29" s="351"/>
+      <c r="E29" s="351"/>
+      <c r="F29" s="351"/>
+      <c r="G29" s="351"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="53"/>
@@ -38139,10 +38139,10 @@
       <c r="G30" s="53"/>
     </row>
     <row r="31" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="310" t="s">
+      <c r="B31" s="323" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="311"/>
+      <c r="C31" s="324"/>
       <c r="D31" s="51" t="s">
         <v>137</v>
       </c>
@@ -38156,10 +38156,10 @@
       <c r="G31" s="53"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="310" t="s">
+      <c r="B32" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="311"/>
+      <c r="C32" s="324"/>
       <c r="D32" s="51" t="s">
         <v>14</v>
       </c>
@@ -38199,10 +38199,10 @@
       <c r="G35" s="53"/>
     </row>
     <row r="36" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="310" t="s">
+      <c r="B36" s="323" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="311"/>
+      <c r="C36" s="324"/>
       <c r="D36" s="55" t="s">
         <v>91</v>
       </c>
@@ -38224,14 +38224,14 @@
       <c r="G37" s="53"/>
     </row>
     <row r="38" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="345" t="s">
+      <c r="B38" s="351" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="345"/>
-      <c r="D38" s="345"/>
-      <c r="E38" s="345"/>
-      <c r="F38" s="345"/>
-      <c r="G38" s="345"/>
+      <c r="C38" s="351"/>
+      <c r="D38" s="351"/>
+      <c r="E38" s="351"/>
+      <c r="F38" s="351"/>
+      <c r="G38" s="351"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="53"/>
@@ -38242,10 +38242,10 @@
       <c r="G39" s="53"/>
     </row>
     <row r="40" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="310" t="s">
+      <c r="B40" s="323" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="311"/>
+      <c r="C40" s="324"/>
       <c r="D40" s="51" t="s">
         <v>131</v>
       </c>
@@ -38259,10 +38259,10 @@
       <c r="G40" s="49"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="310" t="s">
+      <c r="B41" s="323" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="311"/>
+      <c r="C41" s="324"/>
       <c r="D41" s="48" t="s">
         <v>144</v>
       </c>
@@ -38277,10 +38277,10 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="310" t="s">
+      <c r="B42" s="323" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="311"/>
+      <c r="C42" s="324"/>
       <c r="D42" s="45" t="s">
         <v>135</v>
       </c>
@@ -38320,10 +38320,10 @@
       <c r="G45" s="53"/>
     </row>
     <row r="46" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="310" t="s">
+      <c r="B46" s="323" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="311"/>
+      <c r="C46" s="324"/>
       <c r="D46" s="51" t="s">
         <v>88</v>
       </c>
@@ -38335,10 +38335,10 @@
       <c r="G46" s="49"/>
     </row>
     <row r="47" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="310" t="s">
+      <c r="B47" s="323" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="311"/>
+      <c r="C47" s="324"/>
       <c r="D47" s="51" t="s">
         <v>101</v>
       </c>
@@ -38350,10 +38350,10 @@
       <c r="G47" s="49"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="310" t="s">
+      <c r="B48" s="323" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="311"/>
+      <c r="C48" s="324"/>
       <c r="D48" s="51" t="s">
         <v>145</v>
       </c>
@@ -38391,10 +38391,10 @@
       <c r="G51" s="53"/>
     </row>
     <row r="52" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="310" t="s">
+      <c r="B52" s="323" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="311"/>
+      <c r="C52" s="324"/>
       <c r="D52" s="51" t="s">
         <v>146</v>
       </c>
@@ -38452,10 +38452,10 @@
       <c r="G57" s="53"/>
     </row>
     <row r="58" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="310" t="s">
+      <c r="B58" s="323" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="311"/>
+      <c r="C58" s="324"/>
       <c r="D58" s="56" t="s">
         <v>1</v>
       </c>
@@ -38493,10 +38493,10 @@
       <c r="G61" s="53"/>
     </row>
     <row r="62" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="310" t="s">
+      <c r="B62" s="323" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="311"/>
+      <c r="C62" s="324"/>
       <c r="D62" s="48" t="s">
         <v>136</v>
       </c>
@@ -38518,14 +38518,14 @@
       <c r="G63" s="53"/>
     </row>
     <row r="64" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="345" t="s">
+      <c r="B64" s="351" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="345"/>
-      <c r="D64" s="345"/>
-      <c r="E64" s="345"/>
-      <c r="F64" s="345"/>
-      <c r="G64" s="345"/>
+      <c r="C64" s="351"/>
+      <c r="D64" s="351"/>
+      <c r="E64" s="351"/>
+      <c r="F64" s="351"/>
+      <c r="G64" s="351"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="53"/>
@@ -38536,10 +38536,10 @@
       <c r="G65" s="53"/>
     </row>
     <row r="66" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="310" t="s">
+      <c r="B66" s="323" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="311"/>
+      <c r="C66" s="324"/>
       <c r="D66" s="51" t="s">
         <v>27</v>
       </c>
@@ -38579,10 +38579,10 @@
       <c r="G69" s="53"/>
     </row>
     <row r="70" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="310" t="s">
+      <c r="B70" s="323" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="311"/>
+      <c r="C70" s="324"/>
       <c r="D70" s="48" t="s">
         <v>138</v>
       </c>
@@ -38596,10 +38596,10 @@
       <c r="G70" s="49"/>
     </row>
     <row r="71" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="310" t="s">
+      <c r="B71" s="323" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="311"/>
+      <c r="C71" s="324"/>
       <c r="D71" s="51" t="s">
         <v>139</v>
       </c>
@@ -38613,10 +38613,10 @@
       <c r="G71" s="49"/>
     </row>
     <row r="72" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="310" t="s">
+      <c r="B72" s="323" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="311"/>
+      <c r="C72" s="324"/>
       <c r="D72" s="51" t="s">
         <v>140</v>
       </c>
@@ -38630,10 +38630,10 @@
       <c r="G72" s="49"/>
     </row>
     <row r="73" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="310" t="s">
+      <c r="B73" s="323" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="311"/>
+      <c r="C73" s="324"/>
       <c r="D73" s="51" t="s">
         <v>142</v>
       </c>
@@ -38653,46 +38653,46 @@
       <c r="C75" s="41"/>
     </row>
     <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="347" t="s">
+      <c r="B76" s="350" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="347"/>
-      <c r="D76" s="347"/>
-      <c r="E76" s="347"/>
-      <c r="F76" s="347"/>
-      <c r="G76" s="347"/>
+      <c r="C76" s="350"/>
+      <c r="D76" s="350"/>
+      <c r="E76" s="350"/>
+      <c r="F76" s="350"/>
+      <c r="G76" s="350"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="347"/>
-      <c r="C77" s="347"/>
-      <c r="D77" s="347"/>
-      <c r="E77" s="347"/>
-      <c r="F77" s="347"/>
-      <c r="G77" s="347"/>
+      <c r="B77" s="350"/>
+      <c r="C77" s="350"/>
+      <c r="D77" s="350"/>
+      <c r="E77" s="350"/>
+      <c r="F77" s="350"/>
+      <c r="G77" s="350"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="347"/>
-      <c r="C78" s="347"/>
-      <c r="D78" s="347"/>
-      <c r="E78" s="347"/>
-      <c r="F78" s="347"/>
-      <c r="G78" s="347"/>
+      <c r="B78" s="350"/>
+      <c r="C78" s="350"/>
+      <c r="D78" s="350"/>
+      <c r="E78" s="350"/>
+      <c r="F78" s="350"/>
+      <c r="G78" s="350"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="347"/>
-      <c r="C79" s="347"/>
-      <c r="D79" s="347"/>
-      <c r="E79" s="347"/>
-      <c r="F79" s="347"/>
-      <c r="G79" s="347"/>
+      <c r="B79" s="350"/>
+      <c r="C79" s="350"/>
+      <c r="D79" s="350"/>
+      <c r="E79" s="350"/>
+      <c r="F79" s="350"/>
+      <c r="G79" s="350"/>
     </row>
     <row r="80" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="347"/>
-      <c r="C80" s="347"/>
-      <c r="D80" s="347"/>
-      <c r="E80" s="347"/>
-      <c r="F80" s="347"/>
-      <c r="G80" s="347"/>
+      <c r="B80" s="350"/>
+      <c r="C80" s="350"/>
+      <c r="D80" s="350"/>
+      <c r="E80" s="350"/>
+      <c r="F80" s="350"/>
+      <c r="G80" s="350"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="42"/>
@@ -38730,6 +38730,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B76:G80"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B17:C17"/>
@@ -38746,25 +38765,6 @@
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B70:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38776,8 +38776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M71" sqref="M71"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K158" sqref="K158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38825,11 +38825,11 @@
     </row>
     <row r="2" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="468"/>
-      <c r="C2" s="468"/>
-      <c r="D2" s="468"/>
-      <c r="E2" s="468"/>
-      <c r="F2" s="468"/>
+      <c r="B2" s="381"/>
+      <c r="C2" s="381"/>
+      <c r="D2" s="381"/>
+      <c r="E2" s="381"/>
+      <c r="F2" s="381"/>
       <c r="G2" s="254" t="s">
         <v>119</v>
       </c>
@@ -38842,11 +38842,11 @@
     </row>
     <row r="3" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="468"/>
-      <c r="C3" s="468"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="468"/>
-      <c r="F3" s="468"/>
+      <c r="B3" s="381"/>
+      <c r="C3" s="381"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="381"/>
       <c r="G3" s="254" t="s">
         <v>120</v>
       </c>
@@ -38859,11 +38859,11 @@
     </row>
     <row r="4" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="468"/>
-      <c r="C4" s="468"/>
-      <c r="D4" s="468"/>
-      <c r="E4" s="468"/>
-      <c r="F4" s="468"/>
+      <c r="B4" s="381"/>
+      <c r="C4" s="381"/>
+      <c r="D4" s="381"/>
+      <c r="E4" s="381"/>
+      <c r="F4" s="381"/>
       <c r="G4" s="254" t="s">
         <v>121</v>
       </c>
@@ -38876,11 +38876,11 @@
     </row>
     <row r="5" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="468"/>
-      <c r="C5" s="468"/>
-      <c r="D5" s="468"/>
-      <c r="E5" s="468"/>
-      <c r="F5" s="468"/>
+      <c r="B5" s="381"/>
+      <c r="C5" s="381"/>
+      <c r="D5" s="381"/>
+      <c r="E5" s="381"/>
+      <c r="F5" s="381"/>
       <c r="G5" s="254" t="s">
         <v>314</v>
       </c>
@@ -38961,15 +38961,15 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="328" t="s">
+      <c r="B8" s="329" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="328"/>
-      <c r="D8" s="328"/>
-      <c r="E8" s="328"/>
-      <c r="F8" s="328"/>
-      <c r="G8" s="328"/>
-      <c r="H8" s="328"/>
+      <c r="C8" s="329"/>
+      <c r="D8" s="329"/>
+      <c r="E8" s="329"/>
+      <c r="F8" s="329"/>
+      <c r="G8" s="329"/>
+      <c r="H8" s="329"/>
       <c r="I8" s="247" t="s">
         <v>310</v>
       </c>
@@ -38978,10 +38978,10 @@
       </c>
       <c r="K8" s="49"/>
       <c r="L8" s="253"/>
-      <c r="X8" s="328" t="s">
+      <c r="X8" s="329" t="s">
         <v>315</v>
       </c>
-      <c r="Y8" s="328"/>
+      <c r="Y8" s="329"/>
       <c r="Z8" s="116"/>
       <c r="AA8" s="13" t="s">
         <v>313</v>
@@ -39009,15 +39009,15 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="328" t="s">
+      <c r="B9" s="329" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="328"/>
-      <c r="D9" s="328"/>
-      <c r="E9" s="328"/>
-      <c r="F9" s="328"/>
-      <c r="G9" s="328"/>
-      <c r="H9" s="328"/>
+      <c r="C9" s="329"/>
+      <c r="D9" s="329"/>
+      <c r="E9" s="329"/>
+      <c r="F9" s="329"/>
+      <c r="G9" s="329"/>
+      <c r="H9" s="329"/>
       <c r="I9" s="247" t="s">
         <v>311</v>
       </c>
@@ -39026,10 +39026,10 @@
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="253"/>
-      <c r="X9" s="328" t="s">
+      <c r="X9" s="329" t="s">
         <v>316</v>
       </c>
-      <c r="Y9" s="328"/>
+      <c r="Y9" s="329"/>
       <c r="Z9" s="116"/>
       <c r="AA9" s="13" t="s">
         <v>326</v>
@@ -39061,15 +39061,15 @@
       </c>
     </row>
     <row r="10" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="328" t="s">
+      <c r="B10" s="329" t="s">
         <v>304</v>
       </c>
-      <c r="C10" s="328"/>
-      <c r="D10" s="328"/>
-      <c r="E10" s="328"/>
-      <c r="F10" s="328"/>
-      <c r="G10" s="328"/>
-      <c r="H10" s="328"/>
+      <c r="C10" s="329"/>
+      <c r="D10" s="329"/>
+      <c r="E10" s="329"/>
+      <c r="F10" s="329"/>
+      <c r="G10" s="329"/>
+      <c r="H10" s="329"/>
       <c r="I10" s="247" t="s">
         <v>305</v>
       </c>
@@ -39079,7 +39079,7 @@
       <c r="K10" s="247" t="s">
         <v>291</v>
       </c>
-      <c r="L10" s="496"/>
+      <c r="L10" s="311"/>
       <c r="X10" s="192" t="s">
         <v>317</v>
       </c>
@@ -39118,15 +39118,15 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="328" t="s">
+      <c r="B11" s="329" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="328"/>
-      <c r="D11" s="328"/>
-      <c r="E11" s="328"/>
-      <c r="F11" s="328"/>
-      <c r="G11" s="328"/>
-      <c r="H11" s="328"/>
+      <c r="C11" s="329"/>
+      <c r="D11" s="329"/>
+      <c r="E11" s="329"/>
+      <c r="F11" s="329"/>
+      <c r="G11" s="329"/>
+      <c r="H11" s="329"/>
       <c r="I11" s="247" t="s">
         <v>302</v>
       </c>
@@ -39137,7 +39137,7 @@
       <c r="K11" s="247" t="s">
         <v>291</v>
       </c>
-      <c r="L11" s="497"/>
+      <c r="L11" s="312"/>
       <c r="X11" s="192" t="s">
         <v>357</v>
       </c>
@@ -39171,15 +39171,15 @@
       </c>
     </row>
     <row r="12" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="328" t="s">
+      <c r="B12" s="329" t="s">
         <v>306</v>
       </c>
-      <c r="C12" s="328"/>
-      <c r="D12" s="328"/>
-      <c r="E12" s="328"/>
-      <c r="F12" s="328"/>
-      <c r="G12" s="328"/>
-      <c r="H12" s="328"/>
+      <c r="C12" s="329"/>
+      <c r="D12" s="329"/>
+      <c r="E12" s="329"/>
+      <c r="F12" s="329"/>
+      <c r="G12" s="329"/>
+      <c r="H12" s="329"/>
       <c r="I12" s="247" t="s">
         <v>346</v>
       </c>
@@ -39190,7 +39190,7 @@
       <c r="K12" s="247" t="s">
         <v>291</v>
       </c>
-      <c r="L12" s="497"/>
+      <c r="L12" s="312"/>
       <c r="X12" s="268" t="s">
         <v>359</v>
       </c>
@@ -39304,18 +39304,18 @@
       </c>
     </row>
     <row r="15" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="310" t="s">
+      <c r="B15" s="323" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="369"/>
-      <c r="D15" s="369"/>
-      <c r="E15" s="369"/>
-      <c r="F15" s="369"/>
-      <c r="G15" s="311"/>
-      <c r="H15" s="310" t="s">
+      <c r="C15" s="396"/>
+      <c r="D15" s="396"/>
+      <c r="E15" s="396"/>
+      <c r="F15" s="396"/>
+      <c r="G15" s="324"/>
+      <c r="H15" s="323" t="s">
         <v>313</v>
       </c>
-      <c r="I15" s="311"/>
+      <c r="I15" s="324"/>
       <c r="J15" s="208"/>
       <c r="K15" s="196"/>
       <c r="L15" s="249"/>
@@ -39348,19 +39348,19 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="310" t="s">
+      <c r="B16" s="323" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="369"/>
-      <c r="D16" s="369"/>
-      <c r="E16" s="369"/>
-      <c r="F16" s="369"/>
-      <c r="G16" s="311"/>
-      <c r="H16" s="310" t="str">
+      <c r="C16" s="396"/>
+      <c r="D16" s="396"/>
+      <c r="E16" s="396"/>
+      <c r="F16" s="396"/>
+      <c r="G16" s="324"/>
+      <c r="H16" s="323" t="str">
         <f>IF($H$15=$AA$8,$AA$9,IF($H$15=$AB$8,$AB$9,""))</f>
         <v>Arena</v>
       </c>
-      <c r="I16" s="311"/>
+      <c r="I16" s="324"/>
       <c r="J16" s="208"/>
       <c r="K16" s="196"/>
       <c r="L16" s="249"/>
@@ -39393,19 +39393,19 @@
       </c>
     </row>
     <row r="17" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="310" t="s">
+      <c r="B17" s="323" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="369"/>
-      <c r="D17" s="369"/>
-      <c r="E17" s="369"/>
-      <c r="F17" s="369"/>
-      <c r="G17" s="311"/>
-      <c r="H17" s="310" t="str">
+      <c r="C17" s="396"/>
+      <c r="D17" s="396"/>
+      <c r="E17" s="396"/>
+      <c r="F17" s="396"/>
+      <c r="G17" s="324"/>
+      <c r="H17" s="323" t="str">
         <f>IF($H$15=$AA$8,AA10,IF($H$15=$AB$8,AB10,""))</f>
         <v>Estratificado fino a grueso</v>
       </c>
-      <c r="I17" s="311"/>
+      <c r="I17" s="324"/>
       <c r="J17" s="208"/>
       <c r="K17" s="196"/>
       <c r="L17" s="249"/>
@@ -39431,18 +39431,18 @@
       <c r="AK17" s="217"/>
     </row>
     <row r="18" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="310" t="s">
+      <c r="B18" s="323" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="369"/>
-      <c r="D18" s="369"/>
-      <c r="E18" s="369"/>
-      <c r="F18" s="369"/>
-      <c r="G18" s="311"/>
-      <c r="H18" s="310" t="s">
+      <c r="C18" s="396"/>
+      <c r="D18" s="396"/>
+      <c r="E18" s="396"/>
+      <c r="F18" s="396"/>
+      <c r="G18" s="324"/>
+      <c r="H18" s="323" t="s">
         <v>328</v>
       </c>
-      <c r="I18" s="311"/>
+      <c r="I18" s="324"/>
       <c r="J18" s="208"/>
       <c r="K18" s="196"/>
       <c r="L18" s="249"/>
@@ -39464,19 +39464,19 @@
       <c r="AK18" s="217"/>
     </row>
     <row r="19" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="310" t="s">
+      <c r="B19" s="323" t="s">
         <v>357</v>
       </c>
-      <c r="C19" s="369"/>
-      <c r="D19" s="369"/>
-      <c r="E19" s="369"/>
-      <c r="F19" s="369"/>
-      <c r="G19" s="311"/>
-      <c r="H19" s="367">
+      <c r="C19" s="396"/>
+      <c r="D19" s="396"/>
+      <c r="E19" s="396"/>
+      <c r="F19" s="396"/>
+      <c r="G19" s="324"/>
+      <c r="H19" s="390">
         <f t="shared" ref="H19:H25" si="0">IF($H$15=$AA$8,AA11,IF($H$15=$AB$8,AB11,""))</f>
         <v>120</v>
       </c>
-      <c r="I19" s="368"/>
+      <c r="I19" s="391"/>
       <c r="J19" s="247" t="s">
         <v>4</v>
       </c>
@@ -39507,23 +39507,23 @@
       <c r="AK19" s="217"/>
     </row>
     <row r="20" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="430" t="s">
+      <c r="B20" s="420" t="s">
         <v>359</v>
       </c>
-      <c r="C20" s="431"/>
-      <c r="D20" s="431"/>
-      <c r="E20" s="431"/>
-      <c r="F20" s="431"/>
-      <c r="G20" s="432"/>
-      <c r="H20" s="367">
+      <c r="C20" s="421"/>
+      <c r="D20" s="421"/>
+      <c r="E20" s="421"/>
+      <c r="F20" s="421"/>
+      <c r="G20" s="422"/>
+      <c r="H20" s="390">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I20" s="368"/>
+      <c r="I20" s="391"/>
       <c r="J20" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="494"/>
+      <c r="K20" s="309"/>
       <c r="L20" s="249"/>
       <c r="M20" s="236"/>
       <c r="N20" s="236"/>
@@ -39548,19 +39548,19 @@
       <c r="AK20" s="217"/>
     </row>
     <row r="21" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="310" t="s">
+      <c r="B21" s="323" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="369"/>
-      <c r="D21" s="369"/>
-      <c r="E21" s="369"/>
-      <c r="F21" s="369"/>
-      <c r="G21" s="311"/>
-      <c r="H21" s="367" t="str">
+      <c r="C21" s="396"/>
+      <c r="D21" s="396"/>
+      <c r="E21" s="396"/>
+      <c r="F21" s="396"/>
+      <c r="G21" s="324"/>
+      <c r="H21" s="390" t="str">
         <f t="shared" si="0"/>
         <v>12 - 36</v>
       </c>
-      <c r="I21" s="368"/>
+      <c r="I21" s="391"/>
       <c r="J21" s="266" t="s">
         <v>331</v>
       </c>
@@ -39587,19 +39587,19 @@
       <c r="AK21" s="217"/>
     </row>
     <row r="22" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="310" t="s">
+      <c r="B22" s="323" t="s">
         <v>319</v>
       </c>
-      <c r="C22" s="369"/>
-      <c r="D22" s="369"/>
-      <c r="E22" s="369"/>
-      <c r="F22" s="369"/>
-      <c r="G22" s="311"/>
-      <c r="H22" s="367">
+      <c r="C22" s="396"/>
+      <c r="D22" s="396"/>
+      <c r="E22" s="396"/>
+      <c r="F22" s="396"/>
+      <c r="G22" s="324"/>
+      <c r="H22" s="390">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="I22" s="368"/>
+      <c r="I22" s="391"/>
       <c r="J22" s="266" t="s">
         <v>3</v>
       </c>
@@ -39626,19 +39626,19 @@
       <c r="AK22" s="217"/>
     </row>
     <row r="23" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="310" t="s">
+      <c r="B23" s="323" t="s">
         <v>320</v>
       </c>
-      <c r="C23" s="369"/>
-      <c r="D23" s="369"/>
-      <c r="E23" s="369"/>
-      <c r="F23" s="369"/>
-      <c r="G23" s="311"/>
-      <c r="H23" s="367" t="str">
+      <c r="C23" s="396"/>
+      <c r="D23" s="396"/>
+      <c r="E23" s="396"/>
+      <c r="F23" s="396"/>
+      <c r="G23" s="324"/>
+      <c r="H23" s="390" t="str">
         <f t="shared" si="0"/>
         <v>2,4 - 3,0</v>
       </c>
-      <c r="I23" s="368"/>
+      <c r="I23" s="391"/>
       <c r="J23" s="266" t="s">
         <v>3</v>
       </c>
@@ -39663,19 +39663,19 @@
       <c r="AK23" s="217"/>
     </row>
     <row r="24" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="310" t="s">
+      <c r="B24" s="323" t="s">
         <v>330</v>
       </c>
-      <c r="C24" s="369"/>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="311"/>
-      <c r="H24" s="367" t="str">
+      <c r="C24" s="396"/>
+      <c r="D24" s="396"/>
+      <c r="E24" s="396"/>
+      <c r="F24" s="396"/>
+      <c r="G24" s="324"/>
+      <c r="H24" s="390" t="str">
         <f t="shared" si="0"/>
         <v>2 - 4</v>
       </c>
-      <c r="I24" s="368"/>
+      <c r="I24" s="391"/>
       <c r="J24" s="266" t="s">
         <v>332</v>
       </c>
@@ -39684,11 +39684,11 @@
       <c r="M24" s="236"/>
       <c r="N24" s="236"/>
       <c r="O24" s="236"/>
-      <c r="X24" s="351"/>
-      <c r="Y24" s="351"/>
+      <c r="X24" s="493"/>
+      <c r="Y24" s="493"/>
       <c r="Z24" s="207"/>
-      <c r="AA24" s="350"/>
-      <c r="AB24" s="350"/>
+      <c r="AA24" s="492"/>
+      <c r="AB24" s="492"/>
       <c r="AC24" s="113"/>
       <c r="AD24" s="217"/>
       <c r="AE24" s="217"/>
@@ -39700,20 +39700,20 @@
       <c r="AK24" s="217"/>
     </row>
     <row r="25" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="310" t="str">
+      <c r="B25" s="323" t="str">
         <f>IF($H$15=$AA$8,$X$17,IF($H$15=$AB$8,X17&amp;" (antracita)",IF($H$15="",X17&amp;" (antracita)")))</f>
         <v>Profundidad del medio</v>
       </c>
-      <c r="C25" s="369"/>
-      <c r="D25" s="369"/>
-      <c r="E25" s="369"/>
-      <c r="F25" s="369"/>
-      <c r="G25" s="311"/>
-      <c r="H25" s="367" t="str">
+      <c r="C25" s="396"/>
+      <c r="D25" s="396"/>
+      <c r="E25" s="396"/>
+      <c r="F25" s="396"/>
+      <c r="G25" s="324"/>
+      <c r="H25" s="390" t="str">
         <f t="shared" si="0"/>
         <v>0,60 - 0,75</v>
       </c>
-      <c r="I25" s="368"/>
+      <c r="I25" s="391"/>
       <c r="J25" s="266" t="s">
         <v>3</v>
       </c>
@@ -39722,11 +39722,11 @@
       <c r="M25" s="236"/>
       <c r="N25" s="236"/>
       <c r="O25" s="236"/>
-      <c r="X25" s="351"/>
-      <c r="Y25" s="351"/>
+      <c r="X25" s="493"/>
+      <c r="Y25" s="493"/>
       <c r="Z25" s="207"/>
-      <c r="AA25" s="350"/>
-      <c r="AB25" s="350"/>
+      <c r="AA25" s="492"/>
+      <c r="AB25" s="492"/>
       <c r="AC25" s="113"/>
       <c r="AD25" s="217"/>
       <c r="AE25" s="217"/>
@@ -39738,20 +39738,20 @@
       <c r="AK25" s="217"/>
     </row>
     <row r="26" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="310" t="str">
+      <c r="B26" s="323" t="str">
         <f>IF($H$15=$AA$8,$X$19,IF($H$15=$AB$8,X17&amp;" (arena)",IF($H$15="",X17&amp;" (arena)")))</f>
         <v>Profundidad de grava</v>
       </c>
-      <c r="C26" s="369"/>
-      <c r="D26" s="369"/>
-      <c r="E26" s="369"/>
-      <c r="F26" s="369"/>
-      <c r="G26" s="311"/>
-      <c r="H26" s="367" t="str">
+      <c r="C26" s="396"/>
+      <c r="D26" s="396"/>
+      <c r="E26" s="396"/>
+      <c r="F26" s="396"/>
+      <c r="G26" s="324"/>
+      <c r="H26" s="390" t="str">
         <f>IF($H$15=$AA$8,AA19,IF($H$15=$AB$8,AB18,""))</f>
         <v>0,30 - 0,45</v>
       </c>
-      <c r="I26" s="368"/>
+      <c r="I26" s="391"/>
       <c r="J26" s="266" t="s">
         <v>3</v>
       </c>
@@ -39760,11 +39760,11 @@
       <c r="M26" s="236"/>
       <c r="N26" s="236"/>
       <c r="O26" s="236"/>
-      <c r="X26" s="351"/>
-      <c r="Y26" s="351"/>
+      <c r="X26" s="493"/>
+      <c r="Y26" s="493"/>
       <c r="Z26" s="207"/>
-      <c r="AA26" s="350"/>
-      <c r="AB26" s="350"/>
+      <c r="AA26" s="492"/>
+      <c r="AB26" s="492"/>
       <c r="AD26" s="217"/>
       <c r="AE26" s="217"/>
       <c r="AF26" s="217"/>
@@ -39775,20 +39775,20 @@
       <c r="AK26" s="217"/>
     </row>
     <row r="27" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="310" t="str">
+      <c r="B27" s="323" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$X$19,IF($H$15="",$X$19)))</f>
         <v/>
       </c>
-      <c r="C27" s="369"/>
-      <c r="D27" s="369"/>
-      <c r="E27" s="369"/>
-      <c r="F27" s="369"/>
-      <c r="G27" s="369"/>
-      <c r="H27" s="367" t="str">
+      <c r="C27" s="396"/>
+      <c r="D27" s="396"/>
+      <c r="E27" s="396"/>
+      <c r="F27" s="396"/>
+      <c r="G27" s="396"/>
+      <c r="H27" s="390" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$AB$19,IF($H$15="","")))</f>
         <v/>
       </c>
-      <c r="I27" s="368"/>
+      <c r="I27" s="391"/>
       <c r="J27" s="267" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,"m",IF($H$15="","m")))</f>
         <v/>
@@ -39858,15 +39858,15 @@
       <c r="AB29" s="207"/>
     </row>
     <row r="30" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="328" t="s">
+      <c r="B30" s="329" t="s">
         <v>254</v>
       </c>
-      <c r="C30" s="328"/>
-      <c r="D30" s="328"/>
-      <c r="E30" s="328"/>
-      <c r="F30" s="328"/>
-      <c r="G30" s="328"/>
-      <c r="H30" s="328"/>
+      <c r="C30" s="329"/>
+      <c r="D30" s="329"/>
+      <c r="E30" s="329"/>
+      <c r="F30" s="329"/>
+      <c r="G30" s="329"/>
+      <c r="H30" s="329"/>
       <c r="I30" s="247" t="s">
         <v>251</v>
       </c>
@@ -39884,16 +39884,16 @@
       <c r="AB30" s="207"/>
     </row>
     <row r="31" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="328" t="str">
+      <c r="B31" s="329" t="str">
         <f>"Densidad del agua a "&amp;J30&amp;" °C"</f>
         <v>Densidad del agua a 3 °C</v>
       </c>
-      <c r="C31" s="328"/>
-      <c r="D31" s="328"/>
-      <c r="E31" s="328"/>
-      <c r="F31" s="328"/>
-      <c r="G31" s="328"/>
-      <c r="H31" s="328"/>
+      <c r="C31" s="329"/>
+      <c r="D31" s="329"/>
+      <c r="E31" s="329"/>
+      <c r="F31" s="329"/>
+      <c r="G31" s="329"/>
+      <c r="H31" s="329"/>
       <c r="I31" s="275" t="s">
         <v>250</v>
       </c>
@@ -39911,25 +39911,25 @@
       <c r="Y31" s="183" t="s">
         <v>312</v>
       </c>
-      <c r="Z31" s="371" t="s">
+      <c r="Z31" s="474" t="s">
         <v>248</v>
       </c>
-      <c r="AA31" s="371" t="s">
+      <c r="AA31" s="474" t="s">
         <v>246</v>
       </c>
       <c r="AB31" s="181"/>
     </row>
     <row r="32" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="328" t="str">
+      <c r="B32" s="329" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad dinámica del agua a 3 °C</v>
       </c>
-      <c r="C32" s="328"/>
-      <c r="D32" s="328"/>
-      <c r="E32" s="328"/>
-      <c r="F32" s="328"/>
-      <c r="G32" s="328"/>
-      <c r="H32" s="328"/>
+      <c r="C32" s="329"/>
+      <c r="D32" s="329"/>
+      <c r="E32" s="329"/>
+      <c r="F32" s="329"/>
+      <c r="G32" s="329"/>
+      <c r="H32" s="329"/>
       <c r="I32" s="275" t="s">
         <v>213</v>
       </c>
@@ -39947,21 +39947,21 @@
       <c r="Y32" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="Z32" s="372"/>
-      <c r="AA32" s="372"/>
+      <c r="Z32" s="475"/>
+      <c r="AA32" s="475"/>
       <c r="AB32" s="181"/>
     </row>
     <row r="33" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="470" t="str">
+      <c r="B33" s="392" t="str">
         <f>"Viscocidad cinemática del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad cinemática del agua a 3 °C</v>
       </c>
-      <c r="C33" s="470"/>
-      <c r="D33" s="470"/>
-      <c r="E33" s="470"/>
-      <c r="F33" s="470"/>
-      <c r="G33" s="470"/>
-      <c r="H33" s="470"/>
+      <c r="C33" s="392"/>
+      <c r="D33" s="392"/>
+      <c r="E33" s="392"/>
+      <c r="F33" s="392"/>
+      <c r="G33" s="392"/>
+      <c r="H33" s="392"/>
       <c r="I33" s="51" t="s">
         <v>2</v>
       </c>
@@ -40095,26 +40095,26 @@
       <c r="AB37" s="157"/>
     </row>
     <row r="38" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="404" t="s">
+      <c r="B38" s="401" t="s">
         <v>192</v>
       </c>
-      <c r="C38" s="405"/>
+      <c r="C38" s="402"/>
       <c r="D38" s="54"/>
       <c r="E38" s="248"/>
-      <c r="F38" s="354" t="s">
+      <c r="F38" s="388" t="s">
         <v>204</v>
       </c>
-      <c r="G38" s="354" t="s">
+      <c r="G38" s="388" t="s">
         <v>203</v>
       </c>
-      <c r="H38" s="436" t="s">
+      <c r="H38" s="447" t="s">
         <v>210</v>
       </c>
-      <c r="I38" s="437"/>
-      <c r="J38" s="436" t="s">
+      <c r="I38" s="448"/>
+      <c r="J38" s="447" t="s">
         <v>209</v>
       </c>
-      <c r="K38" s="437"/>
+      <c r="K38" s="448"/>
       <c r="L38" s="253"/>
       <c r="X38" s="165">
         <v>3</v>
@@ -40132,22 +40132,22 @@
       <c r="AB38" s="157"/>
     </row>
     <row r="39" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="406"/>
-      <c r="C39" s="407"/>
+      <c r="B39" s="403"/>
+      <c r="C39" s="404"/>
       <c r="D39" s="54"/>
       <c r="E39" s="248"/>
-      <c r="F39" s="355"/>
-      <c r="G39" s="355"/>
-      <c r="H39" s="354" t="s">
+      <c r="F39" s="407"/>
+      <c r="G39" s="407"/>
+      <c r="H39" s="388" t="s">
         <v>186</v>
       </c>
-      <c r="I39" s="354" t="s">
+      <c r="I39" s="388" t="s">
         <v>207</v>
       </c>
-      <c r="J39" s="354" t="s">
+      <c r="J39" s="388" t="s">
         <v>186</v>
       </c>
-      <c r="K39" s="354" t="s">
+      <c r="K39" s="388" t="s">
         <v>207</v>
       </c>
       <c r="L39" s="253"/>
@@ -40167,16 +40167,16 @@
       <c r="AB39" s="157"/>
     </row>
     <row r="40" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="406"/>
-      <c r="C40" s="407"/>
+      <c r="B40" s="403"/>
+      <c r="C40" s="404"/>
       <c r="D40" s="54"/>
       <c r="E40" s="248"/>
-      <c r="F40" s="355"/>
-      <c r="G40" s="355"/>
-      <c r="H40" s="355"/>
-      <c r="I40" s="355"/>
-      <c r="J40" s="355"/>
-      <c r="K40" s="355"/>
+      <c r="F40" s="407"/>
+      <c r="G40" s="407"/>
+      <c r="H40" s="407"/>
+      <c r="I40" s="407"/>
+      <c r="J40" s="407"/>
+      <c r="K40" s="407"/>
       <c r="L40" s="253"/>
       <c r="X40" s="165">
         <v>5</v>
@@ -40194,16 +40194,16 @@
       <c r="AB40" s="157"/>
     </row>
     <row r="41" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="408"/>
-      <c r="C41" s="409"/>
+      <c r="B41" s="405"/>
+      <c r="C41" s="406"/>
       <c r="D41" s="54"/>
       <c r="E41" s="248"/>
-      <c r="F41" s="356"/>
-      <c r="G41" s="356"/>
-      <c r="H41" s="356"/>
-      <c r="I41" s="356"/>
-      <c r="J41" s="356"/>
-      <c r="K41" s="356"/>
+      <c r="F41" s="389"/>
+      <c r="G41" s="389"/>
+      <c r="H41" s="389"/>
+      <c r="I41" s="389"/>
+      <c r="J41" s="389"/>
+      <c r="K41" s="389"/>
       <c r="L41" s="253"/>
       <c r="X41" s="165">
         <v>6</v>
@@ -40221,10 +40221,10 @@
       <c r="AB41" s="157"/>
     </row>
     <row r="42" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="367" t="s">
+      <c r="B42" s="390" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="368"/>
+      <c r="C42" s="391"/>
       <c r="D42" s="128">
         <f>LEFT(B42,2)+0</f>
         <v>14</v>
@@ -40275,10 +40275,10 @@
       <c r="AB42" s="157"/>
     </row>
     <row r="43" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="367" t="s">
+      <c r="B43" s="390" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="368"/>
+      <c r="C43" s="391"/>
       <c r="D43" s="128">
         <f t="shared" ref="D43:D50" si="3">LEFT(B43,2)+0</f>
         <v>20</v>
@@ -40329,10 +40329,10 @@
       <c r="AB43" s="157"/>
     </row>
     <row r="44" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="367" t="s">
+      <c r="B44" s="390" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="368"/>
+      <c r="C44" s="391"/>
       <c r="D44" s="128">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -40383,10 +40383,10 @@
       <c r="AB44" s="157"/>
     </row>
     <row r="45" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="367" t="s">
+      <c r="B45" s="390" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="368"/>
+      <c r="C45" s="391"/>
       <c r="D45" s="128">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -40437,10 +40437,10 @@
       <c r="AB45" s="157"/>
     </row>
     <row r="46" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="367" t="s">
+      <c r="B46" s="390" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="368"/>
+      <c r="C46" s="391"/>
       <c r="D46" s="128">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -40491,10 +40491,10 @@
       <c r="AB46" s="157"/>
     </row>
     <row r="47" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="367" t="s">
+      <c r="B47" s="390" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="368"/>
+      <c r="C47" s="391"/>
       <c r="D47" s="128">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -40545,10 +40545,10 @@
       <c r="AB47" s="157"/>
     </row>
     <row r="48" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="367" t="s">
+      <c r="B48" s="390" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="368"/>
+      <c r="C48" s="391"/>
       <c r="D48" s="128">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -40599,10 +40599,10 @@
       <c r="AB48" s="157"/>
     </row>
     <row r="49" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="367" t="s">
+      <c r="B49" s="390" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="368"/>
+      <c r="C49" s="391"/>
       <c r="D49" s="128">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -40653,10 +40653,10 @@
       <c r="AB49" s="157"/>
     </row>
     <row r="50" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="367" t="s">
+      <c r="B50" s="390" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="368"/>
+      <c r="C50" s="391"/>
       <c r="D50" s="128">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -40761,20 +40761,20 @@
       <c r="AB52" s="157"/>
     </row>
     <row r="53" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="451"/>
-      <c r="C53" s="451"/>
+      <c r="B53" s="399"/>
+      <c r="C53" s="399"/>
       <c r="D53" s="54"/>
       <c r="E53" s="248"/>
-      <c r="F53" s="433" t="s">
+      <c r="F53" s="387" t="s">
         <v>186</v>
       </c>
-      <c r="G53" s="433" t="s">
+      <c r="G53" s="387" t="s">
         <v>207</v>
       </c>
-      <c r="H53" s="435"/>
-      <c r="I53" s="435"/>
-      <c r="J53" s="435"/>
-      <c r="K53" s="434" t="s">
+      <c r="H53" s="398"/>
+      <c r="I53" s="398"/>
+      <c r="J53" s="398"/>
+      <c r="K53" s="397" t="s">
         <v>349</v>
       </c>
       <c r="L53" s="253"/>
@@ -40794,16 +40794,16 @@
       <c r="AB53" s="157"/>
     </row>
     <row r="54" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="451"/>
-      <c r="C54" s="451"/>
+      <c r="B54" s="399"/>
+      <c r="C54" s="399"/>
       <c r="D54" s="54"/>
       <c r="E54" s="248"/>
-      <c r="F54" s="433"/>
-      <c r="G54" s="433"/>
-      <c r="H54" s="435"/>
-      <c r="I54" s="435"/>
-      <c r="J54" s="435"/>
-      <c r="K54" s="434"/>
+      <c r="F54" s="387"/>
+      <c r="G54" s="387"/>
+      <c r="H54" s="398"/>
+      <c r="I54" s="398"/>
+      <c r="J54" s="398"/>
+      <c r="K54" s="397"/>
       <c r="L54" s="253"/>
       <c r="X54" s="165">
         <v>19</v>
@@ -40822,16 +40822,16 @@
       <c r="AD54" s="172"/>
     </row>
     <row r="55" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="451"/>
-      <c r="C55" s="451"/>
+      <c r="B55" s="399"/>
+      <c r="C55" s="399"/>
       <c r="D55" s="54"/>
       <c r="E55" s="248"/>
-      <c r="F55" s="433"/>
-      <c r="G55" s="433"/>
-      <c r="H55" s="435"/>
-      <c r="I55" s="435"/>
-      <c r="J55" s="435"/>
-      <c r="K55" s="434"/>
+      <c r="F55" s="387"/>
+      <c r="G55" s="387"/>
+      <c r="H55" s="398"/>
+      <c r="I55" s="398"/>
+      <c r="J55" s="398"/>
+      <c r="K55" s="397"/>
       <c r="L55" s="253"/>
       <c r="X55" s="167">
         <v>20</v>
@@ -40850,10 +40850,10 @@
       <c r="AD55" s="172"/>
     </row>
     <row r="56" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="435" t="s">
+      <c r="B56" s="398" t="s">
         <v>350</v>
       </c>
-      <c r="C56" s="435"/>
+      <c r="C56" s="398"/>
       <c r="D56" s="54"/>
       <c r="E56" s="248"/>
       <c r="F56" s="114">
@@ -40864,13 +40864,13 @@
         <f>VLOOKUP(F56,J$42:K$50,2,FALSE)</f>
         <v>2.0699999999999932</v>
       </c>
-      <c r="H56" s="451">
+      <c r="H56" s="399">
         <f>(LOG(F56)+((10-G56)/(G57-G56))*LOG(F57/F56))</f>
         <v>-0.61321454811239473</v>
       </c>
-      <c r="I56" s="451"/>
-      <c r="J56" s="451"/>
-      <c r="K56" s="435">
+      <c r="I56" s="399"/>
+      <c r="J56" s="399"/>
+      <c r="K56" s="398">
         <f>10^(H56)</f>
         <v>0.2436606799987964</v>
       </c>
@@ -40891,10 +40891,10 @@
       <c r="AB56" s="157"/>
     </row>
     <row r="57" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="435" t="s">
+      <c r="B57" s="398" t="s">
         <v>351</v>
       </c>
-      <c r="C57" s="435"/>
+      <c r="C57" s="398"/>
       <c r="D57" s="54"/>
       <c r="E57" s="248"/>
       <c r="F57" s="114">
@@ -40905,10 +40905,10 @@
         <f>VLOOKUP(F57,J$42:K$50,2,FALSE)</f>
         <v>11.36999999999999</v>
       </c>
-      <c r="H57" s="451"/>
-      <c r="I57" s="451"/>
-      <c r="J57" s="451"/>
-      <c r="K57" s="435"/>
+      <c r="H57" s="399"/>
+      <c r="I57" s="399"/>
+      <c r="J57" s="399"/>
+      <c r="K57" s="398"/>
       <c r="L57" s="253"/>
       <c r="X57" s="165">
         <v>22</v>
@@ -40982,20 +40982,20 @@
       <c r="AB59" s="157"/>
     </row>
     <row r="60" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="451"/>
-      <c r="C60" s="451"/>
+      <c r="B60" s="399"/>
+      <c r="C60" s="399"/>
       <c r="D60" s="54"/>
       <c r="E60" s="248"/>
-      <c r="F60" s="433" t="s">
+      <c r="F60" s="387" t="s">
         <v>186</v>
       </c>
-      <c r="G60" s="433" t="s">
+      <c r="G60" s="387" t="s">
         <v>207</v>
       </c>
-      <c r="H60" s="435"/>
-      <c r="I60" s="435"/>
-      <c r="J60" s="435"/>
-      <c r="K60" s="434" t="s">
+      <c r="H60" s="398"/>
+      <c r="I60" s="398"/>
+      <c r="J60" s="398"/>
+      <c r="K60" s="397" t="s">
         <v>353</v>
       </c>
       <c r="L60" s="253"/>
@@ -41015,16 +41015,16 @@
       <c r="AB60" s="157"/>
     </row>
     <row r="61" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="451"/>
-      <c r="C61" s="451"/>
+      <c r="B61" s="399"/>
+      <c r="C61" s="399"/>
       <c r="D61" s="54"/>
       <c r="E61" s="248"/>
-      <c r="F61" s="433"/>
-      <c r="G61" s="433"/>
-      <c r="H61" s="435"/>
-      <c r="I61" s="435"/>
-      <c r="J61" s="435"/>
-      <c r="K61" s="434"/>
+      <c r="F61" s="387"/>
+      <c r="G61" s="387"/>
+      <c r="H61" s="398"/>
+      <c r="I61" s="398"/>
+      <c r="J61" s="398"/>
+      <c r="K61" s="397"/>
       <c r="L61" s="253"/>
       <c r="X61" s="165">
         <v>26</v>
@@ -41042,16 +41042,16 @@
       <c r="AB61" s="157"/>
     </row>
     <row r="62" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="451"/>
-      <c r="C62" s="451"/>
+      <c r="B62" s="399"/>
+      <c r="C62" s="399"/>
       <c r="D62" s="54"/>
       <c r="E62" s="248"/>
-      <c r="F62" s="433"/>
-      <c r="G62" s="433"/>
-      <c r="H62" s="435"/>
-      <c r="I62" s="435"/>
-      <c r="J62" s="435"/>
-      <c r="K62" s="434"/>
+      <c r="F62" s="387"/>
+      <c r="G62" s="387"/>
+      <c r="H62" s="398"/>
+      <c r="I62" s="398"/>
+      <c r="J62" s="398"/>
+      <c r="K62" s="397"/>
       <c r="L62" s="253"/>
       <c r="X62" s="165">
         <v>27</v>
@@ -41069,10 +41069,10 @@
       <c r="AB62" s="157"/>
     </row>
     <row r="63" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="435" t="s">
+      <c r="B63" s="398" t="s">
         <v>350</v>
       </c>
-      <c r="C63" s="435"/>
+      <c r="C63" s="398"/>
       <c r="D63" s="54"/>
       <c r="E63" s="248"/>
       <c r="F63" s="114">
@@ -41083,13 +41083,13 @@
         <f>VLOOKUP(F63,J$42:K$50,2,FALSE)</f>
         <v>45.269999999999996</v>
       </c>
-      <c r="H63" s="451">
+      <c r="H63" s="399">
         <f>(LOG(F63)+((60-G63)/(G64-G63))*LOG(F64/F63))</f>
         <v>-0.31867934839393264</v>
       </c>
-      <c r="I63" s="451"/>
-      <c r="J63" s="451"/>
-      <c r="K63" s="435">
+      <c r="I63" s="399"/>
+      <c r="J63" s="399"/>
+      <c r="K63" s="398">
         <f>10^(H63)</f>
         <v>0.48008777987655482</v>
       </c>
@@ -41110,10 +41110,10 @@
       <c r="AB63" s="157"/>
     </row>
     <row r="64" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="435" t="s">
+      <c r="B64" s="398" t="s">
         <v>351</v>
       </c>
-      <c r="C64" s="435"/>
+      <c r="C64" s="398"/>
       <c r="D64" s="54"/>
       <c r="E64" s="248"/>
       <c r="F64" s="114">
@@ -41124,10 +41124,10 @@
         <f>VLOOKUP(F64,J$42:K$50,2,FALSE)</f>
         <v>63.28</v>
       </c>
-      <c r="H64" s="451"/>
-      <c r="I64" s="451"/>
-      <c r="J64" s="451"/>
-      <c r="K64" s="435"/>
+      <c r="H64" s="399"/>
+      <c r="I64" s="399"/>
+      <c r="J64" s="399"/>
+      <c r="K64" s="398"/>
       <c r="L64" s="253"/>
       <c r="X64" s="165">
         <v>29</v>
@@ -41201,19 +41201,19 @@
       <c r="AB66" s="157"/>
     </row>
     <row r="67" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="404" t="s">
+      <c r="B67" s="401" t="s">
         <v>354</v>
       </c>
-      <c r="C67" s="405"/>
+      <c r="C67" s="402"/>
       <c r="D67" s="54"/>
       <c r="E67" s="248"/>
-      <c r="F67" s="404" t="s">
+      <c r="F67" s="401" t="s">
         <v>353</v>
       </c>
-      <c r="G67" s="466" t="s">
+      <c r="G67" s="423" t="s">
         <v>211</v>
       </c>
-      <c r="H67" s="466"/>
+      <c r="H67" s="423"/>
       <c r="I67" s="249"/>
       <c r="J67" s="249"/>
       <c r="K67" s="135"/>
@@ -41234,13 +41234,13 @@
       <c r="AB67" s="157"/>
     </row>
     <row r="68" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="406"/>
-      <c r="C68" s="407"/>
+      <c r="B68" s="403"/>
+      <c r="C68" s="404"/>
       <c r="D68" s="54"/>
       <c r="E68" s="248"/>
-      <c r="F68" s="406"/>
-      <c r="G68" s="466"/>
-      <c r="H68" s="466"/>
+      <c r="F68" s="403"/>
+      <c r="G68" s="423"/>
+      <c r="H68" s="423"/>
       <c r="I68" s="249"/>
       <c r="J68" s="249"/>
       <c r="K68" s="135"/>
@@ -41262,13 +41262,13 @@
       <c r="AB68" s="157"/>
     </row>
     <row r="69" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="408"/>
-      <c r="C69" s="409"/>
+      <c r="B69" s="405"/>
+      <c r="C69" s="406"/>
       <c r="D69" s="54"/>
       <c r="E69" s="248"/>
-      <c r="F69" s="408"/>
-      <c r="G69" s="466"/>
-      <c r="H69" s="466"/>
+      <c r="F69" s="405"/>
+      <c r="G69" s="423"/>
+      <c r="H69" s="423"/>
       <c r="I69" s="249"/>
       <c r="J69" s="249"/>
       <c r="K69" s="135"/>
@@ -41290,22 +41290,22 @@
       <c r="AB69" s="157"/>
     </row>
     <row r="70" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="435">
+      <c r="B70" s="398">
         <f>K56</f>
         <v>0.2436606799987964</v>
       </c>
-      <c r="C70" s="435"/>
+      <c r="C70" s="398"/>
       <c r="D70" s="54"/>
       <c r="E70" s="248"/>
       <c r="F70" s="114">
         <f>K63</f>
         <v>0.48008777987655482</v>
       </c>
-      <c r="G70" s="467">
+      <c r="G70" s="424">
         <f>F70/B70</f>
         <v>1.9703128952891631</v>
       </c>
-      <c r="H70" s="467"/>
+      <c r="H70" s="424"/>
       <c r="I70" s="249"/>
       <c r="J70" s="249"/>
       <c r="K70" s="135"/>
@@ -41327,7 +41327,7 @@
       <c r="AB70" s="157"/>
     </row>
     <row r="71" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M71" s="498"/>
+      <c r="M71" s="313"/>
       <c r="W71" s="113"/>
       <c r="X71" s="113"/>
       <c r="Y71" s="113"/>
@@ -41348,15 +41348,15 @@
       <c r="AB72" s="157"/>
     </row>
     <row r="73" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="410" t="s">
+      <c r="B73" s="382" t="s">
         <v>358</v>
       </c>
-      <c r="C73" s="411"/>
-      <c r="D73" s="411"/>
-      <c r="E73" s="411"/>
-      <c r="F73" s="411"/>
-      <c r="G73" s="411"/>
-      <c r="H73" s="412"/>
+      <c r="C73" s="383"/>
+      <c r="D73" s="383"/>
+      <c r="E73" s="383"/>
+      <c r="F73" s="383"/>
+      <c r="G73" s="383"/>
+      <c r="H73" s="384"/>
       <c r="I73" s="206" t="s">
         <v>181</v>
       </c>
@@ -41367,7 +41367,7 @@
       <c r="K73" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="L73" s="494"/>
+      <c r="L73" s="309"/>
       <c r="W73" s="113"/>
       <c r="X73" s="113"/>
       <c r="Y73" s="113"/>
@@ -41375,15 +41375,15 @@
       <c r="AA73" s="113"/>
     </row>
     <row r="74" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="410" t="s">
+      <c r="B74" s="382" t="s">
         <v>287</v>
       </c>
-      <c r="C74" s="411"/>
-      <c r="D74" s="411"/>
-      <c r="E74" s="411"/>
-      <c r="F74" s="411"/>
-      <c r="G74" s="411"/>
-      <c r="H74" s="412"/>
+      <c r="C74" s="383"/>
+      <c r="D74" s="383"/>
+      <c r="E74" s="383"/>
+      <c r="F74" s="383"/>
+      <c r="G74" s="383"/>
+      <c r="H74" s="384"/>
       <c r="I74" s="251" t="s">
         <v>88</v>
       </c>
@@ -41401,15 +41401,15 @@
       <c r="AA74" s="113"/>
     </row>
     <row r="75" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="410" t="s">
+      <c r="B75" s="382" t="s">
         <v>283</v>
       </c>
-      <c r="C75" s="411"/>
-      <c r="D75" s="411"/>
-      <c r="E75" s="411"/>
-      <c r="F75" s="411"/>
-      <c r="G75" s="411"/>
-      <c r="H75" s="412"/>
+      <c r="C75" s="383"/>
+      <c r="D75" s="383"/>
+      <c r="E75" s="383"/>
+      <c r="F75" s="383"/>
+      <c r="G75" s="383"/>
+      <c r="H75" s="384"/>
       <c r="I75" s="251" t="s">
         <v>284</v>
       </c>
@@ -41425,15 +41425,15 @@
       <c r="AA75" s="113"/>
     </row>
     <row r="76" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="410" t="s">
+      <c r="B76" s="382" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="411"/>
-      <c r="D76" s="411"/>
-      <c r="E76" s="411"/>
-      <c r="F76" s="411"/>
-      <c r="G76" s="411"/>
-      <c r="H76" s="412"/>
+      <c r="C76" s="383"/>
+      <c r="D76" s="383"/>
+      <c r="E76" s="383"/>
+      <c r="F76" s="383"/>
+      <c r="G76" s="383"/>
+      <c r="H76" s="384"/>
       <c r="I76" s="251" t="s">
         <v>240</v>
       </c>
@@ -41449,15 +41449,15 @@
       <c r="AA76" s="113"/>
     </row>
     <row r="77" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="410" t="s">
+      <c r="B77" s="382" t="s">
         <v>190</v>
       </c>
-      <c r="C77" s="411"/>
-      <c r="D77" s="411"/>
-      <c r="E77" s="411"/>
-      <c r="F77" s="411"/>
-      <c r="G77" s="411"/>
-      <c r="H77" s="412"/>
+      <c r="C77" s="383"/>
+      <c r="D77" s="383"/>
+      <c r="E77" s="383"/>
+      <c r="F77" s="383"/>
+      <c r="G77" s="383"/>
+      <c r="H77" s="384"/>
       <c r="I77" s="251" t="s">
         <v>191</v>
       </c>
@@ -41473,15 +41473,15 @@
       <c r="AA77" s="113"/>
     </row>
     <row r="78" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="410" t="s">
+      <c r="B78" s="382" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="411"/>
-      <c r="D78" s="411"/>
-      <c r="E78" s="411"/>
-      <c r="F78" s="411"/>
-      <c r="G78" s="411"/>
-      <c r="H78" s="412"/>
+      <c r="C78" s="383"/>
+      <c r="D78" s="383"/>
+      <c r="E78" s="383"/>
+      <c r="F78" s="383"/>
+      <c r="G78" s="383"/>
+      <c r="H78" s="384"/>
       <c r="I78" s="252" t="s">
         <v>189</v>
       </c>
@@ -41497,15 +41497,15 @@
       <c r="AA78" s="113"/>
     </row>
     <row r="79" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="410" t="s">
+      <c r="B79" s="382" t="s">
         <v>230</v>
       </c>
-      <c r="C79" s="411"/>
-      <c r="D79" s="411"/>
-      <c r="E79" s="411"/>
-      <c r="F79" s="411"/>
-      <c r="G79" s="411"/>
-      <c r="H79" s="412"/>
+      <c r="C79" s="383"/>
+      <c r="D79" s="383"/>
+      <c r="E79" s="383"/>
+      <c r="F79" s="383"/>
+      <c r="G79" s="383"/>
+      <c r="H79" s="384"/>
       <c r="I79" s="252" t="s">
         <v>189</v>
       </c>
@@ -41521,15 +41521,15 @@
       <c r="AA79" s="113"/>
     </row>
     <row r="80" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="410" t="s">
+      <c r="B80" s="382" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="411"/>
-      <c r="D80" s="411"/>
-      <c r="E80" s="411"/>
-      <c r="F80" s="411"/>
-      <c r="G80" s="411"/>
-      <c r="H80" s="412"/>
+      <c r="C80" s="383"/>
+      <c r="D80" s="383"/>
+      <c r="E80" s="383"/>
+      <c r="F80" s="383"/>
+      <c r="G80" s="383"/>
+      <c r="H80" s="384"/>
       <c r="I80" s="151" t="s">
         <v>238</v>
       </c>
@@ -41611,139 +41611,139 @@
       <c r="Z83" s="109"/>
     </row>
     <row r="84" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="404" t="s">
+      <c r="B84" s="401" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="405"/>
-      <c r="D84" s="433"/>
-      <c r="E84" s="354"/>
-      <c r="F84" s="354" t="s">
+      <c r="C84" s="402"/>
+      <c r="D84" s="387"/>
+      <c r="E84" s="388"/>
+      <c r="F84" s="388" t="s">
         <v>204</v>
       </c>
-      <c r="G84" s="354" t="s">
+      <c r="G84" s="388" t="s">
         <v>205</v>
       </c>
-      <c r="H84" s="354" t="s">
+      <c r="H84" s="388" t="s">
         <v>206</v>
       </c>
-      <c r="I84" s="454" t="s">
+      <c r="I84" s="408" t="s">
         <v>208</v>
       </c>
-      <c r="J84" s="471" t="s">
+      <c r="J84" s="393" t="s">
         <v>182</v>
       </c>
-      <c r="K84" s="472"/>
-      <c r="L84" s="472"/>
-      <c r="M84" s="473"/>
-      <c r="N84" s="447" t="s">
+      <c r="K84" s="394"/>
+      <c r="L84" s="394"/>
+      <c r="M84" s="395"/>
+      <c r="N84" s="458" t="s">
         <v>183</v>
       </c>
-      <c r="O84" s="448"/>
-      <c r="P84" s="448"/>
-      <c r="Q84" s="448"/>
-      <c r="R84" s="449"/>
-      <c r="S84" s="360" t="s">
+      <c r="O84" s="459"/>
+      <c r="P84" s="459"/>
+      <c r="Q84" s="459"/>
+      <c r="R84" s="460"/>
+      <c r="S84" s="498" t="s">
         <v>184</v>
       </c>
-      <c r="T84" s="360"/>
-      <c r="U84" s="360"/>
-      <c r="V84" s="360"/>
+      <c r="T84" s="498"/>
+      <c r="U84" s="498"/>
+      <c r="V84" s="498"/>
       <c r="W84" s="112"/>
-      <c r="X84" s="354" t="s">
+      <c r="X84" s="388" t="s">
         <v>185</v>
       </c>
-      <c r="Y84" s="354" t="s">
+      <c r="Y84" s="388" t="s">
         <v>186</v>
       </c>
       <c r="Z84" s="109"/>
     </row>
     <row r="85" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="406"/>
-      <c r="C85" s="407"/>
-      <c r="D85" s="433"/>
-      <c r="E85" s="356"/>
-      <c r="F85" s="355"/>
-      <c r="G85" s="355"/>
-      <c r="H85" s="355"/>
-      <c r="I85" s="455"/>
-      <c r="J85" s="364" t="s">
+      <c r="B85" s="403"/>
+      <c r="C85" s="404"/>
+      <c r="D85" s="387"/>
+      <c r="E85" s="389"/>
+      <c r="F85" s="407"/>
+      <c r="G85" s="407"/>
+      <c r="H85" s="407"/>
+      <c r="I85" s="409"/>
+      <c r="J85" s="434" t="s">
         <v>187</v>
       </c>
-      <c r="K85" s="438"/>
-      <c r="L85" s="444"/>
-      <c r="M85" s="439"/>
-      <c r="N85" s="450"/>
-      <c r="O85" s="438"/>
-      <c r="P85" s="439"/>
-      <c r="Q85" s="364" t="s">
+      <c r="K85" s="449"/>
+      <c r="L85" s="455"/>
+      <c r="M85" s="450"/>
+      <c r="N85" s="461"/>
+      <c r="O85" s="449"/>
+      <c r="P85" s="450"/>
+      <c r="Q85" s="434" t="s">
         <v>188</v>
       </c>
-      <c r="R85" s="361"/>
-      <c r="S85" s="361"/>
-      <c r="T85" s="361"/>
-      <c r="U85" s="364" t="s">
+      <c r="R85" s="462"/>
+      <c r="S85" s="462"/>
+      <c r="T85" s="462"/>
+      <c r="U85" s="434" t="s">
         <v>188</v>
       </c>
-      <c r="V85" s="361"/>
-      <c r="X85" s="355"/>
-      <c r="Y85" s="355"/>
+      <c r="V85" s="462"/>
+      <c r="X85" s="407"/>
+      <c r="Y85" s="407"/>
     </row>
     <row r="86" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="406"/>
-      <c r="C86" s="407"/>
+      <c r="B86" s="403"/>
+      <c r="C86" s="404"/>
       <c r="D86" s="123"/>
       <c r="E86" s="124"/>
-      <c r="F86" s="355"/>
-      <c r="G86" s="355"/>
-      <c r="H86" s="355"/>
-      <c r="I86" s="455"/>
-      <c r="J86" s="365"/>
-      <c r="K86" s="440"/>
-      <c r="L86" s="445"/>
-      <c r="M86" s="441"/>
-      <c r="N86" s="450"/>
-      <c r="O86" s="440"/>
-      <c r="P86" s="441"/>
-      <c r="Q86" s="365"/>
-      <c r="R86" s="362"/>
-      <c r="S86" s="362"/>
-      <c r="T86" s="362"/>
-      <c r="U86" s="365"/>
-      <c r="V86" s="362"/>
-      <c r="X86" s="355"/>
-      <c r="Y86" s="355"/>
+      <c r="F86" s="407"/>
+      <c r="G86" s="407"/>
+      <c r="H86" s="407"/>
+      <c r="I86" s="409"/>
+      <c r="J86" s="435"/>
+      <c r="K86" s="451"/>
+      <c r="L86" s="456"/>
+      <c r="M86" s="452"/>
+      <c r="N86" s="461"/>
+      <c r="O86" s="451"/>
+      <c r="P86" s="452"/>
+      <c r="Q86" s="435"/>
+      <c r="R86" s="463"/>
+      <c r="S86" s="463"/>
+      <c r="T86" s="463"/>
+      <c r="U86" s="435"/>
+      <c r="V86" s="463"/>
+      <c r="X86" s="407"/>
+      <c r="Y86" s="407"/>
     </row>
     <row r="87" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="408"/>
-      <c r="C87" s="409"/>
+      <c r="B87" s="405"/>
+      <c r="C87" s="406"/>
       <c r="D87" s="123"/>
       <c r="E87" s="124"/>
-      <c r="F87" s="356"/>
-      <c r="G87" s="356"/>
-      <c r="H87" s="356"/>
-      <c r="I87" s="456"/>
-      <c r="J87" s="366"/>
-      <c r="K87" s="442"/>
-      <c r="L87" s="446"/>
-      <c r="M87" s="443"/>
-      <c r="N87" s="450"/>
-      <c r="O87" s="442"/>
-      <c r="P87" s="443"/>
-      <c r="Q87" s="366"/>
-      <c r="R87" s="363"/>
-      <c r="S87" s="363"/>
-      <c r="T87" s="363"/>
-      <c r="U87" s="366"/>
-      <c r="V87" s="363"/>
-      <c r="X87" s="356"/>
-      <c r="Y87" s="356"/>
+      <c r="F87" s="389"/>
+      <c r="G87" s="389"/>
+      <c r="H87" s="389"/>
+      <c r="I87" s="410"/>
+      <c r="J87" s="436"/>
+      <c r="K87" s="453"/>
+      <c r="L87" s="457"/>
+      <c r="M87" s="454"/>
+      <c r="N87" s="461"/>
+      <c r="O87" s="453"/>
+      <c r="P87" s="454"/>
+      <c r="Q87" s="436"/>
+      <c r="R87" s="464"/>
+      <c r="S87" s="464"/>
+      <c r="T87" s="464"/>
+      <c r="U87" s="436"/>
+      <c r="V87" s="464"/>
+      <c r="X87" s="389"/>
+      <c r="Y87" s="389"/>
     </row>
     <row r="88" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="367" t="str">
+      <c r="B88" s="390" t="str">
         <f t="shared" ref="B88:B96" si="6">B42</f>
         <v>14-20</v>
       </c>
-      <c r="C88" s="368"/>
+      <c r="C88" s="391"/>
       <c r="D88" s="128">
         <f>LEFT(B88,2)+0</f>
         <v>14</v>
@@ -41772,26 +41772,26 @@
         <f t="shared" ref="J88:J96" si="10">(F88/100)/((I88/1000)^2)</f>
         <v>6746.44335939147</v>
       </c>
-      <c r="K88" s="457" t="str">
+      <c r="K88" s="411" t="str">
         <f>ROUND((J77*J33*((1-J76)^2)/(J76^3)*(J74*(J73/3600))/9.806*((6/J78)^2)*J97),4)&amp;" m"</f>
         <v>1.1339 m</v>
       </c>
-      <c r="L88" s="458"/>
-      <c r="M88" s="459"/>
+      <c r="L88" s="412"/>
+      <c r="M88" s="413"/>
       <c r="N88" s="103">
         <f t="shared" ref="N88:N96" si="11">$J$79*(I88/1000)*($J$73/3600)/$J$33</f>
         <v>0.99256086514638053</v>
       </c>
-      <c r="O88" s="382">
+      <c r="O88" s="445">
         <f>150*(1-$J$76)/N88+1.75</f>
         <v>84.868328454178069</v>
       </c>
-      <c r="P88" s="383"/>
+      <c r="P88" s="446"/>
       <c r="Q88" s="116">
         <f t="shared" ref="Q88:Q96" si="12">O88*(F88/100)/(I88/1000)</f>
         <v>623.48797422856558</v>
       </c>
-      <c r="R88" s="352" t="str">
+      <c r="R88" s="494" t="str">
         <f>ROUND((1/J79*(1-J76)/(J76^3)*J74*((J73/3600)^2)/9.806*Q97),4)&amp; " m"</f>
         <v>0.951 m</v>
       </c>
@@ -41807,7 +41807,7 @@
         <f t="shared" ref="U88:U96" si="14">T88*(F88/100)/(I88/1000)</f>
         <v>173.88585816662274</v>
       </c>
-      <c r="V88" s="352" t="str">
+      <c r="V88" s="494" t="str">
         <f>ROUND((0.178*((J73/3600)^2)*J74*1/(9.806*(J76^4))*J80*U97),4)&amp;" m"</f>
         <v>0.9548 m</v>
       </c>
@@ -41822,11 +41822,11 @@
       <c r="AM88" s="155"/>
     </row>
     <row r="89" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="367" t="str">
+      <c r="B89" s="390" t="str">
         <f t="shared" si="6"/>
         <v>20-25</v>
       </c>
-      <c r="C89" s="368"/>
+      <c r="C89" s="391"/>
       <c r="D89" s="128">
         <f t="shared" ref="D89:D96" si="15">LEFT(B89,2)+0</f>
         <v>20</v>
@@ -41855,23 +41855,23 @@
         <f t="shared" si="10"/>
         <v>71478.185698644607</v>
       </c>
-      <c r="K89" s="460"/>
-      <c r="L89" s="461"/>
-      <c r="M89" s="462"/>
+      <c r="K89" s="414"/>
+      <c r="L89" s="415"/>
+      <c r="M89" s="416"/>
       <c r="N89" s="103">
         <f t="shared" si="11"/>
         <v>0.70284134041417956</v>
       </c>
-      <c r="O89" s="382">
+      <c r="O89" s="445">
         <f t="shared" ref="O89:O96" si="18">150*(1-$J$76)/N89+1.75</f>
         <v>119.13068786816569</v>
       </c>
-      <c r="P89" s="383"/>
+      <c r="P89" s="446"/>
       <c r="Q89" s="116">
         <f t="shared" si="12"/>
         <v>6566.0604193475147</v>
       </c>
-      <c r="R89" s="352"/>
+      <c r="R89" s="494"/>
       <c r="S89" s="117">
         <f t="shared" si="13"/>
         <v>0.82687216519315243</v>
@@ -41884,7 +41884,7 @@
         <f t="shared" si="14"/>
         <v>1800.334303150498</v>
       </c>
-      <c r="V89" s="352"/>
+      <c r="V89" s="494"/>
       <c r="X89" s="46">
         <v>100</v>
       </c>
@@ -41896,11 +41896,11 @@
       <c r="AM89" s="155"/>
     </row>
     <row r="90" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="367" t="str">
+      <c r="B90" s="390" t="str">
         <f t="shared" si="6"/>
         <v>25-30</v>
       </c>
-      <c r="C90" s="368"/>
+      <c r="C90" s="391"/>
       <c r="D90" s="128">
         <f t="shared" si="15"/>
         <v>25</v>
@@ -41929,23 +41929,23 @@
         <f t="shared" si="10"/>
         <v>357053.7125741386</v>
       </c>
-      <c r="K90" s="460"/>
-      <c r="L90" s="461"/>
-      <c r="M90" s="462"/>
+      <c r="K90" s="414"/>
+      <c r="L90" s="415"/>
+      <c r="M90" s="416"/>
       <c r="N90" s="103">
         <f t="shared" si="11"/>
         <v>0.59117734575652048</v>
       </c>
-      <c r="O90" s="382">
+      <c r="O90" s="445">
         <f t="shared" si="18"/>
         <v>141.3020322153516</v>
       </c>
-      <c r="P90" s="383"/>
+      <c r="P90" s="446"/>
       <c r="Q90" s="116">
         <f t="shared" si="12"/>
         <v>32722.776859257607</v>
       </c>
-      <c r="R90" s="352"/>
+      <c r="R90" s="494"/>
       <c r="S90" s="117">
         <f t="shared" si="13"/>
         <v>0.69550275971355346</v>
@@ -41958,7 +41958,7 @@
         <f t="shared" si="14"/>
         <v>8903.0312574751879</v>
       </c>
-      <c r="V90" s="352"/>
+      <c r="V90" s="494"/>
       <c r="X90" s="46">
         <v>80</v>
       </c>
@@ -41970,11 +41970,11 @@
       <c r="AM90" s="155"/>
     </row>
     <row r="91" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="367" t="str">
+      <c r="B91" s="390" t="str">
         <f t="shared" si="6"/>
         <v>30-35</v>
       </c>
-      <c r="C91" s="368"/>
+      <c r="C91" s="391"/>
       <c r="D91" s="128">
         <f t="shared" si="15"/>
         <v>30</v>
@@ -42003,23 +42003,23 @@
         <f t="shared" si="10"/>
         <v>559663.86554621835</v>
       </c>
-      <c r="K91" s="460"/>
-      <c r="L91" s="461"/>
-      <c r="M91" s="462"/>
+      <c r="K91" s="414"/>
+      <c r="L91" s="415"/>
+      <c r="M91" s="416"/>
       <c r="N91" s="103">
         <f t="shared" si="11"/>
         <v>0.4971564503894913</v>
       </c>
-      <c r="O91" s="382">
+      <c r="O91" s="445">
         <f t="shared" si="18"/>
         <v>167.69373850599013</v>
       </c>
-      <c r="P91" s="383"/>
+      <c r="P91" s="446"/>
       <c r="Q91" s="116">
         <f t="shared" si="12"/>
         <v>51190.291150477846</v>
       </c>
-      <c r="R91" s="352"/>
+      <c r="R91" s="494"/>
       <c r="S91" s="117">
         <f t="shared" si="13"/>
         <v>0.58488994163469576</v>
@@ -42032,7 +42032,7 @@
         <f t="shared" si="14"/>
         <v>13827.100144683696</v>
       </c>
-      <c r="V91" s="352"/>
+      <c r="V91" s="494"/>
       <c r="X91" s="46">
         <v>70</v>
       </c>
@@ -42044,11 +42044,11 @@
       <c r="AF91" s="141"/>
     </row>
     <row r="92" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="367" t="str">
+      <c r="B92" s="390" t="str">
         <f t="shared" si="6"/>
         <v>35-40</v>
       </c>
-      <c r="C92" s="368"/>
+      <c r="C92" s="391"/>
       <c r="D92" s="128">
         <f t="shared" si="15"/>
         <v>35</v>
@@ -42077,23 +42077,23 @@
         <f t="shared" si="10"/>
         <v>900500</v>
       </c>
-      <c r="K92" s="460"/>
-      <c r="L92" s="461"/>
-      <c r="M92" s="462"/>
+      <c r="K92" s="414"/>
+      <c r="L92" s="415"/>
+      <c r="M92" s="416"/>
       <c r="N92" s="103">
         <f t="shared" si="11"/>
         <v>0.40762854747332483</v>
       </c>
-      <c r="O92" s="382">
+      <c r="O92" s="445">
         <f t="shared" si="18"/>
         <v>204.14014296563414</v>
       </c>
-      <c r="P92" s="383"/>
+      <c r="P92" s="446"/>
       <c r="Q92" s="116">
         <f t="shared" si="12"/>
         <v>82210.469713043785</v>
       </c>
-      <c r="R92" s="352"/>
+      <c r="R92" s="494"/>
       <c r="S92" s="117">
         <f t="shared" si="13"/>
         <v>0.47956299702744098</v>
@@ -42106,7 +42106,7 @@
         <f t="shared" si="14"/>
         <v>22035.669411183146</v>
       </c>
-      <c r="V92" s="352"/>
+      <c r="V92" s="494"/>
       <c r="X92" s="46">
         <v>60</v>
       </c>
@@ -42119,11 +42119,11 @@
       <c r="AF92" s="141"/>
     </row>
     <row r="93" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="367" t="str">
+      <c r="B93" s="390" t="str">
         <f t="shared" si="6"/>
         <v>40-50</v>
       </c>
-      <c r="C93" s="368"/>
+      <c r="C93" s="391"/>
       <c r="D93" s="128">
         <f t="shared" si="15"/>
         <v>40</v>
@@ -42152,23 +42152,23 @@
         <f t="shared" si="10"/>
         <v>1536195.2861952859</v>
       </c>
-      <c r="K93" s="460"/>
-      <c r="L93" s="461"/>
-      <c r="M93" s="462"/>
+      <c r="K93" s="414"/>
+      <c r="L93" s="415"/>
+      <c r="M93" s="416"/>
       <c r="N93" s="103">
         <f t="shared" si="11"/>
         <v>0.31416500987989782</v>
       </c>
-      <c r="O93" s="382">
+      <c r="O93" s="445">
         <f t="shared" si="18"/>
         <v>264.35085434574313</v>
       </c>
-      <c r="P93" s="383"/>
+      <c r="P93" s="446"/>
       <c r="Q93" s="116">
         <f t="shared" si="12"/>
         <v>139970.13026794555</v>
       </c>
-      <c r="R93" s="352"/>
+      <c r="R93" s="494"/>
       <c r="S93" s="117">
         <f t="shared" si="13"/>
         <v>0.36960589397635041</v>
@@ -42181,7 +42181,7 @@
         <f t="shared" si="14"/>
         <v>37174.499791542286</v>
       </c>
-      <c r="V93" s="352"/>
+      <c r="V93" s="494"/>
       <c r="W93" s="121"/>
       <c r="X93" s="46">
         <v>50</v>
@@ -42195,11 +42195,11 @@
       <c r="AF93" s="141"/>
     </row>
     <row r="94" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="367" t="str">
+      <c r="B94" s="390" t="str">
         <f t="shared" si="6"/>
         <v>50-60</v>
       </c>
-      <c r="C94" s="368"/>
+      <c r="C94" s="391"/>
       <c r="D94" s="128">
         <f t="shared" si="15"/>
         <v>50</v>
@@ -42228,23 +42228,23 @@
         <f t="shared" si="10"/>
         <v>2107744.1077441075</v>
       </c>
-      <c r="K94" s="460"/>
-      <c r="L94" s="461"/>
-      <c r="M94" s="462"/>
+      <c r="K94" s="414"/>
+      <c r="L94" s="415"/>
+      <c r="M94" s="416"/>
       <c r="N94" s="103">
         <f t="shared" si="11"/>
         <v>0.24836924808744476</v>
       </c>
-      <c r="O94" s="382">
+      <c r="O94" s="445">
         <f t="shared" si="18"/>
         <v>333.91672609546958</v>
       </c>
-      <c r="P94" s="383"/>
+      <c r="P94" s="446"/>
       <c r="Q94" s="116">
         <f t="shared" si="12"/>
         <v>191780.42934705055</v>
       </c>
-      <c r="R94" s="352"/>
+      <c r="R94" s="494"/>
       <c r="S94" s="117">
         <f t="shared" si="13"/>
         <v>0.29219911539699384</v>
@@ -42257,7 +42257,7 @@
         <f t="shared" si="14"/>
         <v>50556.296490488276</v>
       </c>
-      <c r="V94" s="352"/>
+      <c r="V94" s="494"/>
       <c r="W94" s="121"/>
       <c r="X94" s="46">
         <v>45</v>
@@ -42270,11 +42270,11 @@
       <c r="AF94" s="141"/>
     </row>
     <row r="95" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="367" t="str">
+      <c r="B95" s="390" t="str">
         <f t="shared" si="6"/>
         <v>60-70</v>
       </c>
-      <c r="C95" s="368"/>
+      <c r="C95" s="391"/>
       <c r="D95" s="128">
         <f t="shared" si="15"/>
         <v>60</v>
@@ -42303,23 +42303,23 @@
         <f t="shared" si="10"/>
         <v>1771428.5714285716</v>
       </c>
-      <c r="K95" s="460"/>
-      <c r="L95" s="461"/>
-      <c r="M95" s="462"/>
+      <c r="K95" s="414"/>
+      <c r="L95" s="415"/>
+      <c r="M95" s="416"/>
       <c r="N95" s="103">
         <f t="shared" si="11"/>
         <v>0.20884748283793922</v>
       </c>
-      <c r="O95" s="382">
+      <c r="O95" s="445">
         <f t="shared" si="18"/>
         <v>396.77511056845287</v>
       </c>
-      <c r="P95" s="383"/>
+      <c r="P95" s="446"/>
       <c r="Q95" s="116">
         <f t="shared" si="12"/>
         <v>161045.17519910476</v>
       </c>
-      <c r="R95" s="352"/>
+      <c r="R95" s="494"/>
       <c r="S95" s="117">
         <f t="shared" si="13"/>
         <v>0.24570292098581084</v>
@@ -42332,7 +42332,7 @@
         <f t="shared" si="14"/>
         <v>42240.957889352372</v>
       </c>
-      <c r="V95" s="352"/>
+      <c r="V95" s="494"/>
       <c r="W95" s="121"/>
       <c r="X95" s="46">
         <v>40</v>
@@ -42345,11 +42345,11 @@
       <c r="AF95" s="141"/>
     </row>
     <row r="96" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="367" t="str">
+      <c r="B96" s="390" t="str">
         <f t="shared" si="6"/>
         <v>70-100</v>
       </c>
-      <c r="C96" s="368"/>
+      <c r="C96" s="391"/>
       <c r="D96" s="128">
         <f t="shared" si="15"/>
         <v>70</v>
@@ -42378,23 +42378,23 @@
         <f t="shared" si="10"/>
         <v>661553.21188878256</v>
       </c>
-      <c r="K96" s="463"/>
-      <c r="L96" s="464"/>
-      <c r="M96" s="465"/>
+      <c r="K96" s="417"/>
+      <c r="L96" s="418"/>
+      <c r="M96" s="419"/>
       <c r="N96" s="103">
         <f t="shared" si="11"/>
         <v>0.16123242095898396</v>
       </c>
-      <c r="O96" s="382">
+      <c r="O96" s="445">
         <f t="shared" si="18"/>
         <v>513.43368935542583</v>
       </c>
-      <c r="P96" s="383"/>
+      <c r="P96" s="446"/>
       <c r="Q96" s="116">
         <f t="shared" si="12"/>
         <v>60083.043781598011</v>
       </c>
-      <c r="R96" s="352"/>
+      <c r="R96" s="494"/>
       <c r="S96" s="117">
         <f t="shared" si="13"/>
         <v>0.18968520112821644</v>
@@ -42407,7 +42407,7 @@
         <f t="shared" si="14"/>
         <v>15652.115733941762</v>
       </c>
-      <c r="V96" s="352"/>
+      <c r="V96" s="494"/>
       <c r="W96" s="121"/>
       <c r="X96" s="46">
         <v>35</v>
@@ -42431,7 +42431,7 @@
       <c r="G97" s="127"/>
       <c r="H97" s="5"/>
       <c r="I97" s="121"/>
-      <c r="J97" s="469">
+      <c r="J97" s="385">
         <f>SUM(J88:J96)</f>
         <v>7972363.3844351405</v>
       </c>
@@ -42441,14 +42441,14 @@
       <c r="N97" s="121"/>
       <c r="O97" s="121"/>
       <c r="P97" s="121"/>
-      <c r="Q97" s="353">
+      <c r="Q97" s="386">
         <f>SUM(Q88:Q96)</f>
         <v>726191.86471205414</v>
       </c>
       <c r="R97" s="121"/>
       <c r="S97" s="121"/>
       <c r="T97" s="121"/>
-      <c r="U97" s="357">
+      <c r="U97" s="495">
         <f>SUM(U88:U96)</f>
         <v>192363.89087998384</v>
       </c>
@@ -42471,18 +42471,18 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="121"/>
-      <c r="J98" s="353"/>
+      <c r="J98" s="386"/>
       <c r="K98" s="121"/>
       <c r="L98" s="121"/>
       <c r="M98" s="121"/>
       <c r="N98" s="121"/>
       <c r="O98" s="121"/>
       <c r="P98" s="121"/>
-      <c r="Q98" s="353"/>
+      <c r="Q98" s="386"/>
       <c r="R98" s="121"/>
       <c r="S98" s="121"/>
       <c r="T98" s="121"/>
-      <c r="U98" s="358"/>
+      <c r="U98" s="496"/>
       <c r="V98" s="121"/>
       <c r="W98" s="121"/>
       <c r="X98" s="46">
@@ -42502,7 +42502,7 @@
       <c r="G99" s="122"/>
       <c r="H99" s="122"/>
       <c r="I99" s="121"/>
-      <c r="J99" s="353"/>
+      <c r="J99" s="386"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6">
@@ -42511,13 +42511,13 @@
       <c r="N99" s="121"/>
       <c r="O99" s="121"/>
       <c r="P99" s="121"/>
-      <c r="Q99" s="353"/>
+      <c r="Q99" s="386"/>
       <c r="R99" s="6">
         <v>0.47220000000000001</v>
       </c>
       <c r="S99" s="121"/>
       <c r="T99" s="121"/>
-      <c r="U99" s="359"/>
+      <c r="U99" s="497"/>
       <c r="V99" s="6" t="s">
         <v>239</v>
       </c>
@@ -42595,19 +42595,19 @@
       <c r="Z101" s="120"/>
     </row>
     <row r="102" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="413" t="s">
+      <c r="B102" s="468" t="s">
         <v>224</v>
       </c>
-      <c r="C102" s="414"/>
+      <c r="C102" s="469"/>
       <c r="D102" s="145"/>
       <c r="E102" s="186"/>
-      <c r="F102" s="371" t="s">
+      <c r="F102" s="474" t="s">
         <v>222</v>
       </c>
-      <c r="G102" s="371" t="s">
+      <c r="G102" s="474" t="s">
         <v>223</v>
       </c>
-      <c r="H102" s="371" t="s">
+      <c r="H102" s="474" t="s">
         <v>216</v>
       </c>
       <c r="I102" s="121"/>
@@ -42634,13 +42634,13 @@
       <c r="Z102" s="120"/>
     </row>
     <row r="103" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="415"/>
-      <c r="C103" s="416"/>
+      <c r="B103" s="470"/>
+      <c r="C103" s="471"/>
       <c r="D103" s="145"/>
       <c r="E103" s="186"/>
-      <c r="F103" s="372"/>
-      <c r="G103" s="372"/>
-      <c r="H103" s="372"/>
+      <c r="F103" s="475"/>
+      <c r="G103" s="475"/>
+      <c r="H103" s="475"/>
       <c r="I103" s="121"/>
       <c r="J103" s="144"/>
       <c r="K103" s="6"/>
@@ -42665,13 +42665,13 @@
       <c r="Z103" s="120"/>
     </row>
     <row r="104" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="415"/>
-      <c r="C104" s="416"/>
+      <c r="B104" s="470"/>
+      <c r="C104" s="471"/>
       <c r="D104" s="145"/>
       <c r="E104" s="186"/>
-      <c r="F104" s="372"/>
-      <c r="G104" s="372"/>
-      <c r="H104" s="372"/>
+      <c r="F104" s="475"/>
+      <c r="G104" s="475"/>
+      <c r="H104" s="475"/>
       <c r="I104" s="150"/>
       <c r="J104" s="150"/>
       <c r="K104" s="150"/>
@@ -42696,13 +42696,13 @@
       <c r="Z104" s="120"/>
     </row>
     <row r="105" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="417"/>
-      <c r="C105" s="418"/>
+      <c r="B105" s="472"/>
+      <c r="C105" s="473"/>
       <c r="D105" s="145"/>
       <c r="E105" s="186"/>
-      <c r="F105" s="419"/>
-      <c r="G105" s="419"/>
-      <c r="H105" s="419"/>
+      <c r="F105" s="476"/>
+      <c r="G105" s="476"/>
+      <c r="H105" s="476"/>
       <c r="I105" s="150"/>
       <c r="J105" s="150"/>
       <c r="K105" s="150"/>
@@ -42727,10 +42727,10 @@
       <c r="Z105" s="120"/>
     </row>
     <row r="106" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="420">
+      <c r="B106" s="477">
         <v>1</v>
       </c>
-      <c r="C106" s="421"/>
+      <c r="C106" s="478"/>
       <c r="D106" s="146"/>
       <c r="E106" s="132"/>
       <c r="F106" s="148">
@@ -42762,10 +42762,10 @@
       <c r="Z106" s="120"/>
     </row>
     <row r="107" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="420">
+      <c r="B107" s="477">
         <v>2</v>
       </c>
-      <c r="C107" s="421"/>
+      <c r="C107" s="478"/>
       <c r="D107" s="146"/>
       <c r="E107" s="132"/>
       <c r="F107" s="148" t="s">
@@ -42797,10 +42797,10 @@
       <c r="Z107" s="120"/>
     </row>
     <row r="108" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="420">
+      <c r="B108" s="477">
         <v>3</v>
       </c>
-      <c r="C108" s="421"/>
+      <c r="C108" s="478"/>
       <c r="D108" s="146"/>
       <c r="E108" s="132"/>
       <c r="F108" s="148" t="s">
@@ -42832,10 +42832,10 @@
       <c r="Z108" s="120"/>
     </row>
     <row r="109" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="420">
+      <c r="B109" s="477">
         <v>4</v>
       </c>
-      <c r="C109" s="421"/>
+      <c r="C109" s="478"/>
       <c r="D109" s="146"/>
       <c r="E109" s="132"/>
       <c r="F109" s="148" t="s">
@@ -42867,10 +42867,10 @@
       <c r="Z109" s="120"/>
     </row>
     <row r="110" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="420">
+      <c r="B110" s="477">
         <v>5</v>
       </c>
-      <c r="C110" s="421"/>
+      <c r="C110" s="478"/>
       <c r="D110" s="182"/>
       <c r="E110" s="187"/>
       <c r="F110" s="133" t="s">
@@ -42958,15 +42958,15 @@
       <c r="Z112" s="120"/>
     </row>
     <row r="113" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="328" t="s">
+      <c r="B113" s="329" t="s">
         <v>180</v>
       </c>
-      <c r="C113" s="328"/>
-      <c r="D113" s="328"/>
-      <c r="E113" s="328"/>
-      <c r="F113" s="328"/>
-      <c r="G113" s="328"/>
-      <c r="H113" s="328"/>
+      <c r="C113" s="329"/>
+      <c r="D113" s="329"/>
+      <c r="E113" s="329"/>
+      <c r="F113" s="329"/>
+      <c r="G113" s="329"/>
+      <c r="H113" s="329"/>
       <c r="I113" s="206" t="s">
         <v>212</v>
       </c>
@@ -42977,10 +42977,10 @@
       <c r="K113" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="L113" s="400"/>
-      <c r="M113" s="401"/>
-      <c r="N113" s="401"/>
-      <c r="O113" s="402"/>
+      <c r="L113" s="465"/>
+      <c r="M113" s="466"/>
+      <c r="N113" s="466"/>
+      <c r="O113" s="467"/>
       <c r="P113" s="121"/>
       <c r="Q113" s="188"/>
       <c r="R113" s="6"/>
@@ -42994,15 +42994,15 @@
       <c r="Z113" s="120"/>
     </row>
     <row r="114" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="310" t="s">
+      <c r="B114" s="323" t="s">
         <v>295</v>
       </c>
-      <c r="C114" s="369"/>
-      <c r="D114" s="369"/>
-      <c r="E114" s="369"/>
-      <c r="F114" s="369"/>
-      <c r="G114" s="369"/>
-      <c r="H114" s="311"/>
+      <c r="C114" s="396"/>
+      <c r="D114" s="396"/>
+      <c r="E114" s="396"/>
+      <c r="F114" s="396"/>
+      <c r="G114" s="396"/>
+      <c r="H114" s="324"/>
       <c r="I114" s="206" t="s">
         <v>296</v>
       </c>
@@ -43013,10 +43013,10 @@
       <c r="K114" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L114" s="400"/>
-      <c r="M114" s="401"/>
-      <c r="N114" s="401"/>
-      <c r="O114" s="402"/>
+      <c r="L114" s="465"/>
+      <c r="M114" s="466"/>
+      <c r="N114" s="466"/>
+      <c r="O114" s="467"/>
       <c r="P114" s="121"/>
       <c r="Q114" s="188"/>
       <c r="R114" s="6"/>
@@ -43030,29 +43030,29 @@
       <c r="Z114" s="120"/>
     </row>
     <row r="115" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="384" t="s">
+      <c r="B115" s="479" t="s">
         <v>298</v>
       </c>
-      <c r="C115" s="385"/>
-      <c r="D115" s="385"/>
-      <c r="E115" s="385"/>
-      <c r="F115" s="385"/>
-      <c r="G115" s="385"/>
-      <c r="H115" s="386"/>
-      <c r="I115" s="390" t="s">
+      <c r="C115" s="480"/>
+      <c r="D115" s="480"/>
+      <c r="E115" s="480"/>
+      <c r="F115" s="480"/>
+      <c r="G115" s="480"/>
+      <c r="H115" s="481"/>
+      <c r="I115" s="367" t="s">
         <v>299</v>
       </c>
-      <c r="J115" s="392">
+      <c r="J115" s="487">
         <f>J113/(24*60)*J114/3</f>
         <v>1.5625E-2</v>
       </c>
-      <c r="K115" s="390" t="s">
+      <c r="K115" s="367" t="s">
         <v>3</v>
       </c>
-      <c r="L115" s="394"/>
-      <c r="M115" s="395"/>
-      <c r="N115" s="395"/>
-      <c r="O115" s="396"/>
+      <c r="L115" s="427"/>
+      <c r="M115" s="428"/>
+      <c r="N115" s="428"/>
+      <c r="O115" s="429"/>
       <c r="P115" s="121"/>
       <c r="Q115" s="188"/>
       <c r="R115" s="6"/>
@@ -43066,20 +43066,20 @@
       <c r="Z115" s="120"/>
     </row>
     <row r="116" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="387"/>
-      <c r="C116" s="388"/>
-      <c r="D116" s="388"/>
-      <c r="E116" s="388"/>
-      <c r="F116" s="388"/>
-      <c r="G116" s="388"/>
-      <c r="H116" s="389"/>
-      <c r="I116" s="391"/>
-      <c r="J116" s="393"/>
-      <c r="K116" s="391"/>
-      <c r="L116" s="397"/>
-      <c r="M116" s="398"/>
-      <c r="N116" s="398"/>
-      <c r="O116" s="399"/>
+      <c r="B116" s="482"/>
+      <c r="C116" s="483"/>
+      <c r="D116" s="483"/>
+      <c r="E116" s="483"/>
+      <c r="F116" s="483"/>
+      <c r="G116" s="483"/>
+      <c r="H116" s="484"/>
+      <c r="I116" s="368"/>
+      <c r="J116" s="488"/>
+      <c r="K116" s="368"/>
+      <c r="L116" s="430"/>
+      <c r="M116" s="431"/>
+      <c r="N116" s="431"/>
+      <c r="O116" s="432"/>
       <c r="P116" s="121"/>
       <c r="Q116" s="188"/>
       <c r="R116" s="6"/>
@@ -43149,15 +43149,15 @@
       <c r="Z118" s="120"/>
     </row>
     <row r="119" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="310" t="s">
+      <c r="B119" s="323" t="s">
         <v>33</v>
       </c>
-      <c r="C119" s="369"/>
-      <c r="D119" s="369"/>
-      <c r="E119" s="369"/>
-      <c r="F119" s="369"/>
-      <c r="G119" s="369"/>
-      <c r="H119" s="311"/>
+      <c r="C119" s="396"/>
+      <c r="D119" s="396"/>
+      <c r="E119" s="396"/>
+      <c r="F119" s="396"/>
+      <c r="G119" s="396"/>
+      <c r="H119" s="324"/>
       <c r="I119" s="250" t="s">
         <v>0</v>
       </c>
@@ -43168,11 +43168,11 @@
       <c r="K119" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="L119" s="400"/>
-      <c r="M119" s="401"/>
-      <c r="N119" s="401"/>
-      <c r="O119" s="402"/>
-      <c r="P119" s="495"/>
+      <c r="L119" s="465"/>
+      <c r="M119" s="466"/>
+      <c r="N119" s="466"/>
+      <c r="O119" s="467"/>
+      <c r="P119" s="310"/>
       <c r="Q119" s="196"/>
       <c r="R119" s="6"/>
       <c r="S119" s="121"/>
@@ -43185,15 +43185,15 @@
       <c r="Z119" s="120"/>
     </row>
     <row r="120" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="430" t="s">
+      <c r="B120" s="420" t="s">
         <v>347</v>
       </c>
-      <c r="C120" s="431"/>
-      <c r="D120" s="431"/>
-      <c r="E120" s="431"/>
-      <c r="F120" s="431"/>
-      <c r="G120" s="431"/>
-      <c r="H120" s="432"/>
+      <c r="C120" s="421"/>
+      <c r="D120" s="421"/>
+      <c r="E120" s="421"/>
+      <c r="F120" s="421"/>
+      <c r="G120" s="421"/>
+      <c r="H120" s="422"/>
       <c r="I120" s="206" t="s">
         <v>212</v>
       </c>
@@ -43221,15 +43221,15 @@
       <c r="Z120" s="120"/>
     </row>
     <row r="121" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="430" t="s">
+      <c r="B121" s="420" t="s">
         <v>355</v>
       </c>
-      <c r="C121" s="431"/>
-      <c r="D121" s="431"/>
-      <c r="E121" s="431"/>
-      <c r="F121" s="431"/>
-      <c r="G121" s="431"/>
-      <c r="H121" s="432"/>
+      <c r="C121" s="421"/>
+      <c r="D121" s="421"/>
+      <c r="E121" s="421"/>
+      <c r="F121" s="421"/>
+      <c r="G121" s="421"/>
+      <c r="H121" s="422"/>
       <c r="I121" s="206" t="s">
         <v>356</v>
       </c>
@@ -43257,29 +43257,29 @@
       <c r="Z121" s="120"/>
     </row>
     <row r="122" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="422" t="s">
+      <c r="B122" s="437" t="s">
         <v>365</v>
       </c>
-      <c r="C122" s="423"/>
-      <c r="D122" s="423"/>
-      <c r="E122" s="423"/>
-      <c r="F122" s="423"/>
-      <c r="G122" s="423"/>
-      <c r="H122" s="424"/>
-      <c r="I122" s="428" t="s">
+      <c r="C122" s="438"/>
+      <c r="D122" s="438"/>
+      <c r="E122" s="438"/>
+      <c r="F122" s="438"/>
+      <c r="G122" s="438"/>
+      <c r="H122" s="439"/>
+      <c r="I122" s="425" t="s">
         <v>269</v>
       </c>
-      <c r="J122" s="380">
+      <c r="J122" s="443">
         <f>(J119*86400)/J120</f>
         <v>41.221440000000001</v>
       </c>
-      <c r="K122" s="428" t="s">
+      <c r="K122" s="425" t="s">
         <v>363</v>
       </c>
-      <c r="L122" s="394"/>
-      <c r="M122" s="395"/>
-      <c r="N122" s="395"/>
-      <c r="O122" s="396"/>
+      <c r="L122" s="427"/>
+      <c r="M122" s="428"/>
+      <c r="N122" s="428"/>
+      <c r="O122" s="429"/>
       <c r="P122" s="121"/>
       <c r="Q122" s="196"/>
       <c r="R122" s="6"/>
@@ -43293,20 +43293,20 @@
       <c r="Z122" s="120"/>
     </row>
     <row r="123" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="425"/>
-      <c r="C123" s="426"/>
-      <c r="D123" s="426"/>
-      <c r="E123" s="426"/>
-      <c r="F123" s="426"/>
-      <c r="G123" s="426"/>
-      <c r="H123" s="427"/>
-      <c r="I123" s="429"/>
-      <c r="J123" s="381"/>
-      <c r="K123" s="429"/>
-      <c r="L123" s="397"/>
-      <c r="M123" s="398"/>
-      <c r="N123" s="398"/>
-      <c r="O123" s="399"/>
+      <c r="B123" s="440"/>
+      <c r="C123" s="441"/>
+      <c r="D123" s="441"/>
+      <c r="E123" s="441"/>
+      <c r="F123" s="441"/>
+      <c r="G123" s="441"/>
+      <c r="H123" s="442"/>
+      <c r="I123" s="426"/>
+      <c r="J123" s="444"/>
+      <c r="K123" s="426"/>
+      <c r="L123" s="430"/>
+      <c r="M123" s="431"/>
+      <c r="N123" s="431"/>
+      <c r="O123" s="432"/>
       <c r="P123" s="121"/>
       <c r="Q123" s="196"/>
       <c r="R123" s="6"/>
@@ -43320,29 +43320,29 @@
       <c r="Z123" s="120"/>
     </row>
     <row r="124" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="422" t="s">
+      <c r="B124" s="437" t="s">
         <v>366</v>
       </c>
-      <c r="C124" s="423"/>
-      <c r="D124" s="423"/>
-      <c r="E124" s="423"/>
-      <c r="F124" s="423"/>
-      <c r="G124" s="423"/>
-      <c r="H124" s="424"/>
-      <c r="I124" s="428" t="s">
+      <c r="C124" s="438"/>
+      <c r="D124" s="438"/>
+      <c r="E124" s="438"/>
+      <c r="F124" s="438"/>
+      <c r="G124" s="438"/>
+      <c r="H124" s="439"/>
+      <c r="I124" s="425" t="s">
         <v>369</v>
       </c>
-      <c r="J124" s="380">
+      <c r="J124" s="443">
         <f>(J119*86400)/J121</f>
         <v>32.977151999999997</v>
       </c>
-      <c r="K124" s="428" t="s">
+      <c r="K124" s="425" t="s">
         <v>363</v>
       </c>
-      <c r="L124" s="394"/>
-      <c r="M124" s="395"/>
-      <c r="N124" s="395"/>
-      <c r="O124" s="396"/>
+      <c r="L124" s="427"/>
+      <c r="M124" s="428"/>
+      <c r="N124" s="428"/>
+      <c r="O124" s="429"/>
       <c r="P124" s="121"/>
       <c r="Q124" s="196"/>
       <c r="R124" s="6"/>
@@ -43356,20 +43356,20 @@
       <c r="Z124" s="120"/>
     </row>
     <row r="125" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="425"/>
-      <c r="C125" s="426"/>
-      <c r="D125" s="426"/>
-      <c r="E125" s="426"/>
-      <c r="F125" s="426"/>
-      <c r="G125" s="426"/>
-      <c r="H125" s="427"/>
-      <c r="I125" s="429"/>
-      <c r="J125" s="381"/>
-      <c r="K125" s="429"/>
-      <c r="L125" s="397"/>
-      <c r="M125" s="398"/>
-      <c r="N125" s="398"/>
-      <c r="O125" s="399"/>
+      <c r="B125" s="440"/>
+      <c r="C125" s="441"/>
+      <c r="D125" s="441"/>
+      <c r="E125" s="441"/>
+      <c r="F125" s="441"/>
+      <c r="G125" s="441"/>
+      <c r="H125" s="442"/>
+      <c r="I125" s="426"/>
+      <c r="J125" s="444"/>
+      <c r="K125" s="426"/>
+      <c r="L125" s="430"/>
+      <c r="M125" s="431"/>
+      <c r="N125" s="431"/>
+      <c r="O125" s="432"/>
       <c r="P125" s="121"/>
       <c r="Q125" s="196"/>
       <c r="R125" s="6"/>
@@ -43383,15 +43383,15 @@
       <c r="Z125" s="120"/>
     </row>
     <row r="126" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="430" t="s">
+      <c r="B126" s="420" t="s">
         <v>367</v>
       </c>
-      <c r="C126" s="431"/>
-      <c r="D126" s="431"/>
-      <c r="E126" s="431"/>
-      <c r="F126" s="431"/>
-      <c r="G126" s="431"/>
-      <c r="H126" s="432"/>
+      <c r="C126" s="421"/>
+      <c r="D126" s="421"/>
+      <c r="E126" s="421"/>
+      <c r="F126" s="421"/>
+      <c r="G126" s="421"/>
+      <c r="H126" s="422"/>
       <c r="I126" s="281" t="s">
         <v>368</v>
       </c>
@@ -43402,10 +43402,10 @@
       <c r="K126" s="281" t="s">
         <v>363</v>
       </c>
-      <c r="L126" s="400"/>
-      <c r="M126" s="401"/>
-      <c r="N126" s="401"/>
-      <c r="O126" s="402"/>
+      <c r="L126" s="465"/>
+      <c r="M126" s="466"/>
+      <c r="N126" s="466"/>
+      <c r="O126" s="467"/>
       <c r="P126" s="121"/>
       <c r="Q126" s="196"/>
       <c r="R126" s="6"/>
@@ -43419,27 +43419,27 @@
       <c r="Z126" s="120"/>
     </row>
     <row r="127" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="384" t="s">
+      <c r="B127" s="479" t="s">
         <v>345</v>
       </c>
-      <c r="C127" s="385"/>
-      <c r="D127" s="385"/>
-      <c r="E127" s="385"/>
-      <c r="F127" s="385"/>
-      <c r="G127" s="385"/>
-      <c r="H127" s="386"/>
-      <c r="I127" s="428" t="s">
+      <c r="C127" s="480"/>
+      <c r="D127" s="480"/>
+      <c r="E127" s="480"/>
+      <c r="F127" s="480"/>
+      <c r="G127" s="480"/>
+      <c r="H127" s="481"/>
+      <c r="I127" s="425" t="s">
         <v>381</v>
       </c>
-      <c r="J127" s="380">
+      <c r="J127" s="443">
         <f>ROUND(J122/J126,2)</f>
         <v>5</v>
       </c>
-      <c r="K127" s="428"/>
-      <c r="L127" s="394"/>
-      <c r="M127" s="395"/>
-      <c r="N127" s="395"/>
-      <c r="O127" s="396"/>
+      <c r="K127" s="425"/>
+      <c r="L127" s="427"/>
+      <c r="M127" s="428"/>
+      <c r="N127" s="428"/>
+      <c r="O127" s="429"/>
       <c r="P127" s="121"/>
       <c r="Q127" s="196"/>
       <c r="R127" s="6"/>
@@ -43453,20 +43453,20 @@
       <c r="Z127" s="120"/>
     </row>
     <row r="128" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="387"/>
-      <c r="C128" s="388"/>
-      <c r="D128" s="388"/>
-      <c r="E128" s="388"/>
-      <c r="F128" s="388"/>
-      <c r="G128" s="388"/>
-      <c r="H128" s="389"/>
-      <c r="I128" s="429"/>
-      <c r="J128" s="381"/>
-      <c r="K128" s="429"/>
-      <c r="L128" s="397"/>
-      <c r="M128" s="398"/>
-      <c r="N128" s="398"/>
-      <c r="O128" s="399"/>
+      <c r="B128" s="482"/>
+      <c r="C128" s="483"/>
+      <c r="D128" s="483"/>
+      <c r="E128" s="483"/>
+      <c r="F128" s="483"/>
+      <c r="G128" s="483"/>
+      <c r="H128" s="484"/>
+      <c r="I128" s="426"/>
+      <c r="J128" s="444"/>
+      <c r="K128" s="426"/>
+      <c r="L128" s="430"/>
+      <c r="M128" s="431"/>
+      <c r="N128" s="431"/>
+      <c r="O128" s="432"/>
       <c r="P128" s="121"/>
       <c r="Q128" s="196"/>
       <c r="R128" s="6"/>
@@ -43480,15 +43480,15 @@
       <c r="Z128" s="120"/>
     </row>
     <row r="129" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="403" t="s">
+      <c r="B129" s="489" t="s">
         <v>371</v>
       </c>
-      <c r="C129" s="403"/>
-      <c r="D129" s="403"/>
-      <c r="E129" s="403"/>
-      <c r="F129" s="403"/>
-      <c r="G129" s="403"/>
-      <c r="H129" s="403"/>
+      <c r="C129" s="489"/>
+      <c r="D129" s="489"/>
+      <c r="E129" s="489"/>
+      <c r="F129" s="489"/>
+      <c r="G129" s="489"/>
+      <c r="H129" s="489"/>
       <c r="I129" s="275" t="s">
         <v>370</v>
       </c>
@@ -43499,10 +43499,10 @@
       <c r="K129" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="L129" s="353"/>
-      <c r="M129" s="353"/>
-      <c r="N129" s="353"/>
-      <c r="O129" s="353"/>
+      <c r="L129" s="386"/>
+      <c r="M129" s="386"/>
+      <c r="N129" s="386"/>
+      <c r="O129" s="386"/>
       <c r="P129" s="121"/>
       <c r="Q129" s="196"/>
       <c r="R129" s="6"/>
@@ -43628,15 +43628,15 @@
       <c r="Z133" s="120"/>
     </row>
     <row r="134" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="410" t="s">
+      <c r="B134" s="382" t="s">
         <v>231</v>
       </c>
-      <c r="C134" s="411"/>
-      <c r="D134" s="411"/>
-      <c r="E134" s="411"/>
-      <c r="F134" s="411"/>
-      <c r="G134" s="411"/>
-      <c r="H134" s="412"/>
+      <c r="C134" s="383"/>
+      <c r="D134" s="383"/>
+      <c r="E134" s="383"/>
+      <c r="F134" s="383"/>
+      <c r="G134" s="383"/>
+      <c r="H134" s="384"/>
       <c r="I134" s="56" t="s">
         <v>11</v>
       </c>
@@ -43645,10 +43645,10 @@
         <v>0.45</v>
       </c>
       <c r="K134" s="203"/>
-      <c r="L134" s="400"/>
-      <c r="M134" s="401"/>
-      <c r="N134" s="401"/>
-      <c r="O134" s="402"/>
+      <c r="L134" s="465"/>
+      <c r="M134" s="466"/>
+      <c r="N134" s="466"/>
+      <c r="O134" s="467"/>
       <c r="P134" s="121"/>
       <c r="Q134" s="188"/>
       <c r="R134" s="6"/>
@@ -43662,16 +43662,16 @@
       <c r="Z134" s="120"/>
     </row>
     <row r="135" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="410" t="str">
+      <c r="B135" s="382" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad dinámica del agua a 3 °C</v>
       </c>
-      <c r="C135" s="411"/>
-      <c r="D135" s="411"/>
-      <c r="E135" s="411"/>
-      <c r="F135" s="411"/>
-      <c r="G135" s="411"/>
-      <c r="H135" s="412"/>
+      <c r="C135" s="383"/>
+      <c r="D135" s="383"/>
+      <c r="E135" s="383"/>
+      <c r="F135" s="383"/>
+      <c r="G135" s="383"/>
+      <c r="H135" s="384"/>
       <c r="I135" s="275" t="s">
         <v>213</v>
       </c>
@@ -43699,15 +43699,15 @@
       <c r="Z135" s="120"/>
     </row>
     <row r="136" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="329" t="s">
+      <c r="B136" s="334" t="s">
         <v>243</v>
       </c>
-      <c r="C136" s="370"/>
-      <c r="D136" s="370"/>
-      <c r="E136" s="370"/>
-      <c r="F136" s="370"/>
-      <c r="G136" s="370"/>
-      <c r="H136" s="330"/>
+      <c r="C136" s="486"/>
+      <c r="D136" s="486"/>
+      <c r="E136" s="486"/>
+      <c r="F136" s="486"/>
+      <c r="G136" s="486"/>
+      <c r="H136" s="335"/>
       <c r="I136" s="153" t="s">
         <v>257</v>
       </c>
@@ -43718,10 +43718,10 @@
       <c r="K136" s="153" t="s">
         <v>244</v>
       </c>
-      <c r="L136" s="373"/>
-      <c r="M136" s="373"/>
-      <c r="N136" s="373"/>
-      <c r="O136" s="373"/>
+      <c r="L136" s="485"/>
+      <c r="M136" s="485"/>
+      <c r="N136" s="485"/>
+      <c r="O136" s="485"/>
       <c r="P136" s="161"/>
       <c r="Q136" s="149"/>
       <c r="R136" s="6"/>
@@ -43735,15 +43735,15 @@
       <c r="Z136" s="120"/>
     </row>
     <row r="137" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="329" t="s">
+      <c r="B137" s="334" t="s">
         <v>280</v>
       </c>
-      <c r="C137" s="370"/>
-      <c r="D137" s="370"/>
-      <c r="E137" s="370"/>
-      <c r="F137" s="370"/>
-      <c r="G137" s="370"/>
-      <c r="H137" s="330"/>
+      <c r="C137" s="486"/>
+      <c r="D137" s="486"/>
+      <c r="E137" s="486"/>
+      <c r="F137" s="486"/>
+      <c r="G137" s="486"/>
+      <c r="H137" s="335"/>
       <c r="I137" s="153" t="s">
         <v>279</v>
       </c>
@@ -43754,10 +43754,10 @@
       <c r="K137" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L137" s="373"/>
-      <c r="M137" s="373"/>
-      <c r="N137" s="373"/>
-      <c r="O137" s="373"/>
+      <c r="L137" s="485"/>
+      <c r="M137" s="485"/>
+      <c r="N137" s="485"/>
+      <c r="O137" s="485"/>
       <c r="P137" s="161"/>
       <c r="Q137" s="149"/>
       <c r="R137" s="6"/>
@@ -43771,16 +43771,16 @@
       <c r="Z137" s="120"/>
     </row>
     <row r="138" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="329" t="str">
+      <c r="B138" s="334" t="str">
         <f>"Velocidad de arrastre del medio filtrante a "&amp;J30&amp;" °C"</f>
         <v>Velocidad de arrastre del medio filtrante a 3 °C</v>
       </c>
-      <c r="C138" s="370"/>
-      <c r="D138" s="370"/>
-      <c r="E138" s="370"/>
-      <c r="F138" s="370"/>
-      <c r="G138" s="370"/>
-      <c r="H138" s="330"/>
+      <c r="C138" s="486"/>
+      <c r="D138" s="486"/>
+      <c r="E138" s="486"/>
+      <c r="F138" s="486"/>
+      <c r="G138" s="486"/>
+      <c r="H138" s="335"/>
       <c r="I138" s="153" t="s">
         <v>289</v>
       </c>
@@ -43791,10 +43791,10 @@
       <c r="K138" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L138" s="373"/>
-      <c r="M138" s="373"/>
-      <c r="N138" s="373"/>
-      <c r="O138" s="373"/>
+      <c r="L138" s="485"/>
+      <c r="M138" s="485"/>
+      <c r="N138" s="485"/>
+      <c r="O138" s="485"/>
       <c r="P138" s="161"/>
       <c r="Q138" s="149"/>
       <c r="R138" s="6"/>
@@ -43808,16 +43808,16 @@
       <c r="Z138" s="120"/>
     </row>
     <row r="139" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="329" t="str">
+      <c r="B139" s="334" t="str">
         <f>"Velocidad de fluidización del medio filtrante a "&amp;J30&amp;" °C"</f>
         <v>Velocidad de fluidización del medio filtrante a 3 °C</v>
       </c>
-      <c r="C139" s="370"/>
-      <c r="D139" s="370"/>
-      <c r="E139" s="370"/>
-      <c r="F139" s="370"/>
-      <c r="G139" s="370"/>
-      <c r="H139" s="330"/>
+      <c r="C139" s="486"/>
+      <c r="D139" s="486"/>
+      <c r="E139" s="486"/>
+      <c r="F139" s="486"/>
+      <c r="G139" s="486"/>
+      <c r="H139" s="335"/>
       <c r="I139" s="153" t="s">
         <v>288</v>
       </c>
@@ -43828,10 +43828,10 @@
       <c r="K139" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L139" s="377"/>
-      <c r="M139" s="378"/>
-      <c r="N139" s="378"/>
-      <c r="O139" s="379"/>
+      <c r="L139" s="378"/>
+      <c r="M139" s="379"/>
+      <c r="N139" s="379"/>
+      <c r="O139" s="380"/>
       <c r="P139" s="161"/>
       <c r="Q139" s="188"/>
       <c r="R139" s="6"/>
@@ -43845,16 +43845,16 @@
       <c r="Z139" s="120"/>
     </row>
     <row r="140" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="329" t="str">
+      <c r="B140" s="334" t="str">
         <f>"Velocidad óptima de lavado a "&amp;J30&amp;" °C"</f>
         <v>Velocidad óptima de lavado a 3 °C</v>
       </c>
-      <c r="C140" s="370"/>
-      <c r="D140" s="370"/>
-      <c r="E140" s="370"/>
-      <c r="F140" s="370"/>
-      <c r="G140" s="370"/>
-      <c r="H140" s="330"/>
+      <c r="C140" s="486"/>
+      <c r="D140" s="486"/>
+      <c r="E140" s="486"/>
+      <c r="F140" s="486"/>
+      <c r="G140" s="486"/>
+      <c r="H140" s="335"/>
       <c r="I140" s="153" t="s">
         <v>281</v>
       </c>
@@ -43865,10 +43865,10 @@
       <c r="K140" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L140" s="373"/>
-      <c r="M140" s="373"/>
-      <c r="N140" s="373"/>
-      <c r="O140" s="373"/>
+      <c r="L140" s="485"/>
+      <c r="M140" s="485"/>
+      <c r="N140" s="485"/>
+      <c r="O140" s="485"/>
       <c r="P140" s="161"/>
       <c r="Q140" s="149"/>
       <c r="R140" s="6"/>
@@ -43938,15 +43938,15 @@
       <c r="Z142" s="120"/>
     </row>
     <row r="143" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="374" t="s">
+      <c r="B143" s="358" t="s">
         <v>374</v>
       </c>
-      <c r="C143" s="375"/>
-      <c r="D143" s="375"/>
-      <c r="E143" s="375"/>
-      <c r="F143" s="375"/>
-      <c r="G143" s="375"/>
-      <c r="H143" s="376"/>
+      <c r="C143" s="359"/>
+      <c r="D143" s="359"/>
+      <c r="E143" s="359"/>
+      <c r="F143" s="359"/>
+      <c r="G143" s="359"/>
+      <c r="H143" s="360"/>
       <c r="I143" s="298" t="s">
         <v>382</v>
       </c>
@@ -43956,10 +43956,10 @@
       <c r="K143" s="153" t="s">
         <v>375</v>
       </c>
-      <c r="L143" s="377"/>
-      <c r="M143" s="378"/>
-      <c r="N143" s="378"/>
-      <c r="O143" s="379"/>
+      <c r="L143" s="378"/>
+      <c r="M143" s="379"/>
+      <c r="N143" s="379"/>
+      <c r="O143" s="380"/>
       <c r="P143" s="161"/>
       <c r="Q143" s="188"/>
       <c r="R143" s="6"/>
@@ -43973,15 +43973,15 @@
       <c r="Z143" s="120"/>
     </row>
     <row r="144" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="374" t="s">
+      <c r="B144" s="358" t="s">
         <v>376</v>
       </c>
-      <c r="C144" s="375"/>
-      <c r="D144" s="375"/>
-      <c r="E144" s="375"/>
-      <c r="F144" s="375"/>
-      <c r="G144" s="375"/>
-      <c r="H144" s="376"/>
+      <c r="C144" s="359"/>
+      <c r="D144" s="359"/>
+      <c r="E144" s="359"/>
+      <c r="F144" s="359"/>
+      <c r="G144" s="359"/>
+      <c r="H144" s="360"/>
       <c r="I144" s="299" t="s">
         <v>383</v>
       </c>
@@ -43992,10 +43992,10 @@
       <c r="K144" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L144" s="377"/>
-      <c r="M144" s="378"/>
-      <c r="N144" s="378"/>
-      <c r="O144" s="379"/>
+      <c r="L144" s="378"/>
+      <c r="M144" s="379"/>
+      <c r="N144" s="379"/>
+      <c r="O144" s="380"/>
       <c r="P144" s="161"/>
       <c r="Q144" s="188"/>
       <c r="R144" s="6"/>
@@ -44009,15 +44009,15 @@
       <c r="Z144" s="120"/>
     </row>
     <row r="145" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="374" t="s">
+      <c r="B145" s="358" t="s">
         <v>377</v>
       </c>
-      <c r="C145" s="375"/>
-      <c r="D145" s="375"/>
-      <c r="E145" s="375"/>
-      <c r="F145" s="375"/>
-      <c r="G145" s="375"/>
-      <c r="H145" s="376"/>
+      <c r="C145" s="359"/>
+      <c r="D145" s="359"/>
+      <c r="E145" s="359"/>
+      <c r="F145" s="359"/>
+      <c r="G145" s="359"/>
+      <c r="H145" s="360"/>
       <c r="I145" s="300" t="s">
         <v>384</v>
       </c>
@@ -44028,10 +44028,10 @@
       <c r="K145" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L145" s="377"/>
-      <c r="M145" s="378"/>
-      <c r="N145" s="378"/>
-      <c r="O145" s="379"/>
+      <c r="L145" s="378"/>
+      <c r="M145" s="379"/>
+      <c r="N145" s="379"/>
+      <c r="O145" s="380"/>
       <c r="P145" s="161"/>
       <c r="Q145" s="188"/>
       <c r="R145" s="6"/>
@@ -44045,15 +44045,15 @@
       <c r="Z145" s="120"/>
     </row>
     <row r="146" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="374" t="s">
+      <c r="B146" s="358" t="s">
         <v>378</v>
       </c>
-      <c r="C146" s="375"/>
-      <c r="D146" s="375"/>
-      <c r="E146" s="375"/>
-      <c r="F146" s="375"/>
-      <c r="G146" s="375"/>
-      <c r="H146" s="376"/>
+      <c r="C146" s="359"/>
+      <c r="D146" s="359"/>
+      <c r="E146" s="359"/>
+      <c r="F146" s="359"/>
+      <c r="G146" s="359"/>
+      <c r="H146" s="360"/>
       <c r="I146" s="299" t="s">
         <v>385</v>
       </c>
@@ -44063,10 +44063,10 @@
       <c r="K146" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L146" s="377"/>
-      <c r="M146" s="378"/>
-      <c r="N146" s="378"/>
-      <c r="O146" s="379"/>
+      <c r="L146" s="378"/>
+      <c r="M146" s="379"/>
+      <c r="N146" s="379"/>
+      <c r="O146" s="380"/>
       <c r="P146" s="161"/>
       <c r="Q146" s="188"/>
       <c r="R146" s="6"/>
@@ -44080,15 +44080,15 @@
       <c r="Z146" s="120"/>
     </row>
     <row r="147" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="374" t="s">
+      <c r="B147" s="358" t="s">
         <v>379</v>
       </c>
-      <c r="C147" s="375"/>
-      <c r="D147" s="375"/>
-      <c r="E147" s="375"/>
-      <c r="F147" s="375"/>
-      <c r="G147" s="375"/>
-      <c r="H147" s="376"/>
+      <c r="C147" s="359"/>
+      <c r="D147" s="359"/>
+      <c r="E147" s="359"/>
+      <c r="F147" s="359"/>
+      <c r="G147" s="359"/>
+      <c r="H147" s="360"/>
       <c r="I147" s="298" t="s">
         <v>386</v>
       </c>
@@ -44099,10 +44099,10 @@
       <c r="K147" s="153" t="s">
         <v>375</v>
       </c>
-      <c r="L147" s="377"/>
-      <c r="M147" s="378"/>
-      <c r="N147" s="378"/>
-      <c r="O147" s="379"/>
+      <c r="L147" s="378"/>
+      <c r="M147" s="379"/>
+      <c r="N147" s="379"/>
+      <c r="O147" s="380"/>
       <c r="P147" s="161"/>
       <c r="Q147" s="188"/>
       <c r="R147" s="6"/>
@@ -44116,27 +44116,27 @@
       <c r="Z147" s="120"/>
     </row>
     <row r="148" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="474" t="s">
+      <c r="B148" s="361" t="s">
         <v>389</v>
       </c>
-      <c r="C148" s="475"/>
-      <c r="D148" s="475"/>
-      <c r="E148" s="475"/>
-      <c r="F148" s="475"/>
-      <c r="G148" s="475"/>
-      <c r="H148" s="476"/>
-      <c r="I148" s="390" t="s">
+      <c r="C148" s="362"/>
+      <c r="D148" s="362"/>
+      <c r="E148" s="362"/>
+      <c r="F148" s="362"/>
+      <c r="G148" s="362"/>
+      <c r="H148" s="363"/>
+      <c r="I148" s="367" t="s">
         <v>388</v>
       </c>
-      <c r="J148" s="480">
+      <c r="J148" s="490">
         <f>ROUNDDOWN(2*(J129/J146),0)</f>
         <v>28</v>
       </c>
-      <c r="K148" s="390"/>
-      <c r="L148" s="482"/>
-      <c r="M148" s="483"/>
-      <c r="N148" s="483"/>
-      <c r="O148" s="484"/>
+      <c r="K148" s="367"/>
+      <c r="L148" s="371"/>
+      <c r="M148" s="372"/>
+      <c r="N148" s="372"/>
+      <c r="O148" s="373"/>
       <c r="P148" s="161"/>
       <c r="Q148" s="290"/>
       <c r="R148" s="6"/>
@@ -44150,20 +44150,20 @@
       <c r="Z148" s="120"/>
     </row>
     <row r="149" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="477"/>
-      <c r="C149" s="478"/>
-      <c r="D149" s="478"/>
-      <c r="E149" s="478"/>
-      <c r="F149" s="478"/>
-      <c r="G149" s="478"/>
-      <c r="H149" s="479"/>
-      <c r="I149" s="391"/>
-      <c r="J149" s="481"/>
-      <c r="K149" s="391"/>
-      <c r="L149" s="485"/>
-      <c r="M149" s="486"/>
-      <c r="N149" s="486"/>
-      <c r="O149" s="487"/>
+      <c r="B149" s="364"/>
+      <c r="C149" s="365"/>
+      <c r="D149" s="365"/>
+      <c r="E149" s="365"/>
+      <c r="F149" s="365"/>
+      <c r="G149" s="365"/>
+      <c r="H149" s="366"/>
+      <c r="I149" s="368"/>
+      <c r="J149" s="491"/>
+      <c r="K149" s="368"/>
+      <c r="L149" s="374"/>
+      <c r="M149" s="375"/>
+      <c r="N149" s="375"/>
+      <c r="O149" s="376"/>
       <c r="P149" s="161"/>
       <c r="Q149" s="280"/>
       <c r="R149" s="6"/>
@@ -44177,27 +44177,27 @@
       <c r="Z149" s="120"/>
     </row>
     <row r="150" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="474" t="s">
+      <c r="B150" s="361" t="s">
         <v>390</v>
       </c>
-      <c r="C150" s="475"/>
-      <c r="D150" s="475"/>
-      <c r="E150" s="475"/>
-      <c r="F150" s="475"/>
-      <c r="G150" s="475"/>
-      <c r="H150" s="476"/>
-      <c r="I150" s="390" t="s">
+      <c r="C150" s="362"/>
+      <c r="D150" s="362"/>
+      <c r="E150" s="362"/>
+      <c r="F150" s="362"/>
+      <c r="G150" s="362"/>
+      <c r="H150" s="363"/>
+      <c r="I150" s="367" t="s">
         <v>387</v>
       </c>
-      <c r="J150" s="480">
+      <c r="J150" s="490">
         <f>J148*ROUND(J145/J144,0)*2</f>
         <v>1008</v>
       </c>
-      <c r="K150" s="390"/>
-      <c r="L150" s="482"/>
-      <c r="M150" s="483"/>
-      <c r="N150" s="483"/>
-      <c r="O150" s="484"/>
+      <c r="K150" s="367"/>
+      <c r="L150" s="371"/>
+      <c r="M150" s="372"/>
+      <c r="N150" s="372"/>
+      <c r="O150" s="373"/>
       <c r="P150" s="161"/>
       <c r="Q150" s="290"/>
       <c r="R150" s="6"/>
@@ -44211,20 +44211,20 @@
       <c r="Z150" s="120"/>
     </row>
     <row r="151" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="477"/>
-      <c r="C151" s="478"/>
-      <c r="D151" s="478"/>
-      <c r="E151" s="478"/>
-      <c r="F151" s="478"/>
-      <c r="G151" s="478"/>
-      <c r="H151" s="479"/>
-      <c r="I151" s="391"/>
-      <c r="J151" s="481"/>
-      <c r="K151" s="391"/>
-      <c r="L151" s="485"/>
-      <c r="M151" s="486"/>
-      <c r="N151" s="486"/>
-      <c r="O151" s="487"/>
+      <c r="B151" s="364"/>
+      <c r="C151" s="365"/>
+      <c r="D151" s="365"/>
+      <c r="E151" s="365"/>
+      <c r="F151" s="365"/>
+      <c r="G151" s="365"/>
+      <c r="H151" s="366"/>
+      <c r="I151" s="368"/>
+      <c r="J151" s="491"/>
+      <c r="K151" s="368"/>
+      <c r="L151" s="374"/>
+      <c r="M151" s="375"/>
+      <c r="N151" s="375"/>
+      <c r="O151" s="376"/>
       <c r="P151" s="161"/>
       <c r="Q151" s="280"/>
       <c r="R151" s="6"/>
@@ -44238,29 +44238,29 @@
       <c r="Z151" s="120"/>
     </row>
     <row r="152" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="474" t="s">
+      <c r="B152" s="361" t="s">
         <v>392</v>
       </c>
-      <c r="C152" s="475"/>
-      <c r="D152" s="475"/>
-      <c r="E152" s="475"/>
-      <c r="F152" s="475"/>
-      <c r="G152" s="475"/>
-      <c r="H152" s="476"/>
-      <c r="I152" s="390" t="s">
+      <c r="C152" s="362"/>
+      <c r="D152" s="362"/>
+      <c r="E152" s="362"/>
+      <c r="F152" s="362"/>
+      <c r="G152" s="362"/>
+      <c r="H152" s="363"/>
+      <c r="I152" s="367" t="s">
         <v>391</v>
       </c>
-      <c r="J152" s="491">
+      <c r="J152" s="369">
         <f>J150*PI()*(((J143*0.0254)^2)/4)</f>
         <v>3.1922571183142359E-2</v>
       </c>
-      <c r="K152" s="390" t="s">
+      <c r="K152" s="367" t="s">
         <v>393</v>
       </c>
-      <c r="L152" s="482"/>
-      <c r="M152" s="483"/>
-      <c r="N152" s="483"/>
-      <c r="O152" s="484"/>
+      <c r="L152" s="371"/>
+      <c r="M152" s="372"/>
+      <c r="N152" s="372"/>
+      <c r="O152" s="373"/>
       <c r="P152" s="161"/>
       <c r="Q152" s="290"/>
       <c r="R152" s="6"/>
@@ -44274,20 +44274,20 @@
       <c r="Z152" s="120"/>
     </row>
     <row r="153" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="477"/>
-      <c r="C153" s="478"/>
-      <c r="D153" s="478"/>
-      <c r="E153" s="478"/>
-      <c r="F153" s="478"/>
-      <c r="G153" s="478"/>
-      <c r="H153" s="479"/>
-      <c r="I153" s="391"/>
-      <c r="J153" s="492"/>
-      <c r="K153" s="391"/>
-      <c r="L153" s="485"/>
-      <c r="M153" s="486"/>
-      <c r="N153" s="486"/>
-      <c r="O153" s="487"/>
+      <c r="B153" s="364"/>
+      <c r="C153" s="365"/>
+      <c r="D153" s="365"/>
+      <c r="E153" s="365"/>
+      <c r="F153" s="365"/>
+      <c r="G153" s="365"/>
+      <c r="H153" s="366"/>
+      <c r="I153" s="368"/>
+      <c r="J153" s="370"/>
+      <c r="K153" s="368"/>
+      <c r="L153" s="374"/>
+      <c r="M153" s="375"/>
+      <c r="N153" s="375"/>
+      <c r="O153" s="376"/>
       <c r="P153" s="161"/>
       <c r="Q153" s="290"/>
       <c r="R153" s="6"/>
@@ -44301,29 +44301,29 @@
       <c r="Z153" s="120"/>
     </row>
     <row r="154" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="474" t="s">
+      <c r="B154" s="361" t="s">
         <v>394</v>
       </c>
-      <c r="C154" s="475"/>
-      <c r="D154" s="475"/>
-      <c r="E154" s="475"/>
-      <c r="F154" s="475"/>
-      <c r="G154" s="475"/>
-      <c r="H154" s="476"/>
-      <c r="I154" s="390" t="s">
+      <c r="C154" s="362"/>
+      <c r="D154" s="362"/>
+      <c r="E154" s="362"/>
+      <c r="F154" s="362"/>
+      <c r="G154" s="362"/>
+      <c r="H154" s="363"/>
+      <c r="I154" s="367" t="s">
         <v>395</v>
       </c>
-      <c r="J154" s="491">
+      <c r="J154" s="369">
         <f>J152/0.4</f>
         <v>7.9806427957855891E-2</v>
       </c>
-      <c r="K154" s="390" t="s">
+      <c r="K154" s="367" t="s">
         <v>393</v>
       </c>
-      <c r="L154" s="482"/>
-      <c r="M154" s="483"/>
-      <c r="N154" s="483"/>
-      <c r="O154" s="484"/>
+      <c r="L154" s="371"/>
+      <c r="M154" s="372"/>
+      <c r="N154" s="372"/>
+      <c r="O154" s="373"/>
       <c r="P154" s="161"/>
       <c r="Q154" s="290"/>
       <c r="R154" s="6"/>
@@ -44337,20 +44337,20 @@
       <c r="Z154" s="120"/>
     </row>
     <row r="155" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="477"/>
-      <c r="C155" s="478"/>
-      <c r="D155" s="478"/>
-      <c r="E155" s="478"/>
-      <c r="F155" s="478"/>
-      <c r="G155" s="478"/>
-      <c r="H155" s="479"/>
-      <c r="I155" s="391"/>
-      <c r="J155" s="492"/>
-      <c r="K155" s="391"/>
-      <c r="L155" s="485"/>
-      <c r="M155" s="486"/>
-      <c r="N155" s="486"/>
-      <c r="O155" s="487"/>
+      <c r="B155" s="364"/>
+      <c r="C155" s="365"/>
+      <c r="D155" s="365"/>
+      <c r="E155" s="365"/>
+      <c r="F155" s="365"/>
+      <c r="G155" s="365"/>
+      <c r="H155" s="366"/>
+      <c r="I155" s="368"/>
+      <c r="J155" s="370"/>
+      <c r="K155" s="368"/>
+      <c r="L155" s="374"/>
+      <c r="M155" s="375"/>
+      <c r="N155" s="375"/>
+      <c r="O155" s="376"/>
       <c r="P155" s="161"/>
       <c r="Q155" s="280"/>
       <c r="R155" s="6"/>
@@ -44364,15 +44364,15 @@
       <c r="Z155" s="120"/>
     </row>
     <row r="156" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="374" t="s">
+      <c r="B156" s="358" t="s">
         <v>396</v>
       </c>
-      <c r="C156" s="375"/>
-      <c r="D156" s="375"/>
-      <c r="E156" s="375"/>
-      <c r="F156" s="375"/>
-      <c r="G156" s="375"/>
-      <c r="H156" s="376"/>
+      <c r="C156" s="359"/>
+      <c r="D156" s="359"/>
+      <c r="E156" s="359"/>
+      <c r="F156" s="359"/>
+      <c r="G156" s="359"/>
+      <c r="H156" s="360"/>
       <c r="I156" s="291"/>
       <c r="J156" s="295" t="str">
         <f>INDEX(AL8:AL16,MATCH(J154,AM8:AM16,1),1)</f>
@@ -44398,15 +44398,15 @@
       <c r="Z156" s="120"/>
     </row>
     <row r="157" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="493" t="s">
+      <c r="B157" s="377" t="s">
         <v>410</v>
       </c>
-      <c r="C157" s="493"/>
-      <c r="D157" s="493"/>
-      <c r="E157" s="493"/>
-      <c r="F157" s="493"/>
-      <c r="G157" s="493"/>
-      <c r="H157" s="493"/>
+      <c r="C157" s="377"/>
+      <c r="D157" s="377"/>
+      <c r="E157" s="377"/>
+      <c r="F157" s="377"/>
+      <c r="G157" s="377"/>
+      <c r="H157" s="377"/>
       <c r="I157" s="300" t="s">
         <v>395</v>
       </c>
@@ -44417,10 +44417,10 @@
       <c r="K157" s="153" t="s">
         <v>393</v>
       </c>
-      <c r="L157" s="377"/>
-      <c r="M157" s="378"/>
-      <c r="N157" s="378"/>
-      <c r="O157" s="379"/>
+      <c r="L157" s="378"/>
+      <c r="M157" s="379"/>
+      <c r="N157" s="379"/>
+      <c r="O157" s="380"/>
       <c r="P157" s="161"/>
       <c r="Q157" s="290"/>
       <c r="R157" s="6"/>
@@ -44434,28 +44434,28 @@
       <c r="Z157" s="120"/>
     </row>
     <row r="158" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="374" t="s">
+      <c r="B158" s="358" t="s">
         <v>409</v>
       </c>
-      <c r="C158" s="375"/>
-      <c r="D158" s="375"/>
-      <c r="E158" s="375"/>
-      <c r="F158" s="375"/>
-      <c r="G158" s="375"/>
-      <c r="H158" s="376"/>
+      <c r="C158" s="359"/>
+      <c r="D158" s="359"/>
+      <c r="E158" s="359"/>
+      <c r="F158" s="359"/>
+      <c r="G158" s="359"/>
+      <c r="H158" s="360"/>
       <c r="I158" s="300"/>
       <c r="J158" s="289">
         <f>J152/J126</f>
         <v>3.8740984445561114E-3</v>
       </c>
       <c r="K158" s="291"/>
-      <c r="L158" s="488" t="str">
+      <c r="L158" s="355" t="str">
         <f>IF(AND(J158&gt;0.0015,J158&lt;0.005),"¡ok!","¡error!")</f>
         <v>¡ok!</v>
       </c>
-      <c r="M158" s="489"/>
-      <c r="N158" s="489"/>
-      <c r="O158" s="490"/>
+      <c r="M158" s="356"/>
+      <c r="N158" s="356"/>
+      <c r="O158" s="357"/>
       <c r="P158" s="161"/>
       <c r="Q158" s="290"/>
       <c r="R158" s="6"/>
@@ -44469,28 +44469,28 @@
       <c r="Z158" s="120"/>
     </row>
     <row r="159" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="374" t="s">
+      <c r="B159" s="358" t="s">
         <v>411</v>
       </c>
-      <c r="C159" s="375"/>
-      <c r="D159" s="375"/>
-      <c r="E159" s="375"/>
-      <c r="F159" s="375"/>
-      <c r="G159" s="375"/>
-      <c r="H159" s="376"/>
+      <c r="C159" s="359"/>
+      <c r="D159" s="359"/>
+      <c r="E159" s="359"/>
+      <c r="F159" s="359"/>
+      <c r="G159" s="359"/>
+      <c r="H159" s="360"/>
       <c r="I159" s="300"/>
       <c r="J159" s="289">
         <f>((0.0254*J147)^2)/(J152/J148)</f>
         <v>3.5367765131532298</v>
       </c>
       <c r="K159" s="291"/>
-      <c r="L159" s="488" t="str">
+      <c r="L159" s="355" t="str">
         <f>IF(AND(J159&gt;2,J159&lt;4),"¡ok!","¡error!")</f>
         <v>¡ok!</v>
       </c>
-      <c r="M159" s="489"/>
-      <c r="N159" s="489"/>
-      <c r="O159" s="490"/>
+      <c r="M159" s="356"/>
+      <c r="N159" s="356"/>
+      <c r="O159" s="357"/>
       <c r="P159" s="161"/>
       <c r="Q159" s="290"/>
       <c r="R159" s="6"/>
@@ -44560,15 +44560,15 @@
       <c r="Z161" s="120"/>
     </row>
     <row r="162" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="329" t="s">
+      <c r="B162" s="334" t="s">
         <v>232</v>
       </c>
-      <c r="C162" s="370"/>
-      <c r="D162" s="370"/>
-      <c r="E162" s="370"/>
-      <c r="F162" s="370"/>
-      <c r="G162" s="370"/>
-      <c r="H162" s="330"/>
+      <c r="C162" s="486"/>
+      <c r="D162" s="486"/>
+      <c r="E162" s="486"/>
+      <c r="F162" s="486"/>
+      <c r="G162" s="486"/>
+      <c r="H162" s="335"/>
       <c r="I162" s="153" t="s">
         <v>88</v>
       </c>
@@ -44579,10 +44579,10 @@
       <c r="K162" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="L162" s="373"/>
-      <c r="M162" s="373"/>
-      <c r="N162" s="373"/>
-      <c r="O162" s="373"/>
+      <c r="L162" s="485"/>
+      <c r="M162" s="485"/>
+      <c r="N162" s="485"/>
+      <c r="O162" s="485"/>
       <c r="P162" s="121"/>
       <c r="Q162" s="121"/>
       <c r="R162" s="121"/>
@@ -44596,15 +44596,15 @@
       <c r="Z162" s="120"/>
     </row>
     <row r="163" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="329" t="s">
+      <c r="B163" s="334" t="s">
         <v>231</v>
       </c>
-      <c r="C163" s="370"/>
-      <c r="D163" s="370"/>
-      <c r="E163" s="370"/>
-      <c r="F163" s="370"/>
-      <c r="G163" s="370"/>
-      <c r="H163" s="330"/>
+      <c r="C163" s="486"/>
+      <c r="D163" s="486"/>
+      <c r="E163" s="486"/>
+      <c r="F163" s="486"/>
+      <c r="G163" s="486"/>
+      <c r="H163" s="335"/>
       <c r="I163" s="153" t="s">
         <v>11</v>
       </c>
@@ -44613,10 +44613,10 @@
         <v>0.45</v>
       </c>
       <c r="K163" s="156"/>
-      <c r="L163" s="373"/>
-      <c r="M163" s="373"/>
-      <c r="N163" s="373"/>
-      <c r="O163" s="373"/>
+      <c r="L163" s="485"/>
+      <c r="M163" s="485"/>
+      <c r="N163" s="485"/>
+      <c r="O163" s="485"/>
       <c r="P163" s="121"/>
       <c r="Q163" s="121"/>
       <c r="R163" s="121"/>
@@ -44630,15 +44630,15 @@
       <c r="Z163" s="120"/>
     </row>
     <row r="164" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="329" t="s">
+      <c r="B164" s="334" t="s">
         <v>233</v>
       </c>
-      <c r="C164" s="370"/>
-      <c r="D164" s="370"/>
-      <c r="E164" s="370"/>
-      <c r="F164" s="370"/>
-      <c r="G164" s="370"/>
-      <c r="H164" s="330"/>
+      <c r="C164" s="486"/>
+      <c r="D164" s="486"/>
+      <c r="E164" s="486"/>
+      <c r="F164" s="486"/>
+      <c r="G164" s="486"/>
+      <c r="H164" s="335"/>
       <c r="I164" s="153" t="s">
         <v>234</v>
       </c>
@@ -44647,10 +44647,10 @@
         <v>2.65</v>
       </c>
       <c r="K164" s="156"/>
-      <c r="L164" s="373"/>
-      <c r="M164" s="373"/>
-      <c r="N164" s="373"/>
-      <c r="O164" s="373"/>
+      <c r="L164" s="485"/>
+      <c r="M164" s="485"/>
+      <c r="N164" s="485"/>
+      <c r="O164" s="485"/>
       <c r="P164" s="121"/>
       <c r="Q164" s="121"/>
       <c r="R164" s="121"/>
@@ -44664,15 +44664,15 @@
       <c r="Z164" s="120"/>
     </row>
     <row r="165" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="326" t="s">
+      <c r="B165" s="327" t="s">
         <v>236</v>
       </c>
-      <c r="C165" s="326"/>
-      <c r="D165" s="326"/>
-      <c r="E165" s="326"/>
-      <c r="F165" s="326"/>
-      <c r="G165" s="326"/>
-      <c r="H165" s="326"/>
+      <c r="C165" s="327"/>
+      <c r="D165" s="327"/>
+      <c r="E165" s="327"/>
+      <c r="F165" s="327"/>
+      <c r="G165" s="327"/>
+      <c r="H165" s="327"/>
       <c r="I165" s="153" t="s">
         <v>235</v>
       </c>
@@ -44683,10 +44683,10 @@
       <c r="K165" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="L165" s="373"/>
-      <c r="M165" s="373"/>
-      <c r="N165" s="373"/>
-      <c r="O165" s="373"/>
+      <c r="L165" s="485"/>
+      <c r="M165" s="485"/>
+      <c r="N165" s="485"/>
+      <c r="O165" s="485"/>
       <c r="P165" s="121"/>
       <c r="Q165" s="121"/>
       <c r="R165" s="121"/>
@@ -44810,8 +44810,8 @@
       <c r="Z169" s="120"/>
     </row>
     <row r="170" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="453"/>
-      <c r="C170" s="453"/>
+      <c r="B170" s="400"/>
+      <c r="C170" s="400"/>
       <c r="D170" s="130"/>
       <c r="E170" s="5"/>
       <c r="F170" s="131"/>
@@ -44916,13 +44916,13 @@
       <c r="Y173" s="113"/>
     </row>
     <row r="174" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="322" t="s">
+      <c r="B174" s="340" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="322"/>
-      <c r="D174" s="322"/>
-      <c r="E174" s="322"/>
-      <c r="F174" s="322"/>
+      <c r="C174" s="340"/>
+      <c r="D174" s="340"/>
+      <c r="E174" s="340"/>
+      <c r="F174" s="340"/>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
@@ -44973,16 +44973,16 @@
       <c r="B176" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C176" s="309" t="s">
+      <c r="C176" s="344" t="s">
         <v>202</v>
       </c>
-      <c r="D176" s="309"/>
-      <c r="E176" s="309"/>
-      <c r="F176" s="309"/>
-      <c r="G176" s="309"/>
-      <c r="H176" s="309"/>
-      <c r="I176" s="309"/>
-      <c r="J176" s="309"/>
+      <c r="D176" s="344"/>
+      <c r="E176" s="344"/>
+      <c r="F176" s="344"/>
+      <c r="G176" s="344"/>
+      <c r="H176" s="344"/>
+      <c r="I176" s="344"/>
+      <c r="J176" s="344"/>
       <c r="K176" s="113"/>
       <c r="L176" s="113"/>
       <c r="M176" s="113"/>
@@ -45003,16 +45003,16 @@
       <c r="B177" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C177" s="309" t="s">
+      <c r="C177" s="344" t="s">
         <v>64</v>
       </c>
-      <c r="D177" s="309"/>
-      <c r="E177" s="309"/>
-      <c r="F177" s="309"/>
-      <c r="G177" s="309"/>
-      <c r="H177" s="309"/>
-      <c r="I177" s="309"/>
-      <c r="J177" s="309"/>
+      <c r="D177" s="344"/>
+      <c r="E177" s="344"/>
+      <c r="F177" s="344"/>
+      <c r="G177" s="344"/>
+      <c r="H177" s="344"/>
+      <c r="I177" s="344"/>
+      <c r="J177" s="344"/>
       <c r="K177" s="113"/>
       <c r="L177" s="113"/>
       <c r="M177" s="113"/>
@@ -45033,16 +45033,16 @@
       <c r="B178" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C178" s="452" t="s">
+      <c r="C178" s="433" t="s">
         <v>40</v>
       </c>
-      <c r="D178" s="452"/>
-      <c r="E178" s="452"/>
-      <c r="F178" s="452"/>
-      <c r="G178" s="452"/>
-      <c r="H178" s="452"/>
-      <c r="I178" s="452"/>
-      <c r="J178" s="452"/>
+      <c r="D178" s="433"/>
+      <c r="E178" s="433"/>
+      <c r="F178" s="433"/>
+      <c r="G178" s="433"/>
+      <c r="H178" s="433"/>
+      <c r="I178" s="433"/>
+      <c r="J178" s="433"/>
       <c r="K178" s="23"/>
       <c r="L178" s="23"/>
       <c r="M178" s="23"/>
@@ -45063,16 +45063,16 @@
       <c r="B179" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C179" s="309" t="s">
+      <c r="C179" s="344" t="s">
         <v>65</v>
       </c>
-      <c r="D179" s="309"/>
-      <c r="E179" s="309"/>
-      <c r="F179" s="309"/>
-      <c r="G179" s="309"/>
-      <c r="H179" s="309"/>
-      <c r="I179" s="309"/>
-      <c r="J179" s="309"/>
+      <c r="D179" s="344"/>
+      <c r="E179" s="344"/>
+      <c r="F179" s="344"/>
+      <c r="G179" s="344"/>
+      <c r="H179" s="344"/>
+      <c r="I179" s="344"/>
+      <c r="J179" s="344"/>
       <c r="K179" s="23"/>
       <c r="L179" s="23"/>
       <c r="M179" s="23"/>
@@ -45093,16 +45093,16 @@
       <c r="B180" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C180" s="309" t="s">
+      <c r="C180" s="344" t="s">
         <v>66</v>
       </c>
-      <c r="D180" s="309"/>
-      <c r="E180" s="309"/>
-      <c r="F180" s="309"/>
-      <c r="G180" s="309"/>
-      <c r="H180" s="309"/>
-      <c r="I180" s="309"/>
-      <c r="J180" s="309"/>
+      <c r="D180" s="344"/>
+      <c r="E180" s="344"/>
+      <c r="F180" s="344"/>
+      <c r="G180" s="344"/>
+      <c r="H180" s="344"/>
+      <c r="I180" s="344"/>
+      <c r="J180" s="344"/>
       <c r="K180" s="23"/>
       <c r="L180" s="23"/>
       <c r="M180" s="23"/>
@@ -45123,16 +45123,16 @@
       <c r="B181" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C181" s="321" t="s">
+      <c r="C181" s="336" t="s">
         <v>56</v>
       </c>
-      <c r="D181" s="321"/>
-      <c r="E181" s="321"/>
-      <c r="F181" s="321"/>
-      <c r="G181" s="321"/>
-      <c r="H181" s="321"/>
-      <c r="I181" s="321"/>
-      <c r="J181" s="321"/>
+      <c r="D181" s="336"/>
+      <c r="E181" s="336"/>
+      <c r="F181" s="336"/>
+      <c r="G181" s="336"/>
+      <c r="H181" s="336"/>
+      <c r="I181" s="336"/>
+      <c r="J181" s="336"/>
       <c r="K181" s="113"/>
       <c r="L181" s="113"/>
       <c r="M181" s="113"/>
@@ -45153,16 +45153,16 @@
       <c r="B182" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C182" s="452" t="s">
+      <c r="C182" s="433" t="s">
         <v>78</v>
       </c>
-      <c r="D182" s="452"/>
-      <c r="E182" s="452"/>
-      <c r="F182" s="452"/>
-      <c r="G182" s="452"/>
-      <c r="H182" s="452"/>
-      <c r="I182" s="452"/>
-      <c r="J182" s="452"/>
+      <c r="D182" s="433"/>
+      <c r="E182" s="433"/>
+      <c r="F182" s="433"/>
+      <c r="G182" s="433"/>
+      <c r="H182" s="433"/>
+      <c r="I182" s="433"/>
+      <c r="J182" s="433"/>
       <c r="K182" s="113"/>
       <c r="L182" s="113"/>
       <c r="M182" s="113"/>
@@ -45183,16 +45183,16 @@
       <c r="B183" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C183" s="309" t="s">
+      <c r="C183" s="344" t="s">
         <v>83</v>
       </c>
-      <c r="D183" s="309"/>
-      <c r="E183" s="309"/>
-      <c r="F183" s="309"/>
-      <c r="G183" s="309"/>
-      <c r="H183" s="309"/>
-      <c r="I183" s="309"/>
-      <c r="J183" s="309"/>
+      <c r="D183" s="344"/>
+      <c r="E183" s="344"/>
+      <c r="F183" s="344"/>
+      <c r="G183" s="344"/>
+      <c r="H183" s="344"/>
+      <c r="I183" s="344"/>
+      <c r="J183" s="344"/>
       <c r="K183" s="113"/>
       <c r="L183" s="113"/>
       <c r="M183" s="113"/>
@@ -45213,16 +45213,16 @@
       <c r="B184" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C184" s="309" t="s">
+      <c r="C184" s="344" t="s">
         <v>169</v>
       </c>
-      <c r="D184" s="309"/>
-      <c r="E184" s="309"/>
-      <c r="F184" s="309"/>
-      <c r="G184" s="309"/>
-      <c r="H184" s="309"/>
-      <c r="I184" s="309"/>
-      <c r="J184" s="309"/>
+      <c r="D184" s="344"/>
+      <c r="E184" s="344"/>
+      <c r="F184" s="344"/>
+      <c r="G184" s="344"/>
+      <c r="H184" s="344"/>
+      <c r="I184" s="344"/>
+      <c r="J184" s="344"/>
       <c r="K184" s="121"/>
       <c r="L184" s="121"/>
       <c r="M184" s="121"/>
@@ -46885,21 +46885,218 @@
     </row>
   </sheetData>
   <mergeCells count="251">
-    <mergeCell ref="L158:O158"/>
-    <mergeCell ref="B159:H159"/>
-    <mergeCell ref="L159:O159"/>
-    <mergeCell ref="B152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="L152:O153"/>
-    <mergeCell ref="K154:K155"/>
-    <mergeCell ref="B154:H155"/>
-    <mergeCell ref="I154:I155"/>
-    <mergeCell ref="J154:J155"/>
-    <mergeCell ref="L154:O155"/>
-    <mergeCell ref="B157:H157"/>
-    <mergeCell ref="L157:O157"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="V88:V96"/>
+    <mergeCell ref="Q97:Q99"/>
+    <mergeCell ref="R88:R96"/>
+    <mergeCell ref="X84:X87"/>
+    <mergeCell ref="Y84:Y87"/>
+    <mergeCell ref="U97:U99"/>
+    <mergeCell ref="S84:V84"/>
+    <mergeCell ref="S85:S87"/>
+    <mergeCell ref="T85:T87"/>
+    <mergeCell ref="U85:U87"/>
+    <mergeCell ref="V85:V87"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B139:H139"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="L145:O145"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="L147:O147"/>
+    <mergeCell ref="B148:H149"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="L148:O149"/>
+    <mergeCell ref="B150:H151"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="L150:O151"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="B158:H158"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="B165:H165"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="B136:H136"/>
+    <mergeCell ref="B137:H137"/>
+    <mergeCell ref="B115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:O116"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L136:O136"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="L138:O138"/>
+    <mergeCell ref="L119:O119"/>
+    <mergeCell ref="B129:H129"/>
+    <mergeCell ref="B138:H138"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B140:H140"/>
+    <mergeCell ref="L162:O162"/>
+    <mergeCell ref="L163:O163"/>
+    <mergeCell ref="L164:O164"/>
+    <mergeCell ref="B38:C41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="B102:C105"/>
+    <mergeCell ref="F102:F105"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="H102:H105"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B124:H125"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="B126:H126"/>
+    <mergeCell ref="B127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="H60:J62"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="O96:P96"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="O85:P87"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="K85:M87"/>
+    <mergeCell ref="N84:R84"/>
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="Q85:Q87"/>
+    <mergeCell ref="R85:R87"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H53:J55"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B53:C55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="L122:O123"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="L124:O125"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="C184:J184"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="C179:J179"/>
+    <mergeCell ref="C180:J180"/>
+    <mergeCell ref="C181:J181"/>
+    <mergeCell ref="C182:J182"/>
+    <mergeCell ref="C183:J183"/>
+    <mergeCell ref="C176:J176"/>
+    <mergeCell ref="C177:J177"/>
+    <mergeCell ref="C178:J178"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="B84:C87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="K88:M96"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B121:H121"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B67:C69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G67:H69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B135:H135"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="L127:O128"/>
     <mergeCell ref="B2:F5"/>
     <mergeCell ref="B74:H74"/>
     <mergeCell ref="B76:H76"/>
@@ -46924,218 +47121,21 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B60:C62"/>
     <mergeCell ref="F60:F62"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="B84:C87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="K88:M96"/>
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B121:H121"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B67:C69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G67:H69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B135:H135"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="L127:O128"/>
-    <mergeCell ref="C184:J184"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="C179:J179"/>
-    <mergeCell ref="C180:J180"/>
-    <mergeCell ref="C181:J181"/>
-    <mergeCell ref="C182:J182"/>
-    <mergeCell ref="C183:J183"/>
-    <mergeCell ref="C176:J176"/>
-    <mergeCell ref="C177:J177"/>
-    <mergeCell ref="C178:J178"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H53:J55"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B53:C55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="L122:O123"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="L124:O125"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="O96:P96"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="O85:P87"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="K85:M87"/>
-    <mergeCell ref="N84:R84"/>
-    <mergeCell ref="N85:N87"/>
-    <mergeCell ref="Q85:Q87"/>
-    <mergeCell ref="R85:R87"/>
-    <mergeCell ref="H63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="H60:J62"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B38:C41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="L134:O134"/>
-    <mergeCell ref="B102:C105"/>
-    <mergeCell ref="F102:F105"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="H102:H105"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B124:H125"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="B126:H126"/>
-    <mergeCell ref="B127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="B165:H165"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="B136:H136"/>
-    <mergeCell ref="B137:H137"/>
-    <mergeCell ref="B115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:O116"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="L136:O136"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="L138:O138"/>
-    <mergeCell ref="L119:O119"/>
-    <mergeCell ref="B129:H129"/>
-    <mergeCell ref="B138:H138"/>
-    <mergeCell ref="B164:H164"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="B140:H140"/>
-    <mergeCell ref="L162:O162"/>
-    <mergeCell ref="L163:O163"/>
-    <mergeCell ref="L164:O164"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="L145:O145"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="B148:H149"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="J148:J149"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="L148:O149"/>
-    <mergeCell ref="B150:H151"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="L150:O151"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="B158:H158"/>
-    <mergeCell ref="B139:H139"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="V88:V96"/>
-    <mergeCell ref="Q97:Q99"/>
-    <mergeCell ref="R88:R96"/>
-    <mergeCell ref="X84:X87"/>
-    <mergeCell ref="Y84:Y87"/>
-    <mergeCell ref="U97:U99"/>
-    <mergeCell ref="S84:V84"/>
-    <mergeCell ref="S85:S87"/>
-    <mergeCell ref="T85:T87"/>
-    <mergeCell ref="U85:U87"/>
-    <mergeCell ref="V85:V87"/>
+    <mergeCell ref="L158:O158"/>
+    <mergeCell ref="B159:H159"/>
+    <mergeCell ref="L159:O159"/>
+    <mergeCell ref="B152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="L152:O153"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="B154:H155"/>
+    <mergeCell ref="I154:I155"/>
+    <mergeCell ref="J154:J155"/>
+    <mergeCell ref="L154:O155"/>
+    <mergeCell ref="B157:H157"/>
+    <mergeCell ref="L157:O157"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:J28">
     <cfRule type="expression" dxfId="4" priority="6">

--- a/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v5.xlsx
+++ b/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v5.xlsx
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="417">
   <si>
     <t>Q</t>
   </si>
@@ -3379,6 +3379,18 @@
   <si>
     <t>Pérdidad de carga a través del lecho de grava</t>
   </si>
+  <si>
+    <t>Pregunté tasa máxima de filtración</t>
+  </si>
+  <si>
+    <t>¿Este ya no?</t>
+  </si>
+  <si>
+    <t>Preguntar inicial</t>
+  </si>
+  <si>
+    <t>Preguntar</t>
+  </si>
 </sst>
 </file>
 
@@ -3398,7 +3410,7 @@
     <numFmt numFmtId="174" formatCode="0.000"/>
     <numFmt numFmtId="175" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3700,8 +3712,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3759,6 +3784,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3944,7 +3981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="499">
+  <cellXfs count="509">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4809,32 +4846,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4842,49 +4855,34 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4899,29 +4897,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4929,17 +4969,86 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4949,6 +5058,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4974,10 +5092,10 @@
     <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4998,154 +5116,40 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5166,17 +5170,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5196,17 +5254,20 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5253,116 +5314,120 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -34318,7 +34383,7 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" s="43"/>
-      <c r="C2" s="333"/>
+      <c r="C2" s="332"/>
       <c r="D2" s="41" t="s">
         <v>119</v>
       </c>
@@ -34332,14 +34397,14 @@
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="43"/>
-      <c r="C3" s="333"/>
+      <c r="C3" s="332"/>
       <c r="D3" s="41" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
-      <c r="C4" s="333"/>
+      <c r="C4" s="332"/>
       <c r="D4" s="41" t="s">
         <v>121</v>
       </c>
@@ -34348,7 +34413,7 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="43"/>
-      <c r="C5" s="333"/>
+      <c r="C5" s="332"/>
       <c r="D5" s="41" t="s">
         <v>127</v>
       </c>
@@ -34369,27 +34434,27 @@
       </c>
     </row>
     <row r="7" spans="2:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="328" t="s">
+      <c r="B7" s="345" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="328"/>
-      <c r="D7" s="328"/>
-      <c r="E7" s="328"/>
-      <c r="F7" s="328"/>
-      <c r="G7" s="328"/>
+      <c r="C7" s="345"/>
+      <c r="D7" s="345"/>
+      <c r="E7" s="345"/>
+      <c r="F7" s="345"/>
+      <c r="G7" s="345"/>
       <c r="H7" s="40"/>
-      <c r="J7" s="326" t="s">
+      <c r="J7" s="344" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="326"/>
-      <c r="L7" s="326"/>
-      <c r="M7" s="326"/>
+      <c r="K7" s="344"/>
+      <c r="L7" s="344"/>
+      <c r="M7" s="344"/>
     </row>
     <row r="8" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="327" t="s">
+      <c r="B8" s="331" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="327"/>
+      <c r="C8" s="331"/>
       <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
@@ -34431,10 +34496,10 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="327" t="s">
+      <c r="B9" s="331" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="327"/>
+      <c r="C9" s="331"/>
       <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
@@ -34464,10 +34529,10 @@
       </c>
     </row>
     <row r="10" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="327" t="s">
+      <c r="B10" s="331" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="327"/>
+      <c r="C10" s="331"/>
       <c r="D10" s="9" t="s">
         <v>92</v>
       </c>
@@ -34502,10 +34567,10 @@
       </c>
     </row>
     <row r="11" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="327" t="s">
+      <c r="B11" s="331" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="327"/>
+      <c r="C11" s="331"/>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
@@ -34535,10 +34600,10 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="327" t="s">
+      <c r="B12" s="331" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="327"/>
+      <c r="C12" s="331"/>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
@@ -34564,11 +34629,11 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="327" t="str">
+      <c r="B13" s="331" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F12</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C13" s="327"/>
+      <c r="C13" s="331"/>
       <c r="D13" s="8" t="s">
         <v>108</v>
       </c>
@@ -34603,10 +34668,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="327" t="s">
+      <c r="B14" s="331" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="327"/>
+      <c r="C14" s="331"/>
       <c r="D14" s="9" t="s">
         <v>11</v>
       </c>
@@ -34641,10 +34706,10 @@
       </c>
     </row>
     <row r="15" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="327" t="s">
+      <c r="B15" s="331" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="327"/>
+      <c r="C15" s="331"/>
       <c r="D15" s="9" t="s">
         <v>105</v>
       </c>
@@ -34676,10 +34741,10 @@
       </c>
     </row>
     <row r="16" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="327" t="s">
+      <c r="B16" s="331" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="327"/>
+      <c r="C16" s="331"/>
       <c r="D16" s="9" t="s">
         <v>105</v>
       </c>
@@ -34710,10 +34775,10 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="327" t="s">
+      <c r="B17" s="331" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="327"/>
+      <c r="C17" s="331"/>
       <c r="D17" s="9" t="s">
         <v>105</v>
       </c>
@@ -34746,10 +34811,10 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="327" t="s">
+      <c r="B18" s="331" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="327"/>
+      <c r="C18" s="331"/>
       <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
@@ -34779,10 +34844,10 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="327" t="s">
+      <c r="B19" s="331" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="327"/>
+      <c r="C19" s="331"/>
       <c r="D19" s="177" t="s">
         <v>13</v>
       </c>
@@ -34812,10 +34877,10 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="327" t="s">
+      <c r="B20" s="331" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="327"/>
+      <c r="C20" s="331"/>
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
@@ -34845,10 +34910,10 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="327" t="s">
+      <c r="B21" s="331" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="327"/>
+      <c r="C21" s="331"/>
       <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
@@ -34930,10 +34995,10 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="327" t="s">
+      <c r="B24" s="331" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="327"/>
+      <c r="C24" s="331"/>
       <c r="D24" s="9" t="s">
         <v>46</v>
       </c>
@@ -35000,10 +35065,10 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="327" t="s">
+      <c r="B26" s="331" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="327"/>
+      <c r="C26" s="331"/>
       <c r="D26" s="9" t="s">
         <v>54</v>
       </c>
@@ -35136,10 +35201,10 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="327" t="s">
+      <c r="B30" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="327"/>
+      <c r="C30" s="331"/>
       <c r="D30" s="9" t="s">
         <v>84</v>
       </c>
@@ -35171,8 +35236,8 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="333"/>
-      <c r="C31" s="333"/>
+      <c r="B31" s="332"/>
+      <c r="C31" s="332"/>
       <c r="D31" s="11"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
@@ -35182,14 +35247,14 @@
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="340" t="s">
+      <c r="B32" s="327" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="340"/>
-      <c r="D32" s="340"/>
-      <c r="E32" s="340"/>
-      <c r="F32" s="340"/>
-      <c r="G32" s="340"/>
+      <c r="C32" s="327"/>
+      <c r="D32" s="327"/>
+      <c r="E32" s="327"/>
+      <c r="F32" s="327"/>
+      <c r="G32" s="327"/>
       <c r="H32" s="66"/>
       <c r="J32" s="22"/>
       <c r="K32" s="23"/>
@@ -35197,10 +35262,10 @@
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="337" t="s">
+      <c r="B33" s="336" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="337"/>
+      <c r="C33" s="336"/>
       <c r="D33" s="7" t="s">
         <v>157</v>
       </c>
@@ -35218,10 +35283,10 @@
       <c r="M33" s="24"/>
     </row>
     <row r="34" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="338" t="s">
+      <c r="B34" s="337" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="339"/>
+      <c r="C34" s="338"/>
       <c r="D34" s="7" t="s">
         <v>166</v>
       </c>
@@ -35265,10 +35330,10 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="3.5">
-      <c r="B37" s="327" t="s">
+      <c r="B37" s="331" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="327"/>
+      <c r="C37" s="331"/>
       <c r="D37" s="38" t="s">
         <v>258</v>
       </c>
@@ -35279,22 +35344,22 @@
         <f>J9</f>
         <v>3.4760947255444699E-3</v>
       </c>
-      <c r="G37" s="321"/>
-      <c r="H37" s="322"/>
-      <c r="I37" s="330" t="s">
+      <c r="G37" s="319"/>
+      <c r="H37" s="321"/>
+      <c r="I37" s="341" t="s">
         <v>72</v>
       </c>
-      <c r="J37" s="331"/>
-      <c r="K37" s="331"/>
-      <c r="L37" s="331"/>
-      <c r="M37" s="331"/>
-      <c r="N37" s="332"/>
+      <c r="J37" s="342"/>
+      <c r="K37" s="342"/>
+      <c r="L37" s="342"/>
+      <c r="M37" s="342"/>
+      <c r="N37" s="343"/>
     </row>
     <row r="38" spans="2:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="329" t="s">
+      <c r="B38" s="333" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="329"/>
+      <c r="C38" s="333"/>
       <c r="D38" s="45" t="s">
         <v>135</v>
       </c>
@@ -35305,20 +35370,20 @@
         <f>ROUND(MIN(J16:J30),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G38" s="321"/>
-      <c r="H38" s="322"/>
-      <c r="I38" s="321"/>
-      <c r="J38" s="325"/>
-      <c r="K38" s="325"/>
-      <c r="L38" s="325"/>
-      <c r="M38" s="325"/>
-      <c r="N38" s="322"/>
+      <c r="G38" s="319"/>
+      <c r="H38" s="321"/>
+      <c r="I38" s="319"/>
+      <c r="J38" s="320"/>
+      <c r="K38" s="320"/>
+      <c r="L38" s="320"/>
+      <c r="M38" s="320"/>
+      <c r="N38" s="321"/>
     </row>
     <row r="39" spans="2:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="329" t="s">
+      <c r="B39" s="333" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="329"/>
+      <c r="C39" s="333"/>
       <c r="D39" s="45" t="s">
         <v>135</v>
       </c>
@@ -35329,20 +35394,20 @@
         <f>ROUND((F16/F13*(SIN(F21*PI()/180)+(F18/F14)*COS(F21*PI()/180)))/(1+0.058*(F16/F13)*(F14/F11)*COS(F21*PI()/180)),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G39" s="321"/>
-      <c r="H39" s="322"/>
-      <c r="I39" s="321"/>
-      <c r="J39" s="325"/>
-      <c r="K39" s="325"/>
-      <c r="L39" s="325"/>
-      <c r="M39" s="325"/>
-      <c r="N39" s="322"/>
+      <c r="G39" s="319"/>
+      <c r="H39" s="321"/>
+      <c r="I39" s="319"/>
+      <c r="J39" s="320"/>
+      <c r="K39" s="320"/>
+      <c r="L39" s="320"/>
+      <c r="M39" s="320"/>
+      <c r="N39" s="321"/>
     </row>
     <row r="40" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="329" t="s">
+      <c r="B40" s="333" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="329"/>
+      <c r="C40" s="333"/>
       <c r="D40" s="45" t="s">
         <v>259</v>
       </c>
@@ -35353,20 +35418,20 @@
         <f>(F18/F39)/60</f>
         <v>8.095617529880478</v>
       </c>
-      <c r="G40" s="321"/>
-      <c r="H40" s="322"/>
-      <c r="I40" s="321"/>
-      <c r="J40" s="325"/>
-      <c r="K40" s="325"/>
-      <c r="L40" s="325"/>
-      <c r="M40" s="325"/>
-      <c r="N40" s="322"/>
+      <c r="G40" s="319"/>
+      <c r="H40" s="321"/>
+      <c r="I40" s="319"/>
+      <c r="J40" s="320"/>
+      <c r="K40" s="320"/>
+      <c r="L40" s="320"/>
+      <c r="M40" s="320"/>
+      <c r="N40" s="321"/>
     </row>
     <row r="41" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="329" t="s">
+      <c r="B41" s="333" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="329"/>
+      <c r="C41" s="333"/>
       <c r="D41" s="45" t="s">
         <v>27</v>
       </c>
@@ -35377,20 +35442,20 @@
         <f>ROUND(F10/(F20*F14*F39),0)</f>
         <v>94</v>
       </c>
-      <c r="G41" s="321"/>
-      <c r="H41" s="322"/>
-      <c r="I41" s="321"/>
-      <c r="J41" s="325"/>
-      <c r="K41" s="325"/>
-      <c r="L41" s="325"/>
-      <c r="M41" s="325"/>
-      <c r="N41" s="322"/>
+      <c r="G41" s="319"/>
+      <c r="H41" s="321"/>
+      <c r="I41" s="319"/>
+      <c r="J41" s="320"/>
+      <c r="K41" s="320"/>
+      <c r="L41" s="320"/>
+      <c r="M41" s="320"/>
+      <c r="N41" s="321"/>
     </row>
     <row r="42" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="329" t="s">
+      <c r="B42" s="333" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="329"/>
+      <c r="C42" s="333"/>
       <c r="D42" s="45" t="s">
         <v>260</v>
       </c>
@@ -35401,23 +35466,23 @@
         <f>((F41*F14+(F41-1)*F19)/SIN(F21*PI()/180))</f>
         <v>5.8566411306595638</v>
       </c>
-      <c r="G42" s="321"/>
-      <c r="H42" s="322"/>
-      <c r="I42" s="341" t="s">
+      <c r="G42" s="319"/>
+      <c r="H42" s="321"/>
+      <c r="I42" s="328" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="342"/>
-      <c r="K42" s="342"/>
-      <c r="L42" s="342"/>
-      <c r="M42" s="342"/>
-      <c r="N42" s="343"/>
+      <c r="J42" s="329"/>
+      <c r="K42" s="329"/>
+      <c r="L42" s="329"/>
+      <c r="M42" s="329"/>
+      <c r="N42" s="330"/>
       <c r="O42" s="74"/>
     </row>
     <row r="43" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="329" t="s">
+      <c r="B43" s="333" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="329"/>
+      <c r="C43" s="333"/>
       <c r="D43" s="45" t="s">
         <v>261</v>
       </c>
@@ -35428,20 +35493,20 @@
         <f>F18*SIN(F21*PI()/180)</f>
         <v>1.0558581722939875</v>
       </c>
-      <c r="G43" s="321"/>
-      <c r="H43" s="322"/>
-      <c r="I43" s="321"/>
-      <c r="J43" s="325"/>
-      <c r="K43" s="325"/>
-      <c r="L43" s="325"/>
-      <c r="M43" s="325"/>
-      <c r="N43" s="322"/>
+      <c r="G43" s="319"/>
+      <c r="H43" s="321"/>
+      <c r="I43" s="319"/>
+      <c r="J43" s="320"/>
+      <c r="K43" s="320"/>
+      <c r="L43" s="320"/>
+      <c r="M43" s="320"/>
+      <c r="N43" s="321"/>
     </row>
     <row r="44" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="323" t="s">
+      <c r="B44" s="315" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="324"/>
+      <c r="C44" s="316"/>
       <c r="D44" s="56" t="s">
         <v>262</v>
       </c>
@@ -35452,20 +35517,20 @@
         <f>1.5*F24</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G44" s="321"/>
-      <c r="H44" s="322"/>
-      <c r="I44" s="321"/>
-      <c r="J44" s="325"/>
-      <c r="K44" s="325"/>
-      <c r="L44" s="325"/>
-      <c r="M44" s="325"/>
-      <c r="N44" s="322"/>
+      <c r="G44" s="319"/>
+      <c r="H44" s="321"/>
+      <c r="I44" s="319"/>
+      <c r="J44" s="320"/>
+      <c r="K44" s="320"/>
+      <c r="L44" s="320"/>
+      <c r="M44" s="320"/>
+      <c r="N44" s="321"/>
     </row>
     <row r="45" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="323" t="s">
+      <c r="B45" s="315" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="324"/>
+      <c r="C45" s="316"/>
       <c r="D45" s="56" t="s">
         <v>263</v>
       </c>
@@ -35486,10 +35551,10 @@
       <c r="N45" s="93"/>
     </row>
     <row r="46" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="323" t="s">
+      <c r="B46" s="315" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="324"/>
+      <c r="C46" s="316"/>
       <c r="D46" s="56" t="s">
         <v>262</v>
       </c>
@@ -35510,10 +35575,10 @@
       <c r="N46" s="93"/>
     </row>
     <row r="47" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="329" t="s">
+      <c r="B47" s="333" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="329"/>
+      <c r="C47" s="333"/>
       <c r="D47" s="56" t="s">
         <v>264</v>
       </c>
@@ -35524,24 +35589,24 @@
         <f>F25+F43+F24</f>
         <v>2.2558581722939874</v>
       </c>
-      <c r="G47" s="321"/>
-      <c r="H47" s="322"/>
-      <c r="I47" s="321"/>
-      <c r="J47" s="325"/>
-      <c r="K47" s="325"/>
-      <c r="L47" s="325"/>
-      <c r="M47" s="325"/>
-      <c r="N47" s="322"/>
+      <c r="G47" s="319"/>
+      <c r="H47" s="321"/>
+      <c r="I47" s="319"/>
+      <c r="J47" s="320"/>
+      <c r="K47" s="320"/>
+      <c r="L47" s="320"/>
+      <c r="M47" s="320"/>
+      <c r="N47" s="321"/>
       <c r="Q47" s="12">
         <f>6*0.0254</f>
         <v>0.15239999999999998</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="323" t="s">
+      <c r="B48" s="315" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="324"/>
+      <c r="C48" s="316"/>
       <c r="D48" s="56" t="s">
         <v>265</v>
       </c>
@@ -35552,26 +35617,26 @@
         <f>F47*F42*F20-(F41-1)*F18*F20*F19</f>
         <v>15.554808847800167</v>
       </c>
-      <c r="G48" s="321"/>
-      <c r="H48" s="322"/>
-      <c r="I48" s="341" t="s">
+      <c r="G48" s="319"/>
+      <c r="H48" s="321"/>
+      <c r="I48" s="328" t="s">
         <v>130</v>
       </c>
-      <c r="J48" s="342"/>
-      <c r="K48" s="342"/>
-      <c r="L48" s="342"/>
-      <c r="M48" s="342"/>
-      <c r="N48" s="343"/>
+      <c r="J48" s="329"/>
+      <c r="K48" s="329"/>
+      <c r="L48" s="329"/>
+      <c r="M48" s="329"/>
+      <c r="N48" s="330"/>
       <c r="Q48" s="75">
         <f>Q47/2</f>
         <v>7.619999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="329" t="s">
+      <c r="B49" s="333" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="329"/>
+      <c r="C49" s="333"/>
       <c r="D49" s="56" t="s">
         <v>266</v>
       </c>
@@ -35582,24 +35647,24 @@
         <f>(F48/F10)/60</f>
         <v>18.110151179182871</v>
       </c>
-      <c r="G49" s="321"/>
-      <c r="H49" s="322"/>
-      <c r="I49" s="321"/>
-      <c r="J49" s="325"/>
-      <c r="K49" s="325"/>
-      <c r="L49" s="325"/>
-      <c r="M49" s="325"/>
-      <c r="N49" s="322"/>
+      <c r="G49" s="319"/>
+      <c r="H49" s="321"/>
+      <c r="I49" s="319"/>
+      <c r="J49" s="320"/>
+      <c r="K49" s="320"/>
+      <c r="L49" s="320"/>
+      <c r="M49" s="320"/>
+      <c r="N49" s="321"/>
       <c r="Q49" s="12">
         <f>Q48/3</f>
         <v>2.5399999999999995E-2</v>
       </c>
     </row>
     <row r="50" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="323" t="s">
+      <c r="B50" s="315" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="324"/>
+      <c r="C50" s="316"/>
       <c r="D50" s="56" t="s">
         <v>91</v>
       </c>
@@ -35610,14 +35675,14 @@
         <f>F10*86400/(F42*F20)</f>
         <v>173.21341640466753</v>
       </c>
-      <c r="G50" s="321"/>
-      <c r="H50" s="322"/>
-      <c r="I50" s="321"/>
-      <c r="J50" s="325"/>
-      <c r="K50" s="325"/>
-      <c r="L50" s="325"/>
-      <c r="M50" s="325"/>
-      <c r="N50" s="322"/>
+      <c r="G50" s="319"/>
+      <c r="H50" s="321"/>
+      <c r="I50" s="319"/>
+      <c r="J50" s="320"/>
+      <c r="K50" s="320"/>
+      <c r="L50" s="320"/>
+      <c r="M50" s="320"/>
+      <c r="N50" s="321"/>
       <c r="Q50" s="12">
         <f>Q49/2</f>
         <v>1.2699999999999998E-2</v>
@@ -35628,10 +35693,10 @@
       </c>
     </row>
     <row r="51" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="329" t="s">
+      <c r="B51" s="333" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="329"/>
+      <c r="C51" s="333"/>
       <c r="D51" s="56" t="s">
         <v>73</v>
       </c>
@@ -35640,20 +35705,20 @@
         <f>"1: "&amp;ROUND(F42/F20,1)</f>
         <v>1: 4,8</v>
       </c>
-      <c r="G51" s="321"/>
-      <c r="H51" s="322"/>
-      <c r="I51" s="321"/>
-      <c r="J51" s="325"/>
-      <c r="K51" s="325"/>
-      <c r="L51" s="325"/>
-      <c r="M51" s="325"/>
-      <c r="N51" s="322"/>
+      <c r="G51" s="319"/>
+      <c r="H51" s="321"/>
+      <c r="I51" s="319"/>
+      <c r="J51" s="320"/>
+      <c r="K51" s="320"/>
+      <c r="L51" s="320"/>
+      <c r="M51" s="320"/>
+      <c r="N51" s="321"/>
     </row>
     <row r="52" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="323" t="s">
+      <c r="B52" s="315" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="324"/>
+      <c r="C52" s="316"/>
       <c r="D52" s="56" t="s">
         <v>267</v>
       </c>
@@ -35664,20 +35729,20 @@
         <f>((F20-F30)/2)*TAN(F29*PI()/180)</f>
         <v>0.79919162457288717</v>
       </c>
-      <c r="G52" s="321"/>
-      <c r="H52" s="322"/>
-      <c r="I52" s="321"/>
-      <c r="J52" s="325"/>
-      <c r="K52" s="325"/>
-      <c r="L52" s="325"/>
-      <c r="M52" s="325"/>
-      <c r="N52" s="322"/>
+      <c r="G52" s="319"/>
+      <c r="H52" s="321"/>
+      <c r="I52" s="319"/>
+      <c r="J52" s="320"/>
+      <c r="K52" s="320"/>
+      <c r="L52" s="320"/>
+      <c r="M52" s="320"/>
+      <c r="N52" s="321"/>
     </row>
     <row r="53" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="323" t="s">
+      <c r="B53" s="315" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="324"/>
+      <c r="C53" s="316"/>
       <c r="D53" s="56" t="s">
         <v>268</v>
       </c>
@@ -35688,20 +35753,20 @@
         <f>2*F28+F42</f>
         <v>6.4566411306595635</v>
       </c>
-      <c r="G53" s="321"/>
-      <c r="H53" s="322"/>
-      <c r="I53" s="321"/>
-      <c r="J53" s="325"/>
-      <c r="K53" s="325"/>
-      <c r="L53" s="325"/>
-      <c r="M53" s="325"/>
-      <c r="N53" s="322"/>
+      <c r="G53" s="319"/>
+      <c r="H53" s="321"/>
+      <c r="I53" s="319"/>
+      <c r="J53" s="320"/>
+      <c r="K53" s="320"/>
+      <c r="L53" s="320"/>
+      <c r="M53" s="320"/>
+      <c r="N53" s="321"/>
     </row>
     <row r="54" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="323" t="s">
+      <c r="B54" s="315" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="324"/>
+      <c r="C54" s="316"/>
       <c r="D54" s="56" t="s">
         <v>269</v>
       </c>
@@ -35712,20 +35777,20 @@
         <f>(2*F28+F20)*F9+(F9-1)*F27</f>
         <v>7.8767999999999994</v>
       </c>
-      <c r="G54" s="321"/>
-      <c r="H54" s="322"/>
-      <c r="I54" s="321"/>
-      <c r="J54" s="325"/>
-      <c r="K54" s="325"/>
-      <c r="L54" s="325"/>
-      <c r="M54" s="325"/>
-      <c r="N54" s="322"/>
+      <c r="G54" s="319"/>
+      <c r="H54" s="321"/>
+      <c r="I54" s="319"/>
+      <c r="J54" s="320"/>
+      <c r="K54" s="320"/>
+      <c r="L54" s="320"/>
+      <c r="M54" s="320"/>
+      <c r="N54" s="321"/>
     </row>
     <row r="55" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="329" t="s">
+      <c r="B55" s="333" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="329"/>
+      <c r="C55" s="333"/>
       <c r="D55" s="56" t="s">
         <v>270</v>
       </c>
@@ -35736,14 +35801,14 @@
         <f>F28+F52+F25+F43+F24+F26</f>
         <v>3.6550497968668743</v>
       </c>
-      <c r="G55" s="321"/>
-      <c r="H55" s="322"/>
-      <c r="I55" s="321"/>
-      <c r="J55" s="325"/>
-      <c r="K55" s="325"/>
-      <c r="L55" s="325"/>
-      <c r="M55" s="325"/>
-      <c r="N55" s="322"/>
+      <c r="G55" s="319"/>
+      <c r="H55" s="321"/>
+      <c r="I55" s="319"/>
+      <c r="J55" s="320"/>
+      <c r="K55" s="320"/>
+      <c r="L55" s="320"/>
+      <c r="M55" s="320"/>
+      <c r="N55" s="321"/>
     </row>
     <row r="56" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="80"/>
@@ -35778,10 +35843,10 @@
       <c r="N57" s="83"/>
     </row>
     <row r="58" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="323" t="s">
+      <c r="B58" s="315" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="324"/>
+      <c r="C58" s="316"/>
       <c r="D58" s="56" t="s">
         <v>271</v>
       </c>
@@ -35792,20 +35857,20 @@
         <f>F42+F28</f>
         <v>6.1566411306595636</v>
       </c>
-      <c r="G58" s="321"/>
-      <c r="H58" s="322"/>
-      <c r="I58" s="321"/>
-      <c r="J58" s="325"/>
-      <c r="K58" s="325"/>
-      <c r="L58" s="325"/>
-      <c r="M58" s="325"/>
-      <c r="N58" s="322"/>
+      <c r="G58" s="319"/>
+      <c r="H58" s="321"/>
+      <c r="I58" s="319"/>
+      <c r="J58" s="320"/>
+      <c r="K58" s="320"/>
+      <c r="L58" s="320"/>
+      <c r="M58" s="320"/>
+      <c r="N58" s="321"/>
     </row>
     <row r="59" spans="2:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="323" t="s">
+      <c r="B59" s="315" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="324"/>
+      <c r="C59" s="316"/>
       <c r="D59" s="56" t="s">
         <v>272</v>
       </c>
@@ -35815,20 +35880,20 @@
       <c r="F59" s="95">
         <v>8</v>
       </c>
-      <c r="G59" s="321"/>
-      <c r="H59" s="322"/>
-      <c r="I59" s="321"/>
-      <c r="J59" s="325"/>
-      <c r="K59" s="325"/>
-      <c r="L59" s="325"/>
-      <c r="M59" s="325"/>
-      <c r="N59" s="322"/>
+      <c r="G59" s="319"/>
+      <c r="H59" s="321"/>
+      <c r="I59" s="319"/>
+      <c r="J59" s="320"/>
+      <c r="K59" s="320"/>
+      <c r="L59" s="320"/>
+      <c r="M59" s="320"/>
+      <c r="N59" s="321"/>
     </row>
     <row r="60" spans="2:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="323" t="s">
+      <c r="B60" s="315" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="324"/>
+      <c r="C60" s="316"/>
       <c r="D60" s="56" t="s">
         <v>273</v>
       </c>
@@ -35839,8 +35904,8 @@
         <f>IF(F59=4,0.10342,IF(F59=6,0.15222,IF(F59=8,0.20942)))</f>
         <v>0.20942</v>
       </c>
-      <c r="G60" s="321"/>
-      <c r="H60" s="322"/>
+      <c r="G60" s="319"/>
+      <c r="H60" s="321"/>
       <c r="I60" s="67"/>
       <c r="J60" s="68"/>
       <c r="K60" s="68"/>
@@ -35849,10 +35914,10 @@
       <c r="N60" s="69"/>
     </row>
     <row r="61" spans="2:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="318" t="s">
+      <c r="B61" s="322" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="318"/>
+      <c r="C61" s="322"/>
       <c r="D61" s="176" t="s">
         <v>274</v>
       </c>
@@ -35863,20 +35928,20 @@
         <f>F60*SQRT(0.4/F33)</f>
         <v>4.1884000000000005E-2</v>
       </c>
-      <c r="G61" s="321"/>
-      <c r="H61" s="322"/>
-      <c r="I61" s="347"/>
-      <c r="J61" s="348"/>
-      <c r="K61" s="348"/>
-      <c r="L61" s="348"/>
-      <c r="M61" s="348"/>
-      <c r="N61" s="349"/>
+      <c r="G61" s="319"/>
+      <c r="H61" s="321"/>
+      <c r="I61" s="323"/>
+      <c r="J61" s="324"/>
+      <c r="K61" s="324"/>
+      <c r="L61" s="324"/>
+      <c r="M61" s="324"/>
+      <c r="N61" s="325"/>
     </row>
     <row r="62" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="318" t="s">
+      <c r="B62" s="322" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="318"/>
+      <c r="C62" s="322"/>
       <c r="D62" s="176" t="s">
         <v>275</v>
       </c>
@@ -35887,8 +35952,8 @@
         <f>IF(AND(F61&gt;0.02363,F61&lt;0.0302),1,IF(AND(F61&gt;0.0302,F61&lt;0.03814),1.25,IF(AND(F61&gt;0.03814,F61&lt;0.04368),1.5,IF(AND(F61&gt;0.04368,F61&lt;0.05458),2,IF(AND(F61&gt;0.05458,F61&lt;0.06607),2.5,IF(AND(F61&gt;0.06607,F61&lt;0.08042),3,IF(AND(F61&gt;0.08042,F61&lt;0.10342),4)))))))</f>
         <v>1.5</v>
       </c>
-      <c r="G62" s="345"/>
-      <c r="H62" s="346"/>
+      <c r="G62" s="317"/>
+      <c r="H62" s="318"/>
       <c r="I62" s="76"/>
       <c r="J62" s="77"/>
       <c r="K62" s="77"/>
@@ -35897,10 +35962,10 @@
       <c r="N62" s="78"/>
     </row>
     <row r="63" spans="2:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="318" t="s">
+      <c r="B63" s="322" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="318"/>
+      <c r="C63" s="322"/>
       <c r="D63" s="176" t="s">
         <v>274</v>
       </c>
@@ -35911,8 +35976,8 @@
         <f>IF(F62=1,0.0302,IF(F62=1.25,0.03814,IF(F62=1.5,0.04368,IF(F62=2,0.05458,IF(F62=2.5,0.06607,IF(F62=3,0.08042,IF(F62=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G63" s="321"/>
-      <c r="H63" s="322"/>
+      <c r="G63" s="319"/>
+      <c r="H63" s="321"/>
       <c r="I63" s="98"/>
       <c r="J63" s="77"/>
       <c r="K63" s="77"/>
@@ -35921,30 +35986,30 @@
       <c r="N63" s="78"/>
     </row>
     <row r="64" spans="2:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="319" t="s">
+      <c r="B64" s="339" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="320"/>
+      <c r="C64" s="340"/>
       <c r="D64" s="56"/>
       <c r="E64" s="46"/>
       <c r="F64" s="89">
         <f>(F63/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G64" s="321"/>
-      <c r="H64" s="322"/>
-      <c r="I64" s="321"/>
-      <c r="J64" s="325"/>
-      <c r="K64" s="325"/>
-      <c r="L64" s="325"/>
-      <c r="M64" s="325"/>
-      <c r="N64" s="322"/>
+      <c r="G64" s="319"/>
+      <c r="H64" s="321"/>
+      <c r="I64" s="319"/>
+      <c r="J64" s="320"/>
+      <c r="K64" s="320"/>
+      <c r="L64" s="320"/>
+      <c r="M64" s="320"/>
+      <c r="N64" s="321"/>
     </row>
     <row r="65" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="318" t="s">
+      <c r="B65" s="322" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="318"/>
+      <c r="C65" s="322"/>
       <c r="D65" s="176" t="s">
         <v>275</v>
       </c>
@@ -35965,10 +36030,10 @@
       <c r="N65" s="93"/>
     </row>
     <row r="66" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="318" t="s">
+      <c r="B66" s="322" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="318"/>
+      <c r="C66" s="322"/>
       <c r="D66" s="176" t="s">
         <v>274</v>
       </c>
@@ -35977,8 +36042,8 @@
         <f>IF(F65=1,0.0302,IF(F65=1.25,0.03814,IF(F65=1.5,0.04368,IF(F65=2,0.05458,IF(F65=2.5,0.06607,IF(F65=3,0.08042,IF(F65=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G66" s="321"/>
-      <c r="H66" s="322"/>
+      <c r="G66" s="319"/>
+      <c r="H66" s="321"/>
       <c r="I66" s="92"/>
       <c r="J66" s="94"/>
       <c r="K66" s="94"/>
@@ -35987,18 +36052,18 @@
       <c r="N66" s="93"/>
     </row>
     <row r="67" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="319" t="s">
+      <c r="B67" s="339" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="320"/>
+      <c r="C67" s="340"/>
       <c r="D67" s="56"/>
       <c r="E67" s="46"/>
       <c r="F67" s="89">
         <f>(F66/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G67" s="321"/>
-      <c r="H67" s="322"/>
+      <c r="G67" s="319"/>
+      <c r="H67" s="321"/>
       <c r="I67" s="92"/>
       <c r="J67" s="101"/>
       <c r="K67" s="94"/>
@@ -36007,10 +36072,10 @@
       <c r="N67" s="93"/>
     </row>
     <row r="68" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="323" t="s">
+      <c r="B68" s="315" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="324"/>
+      <c r="C68" s="316"/>
       <c r="D68" s="56" t="s">
         <v>276</v>
       </c>
@@ -36021,8 +36086,8 @@
         <f>F52+F25+F43+F24</f>
         <v>3.0550497968668746</v>
       </c>
-      <c r="G68" s="321"/>
-      <c r="H68" s="322"/>
+      <c r="G68" s="319"/>
+      <c r="H68" s="321"/>
       <c r="I68" s="76"/>
       <c r="J68" s="77"/>
       <c r="K68" s="77"/>
@@ -36031,10 +36096,10 @@
       <c r="N68" s="78"/>
     </row>
     <row r="69" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="323" t="s">
+      <c r="B69" s="315" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="324"/>
+      <c r="C69" s="316"/>
       <c r="D69" s="56" t="s">
         <v>277</v>
       </c>
@@ -36043,8 +36108,8 @@
         <f>F58/F33</f>
         <v>0.61566411306595636</v>
       </c>
-      <c r="G69" s="345"/>
-      <c r="H69" s="346"/>
+      <c r="G69" s="317"/>
+      <c r="H69" s="318"/>
       <c r="I69" s="76"/>
       <c r="J69" s="77"/>
       <c r="K69" s="77"/>
@@ -36053,10 +36118,10 @@
       <c r="N69" s="78"/>
     </row>
     <row r="70" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="319" t="s">
+      <c r="B70" s="339" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="320"/>
+      <c r="C70" s="340"/>
       <c r="D70" s="56" t="s">
         <v>278</v>
       </c>
@@ -36077,10 +36142,10 @@
       <c r="N70" s="78"/>
     </row>
     <row r="71" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="319" t="s">
+      <c r="B71" s="339" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="320"/>
+      <c r="C71" s="340"/>
       <c r="D71" s="56" t="s">
         <v>278</v>
       </c>
@@ -36089,30 +36154,30 @@
         <f>F42/F33</f>
         <v>0.58566411306595634</v>
       </c>
-      <c r="G71" s="321"/>
-      <c r="H71" s="322"/>
-      <c r="I71" s="314" t="s">
+      <c r="G71" s="319"/>
+      <c r="H71" s="321"/>
+      <c r="I71" s="346" t="s">
         <v>171</v>
       </c>
-      <c r="J71" s="315"/>
-      <c r="K71" s="315"/>
-      <c r="L71" s="315"/>
-      <c r="M71" s="315"/>
-      <c r="N71" s="316"/>
+      <c r="J71" s="347"/>
+      <c r="K71" s="347"/>
+      <c r="L71" s="347"/>
+      <c r="M71" s="347"/>
+      <c r="N71" s="348"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="333"/>
-      <c r="C72" s="333"/>
+      <c r="B72" s="332"/>
+      <c r="C72" s="332"/>
       <c r="J72" s="22"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="24"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="340" t="s">
+      <c r="B73" s="327" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="340"/>
+      <c r="C73" s="327"/>
       <c r="J73" s="22"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
@@ -36128,13 +36193,13 @@
       <c r="B75" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="344" t="s">
+      <c r="C75" s="314" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="344"/>
-      <c r="E75" s="344"/>
-      <c r="F75" s="344"/>
-      <c r="G75" s="344"/>
+      <c r="D75" s="314"/>
+      <c r="E75" s="314"/>
+      <c r="F75" s="314"/>
+      <c r="G75" s="314"/>
       <c r="H75" s="65"/>
       <c r="I75" s="96"/>
       <c r="J75" s="22"/>
@@ -36146,13 +36211,13 @@
       <c r="B76" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="344" t="s">
+      <c r="C76" s="314" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="344"/>
-      <c r="E76" s="344"/>
-      <c r="F76" s="344"/>
-      <c r="G76" s="344"/>
+      <c r="D76" s="314"/>
+      <c r="E76" s="314"/>
+      <c r="F76" s="314"/>
+      <c r="G76" s="314"/>
       <c r="H76" s="65"/>
       <c r="J76" s="97"/>
       <c r="K76" s="23"/>
@@ -36163,13 +36228,13 @@
       <c r="B77" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="336" t="s">
+      <c r="C77" s="326" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="336"/>
-      <c r="E77" s="336"/>
-      <c r="F77" s="336"/>
-      <c r="G77" s="336"/>
+      <c r="D77" s="326"/>
+      <c r="E77" s="326"/>
+      <c r="F77" s="326"/>
+      <c r="G77" s="326"/>
       <c r="H77" s="64"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23"/>
@@ -36180,13 +36245,13 @@
       <c r="B78" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="344" t="s">
+      <c r="C78" s="314" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="344"/>
-      <c r="E78" s="344"/>
-      <c r="F78" s="344"/>
-      <c r="G78" s="344"/>
+      <c r="D78" s="314"/>
+      <c r="E78" s="314"/>
+      <c r="F78" s="314"/>
+      <c r="G78" s="314"/>
       <c r="H78" s="65"/>
       <c r="J78" s="22"/>
       <c r="K78" s="23"/>
@@ -36197,16 +36262,16 @@
       <c r="B79" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="344" t="s">
+      <c r="C79" s="314" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="344"/>
-      <c r="E79" s="344"/>
-      <c r="F79" s="344"/>
-      <c r="G79" s="344"/>
+      <c r="D79" s="314"/>
+      <c r="E79" s="314"/>
+      <c r="F79" s="314"/>
+      <c r="G79" s="314"/>
       <c r="H79" s="65"/>
-      <c r="J79" s="317"/>
-      <c r="K79" s="317"/>
+      <c r="J79" s="349"/>
+      <c r="K79" s="349"/>
       <c r="L79" s="23"/>
       <c r="M79" s="24"/>
     </row>
@@ -36214,13 +36279,13 @@
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="336" t="s">
+      <c r="C80" s="326" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="336"/>
-      <c r="E80" s="336"/>
-      <c r="F80" s="336"/>
-      <c r="G80" s="336"/>
+      <c r="D80" s="326"/>
+      <c r="E80" s="326"/>
+      <c r="F80" s="326"/>
+      <c r="G80" s="326"/>
       <c r="H80" s="64"/>
       <c r="J80" s="22"/>
       <c r="K80" s="23"/>
@@ -36231,13 +36296,13 @@
       <c r="B81" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="336" t="s">
+      <c r="C81" s="326" t="s">
         <v>78</v>
       </c>
-      <c r="D81" s="336"/>
-      <c r="E81" s="336"/>
-      <c r="F81" s="336"/>
-      <c r="G81" s="336"/>
+      <c r="D81" s="326"/>
+      <c r="E81" s="326"/>
+      <c r="F81" s="326"/>
+      <c r="G81" s="326"/>
       <c r="H81" s="64"/>
       <c r="J81" s="22"/>
       <c r="K81" s="23"/>
@@ -36248,13 +36313,13 @@
       <c r="B82" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="344" t="s">
+      <c r="C82" s="314" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="344"/>
-      <c r="E82" s="344"/>
-      <c r="F82" s="344"/>
-      <c r="G82" s="344"/>
+      <c r="D82" s="314"/>
+      <c r="E82" s="314"/>
+      <c r="F82" s="314"/>
+      <c r="G82" s="314"/>
       <c r="H82" s="65"/>
       <c r="J82" s="22"/>
       <c r="K82" s="23"/>
@@ -36265,13 +36330,13 @@
       <c r="B83" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="344" t="s">
+      <c r="C83" s="314" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="344"/>
-      <c r="E83" s="344"/>
-      <c r="F83" s="344"/>
-      <c r="G83" s="344"/>
+      <c r="D83" s="314"/>
+      <c r="E83" s="314"/>
+      <c r="F83" s="314"/>
+      <c r="G83" s="314"/>
       <c r="H83" s="79"/>
       <c r="J83" s="22"/>
       <c r="K83" s="23"/>
@@ -37693,6 +37758,105 @@
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="I71:N71"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I59:N59"/>
+    <mergeCell ref="I64:N64"/>
+    <mergeCell ref="I54:N54"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="G69:H69"/>
@@ -37717,105 +37881,6 @@
     <mergeCell ref="C76:G76"/>
     <mergeCell ref="C77:G77"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I71:N71"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I59:N59"/>
-    <mergeCell ref="I64:N64"/>
-    <mergeCell ref="I54:N54"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="G68:H68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37868,13 +37933,13 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="354" t="s">
+      <c r="B7" s="351" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="354"/>
-      <c r="D7" s="354"/>
-      <c r="E7" s="354"/>
-      <c r="F7" s="354"/>
+      <c r="C7" s="351"/>
+      <c r="D7" s="351"/>
+      <c r="E7" s="351"/>
+      <c r="F7" s="351"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
@@ -38081,10 +38146,10 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="352" t="s">
+      <c r="B24" s="353" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="353"/>
+      <c r="C24" s="354"/>
       <c r="D24" s="28" t="s">
         <v>61</v>
       </c>
@@ -38113,22 +38178,22 @@
       <c r="C27" s="41"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="351" t="s">
+      <c r="B28" s="350" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="351"/>
-      <c r="D28" s="351"/>
-      <c r="E28" s="351"/>
-      <c r="F28" s="351"/>
-      <c r="G28" s="351"/>
+      <c r="C28" s="350"/>
+      <c r="D28" s="350"/>
+      <c r="E28" s="350"/>
+      <c r="F28" s="350"/>
+      <c r="G28" s="350"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="351"/>
-      <c r="C29" s="351"/>
-      <c r="D29" s="351"/>
-      <c r="E29" s="351"/>
-      <c r="F29" s="351"/>
-      <c r="G29" s="351"/>
+      <c r="B29" s="350"/>
+      <c r="C29" s="350"/>
+      <c r="D29" s="350"/>
+      <c r="E29" s="350"/>
+      <c r="F29" s="350"/>
+      <c r="G29" s="350"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="53"/>
@@ -38139,10 +38204,10 @@
       <c r="G30" s="53"/>
     </row>
     <row r="31" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="323" t="s">
+      <c r="B31" s="315" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="324"/>
+      <c r="C31" s="316"/>
       <c r="D31" s="51" t="s">
         <v>137</v>
       </c>
@@ -38156,10 +38221,10 @@
       <c r="G31" s="53"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="323" t="s">
+      <c r="B32" s="315" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="324"/>
+      <c r="C32" s="316"/>
       <c r="D32" s="51" t="s">
         <v>14</v>
       </c>
@@ -38199,10 +38264,10 @@
       <c r="G35" s="53"/>
     </row>
     <row r="36" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="323" t="s">
+      <c r="B36" s="315" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="324"/>
+      <c r="C36" s="316"/>
       <c r="D36" s="55" t="s">
         <v>91</v>
       </c>
@@ -38224,14 +38289,14 @@
       <c r="G37" s="53"/>
     </row>
     <row r="38" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="351" t="s">
+      <c r="B38" s="350" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="351"/>
-      <c r="D38" s="351"/>
-      <c r="E38" s="351"/>
-      <c r="F38" s="351"/>
-      <c r="G38" s="351"/>
+      <c r="C38" s="350"/>
+      <c r="D38" s="350"/>
+      <c r="E38" s="350"/>
+      <c r="F38" s="350"/>
+      <c r="G38" s="350"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="53"/>
@@ -38242,10 +38307,10 @@
       <c r="G39" s="53"/>
     </row>
     <row r="40" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="323" t="s">
+      <c r="B40" s="315" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="324"/>
+      <c r="C40" s="316"/>
       <c r="D40" s="51" t="s">
         <v>131</v>
       </c>
@@ -38259,10 +38324,10 @@
       <c r="G40" s="49"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="323" t="s">
+      <c r="B41" s="315" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="324"/>
+      <c r="C41" s="316"/>
       <c r="D41" s="48" t="s">
         <v>144</v>
       </c>
@@ -38277,10 +38342,10 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="323" t="s">
+      <c r="B42" s="315" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="324"/>
+      <c r="C42" s="316"/>
       <c r="D42" s="45" t="s">
         <v>135</v>
       </c>
@@ -38320,10 +38385,10 @@
       <c r="G45" s="53"/>
     </row>
     <row r="46" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="323" t="s">
+      <c r="B46" s="315" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="324"/>
+      <c r="C46" s="316"/>
       <c r="D46" s="51" t="s">
         <v>88</v>
       </c>
@@ -38335,10 +38400,10 @@
       <c r="G46" s="49"/>
     </row>
     <row r="47" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="323" t="s">
+      <c r="B47" s="315" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="324"/>
+      <c r="C47" s="316"/>
       <c r="D47" s="51" t="s">
         <v>101</v>
       </c>
@@ -38350,10 +38415,10 @@
       <c r="G47" s="49"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="323" t="s">
+      <c r="B48" s="315" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="324"/>
+      <c r="C48" s="316"/>
       <c r="D48" s="51" t="s">
         <v>145</v>
       </c>
@@ -38391,10 +38456,10 @@
       <c r="G51" s="53"/>
     </row>
     <row r="52" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="323" t="s">
+      <c r="B52" s="315" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="324"/>
+      <c r="C52" s="316"/>
       <c r="D52" s="51" t="s">
         <v>146</v>
       </c>
@@ -38452,10 +38517,10 @@
       <c r="G57" s="53"/>
     </row>
     <row r="58" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="323" t="s">
+      <c r="B58" s="315" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="324"/>
+      <c r="C58" s="316"/>
       <c r="D58" s="56" t="s">
         <v>1</v>
       </c>
@@ -38493,10 +38558,10 @@
       <c r="G61" s="53"/>
     </row>
     <row r="62" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="323" t="s">
+      <c r="B62" s="315" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="324"/>
+      <c r="C62" s="316"/>
       <c r="D62" s="48" t="s">
         <v>136</v>
       </c>
@@ -38518,14 +38583,14 @@
       <c r="G63" s="53"/>
     </row>
     <row r="64" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="351" t="s">
+      <c r="B64" s="350" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="351"/>
-      <c r="D64" s="351"/>
-      <c r="E64" s="351"/>
-      <c r="F64" s="351"/>
-      <c r="G64" s="351"/>
+      <c r="C64" s="350"/>
+      <c r="D64" s="350"/>
+      <c r="E64" s="350"/>
+      <c r="F64" s="350"/>
+      <c r="G64" s="350"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="53"/>
@@ -38536,10 +38601,10 @@
       <c r="G65" s="53"/>
     </row>
     <row r="66" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="323" t="s">
+      <c r="B66" s="315" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="324"/>
+      <c r="C66" s="316"/>
       <c r="D66" s="51" t="s">
         <v>27</v>
       </c>
@@ -38579,10 +38644,10 @@
       <c r="G69" s="53"/>
     </row>
     <row r="70" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="323" t="s">
+      <c r="B70" s="315" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="324"/>
+      <c r="C70" s="316"/>
       <c r="D70" s="48" t="s">
         <v>138</v>
       </c>
@@ -38596,10 +38661,10 @@
       <c r="G70" s="49"/>
     </row>
     <row r="71" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="323" t="s">
+      <c r="B71" s="315" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="324"/>
+      <c r="C71" s="316"/>
       <c r="D71" s="51" t="s">
         <v>139</v>
       </c>
@@ -38613,10 +38678,10 @@
       <c r="G71" s="49"/>
     </row>
     <row r="72" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="323" t="s">
+      <c r="B72" s="315" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="324"/>
+      <c r="C72" s="316"/>
       <c r="D72" s="51" t="s">
         <v>140</v>
       </c>
@@ -38630,10 +38695,10 @@
       <c r="G72" s="49"/>
     </row>
     <row r="73" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="323" t="s">
+      <c r="B73" s="315" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="324"/>
+      <c r="C73" s="316"/>
       <c r="D73" s="51" t="s">
         <v>142</v>
       </c>
@@ -38653,46 +38718,46 @@
       <c r="C75" s="41"/>
     </row>
     <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="350" t="s">
+      <c r="B76" s="352" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="350"/>
-      <c r="D76" s="350"/>
-      <c r="E76" s="350"/>
-      <c r="F76" s="350"/>
-      <c r="G76" s="350"/>
+      <c r="C76" s="352"/>
+      <c r="D76" s="352"/>
+      <c r="E76" s="352"/>
+      <c r="F76" s="352"/>
+      <c r="G76" s="352"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="350"/>
-      <c r="C77" s="350"/>
-      <c r="D77" s="350"/>
-      <c r="E77" s="350"/>
-      <c r="F77" s="350"/>
-      <c r="G77" s="350"/>
+      <c r="B77" s="352"/>
+      <c r="C77" s="352"/>
+      <c r="D77" s="352"/>
+      <c r="E77" s="352"/>
+      <c r="F77" s="352"/>
+      <c r="G77" s="352"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="350"/>
-      <c r="C78" s="350"/>
-      <c r="D78" s="350"/>
-      <c r="E78" s="350"/>
-      <c r="F78" s="350"/>
-      <c r="G78" s="350"/>
+      <c r="B78" s="352"/>
+      <c r="C78" s="352"/>
+      <c r="D78" s="352"/>
+      <c r="E78" s="352"/>
+      <c r="F78" s="352"/>
+      <c r="G78" s="352"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="350"/>
-      <c r="C79" s="350"/>
-      <c r="D79" s="350"/>
-      <c r="E79" s="350"/>
-      <c r="F79" s="350"/>
-      <c r="G79" s="350"/>
+      <c r="B79" s="352"/>
+      <c r="C79" s="352"/>
+      <c r="D79" s="352"/>
+      <c r="E79" s="352"/>
+      <c r="F79" s="352"/>
+      <c r="G79" s="352"/>
     </row>
     <row r="80" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="350"/>
-      <c r="C80" s="350"/>
-      <c r="D80" s="350"/>
-      <c r="E80" s="350"/>
-      <c r="F80" s="350"/>
-      <c r="G80" s="350"/>
+      <c r="B80" s="352"/>
+      <c r="C80" s="352"/>
+      <c r="D80" s="352"/>
+      <c r="E80" s="352"/>
+      <c r="F80" s="352"/>
+      <c r="G80" s="352"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="42"/>
@@ -38730,25 +38795,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B76:G80"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B17:C17"/>
@@ -38765,6 +38811,25 @@
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B70:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38776,8 +38841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K158" sqref="K158"/>
+    <sheetView tabSelected="1" topLeftCell="U114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38825,11 +38890,11 @@
     </row>
     <row r="2" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="381"/>
-      <c r="C2" s="381"/>
-      <c r="D2" s="381"/>
-      <c r="E2" s="381"/>
-      <c r="F2" s="381"/>
+      <c r="B2" s="487"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
       <c r="G2" s="254" t="s">
         <v>119</v>
       </c>
@@ -38842,11 +38907,11 @@
     </row>
     <row r="3" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
+      <c r="B3" s="487"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="487"/>
+      <c r="E3" s="487"/>
+      <c r="F3" s="487"/>
       <c r="G3" s="254" t="s">
         <v>120</v>
       </c>
@@ -38859,11 +38924,11 @@
     </row>
     <row r="4" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="381"/>
-      <c r="C4" s="381"/>
-      <c r="D4" s="381"/>
-      <c r="E4" s="381"/>
-      <c r="F4" s="381"/>
+      <c r="B4" s="487"/>
+      <c r="C4" s="487"/>
+      <c r="D4" s="487"/>
+      <c r="E4" s="487"/>
+      <c r="F4" s="487"/>
       <c r="G4" s="254" t="s">
         <v>121</v>
       </c>
@@ -38876,11 +38941,11 @@
     </row>
     <row r="5" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="381"/>
-      <c r="C5" s="381"/>
-      <c r="D5" s="381"/>
-      <c r="E5" s="381"/>
-      <c r="F5" s="381"/>
+      <c r="B5" s="487"/>
+      <c r="C5" s="487"/>
+      <c r="D5" s="487"/>
+      <c r="E5" s="487"/>
+      <c r="F5" s="487"/>
       <c r="G5" s="254" t="s">
         <v>314</v>
       </c>
@@ -38961,15 +39026,15 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="329" t="s">
+      <c r="B8" s="333" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="329"/>
-      <c r="D8" s="329"/>
-      <c r="E8" s="329"/>
-      <c r="F8" s="329"/>
-      <c r="G8" s="329"/>
-      <c r="H8" s="329"/>
+      <c r="C8" s="333"/>
+      <c r="D8" s="333"/>
+      <c r="E8" s="333"/>
+      <c r="F8" s="333"/>
+      <c r="G8" s="333"/>
+      <c r="H8" s="333"/>
       <c r="I8" s="247" t="s">
         <v>310</v>
       </c>
@@ -38978,10 +39043,10 @@
       </c>
       <c r="K8" s="49"/>
       <c r="L8" s="253"/>
-      <c r="X8" s="329" t="s">
+      <c r="X8" s="333" t="s">
         <v>315</v>
       </c>
-      <c r="Y8" s="329"/>
+      <c r="Y8" s="333"/>
       <c r="Z8" s="116"/>
       <c r="AA8" s="13" t="s">
         <v>313</v>
@@ -39009,15 +39074,15 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="329" t="s">
+      <c r="B9" s="333" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="329"/>
-      <c r="D9" s="329"/>
-      <c r="E9" s="329"/>
-      <c r="F9" s="329"/>
-      <c r="G9" s="329"/>
-      <c r="H9" s="329"/>
+      <c r="C9" s="333"/>
+      <c r="D9" s="333"/>
+      <c r="E9" s="333"/>
+      <c r="F9" s="333"/>
+      <c r="G9" s="333"/>
+      <c r="H9" s="333"/>
       <c r="I9" s="247" t="s">
         <v>311</v>
       </c>
@@ -39026,10 +39091,10 @@
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="253"/>
-      <c r="X9" s="329" t="s">
+      <c r="X9" s="333" t="s">
         <v>316</v>
       </c>
-      <c r="Y9" s="329"/>
+      <c r="Y9" s="333"/>
       <c r="Z9" s="116"/>
       <c r="AA9" s="13" t="s">
         <v>326</v>
@@ -39061,15 +39126,15 @@
       </c>
     </row>
     <row r="10" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="329" t="s">
+      <c r="B10" s="333" t="s">
         <v>304</v>
       </c>
-      <c r="C10" s="329"/>
-      <c r="D10" s="329"/>
-      <c r="E10" s="329"/>
-      <c r="F10" s="329"/>
-      <c r="G10" s="329"/>
-      <c r="H10" s="329"/>
+      <c r="C10" s="333"/>
+      <c r="D10" s="333"/>
+      <c r="E10" s="333"/>
+      <c r="F10" s="333"/>
+      <c r="G10" s="333"/>
+      <c r="H10" s="333"/>
       <c r="I10" s="247" t="s">
         <v>305</v>
       </c>
@@ -39118,15 +39183,15 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="329" t="s">
+      <c r="B11" s="333" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="329"/>
-      <c r="D11" s="329"/>
-      <c r="E11" s="329"/>
-      <c r="F11" s="329"/>
-      <c r="G11" s="329"/>
-      <c r="H11" s="329"/>
+      <c r="C11" s="333"/>
+      <c r="D11" s="333"/>
+      <c r="E11" s="333"/>
+      <c r="F11" s="333"/>
+      <c r="G11" s="333"/>
+      <c r="H11" s="333"/>
       <c r="I11" s="247" t="s">
         <v>302</v>
       </c>
@@ -39171,15 +39236,15 @@
       </c>
     </row>
     <row r="12" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="329" t="s">
+      <c r="B12" s="333" t="s">
         <v>306</v>
       </c>
-      <c r="C12" s="329"/>
-      <c r="D12" s="329"/>
-      <c r="E12" s="329"/>
-      <c r="F12" s="329"/>
-      <c r="G12" s="329"/>
-      <c r="H12" s="329"/>
+      <c r="C12" s="333"/>
+      <c r="D12" s="333"/>
+      <c r="E12" s="333"/>
+      <c r="F12" s="333"/>
+      <c r="G12" s="333"/>
+      <c r="H12" s="333"/>
       <c r="I12" s="247" t="s">
         <v>346</v>
       </c>
@@ -39304,18 +39369,18 @@
       </c>
     </row>
     <row r="15" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="323" t="s">
+      <c r="B15" s="315" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="396"/>
-      <c r="D15" s="396"/>
-      <c r="E15" s="396"/>
-      <c r="F15" s="396"/>
-      <c r="G15" s="324"/>
-      <c r="H15" s="323" t="s">
+      <c r="C15" s="374"/>
+      <c r="D15" s="374"/>
+      <c r="E15" s="374"/>
+      <c r="F15" s="374"/>
+      <c r="G15" s="316"/>
+      <c r="H15" s="315" t="s">
         <v>313</v>
       </c>
-      <c r="I15" s="324"/>
+      <c r="I15" s="316"/>
       <c r="J15" s="208"/>
       <c r="K15" s="196"/>
       <c r="L15" s="249"/>
@@ -39348,19 +39413,19 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="323" t="s">
+      <c r="B16" s="315" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="396"/>
-      <c r="D16" s="396"/>
-      <c r="E16" s="396"/>
-      <c r="F16" s="396"/>
-      <c r="G16" s="324"/>
-      <c r="H16" s="323" t="str">
+      <c r="C16" s="374"/>
+      <c r="D16" s="374"/>
+      <c r="E16" s="374"/>
+      <c r="F16" s="374"/>
+      <c r="G16" s="316"/>
+      <c r="H16" s="315" t="str">
         <f>IF($H$15=$AA$8,$AA$9,IF($H$15=$AB$8,$AB$9,""))</f>
         <v>Arena</v>
       </c>
-      <c r="I16" s="324"/>
+      <c r="I16" s="316"/>
       <c r="J16" s="208"/>
       <c r="K16" s="196"/>
       <c r="L16" s="249"/>
@@ -39393,19 +39458,19 @@
       </c>
     </row>
     <row r="17" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="323" t="s">
+      <c r="B17" s="315" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="396"/>
-      <c r="D17" s="396"/>
-      <c r="E17" s="396"/>
-      <c r="F17" s="396"/>
-      <c r="G17" s="324"/>
-      <c r="H17" s="323" t="str">
+      <c r="C17" s="374"/>
+      <c r="D17" s="374"/>
+      <c r="E17" s="374"/>
+      <c r="F17" s="374"/>
+      <c r="G17" s="316"/>
+      <c r="H17" s="315" t="str">
         <f>IF($H$15=$AA$8,AA10,IF($H$15=$AB$8,AB10,""))</f>
         <v>Estratificado fino a grueso</v>
       </c>
-      <c r="I17" s="324"/>
+      <c r="I17" s="316"/>
       <c r="J17" s="208"/>
       <c r="K17" s="196"/>
       <c r="L17" s="249"/>
@@ -39431,18 +39496,18 @@
       <c r="AK17" s="217"/>
     </row>
     <row r="18" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="323" t="s">
+      <c r="B18" s="315" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="396"/>
-      <c r="D18" s="396"/>
-      <c r="E18" s="396"/>
-      <c r="F18" s="396"/>
-      <c r="G18" s="324"/>
-      <c r="H18" s="323" t="s">
+      <c r="C18" s="374"/>
+      <c r="D18" s="374"/>
+      <c r="E18" s="374"/>
+      <c r="F18" s="374"/>
+      <c r="G18" s="316"/>
+      <c r="H18" s="315" t="s">
         <v>328</v>
       </c>
-      <c r="I18" s="324"/>
+      <c r="I18" s="316"/>
       <c r="J18" s="208"/>
       <c r="K18" s="196"/>
       <c r="L18" s="249"/>
@@ -39464,19 +39529,19 @@
       <c r="AK18" s="217"/>
     </row>
     <row r="19" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="323" t="s">
+      <c r="B19" s="315" t="s">
         <v>357</v>
       </c>
-      <c r="C19" s="396"/>
-      <c r="D19" s="396"/>
-      <c r="E19" s="396"/>
-      <c r="F19" s="396"/>
-      <c r="G19" s="324"/>
-      <c r="H19" s="390">
+      <c r="C19" s="374"/>
+      <c r="D19" s="374"/>
+      <c r="E19" s="374"/>
+      <c r="F19" s="374"/>
+      <c r="G19" s="316"/>
+      <c r="H19" s="372">
         <f t="shared" ref="H19:H25" si="0">IF($H$15=$AA$8,AA11,IF($H$15=$AB$8,AB11,""))</f>
         <v>120</v>
       </c>
-      <c r="I19" s="391"/>
+      <c r="I19" s="373"/>
       <c r="J19" s="247" t="s">
         <v>4</v>
       </c>
@@ -39507,19 +39572,19 @@
       <c r="AK19" s="217"/>
     </row>
     <row r="20" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="420" t="s">
+      <c r="B20" s="375" t="s">
         <v>359</v>
       </c>
-      <c r="C20" s="421"/>
-      <c r="D20" s="421"/>
-      <c r="E20" s="421"/>
-      <c r="F20" s="421"/>
-      <c r="G20" s="422"/>
-      <c r="H20" s="390">
+      <c r="C20" s="376"/>
+      <c r="D20" s="376"/>
+      <c r="E20" s="376"/>
+      <c r="F20" s="376"/>
+      <c r="G20" s="377"/>
+      <c r="H20" s="372">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I20" s="391"/>
+      <c r="I20" s="373"/>
       <c r="J20" s="247" t="s">
         <v>4</v>
       </c>
@@ -39548,19 +39613,19 @@
       <c r="AK20" s="217"/>
     </row>
     <row r="21" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="323" t="s">
+      <c r="B21" s="315" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="396"/>
-      <c r="D21" s="396"/>
-      <c r="E21" s="396"/>
-      <c r="F21" s="396"/>
-      <c r="G21" s="324"/>
-      <c r="H21" s="390" t="str">
+      <c r="C21" s="374"/>
+      <c r="D21" s="374"/>
+      <c r="E21" s="374"/>
+      <c r="F21" s="374"/>
+      <c r="G21" s="316"/>
+      <c r="H21" s="372" t="str">
         <f t="shared" si="0"/>
         <v>12 - 36</v>
       </c>
-      <c r="I21" s="391"/>
+      <c r="I21" s="373"/>
       <c r="J21" s="266" t="s">
         <v>331</v>
       </c>
@@ -39587,19 +39652,19 @@
       <c r="AK21" s="217"/>
     </row>
     <row r="22" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="323" t="s">
+      <c r="B22" s="315" t="s">
         <v>319</v>
       </c>
-      <c r="C22" s="396"/>
-      <c r="D22" s="396"/>
-      <c r="E22" s="396"/>
-      <c r="F22" s="396"/>
-      <c r="G22" s="324"/>
-      <c r="H22" s="390">
+      <c r="C22" s="374"/>
+      <c r="D22" s="374"/>
+      <c r="E22" s="374"/>
+      <c r="F22" s="374"/>
+      <c r="G22" s="316"/>
+      <c r="H22" s="372">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="I22" s="391"/>
+      <c r="I22" s="373"/>
       <c r="J22" s="266" t="s">
         <v>3</v>
       </c>
@@ -39626,19 +39691,19 @@
       <c r="AK22" s="217"/>
     </row>
     <row r="23" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="323" t="s">
+      <c r="B23" s="315" t="s">
         <v>320</v>
       </c>
-      <c r="C23" s="396"/>
-      <c r="D23" s="396"/>
-      <c r="E23" s="396"/>
-      <c r="F23" s="396"/>
-      <c r="G23" s="324"/>
-      <c r="H23" s="390" t="str">
+      <c r="C23" s="374"/>
+      <c r="D23" s="374"/>
+      <c r="E23" s="374"/>
+      <c r="F23" s="374"/>
+      <c r="G23" s="316"/>
+      <c r="H23" s="372" t="str">
         <f t="shared" si="0"/>
         <v>2,4 - 3,0</v>
       </c>
-      <c r="I23" s="391"/>
+      <c r="I23" s="373"/>
       <c r="J23" s="266" t="s">
         <v>3</v>
       </c>
@@ -39663,19 +39728,19 @@
       <c r="AK23" s="217"/>
     </row>
     <row r="24" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="323" t="s">
+      <c r="B24" s="315" t="s">
         <v>330</v>
       </c>
-      <c r="C24" s="396"/>
-      <c r="D24" s="396"/>
-      <c r="E24" s="396"/>
-      <c r="F24" s="396"/>
-      <c r="G24" s="324"/>
-      <c r="H24" s="390" t="str">
+      <c r="C24" s="374"/>
+      <c r="D24" s="374"/>
+      <c r="E24" s="374"/>
+      <c r="F24" s="374"/>
+      <c r="G24" s="316"/>
+      <c r="H24" s="372" t="str">
         <f t="shared" si="0"/>
         <v>2 - 4</v>
       </c>
-      <c r="I24" s="391"/>
+      <c r="I24" s="373"/>
       <c r="J24" s="266" t="s">
         <v>332</v>
       </c>
@@ -39684,11 +39749,11 @@
       <c r="M24" s="236"/>
       <c r="N24" s="236"/>
       <c r="O24" s="236"/>
-      <c r="X24" s="493"/>
-      <c r="Y24" s="493"/>
+      <c r="X24" s="356"/>
+      <c r="Y24" s="356"/>
       <c r="Z24" s="207"/>
-      <c r="AA24" s="492"/>
-      <c r="AB24" s="492"/>
+      <c r="AA24" s="355"/>
+      <c r="AB24" s="355"/>
       <c r="AC24" s="113"/>
       <c r="AD24" s="217"/>
       <c r="AE24" s="217"/>
@@ -39700,20 +39765,20 @@
       <c r="AK24" s="217"/>
     </row>
     <row r="25" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="323" t="str">
+      <c r="B25" s="315" t="str">
         <f>IF($H$15=$AA$8,$X$17,IF($H$15=$AB$8,X17&amp;" (antracita)",IF($H$15="",X17&amp;" (antracita)")))</f>
         <v>Profundidad del medio</v>
       </c>
-      <c r="C25" s="396"/>
-      <c r="D25" s="396"/>
-      <c r="E25" s="396"/>
-      <c r="F25" s="396"/>
-      <c r="G25" s="324"/>
-      <c r="H25" s="390" t="str">
+      <c r="C25" s="374"/>
+      <c r="D25" s="374"/>
+      <c r="E25" s="374"/>
+      <c r="F25" s="374"/>
+      <c r="G25" s="316"/>
+      <c r="H25" s="372" t="str">
         <f t="shared" si="0"/>
         <v>0,60 - 0,75</v>
       </c>
-      <c r="I25" s="391"/>
+      <c r="I25" s="373"/>
       <c r="J25" s="266" t="s">
         <v>3</v>
       </c>
@@ -39722,11 +39787,11 @@
       <c r="M25" s="236"/>
       <c r="N25" s="236"/>
       <c r="O25" s="236"/>
-      <c r="X25" s="493"/>
-      <c r="Y25" s="493"/>
+      <c r="X25" s="356"/>
+      <c r="Y25" s="356"/>
       <c r="Z25" s="207"/>
-      <c r="AA25" s="492"/>
-      <c r="AB25" s="492"/>
+      <c r="AA25" s="355"/>
+      <c r="AB25" s="355"/>
       <c r="AC25" s="113"/>
       <c r="AD25" s="217"/>
       <c r="AE25" s="217"/>
@@ -39738,20 +39803,20 @@
       <c r="AK25" s="217"/>
     </row>
     <row r="26" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="323" t="str">
+      <c r="B26" s="315" t="str">
         <f>IF($H$15=$AA$8,$X$19,IF($H$15=$AB$8,X17&amp;" (arena)",IF($H$15="",X17&amp;" (arena)")))</f>
         <v>Profundidad de grava</v>
       </c>
-      <c r="C26" s="396"/>
-      <c r="D26" s="396"/>
-      <c r="E26" s="396"/>
-      <c r="F26" s="396"/>
-      <c r="G26" s="324"/>
-      <c r="H26" s="390" t="str">
+      <c r="C26" s="374"/>
+      <c r="D26" s="374"/>
+      <c r="E26" s="374"/>
+      <c r="F26" s="374"/>
+      <c r="G26" s="316"/>
+      <c r="H26" s="372" t="str">
         <f>IF($H$15=$AA$8,AA19,IF($H$15=$AB$8,AB18,""))</f>
         <v>0,30 - 0,45</v>
       </c>
-      <c r="I26" s="391"/>
+      <c r="I26" s="373"/>
       <c r="J26" s="266" t="s">
         <v>3</v>
       </c>
@@ -39760,11 +39825,11 @@
       <c r="M26" s="236"/>
       <c r="N26" s="236"/>
       <c r="O26" s="236"/>
-      <c r="X26" s="493"/>
-      <c r="Y26" s="493"/>
+      <c r="X26" s="356"/>
+      <c r="Y26" s="356"/>
       <c r="Z26" s="207"/>
-      <c r="AA26" s="492"/>
-      <c r="AB26" s="492"/>
+      <c r="AA26" s="355"/>
+      <c r="AB26" s="355"/>
       <c r="AD26" s="217"/>
       <c r="AE26" s="217"/>
       <c r="AF26" s="217"/>
@@ -39775,20 +39840,20 @@
       <c r="AK26" s="217"/>
     </row>
     <row r="27" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="323" t="str">
+      <c r="B27" s="315" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$X$19,IF($H$15="",$X$19)))</f>
         <v/>
       </c>
-      <c r="C27" s="396"/>
-      <c r="D27" s="396"/>
-      <c r="E27" s="396"/>
-      <c r="F27" s="396"/>
-      <c r="G27" s="396"/>
-      <c r="H27" s="390" t="str">
+      <c r="C27" s="374"/>
+      <c r="D27" s="374"/>
+      <c r="E27" s="374"/>
+      <c r="F27" s="374"/>
+      <c r="G27" s="374"/>
+      <c r="H27" s="372" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$AB$19,IF($H$15="","")))</f>
         <v/>
       </c>
-      <c r="I27" s="391"/>
+      <c r="I27" s="373"/>
       <c r="J27" s="267" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,"m",IF($H$15="","m")))</f>
         <v/>
@@ -39858,15 +39923,15 @@
       <c r="AB29" s="207"/>
     </row>
     <row r="30" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="329" t="s">
+      <c r="B30" s="333" t="s">
         <v>254</v>
       </c>
-      <c r="C30" s="329"/>
-      <c r="D30" s="329"/>
-      <c r="E30" s="329"/>
-      <c r="F30" s="329"/>
-      <c r="G30" s="329"/>
-      <c r="H30" s="329"/>
+      <c r="C30" s="333"/>
+      <c r="D30" s="333"/>
+      <c r="E30" s="333"/>
+      <c r="F30" s="333"/>
+      <c r="G30" s="333"/>
+      <c r="H30" s="333"/>
       <c r="I30" s="247" t="s">
         <v>251</v>
       </c>
@@ -39884,16 +39949,16 @@
       <c r="AB30" s="207"/>
     </row>
     <row r="31" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="329" t="str">
+      <c r="B31" s="333" t="str">
         <f>"Densidad del agua a "&amp;J30&amp;" °C"</f>
         <v>Densidad del agua a 3 °C</v>
       </c>
-      <c r="C31" s="329"/>
-      <c r="D31" s="329"/>
-      <c r="E31" s="329"/>
-      <c r="F31" s="329"/>
-      <c r="G31" s="329"/>
-      <c r="H31" s="329"/>
+      <c r="C31" s="333"/>
+      <c r="D31" s="333"/>
+      <c r="E31" s="333"/>
+      <c r="F31" s="333"/>
+      <c r="G31" s="333"/>
+      <c r="H31" s="333"/>
       <c r="I31" s="275" t="s">
         <v>250</v>
       </c>
@@ -39911,25 +39976,25 @@
       <c r="Y31" s="183" t="s">
         <v>312</v>
       </c>
-      <c r="Z31" s="474" t="s">
+      <c r="Z31" s="379" t="s">
         <v>248</v>
       </c>
-      <c r="AA31" s="474" t="s">
+      <c r="AA31" s="379" t="s">
         <v>246</v>
       </c>
       <c r="AB31" s="181"/>
     </row>
     <row r="32" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="329" t="str">
+      <c r="B32" s="333" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad dinámica del agua a 3 °C</v>
       </c>
-      <c r="C32" s="329"/>
-      <c r="D32" s="329"/>
-      <c r="E32" s="329"/>
-      <c r="F32" s="329"/>
-      <c r="G32" s="329"/>
-      <c r="H32" s="329"/>
+      <c r="C32" s="333"/>
+      <c r="D32" s="333"/>
+      <c r="E32" s="333"/>
+      <c r="F32" s="333"/>
+      <c r="G32" s="333"/>
+      <c r="H32" s="333"/>
       <c r="I32" s="275" t="s">
         <v>213</v>
       </c>
@@ -39947,21 +40012,21 @@
       <c r="Y32" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="Z32" s="475"/>
-      <c r="AA32" s="475"/>
+      <c r="Z32" s="380"/>
+      <c r="AA32" s="380"/>
       <c r="AB32" s="181"/>
     </row>
     <row r="33" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="392" t="str">
+      <c r="B33" s="489" t="str">
         <f>"Viscocidad cinemática del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad cinemática del agua a 3 °C</v>
       </c>
-      <c r="C33" s="392"/>
-      <c r="D33" s="392"/>
-      <c r="E33" s="392"/>
-      <c r="F33" s="392"/>
-      <c r="G33" s="392"/>
-      <c r="H33" s="392"/>
+      <c r="C33" s="489"/>
+      <c r="D33" s="489"/>
+      <c r="E33" s="489"/>
+      <c r="F33" s="489"/>
+      <c r="G33" s="489"/>
+      <c r="H33" s="489"/>
       <c r="I33" s="51" t="s">
         <v>2</v>
       </c>
@@ -40095,26 +40160,26 @@
       <c r="AB37" s="157"/>
     </row>
     <row r="38" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="401" t="s">
+      <c r="B38" s="426" t="s">
         <v>192</v>
       </c>
-      <c r="C38" s="402"/>
+      <c r="C38" s="427"/>
       <c r="D38" s="54"/>
       <c r="E38" s="248"/>
-      <c r="F38" s="388" t="s">
+      <c r="F38" s="359" t="s">
         <v>204</v>
       </c>
-      <c r="G38" s="388" t="s">
+      <c r="G38" s="359" t="s">
         <v>203</v>
       </c>
-      <c r="H38" s="447" t="s">
+      <c r="H38" s="455" t="s">
         <v>210</v>
       </c>
-      <c r="I38" s="448"/>
-      <c r="J38" s="447" t="s">
+      <c r="I38" s="456"/>
+      <c r="J38" s="455" t="s">
         <v>209</v>
       </c>
-      <c r="K38" s="448"/>
+      <c r="K38" s="456"/>
       <c r="L38" s="253"/>
       <c r="X38" s="165">
         <v>3</v>
@@ -40132,22 +40197,22 @@
       <c r="AB38" s="157"/>
     </row>
     <row r="39" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="403"/>
-      <c r="C39" s="404"/>
+      <c r="B39" s="428"/>
+      <c r="C39" s="429"/>
       <c r="D39" s="54"/>
       <c r="E39" s="248"/>
-      <c r="F39" s="407"/>
-      <c r="G39" s="407"/>
-      <c r="H39" s="388" t="s">
+      <c r="F39" s="360"/>
+      <c r="G39" s="360"/>
+      <c r="H39" s="359" t="s">
         <v>186</v>
       </c>
-      <c r="I39" s="388" t="s">
+      <c r="I39" s="359" t="s">
         <v>207</v>
       </c>
-      <c r="J39" s="388" t="s">
+      <c r="J39" s="359" t="s">
         <v>186</v>
       </c>
-      <c r="K39" s="388" t="s">
+      <c r="K39" s="359" t="s">
         <v>207</v>
       </c>
       <c r="L39" s="253"/>
@@ -40167,16 +40232,16 @@
       <c r="AB39" s="157"/>
     </row>
     <row r="40" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="403"/>
-      <c r="C40" s="404"/>
+      <c r="B40" s="428"/>
+      <c r="C40" s="429"/>
       <c r="D40" s="54"/>
       <c r="E40" s="248"/>
-      <c r="F40" s="407"/>
-      <c r="G40" s="407"/>
-      <c r="H40" s="407"/>
-      <c r="I40" s="407"/>
-      <c r="J40" s="407"/>
-      <c r="K40" s="407"/>
+      <c r="F40" s="360"/>
+      <c r="G40" s="360"/>
+      <c r="H40" s="360"/>
+      <c r="I40" s="360"/>
+      <c r="J40" s="360"/>
+      <c r="K40" s="360"/>
       <c r="L40" s="253"/>
       <c r="X40" s="165">
         <v>5</v>
@@ -40194,16 +40259,16 @@
       <c r="AB40" s="157"/>
     </row>
     <row r="41" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="405"/>
-      <c r="C41" s="406"/>
+      <c r="B41" s="430"/>
+      <c r="C41" s="431"/>
       <c r="D41" s="54"/>
       <c r="E41" s="248"/>
-      <c r="F41" s="389"/>
-      <c r="G41" s="389"/>
-      <c r="H41" s="389"/>
-      <c r="I41" s="389"/>
-      <c r="J41" s="389"/>
-      <c r="K41" s="389"/>
+      <c r="F41" s="361"/>
+      <c r="G41" s="361"/>
+      <c r="H41" s="361"/>
+      <c r="I41" s="361"/>
+      <c r="J41" s="361"/>
+      <c r="K41" s="361"/>
       <c r="L41" s="253"/>
       <c r="X41" s="165">
         <v>6</v>
@@ -40221,10 +40286,10 @@
       <c r="AB41" s="157"/>
     </row>
     <row r="42" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="390" t="s">
+      <c r="B42" s="372" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="391"/>
+      <c r="C42" s="373"/>
       <c r="D42" s="128">
         <f>LEFT(B42,2)+0</f>
         <v>14</v>
@@ -40275,10 +40340,10 @@
       <c r="AB42" s="157"/>
     </row>
     <row r="43" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="390" t="s">
+      <c r="B43" s="372" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="391"/>
+      <c r="C43" s="373"/>
       <c r="D43" s="128">
         <f t="shared" ref="D43:D50" si="3">LEFT(B43,2)+0</f>
         <v>20</v>
@@ -40329,10 +40394,10 @@
       <c r="AB43" s="157"/>
     </row>
     <row r="44" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="390" t="s">
+      <c r="B44" s="372" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="391"/>
+      <c r="C44" s="373"/>
       <c r="D44" s="128">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -40383,10 +40448,10 @@
       <c r="AB44" s="157"/>
     </row>
     <row r="45" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="390" t="s">
+      <c r="B45" s="372" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="391"/>
+      <c r="C45" s="373"/>
       <c r="D45" s="128">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -40437,10 +40502,10 @@
       <c r="AB45" s="157"/>
     </row>
     <row r="46" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="390" t="s">
+      <c r="B46" s="372" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="391"/>
+      <c r="C46" s="373"/>
       <c r="D46" s="128">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -40491,10 +40556,10 @@
       <c r="AB46" s="157"/>
     </row>
     <row r="47" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="390" t="s">
+      <c r="B47" s="372" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="391"/>
+      <c r="C47" s="373"/>
       <c r="D47" s="128">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -40545,10 +40610,10 @@
       <c r="AB47" s="157"/>
     </row>
     <row r="48" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="390" t="s">
+      <c r="B48" s="372" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="391"/>
+      <c r="C48" s="373"/>
       <c r="D48" s="128">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -40599,10 +40664,10 @@
       <c r="AB48" s="157"/>
     </row>
     <row r="49" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="390" t="s">
+      <c r="B49" s="372" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="391"/>
+      <c r="C49" s="373"/>
       <c r="D49" s="128">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -40653,10 +40718,10 @@
       <c r="AB49" s="157"/>
     </row>
     <row r="50" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="390" t="s">
+      <c r="B50" s="372" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="391"/>
+      <c r="C50" s="373"/>
       <c r="D50" s="128">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -40761,20 +40826,20 @@
       <c r="AB52" s="157"/>
     </row>
     <row r="53" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="399"/>
-      <c r="C53" s="399"/>
+      <c r="B53" s="470"/>
+      <c r="C53" s="470"/>
       <c r="D53" s="54"/>
       <c r="E53" s="248"/>
-      <c r="F53" s="387" t="s">
+      <c r="F53" s="452" t="s">
         <v>186</v>
       </c>
-      <c r="G53" s="387" t="s">
+      <c r="G53" s="452" t="s">
         <v>207</v>
       </c>
-      <c r="H53" s="398"/>
-      <c r="I53" s="398"/>
-      <c r="J53" s="398"/>
-      <c r="K53" s="397" t="s">
+      <c r="H53" s="454"/>
+      <c r="I53" s="454"/>
+      <c r="J53" s="454"/>
+      <c r="K53" s="453" t="s">
         <v>349</v>
       </c>
       <c r="L53" s="253"/>
@@ -40794,16 +40859,16 @@
       <c r="AB53" s="157"/>
     </row>
     <row r="54" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="399"/>
-      <c r="C54" s="399"/>
+      <c r="B54" s="470"/>
+      <c r="C54" s="470"/>
       <c r="D54" s="54"/>
       <c r="E54" s="248"/>
-      <c r="F54" s="387"/>
-      <c r="G54" s="387"/>
-      <c r="H54" s="398"/>
-      <c r="I54" s="398"/>
-      <c r="J54" s="398"/>
-      <c r="K54" s="397"/>
+      <c r="F54" s="452"/>
+      <c r="G54" s="452"/>
+      <c r="H54" s="454"/>
+      <c r="I54" s="454"/>
+      <c r="J54" s="454"/>
+      <c r="K54" s="453"/>
       <c r="L54" s="253"/>
       <c r="X54" s="165">
         <v>19</v>
@@ -40822,16 +40887,16 @@
       <c r="AD54" s="172"/>
     </row>
     <row r="55" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="399"/>
-      <c r="C55" s="399"/>
+      <c r="B55" s="470"/>
+      <c r="C55" s="470"/>
       <c r="D55" s="54"/>
       <c r="E55" s="248"/>
-      <c r="F55" s="387"/>
-      <c r="G55" s="387"/>
-      <c r="H55" s="398"/>
-      <c r="I55" s="398"/>
-      <c r="J55" s="398"/>
-      <c r="K55" s="397"/>
+      <c r="F55" s="452"/>
+      <c r="G55" s="452"/>
+      <c r="H55" s="454"/>
+      <c r="I55" s="454"/>
+      <c r="J55" s="454"/>
+      <c r="K55" s="453"/>
       <c r="L55" s="253"/>
       <c r="X55" s="167">
         <v>20</v>
@@ -40850,10 +40915,10 @@
       <c r="AD55" s="172"/>
     </row>
     <row r="56" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="398" t="s">
+      <c r="B56" s="454" t="s">
         <v>350</v>
       </c>
-      <c r="C56" s="398"/>
+      <c r="C56" s="454"/>
       <c r="D56" s="54"/>
       <c r="E56" s="248"/>
       <c r="F56" s="114">
@@ -40864,13 +40929,13 @@
         <f>VLOOKUP(F56,J$42:K$50,2,FALSE)</f>
         <v>2.0699999999999932</v>
       </c>
-      <c r="H56" s="399">
+      <c r="H56" s="470">
         <f>(LOG(F56)+((10-G56)/(G57-G56))*LOG(F57/F56))</f>
         <v>-0.61321454811239473</v>
       </c>
-      <c r="I56" s="399"/>
-      <c r="J56" s="399"/>
-      <c r="K56" s="398">
+      <c r="I56" s="470"/>
+      <c r="J56" s="470"/>
+      <c r="K56" s="454">
         <f>10^(H56)</f>
         <v>0.2436606799987964</v>
       </c>
@@ -40891,10 +40956,10 @@
       <c r="AB56" s="157"/>
     </row>
     <row r="57" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="398" t="s">
+      <c r="B57" s="454" t="s">
         <v>351</v>
       </c>
-      <c r="C57" s="398"/>
+      <c r="C57" s="454"/>
       <c r="D57" s="54"/>
       <c r="E57" s="248"/>
       <c r="F57" s="114">
@@ -40905,10 +40970,10 @@
         <f>VLOOKUP(F57,J$42:K$50,2,FALSE)</f>
         <v>11.36999999999999</v>
       </c>
-      <c r="H57" s="399"/>
-      <c r="I57" s="399"/>
-      <c r="J57" s="399"/>
-      <c r="K57" s="398"/>
+      <c r="H57" s="470"/>
+      <c r="I57" s="470"/>
+      <c r="J57" s="470"/>
+      <c r="K57" s="454"/>
       <c r="L57" s="253"/>
       <c r="X57" s="165">
         <v>22</v>
@@ -40982,20 +41047,20 @@
       <c r="AB59" s="157"/>
     </row>
     <row r="60" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="399"/>
-      <c r="C60" s="399"/>
+      <c r="B60" s="470"/>
+      <c r="C60" s="470"/>
       <c r="D60" s="54"/>
       <c r="E60" s="248"/>
-      <c r="F60" s="387" t="s">
+      <c r="F60" s="452" t="s">
         <v>186</v>
       </c>
-      <c r="G60" s="387" t="s">
+      <c r="G60" s="452" t="s">
         <v>207</v>
       </c>
-      <c r="H60" s="398"/>
-      <c r="I60" s="398"/>
-      <c r="J60" s="398"/>
-      <c r="K60" s="397" t="s">
+      <c r="H60" s="454"/>
+      <c r="I60" s="454"/>
+      <c r="J60" s="454"/>
+      <c r="K60" s="453" t="s">
         <v>353</v>
       </c>
       <c r="L60" s="253"/>
@@ -41015,16 +41080,16 @@
       <c r="AB60" s="157"/>
     </row>
     <row r="61" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="399"/>
-      <c r="C61" s="399"/>
+      <c r="B61" s="470"/>
+      <c r="C61" s="470"/>
       <c r="D61" s="54"/>
       <c r="E61" s="248"/>
-      <c r="F61" s="387"/>
-      <c r="G61" s="387"/>
-      <c r="H61" s="398"/>
-      <c r="I61" s="398"/>
-      <c r="J61" s="398"/>
-      <c r="K61" s="397"/>
+      <c r="F61" s="452"/>
+      <c r="G61" s="452"/>
+      <c r="H61" s="454"/>
+      <c r="I61" s="454"/>
+      <c r="J61" s="454"/>
+      <c r="K61" s="453"/>
       <c r="L61" s="253"/>
       <c r="X61" s="165">
         <v>26</v>
@@ -41042,16 +41107,16 @@
       <c r="AB61" s="157"/>
     </row>
     <row r="62" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="399"/>
-      <c r="C62" s="399"/>
+      <c r="B62" s="470"/>
+      <c r="C62" s="470"/>
       <c r="D62" s="54"/>
       <c r="E62" s="248"/>
-      <c r="F62" s="387"/>
-      <c r="G62" s="387"/>
-      <c r="H62" s="398"/>
-      <c r="I62" s="398"/>
-      <c r="J62" s="398"/>
-      <c r="K62" s="397"/>
+      <c r="F62" s="452"/>
+      <c r="G62" s="452"/>
+      <c r="H62" s="454"/>
+      <c r="I62" s="454"/>
+      <c r="J62" s="454"/>
+      <c r="K62" s="453"/>
       <c r="L62" s="253"/>
       <c r="X62" s="165">
         <v>27</v>
@@ -41069,10 +41134,10 @@
       <c r="AB62" s="157"/>
     </row>
     <row r="63" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="398" t="s">
+      <c r="B63" s="454" t="s">
         <v>350</v>
       </c>
-      <c r="C63" s="398"/>
+      <c r="C63" s="454"/>
       <c r="D63" s="54"/>
       <c r="E63" s="248"/>
       <c r="F63" s="114">
@@ -41083,13 +41148,13 @@
         <f>VLOOKUP(F63,J$42:K$50,2,FALSE)</f>
         <v>45.269999999999996</v>
       </c>
-      <c r="H63" s="399">
+      <c r="H63" s="470">
         <f>(LOG(F63)+((60-G63)/(G64-G63))*LOG(F64/F63))</f>
         <v>-0.31867934839393264</v>
       </c>
-      <c r="I63" s="399"/>
-      <c r="J63" s="399"/>
-      <c r="K63" s="398">
+      <c r="I63" s="470"/>
+      <c r="J63" s="470"/>
+      <c r="K63" s="454">
         <f>10^(H63)</f>
         <v>0.48008777987655482</v>
       </c>
@@ -41110,10 +41175,10 @@
       <c r="AB63" s="157"/>
     </row>
     <row r="64" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="398" t="s">
+      <c r="B64" s="454" t="s">
         <v>351</v>
       </c>
-      <c r="C64" s="398"/>
+      <c r="C64" s="454"/>
       <c r="D64" s="54"/>
       <c r="E64" s="248"/>
       <c r="F64" s="114">
@@ -41124,10 +41189,10 @@
         <f>VLOOKUP(F64,J$42:K$50,2,FALSE)</f>
         <v>63.28</v>
       </c>
-      <c r="H64" s="399"/>
-      <c r="I64" s="399"/>
-      <c r="J64" s="399"/>
-      <c r="K64" s="398"/>
+      <c r="H64" s="470"/>
+      <c r="I64" s="470"/>
+      <c r="J64" s="470"/>
+      <c r="K64" s="454"/>
       <c r="L64" s="253"/>
       <c r="X64" s="165">
         <v>29</v>
@@ -41201,19 +41266,19 @@
       <c r="AB66" s="157"/>
     </row>
     <row r="67" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="401" t="s">
+      <c r="B67" s="426" t="s">
         <v>354</v>
       </c>
-      <c r="C67" s="402"/>
+      <c r="C67" s="427"/>
       <c r="D67" s="54"/>
       <c r="E67" s="248"/>
-      <c r="F67" s="401" t="s">
+      <c r="F67" s="426" t="s">
         <v>353</v>
       </c>
-      <c r="G67" s="423" t="s">
+      <c r="G67" s="485" t="s">
         <v>211</v>
       </c>
-      <c r="H67" s="423"/>
+      <c r="H67" s="485"/>
       <c r="I67" s="249"/>
       <c r="J67" s="249"/>
       <c r="K67" s="135"/>
@@ -41234,13 +41299,13 @@
       <c r="AB67" s="157"/>
     </row>
     <row r="68" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="403"/>
-      <c r="C68" s="404"/>
+      <c r="B68" s="428"/>
+      <c r="C68" s="429"/>
       <c r="D68" s="54"/>
       <c r="E68" s="248"/>
-      <c r="F68" s="403"/>
-      <c r="G68" s="423"/>
-      <c r="H68" s="423"/>
+      <c r="F68" s="428"/>
+      <c r="G68" s="485"/>
+      <c r="H68" s="485"/>
       <c r="I68" s="249"/>
       <c r="J68" s="249"/>
       <c r="K68" s="135"/>
@@ -41262,13 +41327,13 @@
       <c r="AB68" s="157"/>
     </row>
     <row r="69" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="405"/>
-      <c r="C69" s="406"/>
+      <c r="B69" s="430"/>
+      <c r="C69" s="431"/>
       <c r="D69" s="54"/>
       <c r="E69" s="248"/>
-      <c r="F69" s="405"/>
-      <c r="G69" s="423"/>
-      <c r="H69" s="423"/>
+      <c r="F69" s="430"/>
+      <c r="G69" s="485"/>
+      <c r="H69" s="485"/>
       <c r="I69" s="249"/>
       <c r="J69" s="249"/>
       <c r="K69" s="135"/>
@@ -41290,22 +41355,22 @@
       <c r="AB69" s="157"/>
     </row>
     <row r="70" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="398">
+      <c r="B70" s="454">
         <f>K56</f>
         <v>0.2436606799987964</v>
       </c>
-      <c r="C70" s="398"/>
+      <c r="C70" s="454"/>
       <c r="D70" s="54"/>
       <c r="E70" s="248"/>
       <c r="F70" s="114">
         <f>K63</f>
         <v>0.48008777987655482</v>
       </c>
-      <c r="G70" s="424">
+      <c r="G70" s="486">
         <f>F70/B70</f>
         <v>1.9703128952891631</v>
       </c>
-      <c r="H70" s="424"/>
+      <c r="H70" s="486"/>
       <c r="I70" s="249"/>
       <c r="J70" s="249"/>
       <c r="K70" s="135"/>
@@ -41348,15 +41413,15 @@
       <c r="AB72" s="157"/>
     </row>
     <row r="73" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="382" t="s">
+      <c r="B73" s="432" t="s">
         <v>358</v>
       </c>
-      <c r="C73" s="383"/>
-      <c r="D73" s="383"/>
-      <c r="E73" s="383"/>
-      <c r="F73" s="383"/>
-      <c r="G73" s="383"/>
-      <c r="H73" s="384"/>
+      <c r="C73" s="433"/>
+      <c r="D73" s="433"/>
+      <c r="E73" s="433"/>
+      <c r="F73" s="433"/>
+      <c r="G73" s="433"/>
+      <c r="H73" s="434"/>
       <c r="I73" s="206" t="s">
         <v>181</v>
       </c>
@@ -41368,6 +41433,9 @@
         <v>228</v>
       </c>
       <c r="L73" s="309"/>
+      <c r="M73" s="108" t="s">
+        <v>413</v>
+      </c>
       <c r="W73" s="113"/>
       <c r="X73" s="113"/>
       <c r="Y73" s="113"/>
@@ -41375,15 +41443,15 @@
       <c r="AA73" s="113"/>
     </row>
     <row r="74" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="382" t="s">
+      <c r="B74" s="432" t="s">
         <v>287</v>
       </c>
-      <c r="C74" s="383"/>
-      <c r="D74" s="383"/>
-      <c r="E74" s="383"/>
-      <c r="F74" s="383"/>
-      <c r="G74" s="383"/>
-      <c r="H74" s="384"/>
+      <c r="C74" s="433"/>
+      <c r="D74" s="433"/>
+      <c r="E74" s="433"/>
+      <c r="F74" s="433"/>
+      <c r="G74" s="433"/>
+      <c r="H74" s="434"/>
       <c r="I74" s="251" t="s">
         <v>88</v>
       </c>
@@ -41401,15 +41469,15 @@
       <c r="AA74" s="113"/>
     </row>
     <row r="75" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="382" t="s">
+      <c r="B75" s="432" t="s">
         <v>283</v>
       </c>
-      <c r="C75" s="383"/>
-      <c r="D75" s="383"/>
-      <c r="E75" s="383"/>
-      <c r="F75" s="383"/>
-      <c r="G75" s="383"/>
-      <c r="H75" s="384"/>
+      <c r="C75" s="433"/>
+      <c r="D75" s="433"/>
+      <c r="E75" s="433"/>
+      <c r="F75" s="433"/>
+      <c r="G75" s="433"/>
+      <c r="H75" s="434"/>
       <c r="I75" s="251" t="s">
         <v>284</v>
       </c>
@@ -41425,15 +41493,15 @@
       <c r="AA75" s="113"/>
     </row>
     <row r="76" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="382" t="s">
+      <c r="B76" s="432" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="383"/>
-      <c r="D76" s="383"/>
-      <c r="E76" s="383"/>
-      <c r="F76" s="383"/>
-      <c r="G76" s="383"/>
-      <c r="H76" s="384"/>
+      <c r="C76" s="433"/>
+      <c r="D76" s="433"/>
+      <c r="E76" s="433"/>
+      <c r="F76" s="433"/>
+      <c r="G76" s="433"/>
+      <c r="H76" s="434"/>
       <c r="I76" s="251" t="s">
         <v>240</v>
       </c>
@@ -41449,15 +41517,15 @@
       <c r="AA76" s="113"/>
     </row>
     <row r="77" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="382" t="s">
+      <c r="B77" s="432" t="s">
         <v>190</v>
       </c>
-      <c r="C77" s="383"/>
-      <c r="D77" s="383"/>
-      <c r="E77" s="383"/>
-      <c r="F77" s="383"/>
-      <c r="G77" s="383"/>
-      <c r="H77" s="384"/>
+      <c r="C77" s="433"/>
+      <c r="D77" s="433"/>
+      <c r="E77" s="433"/>
+      <c r="F77" s="433"/>
+      <c r="G77" s="433"/>
+      <c r="H77" s="434"/>
       <c r="I77" s="251" t="s">
         <v>191</v>
       </c>
@@ -41473,15 +41541,15 @@
       <c r="AA77" s="113"/>
     </row>
     <row r="78" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="382" t="s">
+      <c r="B78" s="432" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="383"/>
-      <c r="D78" s="383"/>
-      <c r="E78" s="383"/>
-      <c r="F78" s="383"/>
-      <c r="G78" s="383"/>
-      <c r="H78" s="384"/>
+      <c r="C78" s="433"/>
+      <c r="D78" s="433"/>
+      <c r="E78" s="433"/>
+      <c r="F78" s="433"/>
+      <c r="G78" s="433"/>
+      <c r="H78" s="434"/>
       <c r="I78" s="252" t="s">
         <v>189</v>
       </c>
@@ -41497,15 +41565,15 @@
       <c r="AA78" s="113"/>
     </row>
     <row r="79" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="382" t="s">
+      <c r="B79" s="432" t="s">
         <v>230</v>
       </c>
-      <c r="C79" s="383"/>
-      <c r="D79" s="383"/>
-      <c r="E79" s="383"/>
-      <c r="F79" s="383"/>
-      <c r="G79" s="383"/>
-      <c r="H79" s="384"/>
+      <c r="C79" s="433"/>
+      <c r="D79" s="433"/>
+      <c r="E79" s="433"/>
+      <c r="F79" s="433"/>
+      <c r="G79" s="433"/>
+      <c r="H79" s="434"/>
       <c r="I79" s="252" t="s">
         <v>189</v>
       </c>
@@ -41521,15 +41589,15 @@
       <c r="AA79" s="113"/>
     </row>
     <row r="80" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="382" t="s">
+      <c r="B80" s="432" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="383"/>
-      <c r="D80" s="383"/>
-      <c r="E80" s="383"/>
-      <c r="F80" s="383"/>
-      <c r="G80" s="383"/>
-      <c r="H80" s="384"/>
+      <c r="C80" s="433"/>
+      <c r="D80" s="433"/>
+      <c r="E80" s="433"/>
+      <c r="F80" s="433"/>
+      <c r="G80" s="433"/>
+      <c r="H80" s="434"/>
       <c r="I80" s="151" t="s">
         <v>238</v>
       </c>
@@ -41611,139 +41679,139 @@
       <c r="Z83" s="109"/>
     </row>
     <row r="84" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="401" t="s">
+      <c r="B84" s="426" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="402"/>
-      <c r="D84" s="387"/>
-      <c r="E84" s="388"/>
-      <c r="F84" s="388" t="s">
+      <c r="C84" s="427"/>
+      <c r="D84" s="452"/>
+      <c r="E84" s="359"/>
+      <c r="F84" s="359" t="s">
         <v>204</v>
       </c>
-      <c r="G84" s="388" t="s">
+      <c r="G84" s="359" t="s">
         <v>205</v>
       </c>
-      <c r="H84" s="388" t="s">
+      <c r="H84" s="359" t="s">
         <v>206</v>
       </c>
-      <c r="I84" s="408" t="s">
+      <c r="I84" s="473" t="s">
         <v>208</v>
       </c>
-      <c r="J84" s="393" t="s">
+      <c r="J84" s="490" t="s">
         <v>182</v>
       </c>
-      <c r="K84" s="394"/>
-      <c r="L84" s="394"/>
-      <c r="M84" s="395"/>
-      <c r="N84" s="458" t="s">
+      <c r="K84" s="491"/>
+      <c r="L84" s="491"/>
+      <c r="M84" s="492"/>
+      <c r="N84" s="466" t="s">
         <v>183</v>
       </c>
-      <c r="O84" s="459"/>
-      <c r="P84" s="459"/>
-      <c r="Q84" s="459"/>
-      <c r="R84" s="460"/>
-      <c r="S84" s="498" t="s">
+      <c r="O84" s="467"/>
+      <c r="P84" s="467"/>
+      <c r="Q84" s="467"/>
+      <c r="R84" s="468"/>
+      <c r="S84" s="365" t="s">
         <v>184</v>
       </c>
-      <c r="T84" s="498"/>
-      <c r="U84" s="498"/>
-      <c r="V84" s="498"/>
+      <c r="T84" s="365"/>
+      <c r="U84" s="365"/>
+      <c r="V84" s="365"/>
       <c r="W84" s="112"/>
-      <c r="X84" s="388" t="s">
+      <c r="X84" s="359" t="s">
         <v>185</v>
       </c>
-      <c r="Y84" s="388" t="s">
+      <c r="Y84" s="359" t="s">
         <v>186</v>
       </c>
       <c r="Z84" s="109"/>
     </row>
     <row r="85" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="403"/>
-      <c r="C85" s="404"/>
-      <c r="D85" s="387"/>
-      <c r="E85" s="389"/>
-      <c r="F85" s="407"/>
-      <c r="G85" s="407"/>
-      <c r="H85" s="407"/>
-      <c r="I85" s="409"/>
-      <c r="J85" s="434" t="s">
+      <c r="B85" s="428"/>
+      <c r="C85" s="429"/>
+      <c r="D85" s="452"/>
+      <c r="E85" s="361"/>
+      <c r="F85" s="360"/>
+      <c r="G85" s="360"/>
+      <c r="H85" s="360"/>
+      <c r="I85" s="474"/>
+      <c r="J85" s="369" t="s">
         <v>187</v>
       </c>
-      <c r="K85" s="449"/>
-      <c r="L85" s="455"/>
-      <c r="M85" s="450"/>
-      <c r="N85" s="461"/>
-      <c r="O85" s="449"/>
-      <c r="P85" s="450"/>
-      <c r="Q85" s="434" t="s">
+      <c r="K85" s="457"/>
+      <c r="L85" s="463"/>
+      <c r="M85" s="458"/>
+      <c r="N85" s="469"/>
+      <c r="O85" s="457"/>
+      <c r="P85" s="458"/>
+      <c r="Q85" s="369" t="s">
         <v>188</v>
       </c>
-      <c r="R85" s="462"/>
-      <c r="S85" s="462"/>
-      <c r="T85" s="462"/>
-      <c r="U85" s="434" t="s">
+      <c r="R85" s="366"/>
+      <c r="S85" s="366"/>
+      <c r="T85" s="366"/>
+      <c r="U85" s="369" t="s">
         <v>188</v>
       </c>
-      <c r="V85" s="462"/>
-      <c r="X85" s="407"/>
-      <c r="Y85" s="407"/>
+      <c r="V85" s="366"/>
+      <c r="X85" s="360"/>
+      <c r="Y85" s="360"/>
     </row>
     <row r="86" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="403"/>
-      <c r="C86" s="404"/>
+      <c r="B86" s="428"/>
+      <c r="C86" s="429"/>
       <c r="D86" s="123"/>
       <c r="E86" s="124"/>
-      <c r="F86" s="407"/>
-      <c r="G86" s="407"/>
-      <c r="H86" s="407"/>
-      <c r="I86" s="409"/>
-      <c r="J86" s="435"/>
-      <c r="K86" s="451"/>
-      <c r="L86" s="456"/>
-      <c r="M86" s="452"/>
-      <c r="N86" s="461"/>
-      <c r="O86" s="451"/>
-      <c r="P86" s="452"/>
-      <c r="Q86" s="435"/>
-      <c r="R86" s="463"/>
-      <c r="S86" s="463"/>
-      <c r="T86" s="463"/>
-      <c r="U86" s="435"/>
-      <c r="V86" s="463"/>
-      <c r="X86" s="407"/>
-      <c r="Y86" s="407"/>
+      <c r="F86" s="360"/>
+      <c r="G86" s="360"/>
+      <c r="H86" s="360"/>
+      <c r="I86" s="474"/>
+      <c r="J86" s="370"/>
+      <c r="K86" s="459"/>
+      <c r="L86" s="464"/>
+      <c r="M86" s="460"/>
+      <c r="N86" s="469"/>
+      <c r="O86" s="459"/>
+      <c r="P86" s="460"/>
+      <c r="Q86" s="370"/>
+      <c r="R86" s="367"/>
+      <c r="S86" s="367"/>
+      <c r="T86" s="367"/>
+      <c r="U86" s="370"/>
+      <c r="V86" s="367"/>
+      <c r="X86" s="360"/>
+      <c r="Y86" s="360"/>
     </row>
     <row r="87" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="405"/>
-      <c r="C87" s="406"/>
+      <c r="B87" s="430"/>
+      <c r="C87" s="431"/>
       <c r="D87" s="123"/>
       <c r="E87" s="124"/>
-      <c r="F87" s="389"/>
-      <c r="G87" s="389"/>
-      <c r="H87" s="389"/>
-      <c r="I87" s="410"/>
-      <c r="J87" s="436"/>
-      <c r="K87" s="453"/>
-      <c r="L87" s="457"/>
-      <c r="M87" s="454"/>
-      <c r="N87" s="461"/>
-      <c r="O87" s="453"/>
-      <c r="P87" s="454"/>
-      <c r="Q87" s="436"/>
-      <c r="R87" s="464"/>
-      <c r="S87" s="464"/>
-      <c r="T87" s="464"/>
-      <c r="U87" s="436"/>
-      <c r="V87" s="464"/>
-      <c r="X87" s="389"/>
-      <c r="Y87" s="389"/>
+      <c r="F87" s="361"/>
+      <c r="G87" s="361"/>
+      <c r="H87" s="361"/>
+      <c r="I87" s="475"/>
+      <c r="J87" s="371"/>
+      <c r="K87" s="461"/>
+      <c r="L87" s="465"/>
+      <c r="M87" s="462"/>
+      <c r="N87" s="469"/>
+      <c r="O87" s="461"/>
+      <c r="P87" s="462"/>
+      <c r="Q87" s="371"/>
+      <c r="R87" s="368"/>
+      <c r="S87" s="368"/>
+      <c r="T87" s="368"/>
+      <c r="U87" s="371"/>
+      <c r="V87" s="368"/>
+      <c r="X87" s="361"/>
+      <c r="Y87" s="361"/>
     </row>
     <row r="88" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="390" t="str">
+      <c r="B88" s="372" t="str">
         <f t="shared" ref="B88:B96" si="6">B42</f>
         <v>14-20</v>
       </c>
-      <c r="C88" s="391"/>
+      <c r="C88" s="373"/>
       <c r="D88" s="128">
         <f>LEFT(B88,2)+0</f>
         <v>14</v>
@@ -41772,26 +41840,26 @@
         <f t="shared" ref="J88:J96" si="10">(F88/100)/((I88/1000)^2)</f>
         <v>6746.44335939147</v>
       </c>
-      <c r="K88" s="411" t="str">
+      <c r="K88" s="476" t="str">
         <f>ROUND((J77*J33*((1-J76)^2)/(J76^3)*(J74*(J73/3600))/9.806*((6/J78)^2)*J97),4)&amp;" m"</f>
         <v>1.1339 m</v>
       </c>
-      <c r="L88" s="412"/>
-      <c r="M88" s="413"/>
+      <c r="L88" s="477"/>
+      <c r="M88" s="478"/>
       <c r="N88" s="103">
         <f t="shared" ref="N88:N96" si="11">$J$79*(I88/1000)*($J$73/3600)/$J$33</f>
         <v>0.99256086514638053</v>
       </c>
-      <c r="O88" s="445">
+      <c r="O88" s="406">
         <f>150*(1-$J$76)/N88+1.75</f>
         <v>84.868328454178069</v>
       </c>
-      <c r="P88" s="446"/>
+      <c r="P88" s="407"/>
       <c r="Q88" s="116">
         <f t="shared" ref="Q88:Q96" si="12">O88*(F88/100)/(I88/1000)</f>
         <v>623.48797422856558</v>
       </c>
-      <c r="R88" s="494" t="str">
+      <c r="R88" s="357" t="str">
         <f>ROUND((1/J79*(1-J76)/(J76^3)*J74*((J73/3600)^2)/9.806*Q97),4)&amp; " m"</f>
         <v>0.951 m</v>
       </c>
@@ -41807,7 +41875,7 @@
         <f t="shared" ref="U88:U96" si="14">T88*(F88/100)/(I88/1000)</f>
         <v>173.88585816662274</v>
       </c>
-      <c r="V88" s="494" t="str">
+      <c r="V88" s="357" t="str">
         <f>ROUND((0.178*((J73/3600)^2)*J74*1/(9.806*(J76^4))*J80*U97),4)&amp;" m"</f>
         <v>0.9548 m</v>
       </c>
@@ -41822,11 +41890,11 @@
       <c r="AM88" s="155"/>
     </row>
     <row r="89" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="390" t="str">
+      <c r="B89" s="372" t="str">
         <f t="shared" si="6"/>
         <v>20-25</v>
       </c>
-      <c r="C89" s="391"/>
+      <c r="C89" s="373"/>
       <c r="D89" s="128">
         <f t="shared" ref="D89:D96" si="15">LEFT(B89,2)+0</f>
         <v>20</v>
@@ -41855,23 +41923,23 @@
         <f t="shared" si="10"/>
         <v>71478.185698644607</v>
       </c>
-      <c r="K89" s="414"/>
-      <c r="L89" s="415"/>
-      <c r="M89" s="416"/>
+      <c r="K89" s="479"/>
+      <c r="L89" s="480"/>
+      <c r="M89" s="481"/>
       <c r="N89" s="103">
         <f t="shared" si="11"/>
         <v>0.70284134041417956</v>
       </c>
-      <c r="O89" s="445">
+      <c r="O89" s="406">
         <f t="shared" ref="O89:O96" si="18">150*(1-$J$76)/N89+1.75</f>
         <v>119.13068786816569</v>
       </c>
-      <c r="P89" s="446"/>
+      <c r="P89" s="407"/>
       <c r="Q89" s="116">
         <f t="shared" si="12"/>
         <v>6566.0604193475147</v>
       </c>
-      <c r="R89" s="494"/>
+      <c r="R89" s="357"/>
       <c r="S89" s="117">
         <f t="shared" si="13"/>
         <v>0.82687216519315243</v>
@@ -41884,7 +41952,7 @@
         <f t="shared" si="14"/>
         <v>1800.334303150498</v>
       </c>
-      <c r="V89" s="494"/>
+      <c r="V89" s="357"/>
       <c r="X89" s="46">
         <v>100</v>
       </c>
@@ -41896,11 +41964,11 @@
       <c r="AM89" s="155"/>
     </row>
     <row r="90" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="390" t="str">
+      <c r="B90" s="372" t="str">
         <f t="shared" si="6"/>
         <v>25-30</v>
       </c>
-      <c r="C90" s="391"/>
+      <c r="C90" s="373"/>
       <c r="D90" s="128">
         <f t="shared" si="15"/>
         <v>25</v>
@@ -41929,23 +41997,23 @@
         <f t="shared" si="10"/>
         <v>357053.7125741386</v>
       </c>
-      <c r="K90" s="414"/>
-      <c r="L90" s="415"/>
-      <c r="M90" s="416"/>
+      <c r="K90" s="479"/>
+      <c r="L90" s="480"/>
+      <c r="M90" s="481"/>
       <c r="N90" s="103">
         <f t="shared" si="11"/>
         <v>0.59117734575652048</v>
       </c>
-      <c r="O90" s="445">
+      <c r="O90" s="406">
         <f t="shared" si="18"/>
         <v>141.3020322153516</v>
       </c>
-      <c r="P90" s="446"/>
+      <c r="P90" s="407"/>
       <c r="Q90" s="116">
         <f t="shared" si="12"/>
         <v>32722.776859257607</v>
       </c>
-      <c r="R90" s="494"/>
+      <c r="R90" s="357"/>
       <c r="S90" s="117">
         <f t="shared" si="13"/>
         <v>0.69550275971355346</v>
@@ -41958,7 +42026,7 @@
         <f t="shared" si="14"/>
         <v>8903.0312574751879</v>
       </c>
-      <c r="V90" s="494"/>
+      <c r="V90" s="357"/>
       <c r="X90" s="46">
         <v>80</v>
       </c>
@@ -41970,11 +42038,11 @@
       <c r="AM90" s="155"/>
     </row>
     <row r="91" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="390" t="str">
+      <c r="B91" s="372" t="str">
         <f t="shared" si="6"/>
         <v>30-35</v>
       </c>
-      <c r="C91" s="391"/>
+      <c r="C91" s="373"/>
       <c r="D91" s="128">
         <f t="shared" si="15"/>
         <v>30</v>
@@ -42003,23 +42071,23 @@
         <f t="shared" si="10"/>
         <v>559663.86554621835</v>
       </c>
-      <c r="K91" s="414"/>
-      <c r="L91" s="415"/>
-      <c r="M91" s="416"/>
+      <c r="K91" s="479"/>
+      <c r="L91" s="480"/>
+      <c r="M91" s="481"/>
       <c r="N91" s="103">
         <f t="shared" si="11"/>
         <v>0.4971564503894913</v>
       </c>
-      <c r="O91" s="445">
+      <c r="O91" s="406">
         <f t="shared" si="18"/>
         <v>167.69373850599013</v>
       </c>
-      <c r="P91" s="446"/>
+      <c r="P91" s="407"/>
       <c r="Q91" s="116">
         <f t="shared" si="12"/>
         <v>51190.291150477846</v>
       </c>
-      <c r="R91" s="494"/>
+      <c r="R91" s="357"/>
       <c r="S91" s="117">
         <f t="shared" si="13"/>
         <v>0.58488994163469576</v>
@@ -42032,7 +42100,7 @@
         <f t="shared" si="14"/>
         <v>13827.100144683696</v>
       </c>
-      <c r="V91" s="494"/>
+      <c r="V91" s="357"/>
       <c r="X91" s="46">
         <v>70</v>
       </c>
@@ -42044,11 +42112,11 @@
       <c r="AF91" s="141"/>
     </row>
     <row r="92" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="390" t="str">
+      <c r="B92" s="372" t="str">
         <f t="shared" si="6"/>
         <v>35-40</v>
       </c>
-      <c r="C92" s="391"/>
+      <c r="C92" s="373"/>
       <c r="D92" s="128">
         <f t="shared" si="15"/>
         <v>35</v>
@@ -42077,23 +42145,23 @@
         <f t="shared" si="10"/>
         <v>900500</v>
       </c>
-      <c r="K92" s="414"/>
-      <c r="L92" s="415"/>
-      <c r="M92" s="416"/>
+      <c r="K92" s="479"/>
+      <c r="L92" s="480"/>
+      <c r="M92" s="481"/>
       <c r="N92" s="103">
         <f t="shared" si="11"/>
         <v>0.40762854747332483</v>
       </c>
-      <c r="O92" s="445">
+      <c r="O92" s="406">
         <f t="shared" si="18"/>
         <v>204.14014296563414</v>
       </c>
-      <c r="P92" s="446"/>
+      <c r="P92" s="407"/>
       <c r="Q92" s="116">
         <f t="shared" si="12"/>
         <v>82210.469713043785</v>
       </c>
-      <c r="R92" s="494"/>
+      <c r="R92" s="357"/>
       <c r="S92" s="117">
         <f t="shared" si="13"/>
         <v>0.47956299702744098</v>
@@ -42106,7 +42174,7 @@
         <f t="shared" si="14"/>
         <v>22035.669411183146</v>
       </c>
-      <c r="V92" s="494"/>
+      <c r="V92" s="357"/>
       <c r="X92" s="46">
         <v>60</v>
       </c>
@@ -42119,11 +42187,11 @@
       <c r="AF92" s="141"/>
     </row>
     <row r="93" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="390" t="str">
+      <c r="B93" s="372" t="str">
         <f t="shared" si="6"/>
         <v>40-50</v>
       </c>
-      <c r="C93" s="391"/>
+      <c r="C93" s="373"/>
       <c r="D93" s="128">
         <f t="shared" si="15"/>
         <v>40</v>
@@ -42152,23 +42220,23 @@
         <f t="shared" si="10"/>
         <v>1536195.2861952859</v>
       </c>
-      <c r="K93" s="414"/>
-      <c r="L93" s="415"/>
-      <c r="M93" s="416"/>
+      <c r="K93" s="479"/>
+      <c r="L93" s="480"/>
+      <c r="M93" s="481"/>
       <c r="N93" s="103">
         <f t="shared" si="11"/>
         <v>0.31416500987989782</v>
       </c>
-      <c r="O93" s="445">
+      <c r="O93" s="406">
         <f t="shared" si="18"/>
         <v>264.35085434574313</v>
       </c>
-      <c r="P93" s="446"/>
+      <c r="P93" s="407"/>
       <c r="Q93" s="116">
         <f t="shared" si="12"/>
         <v>139970.13026794555</v>
       </c>
-      <c r="R93" s="494"/>
+      <c r="R93" s="357"/>
       <c r="S93" s="117">
         <f t="shared" si="13"/>
         <v>0.36960589397635041</v>
@@ -42181,7 +42249,7 @@
         <f t="shared" si="14"/>
         <v>37174.499791542286</v>
       </c>
-      <c r="V93" s="494"/>
+      <c r="V93" s="357"/>
       <c r="W93" s="121"/>
       <c r="X93" s="46">
         <v>50</v>
@@ -42195,11 +42263,11 @@
       <c r="AF93" s="141"/>
     </row>
     <row r="94" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="390" t="str">
+      <c r="B94" s="372" t="str">
         <f t="shared" si="6"/>
         <v>50-60</v>
       </c>
-      <c r="C94" s="391"/>
+      <c r="C94" s="373"/>
       <c r="D94" s="128">
         <f t="shared" si="15"/>
         <v>50</v>
@@ -42228,23 +42296,23 @@
         <f t="shared" si="10"/>
         <v>2107744.1077441075</v>
       </c>
-      <c r="K94" s="414"/>
-      <c r="L94" s="415"/>
-      <c r="M94" s="416"/>
+      <c r="K94" s="479"/>
+      <c r="L94" s="480"/>
+      <c r="M94" s="481"/>
       <c r="N94" s="103">
         <f t="shared" si="11"/>
         <v>0.24836924808744476</v>
       </c>
-      <c r="O94" s="445">
+      <c r="O94" s="406">
         <f t="shared" si="18"/>
         <v>333.91672609546958</v>
       </c>
-      <c r="P94" s="446"/>
+      <c r="P94" s="407"/>
       <c r="Q94" s="116">
         <f t="shared" si="12"/>
         <v>191780.42934705055</v>
       </c>
-      <c r="R94" s="494"/>
+      <c r="R94" s="357"/>
       <c r="S94" s="117">
         <f t="shared" si="13"/>
         <v>0.29219911539699384</v>
@@ -42257,7 +42325,7 @@
         <f t="shared" si="14"/>
         <v>50556.296490488276</v>
       </c>
-      <c r="V94" s="494"/>
+      <c r="V94" s="357"/>
       <c r="W94" s="121"/>
       <c r="X94" s="46">
         <v>45</v>
@@ -42270,11 +42338,11 @@
       <c r="AF94" s="141"/>
     </row>
     <row r="95" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="390" t="str">
+      <c r="B95" s="372" t="str">
         <f t="shared" si="6"/>
         <v>60-70</v>
       </c>
-      <c r="C95" s="391"/>
+      <c r="C95" s="373"/>
       <c r="D95" s="128">
         <f t="shared" si="15"/>
         <v>60</v>
@@ -42303,23 +42371,23 @@
         <f t="shared" si="10"/>
         <v>1771428.5714285716</v>
       </c>
-      <c r="K95" s="414"/>
-      <c r="L95" s="415"/>
-      <c r="M95" s="416"/>
+      <c r="K95" s="479"/>
+      <c r="L95" s="480"/>
+      <c r="M95" s="481"/>
       <c r="N95" s="103">
         <f t="shared" si="11"/>
         <v>0.20884748283793922</v>
       </c>
-      <c r="O95" s="445">
+      <c r="O95" s="406">
         <f t="shared" si="18"/>
         <v>396.77511056845287</v>
       </c>
-      <c r="P95" s="446"/>
+      <c r="P95" s="407"/>
       <c r="Q95" s="116">
         <f t="shared" si="12"/>
         <v>161045.17519910476</v>
       </c>
-      <c r="R95" s="494"/>
+      <c r="R95" s="357"/>
       <c r="S95" s="117">
         <f t="shared" si="13"/>
         <v>0.24570292098581084</v>
@@ -42332,7 +42400,7 @@
         <f t="shared" si="14"/>
         <v>42240.957889352372</v>
       </c>
-      <c r="V95" s="494"/>
+      <c r="V95" s="357"/>
       <c r="W95" s="121"/>
       <c r="X95" s="46">
         <v>40</v>
@@ -42345,11 +42413,11 @@
       <c r="AF95" s="141"/>
     </row>
     <row r="96" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="390" t="str">
+      <c r="B96" s="372" t="str">
         <f t="shared" si="6"/>
         <v>70-100</v>
       </c>
-      <c r="C96" s="391"/>
+      <c r="C96" s="373"/>
       <c r="D96" s="128">
         <f t="shared" si="15"/>
         <v>70</v>
@@ -42378,23 +42446,23 @@
         <f t="shared" si="10"/>
         <v>661553.21188878256</v>
       </c>
-      <c r="K96" s="417"/>
-      <c r="L96" s="418"/>
-      <c r="M96" s="419"/>
+      <c r="K96" s="482"/>
+      <c r="L96" s="483"/>
+      <c r="M96" s="484"/>
       <c r="N96" s="103">
         <f t="shared" si="11"/>
         <v>0.16123242095898396</v>
       </c>
-      <c r="O96" s="445">
+      <c r="O96" s="406">
         <f t="shared" si="18"/>
         <v>513.43368935542583</v>
       </c>
-      <c r="P96" s="446"/>
+      <c r="P96" s="407"/>
       <c r="Q96" s="116">
         <f t="shared" si="12"/>
         <v>60083.043781598011</v>
       </c>
-      <c r="R96" s="494"/>
+      <c r="R96" s="357"/>
       <c r="S96" s="117">
         <f t="shared" si="13"/>
         <v>0.18968520112821644</v>
@@ -42407,7 +42475,7 @@
         <f t="shared" si="14"/>
         <v>15652.115733941762</v>
       </c>
-      <c r="V96" s="494"/>
+      <c r="V96" s="357"/>
       <c r="W96" s="121"/>
       <c r="X96" s="46">
         <v>35</v>
@@ -42431,7 +42499,7 @@
       <c r="G97" s="127"/>
       <c r="H97" s="5"/>
       <c r="I97" s="121"/>
-      <c r="J97" s="385">
+      <c r="J97" s="488">
         <f>SUM(J88:J96)</f>
         <v>7972363.3844351405</v>
       </c>
@@ -42441,14 +42509,14 @@
       <c r="N97" s="121"/>
       <c r="O97" s="121"/>
       <c r="P97" s="121"/>
-      <c r="Q97" s="386">
+      <c r="Q97" s="358">
         <f>SUM(Q88:Q96)</f>
         <v>726191.86471205414</v>
       </c>
       <c r="R97" s="121"/>
       <c r="S97" s="121"/>
       <c r="T97" s="121"/>
-      <c r="U97" s="495">
+      <c r="U97" s="362">
         <f>SUM(U88:U96)</f>
         <v>192363.89087998384</v>
       </c>
@@ -42471,18 +42539,18 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="121"/>
-      <c r="J98" s="386"/>
+      <c r="J98" s="358"/>
       <c r="K98" s="121"/>
       <c r="L98" s="121"/>
       <c r="M98" s="121"/>
       <c r="N98" s="121"/>
       <c r="O98" s="121"/>
       <c r="P98" s="121"/>
-      <c r="Q98" s="386"/>
+      <c r="Q98" s="358"/>
       <c r="R98" s="121"/>
       <c r="S98" s="121"/>
       <c r="T98" s="121"/>
-      <c r="U98" s="496"/>
+      <c r="U98" s="363"/>
       <c r="V98" s="121"/>
       <c r="W98" s="121"/>
       <c r="X98" s="46">
@@ -42502,7 +42570,7 @@
       <c r="G99" s="122"/>
       <c r="H99" s="122"/>
       <c r="I99" s="121"/>
-      <c r="J99" s="386"/>
+      <c r="J99" s="358"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6">
@@ -42511,13 +42579,13 @@
       <c r="N99" s="121"/>
       <c r="O99" s="121"/>
       <c r="P99" s="121"/>
-      <c r="Q99" s="386"/>
+      <c r="Q99" s="358"/>
       <c r="R99" s="6">
         <v>0.47220000000000001</v>
       </c>
       <c r="S99" s="121"/>
       <c r="T99" s="121"/>
-      <c r="U99" s="497"/>
+      <c r="U99" s="364"/>
       <c r="V99" s="6" t="s">
         <v>239</v>
       </c>
@@ -42595,19 +42663,19 @@
       <c r="Z101" s="120"/>
     </row>
     <row r="102" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="468" t="s">
+      <c r="B102" s="435" t="s">
         <v>224</v>
       </c>
-      <c r="C102" s="469"/>
+      <c r="C102" s="436"/>
       <c r="D102" s="145"/>
       <c r="E102" s="186"/>
-      <c r="F102" s="474" t="s">
+      <c r="F102" s="379" t="s">
         <v>222</v>
       </c>
-      <c r="G102" s="474" t="s">
+      <c r="G102" s="379" t="s">
         <v>223</v>
       </c>
-      <c r="H102" s="474" t="s">
+      <c r="H102" s="379" t="s">
         <v>216</v>
       </c>
       <c r="I102" s="121"/>
@@ -42634,13 +42702,13 @@
       <c r="Z102" s="120"/>
     </row>
     <row r="103" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="470"/>
-      <c r="C103" s="471"/>
+      <c r="B103" s="437"/>
+      <c r="C103" s="438"/>
       <c r="D103" s="145"/>
       <c r="E103" s="186"/>
-      <c r="F103" s="475"/>
-      <c r="G103" s="475"/>
-      <c r="H103" s="475"/>
+      <c r="F103" s="380"/>
+      <c r="G103" s="380"/>
+      <c r="H103" s="380"/>
       <c r="I103" s="121"/>
       <c r="J103" s="144"/>
       <c r="K103" s="6"/>
@@ -42665,13 +42733,13 @@
       <c r="Z103" s="120"/>
     </row>
     <row r="104" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="470"/>
-      <c r="C104" s="471"/>
+      <c r="B104" s="437"/>
+      <c r="C104" s="438"/>
       <c r="D104" s="145"/>
       <c r="E104" s="186"/>
-      <c r="F104" s="475"/>
-      <c r="G104" s="475"/>
-      <c r="H104" s="475"/>
+      <c r="F104" s="380"/>
+      <c r="G104" s="380"/>
+      <c r="H104" s="380"/>
       <c r="I104" s="150"/>
       <c r="J104" s="150"/>
       <c r="K104" s="150"/>
@@ -42696,13 +42764,13 @@
       <c r="Z104" s="120"/>
     </row>
     <row r="105" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="472"/>
-      <c r="C105" s="473"/>
+      <c r="B105" s="439"/>
+      <c r="C105" s="440"/>
       <c r="D105" s="145"/>
       <c r="E105" s="186"/>
-      <c r="F105" s="476"/>
-      <c r="G105" s="476"/>
-      <c r="H105" s="476"/>
+      <c r="F105" s="441"/>
+      <c r="G105" s="441"/>
+      <c r="H105" s="441"/>
       <c r="I105" s="150"/>
       <c r="J105" s="150"/>
       <c r="K105" s="150"/>
@@ -42727,10 +42795,10 @@
       <c r="Z105" s="120"/>
     </row>
     <row r="106" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="477">
+      <c r="B106" s="442">
         <v>1</v>
       </c>
-      <c r="C106" s="478"/>
+      <c r="C106" s="443"/>
       <c r="D106" s="146"/>
       <c r="E106" s="132"/>
       <c r="F106" s="148">
@@ -42762,10 +42830,10 @@
       <c r="Z106" s="120"/>
     </row>
     <row r="107" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="477">
+      <c r="B107" s="442">
         <v>2</v>
       </c>
-      <c r="C107" s="478"/>
+      <c r="C107" s="443"/>
       <c r="D107" s="146"/>
       <c r="E107" s="132"/>
       <c r="F107" s="148" t="s">
@@ -42797,10 +42865,10 @@
       <c r="Z107" s="120"/>
     </row>
     <row r="108" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="477">
+      <c r="B108" s="442">
         <v>3</v>
       </c>
-      <c r="C108" s="478"/>
+      <c r="C108" s="443"/>
       <c r="D108" s="146"/>
       <c r="E108" s="132"/>
       <c r="F108" s="148" t="s">
@@ -42832,10 +42900,10 @@
       <c r="Z108" s="120"/>
     </row>
     <row r="109" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="477">
+      <c r="B109" s="442">
         <v>4</v>
       </c>
-      <c r="C109" s="478"/>
+      <c r="C109" s="443"/>
       <c r="D109" s="146"/>
       <c r="E109" s="132"/>
       <c r="F109" s="148" t="s">
@@ -42867,10 +42935,10 @@
       <c r="Z109" s="120"/>
     </row>
     <row r="110" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="477">
+      <c r="B110" s="442">
         <v>5</v>
       </c>
-      <c r="C110" s="478"/>
+      <c r="C110" s="443"/>
       <c r="D110" s="182"/>
       <c r="E110" s="187"/>
       <c r="F110" s="133" t="s">
@@ -42958,15 +43026,15 @@
       <c r="Z112" s="120"/>
     </row>
     <row r="113" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="329" t="s">
+      <c r="B113" s="333" t="s">
         <v>180</v>
       </c>
-      <c r="C113" s="329"/>
-      <c r="D113" s="329"/>
-      <c r="E113" s="329"/>
-      <c r="F113" s="329"/>
-      <c r="G113" s="329"/>
-      <c r="H113" s="329"/>
+      <c r="C113" s="333"/>
+      <c r="D113" s="333"/>
+      <c r="E113" s="333"/>
+      <c r="F113" s="333"/>
+      <c r="G113" s="333"/>
+      <c r="H113" s="333"/>
       <c r="I113" s="206" t="s">
         <v>212</v>
       </c>
@@ -42977,10 +43045,10 @@
       <c r="K113" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="L113" s="465"/>
-      <c r="M113" s="466"/>
-      <c r="N113" s="466"/>
-      <c r="O113" s="467"/>
+      <c r="L113" s="422"/>
+      <c r="M113" s="423"/>
+      <c r="N113" s="423"/>
+      <c r="O113" s="424"/>
       <c r="P113" s="121"/>
       <c r="Q113" s="188"/>
       <c r="R113" s="6"/>
@@ -42994,15 +43062,15 @@
       <c r="Z113" s="120"/>
     </row>
     <row r="114" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="323" t="s">
+      <c r="B114" s="315" t="s">
         <v>295</v>
       </c>
-      <c r="C114" s="396"/>
-      <c r="D114" s="396"/>
-      <c r="E114" s="396"/>
-      <c r="F114" s="396"/>
-      <c r="G114" s="396"/>
-      <c r="H114" s="324"/>
+      <c r="C114" s="374"/>
+      <c r="D114" s="374"/>
+      <c r="E114" s="374"/>
+      <c r="F114" s="374"/>
+      <c r="G114" s="374"/>
+      <c r="H114" s="316"/>
       <c r="I114" s="206" t="s">
         <v>296</v>
       </c>
@@ -43013,10 +43081,10 @@
       <c r="K114" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L114" s="465"/>
-      <c r="M114" s="466"/>
-      <c r="N114" s="466"/>
-      <c r="O114" s="467"/>
+      <c r="L114" s="422"/>
+      <c r="M114" s="423"/>
+      <c r="N114" s="423"/>
+      <c r="O114" s="424"/>
       <c r="P114" s="121"/>
       <c r="Q114" s="188"/>
       <c r="R114" s="6"/>
@@ -43030,29 +43098,29 @@
       <c r="Z114" s="120"/>
     </row>
     <row r="115" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="479" t="s">
+      <c r="B115" s="408" t="s">
         <v>298</v>
       </c>
-      <c r="C115" s="480"/>
-      <c r="D115" s="480"/>
-      <c r="E115" s="480"/>
-      <c r="F115" s="480"/>
-      <c r="G115" s="480"/>
-      <c r="H115" s="481"/>
-      <c r="I115" s="367" t="s">
+      <c r="C115" s="409"/>
+      <c r="D115" s="409"/>
+      <c r="E115" s="409"/>
+      <c r="F115" s="409"/>
+      <c r="G115" s="409"/>
+      <c r="H115" s="410"/>
+      <c r="I115" s="394" t="s">
         <v>299</v>
       </c>
-      <c r="J115" s="487">
+      <c r="J115" s="414">
         <f>J113/(24*60)*J114/3</f>
         <v>1.5625E-2</v>
       </c>
-      <c r="K115" s="367" t="s">
+      <c r="K115" s="394" t="s">
         <v>3</v>
       </c>
-      <c r="L115" s="427"/>
-      <c r="M115" s="428"/>
-      <c r="N115" s="428"/>
-      <c r="O115" s="429"/>
+      <c r="L115" s="416"/>
+      <c r="M115" s="417"/>
+      <c r="N115" s="417"/>
+      <c r="O115" s="418"/>
       <c r="P115" s="121"/>
       <c r="Q115" s="188"/>
       <c r="R115" s="6"/>
@@ -43066,20 +43134,20 @@
       <c r="Z115" s="120"/>
     </row>
     <row r="116" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="482"/>
-      <c r="C116" s="483"/>
-      <c r="D116" s="483"/>
-      <c r="E116" s="483"/>
-      <c r="F116" s="483"/>
-      <c r="G116" s="483"/>
-      <c r="H116" s="484"/>
-      <c r="I116" s="368"/>
-      <c r="J116" s="488"/>
-      <c r="K116" s="368"/>
-      <c r="L116" s="430"/>
-      <c r="M116" s="431"/>
-      <c r="N116" s="431"/>
-      <c r="O116" s="432"/>
+      <c r="B116" s="411"/>
+      <c r="C116" s="412"/>
+      <c r="D116" s="412"/>
+      <c r="E116" s="412"/>
+      <c r="F116" s="412"/>
+      <c r="G116" s="412"/>
+      <c r="H116" s="413"/>
+      <c r="I116" s="395"/>
+      <c r="J116" s="415"/>
+      <c r="K116" s="395"/>
+      <c r="L116" s="419"/>
+      <c r="M116" s="420"/>
+      <c r="N116" s="420"/>
+      <c r="O116" s="421"/>
       <c r="P116" s="121"/>
       <c r="Q116" s="188"/>
       <c r="R116" s="6"/>
@@ -43149,32 +43217,34 @@
       <c r="Z118" s="120"/>
     </row>
     <row r="119" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="323" t="s">
-        <v>33</v>
-      </c>
-      <c r="C119" s="396"/>
-      <c r="D119" s="396"/>
-      <c r="E119" s="396"/>
-      <c r="F119" s="396"/>
-      <c r="G119" s="396"/>
-      <c r="H119" s="324"/>
+      <c r="B119" s="504" t="s">
+        <v>362</v>
+      </c>
+      <c r="C119" s="505"/>
+      <c r="D119" s="505"/>
+      <c r="E119" s="505"/>
+      <c r="F119" s="505"/>
+      <c r="G119" s="505"/>
+      <c r="H119" s="506"/>
       <c r="I119" s="250" t="s">
         <v>0</v>
       </c>
       <c r="J119" s="277">
         <f>IF(B119=AD8,J10,IF(B119=AD9,J11,IF(B119=AD10,J12,FALSE)))</f>
-        <v>5.7252000000000004E-2</v>
+        <v>4.4040000000000003E-2</v>
       </c>
       <c r="K119" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="L119" s="465"/>
-      <c r="M119" s="466"/>
-      <c r="N119" s="466"/>
-      <c r="O119" s="467"/>
+      <c r="L119" s="422"/>
+      <c r="M119" s="423"/>
+      <c r="N119" s="423"/>
+      <c r="O119" s="424"/>
       <c r="P119" s="310"/>
-      <c r="Q119" s="196"/>
-      <c r="R119" s="6"/>
+      <c r="Q119" s="507" t="s">
+        <v>415</v>
+      </c>
+      <c r="R119" s="507"/>
       <c r="S119" s="121"/>
       <c r="T119" s="121"/>
       <c r="U119" s="195"/>
@@ -43185,15 +43255,15 @@
       <c r="Z119" s="120"/>
     </row>
     <row r="120" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="420" t="s">
+      <c r="B120" s="375" t="s">
         <v>347</v>
       </c>
-      <c r="C120" s="421"/>
-      <c r="D120" s="421"/>
-      <c r="E120" s="421"/>
-      <c r="F120" s="421"/>
-      <c r="G120" s="421"/>
-      <c r="H120" s="422"/>
+      <c r="C120" s="376"/>
+      <c r="D120" s="376"/>
+      <c r="E120" s="376"/>
+      <c r="F120" s="376"/>
+      <c r="G120" s="376"/>
+      <c r="H120" s="377"/>
       <c r="I120" s="206" t="s">
         <v>212</v>
       </c>
@@ -43221,15 +43291,15 @@
       <c r="Z120" s="120"/>
     </row>
     <row r="121" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="420" t="s">
+      <c r="B121" s="375" t="s">
         <v>355</v>
       </c>
-      <c r="C121" s="421"/>
-      <c r="D121" s="421"/>
-      <c r="E121" s="421"/>
-      <c r="F121" s="421"/>
-      <c r="G121" s="421"/>
-      <c r="H121" s="422"/>
+      <c r="C121" s="376"/>
+      <c r="D121" s="376"/>
+      <c r="E121" s="376"/>
+      <c r="F121" s="376"/>
+      <c r="G121" s="376"/>
+      <c r="H121" s="377"/>
       <c r="I121" s="206" t="s">
         <v>356</v>
       </c>
@@ -43257,29 +43327,29 @@
       <c r="Z121" s="120"/>
     </row>
     <row r="122" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="437" t="s">
+      <c r="B122" s="444" t="s">
         <v>365</v>
       </c>
-      <c r="C122" s="438"/>
-      <c r="D122" s="438"/>
-      <c r="E122" s="438"/>
-      <c r="F122" s="438"/>
-      <c r="G122" s="438"/>
-      <c r="H122" s="439"/>
-      <c r="I122" s="425" t="s">
+      <c r="C122" s="445"/>
+      <c r="D122" s="445"/>
+      <c r="E122" s="445"/>
+      <c r="F122" s="445"/>
+      <c r="G122" s="445"/>
+      <c r="H122" s="446"/>
+      <c r="I122" s="450" t="s">
         <v>269</v>
       </c>
-      <c r="J122" s="443">
+      <c r="J122" s="404">
         <f>(J119*86400)/J120</f>
-        <v>41.221440000000001</v>
-      </c>
-      <c r="K122" s="425" t="s">
+        <v>31.7088</v>
+      </c>
+      <c r="K122" s="450" t="s">
         <v>363</v>
       </c>
-      <c r="L122" s="427"/>
-      <c r="M122" s="428"/>
-      <c r="N122" s="428"/>
-      <c r="O122" s="429"/>
+      <c r="L122" s="416"/>
+      <c r="M122" s="417"/>
+      <c r="N122" s="417"/>
+      <c r="O122" s="418"/>
       <c r="P122" s="121"/>
       <c r="Q122" s="196"/>
       <c r="R122" s="6"/>
@@ -43293,20 +43363,20 @@
       <c r="Z122" s="120"/>
     </row>
     <row r="123" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="440"/>
-      <c r="C123" s="441"/>
-      <c r="D123" s="441"/>
-      <c r="E123" s="441"/>
-      <c r="F123" s="441"/>
-      <c r="G123" s="441"/>
-      <c r="H123" s="442"/>
-      <c r="I123" s="426"/>
-      <c r="J123" s="444"/>
-      <c r="K123" s="426"/>
-      <c r="L123" s="430"/>
-      <c r="M123" s="431"/>
-      <c r="N123" s="431"/>
-      <c r="O123" s="432"/>
+      <c r="B123" s="447"/>
+      <c r="C123" s="448"/>
+      <c r="D123" s="448"/>
+      <c r="E123" s="448"/>
+      <c r="F123" s="448"/>
+      <c r="G123" s="448"/>
+      <c r="H123" s="449"/>
+      <c r="I123" s="451"/>
+      <c r="J123" s="405"/>
+      <c r="K123" s="451"/>
+      <c r="L123" s="419"/>
+      <c r="M123" s="420"/>
+      <c r="N123" s="420"/>
+      <c r="O123" s="421"/>
       <c r="P123" s="121"/>
       <c r="Q123" s="196"/>
       <c r="R123" s="6"/>
@@ -43320,29 +43390,29 @@
       <c r="Z123" s="120"/>
     </row>
     <row r="124" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="437" t="s">
+      <c r="B124" s="444" t="s">
         <v>366</v>
       </c>
-      <c r="C124" s="438"/>
-      <c r="D124" s="438"/>
-      <c r="E124" s="438"/>
-      <c r="F124" s="438"/>
-      <c r="G124" s="438"/>
-      <c r="H124" s="439"/>
-      <c r="I124" s="425" t="s">
+      <c r="C124" s="445"/>
+      <c r="D124" s="445"/>
+      <c r="E124" s="445"/>
+      <c r="F124" s="445"/>
+      <c r="G124" s="445"/>
+      <c r="H124" s="446"/>
+      <c r="I124" s="450" t="s">
         <v>369</v>
       </c>
-      <c r="J124" s="443">
+      <c r="J124" s="404">
         <f>(J119*86400)/J121</f>
-        <v>32.977151999999997</v>
-      </c>
-      <c r="K124" s="425" t="s">
+        <v>25.367039999999999</v>
+      </c>
+      <c r="K124" s="450" t="s">
         <v>363</v>
       </c>
-      <c r="L124" s="427"/>
-      <c r="M124" s="428"/>
-      <c r="N124" s="428"/>
-      <c r="O124" s="429"/>
+      <c r="L124" s="416"/>
+      <c r="M124" s="417"/>
+      <c r="N124" s="417"/>
+      <c r="O124" s="418"/>
       <c r="P124" s="121"/>
       <c r="Q124" s="196"/>
       <c r="R124" s="6"/>
@@ -43356,20 +43426,20 @@
       <c r="Z124" s="120"/>
     </row>
     <row r="125" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="440"/>
-      <c r="C125" s="441"/>
-      <c r="D125" s="441"/>
-      <c r="E125" s="441"/>
-      <c r="F125" s="441"/>
-      <c r="G125" s="441"/>
-      <c r="H125" s="442"/>
-      <c r="I125" s="426"/>
-      <c r="J125" s="444"/>
-      <c r="K125" s="426"/>
-      <c r="L125" s="430"/>
-      <c r="M125" s="431"/>
-      <c r="N125" s="431"/>
-      <c r="O125" s="432"/>
+      <c r="B125" s="447"/>
+      <c r="C125" s="448"/>
+      <c r="D125" s="448"/>
+      <c r="E125" s="448"/>
+      <c r="F125" s="448"/>
+      <c r="G125" s="448"/>
+      <c r="H125" s="449"/>
+      <c r="I125" s="451"/>
+      <c r="J125" s="405"/>
+      <c r="K125" s="451"/>
+      <c r="L125" s="419"/>
+      <c r="M125" s="420"/>
+      <c r="N125" s="420"/>
+      <c r="O125" s="421"/>
       <c r="P125" s="121"/>
       <c r="Q125" s="196"/>
       <c r="R125" s="6"/>
@@ -43383,29 +43453,29 @@
       <c r="Z125" s="120"/>
     </row>
     <row r="126" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="420" t="s">
+      <c r="B126" s="375" t="s">
         <v>367</v>
       </c>
-      <c r="C126" s="421"/>
-      <c r="D126" s="421"/>
-      <c r="E126" s="421"/>
-      <c r="F126" s="421"/>
-      <c r="G126" s="421"/>
-      <c r="H126" s="422"/>
+      <c r="C126" s="376"/>
+      <c r="D126" s="376"/>
+      <c r="E126" s="376"/>
+      <c r="F126" s="376"/>
+      <c r="G126" s="376"/>
+      <c r="H126" s="377"/>
       <c r="I126" s="281" t="s">
         <v>368</v>
       </c>
       <c r="J126" s="277">
         <f>ROUND((J122-J124),2)</f>
-        <v>8.24</v>
+        <v>6.34</v>
       </c>
       <c r="K126" s="281" t="s">
         <v>363</v>
       </c>
-      <c r="L126" s="465"/>
-      <c r="M126" s="466"/>
-      <c r="N126" s="466"/>
-      <c r="O126" s="467"/>
+      <c r="L126" s="422"/>
+      <c r="M126" s="423"/>
+      <c r="N126" s="423"/>
+      <c r="O126" s="424"/>
       <c r="P126" s="121"/>
       <c r="Q126" s="196"/>
       <c r="R126" s="6"/>
@@ -43419,27 +43489,27 @@
       <c r="Z126" s="120"/>
     </row>
     <row r="127" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="479" t="s">
+      <c r="B127" s="408" t="s">
         <v>345</v>
       </c>
-      <c r="C127" s="480"/>
-      <c r="D127" s="480"/>
-      <c r="E127" s="480"/>
-      <c r="F127" s="480"/>
-      <c r="G127" s="480"/>
-      <c r="H127" s="481"/>
-      <c r="I127" s="425" t="s">
+      <c r="C127" s="409"/>
+      <c r="D127" s="409"/>
+      <c r="E127" s="409"/>
+      <c r="F127" s="409"/>
+      <c r="G127" s="409"/>
+      <c r="H127" s="410"/>
+      <c r="I127" s="450" t="s">
         <v>381</v>
       </c>
-      <c r="J127" s="443">
+      <c r="J127" s="404">
         <f>ROUND(J122/J126,2)</f>
         <v>5</v>
       </c>
-      <c r="K127" s="425"/>
-      <c r="L127" s="427"/>
-      <c r="M127" s="428"/>
-      <c r="N127" s="428"/>
-      <c r="O127" s="429"/>
+      <c r="K127" s="450"/>
+      <c r="L127" s="416"/>
+      <c r="M127" s="417"/>
+      <c r="N127" s="417"/>
+      <c r="O127" s="418"/>
       <c r="P127" s="121"/>
       <c r="Q127" s="196"/>
       <c r="R127" s="6"/>
@@ -43453,20 +43523,20 @@
       <c r="Z127" s="120"/>
     </row>
     <row r="128" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="482"/>
-      <c r="C128" s="483"/>
-      <c r="D128" s="483"/>
-      <c r="E128" s="483"/>
-      <c r="F128" s="483"/>
-      <c r="G128" s="483"/>
-      <c r="H128" s="484"/>
-      <c r="I128" s="426"/>
-      <c r="J128" s="444"/>
-      <c r="K128" s="426"/>
-      <c r="L128" s="430"/>
-      <c r="M128" s="431"/>
-      <c r="N128" s="431"/>
-      <c r="O128" s="432"/>
+      <c r="B128" s="411"/>
+      <c r="C128" s="412"/>
+      <c r="D128" s="412"/>
+      <c r="E128" s="412"/>
+      <c r="F128" s="412"/>
+      <c r="G128" s="412"/>
+      <c r="H128" s="413"/>
+      <c r="I128" s="451"/>
+      <c r="J128" s="405"/>
+      <c r="K128" s="451"/>
+      <c r="L128" s="419"/>
+      <c r="M128" s="420"/>
+      <c r="N128" s="420"/>
+      <c r="O128" s="421"/>
       <c r="P128" s="121"/>
       <c r="Q128" s="196"/>
       <c r="R128" s="6"/>
@@ -43480,29 +43550,29 @@
       <c r="Z128" s="120"/>
     </row>
     <row r="129" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="489" t="s">
+      <c r="B129" s="425" t="s">
         <v>371</v>
       </c>
-      <c r="C129" s="489"/>
-      <c r="D129" s="489"/>
-      <c r="E129" s="489"/>
-      <c r="F129" s="489"/>
-      <c r="G129" s="489"/>
-      <c r="H129" s="489"/>
+      <c r="C129" s="425"/>
+      <c r="D129" s="425"/>
+      <c r="E129" s="425"/>
+      <c r="F129" s="425"/>
+      <c r="G129" s="425"/>
+      <c r="H129" s="425"/>
       <c r="I129" s="275" t="s">
         <v>370</v>
       </c>
       <c r="J129" s="277">
         <f>SQRT(J126)</f>
-        <v>2.8705400188814649</v>
+        <v>2.5179356624028344</v>
       </c>
       <c r="K129" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="L129" s="386"/>
-      <c r="M129" s="386"/>
-      <c r="N129" s="386"/>
-      <c r="O129" s="386"/>
+      <c r="L129" s="358"/>
+      <c r="M129" s="358"/>
+      <c r="N129" s="358"/>
+      <c r="O129" s="358"/>
       <c r="P129" s="121"/>
       <c r="Q129" s="196"/>
       <c r="R129" s="6"/>
@@ -43628,15 +43698,15 @@
       <c r="Z133" s="120"/>
     </row>
     <row r="134" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="382" t="s">
+      <c r="B134" s="432" t="s">
         <v>231</v>
       </c>
-      <c r="C134" s="383"/>
-      <c r="D134" s="383"/>
-      <c r="E134" s="383"/>
-      <c r="F134" s="383"/>
-      <c r="G134" s="383"/>
-      <c r="H134" s="384"/>
+      <c r="C134" s="433"/>
+      <c r="D134" s="433"/>
+      <c r="E134" s="433"/>
+      <c r="F134" s="433"/>
+      <c r="G134" s="433"/>
+      <c r="H134" s="434"/>
       <c r="I134" s="56" t="s">
         <v>11</v>
       </c>
@@ -43645,10 +43715,10 @@
         <v>0.45</v>
       </c>
       <c r="K134" s="203"/>
-      <c r="L134" s="465"/>
-      <c r="M134" s="466"/>
-      <c r="N134" s="466"/>
-      <c r="O134" s="467"/>
+      <c r="L134" s="422"/>
+      <c r="M134" s="423"/>
+      <c r="N134" s="423"/>
+      <c r="O134" s="424"/>
       <c r="P134" s="121"/>
       <c r="Q134" s="188"/>
       <c r="R134" s="6"/>
@@ -43662,16 +43732,16 @@
       <c r="Z134" s="120"/>
     </row>
     <row r="135" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="382" t="str">
+      <c r="B135" s="432" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad dinámica del agua a 3 °C</v>
       </c>
-      <c r="C135" s="383"/>
-      <c r="D135" s="383"/>
-      <c r="E135" s="383"/>
-      <c r="F135" s="383"/>
-      <c r="G135" s="383"/>
-      <c r="H135" s="384"/>
+      <c r="C135" s="433"/>
+      <c r="D135" s="433"/>
+      <c r="E135" s="433"/>
+      <c r="F135" s="433"/>
+      <c r="G135" s="433"/>
+      <c r="H135" s="434"/>
       <c r="I135" s="275" t="s">
         <v>213</v>
       </c>
@@ -43702,11 +43772,11 @@
       <c r="B136" s="334" t="s">
         <v>243</v>
       </c>
-      <c r="C136" s="486"/>
-      <c r="D136" s="486"/>
-      <c r="E136" s="486"/>
-      <c r="F136" s="486"/>
-      <c r="G136" s="486"/>
+      <c r="C136" s="378"/>
+      <c r="D136" s="378"/>
+      <c r="E136" s="378"/>
+      <c r="F136" s="378"/>
+      <c r="G136" s="378"/>
       <c r="H136" s="335"/>
       <c r="I136" s="153" t="s">
         <v>257</v>
@@ -43718,10 +43788,10 @@
       <c r="K136" s="153" t="s">
         <v>244</v>
       </c>
-      <c r="L136" s="485"/>
-      <c r="M136" s="485"/>
-      <c r="N136" s="485"/>
-      <c r="O136" s="485"/>
+      <c r="L136" s="381"/>
+      <c r="M136" s="381"/>
+      <c r="N136" s="381"/>
+      <c r="O136" s="381"/>
       <c r="P136" s="161"/>
       <c r="Q136" s="149"/>
       <c r="R136" s="6"/>
@@ -43738,11 +43808,11 @@
       <c r="B137" s="334" t="s">
         <v>280</v>
       </c>
-      <c r="C137" s="486"/>
-      <c r="D137" s="486"/>
-      <c r="E137" s="486"/>
-      <c r="F137" s="486"/>
-      <c r="G137" s="486"/>
+      <c r="C137" s="378"/>
+      <c r="D137" s="378"/>
+      <c r="E137" s="378"/>
+      <c r="F137" s="378"/>
+      <c r="G137" s="378"/>
       <c r="H137" s="335"/>
       <c r="I137" s="153" t="s">
         <v>279</v>
@@ -43754,10 +43824,10 @@
       <c r="K137" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L137" s="485"/>
-      <c r="M137" s="485"/>
-      <c r="N137" s="485"/>
-      <c r="O137" s="485"/>
+      <c r="L137" s="381"/>
+      <c r="M137" s="381"/>
+      <c r="N137" s="381"/>
+      <c r="O137" s="381"/>
       <c r="P137" s="161"/>
       <c r="Q137" s="149"/>
       <c r="R137" s="6"/>
@@ -43775,11 +43845,11 @@
         <f>"Velocidad de arrastre del medio filtrante a "&amp;J30&amp;" °C"</f>
         <v>Velocidad de arrastre del medio filtrante a 3 °C</v>
       </c>
-      <c r="C138" s="486"/>
-      <c r="D138" s="486"/>
-      <c r="E138" s="486"/>
-      <c r="F138" s="486"/>
-      <c r="G138" s="486"/>
+      <c r="C138" s="378"/>
+      <c r="D138" s="378"/>
+      <c r="E138" s="378"/>
+      <c r="F138" s="378"/>
+      <c r="G138" s="378"/>
       <c r="H138" s="335"/>
       <c r="I138" s="153" t="s">
         <v>289</v>
@@ -43791,10 +43861,10 @@
       <c r="K138" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L138" s="485"/>
-      <c r="M138" s="485"/>
-      <c r="N138" s="485"/>
-      <c r="O138" s="485"/>
+      <c r="L138" s="381"/>
+      <c r="M138" s="381"/>
+      <c r="N138" s="381"/>
+      <c r="O138" s="381"/>
       <c r="P138" s="161"/>
       <c r="Q138" s="149"/>
       <c r="R138" s="6"/>
@@ -43812,11 +43882,11 @@
         <f>"Velocidad de fluidización del medio filtrante a "&amp;J30&amp;" °C"</f>
         <v>Velocidad de fluidización del medio filtrante a 3 °C</v>
       </c>
-      <c r="C139" s="486"/>
-      <c r="D139" s="486"/>
-      <c r="E139" s="486"/>
-      <c r="F139" s="486"/>
-      <c r="G139" s="486"/>
+      <c r="C139" s="378"/>
+      <c r="D139" s="378"/>
+      <c r="E139" s="378"/>
+      <c r="F139" s="378"/>
+      <c r="G139" s="378"/>
       <c r="H139" s="335"/>
       <c r="I139" s="153" t="s">
         <v>288</v>
@@ -43828,10 +43898,10 @@
       <c r="K139" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L139" s="378"/>
-      <c r="M139" s="379"/>
-      <c r="N139" s="379"/>
-      <c r="O139" s="380"/>
+      <c r="L139" s="385"/>
+      <c r="M139" s="386"/>
+      <c r="N139" s="386"/>
+      <c r="O139" s="387"/>
       <c r="P139" s="161"/>
       <c r="Q139" s="188"/>
       <c r="R139" s="6"/>
@@ -43849,11 +43919,11 @@
         <f>"Velocidad óptima de lavado a "&amp;J30&amp;" °C"</f>
         <v>Velocidad óptima de lavado a 3 °C</v>
       </c>
-      <c r="C140" s="486"/>
-      <c r="D140" s="486"/>
-      <c r="E140" s="486"/>
-      <c r="F140" s="486"/>
-      <c r="G140" s="486"/>
+      <c r="C140" s="378"/>
+      <c r="D140" s="378"/>
+      <c r="E140" s="378"/>
+      <c r="F140" s="378"/>
+      <c r="G140" s="378"/>
       <c r="H140" s="335"/>
       <c r="I140" s="153" t="s">
         <v>281</v>
@@ -43865,10 +43935,10 @@
       <c r="K140" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L140" s="485"/>
-      <c r="M140" s="485"/>
-      <c r="N140" s="485"/>
-      <c r="O140" s="485"/>
+      <c r="L140" s="381"/>
+      <c r="M140" s="381"/>
+      <c r="N140" s="381"/>
+      <c r="O140" s="381"/>
       <c r="P140" s="161"/>
       <c r="Q140" s="149"/>
       <c r="R140" s="6"/>
@@ -43938,15 +44008,15 @@
       <c r="Z142" s="120"/>
     </row>
     <row r="143" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="358" t="s">
+      <c r="B143" s="382" t="s">
         <v>374</v>
       </c>
-      <c r="C143" s="359"/>
-      <c r="D143" s="359"/>
-      <c r="E143" s="359"/>
-      <c r="F143" s="359"/>
-      <c r="G143" s="359"/>
-      <c r="H143" s="360"/>
+      <c r="C143" s="383"/>
+      <c r="D143" s="383"/>
+      <c r="E143" s="383"/>
+      <c r="F143" s="383"/>
+      <c r="G143" s="383"/>
+      <c r="H143" s="384"/>
       <c r="I143" s="298" t="s">
         <v>382</v>
       </c>
@@ -43956,11 +44026,13 @@
       <c r="K143" s="153" t="s">
         <v>375</v>
       </c>
-      <c r="L143" s="378"/>
-      <c r="M143" s="379"/>
-      <c r="N143" s="379"/>
-      <c r="O143" s="380"/>
-      <c r="P143" s="161"/>
+      <c r="L143" s="385"/>
+      <c r="M143" s="386"/>
+      <c r="N143" s="386"/>
+      <c r="O143" s="387"/>
+      <c r="P143" s="508" t="s">
+        <v>416</v>
+      </c>
       <c r="Q143" s="188"/>
       <c r="R143" s="6"/>
       <c r="S143" s="121"/>
@@ -43973,15 +44045,15 @@
       <c r="Z143" s="120"/>
     </row>
     <row r="144" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="358" t="s">
+      <c r="B144" s="382" t="s">
         <v>376</v>
       </c>
-      <c r="C144" s="359"/>
-      <c r="D144" s="359"/>
-      <c r="E144" s="359"/>
-      <c r="F144" s="359"/>
-      <c r="G144" s="359"/>
-      <c r="H144" s="360"/>
+      <c r="C144" s="383"/>
+      <c r="D144" s="383"/>
+      <c r="E144" s="383"/>
+      <c r="F144" s="383"/>
+      <c r="G144" s="383"/>
+      <c r="H144" s="384"/>
       <c r="I144" s="299" t="s">
         <v>383</v>
       </c>
@@ -43992,10 +44064,10 @@
       <c r="K144" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L144" s="378"/>
-      <c r="M144" s="379"/>
-      <c r="N144" s="379"/>
-      <c r="O144" s="380"/>
+      <c r="L144" s="385"/>
+      <c r="M144" s="386"/>
+      <c r="N144" s="386"/>
+      <c r="O144" s="387"/>
       <c r="P144" s="161"/>
       <c r="Q144" s="188"/>
       <c r="R144" s="6"/>
@@ -44009,29 +44081,29 @@
       <c r="Z144" s="120"/>
     </row>
     <row r="145" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="358" t="s">
+      <c r="B145" s="382" t="s">
         <v>377</v>
       </c>
-      <c r="C145" s="359"/>
-      <c r="D145" s="359"/>
-      <c r="E145" s="359"/>
-      <c r="F145" s="359"/>
-      <c r="G145" s="359"/>
-      <c r="H145" s="360"/>
+      <c r="C145" s="383"/>
+      <c r="D145" s="383"/>
+      <c r="E145" s="383"/>
+      <c r="F145" s="383"/>
+      <c r="G145" s="383"/>
+      <c r="H145" s="384"/>
       <c r="I145" s="300" t="s">
         <v>384</v>
       </c>
       <c r="J145" s="279">
         <f>ROUND(J129/2-0.1,2)</f>
-        <v>1.34</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K145" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L145" s="378"/>
-      <c r="M145" s="379"/>
-      <c r="N145" s="379"/>
-      <c r="O145" s="380"/>
+      <c r="L145" s="385"/>
+      <c r="M145" s="386"/>
+      <c r="N145" s="386"/>
+      <c r="O145" s="387"/>
       <c r="P145" s="161"/>
       <c r="Q145" s="188"/>
       <c r="R145" s="6"/>
@@ -44045,29 +44117,31 @@
       <c r="Z145" s="120"/>
     </row>
     <row r="146" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="358" t="s">
+      <c r="B146" s="382" t="s">
         <v>378</v>
       </c>
-      <c r="C146" s="359"/>
-      <c r="D146" s="359"/>
-      <c r="E146" s="359"/>
-      <c r="F146" s="359"/>
-      <c r="G146" s="359"/>
-      <c r="H146" s="360"/>
+      <c r="C146" s="383"/>
+      <c r="D146" s="383"/>
+      <c r="E146" s="383"/>
+      <c r="F146" s="383"/>
+      <c r="G146" s="383"/>
+      <c r="H146" s="384"/>
       <c r="I146" s="299" t="s">
         <v>385</v>
       </c>
       <c r="J146" s="279">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K146" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L146" s="378"/>
-      <c r="M146" s="379"/>
-      <c r="N146" s="379"/>
-      <c r="O146" s="380"/>
-      <c r="P146" s="161"/>
+      <c r="L146" s="385"/>
+      <c r="M146" s="386"/>
+      <c r="N146" s="386"/>
+      <c r="O146" s="387"/>
+      <c r="P146" s="508" t="s">
+        <v>416</v>
+      </c>
       <c r="Q146" s="188"/>
       <c r="R146" s="6"/>
       <c r="S146" s="121"/>
@@ -44080,15 +44154,15 @@
       <c r="Z146" s="120"/>
     </row>
     <row r="147" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="358" t="s">
+      <c r="B147" s="382" t="s">
         <v>379</v>
       </c>
-      <c r="C147" s="359"/>
-      <c r="D147" s="359"/>
-      <c r="E147" s="359"/>
-      <c r="F147" s="359"/>
-      <c r="G147" s="359"/>
-      <c r="H147" s="360"/>
+      <c r="C147" s="383"/>
+      <c r="D147" s="383"/>
+      <c r="E147" s="383"/>
+      <c r="F147" s="383"/>
+      <c r="G147" s="383"/>
+      <c r="H147" s="384"/>
       <c r="I147" s="298" t="s">
         <v>386</v>
       </c>
@@ -44099,10 +44173,10 @@
       <c r="K147" s="153" t="s">
         <v>375</v>
       </c>
-      <c r="L147" s="378"/>
-      <c r="M147" s="379"/>
-      <c r="N147" s="379"/>
-      <c r="O147" s="380"/>
+      <c r="L147" s="385"/>
+      <c r="M147" s="386"/>
+      <c r="N147" s="386"/>
+      <c r="O147" s="387"/>
       <c r="P147" s="161"/>
       <c r="Q147" s="188"/>
       <c r="R147" s="6"/>
@@ -44116,27 +44190,27 @@
       <c r="Z147" s="120"/>
     </row>
     <row r="148" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="361" t="s">
+      <c r="B148" s="388" t="s">
         <v>389</v>
       </c>
-      <c r="C148" s="362"/>
-      <c r="D148" s="362"/>
-      <c r="E148" s="362"/>
-      <c r="F148" s="362"/>
-      <c r="G148" s="362"/>
-      <c r="H148" s="363"/>
-      <c r="I148" s="367" t="s">
+      <c r="C148" s="389"/>
+      <c r="D148" s="389"/>
+      <c r="E148" s="389"/>
+      <c r="F148" s="389"/>
+      <c r="G148" s="389"/>
+      <c r="H148" s="390"/>
+      <c r="I148" s="394" t="s">
         <v>388</v>
       </c>
-      <c r="J148" s="490">
+      <c r="J148" s="396">
         <f>ROUNDDOWN(2*(J129/J146),0)</f>
-        <v>28</v>
-      </c>
-      <c r="K148" s="367"/>
-      <c r="L148" s="371"/>
-      <c r="M148" s="372"/>
-      <c r="N148" s="372"/>
-      <c r="O148" s="373"/>
+        <v>16</v>
+      </c>
+      <c r="K148" s="394"/>
+      <c r="L148" s="398"/>
+      <c r="M148" s="399"/>
+      <c r="N148" s="399"/>
+      <c r="O148" s="400"/>
       <c r="P148" s="161"/>
       <c r="Q148" s="290"/>
       <c r="R148" s="6"/>
@@ -44150,20 +44224,20 @@
       <c r="Z148" s="120"/>
     </row>
     <row r="149" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="364"/>
-      <c r="C149" s="365"/>
-      <c r="D149" s="365"/>
-      <c r="E149" s="365"/>
-      <c r="F149" s="365"/>
-      <c r="G149" s="365"/>
-      <c r="H149" s="366"/>
-      <c r="I149" s="368"/>
-      <c r="J149" s="491"/>
-      <c r="K149" s="368"/>
-      <c r="L149" s="374"/>
-      <c r="M149" s="375"/>
-      <c r="N149" s="375"/>
-      <c r="O149" s="376"/>
+      <c r="B149" s="391"/>
+      <c r="C149" s="392"/>
+      <c r="D149" s="392"/>
+      <c r="E149" s="392"/>
+      <c r="F149" s="392"/>
+      <c r="G149" s="392"/>
+      <c r="H149" s="393"/>
+      <c r="I149" s="395"/>
+      <c r="J149" s="397"/>
+      <c r="K149" s="395"/>
+      <c r="L149" s="401"/>
+      <c r="M149" s="402"/>
+      <c r="N149" s="402"/>
+      <c r="O149" s="403"/>
       <c r="P149" s="161"/>
       <c r="Q149" s="280"/>
       <c r="R149" s="6"/>
@@ -44177,27 +44251,27 @@
       <c r="Z149" s="120"/>
     </row>
     <row r="150" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="361" t="s">
+      <c r="B150" s="388" t="s">
         <v>390</v>
       </c>
-      <c r="C150" s="362"/>
-      <c r="D150" s="362"/>
-      <c r="E150" s="362"/>
-      <c r="F150" s="362"/>
-      <c r="G150" s="362"/>
-      <c r="H150" s="363"/>
-      <c r="I150" s="367" t="s">
+      <c r="C150" s="389"/>
+      <c r="D150" s="389"/>
+      <c r="E150" s="389"/>
+      <c r="F150" s="389"/>
+      <c r="G150" s="389"/>
+      <c r="H150" s="390"/>
+      <c r="I150" s="394" t="s">
         <v>387</v>
       </c>
-      <c r="J150" s="490">
+      <c r="J150" s="396">
         <f>J148*ROUND(J145/J144,0)*2</f>
-        <v>1008</v>
-      </c>
-      <c r="K150" s="367"/>
-      <c r="L150" s="371"/>
-      <c r="M150" s="372"/>
-      <c r="N150" s="372"/>
-      <c r="O150" s="373"/>
+        <v>480</v>
+      </c>
+      <c r="K150" s="394"/>
+      <c r="L150" s="398"/>
+      <c r="M150" s="399"/>
+      <c r="N150" s="399"/>
+      <c r="O150" s="400"/>
       <c r="P150" s="161"/>
       <c r="Q150" s="290"/>
       <c r="R150" s="6"/>
@@ -44211,20 +44285,20 @@
       <c r="Z150" s="120"/>
     </row>
     <row r="151" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="364"/>
-      <c r="C151" s="365"/>
-      <c r="D151" s="365"/>
-      <c r="E151" s="365"/>
-      <c r="F151" s="365"/>
-      <c r="G151" s="365"/>
-      <c r="H151" s="366"/>
-      <c r="I151" s="368"/>
-      <c r="J151" s="491"/>
-      <c r="K151" s="368"/>
-      <c r="L151" s="374"/>
-      <c r="M151" s="375"/>
-      <c r="N151" s="375"/>
-      <c r="O151" s="376"/>
+      <c r="B151" s="391"/>
+      <c r="C151" s="392"/>
+      <c r="D151" s="392"/>
+      <c r="E151" s="392"/>
+      <c r="F151" s="392"/>
+      <c r="G151" s="392"/>
+      <c r="H151" s="393"/>
+      <c r="I151" s="395"/>
+      <c r="J151" s="397"/>
+      <c r="K151" s="395"/>
+      <c r="L151" s="401"/>
+      <c r="M151" s="402"/>
+      <c r="N151" s="402"/>
+      <c r="O151" s="403"/>
       <c r="P151" s="161"/>
       <c r="Q151" s="280"/>
       <c r="R151" s="6"/>
@@ -44238,29 +44312,29 @@
       <c r="Z151" s="120"/>
     </row>
     <row r="152" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="361" t="s">
+      <c r="B152" s="388" t="s">
         <v>392</v>
       </c>
-      <c r="C152" s="362"/>
-      <c r="D152" s="362"/>
-      <c r="E152" s="362"/>
-      <c r="F152" s="362"/>
-      <c r="G152" s="362"/>
-      <c r="H152" s="363"/>
-      <c r="I152" s="367" t="s">
+      <c r="C152" s="389"/>
+      <c r="D152" s="389"/>
+      <c r="E152" s="389"/>
+      <c r="F152" s="389"/>
+      <c r="G152" s="389"/>
+      <c r="H152" s="390"/>
+      <c r="I152" s="394" t="s">
         <v>391</v>
       </c>
-      <c r="J152" s="369">
+      <c r="J152" s="496">
         <f>J150*PI()*(((J143*0.0254)^2)/4)</f>
-        <v>3.1922571183142359E-2</v>
-      </c>
-      <c r="K152" s="367" t="s">
+        <v>1.520122437292493E-2</v>
+      </c>
+      <c r="K152" s="394" t="s">
         <v>393</v>
       </c>
-      <c r="L152" s="371"/>
-      <c r="M152" s="372"/>
-      <c r="N152" s="372"/>
-      <c r="O152" s="373"/>
+      <c r="L152" s="398"/>
+      <c r="M152" s="399"/>
+      <c r="N152" s="399"/>
+      <c r="O152" s="400"/>
       <c r="P152" s="161"/>
       <c r="Q152" s="290"/>
       <c r="R152" s="6"/>
@@ -44274,20 +44348,20 @@
       <c r="Z152" s="120"/>
     </row>
     <row r="153" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="364"/>
-      <c r="C153" s="365"/>
-      <c r="D153" s="365"/>
-      <c r="E153" s="365"/>
-      <c r="F153" s="365"/>
-      <c r="G153" s="365"/>
-      <c r="H153" s="366"/>
-      <c r="I153" s="368"/>
-      <c r="J153" s="370"/>
-      <c r="K153" s="368"/>
-      <c r="L153" s="374"/>
-      <c r="M153" s="375"/>
-      <c r="N153" s="375"/>
-      <c r="O153" s="376"/>
+      <c r="B153" s="391"/>
+      <c r="C153" s="392"/>
+      <c r="D153" s="392"/>
+      <c r="E153" s="392"/>
+      <c r="F153" s="392"/>
+      <c r="G153" s="392"/>
+      <c r="H153" s="393"/>
+      <c r="I153" s="395"/>
+      <c r="J153" s="497"/>
+      <c r="K153" s="395"/>
+      <c r="L153" s="401"/>
+      <c r="M153" s="402"/>
+      <c r="N153" s="402"/>
+      <c r="O153" s="403"/>
       <c r="P153" s="161"/>
       <c r="Q153" s="290"/>
       <c r="R153" s="6"/>
@@ -44301,29 +44375,29 @@
       <c r="Z153" s="120"/>
     </row>
     <row r="154" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="361" t="s">
+      <c r="B154" s="388" t="s">
         <v>394</v>
       </c>
-      <c r="C154" s="362"/>
-      <c r="D154" s="362"/>
-      <c r="E154" s="362"/>
-      <c r="F154" s="362"/>
-      <c r="G154" s="362"/>
-      <c r="H154" s="363"/>
-      <c r="I154" s="367" t="s">
+      <c r="C154" s="389"/>
+      <c r="D154" s="389"/>
+      <c r="E154" s="389"/>
+      <c r="F154" s="389"/>
+      <c r="G154" s="389"/>
+      <c r="H154" s="390"/>
+      <c r="I154" s="394" t="s">
         <v>395</v>
       </c>
-      <c r="J154" s="369">
+      <c r="J154" s="496">
         <f>J152/0.4</f>
-        <v>7.9806427957855891E-2</v>
-      </c>
-      <c r="K154" s="367" t="s">
+        <v>3.8003060932312323E-2</v>
+      </c>
+      <c r="K154" s="394" t="s">
         <v>393</v>
       </c>
-      <c r="L154" s="371"/>
-      <c r="M154" s="372"/>
-      <c r="N154" s="372"/>
-      <c r="O154" s="373"/>
+      <c r="L154" s="398"/>
+      <c r="M154" s="399"/>
+      <c r="N154" s="399"/>
+      <c r="O154" s="400"/>
       <c r="P154" s="161"/>
       <c r="Q154" s="290"/>
       <c r="R154" s="6"/>
@@ -44337,20 +44411,20 @@
       <c r="Z154" s="120"/>
     </row>
     <row r="155" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="364"/>
-      <c r="C155" s="365"/>
-      <c r="D155" s="365"/>
-      <c r="E155" s="365"/>
-      <c r="F155" s="365"/>
-      <c r="G155" s="365"/>
-      <c r="H155" s="366"/>
-      <c r="I155" s="368"/>
-      <c r="J155" s="370"/>
-      <c r="K155" s="368"/>
-      <c r="L155" s="374"/>
-      <c r="M155" s="375"/>
-      <c r="N155" s="375"/>
-      <c r="O155" s="376"/>
+      <c r="B155" s="391"/>
+      <c r="C155" s="392"/>
+      <c r="D155" s="392"/>
+      <c r="E155" s="392"/>
+      <c r="F155" s="392"/>
+      <c r="G155" s="392"/>
+      <c r="H155" s="393"/>
+      <c r="I155" s="395"/>
+      <c r="J155" s="497"/>
+      <c r="K155" s="395"/>
+      <c r="L155" s="401"/>
+      <c r="M155" s="402"/>
+      <c r="N155" s="402"/>
+      <c r="O155" s="403"/>
       <c r="P155" s="161"/>
       <c r="Q155" s="280"/>
       <c r="R155" s="6"/>
@@ -44364,19 +44438,19 @@
       <c r="Z155" s="120"/>
     </row>
     <row r="156" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="358" t="s">
+      <c r="B156" s="382" t="s">
         <v>396</v>
       </c>
-      <c r="C156" s="359"/>
-      <c r="D156" s="359"/>
-      <c r="E156" s="359"/>
-      <c r="F156" s="359"/>
-      <c r="G156" s="359"/>
-      <c r="H156" s="360"/>
+      <c r="C156" s="383"/>
+      <c r="D156" s="383"/>
+      <c r="E156" s="383"/>
+      <c r="F156" s="383"/>
+      <c r="G156" s="383"/>
+      <c r="H156" s="384"/>
       <c r="I156" s="291"/>
       <c r="J156" s="295" t="str">
         <f>INDEX(AL8:AL16,MATCH(J154,AM8:AM16,1),1)</f>
-        <v>10 X 10</v>
+        <v>6 X 6</v>
       </c>
       <c r="K156" s="153" t="s">
         <v>408</v>
@@ -44398,29 +44472,29 @@
       <c r="Z156" s="120"/>
     </row>
     <row r="157" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="377" t="s">
+      <c r="B157" s="498" t="s">
         <v>410</v>
       </c>
-      <c r="C157" s="377"/>
-      <c r="D157" s="377"/>
-      <c r="E157" s="377"/>
-      <c r="F157" s="377"/>
-      <c r="G157" s="377"/>
-      <c r="H157" s="377"/>
+      <c r="C157" s="498"/>
+      <c r="D157" s="498"/>
+      <c r="E157" s="498"/>
+      <c r="F157" s="498"/>
+      <c r="G157" s="498"/>
+      <c r="H157" s="498"/>
       <c r="I157" s="300" t="s">
         <v>395</v>
       </c>
       <c r="J157" s="289">
         <f>VLOOKUP(J156,AL8:AM16,2,FALSE)</f>
-        <v>6.4516000000000004E-2</v>
+        <v>2.3225759999999995E-2</v>
       </c>
       <c r="K157" s="153" t="s">
         <v>393</v>
       </c>
-      <c r="L157" s="378"/>
-      <c r="M157" s="379"/>
-      <c r="N157" s="379"/>
-      <c r="O157" s="380"/>
+      <c r="L157" s="385"/>
+      <c r="M157" s="386"/>
+      <c r="N157" s="386"/>
+      <c r="O157" s="387"/>
       <c r="P157" s="161"/>
       <c r="Q157" s="290"/>
       <c r="R157" s="6"/>
@@ -44434,28 +44508,28 @@
       <c r="Z157" s="120"/>
     </row>
     <row r="158" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="358" t="s">
+      <c r="B158" s="382" t="s">
         <v>409</v>
       </c>
-      <c r="C158" s="359"/>
-      <c r="D158" s="359"/>
-      <c r="E158" s="359"/>
-      <c r="F158" s="359"/>
-      <c r="G158" s="359"/>
-      <c r="H158" s="360"/>
+      <c r="C158" s="383"/>
+      <c r="D158" s="383"/>
+      <c r="E158" s="383"/>
+      <c r="F158" s="383"/>
+      <c r="G158" s="383"/>
+      <c r="H158" s="384"/>
       <c r="I158" s="300"/>
       <c r="J158" s="289">
         <f>J152/J126</f>
-        <v>3.8740984445561114E-3</v>
+        <v>2.3976694594518818E-3</v>
       </c>
       <c r="K158" s="291"/>
-      <c r="L158" s="355" t="str">
+      <c r="L158" s="493" t="str">
         <f>IF(AND(J158&gt;0.0015,J158&lt;0.005),"¡ok!","¡error!")</f>
         <v>¡ok!</v>
       </c>
-      <c r="M158" s="356"/>
-      <c r="N158" s="356"/>
-      <c r="O158" s="357"/>
+      <c r="M158" s="494"/>
+      <c r="N158" s="494"/>
+      <c r="O158" s="495"/>
       <c r="P158" s="161"/>
       <c r="Q158" s="290"/>
       <c r="R158" s="6"/>
@@ -44469,28 +44543,28 @@
       <c r="Z158" s="120"/>
     </row>
     <row r="159" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="358" t="s">
+      <c r="B159" s="382" t="s">
         <v>411</v>
       </c>
-      <c r="C159" s="359"/>
-      <c r="D159" s="359"/>
-      <c r="E159" s="359"/>
-      <c r="F159" s="359"/>
-      <c r="G159" s="359"/>
-      <c r="H159" s="360"/>
+      <c r="C159" s="383"/>
+      <c r="D159" s="383"/>
+      <c r="E159" s="383"/>
+      <c r="F159" s="383"/>
+      <c r="G159" s="383"/>
+      <c r="H159" s="384"/>
       <c r="I159" s="300"/>
       <c r="J159" s="289">
         <f>((0.0254*J147)^2)/(J152/J148)</f>
-        <v>3.5367765131532298</v>
+        <v>4.2441318157838763</v>
       </c>
       <c r="K159" s="291"/>
-      <c r="L159" s="355" t="str">
+      <c r="L159" s="493" t="str">
         <f>IF(AND(J159&gt;2,J159&lt;4),"¡ok!","¡error!")</f>
-        <v>¡ok!</v>
-      </c>
-      <c r="M159" s="356"/>
-      <c r="N159" s="356"/>
-      <c r="O159" s="357"/>
+        <v>¡error!</v>
+      </c>
+      <c r="M159" s="494"/>
+      <c r="N159" s="494"/>
+      <c r="O159" s="495"/>
       <c r="P159" s="161"/>
       <c r="Q159" s="290"/>
       <c r="R159" s="6"/>
@@ -44563,11 +44637,11 @@
       <c r="B162" s="334" t="s">
         <v>232</v>
       </c>
-      <c r="C162" s="486"/>
-      <c r="D162" s="486"/>
-      <c r="E162" s="486"/>
-      <c r="F162" s="486"/>
-      <c r="G162" s="486"/>
+      <c r="C162" s="378"/>
+      <c r="D162" s="378"/>
+      <c r="E162" s="378"/>
+      <c r="F162" s="378"/>
+      <c r="G162" s="378"/>
       <c r="H162" s="335"/>
       <c r="I162" s="153" t="s">
         <v>88</v>
@@ -44579,10 +44653,10 @@
       <c r="K162" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="L162" s="485"/>
-      <c r="M162" s="485"/>
-      <c r="N162" s="485"/>
-      <c r="O162" s="485"/>
+      <c r="L162" s="381"/>
+      <c r="M162" s="381"/>
+      <c r="N162" s="381"/>
+      <c r="O162" s="381"/>
       <c r="P162" s="121"/>
       <c r="Q162" s="121"/>
       <c r="R162" s="121"/>
@@ -44599,11 +44673,11 @@
       <c r="B163" s="334" t="s">
         <v>231</v>
       </c>
-      <c r="C163" s="486"/>
-      <c r="D163" s="486"/>
-      <c r="E163" s="486"/>
-      <c r="F163" s="486"/>
-      <c r="G163" s="486"/>
+      <c r="C163" s="378"/>
+      <c r="D163" s="378"/>
+      <c r="E163" s="378"/>
+      <c r="F163" s="378"/>
+      <c r="G163" s="378"/>
       <c r="H163" s="335"/>
       <c r="I163" s="153" t="s">
         <v>11</v>
@@ -44613,10 +44687,10 @@
         <v>0.45</v>
       </c>
       <c r="K163" s="156"/>
-      <c r="L163" s="485"/>
-      <c r="M163" s="485"/>
-      <c r="N163" s="485"/>
-      <c r="O163" s="485"/>
+      <c r="L163" s="381"/>
+      <c r="M163" s="381"/>
+      <c r="N163" s="381"/>
+      <c r="O163" s="381"/>
       <c r="P163" s="121"/>
       <c r="Q163" s="121"/>
       <c r="R163" s="121"/>
@@ -44633,11 +44707,11 @@
       <c r="B164" s="334" t="s">
         <v>233</v>
       </c>
-      <c r="C164" s="486"/>
-      <c r="D164" s="486"/>
-      <c r="E164" s="486"/>
-      <c r="F164" s="486"/>
-      <c r="G164" s="486"/>
+      <c r="C164" s="378"/>
+      <c r="D164" s="378"/>
+      <c r="E164" s="378"/>
+      <c r="F164" s="378"/>
+      <c r="G164" s="378"/>
       <c r="H164" s="335"/>
       <c r="I164" s="153" t="s">
         <v>234</v>
@@ -44647,10 +44721,10 @@
         <v>2.65</v>
       </c>
       <c r="K164" s="156"/>
-      <c r="L164" s="485"/>
-      <c r="M164" s="485"/>
-      <c r="N164" s="485"/>
-      <c r="O164" s="485"/>
+      <c r="L164" s="381"/>
+      <c r="M164" s="381"/>
+      <c r="N164" s="381"/>
+      <c r="O164" s="381"/>
       <c r="P164" s="121"/>
       <c r="Q164" s="121"/>
       <c r="R164" s="121"/>
@@ -44664,15 +44738,15 @@
       <c r="Z164" s="120"/>
     </row>
     <row r="165" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="327" t="s">
+      <c r="B165" s="331" t="s">
         <v>236</v>
       </c>
-      <c r="C165" s="327"/>
-      <c r="D165" s="327"/>
-      <c r="E165" s="327"/>
-      <c r="F165" s="327"/>
-      <c r="G165" s="327"/>
-      <c r="H165" s="327"/>
+      <c r="C165" s="331"/>
+      <c r="D165" s="331"/>
+      <c r="E165" s="331"/>
+      <c r="F165" s="331"/>
+      <c r="G165" s="331"/>
+      <c r="H165" s="331"/>
       <c r="I165" s="153" t="s">
         <v>235</v>
       </c>
@@ -44683,10 +44757,10 @@
       <c r="K165" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="L165" s="485"/>
-      <c r="M165" s="485"/>
-      <c r="N165" s="485"/>
-      <c r="O165" s="485"/>
+      <c r="L165" s="381"/>
+      <c r="M165" s="381"/>
+      <c r="N165" s="381"/>
+      <c r="O165" s="381"/>
       <c r="P165" s="121"/>
       <c r="Q165" s="121"/>
       <c r="R165" s="121"/>
@@ -44754,15 +44828,17 @@
       <c r="Z167" s="120"/>
     </row>
     <row r="168" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="304" t="s">
+      <c r="B168" s="499" t="s">
         <v>412</v>
       </c>
-      <c r="C168" s="305"/>
-      <c r="D168" s="306"/>
-      <c r="E168" s="307"/>
-      <c r="F168" s="306"/>
-      <c r="G168" s="308"/>
-      <c r="H168" s="131"/>
+      <c r="C168" s="500"/>
+      <c r="D168" s="501"/>
+      <c r="E168" s="502"/>
+      <c r="F168" s="501"/>
+      <c r="G168" s="503"/>
+      <c r="H168" s="131" t="s">
+        <v>414</v>
+      </c>
       <c r="I168" s="138"/>
       <c r="J168" s="131"/>
       <c r="K168" s="138"/>
@@ -44810,8 +44886,8 @@
       <c r="Z169" s="120"/>
     </row>
     <row r="170" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="400"/>
-      <c r="C170" s="400"/>
+      <c r="B170" s="472"/>
+      <c r="C170" s="472"/>
       <c r="D170" s="130"/>
       <c r="E170" s="5"/>
       <c r="F170" s="131"/>
@@ -44916,13 +44992,13 @@
       <c r="Y173" s="113"/>
     </row>
     <row r="174" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="340" t="s">
+      <c r="B174" s="327" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="340"/>
-      <c r="D174" s="340"/>
-      <c r="E174" s="340"/>
-      <c r="F174" s="340"/>
+      <c r="C174" s="327"/>
+      <c r="D174" s="327"/>
+      <c r="E174" s="327"/>
+      <c r="F174" s="327"/>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
@@ -44973,16 +45049,16 @@
       <c r="B176" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C176" s="344" t="s">
+      <c r="C176" s="314" t="s">
         <v>202</v>
       </c>
-      <c r="D176" s="344"/>
-      <c r="E176" s="344"/>
-      <c r="F176" s="344"/>
-      <c r="G176" s="344"/>
-      <c r="H176" s="344"/>
-      <c r="I176" s="344"/>
-      <c r="J176" s="344"/>
+      <c r="D176" s="314"/>
+      <c r="E176" s="314"/>
+      <c r="F176" s="314"/>
+      <c r="G176" s="314"/>
+      <c r="H176" s="314"/>
+      <c r="I176" s="314"/>
+      <c r="J176" s="314"/>
       <c r="K176" s="113"/>
       <c r="L176" s="113"/>
       <c r="M176" s="113"/>
@@ -45003,16 +45079,16 @@
       <c r="B177" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C177" s="344" t="s">
+      <c r="C177" s="314" t="s">
         <v>64</v>
       </c>
-      <c r="D177" s="344"/>
-      <c r="E177" s="344"/>
-      <c r="F177" s="344"/>
-      <c r="G177" s="344"/>
-      <c r="H177" s="344"/>
-      <c r="I177" s="344"/>
-      <c r="J177" s="344"/>
+      <c r="D177" s="314"/>
+      <c r="E177" s="314"/>
+      <c r="F177" s="314"/>
+      <c r="G177" s="314"/>
+      <c r="H177" s="314"/>
+      <c r="I177" s="314"/>
+      <c r="J177" s="314"/>
       <c r="K177" s="113"/>
       <c r="L177" s="113"/>
       <c r="M177" s="113"/>
@@ -45033,16 +45109,16 @@
       <c r="B178" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C178" s="433" t="s">
+      <c r="C178" s="471" t="s">
         <v>40</v>
       </c>
-      <c r="D178" s="433"/>
-      <c r="E178" s="433"/>
-      <c r="F178" s="433"/>
-      <c r="G178" s="433"/>
-      <c r="H178" s="433"/>
-      <c r="I178" s="433"/>
-      <c r="J178" s="433"/>
+      <c r="D178" s="471"/>
+      <c r="E178" s="471"/>
+      <c r="F178" s="471"/>
+      <c r="G178" s="471"/>
+      <c r="H178" s="471"/>
+      <c r="I178" s="471"/>
+      <c r="J178" s="471"/>
       <c r="K178" s="23"/>
       <c r="L178" s="23"/>
       <c r="M178" s="23"/>
@@ -45063,16 +45139,16 @@
       <c r="B179" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C179" s="344" t="s">
+      <c r="C179" s="314" t="s">
         <v>65</v>
       </c>
-      <c r="D179" s="344"/>
-      <c r="E179" s="344"/>
-      <c r="F179" s="344"/>
-      <c r="G179" s="344"/>
-      <c r="H179" s="344"/>
-      <c r="I179" s="344"/>
-      <c r="J179" s="344"/>
+      <c r="D179" s="314"/>
+      <c r="E179" s="314"/>
+      <c r="F179" s="314"/>
+      <c r="G179" s="314"/>
+      <c r="H179" s="314"/>
+      <c r="I179" s="314"/>
+      <c r="J179" s="314"/>
       <c r="K179" s="23"/>
       <c r="L179" s="23"/>
       <c r="M179" s="23"/>
@@ -45093,16 +45169,16 @@
       <c r="B180" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C180" s="344" t="s">
+      <c r="C180" s="314" t="s">
         <v>66</v>
       </c>
-      <c r="D180" s="344"/>
-      <c r="E180" s="344"/>
-      <c r="F180" s="344"/>
-      <c r="G180" s="344"/>
-      <c r="H180" s="344"/>
-      <c r="I180" s="344"/>
-      <c r="J180" s="344"/>
+      <c r="D180" s="314"/>
+      <c r="E180" s="314"/>
+      <c r="F180" s="314"/>
+      <c r="G180" s="314"/>
+      <c r="H180" s="314"/>
+      <c r="I180" s="314"/>
+      <c r="J180" s="314"/>
       <c r="K180" s="23"/>
       <c r="L180" s="23"/>
       <c r="M180" s="23"/>
@@ -45123,16 +45199,16 @@
       <c r="B181" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C181" s="336" t="s">
+      <c r="C181" s="326" t="s">
         <v>56</v>
       </c>
-      <c r="D181" s="336"/>
-      <c r="E181" s="336"/>
-      <c r="F181" s="336"/>
-      <c r="G181" s="336"/>
-      <c r="H181" s="336"/>
-      <c r="I181" s="336"/>
-      <c r="J181" s="336"/>
+      <c r="D181" s="326"/>
+      <c r="E181" s="326"/>
+      <c r="F181" s="326"/>
+      <c r="G181" s="326"/>
+      <c r="H181" s="326"/>
+      <c r="I181" s="326"/>
+      <c r="J181" s="326"/>
       <c r="K181" s="113"/>
       <c r="L181" s="113"/>
       <c r="M181" s="113"/>
@@ -45153,16 +45229,16 @@
       <c r="B182" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C182" s="433" t="s">
+      <c r="C182" s="471" t="s">
         <v>78</v>
       </c>
-      <c r="D182" s="433"/>
-      <c r="E182" s="433"/>
-      <c r="F182" s="433"/>
-      <c r="G182" s="433"/>
-      <c r="H182" s="433"/>
-      <c r="I182" s="433"/>
-      <c r="J182" s="433"/>
+      <c r="D182" s="471"/>
+      <c r="E182" s="471"/>
+      <c r="F182" s="471"/>
+      <c r="G182" s="471"/>
+      <c r="H182" s="471"/>
+      <c r="I182" s="471"/>
+      <c r="J182" s="471"/>
       <c r="K182" s="113"/>
       <c r="L182" s="113"/>
       <c r="M182" s="113"/>
@@ -45183,16 +45259,16 @@
       <c r="B183" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C183" s="344" t="s">
+      <c r="C183" s="314" t="s">
         <v>83</v>
       </c>
-      <c r="D183" s="344"/>
-      <c r="E183" s="344"/>
-      <c r="F183" s="344"/>
-      <c r="G183" s="344"/>
-      <c r="H183" s="344"/>
-      <c r="I183" s="344"/>
-      <c r="J183" s="344"/>
+      <c r="D183" s="314"/>
+      <c r="E183" s="314"/>
+      <c r="F183" s="314"/>
+      <c r="G183" s="314"/>
+      <c r="H183" s="314"/>
+      <c r="I183" s="314"/>
+      <c r="J183" s="314"/>
       <c r="K183" s="113"/>
       <c r="L183" s="113"/>
       <c r="M183" s="113"/>
@@ -45213,16 +45289,16 @@
       <c r="B184" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C184" s="344" t="s">
+      <c r="C184" s="314" t="s">
         <v>169</v>
       </c>
-      <c r="D184" s="344"/>
-      <c r="E184" s="344"/>
-      <c r="F184" s="344"/>
-      <c r="G184" s="344"/>
-      <c r="H184" s="344"/>
-      <c r="I184" s="344"/>
-      <c r="J184" s="344"/>
+      <c r="D184" s="314"/>
+      <c r="E184" s="314"/>
+      <c r="F184" s="314"/>
+      <c r="G184" s="314"/>
+      <c r="H184" s="314"/>
+      <c r="I184" s="314"/>
+      <c r="J184" s="314"/>
       <c r="K184" s="121"/>
       <c r="L184" s="121"/>
       <c r="M184" s="121"/>
@@ -46884,34 +46960,208 @@
       <c r="X249" s="113"/>
     </row>
   </sheetData>
-  <mergeCells count="251">
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="V88:V96"/>
-    <mergeCell ref="Q97:Q99"/>
-    <mergeCell ref="R88:R96"/>
-    <mergeCell ref="X84:X87"/>
-    <mergeCell ref="Y84:Y87"/>
-    <mergeCell ref="U97:U99"/>
-    <mergeCell ref="S84:V84"/>
-    <mergeCell ref="S85:S87"/>
-    <mergeCell ref="T85:T87"/>
-    <mergeCell ref="U85:U87"/>
-    <mergeCell ref="V85:V87"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:I20"/>
+  <mergeCells count="252">
+    <mergeCell ref="Q119:R119"/>
+    <mergeCell ref="L158:O158"/>
+    <mergeCell ref="B159:H159"/>
+    <mergeCell ref="L159:O159"/>
+    <mergeCell ref="B152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="L152:O153"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="B154:H155"/>
+    <mergeCell ref="I154:I155"/>
+    <mergeCell ref="J154:J155"/>
+    <mergeCell ref="L154:O155"/>
+    <mergeCell ref="B157:H157"/>
+    <mergeCell ref="L157:O157"/>
+    <mergeCell ref="B2:F5"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="H56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="B84:C87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="K88:M96"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B121:H121"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B67:C69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G67:H69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B135:H135"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="L127:O128"/>
+    <mergeCell ref="C184:J184"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="C179:J179"/>
+    <mergeCell ref="C180:J180"/>
+    <mergeCell ref="C181:J181"/>
+    <mergeCell ref="C182:J182"/>
+    <mergeCell ref="C183:J183"/>
+    <mergeCell ref="C176:J176"/>
+    <mergeCell ref="C177:J177"/>
+    <mergeCell ref="C178:J178"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H53:J55"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B53:C55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="L122:O123"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="L124:O125"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="O96:P96"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="O85:P87"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="K85:M87"/>
+    <mergeCell ref="N84:R84"/>
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="Q85:Q87"/>
+    <mergeCell ref="R85:R87"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="H60:J62"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B38:C41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="B102:C105"/>
+    <mergeCell ref="F102:F105"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="H102:H105"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B124:H125"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="B126:H126"/>
+    <mergeCell ref="B127:H128"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="B165:H165"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="B136:H136"/>
+    <mergeCell ref="B137:H137"/>
+    <mergeCell ref="B115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:O116"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L136:O136"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="L138:O138"/>
+    <mergeCell ref="L119:O119"/>
+    <mergeCell ref="B129:H129"/>
+    <mergeCell ref="B138:H138"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B140:H140"/>
+    <mergeCell ref="L162:O162"/>
+    <mergeCell ref="L163:O163"/>
+    <mergeCell ref="L164:O164"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="L145:O145"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="L147:O147"/>
+    <mergeCell ref="B148:H149"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="L148:O149"/>
+    <mergeCell ref="B150:H151"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="L150:O151"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="B158:H158"/>
     <mergeCell ref="B139:H139"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B12:H12"/>
@@ -46936,206 +47186,33 @@
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="L145:O145"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="B148:H149"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="J148:J149"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="L148:O149"/>
-    <mergeCell ref="B150:H151"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="L150:O151"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="B158:H158"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="B165:H165"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="B136:H136"/>
-    <mergeCell ref="B137:H137"/>
-    <mergeCell ref="B115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:O116"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="L136:O136"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="L138:O138"/>
-    <mergeCell ref="L119:O119"/>
-    <mergeCell ref="B129:H129"/>
-    <mergeCell ref="B138:H138"/>
-    <mergeCell ref="B164:H164"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="B140:H140"/>
-    <mergeCell ref="L162:O162"/>
-    <mergeCell ref="L163:O163"/>
-    <mergeCell ref="L164:O164"/>
-    <mergeCell ref="B38:C41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="L134:O134"/>
-    <mergeCell ref="B102:C105"/>
-    <mergeCell ref="F102:F105"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="H102:H105"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B124:H125"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="B126:H126"/>
-    <mergeCell ref="B127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="H60:J62"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="O96:P96"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="O85:P87"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="K85:M87"/>
-    <mergeCell ref="N84:R84"/>
-    <mergeCell ref="N85:N87"/>
-    <mergeCell ref="Q85:Q87"/>
-    <mergeCell ref="R85:R87"/>
-    <mergeCell ref="H63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H53:J55"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B53:C55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="L122:O123"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="L124:O125"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="C184:J184"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="C179:J179"/>
-    <mergeCell ref="C180:J180"/>
-    <mergeCell ref="C181:J181"/>
-    <mergeCell ref="C182:J182"/>
-    <mergeCell ref="C183:J183"/>
-    <mergeCell ref="C176:J176"/>
-    <mergeCell ref="C177:J177"/>
-    <mergeCell ref="C178:J178"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="B84:C87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="K88:M96"/>
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B121:H121"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B67:C69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G67:H69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B135:H135"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="L127:O128"/>
-    <mergeCell ref="B2:F5"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="H56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="L158:O158"/>
-    <mergeCell ref="B159:H159"/>
-    <mergeCell ref="L159:O159"/>
-    <mergeCell ref="B152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="L152:O153"/>
-    <mergeCell ref="K154:K155"/>
-    <mergeCell ref="B154:H155"/>
-    <mergeCell ref="I154:I155"/>
-    <mergeCell ref="J154:J155"/>
-    <mergeCell ref="L154:O155"/>
-    <mergeCell ref="B157:H157"/>
-    <mergeCell ref="L157:O157"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="V88:V96"/>
+    <mergeCell ref="Q97:Q99"/>
+    <mergeCell ref="R88:R96"/>
+    <mergeCell ref="X84:X87"/>
+    <mergeCell ref="Y84:Y87"/>
+    <mergeCell ref="U97:U99"/>
+    <mergeCell ref="S84:V84"/>
+    <mergeCell ref="S85:S87"/>
+    <mergeCell ref="T85:T87"/>
+    <mergeCell ref="U85:U87"/>
+    <mergeCell ref="V85:V87"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:J28">
     <cfRule type="expression" dxfId="4" priority="6">

--- a/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v5.xlsx
+++ b/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v5.xlsx
@@ -3410,7 +3410,7 @@
     <numFmt numFmtId="174" formatCode="0.000"/>
     <numFmt numFmtId="175" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3725,6 +3725,14 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -3981,7 +3989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="509">
+  <cellXfs count="510">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4846,8 +4854,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4855,34 +4903,49 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4897,71 +4960,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4969,86 +4990,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5058,15 +5013,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5092,10 +5038,10 @@
     <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5116,40 +5062,163 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5170,71 +5239,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5254,20 +5269,17 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5314,120 +5326,119 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -34383,7 +34394,7 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" s="43"/>
-      <c r="C2" s="332"/>
+      <c r="C2" s="339"/>
       <c r="D2" s="41" t="s">
         <v>119</v>
       </c>
@@ -34397,14 +34408,14 @@
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="43"/>
-      <c r="C3" s="332"/>
+      <c r="C3" s="339"/>
       <c r="D3" s="41" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
-      <c r="C4" s="332"/>
+      <c r="C4" s="339"/>
       <c r="D4" s="41" t="s">
         <v>121</v>
       </c>
@@ -34413,7 +34424,7 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="43"/>
-      <c r="C5" s="332"/>
+      <c r="C5" s="339"/>
       <c r="D5" s="41" t="s">
         <v>127</v>
       </c>
@@ -34434,27 +34445,27 @@
       </c>
     </row>
     <row r="7" spans="2:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="345" t="s">
+      <c r="B7" s="334" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="345"/>
-      <c r="D7" s="345"/>
-      <c r="E7" s="345"/>
-      <c r="F7" s="345"/>
-      <c r="G7" s="345"/>
+      <c r="C7" s="334"/>
+      <c r="D7" s="334"/>
+      <c r="E7" s="334"/>
+      <c r="F7" s="334"/>
+      <c r="G7" s="334"/>
       <c r="H7" s="40"/>
-      <c r="J7" s="344" t="s">
+      <c r="J7" s="332" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="344"/>
-      <c r="L7" s="344"/>
-      <c r="M7" s="344"/>
+      <c r="K7" s="332"/>
+      <c r="L7" s="332"/>
+      <c r="M7" s="332"/>
     </row>
     <row r="8" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="331" t="s">
+      <c r="B8" s="333" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="331"/>
+      <c r="C8" s="333"/>
       <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
@@ -34496,10 +34507,10 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="331" t="s">
+      <c r="B9" s="333" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="331"/>
+      <c r="C9" s="333"/>
       <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
@@ -34529,10 +34540,10 @@
       </c>
     </row>
     <row r="10" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="331" t="s">
+      <c r="B10" s="333" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="331"/>
+      <c r="C10" s="333"/>
       <c r="D10" s="9" t="s">
         <v>92</v>
       </c>
@@ -34567,10 +34578,10 @@
       </c>
     </row>
     <row r="11" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="331" t="s">
+      <c r="B11" s="333" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="331"/>
+      <c r="C11" s="333"/>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
@@ -34600,10 +34611,10 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="331" t="s">
+      <c r="B12" s="333" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="331"/>
+      <c r="C12" s="333"/>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
@@ -34629,11 +34640,11 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="331" t="str">
+      <c r="B13" s="333" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F12</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C13" s="331"/>
+      <c r="C13" s="333"/>
       <c r="D13" s="8" t="s">
         <v>108</v>
       </c>
@@ -34668,10 +34679,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="331" t="s">
+      <c r="B14" s="333" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="331"/>
+      <c r="C14" s="333"/>
       <c r="D14" s="9" t="s">
         <v>11</v>
       </c>
@@ -34706,10 +34717,10 @@
       </c>
     </row>
     <row r="15" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="331" t="s">
+      <c r="B15" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="331"/>
+      <c r="C15" s="333"/>
       <c r="D15" s="9" t="s">
         <v>105</v>
       </c>
@@ -34741,10 +34752,10 @@
       </c>
     </row>
     <row r="16" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="331" t="s">
+      <c r="B16" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="331"/>
+      <c r="C16" s="333"/>
       <c r="D16" s="9" t="s">
         <v>105</v>
       </c>
@@ -34775,10 +34786,10 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="331" t="s">
+      <c r="B17" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="331"/>
+      <c r="C17" s="333"/>
       <c r="D17" s="9" t="s">
         <v>105</v>
       </c>
@@ -34811,10 +34822,10 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="331" t="s">
+      <c r="B18" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="331"/>
+      <c r="C18" s="333"/>
       <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
@@ -34844,10 +34855,10 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="331" t="s">
+      <c r="B19" s="333" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="331"/>
+      <c r="C19" s="333"/>
       <c r="D19" s="177" t="s">
         <v>13</v>
       </c>
@@ -34877,10 +34888,10 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="331" t="s">
+      <c r="B20" s="333" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="331"/>
+      <c r="C20" s="333"/>
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
@@ -34910,10 +34921,10 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="331" t="s">
+      <c r="B21" s="333" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="331"/>
+      <c r="C21" s="333"/>
       <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
@@ -34995,10 +35006,10 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="331" t="s">
+      <c r="B24" s="333" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="331"/>
+      <c r="C24" s="333"/>
       <c r="D24" s="9" t="s">
         <v>46</v>
       </c>
@@ -35030,10 +35041,10 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="334" t="s">
+      <c r="B25" s="340" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="335"/>
+      <c r="C25" s="341"/>
       <c r="D25" s="28" t="s">
         <v>158</v>
       </c>
@@ -35065,10 +35076,10 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="331" t="s">
+      <c r="B26" s="333" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="331"/>
+      <c r="C26" s="333"/>
       <c r="D26" s="9" t="s">
         <v>54</v>
       </c>
@@ -35100,10 +35111,10 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="334" t="s">
+      <c r="B27" s="340" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="335"/>
+      <c r="C27" s="341"/>
       <c r="D27" s="9" t="s">
         <v>63</v>
       </c>
@@ -35133,10 +35144,10 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="334" t="s">
+      <c r="B28" s="340" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="335"/>
+      <c r="C28" s="341"/>
       <c r="D28" s="9" t="s">
         <v>75</v>
       </c>
@@ -35201,10 +35212,10 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="331" t="s">
+      <c r="B30" s="333" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="331"/>
+      <c r="C30" s="333"/>
       <c r="D30" s="9" t="s">
         <v>84</v>
       </c>
@@ -35236,8 +35247,8 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="332"/>
-      <c r="C31" s="332"/>
+      <c r="B31" s="339"/>
+      <c r="C31" s="339"/>
       <c r="D31" s="11"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
@@ -35247,14 +35258,14 @@
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="327" t="s">
+      <c r="B32" s="346" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="327"/>
-      <c r="D32" s="327"/>
-      <c r="E32" s="327"/>
-      <c r="F32" s="327"/>
-      <c r="G32" s="327"/>
+      <c r="C32" s="346"/>
+      <c r="D32" s="346"/>
+      <c r="E32" s="346"/>
+      <c r="F32" s="346"/>
+      <c r="G32" s="346"/>
       <c r="H32" s="66"/>
       <c r="J32" s="22"/>
       <c r="K32" s="23"/>
@@ -35262,10 +35273,10 @@
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="336" t="s">
+      <c r="B33" s="343" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="336"/>
+      <c r="C33" s="343"/>
       <c r="D33" s="7" t="s">
         <v>157</v>
       </c>
@@ -35283,10 +35294,10 @@
       <c r="M33" s="24"/>
     </row>
     <row r="34" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="337" t="s">
+      <c r="B34" s="344" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="338"/>
+      <c r="C34" s="345"/>
       <c r="D34" s="7" t="s">
         <v>166</v>
       </c>
@@ -35330,10 +35341,10 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="3.5">
-      <c r="B37" s="331" t="s">
+      <c r="B37" s="333" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="331"/>
+      <c r="C37" s="333"/>
       <c r="D37" s="38" t="s">
         <v>258</v>
       </c>
@@ -35344,22 +35355,22 @@
         <f>J9</f>
         <v>3.4760947255444699E-3</v>
       </c>
-      <c r="G37" s="319"/>
-      <c r="H37" s="321"/>
-      <c r="I37" s="341" t="s">
+      <c r="G37" s="327"/>
+      <c r="H37" s="328"/>
+      <c r="I37" s="336" t="s">
         <v>72</v>
       </c>
-      <c r="J37" s="342"/>
-      <c r="K37" s="342"/>
-      <c r="L37" s="342"/>
-      <c r="M37" s="342"/>
-      <c r="N37" s="343"/>
+      <c r="J37" s="337"/>
+      <c r="K37" s="337"/>
+      <c r="L37" s="337"/>
+      <c r="M37" s="337"/>
+      <c r="N37" s="338"/>
     </row>
     <row r="38" spans="2:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="333" t="s">
+      <c r="B38" s="335" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="333"/>
+      <c r="C38" s="335"/>
       <c r="D38" s="45" t="s">
         <v>135</v>
       </c>
@@ -35370,20 +35381,20 @@
         <f>ROUND(MIN(J16:J30),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G38" s="319"/>
-      <c r="H38" s="321"/>
-      <c r="I38" s="319"/>
-      <c r="J38" s="320"/>
-      <c r="K38" s="320"/>
-      <c r="L38" s="320"/>
-      <c r="M38" s="320"/>
-      <c r="N38" s="321"/>
+      <c r="G38" s="327"/>
+      <c r="H38" s="328"/>
+      <c r="I38" s="327"/>
+      <c r="J38" s="331"/>
+      <c r="K38" s="331"/>
+      <c r="L38" s="331"/>
+      <c r="M38" s="331"/>
+      <c r="N38" s="328"/>
     </row>
     <row r="39" spans="2:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="333" t="s">
+      <c r="B39" s="335" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="333"/>
+      <c r="C39" s="335"/>
       <c r="D39" s="45" t="s">
         <v>135</v>
       </c>
@@ -35394,20 +35405,20 @@
         <f>ROUND((F16/F13*(SIN(F21*PI()/180)+(F18/F14)*COS(F21*PI()/180)))/(1+0.058*(F16/F13)*(F14/F11)*COS(F21*PI()/180)),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G39" s="319"/>
-      <c r="H39" s="321"/>
-      <c r="I39" s="319"/>
-      <c r="J39" s="320"/>
-      <c r="K39" s="320"/>
-      <c r="L39" s="320"/>
-      <c r="M39" s="320"/>
-      <c r="N39" s="321"/>
+      <c r="G39" s="327"/>
+      <c r="H39" s="328"/>
+      <c r="I39" s="327"/>
+      <c r="J39" s="331"/>
+      <c r="K39" s="331"/>
+      <c r="L39" s="331"/>
+      <c r="M39" s="331"/>
+      <c r="N39" s="328"/>
     </row>
     <row r="40" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="333" t="s">
+      <c r="B40" s="335" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="333"/>
+      <c r="C40" s="335"/>
       <c r="D40" s="45" t="s">
         <v>259</v>
       </c>
@@ -35418,20 +35429,20 @@
         <f>(F18/F39)/60</f>
         <v>8.095617529880478</v>
       </c>
-      <c r="G40" s="319"/>
-      <c r="H40" s="321"/>
-      <c r="I40" s="319"/>
-      <c r="J40" s="320"/>
-      <c r="K40" s="320"/>
-      <c r="L40" s="320"/>
-      <c r="M40" s="320"/>
-      <c r="N40" s="321"/>
+      <c r="G40" s="327"/>
+      <c r="H40" s="328"/>
+      <c r="I40" s="327"/>
+      <c r="J40" s="331"/>
+      <c r="K40" s="331"/>
+      <c r="L40" s="331"/>
+      <c r="M40" s="331"/>
+      <c r="N40" s="328"/>
     </row>
     <row r="41" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="333" t="s">
+      <c r="B41" s="335" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="333"/>
+      <c r="C41" s="335"/>
       <c r="D41" s="45" t="s">
         <v>27</v>
       </c>
@@ -35442,20 +35453,20 @@
         <f>ROUND(F10/(F20*F14*F39),0)</f>
         <v>94</v>
       </c>
-      <c r="G41" s="319"/>
-      <c r="H41" s="321"/>
-      <c r="I41" s="319"/>
-      <c r="J41" s="320"/>
-      <c r="K41" s="320"/>
-      <c r="L41" s="320"/>
-      <c r="M41" s="320"/>
-      <c r="N41" s="321"/>
+      <c r="G41" s="327"/>
+      <c r="H41" s="328"/>
+      <c r="I41" s="327"/>
+      <c r="J41" s="331"/>
+      <c r="K41" s="331"/>
+      <c r="L41" s="331"/>
+      <c r="M41" s="331"/>
+      <c r="N41" s="328"/>
     </row>
     <row r="42" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="333" t="s">
+      <c r="B42" s="335" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="333"/>
+      <c r="C42" s="335"/>
       <c r="D42" s="45" t="s">
         <v>260</v>
       </c>
@@ -35466,23 +35477,23 @@
         <f>((F41*F14+(F41-1)*F19)/SIN(F21*PI()/180))</f>
         <v>5.8566411306595638</v>
       </c>
-      <c r="G42" s="319"/>
-      <c r="H42" s="321"/>
-      <c r="I42" s="328" t="s">
+      <c r="G42" s="327"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="347" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="329"/>
-      <c r="K42" s="329"/>
-      <c r="L42" s="329"/>
-      <c r="M42" s="329"/>
-      <c r="N42" s="330"/>
+      <c r="J42" s="348"/>
+      <c r="K42" s="348"/>
+      <c r="L42" s="348"/>
+      <c r="M42" s="348"/>
+      <c r="N42" s="349"/>
       <c r="O42" s="74"/>
     </row>
     <row r="43" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="333" t="s">
+      <c r="B43" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="333"/>
+      <c r="C43" s="335"/>
       <c r="D43" s="45" t="s">
         <v>261</v>
       </c>
@@ -35493,20 +35504,20 @@
         <f>F18*SIN(F21*PI()/180)</f>
         <v>1.0558581722939875</v>
       </c>
-      <c r="G43" s="319"/>
-      <c r="H43" s="321"/>
-      <c r="I43" s="319"/>
-      <c r="J43" s="320"/>
-      <c r="K43" s="320"/>
-      <c r="L43" s="320"/>
-      <c r="M43" s="320"/>
-      <c r="N43" s="321"/>
+      <c r="G43" s="327"/>
+      <c r="H43" s="328"/>
+      <c r="I43" s="327"/>
+      <c r="J43" s="331"/>
+      <c r="K43" s="331"/>
+      <c r="L43" s="331"/>
+      <c r="M43" s="331"/>
+      <c r="N43" s="328"/>
     </row>
     <row r="44" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="315" t="s">
+      <c r="B44" s="329" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="316"/>
+      <c r="C44" s="330"/>
       <c r="D44" s="56" t="s">
         <v>262</v>
       </c>
@@ -35517,20 +35528,20 @@
         <f>1.5*F24</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G44" s="319"/>
-      <c r="H44" s="321"/>
-      <c r="I44" s="319"/>
-      <c r="J44" s="320"/>
-      <c r="K44" s="320"/>
-      <c r="L44" s="320"/>
-      <c r="M44" s="320"/>
-      <c r="N44" s="321"/>
+      <c r="G44" s="327"/>
+      <c r="H44" s="328"/>
+      <c r="I44" s="327"/>
+      <c r="J44" s="331"/>
+      <c r="K44" s="331"/>
+      <c r="L44" s="331"/>
+      <c r="M44" s="331"/>
+      <c r="N44" s="328"/>
     </row>
     <row r="45" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="315" t="s">
+      <c r="B45" s="329" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="316"/>
+      <c r="C45" s="330"/>
       <c r="D45" s="56" t="s">
         <v>263</v>
       </c>
@@ -35551,10 +35562,10 @@
       <c r="N45" s="93"/>
     </row>
     <row r="46" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="315" t="s">
+      <c r="B46" s="329" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="316"/>
+      <c r="C46" s="330"/>
       <c r="D46" s="56" t="s">
         <v>262</v>
       </c>
@@ -35575,10 +35586,10 @@
       <c r="N46" s="93"/>
     </row>
     <row r="47" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="333" t="s">
+      <c r="B47" s="335" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="333"/>
+      <c r="C47" s="335"/>
       <c r="D47" s="56" t="s">
         <v>264</v>
       </c>
@@ -35589,24 +35600,24 @@
         <f>F25+F43+F24</f>
         <v>2.2558581722939874</v>
       </c>
-      <c r="G47" s="319"/>
-      <c r="H47" s="321"/>
-      <c r="I47" s="319"/>
-      <c r="J47" s="320"/>
-      <c r="K47" s="320"/>
-      <c r="L47" s="320"/>
-      <c r="M47" s="320"/>
-      <c r="N47" s="321"/>
+      <c r="G47" s="327"/>
+      <c r="H47" s="328"/>
+      <c r="I47" s="327"/>
+      <c r="J47" s="331"/>
+      <c r="K47" s="331"/>
+      <c r="L47" s="331"/>
+      <c r="M47" s="331"/>
+      <c r="N47" s="328"/>
       <c r="Q47" s="12">
         <f>6*0.0254</f>
         <v>0.15239999999999998</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="315" t="s">
+      <c r="B48" s="329" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="316"/>
+      <c r="C48" s="330"/>
       <c r="D48" s="56" t="s">
         <v>265</v>
       </c>
@@ -35617,26 +35628,26 @@
         <f>F47*F42*F20-(F41-1)*F18*F20*F19</f>
         <v>15.554808847800167</v>
       </c>
-      <c r="G48" s="319"/>
-      <c r="H48" s="321"/>
-      <c r="I48" s="328" t="s">
+      <c r="G48" s="327"/>
+      <c r="H48" s="328"/>
+      <c r="I48" s="347" t="s">
         <v>130</v>
       </c>
-      <c r="J48" s="329"/>
-      <c r="K48" s="329"/>
-      <c r="L48" s="329"/>
-      <c r="M48" s="329"/>
-      <c r="N48" s="330"/>
+      <c r="J48" s="348"/>
+      <c r="K48" s="348"/>
+      <c r="L48" s="348"/>
+      <c r="M48" s="348"/>
+      <c r="N48" s="349"/>
       <c r="Q48" s="75">
         <f>Q47/2</f>
         <v>7.619999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="333" t="s">
+      <c r="B49" s="335" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="333"/>
+      <c r="C49" s="335"/>
       <c r="D49" s="56" t="s">
         <v>266</v>
       </c>
@@ -35647,24 +35658,24 @@
         <f>(F48/F10)/60</f>
         <v>18.110151179182871</v>
       </c>
-      <c r="G49" s="319"/>
-      <c r="H49" s="321"/>
-      <c r="I49" s="319"/>
-      <c r="J49" s="320"/>
-      <c r="K49" s="320"/>
-      <c r="L49" s="320"/>
-      <c r="M49" s="320"/>
-      <c r="N49" s="321"/>
+      <c r="G49" s="327"/>
+      <c r="H49" s="328"/>
+      <c r="I49" s="327"/>
+      <c r="J49" s="331"/>
+      <c r="K49" s="331"/>
+      <c r="L49" s="331"/>
+      <c r="M49" s="331"/>
+      <c r="N49" s="328"/>
       <c r="Q49" s="12">
         <f>Q48/3</f>
         <v>2.5399999999999995E-2</v>
       </c>
     </row>
     <row r="50" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="315" t="s">
+      <c r="B50" s="329" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="316"/>
+      <c r="C50" s="330"/>
       <c r="D50" s="56" t="s">
         <v>91</v>
       </c>
@@ -35675,14 +35686,14 @@
         <f>F10*86400/(F42*F20)</f>
         <v>173.21341640466753</v>
       </c>
-      <c r="G50" s="319"/>
-      <c r="H50" s="321"/>
-      <c r="I50" s="319"/>
-      <c r="J50" s="320"/>
-      <c r="K50" s="320"/>
-      <c r="L50" s="320"/>
-      <c r="M50" s="320"/>
-      <c r="N50" s="321"/>
+      <c r="G50" s="327"/>
+      <c r="H50" s="328"/>
+      <c r="I50" s="327"/>
+      <c r="J50" s="331"/>
+      <c r="K50" s="331"/>
+      <c r="L50" s="331"/>
+      <c r="M50" s="331"/>
+      <c r="N50" s="328"/>
       <c r="Q50" s="12">
         <f>Q49/2</f>
         <v>1.2699999999999998E-2</v>
@@ -35693,10 +35704,10 @@
       </c>
     </row>
     <row r="51" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="333" t="s">
+      <c r="B51" s="335" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="333"/>
+      <c r="C51" s="335"/>
       <c r="D51" s="56" t="s">
         <v>73</v>
       </c>
@@ -35705,20 +35716,20 @@
         <f>"1: "&amp;ROUND(F42/F20,1)</f>
         <v>1: 4,8</v>
       </c>
-      <c r="G51" s="319"/>
-      <c r="H51" s="321"/>
-      <c r="I51" s="319"/>
-      <c r="J51" s="320"/>
-      <c r="K51" s="320"/>
-      <c r="L51" s="320"/>
-      <c r="M51" s="320"/>
-      <c r="N51" s="321"/>
+      <c r="G51" s="327"/>
+      <c r="H51" s="328"/>
+      <c r="I51" s="327"/>
+      <c r="J51" s="331"/>
+      <c r="K51" s="331"/>
+      <c r="L51" s="331"/>
+      <c r="M51" s="331"/>
+      <c r="N51" s="328"/>
     </row>
     <row r="52" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="315" t="s">
+      <c r="B52" s="329" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="316"/>
+      <c r="C52" s="330"/>
       <c r="D52" s="56" t="s">
         <v>267</v>
       </c>
@@ -35729,20 +35740,20 @@
         <f>((F20-F30)/2)*TAN(F29*PI()/180)</f>
         <v>0.79919162457288717</v>
       </c>
-      <c r="G52" s="319"/>
-      <c r="H52" s="321"/>
-      <c r="I52" s="319"/>
-      <c r="J52" s="320"/>
-      <c r="K52" s="320"/>
-      <c r="L52" s="320"/>
-      <c r="M52" s="320"/>
-      <c r="N52" s="321"/>
+      <c r="G52" s="327"/>
+      <c r="H52" s="328"/>
+      <c r="I52" s="327"/>
+      <c r="J52" s="331"/>
+      <c r="K52" s="331"/>
+      <c r="L52" s="331"/>
+      <c r="M52" s="331"/>
+      <c r="N52" s="328"/>
     </row>
     <row r="53" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="315" t="s">
+      <c r="B53" s="329" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="316"/>
+      <c r="C53" s="330"/>
       <c r="D53" s="56" t="s">
         <v>268</v>
       </c>
@@ -35753,20 +35764,20 @@
         <f>2*F28+F42</f>
         <v>6.4566411306595635</v>
       </c>
-      <c r="G53" s="319"/>
-      <c r="H53" s="321"/>
-      <c r="I53" s="319"/>
-      <c r="J53" s="320"/>
-      <c r="K53" s="320"/>
-      <c r="L53" s="320"/>
-      <c r="M53" s="320"/>
-      <c r="N53" s="321"/>
+      <c r="G53" s="327"/>
+      <c r="H53" s="328"/>
+      <c r="I53" s="327"/>
+      <c r="J53" s="331"/>
+      <c r="K53" s="331"/>
+      <c r="L53" s="331"/>
+      <c r="M53" s="331"/>
+      <c r="N53" s="328"/>
     </row>
     <row r="54" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="315" t="s">
+      <c r="B54" s="329" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="316"/>
+      <c r="C54" s="330"/>
       <c r="D54" s="56" t="s">
         <v>269</v>
       </c>
@@ -35777,20 +35788,20 @@
         <f>(2*F28+F20)*F9+(F9-1)*F27</f>
         <v>7.8767999999999994</v>
       </c>
-      <c r="G54" s="319"/>
-      <c r="H54" s="321"/>
-      <c r="I54" s="319"/>
-      <c r="J54" s="320"/>
-      <c r="K54" s="320"/>
-      <c r="L54" s="320"/>
-      <c r="M54" s="320"/>
-      <c r="N54" s="321"/>
+      <c r="G54" s="327"/>
+      <c r="H54" s="328"/>
+      <c r="I54" s="327"/>
+      <c r="J54" s="331"/>
+      <c r="K54" s="331"/>
+      <c r="L54" s="331"/>
+      <c r="M54" s="331"/>
+      <c r="N54" s="328"/>
     </row>
     <row r="55" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="333" t="s">
+      <c r="B55" s="335" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="333"/>
+      <c r="C55" s="335"/>
       <c r="D55" s="56" t="s">
         <v>270</v>
       </c>
@@ -35801,14 +35812,14 @@
         <f>F28+F52+F25+F43+F24+F26</f>
         <v>3.6550497968668743</v>
       </c>
-      <c r="G55" s="319"/>
-      <c r="H55" s="321"/>
-      <c r="I55" s="319"/>
-      <c r="J55" s="320"/>
-      <c r="K55" s="320"/>
-      <c r="L55" s="320"/>
-      <c r="M55" s="320"/>
-      <c r="N55" s="321"/>
+      <c r="G55" s="327"/>
+      <c r="H55" s="328"/>
+      <c r="I55" s="327"/>
+      <c r="J55" s="331"/>
+      <c r="K55" s="331"/>
+      <c r="L55" s="331"/>
+      <c r="M55" s="331"/>
+      <c r="N55" s="328"/>
     </row>
     <row r="56" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="80"/>
@@ -35843,10 +35854,10 @@
       <c r="N57" s="83"/>
     </row>
     <row r="58" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="315" t="s">
+      <c r="B58" s="329" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="316"/>
+      <c r="C58" s="330"/>
       <c r="D58" s="56" t="s">
         <v>271</v>
       </c>
@@ -35857,20 +35868,20 @@
         <f>F42+F28</f>
         <v>6.1566411306595636</v>
       </c>
-      <c r="G58" s="319"/>
-      <c r="H58" s="321"/>
-      <c r="I58" s="319"/>
-      <c r="J58" s="320"/>
-      <c r="K58" s="320"/>
-      <c r="L58" s="320"/>
-      <c r="M58" s="320"/>
-      <c r="N58" s="321"/>
+      <c r="G58" s="327"/>
+      <c r="H58" s="328"/>
+      <c r="I58" s="327"/>
+      <c r="J58" s="331"/>
+      <c r="K58" s="331"/>
+      <c r="L58" s="331"/>
+      <c r="M58" s="331"/>
+      <c r="N58" s="328"/>
     </row>
     <row r="59" spans="2:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="315" t="s">
+      <c r="B59" s="329" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="316"/>
+      <c r="C59" s="330"/>
       <c r="D59" s="56" t="s">
         <v>272</v>
       </c>
@@ -35880,20 +35891,20 @@
       <c r="F59" s="95">
         <v>8</v>
       </c>
-      <c r="G59" s="319"/>
-      <c r="H59" s="321"/>
-      <c r="I59" s="319"/>
-      <c r="J59" s="320"/>
-      <c r="K59" s="320"/>
-      <c r="L59" s="320"/>
-      <c r="M59" s="320"/>
-      <c r="N59" s="321"/>
+      <c r="G59" s="327"/>
+      <c r="H59" s="328"/>
+      <c r="I59" s="327"/>
+      <c r="J59" s="331"/>
+      <c r="K59" s="331"/>
+      <c r="L59" s="331"/>
+      <c r="M59" s="331"/>
+      <c r="N59" s="328"/>
     </row>
     <row r="60" spans="2:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="315" t="s">
+      <c r="B60" s="329" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="316"/>
+      <c r="C60" s="330"/>
       <c r="D60" s="56" t="s">
         <v>273</v>
       </c>
@@ -35904,8 +35915,8 @@
         <f>IF(F59=4,0.10342,IF(F59=6,0.15222,IF(F59=8,0.20942)))</f>
         <v>0.20942</v>
       </c>
-      <c r="G60" s="319"/>
-      <c r="H60" s="321"/>
+      <c r="G60" s="327"/>
+      <c r="H60" s="328"/>
       <c r="I60" s="67"/>
       <c r="J60" s="68"/>
       <c r="K60" s="68"/>
@@ -35914,10 +35925,10 @@
       <c r="N60" s="69"/>
     </row>
     <row r="61" spans="2:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="322" t="s">
+      <c r="B61" s="324" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="322"/>
+      <c r="C61" s="324"/>
       <c r="D61" s="176" t="s">
         <v>274</v>
       </c>
@@ -35928,20 +35939,20 @@
         <f>F60*SQRT(0.4/F33)</f>
         <v>4.1884000000000005E-2</v>
       </c>
-      <c r="G61" s="319"/>
-      <c r="H61" s="321"/>
-      <c r="I61" s="323"/>
-      <c r="J61" s="324"/>
-      <c r="K61" s="324"/>
-      <c r="L61" s="324"/>
-      <c r="M61" s="324"/>
-      <c r="N61" s="325"/>
+      <c r="G61" s="327"/>
+      <c r="H61" s="328"/>
+      <c r="I61" s="353"/>
+      <c r="J61" s="354"/>
+      <c r="K61" s="354"/>
+      <c r="L61" s="354"/>
+      <c r="M61" s="354"/>
+      <c r="N61" s="355"/>
     </row>
     <row r="62" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="322" t="s">
+      <c r="B62" s="324" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="322"/>
+      <c r="C62" s="324"/>
       <c r="D62" s="176" t="s">
         <v>275</v>
       </c>
@@ -35952,8 +35963,8 @@
         <f>IF(AND(F61&gt;0.02363,F61&lt;0.0302),1,IF(AND(F61&gt;0.0302,F61&lt;0.03814),1.25,IF(AND(F61&gt;0.03814,F61&lt;0.04368),1.5,IF(AND(F61&gt;0.04368,F61&lt;0.05458),2,IF(AND(F61&gt;0.05458,F61&lt;0.06607),2.5,IF(AND(F61&gt;0.06607,F61&lt;0.08042),3,IF(AND(F61&gt;0.08042,F61&lt;0.10342),4)))))))</f>
         <v>1.5</v>
       </c>
-      <c r="G62" s="317"/>
-      <c r="H62" s="318"/>
+      <c r="G62" s="351"/>
+      <c r="H62" s="352"/>
       <c r="I62" s="76"/>
       <c r="J62" s="77"/>
       <c r="K62" s="77"/>
@@ -35962,10 +35973,10 @@
       <c r="N62" s="78"/>
     </row>
     <row r="63" spans="2:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="322" t="s">
+      <c r="B63" s="324" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="322"/>
+      <c r="C63" s="324"/>
       <c r="D63" s="176" t="s">
         <v>274</v>
       </c>
@@ -35976,8 +35987,8 @@
         <f>IF(F62=1,0.0302,IF(F62=1.25,0.03814,IF(F62=1.5,0.04368,IF(F62=2,0.05458,IF(F62=2.5,0.06607,IF(F62=3,0.08042,IF(F62=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G63" s="319"/>
-      <c r="H63" s="321"/>
+      <c r="G63" s="327"/>
+      <c r="H63" s="328"/>
       <c r="I63" s="98"/>
       <c r="J63" s="77"/>
       <c r="K63" s="77"/>
@@ -35986,30 +35997,30 @@
       <c r="N63" s="78"/>
     </row>
     <row r="64" spans="2:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="339" t="s">
+      <c r="B64" s="325" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="340"/>
+      <c r="C64" s="326"/>
       <c r="D64" s="56"/>
       <c r="E64" s="46"/>
       <c r="F64" s="89">
         <f>(F63/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G64" s="319"/>
-      <c r="H64" s="321"/>
-      <c r="I64" s="319"/>
-      <c r="J64" s="320"/>
-      <c r="K64" s="320"/>
-      <c r="L64" s="320"/>
-      <c r="M64" s="320"/>
-      <c r="N64" s="321"/>
+      <c r="G64" s="327"/>
+      <c r="H64" s="328"/>
+      <c r="I64" s="327"/>
+      <c r="J64" s="331"/>
+      <c r="K64" s="331"/>
+      <c r="L64" s="331"/>
+      <c r="M64" s="331"/>
+      <c r="N64" s="328"/>
     </row>
     <row r="65" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="322" t="s">
+      <c r="B65" s="324" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="322"/>
+      <c r="C65" s="324"/>
       <c r="D65" s="176" t="s">
         <v>275</v>
       </c>
@@ -36030,10 +36041,10 @@
       <c r="N65" s="93"/>
     </row>
     <row r="66" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="322" t="s">
+      <c r="B66" s="324" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="322"/>
+      <c r="C66" s="324"/>
       <c r="D66" s="176" t="s">
         <v>274</v>
       </c>
@@ -36042,8 +36053,8 @@
         <f>IF(F65=1,0.0302,IF(F65=1.25,0.03814,IF(F65=1.5,0.04368,IF(F65=2,0.05458,IF(F65=2.5,0.06607,IF(F65=3,0.08042,IF(F65=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G66" s="319"/>
-      <c r="H66" s="321"/>
+      <c r="G66" s="327"/>
+      <c r="H66" s="328"/>
       <c r="I66" s="92"/>
       <c r="J66" s="94"/>
       <c r="K66" s="94"/>
@@ -36052,18 +36063,18 @@
       <c r="N66" s="93"/>
     </row>
     <row r="67" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="339" t="s">
+      <c r="B67" s="325" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="340"/>
+      <c r="C67" s="326"/>
       <c r="D67" s="56"/>
       <c r="E67" s="46"/>
       <c r="F67" s="89">
         <f>(F66/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G67" s="319"/>
-      <c r="H67" s="321"/>
+      <c r="G67" s="327"/>
+      <c r="H67" s="328"/>
       <c r="I67" s="92"/>
       <c r="J67" s="101"/>
       <c r="K67" s="94"/>
@@ -36072,10 +36083,10 @@
       <c r="N67" s="93"/>
     </row>
     <row r="68" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="315" t="s">
+      <c r="B68" s="329" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="316"/>
+      <c r="C68" s="330"/>
       <c r="D68" s="56" t="s">
         <v>276</v>
       </c>
@@ -36086,8 +36097,8 @@
         <f>F52+F25+F43+F24</f>
         <v>3.0550497968668746</v>
       </c>
-      <c r="G68" s="319"/>
-      <c r="H68" s="321"/>
+      <c r="G68" s="327"/>
+      <c r="H68" s="328"/>
       <c r="I68" s="76"/>
       <c r="J68" s="77"/>
       <c r="K68" s="77"/>
@@ -36096,10 +36107,10 @@
       <c r="N68" s="78"/>
     </row>
     <row r="69" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="315" t="s">
+      <c r="B69" s="329" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="316"/>
+      <c r="C69" s="330"/>
       <c r="D69" s="56" t="s">
         <v>277</v>
       </c>
@@ -36108,8 +36119,8 @@
         <f>F58/F33</f>
         <v>0.61566411306595636</v>
       </c>
-      <c r="G69" s="317"/>
-      <c r="H69" s="318"/>
+      <c r="G69" s="351"/>
+      <c r="H69" s="352"/>
       <c r="I69" s="76"/>
       <c r="J69" s="77"/>
       <c r="K69" s="77"/>
@@ -36118,10 +36129,10 @@
       <c r="N69" s="78"/>
     </row>
     <row r="70" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="339" t="s">
+      <c r="B70" s="325" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="340"/>
+      <c r="C70" s="326"/>
       <c r="D70" s="56" t="s">
         <v>278</v>
       </c>
@@ -36142,10 +36153,10 @@
       <c r="N70" s="78"/>
     </row>
     <row r="71" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="339" t="s">
+      <c r="B71" s="325" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="340"/>
+      <c r="C71" s="326"/>
       <c r="D71" s="56" t="s">
         <v>278</v>
       </c>
@@ -36154,30 +36165,30 @@
         <f>F42/F33</f>
         <v>0.58566411306595634</v>
       </c>
-      <c r="G71" s="319"/>
-      <c r="H71" s="321"/>
-      <c r="I71" s="346" t="s">
+      <c r="G71" s="327"/>
+      <c r="H71" s="328"/>
+      <c r="I71" s="320" t="s">
         <v>171</v>
       </c>
-      <c r="J71" s="347"/>
-      <c r="K71" s="347"/>
-      <c r="L71" s="347"/>
-      <c r="M71" s="347"/>
-      <c r="N71" s="348"/>
+      <c r="J71" s="321"/>
+      <c r="K71" s="321"/>
+      <c r="L71" s="321"/>
+      <c r="M71" s="321"/>
+      <c r="N71" s="322"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="332"/>
-      <c r="C72" s="332"/>
+      <c r="B72" s="339"/>
+      <c r="C72" s="339"/>
       <c r="J72" s="22"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="24"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="327" t="s">
+      <c r="B73" s="346" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="327"/>
+      <c r="C73" s="346"/>
       <c r="J73" s="22"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
@@ -36193,13 +36204,13 @@
       <c r="B75" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="314" t="s">
+      <c r="C75" s="350" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="314"/>
-      <c r="E75" s="314"/>
-      <c r="F75" s="314"/>
-      <c r="G75" s="314"/>
+      <c r="D75" s="350"/>
+      <c r="E75" s="350"/>
+      <c r="F75" s="350"/>
+      <c r="G75" s="350"/>
       <c r="H75" s="65"/>
       <c r="I75" s="96"/>
       <c r="J75" s="22"/>
@@ -36211,13 +36222,13 @@
       <c r="B76" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="314" t="s">
+      <c r="C76" s="350" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="314"/>
-      <c r="E76" s="314"/>
-      <c r="F76" s="314"/>
-      <c r="G76" s="314"/>
+      <c r="D76" s="350"/>
+      <c r="E76" s="350"/>
+      <c r="F76" s="350"/>
+      <c r="G76" s="350"/>
       <c r="H76" s="65"/>
       <c r="J76" s="97"/>
       <c r="K76" s="23"/>
@@ -36228,13 +36239,13 @@
       <c r="B77" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="326" t="s">
+      <c r="C77" s="342" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="326"/>
-      <c r="E77" s="326"/>
-      <c r="F77" s="326"/>
-      <c r="G77" s="326"/>
+      <c r="D77" s="342"/>
+      <c r="E77" s="342"/>
+      <c r="F77" s="342"/>
+      <c r="G77" s="342"/>
       <c r="H77" s="64"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23"/>
@@ -36245,13 +36256,13 @@
       <c r="B78" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="314" t="s">
+      <c r="C78" s="350" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="314"/>
-      <c r="E78" s="314"/>
-      <c r="F78" s="314"/>
-      <c r="G78" s="314"/>
+      <c r="D78" s="350"/>
+      <c r="E78" s="350"/>
+      <c r="F78" s="350"/>
+      <c r="G78" s="350"/>
       <c r="H78" s="65"/>
       <c r="J78" s="22"/>
       <c r="K78" s="23"/>
@@ -36262,16 +36273,16 @@
       <c r="B79" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="314" t="s">
+      <c r="C79" s="350" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="314"/>
-      <c r="E79" s="314"/>
-      <c r="F79" s="314"/>
-      <c r="G79" s="314"/>
+      <c r="D79" s="350"/>
+      <c r="E79" s="350"/>
+      <c r="F79" s="350"/>
+      <c r="G79" s="350"/>
       <c r="H79" s="65"/>
-      <c r="J79" s="349"/>
-      <c r="K79" s="349"/>
+      <c r="J79" s="323"/>
+      <c r="K79" s="323"/>
       <c r="L79" s="23"/>
       <c r="M79" s="24"/>
     </row>
@@ -36279,13 +36290,13 @@
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="326" t="s">
+      <c r="C80" s="342" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="326"/>
-      <c r="E80" s="326"/>
-      <c r="F80" s="326"/>
-      <c r="G80" s="326"/>
+      <c r="D80" s="342"/>
+      <c r="E80" s="342"/>
+      <c r="F80" s="342"/>
+      <c r="G80" s="342"/>
       <c r="H80" s="64"/>
       <c r="J80" s="22"/>
       <c r="K80" s="23"/>
@@ -36296,13 +36307,13 @@
       <c r="B81" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="326" t="s">
+      <c r="C81" s="342" t="s">
         <v>78</v>
       </c>
-      <c r="D81" s="326"/>
-      <c r="E81" s="326"/>
-      <c r="F81" s="326"/>
-      <c r="G81" s="326"/>
+      <c r="D81" s="342"/>
+      <c r="E81" s="342"/>
+      <c r="F81" s="342"/>
+      <c r="G81" s="342"/>
       <c r="H81" s="64"/>
       <c r="J81" s="22"/>
       <c r="K81" s="23"/>
@@ -36313,13 +36324,13 @@
       <c r="B82" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="314" t="s">
+      <c r="C82" s="350" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="314"/>
-      <c r="E82" s="314"/>
-      <c r="F82" s="314"/>
-      <c r="G82" s="314"/>
+      <c r="D82" s="350"/>
+      <c r="E82" s="350"/>
+      <c r="F82" s="350"/>
+      <c r="G82" s="350"/>
       <c r="H82" s="65"/>
       <c r="J82" s="22"/>
       <c r="K82" s="23"/>
@@ -36330,13 +36341,13 @@
       <c r="B83" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="314" t="s">
+      <c r="C83" s="350" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="314"/>
-      <c r="E83" s="314"/>
-      <c r="F83" s="314"/>
-      <c r="G83" s="314"/>
+      <c r="D83" s="350"/>
+      <c r="E83" s="350"/>
+      <c r="F83" s="350"/>
+      <c r="G83" s="350"/>
       <c r="H83" s="79"/>
       <c r="J83" s="22"/>
       <c r="K83" s="23"/>
@@ -37758,6 +37769,105 @@
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="I71:N71"/>
     <mergeCell ref="J79:K79"/>
     <mergeCell ref="B65:C65"/>
@@ -37782,105 +37892,6 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="I52:N52"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="I61:N61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="B73:C73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37933,13 +37944,13 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="351" t="s">
+      <c r="B7" s="360" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="351"/>
-      <c r="D7" s="351"/>
-      <c r="E7" s="351"/>
-      <c r="F7" s="351"/>
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="360"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
@@ -37948,10 +37959,10 @@
       <c r="C9" s="41"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="334" t="s">
+      <c r="B10" s="340" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="335"/>
+      <c r="C10" s="341"/>
       <c r="D10" s="9" t="s">
         <v>0</v>
       </c>
@@ -37963,10 +37974,10 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="334" t="s">
+      <c r="B11" s="340" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="335"/>
+      <c r="C11" s="341"/>
       <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
@@ -37978,10 +37989,10 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="334" t="s">
+      <c r="B12" s="340" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="335"/>
+      <c r="C12" s="341"/>
       <c r="D12" s="9" t="s">
         <v>92</v>
       </c>
@@ -37994,10 +38005,10 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="334" t="s">
+      <c r="B13" s="340" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="335"/>
+      <c r="C13" s="341"/>
       <c r="D13" s="9" t="s">
         <v>2</v>
       </c>
@@ -38009,10 +38020,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="334" t="s">
+      <c r="B14" s="340" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="335"/>
+      <c r="C14" s="341"/>
       <c r="D14" s="36"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3" t="s">
@@ -38020,11 +38031,11 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="334" t="str">
+      <c r="B15" s="340" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F14</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C15" s="335"/>
+      <c r="C15" s="341"/>
       <c r="D15" s="8" t="s">
         <v>108</v>
       </c>
@@ -38034,10 +38045,10 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="334" t="s">
+      <c r="B16" s="340" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="335"/>
+      <c r="C16" s="341"/>
       <c r="D16" s="9" t="s">
         <v>11</v>
       </c>
@@ -38050,10 +38061,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="334" t="s">
+      <c r="B17" s="340" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="335"/>
+      <c r="C17" s="341"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -38066,10 +38077,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="334" t="s">
+      <c r="B18" s="340" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="335"/>
+      <c r="C18" s="341"/>
       <c r="D18" s="25" t="s">
         <v>13</v>
       </c>
@@ -38083,10 +38094,10 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="334" t="s">
+      <c r="B19" s="340" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="335"/>
+      <c r="C19" s="341"/>
       <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
@@ -38099,10 +38110,10 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="334" t="s">
+      <c r="B20" s="340" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="335"/>
+      <c r="C20" s="341"/>
       <c r="D20" s="7" t="s">
         <v>24</v>
       </c>
@@ -38131,10 +38142,10 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="334" t="s">
+      <c r="B23" s="340" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="335"/>
+      <c r="C23" s="341"/>
       <c r="D23" s="9" t="s">
         <v>46</v>
       </c>
@@ -38146,10 +38157,10 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="353" t="s">
+      <c r="B24" s="358" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="354"/>
+      <c r="C24" s="359"/>
       <c r="D24" s="28" t="s">
         <v>61</v>
       </c>
@@ -38178,22 +38189,22 @@
       <c r="C27" s="41"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="350" t="s">
+      <c r="B28" s="357" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="350"/>
-      <c r="D28" s="350"/>
-      <c r="E28" s="350"/>
-      <c r="F28" s="350"/>
-      <c r="G28" s="350"/>
+      <c r="C28" s="357"/>
+      <c r="D28" s="357"/>
+      <c r="E28" s="357"/>
+      <c r="F28" s="357"/>
+      <c r="G28" s="357"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="350"/>
-      <c r="C29" s="350"/>
-      <c r="D29" s="350"/>
-      <c r="E29" s="350"/>
-      <c r="F29" s="350"/>
-      <c r="G29" s="350"/>
+      <c r="B29" s="357"/>
+      <c r="C29" s="357"/>
+      <c r="D29" s="357"/>
+      <c r="E29" s="357"/>
+      <c r="F29" s="357"/>
+      <c r="G29" s="357"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="53"/>
@@ -38204,10 +38215,10 @@
       <c r="G30" s="53"/>
     </row>
     <row r="31" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="315" t="s">
+      <c r="B31" s="329" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="316"/>
+      <c r="C31" s="330"/>
       <c r="D31" s="51" t="s">
         <v>137</v>
       </c>
@@ -38221,10 +38232,10 @@
       <c r="G31" s="53"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="315" t="s">
+      <c r="B32" s="329" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="316"/>
+      <c r="C32" s="330"/>
       <c r="D32" s="51" t="s">
         <v>14</v>
       </c>
@@ -38264,10 +38275,10 @@
       <c r="G35" s="53"/>
     </row>
     <row r="36" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="315" t="s">
+      <c r="B36" s="329" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="316"/>
+      <c r="C36" s="330"/>
       <c r="D36" s="55" t="s">
         <v>91</v>
       </c>
@@ -38289,14 +38300,14 @@
       <c r="G37" s="53"/>
     </row>
     <row r="38" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="350" t="s">
+      <c r="B38" s="357" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="350"/>
-      <c r="D38" s="350"/>
-      <c r="E38" s="350"/>
-      <c r="F38" s="350"/>
-      <c r="G38" s="350"/>
+      <c r="C38" s="357"/>
+      <c r="D38" s="357"/>
+      <c r="E38" s="357"/>
+      <c r="F38" s="357"/>
+      <c r="G38" s="357"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="53"/>
@@ -38307,10 +38318,10 @@
       <c r="G39" s="53"/>
     </row>
     <row r="40" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="315" t="s">
+      <c r="B40" s="329" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="316"/>
+      <c r="C40" s="330"/>
       <c r="D40" s="51" t="s">
         <v>131</v>
       </c>
@@ -38324,10 +38335,10 @@
       <c r="G40" s="49"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="315" t="s">
+      <c r="B41" s="329" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="316"/>
+      <c r="C41" s="330"/>
       <c r="D41" s="48" t="s">
         <v>144</v>
       </c>
@@ -38342,10 +38353,10 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="315" t="s">
+      <c r="B42" s="329" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="316"/>
+      <c r="C42" s="330"/>
       <c r="D42" s="45" t="s">
         <v>135</v>
       </c>
@@ -38385,10 +38396,10 @@
       <c r="G45" s="53"/>
     </row>
     <row r="46" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="315" t="s">
+      <c r="B46" s="329" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="316"/>
+      <c r="C46" s="330"/>
       <c r="D46" s="51" t="s">
         <v>88</v>
       </c>
@@ -38400,10 +38411,10 @@
       <c r="G46" s="49"/>
     </row>
     <row r="47" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="315" t="s">
+      <c r="B47" s="329" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="316"/>
+      <c r="C47" s="330"/>
       <c r="D47" s="51" t="s">
         <v>101</v>
       </c>
@@ -38415,10 +38426,10 @@
       <c r="G47" s="49"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="315" t="s">
+      <c r="B48" s="329" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="316"/>
+      <c r="C48" s="330"/>
       <c r="D48" s="51" t="s">
         <v>145</v>
       </c>
@@ -38456,10 +38467,10 @@
       <c r="G51" s="53"/>
     </row>
     <row r="52" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="315" t="s">
+      <c r="B52" s="329" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="316"/>
+      <c r="C52" s="330"/>
       <c r="D52" s="51" t="s">
         <v>146</v>
       </c>
@@ -38517,10 +38528,10 @@
       <c r="G57" s="53"/>
     </row>
     <row r="58" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="315" t="s">
+      <c r="B58" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="316"/>
+      <c r="C58" s="330"/>
       <c r="D58" s="56" t="s">
         <v>1</v>
       </c>
@@ -38558,10 +38569,10 @@
       <c r="G61" s="53"/>
     </row>
     <row r="62" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="315" t="s">
+      <c r="B62" s="329" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="316"/>
+      <c r="C62" s="330"/>
       <c r="D62" s="48" t="s">
         <v>136</v>
       </c>
@@ -38583,14 +38594,14 @@
       <c r="G63" s="53"/>
     </row>
     <row r="64" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="350" t="s">
+      <c r="B64" s="357" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="350"/>
-      <c r="D64" s="350"/>
-      <c r="E64" s="350"/>
-      <c r="F64" s="350"/>
-      <c r="G64" s="350"/>
+      <c r="C64" s="357"/>
+      <c r="D64" s="357"/>
+      <c r="E64" s="357"/>
+      <c r="F64" s="357"/>
+      <c r="G64" s="357"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="53"/>
@@ -38601,10 +38612,10 @@
       <c r="G65" s="53"/>
     </row>
     <row r="66" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="315" t="s">
+      <c r="B66" s="329" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="316"/>
+      <c r="C66" s="330"/>
       <c r="D66" s="51" t="s">
         <v>27</v>
       </c>
@@ -38644,10 +38655,10 @@
       <c r="G69" s="53"/>
     </row>
     <row r="70" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="315" t="s">
+      <c r="B70" s="329" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="316"/>
+      <c r="C70" s="330"/>
       <c r="D70" s="48" t="s">
         <v>138</v>
       </c>
@@ -38661,10 +38672,10 @@
       <c r="G70" s="49"/>
     </row>
     <row r="71" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="315" t="s">
+      <c r="B71" s="329" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="316"/>
+      <c r="C71" s="330"/>
       <c r="D71" s="51" t="s">
         <v>139</v>
       </c>
@@ -38678,10 +38689,10 @@
       <c r="G71" s="49"/>
     </row>
     <row r="72" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="315" t="s">
+      <c r="B72" s="329" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="316"/>
+      <c r="C72" s="330"/>
       <c r="D72" s="51" t="s">
         <v>140</v>
       </c>
@@ -38695,10 +38706,10 @@
       <c r="G72" s="49"/>
     </row>
     <row r="73" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="315" t="s">
+      <c r="B73" s="329" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="316"/>
+      <c r="C73" s="330"/>
       <c r="D73" s="51" t="s">
         <v>142</v>
       </c>
@@ -38718,46 +38729,46 @@
       <c r="C75" s="41"/>
     </row>
     <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="352" t="s">
+      <c r="B76" s="356" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="352"/>
-      <c r="D76" s="352"/>
-      <c r="E76" s="352"/>
-      <c r="F76" s="352"/>
-      <c r="G76" s="352"/>
+      <c r="C76" s="356"/>
+      <c r="D76" s="356"/>
+      <c r="E76" s="356"/>
+      <c r="F76" s="356"/>
+      <c r="G76" s="356"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="352"/>
-      <c r="C77" s="352"/>
-      <c r="D77" s="352"/>
-      <c r="E77" s="352"/>
-      <c r="F77" s="352"/>
-      <c r="G77" s="352"/>
+      <c r="B77" s="356"/>
+      <c r="C77" s="356"/>
+      <c r="D77" s="356"/>
+      <c r="E77" s="356"/>
+      <c r="F77" s="356"/>
+      <c r="G77" s="356"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="352"/>
-      <c r="C78" s="352"/>
-      <c r="D78" s="352"/>
-      <c r="E78" s="352"/>
-      <c r="F78" s="352"/>
-      <c r="G78" s="352"/>
+      <c r="B78" s="356"/>
+      <c r="C78" s="356"/>
+      <c r="D78" s="356"/>
+      <c r="E78" s="356"/>
+      <c r="F78" s="356"/>
+      <c r="G78" s="356"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="352"/>
-      <c r="C79" s="352"/>
-      <c r="D79" s="352"/>
-      <c r="E79" s="352"/>
-      <c r="F79" s="352"/>
-      <c r="G79" s="352"/>
+      <c r="B79" s="356"/>
+      <c r="C79" s="356"/>
+      <c r="D79" s="356"/>
+      <c r="E79" s="356"/>
+      <c r="F79" s="356"/>
+      <c r="G79" s="356"/>
     </row>
     <row r="80" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="352"/>
-      <c r="C80" s="352"/>
-      <c r="D80" s="352"/>
-      <c r="E80" s="352"/>
-      <c r="F80" s="352"/>
-      <c r="G80" s="352"/>
+      <c r="B80" s="356"/>
+      <c r="C80" s="356"/>
+      <c r="D80" s="356"/>
+      <c r="E80" s="356"/>
+      <c r="F80" s="356"/>
+      <c r="G80" s="356"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="42"/>
@@ -38795,6 +38806,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B76:G80"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B17:C17"/>
@@ -38811,25 +38841,6 @@
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B70:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38841,7 +38852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U114" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
@@ -38890,11 +38901,11 @@
     </row>
     <row r="2" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="487"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="487"/>
-      <c r="E2" s="487"/>
-      <c r="F2" s="487"/>
+      <c r="B2" s="388"/>
+      <c r="C2" s="388"/>
+      <c r="D2" s="388"/>
+      <c r="E2" s="388"/>
+      <c r="F2" s="388"/>
       <c r="G2" s="254" t="s">
         <v>119</v>
       </c>
@@ -38907,11 +38918,11 @@
     </row>
     <row r="3" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="487"/>
-      <c r="C3" s="487"/>
-      <c r="D3" s="487"/>
-      <c r="E3" s="487"/>
-      <c r="F3" s="487"/>
+      <c r="B3" s="388"/>
+      <c r="C3" s="388"/>
+      <c r="D3" s="388"/>
+      <c r="E3" s="388"/>
+      <c r="F3" s="388"/>
       <c r="G3" s="254" t="s">
         <v>120</v>
       </c>
@@ -38924,11 +38935,11 @@
     </row>
     <row r="4" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="487"/>
-      <c r="C4" s="487"/>
-      <c r="D4" s="487"/>
-      <c r="E4" s="487"/>
-      <c r="F4" s="487"/>
+      <c r="B4" s="388"/>
+      <c r="C4" s="388"/>
+      <c r="D4" s="388"/>
+      <c r="E4" s="388"/>
+      <c r="F4" s="388"/>
       <c r="G4" s="254" t="s">
         <v>121</v>
       </c>
@@ -38941,11 +38952,11 @@
     </row>
     <row r="5" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="487"/>
-      <c r="C5" s="487"/>
-      <c r="D5" s="487"/>
-      <c r="E5" s="487"/>
-      <c r="F5" s="487"/>
+      <c r="B5" s="388"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="388"/>
       <c r="G5" s="254" t="s">
         <v>314</v>
       </c>
@@ -39026,15 +39037,15 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="333" t="s">
+      <c r="B8" s="335" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="333"/>
-      <c r="D8" s="333"/>
-      <c r="E8" s="333"/>
-      <c r="F8" s="333"/>
-      <c r="G8" s="333"/>
-      <c r="H8" s="333"/>
+      <c r="C8" s="335"/>
+      <c r="D8" s="335"/>
+      <c r="E8" s="335"/>
+      <c r="F8" s="335"/>
+      <c r="G8" s="335"/>
+      <c r="H8" s="335"/>
       <c r="I8" s="247" t="s">
         <v>310</v>
       </c>
@@ -39043,10 +39054,10 @@
       </c>
       <c r="K8" s="49"/>
       <c r="L8" s="253"/>
-      <c r="X8" s="333" t="s">
+      <c r="X8" s="335" t="s">
         <v>315</v>
       </c>
-      <c r="Y8" s="333"/>
+      <c r="Y8" s="335"/>
       <c r="Z8" s="116"/>
       <c r="AA8" s="13" t="s">
         <v>313</v>
@@ -39074,15 +39085,15 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="333" t="s">
+      <c r="B9" s="335" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="333"/>
-      <c r="D9" s="333"/>
-      <c r="E9" s="333"/>
-      <c r="F9" s="333"/>
-      <c r="G9" s="333"/>
-      <c r="H9" s="333"/>
+      <c r="C9" s="335"/>
+      <c r="D9" s="335"/>
+      <c r="E9" s="335"/>
+      <c r="F9" s="335"/>
+      <c r="G9" s="335"/>
+      <c r="H9" s="335"/>
       <c r="I9" s="247" t="s">
         <v>311</v>
       </c>
@@ -39091,10 +39102,10 @@
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="253"/>
-      <c r="X9" s="333" t="s">
+      <c r="X9" s="335" t="s">
         <v>316</v>
       </c>
-      <c r="Y9" s="333"/>
+      <c r="Y9" s="335"/>
       <c r="Z9" s="116"/>
       <c r="AA9" s="13" t="s">
         <v>326</v>
@@ -39126,15 +39137,15 @@
       </c>
     </row>
     <row r="10" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="333" t="s">
+      <c r="B10" s="335" t="s">
         <v>304</v>
       </c>
-      <c r="C10" s="333"/>
-      <c r="D10" s="333"/>
-      <c r="E10" s="333"/>
-      <c r="F10" s="333"/>
-      <c r="G10" s="333"/>
-      <c r="H10" s="333"/>
+      <c r="C10" s="335"/>
+      <c r="D10" s="335"/>
+      <c r="E10" s="335"/>
+      <c r="F10" s="335"/>
+      <c r="G10" s="335"/>
+      <c r="H10" s="335"/>
       <c r="I10" s="247" t="s">
         <v>305</v>
       </c>
@@ -39183,15 +39194,15 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="333" t="s">
+      <c r="B11" s="335" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="333"/>
-      <c r="D11" s="333"/>
-      <c r="E11" s="333"/>
-      <c r="F11" s="333"/>
-      <c r="G11" s="333"/>
-      <c r="H11" s="333"/>
+      <c r="C11" s="335"/>
+      <c r="D11" s="335"/>
+      <c r="E11" s="335"/>
+      <c r="F11" s="335"/>
+      <c r="G11" s="335"/>
+      <c r="H11" s="335"/>
       <c r="I11" s="247" t="s">
         <v>302</v>
       </c>
@@ -39236,15 +39247,15 @@
       </c>
     </row>
     <row r="12" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="333" t="s">
+      <c r="B12" s="335" t="s">
         <v>306</v>
       </c>
-      <c r="C12" s="333"/>
-      <c r="D12" s="333"/>
-      <c r="E12" s="333"/>
-      <c r="F12" s="333"/>
-      <c r="G12" s="333"/>
-      <c r="H12" s="333"/>
+      <c r="C12" s="335"/>
+      <c r="D12" s="335"/>
+      <c r="E12" s="335"/>
+      <c r="F12" s="335"/>
+      <c r="G12" s="335"/>
+      <c r="H12" s="335"/>
       <c r="I12" s="247" t="s">
         <v>346</v>
       </c>
@@ -39369,18 +39380,18 @@
       </c>
     </row>
     <row r="15" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="315" t="s">
+      <c r="B15" s="329" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="374"/>
-      <c r="D15" s="374"/>
-      <c r="E15" s="374"/>
-      <c r="F15" s="374"/>
-      <c r="G15" s="316"/>
-      <c r="H15" s="315" t="s">
+      <c r="C15" s="403"/>
+      <c r="D15" s="403"/>
+      <c r="E15" s="403"/>
+      <c r="F15" s="403"/>
+      <c r="G15" s="330"/>
+      <c r="H15" s="329" t="s">
         <v>313</v>
       </c>
-      <c r="I15" s="316"/>
+      <c r="I15" s="330"/>
       <c r="J15" s="208"/>
       <c r="K15" s="196"/>
       <c r="L15" s="249"/>
@@ -39413,19 +39424,19 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="315" t="s">
+      <c r="B16" s="329" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="374"/>
-      <c r="D16" s="374"/>
-      <c r="E16" s="374"/>
-      <c r="F16" s="374"/>
-      <c r="G16" s="316"/>
-      <c r="H16" s="315" t="str">
+      <c r="C16" s="403"/>
+      <c r="D16" s="403"/>
+      <c r="E16" s="403"/>
+      <c r="F16" s="403"/>
+      <c r="G16" s="330"/>
+      <c r="H16" s="329" t="str">
         <f>IF($H$15=$AA$8,$AA$9,IF($H$15=$AB$8,$AB$9,""))</f>
         <v>Arena</v>
       </c>
-      <c r="I16" s="316"/>
+      <c r="I16" s="330"/>
       <c r="J16" s="208"/>
       <c r="K16" s="196"/>
       <c r="L16" s="249"/>
@@ -39458,19 +39469,19 @@
       </c>
     </row>
     <row r="17" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="315" t="s">
+      <c r="B17" s="329" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="374"/>
-      <c r="D17" s="374"/>
-      <c r="E17" s="374"/>
-      <c r="F17" s="374"/>
-      <c r="G17" s="316"/>
-      <c r="H17" s="315" t="str">
+      <c r="C17" s="403"/>
+      <c r="D17" s="403"/>
+      <c r="E17" s="403"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="330"/>
+      <c r="H17" s="329" t="str">
         <f>IF($H$15=$AA$8,AA10,IF($H$15=$AB$8,AB10,""))</f>
         <v>Estratificado fino a grueso</v>
       </c>
-      <c r="I17" s="316"/>
+      <c r="I17" s="330"/>
       <c r="J17" s="208"/>
       <c r="K17" s="196"/>
       <c r="L17" s="249"/>
@@ -39496,18 +39507,18 @@
       <c r="AK17" s="217"/>
     </row>
     <row r="18" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="315" t="s">
+      <c r="B18" s="329" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="374"/>
-      <c r="D18" s="374"/>
-      <c r="E18" s="374"/>
-      <c r="F18" s="374"/>
-      <c r="G18" s="316"/>
-      <c r="H18" s="315" t="s">
+      <c r="C18" s="403"/>
+      <c r="D18" s="403"/>
+      <c r="E18" s="403"/>
+      <c r="F18" s="403"/>
+      <c r="G18" s="330"/>
+      <c r="H18" s="329" t="s">
         <v>328</v>
       </c>
-      <c r="I18" s="316"/>
+      <c r="I18" s="330"/>
       <c r="J18" s="208"/>
       <c r="K18" s="196"/>
       <c r="L18" s="249"/>
@@ -39529,19 +39540,19 @@
       <c r="AK18" s="217"/>
     </row>
     <row r="19" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="315" t="s">
+      <c r="B19" s="329" t="s">
         <v>357</v>
       </c>
-      <c r="C19" s="374"/>
-      <c r="D19" s="374"/>
-      <c r="E19" s="374"/>
-      <c r="F19" s="374"/>
-      <c r="G19" s="316"/>
-      <c r="H19" s="372">
+      <c r="C19" s="403"/>
+      <c r="D19" s="403"/>
+      <c r="E19" s="403"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="330"/>
+      <c r="H19" s="397">
         <f t="shared" ref="H19:H25" si="0">IF($H$15=$AA$8,AA11,IF($H$15=$AB$8,AB11,""))</f>
         <v>120</v>
       </c>
-      <c r="I19" s="373"/>
+      <c r="I19" s="398"/>
       <c r="J19" s="247" t="s">
         <v>4</v>
       </c>
@@ -39572,19 +39583,19 @@
       <c r="AK19" s="217"/>
     </row>
     <row r="20" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="375" t="s">
+      <c r="B20" s="430" t="s">
         <v>359</v>
       </c>
-      <c r="C20" s="376"/>
-      <c r="D20" s="376"/>
-      <c r="E20" s="376"/>
-      <c r="F20" s="376"/>
-      <c r="G20" s="377"/>
-      <c r="H20" s="372">
+      <c r="C20" s="431"/>
+      <c r="D20" s="431"/>
+      <c r="E20" s="431"/>
+      <c r="F20" s="431"/>
+      <c r="G20" s="432"/>
+      <c r="H20" s="397">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I20" s="373"/>
+      <c r="I20" s="398"/>
       <c r="J20" s="247" t="s">
         <v>4</v>
       </c>
@@ -39613,19 +39624,19 @@
       <c r="AK20" s="217"/>
     </row>
     <row r="21" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="315" t="s">
+      <c r="B21" s="329" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="374"/>
-      <c r="D21" s="374"/>
-      <c r="E21" s="374"/>
-      <c r="F21" s="374"/>
-      <c r="G21" s="316"/>
-      <c r="H21" s="372" t="str">
+      <c r="C21" s="403"/>
+      <c r="D21" s="403"/>
+      <c r="E21" s="403"/>
+      <c r="F21" s="403"/>
+      <c r="G21" s="330"/>
+      <c r="H21" s="397" t="str">
         <f t="shared" si="0"/>
         <v>12 - 36</v>
       </c>
-      <c r="I21" s="373"/>
+      <c r="I21" s="398"/>
       <c r="J21" s="266" t="s">
         <v>331</v>
       </c>
@@ -39652,19 +39663,19 @@
       <c r="AK21" s="217"/>
     </row>
     <row r="22" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="315" t="s">
+      <c r="B22" s="329" t="s">
         <v>319</v>
       </c>
-      <c r="C22" s="374"/>
-      <c r="D22" s="374"/>
-      <c r="E22" s="374"/>
-      <c r="F22" s="374"/>
-      <c r="G22" s="316"/>
-      <c r="H22" s="372">
+      <c r="C22" s="403"/>
+      <c r="D22" s="403"/>
+      <c r="E22" s="403"/>
+      <c r="F22" s="403"/>
+      <c r="G22" s="330"/>
+      <c r="H22" s="397">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="I22" s="373"/>
+      <c r="I22" s="398"/>
       <c r="J22" s="266" t="s">
         <v>3</v>
       </c>
@@ -39691,19 +39702,19 @@
       <c r="AK22" s="217"/>
     </row>
     <row r="23" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="315" t="s">
+      <c r="B23" s="329" t="s">
         <v>320</v>
       </c>
-      <c r="C23" s="374"/>
-      <c r="D23" s="374"/>
-      <c r="E23" s="374"/>
-      <c r="F23" s="374"/>
-      <c r="G23" s="316"/>
-      <c r="H23" s="372" t="str">
+      <c r="C23" s="403"/>
+      <c r="D23" s="403"/>
+      <c r="E23" s="403"/>
+      <c r="F23" s="403"/>
+      <c r="G23" s="330"/>
+      <c r="H23" s="397" t="str">
         <f t="shared" si="0"/>
         <v>2,4 - 3,0</v>
       </c>
-      <c r="I23" s="373"/>
+      <c r="I23" s="398"/>
       <c r="J23" s="266" t="s">
         <v>3</v>
       </c>
@@ -39728,19 +39739,19 @@
       <c r="AK23" s="217"/>
     </row>
     <row r="24" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="315" t="s">
+      <c r="B24" s="329" t="s">
         <v>330</v>
       </c>
-      <c r="C24" s="374"/>
-      <c r="D24" s="374"/>
-      <c r="E24" s="374"/>
-      <c r="F24" s="374"/>
-      <c r="G24" s="316"/>
-      <c r="H24" s="372" t="str">
+      <c r="C24" s="403"/>
+      <c r="D24" s="403"/>
+      <c r="E24" s="403"/>
+      <c r="F24" s="403"/>
+      <c r="G24" s="330"/>
+      <c r="H24" s="397" t="str">
         <f t="shared" si="0"/>
         <v>2 - 4</v>
       </c>
-      <c r="I24" s="373"/>
+      <c r="I24" s="398"/>
       <c r="J24" s="266" t="s">
         <v>332</v>
       </c>
@@ -39749,11 +39760,11 @@
       <c r="M24" s="236"/>
       <c r="N24" s="236"/>
       <c r="O24" s="236"/>
-      <c r="X24" s="356"/>
-      <c r="Y24" s="356"/>
+      <c r="X24" s="503"/>
+      <c r="Y24" s="503"/>
       <c r="Z24" s="207"/>
-      <c r="AA24" s="355"/>
-      <c r="AB24" s="355"/>
+      <c r="AA24" s="502"/>
+      <c r="AB24" s="502"/>
       <c r="AC24" s="113"/>
       <c r="AD24" s="217"/>
       <c r="AE24" s="217"/>
@@ -39765,20 +39776,20 @@
       <c r="AK24" s="217"/>
     </row>
     <row r="25" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="315" t="str">
+      <c r="B25" s="329" t="str">
         <f>IF($H$15=$AA$8,$X$17,IF($H$15=$AB$8,X17&amp;" (antracita)",IF($H$15="",X17&amp;" (antracita)")))</f>
         <v>Profundidad del medio</v>
       </c>
-      <c r="C25" s="374"/>
-      <c r="D25" s="374"/>
-      <c r="E25" s="374"/>
-      <c r="F25" s="374"/>
-      <c r="G25" s="316"/>
-      <c r="H25" s="372" t="str">
+      <c r="C25" s="403"/>
+      <c r="D25" s="403"/>
+      <c r="E25" s="403"/>
+      <c r="F25" s="403"/>
+      <c r="G25" s="330"/>
+      <c r="H25" s="397" t="str">
         <f t="shared" si="0"/>
         <v>0,60 - 0,75</v>
       </c>
-      <c r="I25" s="373"/>
+      <c r="I25" s="398"/>
       <c r="J25" s="266" t="s">
         <v>3</v>
       </c>
@@ -39787,11 +39798,11 @@
       <c r="M25" s="236"/>
       <c r="N25" s="236"/>
       <c r="O25" s="236"/>
-      <c r="X25" s="356"/>
-      <c r="Y25" s="356"/>
+      <c r="X25" s="503"/>
+      <c r="Y25" s="503"/>
       <c r="Z25" s="207"/>
-      <c r="AA25" s="355"/>
-      <c r="AB25" s="355"/>
+      <c r="AA25" s="502"/>
+      <c r="AB25" s="502"/>
       <c r="AC25" s="113"/>
       <c r="AD25" s="217"/>
       <c r="AE25" s="217"/>
@@ -39803,20 +39814,20 @@
       <c r="AK25" s="217"/>
     </row>
     <row r="26" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="315" t="str">
+      <c r="B26" s="329" t="str">
         <f>IF($H$15=$AA$8,$X$19,IF($H$15=$AB$8,X17&amp;" (arena)",IF($H$15="",X17&amp;" (arena)")))</f>
         <v>Profundidad de grava</v>
       </c>
-      <c r="C26" s="374"/>
-      <c r="D26" s="374"/>
-      <c r="E26" s="374"/>
-      <c r="F26" s="374"/>
-      <c r="G26" s="316"/>
-      <c r="H26" s="372" t="str">
+      <c r="C26" s="403"/>
+      <c r="D26" s="403"/>
+      <c r="E26" s="403"/>
+      <c r="F26" s="403"/>
+      <c r="G26" s="330"/>
+      <c r="H26" s="397" t="str">
         <f>IF($H$15=$AA$8,AA19,IF($H$15=$AB$8,AB18,""))</f>
         <v>0,30 - 0,45</v>
       </c>
-      <c r="I26" s="373"/>
+      <c r="I26" s="398"/>
       <c r="J26" s="266" t="s">
         <v>3</v>
       </c>
@@ -39825,11 +39836,11 @@
       <c r="M26" s="236"/>
       <c r="N26" s="236"/>
       <c r="O26" s="236"/>
-      <c r="X26" s="356"/>
-      <c r="Y26" s="356"/>
+      <c r="X26" s="503"/>
+      <c r="Y26" s="503"/>
       <c r="Z26" s="207"/>
-      <c r="AA26" s="355"/>
-      <c r="AB26" s="355"/>
+      <c r="AA26" s="502"/>
+      <c r="AB26" s="502"/>
       <c r="AD26" s="217"/>
       <c r="AE26" s="217"/>
       <c r="AF26" s="217"/>
@@ -39840,20 +39851,20 @@
       <c r="AK26" s="217"/>
     </row>
     <row r="27" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="315" t="str">
+      <c r="B27" s="329" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$X$19,IF($H$15="",$X$19)))</f>
         <v/>
       </c>
-      <c r="C27" s="374"/>
-      <c r="D27" s="374"/>
-      <c r="E27" s="374"/>
-      <c r="F27" s="374"/>
-      <c r="G27" s="374"/>
-      <c r="H27" s="372" t="str">
+      <c r="C27" s="403"/>
+      <c r="D27" s="403"/>
+      <c r="E27" s="403"/>
+      <c r="F27" s="403"/>
+      <c r="G27" s="403"/>
+      <c r="H27" s="397" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$AB$19,IF($H$15="","")))</f>
         <v/>
       </c>
-      <c r="I27" s="373"/>
+      <c r="I27" s="398"/>
       <c r="J27" s="267" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,"m",IF($H$15="","m")))</f>
         <v/>
@@ -39923,15 +39934,15 @@
       <c r="AB29" s="207"/>
     </row>
     <row r="30" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="333" t="s">
+      <c r="B30" s="335" t="s">
         <v>254</v>
       </c>
-      <c r="C30" s="333"/>
-      <c r="D30" s="333"/>
-      <c r="E30" s="333"/>
-      <c r="F30" s="333"/>
-      <c r="G30" s="333"/>
-      <c r="H30" s="333"/>
+      <c r="C30" s="335"/>
+      <c r="D30" s="335"/>
+      <c r="E30" s="335"/>
+      <c r="F30" s="335"/>
+      <c r="G30" s="335"/>
+      <c r="H30" s="335"/>
       <c r="I30" s="247" t="s">
         <v>251</v>
       </c>
@@ -39949,16 +39960,16 @@
       <c r="AB30" s="207"/>
     </row>
     <row r="31" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="333" t="str">
+      <c r="B31" s="335" t="str">
         <f>"Densidad del agua a "&amp;J30&amp;" °C"</f>
         <v>Densidad del agua a 3 °C</v>
       </c>
-      <c r="C31" s="333"/>
-      <c r="D31" s="333"/>
-      <c r="E31" s="333"/>
-      <c r="F31" s="333"/>
-      <c r="G31" s="333"/>
-      <c r="H31" s="333"/>
+      <c r="C31" s="335"/>
+      <c r="D31" s="335"/>
+      <c r="E31" s="335"/>
+      <c r="F31" s="335"/>
+      <c r="G31" s="335"/>
+      <c r="H31" s="335"/>
       <c r="I31" s="275" t="s">
         <v>250</v>
       </c>
@@ -39976,25 +39987,25 @@
       <c r="Y31" s="183" t="s">
         <v>312</v>
       </c>
-      <c r="Z31" s="379" t="s">
+      <c r="Z31" s="484" t="s">
         <v>248</v>
       </c>
-      <c r="AA31" s="379" t="s">
+      <c r="AA31" s="484" t="s">
         <v>246</v>
       </c>
       <c r="AB31" s="181"/>
     </row>
     <row r="32" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="333" t="str">
+      <c r="B32" s="335" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad dinámica del agua a 3 °C</v>
       </c>
-      <c r="C32" s="333"/>
-      <c r="D32" s="333"/>
-      <c r="E32" s="333"/>
-      <c r="F32" s="333"/>
-      <c r="G32" s="333"/>
-      <c r="H32" s="333"/>
+      <c r="C32" s="335"/>
+      <c r="D32" s="335"/>
+      <c r="E32" s="335"/>
+      <c r="F32" s="335"/>
+      <c r="G32" s="335"/>
+      <c r="H32" s="335"/>
       <c r="I32" s="275" t="s">
         <v>213</v>
       </c>
@@ -40012,21 +40023,21 @@
       <c r="Y32" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="Z32" s="380"/>
-      <c r="AA32" s="380"/>
+      <c r="Z32" s="485"/>
+      <c r="AA32" s="485"/>
       <c r="AB32" s="181"/>
     </row>
     <row r="33" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="489" t="str">
+      <c r="B33" s="399" t="str">
         <f>"Viscocidad cinemática del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad cinemática del agua a 3 °C</v>
       </c>
-      <c r="C33" s="489"/>
-      <c r="D33" s="489"/>
-      <c r="E33" s="489"/>
-      <c r="F33" s="489"/>
-      <c r="G33" s="489"/>
-      <c r="H33" s="489"/>
+      <c r="C33" s="399"/>
+      <c r="D33" s="399"/>
+      <c r="E33" s="399"/>
+      <c r="F33" s="399"/>
+      <c r="G33" s="399"/>
+      <c r="H33" s="399"/>
       <c r="I33" s="51" t="s">
         <v>2</v>
       </c>
@@ -40160,26 +40171,26 @@
       <c r="AB37" s="157"/>
     </row>
     <row r="38" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="426" t="s">
+      <c r="B38" s="411" t="s">
         <v>192</v>
       </c>
-      <c r="C38" s="427"/>
+      <c r="C38" s="412"/>
       <c r="D38" s="54"/>
       <c r="E38" s="248"/>
-      <c r="F38" s="359" t="s">
+      <c r="F38" s="395" t="s">
         <v>204</v>
       </c>
-      <c r="G38" s="359" t="s">
+      <c r="G38" s="395" t="s">
         <v>203</v>
       </c>
-      <c r="H38" s="455" t="s">
+      <c r="H38" s="457" t="s">
         <v>210</v>
       </c>
-      <c r="I38" s="456"/>
-      <c r="J38" s="455" t="s">
+      <c r="I38" s="458"/>
+      <c r="J38" s="457" t="s">
         <v>209</v>
       </c>
-      <c r="K38" s="456"/>
+      <c r="K38" s="458"/>
       <c r="L38" s="253"/>
       <c r="X38" s="165">
         <v>3</v>
@@ -40197,22 +40208,22 @@
       <c r="AB38" s="157"/>
     </row>
     <row r="39" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="428"/>
-      <c r="C39" s="429"/>
+      <c r="B39" s="413"/>
+      <c r="C39" s="414"/>
       <c r="D39" s="54"/>
       <c r="E39" s="248"/>
-      <c r="F39" s="360"/>
-      <c r="G39" s="360"/>
-      <c r="H39" s="359" t="s">
+      <c r="F39" s="417"/>
+      <c r="G39" s="417"/>
+      <c r="H39" s="395" t="s">
         <v>186</v>
       </c>
-      <c r="I39" s="359" t="s">
+      <c r="I39" s="395" t="s">
         <v>207</v>
       </c>
-      <c r="J39" s="359" t="s">
+      <c r="J39" s="395" t="s">
         <v>186</v>
       </c>
-      <c r="K39" s="359" t="s">
+      <c r="K39" s="395" t="s">
         <v>207</v>
       </c>
       <c r="L39" s="253"/>
@@ -40232,16 +40243,16 @@
       <c r="AB39" s="157"/>
     </row>
     <row r="40" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="428"/>
-      <c r="C40" s="429"/>
+      <c r="B40" s="413"/>
+      <c r="C40" s="414"/>
       <c r="D40" s="54"/>
       <c r="E40" s="248"/>
-      <c r="F40" s="360"/>
-      <c r="G40" s="360"/>
-      <c r="H40" s="360"/>
-      <c r="I40" s="360"/>
-      <c r="J40" s="360"/>
-      <c r="K40" s="360"/>
+      <c r="F40" s="417"/>
+      <c r="G40" s="417"/>
+      <c r="H40" s="417"/>
+      <c r="I40" s="417"/>
+      <c r="J40" s="417"/>
+      <c r="K40" s="417"/>
       <c r="L40" s="253"/>
       <c r="X40" s="165">
         <v>5</v>
@@ -40259,16 +40270,16 @@
       <c r="AB40" s="157"/>
     </row>
     <row r="41" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="430"/>
-      <c r="C41" s="431"/>
+      <c r="B41" s="415"/>
+      <c r="C41" s="416"/>
       <c r="D41" s="54"/>
       <c r="E41" s="248"/>
-      <c r="F41" s="361"/>
-      <c r="G41" s="361"/>
-      <c r="H41" s="361"/>
-      <c r="I41" s="361"/>
-      <c r="J41" s="361"/>
-      <c r="K41" s="361"/>
+      <c r="F41" s="396"/>
+      <c r="G41" s="396"/>
+      <c r="H41" s="396"/>
+      <c r="I41" s="396"/>
+      <c r="J41" s="396"/>
+      <c r="K41" s="396"/>
       <c r="L41" s="253"/>
       <c r="X41" s="165">
         <v>6</v>
@@ -40286,10 +40297,10 @@
       <c r="AB41" s="157"/>
     </row>
     <row r="42" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="372" t="s">
+      <c r="B42" s="397" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="373"/>
+      <c r="C42" s="398"/>
       <c r="D42" s="128">
         <f>LEFT(B42,2)+0</f>
         <v>14</v>
@@ -40340,10 +40351,10 @@
       <c r="AB42" s="157"/>
     </row>
     <row r="43" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="372" t="s">
+      <c r="B43" s="397" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="373"/>
+      <c r="C43" s="398"/>
       <c r="D43" s="128">
         <f t="shared" ref="D43:D50" si="3">LEFT(B43,2)+0</f>
         <v>20</v>
@@ -40394,10 +40405,10 @@
       <c r="AB43" s="157"/>
     </row>
     <row r="44" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="372" t="s">
+      <c r="B44" s="397" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="373"/>
+      <c r="C44" s="398"/>
       <c r="D44" s="128">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -40448,10 +40459,10 @@
       <c r="AB44" s="157"/>
     </row>
     <row r="45" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="372" t="s">
+      <c r="B45" s="397" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="373"/>
+      <c r="C45" s="398"/>
       <c r="D45" s="128">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -40502,10 +40513,10 @@
       <c r="AB45" s="157"/>
     </row>
     <row r="46" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="372" t="s">
+      <c r="B46" s="397" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="373"/>
+      <c r="C46" s="398"/>
       <c r="D46" s="128">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -40556,10 +40567,10 @@
       <c r="AB46" s="157"/>
     </row>
     <row r="47" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="372" t="s">
+      <c r="B47" s="397" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="373"/>
+      <c r="C47" s="398"/>
       <c r="D47" s="128">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -40610,10 +40621,10 @@
       <c r="AB47" s="157"/>
     </row>
     <row r="48" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="372" t="s">
+      <c r="B48" s="397" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="373"/>
+      <c r="C48" s="398"/>
       <c r="D48" s="128">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -40664,10 +40675,10 @@
       <c r="AB48" s="157"/>
     </row>
     <row r="49" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="372" t="s">
+      <c r="B49" s="397" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="373"/>
+      <c r="C49" s="398"/>
       <c r="D49" s="128">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -40718,10 +40729,10 @@
       <c r="AB49" s="157"/>
     </row>
     <row r="50" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="372" t="s">
+      <c r="B50" s="397" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="373"/>
+      <c r="C50" s="398"/>
       <c r="D50" s="128">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -40826,20 +40837,20 @@
       <c r="AB52" s="157"/>
     </row>
     <row r="53" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="470"/>
-      <c r="C53" s="470"/>
+      <c r="B53" s="406"/>
+      <c r="C53" s="406"/>
       <c r="D53" s="54"/>
       <c r="E53" s="248"/>
-      <c r="F53" s="452" t="s">
+      <c r="F53" s="394" t="s">
         <v>186</v>
       </c>
-      <c r="G53" s="452" t="s">
+      <c r="G53" s="394" t="s">
         <v>207</v>
       </c>
-      <c r="H53" s="454"/>
-      <c r="I53" s="454"/>
-      <c r="J53" s="454"/>
-      <c r="K53" s="453" t="s">
+      <c r="H53" s="405"/>
+      <c r="I53" s="405"/>
+      <c r="J53" s="405"/>
+      <c r="K53" s="404" t="s">
         <v>349</v>
       </c>
       <c r="L53" s="253"/>
@@ -40859,16 +40870,16 @@
       <c r="AB53" s="157"/>
     </row>
     <row r="54" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="470"/>
-      <c r="C54" s="470"/>
+      <c r="B54" s="406"/>
+      <c r="C54" s="406"/>
       <c r="D54" s="54"/>
       <c r="E54" s="248"/>
-      <c r="F54" s="452"/>
-      <c r="G54" s="452"/>
-      <c r="H54" s="454"/>
-      <c r="I54" s="454"/>
-      <c r="J54" s="454"/>
-      <c r="K54" s="453"/>
+      <c r="F54" s="394"/>
+      <c r="G54" s="394"/>
+      <c r="H54" s="405"/>
+      <c r="I54" s="405"/>
+      <c r="J54" s="405"/>
+      <c r="K54" s="404"/>
       <c r="L54" s="253"/>
       <c r="X54" s="165">
         <v>19</v>
@@ -40887,16 +40898,16 @@
       <c r="AD54" s="172"/>
     </row>
     <row r="55" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="470"/>
-      <c r="C55" s="470"/>
+      <c r="B55" s="406"/>
+      <c r="C55" s="406"/>
       <c r="D55" s="54"/>
       <c r="E55" s="248"/>
-      <c r="F55" s="452"/>
-      <c r="G55" s="452"/>
-      <c r="H55" s="454"/>
-      <c r="I55" s="454"/>
-      <c r="J55" s="454"/>
-      <c r="K55" s="453"/>
+      <c r="F55" s="394"/>
+      <c r="G55" s="394"/>
+      <c r="H55" s="405"/>
+      <c r="I55" s="405"/>
+      <c r="J55" s="405"/>
+      <c r="K55" s="404"/>
       <c r="L55" s="253"/>
       <c r="X55" s="167">
         <v>20</v>
@@ -40915,10 +40926,10 @@
       <c r="AD55" s="172"/>
     </row>
     <row r="56" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="454" t="s">
+      <c r="B56" s="405" t="s">
         <v>350</v>
       </c>
-      <c r="C56" s="454"/>
+      <c r="C56" s="405"/>
       <c r="D56" s="54"/>
       <c r="E56" s="248"/>
       <c r="F56" s="114">
@@ -40929,13 +40940,13 @@
         <f>VLOOKUP(F56,J$42:K$50,2,FALSE)</f>
         <v>2.0699999999999932</v>
       </c>
-      <c r="H56" s="470">
+      <c r="H56" s="406">
         <f>(LOG(F56)+((10-G56)/(G57-G56))*LOG(F57/F56))</f>
         <v>-0.61321454811239473</v>
       </c>
-      <c r="I56" s="470"/>
-      <c r="J56" s="470"/>
-      <c r="K56" s="454">
+      <c r="I56" s="406"/>
+      <c r="J56" s="406"/>
+      <c r="K56" s="405">
         <f>10^(H56)</f>
         <v>0.2436606799987964</v>
       </c>
@@ -40956,10 +40967,10 @@
       <c r="AB56" s="157"/>
     </row>
     <row r="57" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="454" t="s">
+      <c r="B57" s="405" t="s">
         <v>351</v>
       </c>
-      <c r="C57" s="454"/>
+      <c r="C57" s="405"/>
       <c r="D57" s="54"/>
       <c r="E57" s="248"/>
       <c r="F57" s="114">
@@ -40970,10 +40981,10 @@
         <f>VLOOKUP(F57,J$42:K$50,2,FALSE)</f>
         <v>11.36999999999999</v>
       </c>
-      <c r="H57" s="470"/>
-      <c r="I57" s="470"/>
-      <c r="J57" s="470"/>
-      <c r="K57" s="454"/>
+      <c r="H57" s="406"/>
+      <c r="I57" s="406"/>
+      <c r="J57" s="406"/>
+      <c r="K57" s="405"/>
       <c r="L57" s="253"/>
       <c r="X57" s="165">
         <v>22</v>
@@ -41047,20 +41058,20 @@
       <c r="AB59" s="157"/>
     </row>
     <row r="60" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="470"/>
-      <c r="C60" s="470"/>
+      <c r="B60" s="406"/>
+      <c r="C60" s="406"/>
       <c r="D60" s="54"/>
       <c r="E60" s="248"/>
-      <c r="F60" s="452" t="s">
+      <c r="F60" s="394" t="s">
         <v>186</v>
       </c>
-      <c r="G60" s="452" t="s">
+      <c r="G60" s="394" t="s">
         <v>207</v>
       </c>
-      <c r="H60" s="454"/>
-      <c r="I60" s="454"/>
-      <c r="J60" s="454"/>
-      <c r="K60" s="453" t="s">
+      <c r="H60" s="405"/>
+      <c r="I60" s="405"/>
+      <c r="J60" s="405"/>
+      <c r="K60" s="404" t="s">
         <v>353</v>
       </c>
       <c r="L60" s="253"/>
@@ -41080,16 +41091,16 @@
       <c r="AB60" s="157"/>
     </row>
     <row r="61" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="470"/>
-      <c r="C61" s="470"/>
+      <c r="B61" s="406"/>
+      <c r="C61" s="406"/>
       <c r="D61" s="54"/>
       <c r="E61" s="248"/>
-      <c r="F61" s="452"/>
-      <c r="G61" s="452"/>
-      <c r="H61" s="454"/>
-      <c r="I61" s="454"/>
-      <c r="J61" s="454"/>
-      <c r="K61" s="453"/>
+      <c r="F61" s="394"/>
+      <c r="G61" s="394"/>
+      <c r="H61" s="405"/>
+      <c r="I61" s="405"/>
+      <c r="J61" s="405"/>
+      <c r="K61" s="404"/>
       <c r="L61" s="253"/>
       <c r="X61" s="165">
         <v>26</v>
@@ -41107,16 +41118,16 @@
       <c r="AB61" s="157"/>
     </row>
     <row r="62" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="470"/>
-      <c r="C62" s="470"/>
+      <c r="B62" s="406"/>
+      <c r="C62" s="406"/>
       <c r="D62" s="54"/>
       <c r="E62" s="248"/>
-      <c r="F62" s="452"/>
-      <c r="G62" s="452"/>
-      <c r="H62" s="454"/>
-      <c r="I62" s="454"/>
-      <c r="J62" s="454"/>
-      <c r="K62" s="453"/>
+      <c r="F62" s="394"/>
+      <c r="G62" s="394"/>
+      <c r="H62" s="405"/>
+      <c r="I62" s="405"/>
+      <c r="J62" s="405"/>
+      <c r="K62" s="404"/>
       <c r="L62" s="253"/>
       <c r="X62" s="165">
         <v>27</v>
@@ -41134,10 +41145,10 @@
       <c r="AB62" s="157"/>
     </row>
     <row r="63" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="454" t="s">
+      <c r="B63" s="405" t="s">
         <v>350</v>
       </c>
-      <c r="C63" s="454"/>
+      <c r="C63" s="405"/>
       <c r="D63" s="54"/>
       <c r="E63" s="248"/>
       <c r="F63" s="114">
@@ -41148,13 +41159,13 @@
         <f>VLOOKUP(F63,J$42:K$50,2,FALSE)</f>
         <v>45.269999999999996</v>
       </c>
-      <c r="H63" s="470">
+      <c r="H63" s="406">
         <f>(LOG(F63)+((60-G63)/(G64-G63))*LOG(F64/F63))</f>
         <v>-0.31867934839393264</v>
       </c>
-      <c r="I63" s="470"/>
-      <c r="J63" s="470"/>
-      <c r="K63" s="454">
+      <c r="I63" s="406"/>
+      <c r="J63" s="406"/>
+      <c r="K63" s="405">
         <f>10^(H63)</f>
         <v>0.48008777987655482</v>
       </c>
@@ -41175,10 +41186,10 @@
       <c r="AB63" s="157"/>
     </row>
     <row r="64" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="454" t="s">
+      <c r="B64" s="405" t="s">
         <v>351</v>
       </c>
-      <c r="C64" s="454"/>
+      <c r="C64" s="405"/>
       <c r="D64" s="54"/>
       <c r="E64" s="248"/>
       <c r="F64" s="114">
@@ -41189,10 +41200,10 @@
         <f>VLOOKUP(F64,J$42:K$50,2,FALSE)</f>
         <v>63.28</v>
       </c>
-      <c r="H64" s="470"/>
-      <c r="I64" s="470"/>
-      <c r="J64" s="470"/>
-      <c r="K64" s="454"/>
+      <c r="H64" s="406"/>
+      <c r="I64" s="406"/>
+      <c r="J64" s="406"/>
+      <c r="K64" s="405"/>
       <c r="L64" s="253"/>
       <c r="X64" s="165">
         <v>29</v>
@@ -41266,19 +41277,19 @@
       <c r="AB66" s="157"/>
     </row>
     <row r="67" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="426" t="s">
+      <c r="B67" s="411" t="s">
         <v>354</v>
       </c>
-      <c r="C67" s="427"/>
+      <c r="C67" s="412"/>
       <c r="D67" s="54"/>
       <c r="E67" s="248"/>
-      <c r="F67" s="426" t="s">
+      <c r="F67" s="411" t="s">
         <v>353</v>
       </c>
-      <c r="G67" s="485" t="s">
+      <c r="G67" s="433" t="s">
         <v>211</v>
       </c>
-      <c r="H67" s="485"/>
+      <c r="H67" s="433"/>
       <c r="I67" s="249"/>
       <c r="J67" s="249"/>
       <c r="K67" s="135"/>
@@ -41299,13 +41310,13 @@
       <c r="AB67" s="157"/>
     </row>
     <row r="68" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="428"/>
-      <c r="C68" s="429"/>
+      <c r="B68" s="413"/>
+      <c r="C68" s="414"/>
       <c r="D68" s="54"/>
       <c r="E68" s="248"/>
-      <c r="F68" s="428"/>
-      <c r="G68" s="485"/>
-      <c r="H68" s="485"/>
+      <c r="F68" s="413"/>
+      <c r="G68" s="433"/>
+      <c r="H68" s="433"/>
       <c r="I68" s="249"/>
       <c r="J68" s="249"/>
       <c r="K68" s="135"/>
@@ -41327,13 +41338,13 @@
       <c r="AB68" s="157"/>
     </row>
     <row r="69" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="430"/>
-      <c r="C69" s="431"/>
+      <c r="B69" s="415"/>
+      <c r="C69" s="416"/>
       <c r="D69" s="54"/>
       <c r="E69" s="248"/>
-      <c r="F69" s="430"/>
-      <c r="G69" s="485"/>
-      <c r="H69" s="485"/>
+      <c r="F69" s="415"/>
+      <c r="G69" s="433"/>
+      <c r="H69" s="433"/>
       <c r="I69" s="249"/>
       <c r="J69" s="249"/>
       <c r="K69" s="135"/>
@@ -41355,22 +41366,22 @@
       <c r="AB69" s="157"/>
     </row>
     <row r="70" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="454">
+      <c r="B70" s="405">
         <f>K56</f>
         <v>0.2436606799987964</v>
       </c>
-      <c r="C70" s="454"/>
+      <c r="C70" s="405"/>
       <c r="D70" s="54"/>
       <c r="E70" s="248"/>
       <c r="F70" s="114">
         <f>K63</f>
         <v>0.48008777987655482</v>
       </c>
-      <c r="G70" s="486">
+      <c r="G70" s="434">
         <f>F70/B70</f>
         <v>1.9703128952891631</v>
       </c>
-      <c r="H70" s="486"/>
+      <c r="H70" s="434"/>
       <c r="I70" s="249"/>
       <c r="J70" s="249"/>
       <c r="K70" s="135"/>
@@ -41413,15 +41424,15 @@
       <c r="AB72" s="157"/>
     </row>
     <row r="73" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="432" t="s">
+      <c r="B73" s="389" t="s">
         <v>358</v>
       </c>
-      <c r="C73" s="433"/>
-      <c r="D73" s="433"/>
-      <c r="E73" s="433"/>
-      <c r="F73" s="433"/>
-      <c r="G73" s="433"/>
-      <c r="H73" s="434"/>
+      <c r="C73" s="390"/>
+      <c r="D73" s="390"/>
+      <c r="E73" s="390"/>
+      <c r="F73" s="390"/>
+      <c r="G73" s="390"/>
+      <c r="H73" s="391"/>
       <c r="I73" s="206" t="s">
         <v>181</v>
       </c>
@@ -41443,15 +41454,15 @@
       <c r="AA73" s="113"/>
     </row>
     <row r="74" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="432" t="s">
+      <c r="B74" s="389" t="s">
         <v>287</v>
       </c>
-      <c r="C74" s="433"/>
-      <c r="D74" s="433"/>
-      <c r="E74" s="433"/>
-      <c r="F74" s="433"/>
-      <c r="G74" s="433"/>
-      <c r="H74" s="434"/>
+      <c r="C74" s="390"/>
+      <c r="D74" s="390"/>
+      <c r="E74" s="390"/>
+      <c r="F74" s="390"/>
+      <c r="G74" s="390"/>
+      <c r="H74" s="391"/>
       <c r="I74" s="251" t="s">
         <v>88</v>
       </c>
@@ -41469,15 +41480,15 @@
       <c r="AA74" s="113"/>
     </row>
     <row r="75" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="432" t="s">
+      <c r="B75" s="389" t="s">
         <v>283</v>
       </c>
-      <c r="C75" s="433"/>
-      <c r="D75" s="433"/>
-      <c r="E75" s="433"/>
-      <c r="F75" s="433"/>
-      <c r="G75" s="433"/>
-      <c r="H75" s="434"/>
+      <c r="C75" s="390"/>
+      <c r="D75" s="390"/>
+      <c r="E75" s="390"/>
+      <c r="F75" s="390"/>
+      <c r="G75" s="390"/>
+      <c r="H75" s="391"/>
       <c r="I75" s="251" t="s">
         <v>284</v>
       </c>
@@ -41493,15 +41504,15 @@
       <c r="AA75" s="113"/>
     </row>
     <row r="76" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="432" t="s">
+      <c r="B76" s="389" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="433"/>
-      <c r="D76" s="433"/>
-      <c r="E76" s="433"/>
-      <c r="F76" s="433"/>
-      <c r="G76" s="433"/>
-      <c r="H76" s="434"/>
+      <c r="C76" s="390"/>
+      <c r="D76" s="390"/>
+      <c r="E76" s="390"/>
+      <c r="F76" s="390"/>
+      <c r="G76" s="390"/>
+      <c r="H76" s="391"/>
       <c r="I76" s="251" t="s">
         <v>240</v>
       </c>
@@ -41517,15 +41528,15 @@
       <c r="AA76" s="113"/>
     </row>
     <row r="77" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="432" t="s">
+      <c r="B77" s="389" t="s">
         <v>190</v>
       </c>
-      <c r="C77" s="433"/>
-      <c r="D77" s="433"/>
-      <c r="E77" s="433"/>
-      <c r="F77" s="433"/>
-      <c r="G77" s="433"/>
-      <c r="H77" s="434"/>
+      <c r="C77" s="390"/>
+      <c r="D77" s="390"/>
+      <c r="E77" s="390"/>
+      <c r="F77" s="390"/>
+      <c r="G77" s="390"/>
+      <c r="H77" s="391"/>
       <c r="I77" s="251" t="s">
         <v>191</v>
       </c>
@@ -41541,15 +41552,15 @@
       <c r="AA77" s="113"/>
     </row>
     <row r="78" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="432" t="s">
+      <c r="B78" s="389" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="433"/>
-      <c r="D78" s="433"/>
-      <c r="E78" s="433"/>
-      <c r="F78" s="433"/>
-      <c r="G78" s="433"/>
-      <c r="H78" s="434"/>
+      <c r="C78" s="390"/>
+      <c r="D78" s="390"/>
+      <c r="E78" s="390"/>
+      <c r="F78" s="390"/>
+      <c r="G78" s="390"/>
+      <c r="H78" s="391"/>
       <c r="I78" s="252" t="s">
         <v>189</v>
       </c>
@@ -41565,15 +41576,15 @@
       <c r="AA78" s="113"/>
     </row>
     <row r="79" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="432" t="s">
+      <c r="B79" s="389" t="s">
         <v>230</v>
       </c>
-      <c r="C79" s="433"/>
-      <c r="D79" s="433"/>
-      <c r="E79" s="433"/>
-      <c r="F79" s="433"/>
-      <c r="G79" s="433"/>
-      <c r="H79" s="434"/>
+      <c r="C79" s="390"/>
+      <c r="D79" s="390"/>
+      <c r="E79" s="390"/>
+      <c r="F79" s="390"/>
+      <c r="G79" s="390"/>
+      <c r="H79" s="391"/>
       <c r="I79" s="252" t="s">
         <v>189</v>
       </c>
@@ -41589,15 +41600,15 @@
       <c r="AA79" s="113"/>
     </row>
     <row r="80" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="432" t="s">
+      <c r="B80" s="389" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="433"/>
-      <c r="D80" s="433"/>
-      <c r="E80" s="433"/>
-      <c r="F80" s="433"/>
-      <c r="G80" s="433"/>
-      <c r="H80" s="434"/>
+      <c r="C80" s="390"/>
+      <c r="D80" s="390"/>
+      <c r="E80" s="390"/>
+      <c r="F80" s="390"/>
+      <c r="G80" s="390"/>
+      <c r="H80" s="391"/>
       <c r="I80" s="151" t="s">
         <v>238</v>
       </c>
@@ -41679,139 +41690,139 @@
       <c r="Z83" s="109"/>
     </row>
     <row r="84" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="426" t="s">
+      <c r="B84" s="411" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="427"/>
-      <c r="D84" s="452"/>
-      <c r="E84" s="359"/>
-      <c r="F84" s="359" t="s">
+      <c r="C84" s="412"/>
+      <c r="D84" s="394"/>
+      <c r="E84" s="395"/>
+      <c r="F84" s="395" t="s">
         <v>204</v>
       </c>
-      <c r="G84" s="359" t="s">
+      <c r="G84" s="395" t="s">
         <v>205</v>
       </c>
-      <c r="H84" s="359" t="s">
+      <c r="H84" s="395" t="s">
         <v>206</v>
       </c>
-      <c r="I84" s="473" t="s">
+      <c r="I84" s="418" t="s">
         <v>208</v>
       </c>
-      <c r="J84" s="490" t="s">
+      <c r="J84" s="400" t="s">
         <v>182</v>
       </c>
-      <c r="K84" s="491"/>
-      <c r="L84" s="491"/>
-      <c r="M84" s="492"/>
-      <c r="N84" s="466" t="s">
+      <c r="K84" s="401"/>
+      <c r="L84" s="401"/>
+      <c r="M84" s="402"/>
+      <c r="N84" s="468" t="s">
         <v>183</v>
       </c>
-      <c r="O84" s="467"/>
-      <c r="P84" s="467"/>
-      <c r="Q84" s="467"/>
-      <c r="R84" s="468"/>
-      <c r="S84" s="365" t="s">
+      <c r="O84" s="469"/>
+      <c r="P84" s="469"/>
+      <c r="Q84" s="469"/>
+      <c r="R84" s="470"/>
+      <c r="S84" s="508" t="s">
         <v>184</v>
       </c>
-      <c r="T84" s="365"/>
-      <c r="U84" s="365"/>
-      <c r="V84" s="365"/>
+      <c r="T84" s="508"/>
+      <c r="U84" s="508"/>
+      <c r="V84" s="508"/>
       <c r="W84" s="112"/>
-      <c r="X84" s="359" t="s">
+      <c r="X84" s="395" t="s">
         <v>185</v>
       </c>
-      <c r="Y84" s="359" t="s">
+      <c r="Y84" s="395" t="s">
         <v>186</v>
       </c>
       <c r="Z84" s="109"/>
     </row>
     <row r="85" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="428"/>
-      <c r="C85" s="429"/>
-      <c r="D85" s="452"/>
-      <c r="E85" s="361"/>
-      <c r="F85" s="360"/>
-      <c r="G85" s="360"/>
-      <c r="H85" s="360"/>
-      <c r="I85" s="474"/>
-      <c r="J85" s="369" t="s">
+      <c r="B85" s="413"/>
+      <c r="C85" s="414"/>
+      <c r="D85" s="394"/>
+      <c r="E85" s="396"/>
+      <c r="F85" s="417"/>
+      <c r="G85" s="417"/>
+      <c r="H85" s="417"/>
+      <c r="I85" s="419"/>
+      <c r="J85" s="444" t="s">
         <v>187</v>
       </c>
-      <c r="K85" s="457"/>
-      <c r="L85" s="463"/>
-      <c r="M85" s="458"/>
-      <c r="N85" s="469"/>
-      <c r="O85" s="457"/>
-      <c r="P85" s="458"/>
-      <c r="Q85" s="369" t="s">
+      <c r="K85" s="459"/>
+      <c r="L85" s="465"/>
+      <c r="M85" s="460"/>
+      <c r="N85" s="471"/>
+      <c r="O85" s="459"/>
+      <c r="P85" s="460"/>
+      <c r="Q85" s="444" t="s">
         <v>188</v>
       </c>
-      <c r="R85" s="366"/>
-      <c r="S85" s="366"/>
-      <c r="T85" s="366"/>
-      <c r="U85" s="369" t="s">
+      <c r="R85" s="472"/>
+      <c r="S85" s="472"/>
+      <c r="T85" s="472"/>
+      <c r="U85" s="444" t="s">
         <v>188</v>
       </c>
-      <c r="V85" s="366"/>
-      <c r="X85" s="360"/>
-      <c r="Y85" s="360"/>
+      <c r="V85" s="472"/>
+      <c r="X85" s="417"/>
+      <c r="Y85" s="417"/>
     </row>
     <row r="86" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="428"/>
-      <c r="C86" s="429"/>
+      <c r="B86" s="413"/>
+      <c r="C86" s="414"/>
       <c r="D86" s="123"/>
       <c r="E86" s="124"/>
-      <c r="F86" s="360"/>
-      <c r="G86" s="360"/>
-      <c r="H86" s="360"/>
-      <c r="I86" s="474"/>
-      <c r="J86" s="370"/>
-      <c r="K86" s="459"/>
-      <c r="L86" s="464"/>
-      <c r="M86" s="460"/>
-      <c r="N86" s="469"/>
-      <c r="O86" s="459"/>
-      <c r="P86" s="460"/>
-      <c r="Q86" s="370"/>
-      <c r="R86" s="367"/>
-      <c r="S86" s="367"/>
-      <c r="T86" s="367"/>
-      <c r="U86" s="370"/>
-      <c r="V86" s="367"/>
-      <c r="X86" s="360"/>
-      <c r="Y86" s="360"/>
+      <c r="F86" s="417"/>
+      <c r="G86" s="417"/>
+      <c r="H86" s="417"/>
+      <c r="I86" s="419"/>
+      <c r="J86" s="445"/>
+      <c r="K86" s="461"/>
+      <c r="L86" s="466"/>
+      <c r="M86" s="462"/>
+      <c r="N86" s="471"/>
+      <c r="O86" s="461"/>
+      <c r="P86" s="462"/>
+      <c r="Q86" s="445"/>
+      <c r="R86" s="473"/>
+      <c r="S86" s="473"/>
+      <c r="T86" s="473"/>
+      <c r="U86" s="445"/>
+      <c r="V86" s="473"/>
+      <c r="X86" s="417"/>
+      <c r="Y86" s="417"/>
     </row>
     <row r="87" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="430"/>
-      <c r="C87" s="431"/>
+      <c r="B87" s="415"/>
+      <c r="C87" s="416"/>
       <c r="D87" s="123"/>
       <c r="E87" s="124"/>
-      <c r="F87" s="361"/>
-      <c r="G87" s="361"/>
-      <c r="H87" s="361"/>
-      <c r="I87" s="475"/>
-      <c r="J87" s="371"/>
-      <c r="K87" s="461"/>
-      <c r="L87" s="465"/>
-      <c r="M87" s="462"/>
-      <c r="N87" s="469"/>
-      <c r="O87" s="461"/>
-      <c r="P87" s="462"/>
-      <c r="Q87" s="371"/>
-      <c r="R87" s="368"/>
-      <c r="S87" s="368"/>
-      <c r="T87" s="368"/>
-      <c r="U87" s="371"/>
-      <c r="V87" s="368"/>
-      <c r="X87" s="361"/>
-      <c r="Y87" s="361"/>
+      <c r="F87" s="396"/>
+      <c r="G87" s="396"/>
+      <c r="H87" s="396"/>
+      <c r="I87" s="420"/>
+      <c r="J87" s="446"/>
+      <c r="K87" s="463"/>
+      <c r="L87" s="467"/>
+      <c r="M87" s="464"/>
+      <c r="N87" s="471"/>
+      <c r="O87" s="463"/>
+      <c r="P87" s="464"/>
+      <c r="Q87" s="446"/>
+      <c r="R87" s="474"/>
+      <c r="S87" s="474"/>
+      <c r="T87" s="474"/>
+      <c r="U87" s="446"/>
+      <c r="V87" s="474"/>
+      <c r="X87" s="396"/>
+      <c r="Y87" s="396"/>
     </row>
     <row r="88" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="372" t="str">
+      <c r="B88" s="397" t="str">
         <f t="shared" ref="B88:B96" si="6">B42</f>
         <v>14-20</v>
       </c>
-      <c r="C88" s="373"/>
+      <c r="C88" s="398"/>
       <c r="D88" s="128">
         <f>LEFT(B88,2)+0</f>
         <v>14</v>
@@ -41840,26 +41851,26 @@
         <f t="shared" ref="J88:J96" si="10">(F88/100)/((I88/1000)^2)</f>
         <v>6746.44335939147</v>
       </c>
-      <c r="K88" s="476" t="str">
+      <c r="K88" s="421" t="str">
         <f>ROUND((J77*J33*((1-J76)^2)/(J76^3)*(J74*(J73/3600))/9.806*((6/J78)^2)*J97),4)&amp;" m"</f>
         <v>1.1339 m</v>
       </c>
-      <c r="L88" s="477"/>
-      <c r="M88" s="478"/>
+      <c r="L88" s="422"/>
+      <c r="M88" s="423"/>
       <c r="N88" s="103">
         <f t="shared" ref="N88:N96" si="11">$J$79*(I88/1000)*($J$73/3600)/$J$33</f>
         <v>0.99256086514638053</v>
       </c>
-      <c r="O88" s="406">
+      <c r="O88" s="455">
         <f>150*(1-$J$76)/N88+1.75</f>
         <v>84.868328454178069</v>
       </c>
-      <c r="P88" s="407"/>
+      <c r="P88" s="456"/>
       <c r="Q88" s="116">
         <f t="shared" ref="Q88:Q96" si="12">O88*(F88/100)/(I88/1000)</f>
         <v>623.48797422856558</v>
       </c>
-      <c r="R88" s="357" t="str">
+      <c r="R88" s="504" t="str">
         <f>ROUND((1/J79*(1-J76)/(J76^3)*J74*((J73/3600)^2)/9.806*Q97),4)&amp; " m"</f>
         <v>0.951 m</v>
       </c>
@@ -41875,7 +41886,7 @@
         <f t="shared" ref="U88:U96" si="14">T88*(F88/100)/(I88/1000)</f>
         <v>173.88585816662274</v>
       </c>
-      <c r="V88" s="357" t="str">
+      <c r="V88" s="504" t="str">
         <f>ROUND((0.178*((J73/3600)^2)*J74*1/(9.806*(J76^4))*J80*U97),4)&amp;" m"</f>
         <v>0.9548 m</v>
       </c>
@@ -41890,11 +41901,11 @@
       <c r="AM88" s="155"/>
     </row>
     <row r="89" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="372" t="str">
+      <c r="B89" s="397" t="str">
         <f t="shared" si="6"/>
         <v>20-25</v>
       </c>
-      <c r="C89" s="373"/>
+      <c r="C89" s="398"/>
       <c r="D89" s="128">
         <f t="shared" ref="D89:D96" si="15">LEFT(B89,2)+0</f>
         <v>20</v>
@@ -41923,23 +41934,23 @@
         <f t="shared" si="10"/>
         <v>71478.185698644607</v>
       </c>
-      <c r="K89" s="479"/>
-      <c r="L89" s="480"/>
-      <c r="M89" s="481"/>
+      <c r="K89" s="424"/>
+      <c r="L89" s="425"/>
+      <c r="M89" s="426"/>
       <c r="N89" s="103">
         <f t="shared" si="11"/>
         <v>0.70284134041417956</v>
       </c>
-      <c r="O89" s="406">
+      <c r="O89" s="455">
         <f t="shared" ref="O89:O96" si="18">150*(1-$J$76)/N89+1.75</f>
         <v>119.13068786816569</v>
       </c>
-      <c r="P89" s="407"/>
+      <c r="P89" s="456"/>
       <c r="Q89" s="116">
         <f t="shared" si="12"/>
         <v>6566.0604193475147</v>
       </c>
-      <c r="R89" s="357"/>
+      <c r="R89" s="504"/>
       <c r="S89" s="117">
         <f t="shared" si="13"/>
         <v>0.82687216519315243</v>
@@ -41952,7 +41963,7 @@
         <f t="shared" si="14"/>
         <v>1800.334303150498</v>
       </c>
-      <c r="V89" s="357"/>
+      <c r="V89" s="504"/>
       <c r="X89" s="46">
         <v>100</v>
       </c>
@@ -41964,11 +41975,11 @@
       <c r="AM89" s="155"/>
     </row>
     <row r="90" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="372" t="str">
+      <c r="B90" s="397" t="str">
         <f t="shared" si="6"/>
         <v>25-30</v>
       </c>
-      <c r="C90" s="373"/>
+      <c r="C90" s="398"/>
       <c r="D90" s="128">
         <f t="shared" si="15"/>
         <v>25</v>
@@ -41997,23 +42008,23 @@
         <f t="shared" si="10"/>
         <v>357053.7125741386</v>
       </c>
-      <c r="K90" s="479"/>
-      <c r="L90" s="480"/>
-      <c r="M90" s="481"/>
+      <c r="K90" s="424"/>
+      <c r="L90" s="425"/>
+      <c r="M90" s="426"/>
       <c r="N90" s="103">
         <f t="shared" si="11"/>
         <v>0.59117734575652048</v>
       </c>
-      <c r="O90" s="406">
+      <c r="O90" s="455">
         <f t="shared" si="18"/>
         <v>141.3020322153516</v>
       </c>
-      <c r="P90" s="407"/>
+      <c r="P90" s="456"/>
       <c r="Q90" s="116">
         <f t="shared" si="12"/>
         <v>32722.776859257607</v>
       </c>
-      <c r="R90" s="357"/>
+      <c r="R90" s="504"/>
       <c r="S90" s="117">
         <f t="shared" si="13"/>
         <v>0.69550275971355346</v>
@@ -42026,7 +42037,7 @@
         <f t="shared" si="14"/>
         <v>8903.0312574751879</v>
       </c>
-      <c r="V90" s="357"/>
+      <c r="V90" s="504"/>
       <c r="X90" s="46">
         <v>80</v>
       </c>
@@ -42038,11 +42049,11 @@
       <c r="AM90" s="155"/>
     </row>
     <row r="91" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="372" t="str">
+      <c r="B91" s="397" t="str">
         <f t="shared" si="6"/>
         <v>30-35</v>
       </c>
-      <c r="C91" s="373"/>
+      <c r="C91" s="398"/>
       <c r="D91" s="128">
         <f t="shared" si="15"/>
         <v>30</v>
@@ -42071,23 +42082,23 @@
         <f t="shared" si="10"/>
         <v>559663.86554621835</v>
       </c>
-      <c r="K91" s="479"/>
-      <c r="L91" s="480"/>
-      <c r="M91" s="481"/>
+      <c r="K91" s="424"/>
+      <c r="L91" s="425"/>
+      <c r="M91" s="426"/>
       <c r="N91" s="103">
         <f t="shared" si="11"/>
         <v>0.4971564503894913</v>
       </c>
-      <c r="O91" s="406">
+      <c r="O91" s="455">
         <f t="shared" si="18"/>
         <v>167.69373850599013</v>
       </c>
-      <c r="P91" s="407"/>
+      <c r="P91" s="456"/>
       <c r="Q91" s="116">
         <f t="shared" si="12"/>
         <v>51190.291150477846</v>
       </c>
-      <c r="R91" s="357"/>
+      <c r="R91" s="504"/>
       <c r="S91" s="117">
         <f t="shared" si="13"/>
         <v>0.58488994163469576</v>
@@ -42100,7 +42111,7 @@
         <f t="shared" si="14"/>
         <v>13827.100144683696</v>
       </c>
-      <c r="V91" s="357"/>
+      <c r="V91" s="504"/>
       <c r="X91" s="46">
         <v>70</v>
       </c>
@@ -42112,11 +42123,11 @@
       <c r="AF91" s="141"/>
     </row>
     <row r="92" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="372" t="str">
+      <c r="B92" s="397" t="str">
         <f t="shared" si="6"/>
         <v>35-40</v>
       </c>
-      <c r="C92" s="373"/>
+      <c r="C92" s="398"/>
       <c r="D92" s="128">
         <f t="shared" si="15"/>
         <v>35</v>
@@ -42145,23 +42156,23 @@
         <f t="shared" si="10"/>
         <v>900500</v>
       </c>
-      <c r="K92" s="479"/>
-      <c r="L92" s="480"/>
-      <c r="M92" s="481"/>
+      <c r="K92" s="424"/>
+      <c r="L92" s="425"/>
+      <c r="M92" s="426"/>
       <c r="N92" s="103">
         <f t="shared" si="11"/>
         <v>0.40762854747332483</v>
       </c>
-      <c r="O92" s="406">
+      <c r="O92" s="455">
         <f t="shared" si="18"/>
         <v>204.14014296563414</v>
       </c>
-      <c r="P92" s="407"/>
+      <c r="P92" s="456"/>
       <c r="Q92" s="116">
         <f t="shared" si="12"/>
         <v>82210.469713043785</v>
       </c>
-      <c r="R92" s="357"/>
+      <c r="R92" s="504"/>
       <c r="S92" s="117">
         <f t="shared" si="13"/>
         <v>0.47956299702744098</v>
@@ -42174,7 +42185,7 @@
         <f t="shared" si="14"/>
         <v>22035.669411183146</v>
       </c>
-      <c r="V92" s="357"/>
+      <c r="V92" s="504"/>
       <c r="X92" s="46">
         <v>60</v>
       </c>
@@ -42187,11 +42198,11 @@
       <c r="AF92" s="141"/>
     </row>
     <row r="93" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="372" t="str">
+      <c r="B93" s="397" t="str">
         <f t="shared" si="6"/>
         <v>40-50</v>
       </c>
-      <c r="C93" s="373"/>
+      <c r="C93" s="398"/>
       <c r="D93" s="128">
         <f t="shared" si="15"/>
         <v>40</v>
@@ -42220,23 +42231,23 @@
         <f t="shared" si="10"/>
         <v>1536195.2861952859</v>
       </c>
-      <c r="K93" s="479"/>
-      <c r="L93" s="480"/>
-      <c r="M93" s="481"/>
+      <c r="K93" s="424"/>
+      <c r="L93" s="425"/>
+      <c r="M93" s="426"/>
       <c r="N93" s="103">
         <f t="shared" si="11"/>
         <v>0.31416500987989782</v>
       </c>
-      <c r="O93" s="406">
+      <c r="O93" s="455">
         <f t="shared" si="18"/>
         <v>264.35085434574313</v>
       </c>
-      <c r="P93" s="407"/>
+      <c r="P93" s="456"/>
       <c r="Q93" s="116">
         <f t="shared" si="12"/>
         <v>139970.13026794555</v>
       </c>
-      <c r="R93" s="357"/>
+      <c r="R93" s="504"/>
       <c r="S93" s="117">
         <f t="shared" si="13"/>
         <v>0.36960589397635041</v>
@@ -42249,7 +42260,7 @@
         <f t="shared" si="14"/>
         <v>37174.499791542286</v>
       </c>
-      <c r="V93" s="357"/>
+      <c r="V93" s="504"/>
       <c r="W93" s="121"/>
       <c r="X93" s="46">
         <v>50</v>
@@ -42263,11 +42274,11 @@
       <c r="AF93" s="141"/>
     </row>
     <row r="94" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="372" t="str">
+      <c r="B94" s="397" t="str">
         <f t="shared" si="6"/>
         <v>50-60</v>
       </c>
-      <c r="C94" s="373"/>
+      <c r="C94" s="398"/>
       <c r="D94" s="128">
         <f t="shared" si="15"/>
         <v>50</v>
@@ -42296,23 +42307,23 @@
         <f t="shared" si="10"/>
         <v>2107744.1077441075</v>
       </c>
-      <c r="K94" s="479"/>
-      <c r="L94" s="480"/>
-      <c r="M94" s="481"/>
+      <c r="K94" s="424"/>
+      <c r="L94" s="425"/>
+      <c r="M94" s="426"/>
       <c r="N94" s="103">
         <f t="shared" si="11"/>
         <v>0.24836924808744476</v>
       </c>
-      <c r="O94" s="406">
+      <c r="O94" s="455">
         <f t="shared" si="18"/>
         <v>333.91672609546958</v>
       </c>
-      <c r="P94" s="407"/>
+      <c r="P94" s="456"/>
       <c r="Q94" s="116">
         <f t="shared" si="12"/>
         <v>191780.42934705055</v>
       </c>
-      <c r="R94" s="357"/>
+      <c r="R94" s="504"/>
       <c r="S94" s="117">
         <f t="shared" si="13"/>
         <v>0.29219911539699384</v>
@@ -42325,7 +42336,7 @@
         <f t="shared" si="14"/>
         <v>50556.296490488276</v>
       </c>
-      <c r="V94" s="357"/>
+      <c r="V94" s="504"/>
       <c r="W94" s="121"/>
       <c r="X94" s="46">
         <v>45</v>
@@ -42338,11 +42349,11 @@
       <c r="AF94" s="141"/>
     </row>
     <row r="95" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="372" t="str">
+      <c r="B95" s="397" t="str">
         <f t="shared" si="6"/>
         <v>60-70</v>
       </c>
-      <c r="C95" s="373"/>
+      <c r="C95" s="398"/>
       <c r="D95" s="128">
         <f t="shared" si="15"/>
         <v>60</v>
@@ -42371,23 +42382,23 @@
         <f t="shared" si="10"/>
         <v>1771428.5714285716</v>
       </c>
-      <c r="K95" s="479"/>
-      <c r="L95" s="480"/>
-      <c r="M95" s="481"/>
+      <c r="K95" s="424"/>
+      <c r="L95" s="425"/>
+      <c r="M95" s="426"/>
       <c r="N95" s="103">
         <f t="shared" si="11"/>
         <v>0.20884748283793922</v>
       </c>
-      <c r="O95" s="406">
+      <c r="O95" s="455">
         <f t="shared" si="18"/>
         <v>396.77511056845287</v>
       </c>
-      <c r="P95" s="407"/>
+      <c r="P95" s="456"/>
       <c r="Q95" s="116">
         <f t="shared" si="12"/>
         <v>161045.17519910476</v>
       </c>
-      <c r="R95" s="357"/>
+      <c r="R95" s="504"/>
       <c r="S95" s="117">
         <f t="shared" si="13"/>
         <v>0.24570292098581084</v>
@@ -42400,7 +42411,7 @@
         <f t="shared" si="14"/>
         <v>42240.957889352372</v>
       </c>
-      <c r="V95" s="357"/>
+      <c r="V95" s="504"/>
       <c r="W95" s="121"/>
       <c r="X95" s="46">
         <v>40</v>
@@ -42413,11 +42424,11 @@
       <c r="AF95" s="141"/>
     </row>
     <row r="96" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="372" t="str">
+      <c r="B96" s="397" t="str">
         <f t="shared" si="6"/>
         <v>70-100</v>
       </c>
-      <c r="C96" s="373"/>
+      <c r="C96" s="398"/>
       <c r="D96" s="128">
         <f t="shared" si="15"/>
         <v>70</v>
@@ -42446,23 +42457,23 @@
         <f t="shared" si="10"/>
         <v>661553.21188878256</v>
       </c>
-      <c r="K96" s="482"/>
-      <c r="L96" s="483"/>
-      <c r="M96" s="484"/>
+      <c r="K96" s="427"/>
+      <c r="L96" s="428"/>
+      <c r="M96" s="429"/>
       <c r="N96" s="103">
         <f t="shared" si="11"/>
         <v>0.16123242095898396</v>
       </c>
-      <c r="O96" s="406">
+      <c r="O96" s="455">
         <f t="shared" si="18"/>
         <v>513.43368935542583</v>
       </c>
-      <c r="P96" s="407"/>
+      <c r="P96" s="456"/>
       <c r="Q96" s="116">
         <f t="shared" si="12"/>
         <v>60083.043781598011</v>
       </c>
-      <c r="R96" s="357"/>
+      <c r="R96" s="504"/>
       <c r="S96" s="117">
         <f t="shared" si="13"/>
         <v>0.18968520112821644</v>
@@ -42475,7 +42486,7 @@
         <f t="shared" si="14"/>
         <v>15652.115733941762</v>
       </c>
-      <c r="V96" s="357"/>
+      <c r="V96" s="504"/>
       <c r="W96" s="121"/>
       <c r="X96" s="46">
         <v>35</v>
@@ -42499,7 +42510,7 @@
       <c r="G97" s="127"/>
       <c r="H97" s="5"/>
       <c r="I97" s="121"/>
-      <c r="J97" s="488">
+      <c r="J97" s="392">
         <f>SUM(J88:J96)</f>
         <v>7972363.3844351405</v>
       </c>
@@ -42509,14 +42520,14 @@
       <c r="N97" s="121"/>
       <c r="O97" s="121"/>
       <c r="P97" s="121"/>
-      <c r="Q97" s="358">
+      <c r="Q97" s="393">
         <f>SUM(Q88:Q96)</f>
         <v>726191.86471205414</v>
       </c>
       <c r="R97" s="121"/>
       <c r="S97" s="121"/>
       <c r="T97" s="121"/>
-      <c r="U97" s="362">
+      <c r="U97" s="505">
         <f>SUM(U88:U96)</f>
         <v>192363.89087998384</v>
       </c>
@@ -42539,18 +42550,18 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="121"/>
-      <c r="J98" s="358"/>
+      <c r="J98" s="393"/>
       <c r="K98" s="121"/>
       <c r="L98" s="121"/>
       <c r="M98" s="121"/>
       <c r="N98" s="121"/>
       <c r="O98" s="121"/>
       <c r="P98" s="121"/>
-      <c r="Q98" s="358"/>
+      <c r="Q98" s="393"/>
       <c r="R98" s="121"/>
       <c r="S98" s="121"/>
       <c r="T98" s="121"/>
-      <c r="U98" s="363"/>
+      <c r="U98" s="506"/>
       <c r="V98" s="121"/>
       <c r="W98" s="121"/>
       <c r="X98" s="46">
@@ -42570,7 +42581,7 @@
       <c r="G99" s="122"/>
       <c r="H99" s="122"/>
       <c r="I99" s="121"/>
-      <c r="J99" s="358"/>
+      <c r="J99" s="393"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6">
@@ -42579,13 +42590,13 @@
       <c r="N99" s="121"/>
       <c r="O99" s="121"/>
       <c r="P99" s="121"/>
-      <c r="Q99" s="358"/>
+      <c r="Q99" s="393"/>
       <c r="R99" s="6">
         <v>0.47220000000000001</v>
       </c>
       <c r="S99" s="121"/>
       <c r="T99" s="121"/>
-      <c r="U99" s="364"/>
+      <c r="U99" s="507"/>
       <c r="V99" s="6" t="s">
         <v>239</v>
       </c>
@@ -42663,19 +42674,19 @@
       <c r="Z101" s="120"/>
     </row>
     <row r="102" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="435" t="s">
+      <c r="B102" s="478" t="s">
         <v>224</v>
       </c>
-      <c r="C102" s="436"/>
+      <c r="C102" s="479"/>
       <c r="D102" s="145"/>
       <c r="E102" s="186"/>
-      <c r="F102" s="379" t="s">
+      <c r="F102" s="484" t="s">
         <v>222</v>
       </c>
-      <c r="G102" s="379" t="s">
+      <c r="G102" s="484" t="s">
         <v>223</v>
       </c>
-      <c r="H102" s="379" t="s">
+      <c r="H102" s="484" t="s">
         <v>216</v>
       </c>
       <c r="I102" s="121"/>
@@ -42702,13 +42713,13 @@
       <c r="Z102" s="120"/>
     </row>
     <row r="103" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="437"/>
-      <c r="C103" s="438"/>
+      <c r="B103" s="480"/>
+      <c r="C103" s="481"/>
       <c r="D103" s="145"/>
       <c r="E103" s="186"/>
-      <c r="F103" s="380"/>
-      <c r="G103" s="380"/>
-      <c r="H103" s="380"/>
+      <c r="F103" s="485"/>
+      <c r="G103" s="485"/>
+      <c r="H103" s="485"/>
       <c r="I103" s="121"/>
       <c r="J103" s="144"/>
       <c r="K103" s="6"/>
@@ -42733,13 +42744,13 @@
       <c r="Z103" s="120"/>
     </row>
     <row r="104" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="437"/>
-      <c r="C104" s="438"/>
+      <c r="B104" s="480"/>
+      <c r="C104" s="481"/>
       <c r="D104" s="145"/>
       <c r="E104" s="186"/>
-      <c r="F104" s="380"/>
-      <c r="G104" s="380"/>
-      <c r="H104" s="380"/>
+      <c r="F104" s="485"/>
+      <c r="G104" s="485"/>
+      <c r="H104" s="485"/>
       <c r="I104" s="150"/>
       <c r="J104" s="150"/>
       <c r="K104" s="150"/>
@@ -42764,13 +42775,13 @@
       <c r="Z104" s="120"/>
     </row>
     <row r="105" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="439"/>
-      <c r="C105" s="440"/>
+      <c r="B105" s="482"/>
+      <c r="C105" s="483"/>
       <c r="D105" s="145"/>
       <c r="E105" s="186"/>
-      <c r="F105" s="441"/>
-      <c r="G105" s="441"/>
-      <c r="H105" s="441"/>
+      <c r="F105" s="486"/>
+      <c r="G105" s="486"/>
+      <c r="H105" s="486"/>
       <c r="I105" s="150"/>
       <c r="J105" s="150"/>
       <c r="K105" s="150"/>
@@ -42795,10 +42806,10 @@
       <c r="Z105" s="120"/>
     </row>
     <row r="106" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="442">
+      <c r="B106" s="487">
         <v>1</v>
       </c>
-      <c r="C106" s="443"/>
+      <c r="C106" s="488"/>
       <c r="D106" s="146"/>
       <c r="E106" s="132"/>
       <c r="F106" s="148">
@@ -42830,10 +42841,10 @@
       <c r="Z106" s="120"/>
     </row>
     <row r="107" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="442">
+      <c r="B107" s="487">
         <v>2</v>
       </c>
-      <c r="C107" s="443"/>
+      <c r="C107" s="488"/>
       <c r="D107" s="146"/>
       <c r="E107" s="132"/>
       <c r="F107" s="148" t="s">
@@ -42865,10 +42876,10 @@
       <c r="Z107" s="120"/>
     </row>
     <row r="108" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="442">
+      <c r="B108" s="487">
         <v>3</v>
       </c>
-      <c r="C108" s="443"/>
+      <c r="C108" s="488"/>
       <c r="D108" s="146"/>
       <c r="E108" s="132"/>
       <c r="F108" s="148" t="s">
@@ -42900,10 +42911,10 @@
       <c r="Z108" s="120"/>
     </row>
     <row r="109" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="442">
+      <c r="B109" s="487">
         <v>4</v>
       </c>
-      <c r="C109" s="443"/>
+      <c r="C109" s="488"/>
       <c r="D109" s="146"/>
       <c r="E109" s="132"/>
       <c r="F109" s="148" t="s">
@@ -42935,10 +42946,10 @@
       <c r="Z109" s="120"/>
     </row>
     <row r="110" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="442">
+      <c r="B110" s="487">
         <v>5</v>
       </c>
-      <c r="C110" s="443"/>
+      <c r="C110" s="488"/>
       <c r="D110" s="182"/>
       <c r="E110" s="187"/>
       <c r="F110" s="133" t="s">
@@ -43026,15 +43037,15 @@
       <c r="Z112" s="120"/>
     </row>
     <row r="113" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="333" t="s">
+      <c r="B113" s="335" t="s">
         <v>180</v>
       </c>
-      <c r="C113" s="333"/>
-      <c r="D113" s="333"/>
-      <c r="E113" s="333"/>
-      <c r="F113" s="333"/>
-      <c r="G113" s="333"/>
-      <c r="H113" s="333"/>
+      <c r="C113" s="335"/>
+      <c r="D113" s="335"/>
+      <c r="E113" s="335"/>
+      <c r="F113" s="335"/>
+      <c r="G113" s="335"/>
+      <c r="H113" s="335"/>
       <c r="I113" s="206" t="s">
         <v>212</v>
       </c>
@@ -43045,10 +43056,10 @@
       <c r="K113" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="L113" s="422"/>
-      <c r="M113" s="423"/>
-      <c r="N113" s="423"/>
-      <c r="O113" s="424"/>
+      <c r="L113" s="475"/>
+      <c r="M113" s="476"/>
+      <c r="N113" s="476"/>
+      <c r="O113" s="477"/>
       <c r="P113" s="121"/>
       <c r="Q113" s="188"/>
       <c r="R113" s="6"/>
@@ -43062,15 +43073,15 @@
       <c r="Z113" s="120"/>
     </row>
     <row r="114" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="315" t="s">
+      <c r="B114" s="329" t="s">
         <v>295</v>
       </c>
-      <c r="C114" s="374"/>
-      <c r="D114" s="374"/>
-      <c r="E114" s="374"/>
-      <c r="F114" s="374"/>
-      <c r="G114" s="374"/>
-      <c r="H114" s="316"/>
+      <c r="C114" s="403"/>
+      <c r="D114" s="403"/>
+      <c r="E114" s="403"/>
+      <c r="F114" s="403"/>
+      <c r="G114" s="403"/>
+      <c r="H114" s="330"/>
       <c r="I114" s="206" t="s">
         <v>296</v>
       </c>
@@ -43081,10 +43092,10 @@
       <c r="K114" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L114" s="422"/>
-      <c r="M114" s="423"/>
-      <c r="N114" s="423"/>
-      <c r="O114" s="424"/>
+      <c r="L114" s="475"/>
+      <c r="M114" s="476"/>
+      <c r="N114" s="476"/>
+      <c r="O114" s="477"/>
       <c r="P114" s="121"/>
       <c r="Q114" s="188"/>
       <c r="R114" s="6"/>
@@ -43098,29 +43109,29 @@
       <c r="Z114" s="120"/>
     </row>
     <row r="115" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="408" t="s">
+      <c r="B115" s="489" t="s">
         <v>298</v>
       </c>
-      <c r="C115" s="409"/>
-      <c r="D115" s="409"/>
-      <c r="E115" s="409"/>
-      <c r="F115" s="409"/>
-      <c r="G115" s="409"/>
-      <c r="H115" s="410"/>
-      <c r="I115" s="394" t="s">
+      <c r="C115" s="490"/>
+      <c r="D115" s="490"/>
+      <c r="E115" s="490"/>
+      <c r="F115" s="490"/>
+      <c r="G115" s="490"/>
+      <c r="H115" s="491"/>
+      <c r="I115" s="374" t="s">
         <v>299</v>
       </c>
-      <c r="J115" s="414">
+      <c r="J115" s="497">
         <f>J113/(24*60)*J114/3</f>
         <v>1.5625E-2</v>
       </c>
-      <c r="K115" s="394" t="s">
+      <c r="K115" s="374" t="s">
         <v>3</v>
       </c>
-      <c r="L115" s="416"/>
-      <c r="M115" s="417"/>
-      <c r="N115" s="417"/>
-      <c r="O115" s="418"/>
+      <c r="L115" s="437"/>
+      <c r="M115" s="438"/>
+      <c r="N115" s="438"/>
+      <c r="O115" s="439"/>
       <c r="P115" s="121"/>
       <c r="Q115" s="188"/>
       <c r="R115" s="6"/>
@@ -43134,20 +43145,20 @@
       <c r="Z115" s="120"/>
     </row>
     <row r="116" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="411"/>
-      <c r="C116" s="412"/>
-      <c r="D116" s="412"/>
-      <c r="E116" s="412"/>
-      <c r="F116" s="412"/>
-      <c r="G116" s="412"/>
-      <c r="H116" s="413"/>
-      <c r="I116" s="395"/>
-      <c r="J116" s="415"/>
-      <c r="K116" s="395"/>
-      <c r="L116" s="419"/>
-      <c r="M116" s="420"/>
-      <c r="N116" s="420"/>
-      <c r="O116" s="421"/>
+      <c r="B116" s="492"/>
+      <c r="C116" s="493"/>
+      <c r="D116" s="493"/>
+      <c r="E116" s="493"/>
+      <c r="F116" s="493"/>
+      <c r="G116" s="493"/>
+      <c r="H116" s="494"/>
+      <c r="I116" s="375"/>
+      <c r="J116" s="498"/>
+      <c r="K116" s="375"/>
+      <c r="L116" s="440"/>
+      <c r="M116" s="441"/>
+      <c r="N116" s="441"/>
+      <c r="O116" s="442"/>
       <c r="P116" s="121"/>
       <c r="Q116" s="188"/>
       <c r="R116" s="6"/>
@@ -43198,7 +43209,7 @@
       <c r="G118" s="308"/>
       <c r="H118" s="131"/>
       <c r="I118" s="138"/>
-      <c r="J118" s="131"/>
+      <c r="J118" s="509"/>
       <c r="K118" s="138"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
@@ -43217,34 +43228,34 @@
       <c r="Z118" s="120"/>
     </row>
     <row r="119" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="504" t="s">
-        <v>362</v>
-      </c>
-      <c r="C119" s="505"/>
-      <c r="D119" s="505"/>
-      <c r="E119" s="505"/>
-      <c r="F119" s="505"/>
-      <c r="G119" s="505"/>
-      <c r="H119" s="506"/>
+      <c r="B119" s="408" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="409"/>
+      <c r="D119" s="409"/>
+      <c r="E119" s="409"/>
+      <c r="F119" s="409"/>
+      <c r="G119" s="409"/>
+      <c r="H119" s="410"/>
       <c r="I119" s="250" t="s">
         <v>0</v>
       </c>
       <c r="J119" s="277">
         <f>IF(B119=AD8,J10,IF(B119=AD9,J11,IF(B119=AD10,J12,FALSE)))</f>
-        <v>4.4040000000000003E-2</v>
+        <v>5.7252000000000004E-2</v>
       </c>
       <c r="K119" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="L119" s="422"/>
-      <c r="M119" s="423"/>
-      <c r="N119" s="423"/>
-      <c r="O119" s="424"/>
+      <c r="L119" s="475"/>
+      <c r="M119" s="476"/>
+      <c r="N119" s="476"/>
+      <c r="O119" s="477"/>
       <c r="P119" s="310"/>
-      <c r="Q119" s="507" t="s">
+      <c r="Q119" s="361" t="s">
         <v>415</v>
       </c>
-      <c r="R119" s="507"/>
+      <c r="R119" s="361"/>
       <c r="S119" s="121"/>
       <c r="T119" s="121"/>
       <c r="U119" s="195"/>
@@ -43255,15 +43266,15 @@
       <c r="Z119" s="120"/>
     </row>
     <row r="120" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="375" t="s">
+      <c r="B120" s="430" t="s">
         <v>347</v>
       </c>
-      <c r="C120" s="376"/>
-      <c r="D120" s="376"/>
-      <c r="E120" s="376"/>
-      <c r="F120" s="376"/>
-      <c r="G120" s="376"/>
-      <c r="H120" s="377"/>
+      <c r="C120" s="431"/>
+      <c r="D120" s="431"/>
+      <c r="E120" s="431"/>
+      <c r="F120" s="431"/>
+      <c r="G120" s="431"/>
+      <c r="H120" s="432"/>
       <c r="I120" s="206" t="s">
         <v>212</v>
       </c>
@@ -43291,15 +43302,15 @@
       <c r="Z120" s="120"/>
     </row>
     <row r="121" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="375" t="s">
+      <c r="B121" s="430" t="s">
         <v>355</v>
       </c>
-      <c r="C121" s="376"/>
-      <c r="D121" s="376"/>
-      <c r="E121" s="376"/>
-      <c r="F121" s="376"/>
-      <c r="G121" s="376"/>
-      <c r="H121" s="377"/>
+      <c r="C121" s="431"/>
+      <c r="D121" s="431"/>
+      <c r="E121" s="431"/>
+      <c r="F121" s="431"/>
+      <c r="G121" s="431"/>
+      <c r="H121" s="432"/>
       <c r="I121" s="206" t="s">
         <v>356</v>
       </c>
@@ -43327,29 +43338,29 @@
       <c r="Z121" s="120"/>
     </row>
     <row r="122" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="444" t="s">
+      <c r="B122" s="447" t="s">
         <v>365</v>
       </c>
-      <c r="C122" s="445"/>
-      <c r="D122" s="445"/>
-      <c r="E122" s="445"/>
-      <c r="F122" s="445"/>
-      <c r="G122" s="445"/>
-      <c r="H122" s="446"/>
-      <c r="I122" s="450" t="s">
+      <c r="C122" s="448"/>
+      <c r="D122" s="448"/>
+      <c r="E122" s="448"/>
+      <c r="F122" s="448"/>
+      <c r="G122" s="448"/>
+      <c r="H122" s="449"/>
+      <c r="I122" s="435" t="s">
         <v>269</v>
       </c>
-      <c r="J122" s="404">
+      <c r="J122" s="453">
         <f>(J119*86400)/J120</f>
-        <v>31.7088</v>
-      </c>
-      <c r="K122" s="450" t="s">
+        <v>41.221440000000001</v>
+      </c>
+      <c r="K122" s="435" t="s">
         <v>363</v>
       </c>
-      <c r="L122" s="416"/>
-      <c r="M122" s="417"/>
-      <c r="N122" s="417"/>
-      <c r="O122" s="418"/>
+      <c r="L122" s="437"/>
+      <c r="M122" s="438"/>
+      <c r="N122" s="438"/>
+      <c r="O122" s="439"/>
       <c r="P122" s="121"/>
       <c r="Q122" s="196"/>
       <c r="R122" s="6"/>
@@ -43363,20 +43374,20 @@
       <c r="Z122" s="120"/>
     </row>
     <row r="123" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="447"/>
-      <c r="C123" s="448"/>
-      <c r="D123" s="448"/>
-      <c r="E123" s="448"/>
-      <c r="F123" s="448"/>
-      <c r="G123" s="448"/>
-      <c r="H123" s="449"/>
-      <c r="I123" s="451"/>
-      <c r="J123" s="405"/>
-      <c r="K123" s="451"/>
-      <c r="L123" s="419"/>
-      <c r="M123" s="420"/>
-      <c r="N123" s="420"/>
-      <c r="O123" s="421"/>
+      <c r="B123" s="450"/>
+      <c r="C123" s="451"/>
+      <c r="D123" s="451"/>
+      <c r="E123" s="451"/>
+      <c r="F123" s="451"/>
+      <c r="G123" s="451"/>
+      <c r="H123" s="452"/>
+      <c r="I123" s="436"/>
+      <c r="J123" s="454"/>
+      <c r="K123" s="436"/>
+      <c r="L123" s="440"/>
+      <c r="M123" s="441"/>
+      <c r="N123" s="441"/>
+      <c r="O123" s="442"/>
       <c r="P123" s="121"/>
       <c r="Q123" s="196"/>
       <c r="R123" s="6"/>
@@ -43390,29 +43401,29 @@
       <c r="Z123" s="120"/>
     </row>
     <row r="124" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="444" t="s">
+      <c r="B124" s="447" t="s">
         <v>366</v>
       </c>
-      <c r="C124" s="445"/>
-      <c r="D124" s="445"/>
-      <c r="E124" s="445"/>
-      <c r="F124" s="445"/>
-      <c r="G124" s="445"/>
-      <c r="H124" s="446"/>
-      <c r="I124" s="450" t="s">
+      <c r="C124" s="448"/>
+      <c r="D124" s="448"/>
+      <c r="E124" s="448"/>
+      <c r="F124" s="448"/>
+      <c r="G124" s="448"/>
+      <c r="H124" s="449"/>
+      <c r="I124" s="435" t="s">
         <v>369</v>
       </c>
-      <c r="J124" s="404">
+      <c r="J124" s="453">
         <f>(J119*86400)/J121</f>
-        <v>25.367039999999999</v>
-      </c>
-      <c r="K124" s="450" t="s">
+        <v>32.977151999999997</v>
+      </c>
+      <c r="K124" s="435" t="s">
         <v>363</v>
       </c>
-      <c r="L124" s="416"/>
-      <c r="M124" s="417"/>
-      <c r="N124" s="417"/>
-      <c r="O124" s="418"/>
+      <c r="L124" s="437"/>
+      <c r="M124" s="438"/>
+      <c r="N124" s="438"/>
+      <c r="O124" s="439"/>
       <c r="P124" s="121"/>
       <c r="Q124" s="196"/>
       <c r="R124" s="6"/>
@@ -43426,20 +43437,20 @@
       <c r="Z124" s="120"/>
     </row>
     <row r="125" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="447"/>
-      <c r="C125" s="448"/>
-      <c r="D125" s="448"/>
-      <c r="E125" s="448"/>
-      <c r="F125" s="448"/>
-      <c r="G125" s="448"/>
-      <c r="H125" s="449"/>
-      <c r="I125" s="451"/>
-      <c r="J125" s="405"/>
-      <c r="K125" s="451"/>
-      <c r="L125" s="419"/>
-      <c r="M125" s="420"/>
-      <c r="N125" s="420"/>
-      <c r="O125" s="421"/>
+      <c r="B125" s="450"/>
+      <c r="C125" s="451"/>
+      <c r="D125" s="451"/>
+      <c r="E125" s="451"/>
+      <c r="F125" s="451"/>
+      <c r="G125" s="451"/>
+      <c r="H125" s="452"/>
+      <c r="I125" s="436"/>
+      <c r="J125" s="454"/>
+      <c r="K125" s="436"/>
+      <c r="L125" s="440"/>
+      <c r="M125" s="441"/>
+      <c r="N125" s="441"/>
+      <c r="O125" s="442"/>
       <c r="P125" s="121"/>
       <c r="Q125" s="196"/>
       <c r="R125" s="6"/>
@@ -43453,29 +43464,29 @@
       <c r="Z125" s="120"/>
     </row>
     <row r="126" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="375" t="s">
+      <c r="B126" s="430" t="s">
         <v>367</v>
       </c>
-      <c r="C126" s="376"/>
-      <c r="D126" s="376"/>
-      <c r="E126" s="376"/>
-      <c r="F126" s="376"/>
-      <c r="G126" s="376"/>
-      <c r="H126" s="377"/>
+      <c r="C126" s="431"/>
+      <c r="D126" s="431"/>
+      <c r="E126" s="431"/>
+      <c r="F126" s="431"/>
+      <c r="G126" s="431"/>
+      <c r="H126" s="432"/>
       <c r="I126" s="281" t="s">
         <v>368</v>
       </c>
       <c r="J126" s="277">
         <f>ROUND((J122-J124),2)</f>
-        <v>6.34</v>
+        <v>8.24</v>
       </c>
       <c r="K126" s="281" t="s">
         <v>363</v>
       </c>
-      <c r="L126" s="422"/>
-      <c r="M126" s="423"/>
-      <c r="N126" s="423"/>
-      <c r="O126" s="424"/>
+      <c r="L126" s="475"/>
+      <c r="M126" s="476"/>
+      <c r="N126" s="476"/>
+      <c r="O126" s="477"/>
       <c r="P126" s="121"/>
       <c r="Q126" s="196"/>
       <c r="R126" s="6"/>
@@ -43489,27 +43500,27 @@
       <c r="Z126" s="120"/>
     </row>
     <row r="127" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="408" t="s">
+      <c r="B127" s="489" t="s">
         <v>345</v>
       </c>
-      <c r="C127" s="409"/>
-      <c r="D127" s="409"/>
-      <c r="E127" s="409"/>
-      <c r="F127" s="409"/>
-      <c r="G127" s="409"/>
-      <c r="H127" s="410"/>
-      <c r="I127" s="450" t="s">
+      <c r="C127" s="490"/>
+      <c r="D127" s="490"/>
+      <c r="E127" s="490"/>
+      <c r="F127" s="490"/>
+      <c r="G127" s="490"/>
+      <c r="H127" s="491"/>
+      <c r="I127" s="435" t="s">
         <v>381</v>
       </c>
-      <c r="J127" s="404">
+      <c r="J127" s="453">
         <f>ROUND(J122/J126,2)</f>
         <v>5</v>
       </c>
-      <c r="K127" s="450"/>
-      <c r="L127" s="416"/>
-      <c r="M127" s="417"/>
-      <c r="N127" s="417"/>
-      <c r="O127" s="418"/>
+      <c r="K127" s="435"/>
+      <c r="L127" s="437"/>
+      <c r="M127" s="438"/>
+      <c r="N127" s="438"/>
+      <c r="O127" s="439"/>
       <c r="P127" s="121"/>
       <c r="Q127" s="196"/>
       <c r="R127" s="6"/>
@@ -43523,20 +43534,20 @@
       <c r="Z127" s="120"/>
     </row>
     <row r="128" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="411"/>
-      <c r="C128" s="412"/>
-      <c r="D128" s="412"/>
-      <c r="E128" s="412"/>
-      <c r="F128" s="412"/>
-      <c r="G128" s="412"/>
-      <c r="H128" s="413"/>
-      <c r="I128" s="451"/>
-      <c r="J128" s="405"/>
-      <c r="K128" s="451"/>
-      <c r="L128" s="419"/>
-      <c r="M128" s="420"/>
-      <c r="N128" s="420"/>
-      <c r="O128" s="421"/>
+      <c r="B128" s="492"/>
+      <c r="C128" s="493"/>
+      <c r="D128" s="493"/>
+      <c r="E128" s="493"/>
+      <c r="F128" s="493"/>
+      <c r="G128" s="493"/>
+      <c r="H128" s="494"/>
+      <c r="I128" s="436"/>
+      <c r="J128" s="454"/>
+      <c r="K128" s="436"/>
+      <c r="L128" s="440"/>
+      <c r="M128" s="441"/>
+      <c r="N128" s="441"/>
+      <c r="O128" s="442"/>
       <c r="P128" s="121"/>
       <c r="Q128" s="196"/>
       <c r="R128" s="6"/>
@@ -43550,29 +43561,29 @@
       <c r="Z128" s="120"/>
     </row>
     <row r="129" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="425" t="s">
+      <c r="B129" s="499" t="s">
         <v>371</v>
       </c>
-      <c r="C129" s="425"/>
-      <c r="D129" s="425"/>
-      <c r="E129" s="425"/>
-      <c r="F129" s="425"/>
-      <c r="G129" s="425"/>
-      <c r="H129" s="425"/>
+      <c r="C129" s="499"/>
+      <c r="D129" s="499"/>
+      <c r="E129" s="499"/>
+      <c r="F129" s="499"/>
+      <c r="G129" s="499"/>
+      <c r="H129" s="499"/>
       <c r="I129" s="275" t="s">
         <v>370</v>
       </c>
       <c r="J129" s="277">
         <f>SQRT(J126)</f>
-        <v>2.5179356624028344</v>
+        <v>2.8705400188814649</v>
       </c>
       <c r="K129" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="L129" s="358"/>
-      <c r="M129" s="358"/>
-      <c r="N129" s="358"/>
-      <c r="O129" s="358"/>
+      <c r="L129" s="393"/>
+      <c r="M129" s="393"/>
+      <c r="N129" s="393"/>
+      <c r="O129" s="393"/>
       <c r="P129" s="121"/>
       <c r="Q129" s="196"/>
       <c r="R129" s="6"/>
@@ -43698,15 +43709,15 @@
       <c r="Z133" s="120"/>
     </row>
     <row r="134" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="432" t="s">
+      <c r="B134" s="389" t="s">
         <v>231</v>
       </c>
-      <c r="C134" s="433"/>
-      <c r="D134" s="433"/>
-      <c r="E134" s="433"/>
-      <c r="F134" s="433"/>
-      <c r="G134" s="433"/>
-      <c r="H134" s="434"/>
+      <c r="C134" s="390"/>
+      <c r="D134" s="390"/>
+      <c r="E134" s="390"/>
+      <c r="F134" s="390"/>
+      <c r="G134" s="390"/>
+      <c r="H134" s="391"/>
       <c r="I134" s="56" t="s">
         <v>11</v>
       </c>
@@ -43715,10 +43726,10 @@
         <v>0.45</v>
       </c>
       <c r="K134" s="203"/>
-      <c r="L134" s="422"/>
-      <c r="M134" s="423"/>
-      <c r="N134" s="423"/>
-      <c r="O134" s="424"/>
+      <c r="L134" s="475"/>
+      <c r="M134" s="476"/>
+      <c r="N134" s="476"/>
+      <c r="O134" s="477"/>
       <c r="P134" s="121"/>
       <c r="Q134" s="188"/>
       <c r="R134" s="6"/>
@@ -43732,16 +43743,16 @@
       <c r="Z134" s="120"/>
     </row>
     <row r="135" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="432" t="str">
+      <c r="B135" s="389" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad dinámica del agua a 3 °C</v>
       </c>
-      <c r="C135" s="433"/>
-      <c r="D135" s="433"/>
-      <c r="E135" s="433"/>
-      <c r="F135" s="433"/>
-      <c r="G135" s="433"/>
-      <c r="H135" s="434"/>
+      <c r="C135" s="390"/>
+      <c r="D135" s="390"/>
+      <c r="E135" s="390"/>
+      <c r="F135" s="390"/>
+      <c r="G135" s="390"/>
+      <c r="H135" s="391"/>
       <c r="I135" s="275" t="s">
         <v>213</v>
       </c>
@@ -43769,15 +43780,15 @@
       <c r="Z135" s="120"/>
     </row>
     <row r="136" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="334" t="s">
+      <c r="B136" s="340" t="s">
         <v>243</v>
       </c>
-      <c r="C136" s="378"/>
-      <c r="D136" s="378"/>
-      <c r="E136" s="378"/>
-      <c r="F136" s="378"/>
-      <c r="G136" s="378"/>
-      <c r="H136" s="335"/>
+      <c r="C136" s="496"/>
+      <c r="D136" s="496"/>
+      <c r="E136" s="496"/>
+      <c r="F136" s="496"/>
+      <c r="G136" s="496"/>
+      <c r="H136" s="341"/>
       <c r="I136" s="153" t="s">
         <v>257</v>
       </c>
@@ -43788,10 +43799,10 @@
       <c r="K136" s="153" t="s">
         <v>244</v>
       </c>
-      <c r="L136" s="381"/>
-      <c r="M136" s="381"/>
-      <c r="N136" s="381"/>
-      <c r="O136" s="381"/>
+      <c r="L136" s="495"/>
+      <c r="M136" s="495"/>
+      <c r="N136" s="495"/>
+      <c r="O136" s="495"/>
       <c r="P136" s="161"/>
       <c r="Q136" s="149"/>
       <c r="R136" s="6"/>
@@ -43805,15 +43816,15 @@
       <c r="Z136" s="120"/>
     </row>
     <row r="137" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="334" t="s">
+      <c r="B137" s="340" t="s">
         <v>280</v>
       </c>
-      <c r="C137" s="378"/>
-      <c r="D137" s="378"/>
-      <c r="E137" s="378"/>
-      <c r="F137" s="378"/>
-      <c r="G137" s="378"/>
-      <c r="H137" s="335"/>
+      <c r="C137" s="496"/>
+      <c r="D137" s="496"/>
+      <c r="E137" s="496"/>
+      <c r="F137" s="496"/>
+      <c r="G137" s="496"/>
+      <c r="H137" s="341"/>
       <c r="I137" s="153" t="s">
         <v>279</v>
       </c>
@@ -43824,10 +43835,10 @@
       <c r="K137" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L137" s="381"/>
-      <c r="M137" s="381"/>
-      <c r="N137" s="381"/>
-      <c r="O137" s="381"/>
+      <c r="L137" s="495"/>
+      <c r="M137" s="495"/>
+      <c r="N137" s="495"/>
+      <c r="O137" s="495"/>
       <c r="P137" s="161"/>
       <c r="Q137" s="149"/>
       <c r="R137" s="6"/>
@@ -43841,16 +43852,16 @@
       <c r="Z137" s="120"/>
     </row>
     <row r="138" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="334" t="str">
+      <c r="B138" s="340" t="str">
         <f>"Velocidad de arrastre del medio filtrante a "&amp;J30&amp;" °C"</f>
         <v>Velocidad de arrastre del medio filtrante a 3 °C</v>
       </c>
-      <c r="C138" s="378"/>
-      <c r="D138" s="378"/>
-      <c r="E138" s="378"/>
-      <c r="F138" s="378"/>
-      <c r="G138" s="378"/>
-      <c r="H138" s="335"/>
+      <c r="C138" s="496"/>
+      <c r="D138" s="496"/>
+      <c r="E138" s="496"/>
+      <c r="F138" s="496"/>
+      <c r="G138" s="496"/>
+      <c r="H138" s="341"/>
       <c r="I138" s="153" t="s">
         <v>289</v>
       </c>
@@ -43861,10 +43872,10 @@
       <c r="K138" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L138" s="381"/>
-      <c r="M138" s="381"/>
-      <c r="N138" s="381"/>
-      <c r="O138" s="381"/>
+      <c r="L138" s="495"/>
+      <c r="M138" s="495"/>
+      <c r="N138" s="495"/>
+      <c r="O138" s="495"/>
       <c r="P138" s="161"/>
       <c r="Q138" s="149"/>
       <c r="R138" s="6"/>
@@ -43878,16 +43889,16 @@
       <c r="Z138" s="120"/>
     </row>
     <row r="139" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="334" t="str">
+      <c r="B139" s="340" t="str">
         <f>"Velocidad de fluidización del medio filtrante a "&amp;J30&amp;" °C"</f>
         <v>Velocidad de fluidización del medio filtrante a 3 °C</v>
       </c>
-      <c r="C139" s="378"/>
-      <c r="D139" s="378"/>
-      <c r="E139" s="378"/>
-      <c r="F139" s="378"/>
-      <c r="G139" s="378"/>
-      <c r="H139" s="335"/>
+      <c r="C139" s="496"/>
+      <c r="D139" s="496"/>
+      <c r="E139" s="496"/>
+      <c r="F139" s="496"/>
+      <c r="G139" s="496"/>
+      <c r="H139" s="341"/>
       <c r="I139" s="153" t="s">
         <v>288</v>
       </c>
@@ -43915,16 +43926,16 @@
       <c r="Z139" s="120"/>
     </row>
     <row r="140" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="334" t="str">
+      <c r="B140" s="340" t="str">
         <f>"Velocidad óptima de lavado a "&amp;J30&amp;" °C"</f>
         <v>Velocidad óptima de lavado a 3 °C</v>
       </c>
-      <c r="C140" s="378"/>
-      <c r="D140" s="378"/>
-      <c r="E140" s="378"/>
-      <c r="F140" s="378"/>
-      <c r="G140" s="378"/>
-      <c r="H140" s="335"/>
+      <c r="C140" s="496"/>
+      <c r="D140" s="496"/>
+      <c r="E140" s="496"/>
+      <c r="F140" s="496"/>
+      <c r="G140" s="496"/>
+      <c r="H140" s="341"/>
       <c r="I140" s="153" t="s">
         <v>281</v>
       </c>
@@ -43935,10 +43946,10 @@
       <c r="K140" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L140" s="381"/>
-      <c r="M140" s="381"/>
-      <c r="N140" s="381"/>
-      <c r="O140" s="381"/>
+      <c r="L140" s="495"/>
+      <c r="M140" s="495"/>
+      <c r="N140" s="495"/>
+      <c r="O140" s="495"/>
       <c r="P140" s="161"/>
       <c r="Q140" s="149"/>
       <c r="R140" s="6"/>
@@ -44008,20 +44019,20 @@
       <c r="Z142" s="120"/>
     </row>
     <row r="143" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="382" t="s">
+      <c r="B143" s="365" t="s">
         <v>374</v>
       </c>
-      <c r="C143" s="383"/>
-      <c r="D143" s="383"/>
-      <c r="E143" s="383"/>
-      <c r="F143" s="383"/>
-      <c r="G143" s="383"/>
-      <c r="H143" s="384"/>
+      <c r="C143" s="366"/>
+      <c r="D143" s="366"/>
+      <c r="E143" s="366"/>
+      <c r="F143" s="366"/>
+      <c r="G143" s="366"/>
+      <c r="H143" s="367"/>
       <c r="I143" s="298" t="s">
         <v>382</v>
       </c>
       <c r="J143" s="286">
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
       <c r="K143" s="153" t="s">
         <v>375</v>
@@ -44030,7 +44041,7 @@
       <c r="M143" s="386"/>
       <c r="N143" s="386"/>
       <c r="O143" s="387"/>
-      <c r="P143" s="508" t="s">
+      <c r="P143" s="319" t="s">
         <v>416</v>
       </c>
       <c r="Q143" s="188"/>
@@ -44045,21 +44056,21 @@
       <c r="Z143" s="120"/>
     </row>
     <row r="144" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="382" t="s">
+      <c r="B144" s="365" t="s">
         <v>376</v>
       </c>
-      <c r="C144" s="383"/>
-      <c r="D144" s="383"/>
-      <c r="E144" s="383"/>
-      <c r="F144" s="383"/>
-      <c r="G144" s="383"/>
-      <c r="H144" s="384"/>
+      <c r="C144" s="366"/>
+      <c r="D144" s="366"/>
+      <c r="E144" s="366"/>
+      <c r="F144" s="366"/>
+      <c r="G144" s="366"/>
+      <c r="H144" s="367"/>
       <c r="I144" s="299" t="s">
         <v>383</v>
       </c>
       <c r="J144" s="143">
         <f>IF(J143=1/4,0.075,IF(J143=3/8,0.15,IF(J143=1/2,0.2,IF(J143=5/8,0.25))))</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.25</v>
       </c>
       <c r="K144" s="153" t="s">
         <v>3</v>
@@ -44081,21 +44092,21 @@
       <c r="Z144" s="120"/>
     </row>
     <row r="145" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="382" t="s">
+      <c r="B145" s="365" t="s">
         <v>377</v>
       </c>
-      <c r="C145" s="383"/>
-      <c r="D145" s="383"/>
-      <c r="E145" s="383"/>
-      <c r="F145" s="383"/>
-      <c r="G145" s="383"/>
-      <c r="H145" s="384"/>
+      <c r="C145" s="366"/>
+      <c r="D145" s="366"/>
+      <c r="E145" s="366"/>
+      <c r="F145" s="366"/>
+      <c r="G145" s="366"/>
+      <c r="H145" s="367"/>
       <c r="I145" s="300" t="s">
         <v>384</v>
       </c>
       <c r="J145" s="279">
         <f>ROUND(J129/2-0.1,2)</f>
-        <v>1.1599999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="K145" s="153" t="s">
         <v>3</v>
@@ -44117,15 +44128,15 @@
       <c r="Z145" s="120"/>
     </row>
     <row r="146" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="382" t="s">
+      <c r="B146" s="365" t="s">
         <v>378</v>
       </c>
-      <c r="C146" s="383"/>
-      <c r="D146" s="383"/>
-      <c r="E146" s="383"/>
-      <c r="F146" s="383"/>
-      <c r="G146" s="383"/>
-      <c r="H146" s="384"/>
+      <c r="C146" s="366"/>
+      <c r="D146" s="366"/>
+      <c r="E146" s="366"/>
+      <c r="F146" s="366"/>
+      <c r="G146" s="366"/>
+      <c r="H146" s="367"/>
       <c r="I146" s="299" t="s">
         <v>385</v>
       </c>
@@ -44139,7 +44150,7 @@
       <c r="M146" s="386"/>
       <c r="N146" s="386"/>
       <c r="O146" s="387"/>
-      <c r="P146" s="508" t="s">
+      <c r="P146" s="319" t="s">
         <v>416</v>
       </c>
       <c r="Q146" s="188"/>
@@ -44154,15 +44165,15 @@
       <c r="Z146" s="120"/>
     </row>
     <row r="147" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="382" t="s">
+      <c r="B147" s="365" t="s">
         <v>379</v>
       </c>
-      <c r="C147" s="383"/>
-      <c r="D147" s="383"/>
-      <c r="E147" s="383"/>
-      <c r="F147" s="383"/>
-      <c r="G147" s="383"/>
-      <c r="H147" s="384"/>
+      <c r="C147" s="366"/>
+      <c r="D147" s="366"/>
+      <c r="E147" s="366"/>
+      <c r="F147" s="366"/>
+      <c r="G147" s="366"/>
+      <c r="H147" s="367"/>
       <c r="I147" s="298" t="s">
         <v>386</v>
       </c>
@@ -44190,27 +44201,27 @@
       <c r="Z147" s="120"/>
     </row>
     <row r="148" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="388" t="s">
+      <c r="B148" s="368" t="s">
         <v>389</v>
       </c>
-      <c r="C148" s="389"/>
-      <c r="D148" s="389"/>
-      <c r="E148" s="389"/>
-      <c r="F148" s="389"/>
-      <c r="G148" s="389"/>
-      <c r="H148" s="390"/>
-      <c r="I148" s="394" t="s">
+      <c r="C148" s="369"/>
+      <c r="D148" s="369"/>
+      <c r="E148" s="369"/>
+      <c r="F148" s="369"/>
+      <c r="G148" s="369"/>
+      <c r="H148" s="370"/>
+      <c r="I148" s="374" t="s">
         <v>388</v>
       </c>
-      <c r="J148" s="396">
+      <c r="J148" s="500">
         <f>ROUNDDOWN(2*(J129/J146),0)</f>
-        <v>16</v>
-      </c>
-      <c r="K148" s="394"/>
-      <c r="L148" s="398"/>
-      <c r="M148" s="399"/>
-      <c r="N148" s="399"/>
-      <c r="O148" s="400"/>
+        <v>19</v>
+      </c>
+      <c r="K148" s="374"/>
+      <c r="L148" s="378"/>
+      <c r="M148" s="379"/>
+      <c r="N148" s="379"/>
+      <c r="O148" s="380"/>
       <c r="P148" s="161"/>
       <c r="Q148" s="290"/>
       <c r="R148" s="6"/>
@@ -44224,20 +44235,20 @@
       <c r="Z148" s="120"/>
     </row>
     <row r="149" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="391"/>
-      <c r="C149" s="392"/>
-      <c r="D149" s="392"/>
-      <c r="E149" s="392"/>
-      <c r="F149" s="392"/>
-      <c r="G149" s="392"/>
-      <c r="H149" s="393"/>
-      <c r="I149" s="395"/>
-      <c r="J149" s="397"/>
-      <c r="K149" s="395"/>
-      <c r="L149" s="401"/>
-      <c r="M149" s="402"/>
-      <c r="N149" s="402"/>
-      <c r="O149" s="403"/>
+      <c r="B149" s="371"/>
+      <c r="C149" s="372"/>
+      <c r="D149" s="372"/>
+      <c r="E149" s="372"/>
+      <c r="F149" s="372"/>
+      <c r="G149" s="372"/>
+      <c r="H149" s="373"/>
+      <c r="I149" s="375"/>
+      <c r="J149" s="501"/>
+      <c r="K149" s="375"/>
+      <c r="L149" s="381"/>
+      <c r="M149" s="382"/>
+      <c r="N149" s="382"/>
+      <c r="O149" s="383"/>
       <c r="P149" s="161"/>
       <c r="Q149" s="280"/>
       <c r="R149" s="6"/>
@@ -44251,27 +44262,27 @@
       <c r="Z149" s="120"/>
     </row>
     <row r="150" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="388" t="s">
+      <c r="B150" s="368" t="s">
         <v>390</v>
       </c>
-      <c r="C150" s="389"/>
-      <c r="D150" s="389"/>
-      <c r="E150" s="389"/>
-      <c r="F150" s="389"/>
-      <c r="G150" s="389"/>
-      <c r="H150" s="390"/>
-      <c r="I150" s="394" t="s">
+      <c r="C150" s="369"/>
+      <c r="D150" s="369"/>
+      <c r="E150" s="369"/>
+      <c r="F150" s="369"/>
+      <c r="G150" s="369"/>
+      <c r="H150" s="370"/>
+      <c r="I150" s="374" t="s">
         <v>387</v>
       </c>
-      <c r="J150" s="396">
+      <c r="J150" s="500">
         <f>J148*ROUND(J145/J144,0)*2</f>
-        <v>480</v>
-      </c>
-      <c r="K150" s="394"/>
-      <c r="L150" s="398"/>
-      <c r="M150" s="399"/>
-      <c r="N150" s="399"/>
-      <c r="O150" s="400"/>
+        <v>190</v>
+      </c>
+      <c r="K150" s="374"/>
+      <c r="L150" s="378"/>
+      <c r="M150" s="379"/>
+      <c r="N150" s="379"/>
+      <c r="O150" s="380"/>
       <c r="P150" s="161"/>
       <c r="Q150" s="290"/>
       <c r="R150" s="6"/>
@@ -44285,20 +44296,20 @@
       <c r="Z150" s="120"/>
     </row>
     <row r="151" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="391"/>
-      <c r="C151" s="392"/>
-      <c r="D151" s="392"/>
-      <c r="E151" s="392"/>
-      <c r="F151" s="392"/>
-      <c r="G151" s="392"/>
-      <c r="H151" s="393"/>
-      <c r="I151" s="395"/>
-      <c r="J151" s="397"/>
-      <c r="K151" s="395"/>
-      <c r="L151" s="401"/>
-      <c r="M151" s="402"/>
-      <c r="N151" s="402"/>
-      <c r="O151" s="403"/>
+      <c r="B151" s="371"/>
+      <c r="C151" s="372"/>
+      <c r="D151" s="372"/>
+      <c r="E151" s="372"/>
+      <c r="F151" s="372"/>
+      <c r="G151" s="372"/>
+      <c r="H151" s="373"/>
+      <c r="I151" s="375"/>
+      <c r="J151" s="501"/>
+      <c r="K151" s="375"/>
+      <c r="L151" s="381"/>
+      <c r="M151" s="382"/>
+      <c r="N151" s="382"/>
+      <c r="O151" s="383"/>
       <c r="P151" s="161"/>
       <c r="Q151" s="280"/>
       <c r="R151" s="6"/>
@@ -44312,29 +44323,29 @@
       <c r="Z151" s="120"/>
     </row>
     <row r="152" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="388" t="s">
+      <c r="B152" s="368" t="s">
         <v>392</v>
       </c>
-      <c r="C152" s="389"/>
-      <c r="D152" s="389"/>
-      <c r="E152" s="389"/>
-      <c r="F152" s="389"/>
-      <c r="G152" s="389"/>
-      <c r="H152" s="390"/>
-      <c r="I152" s="394" t="s">
+      <c r="C152" s="369"/>
+      <c r="D152" s="369"/>
+      <c r="E152" s="369"/>
+      <c r="F152" s="369"/>
+      <c r="G152" s="369"/>
+      <c r="H152" s="370"/>
+      <c r="I152" s="374" t="s">
         <v>391</v>
       </c>
-      <c r="J152" s="496">
+      <c r="J152" s="376">
         <f>J150*PI()*(((J143*0.0254)^2)/4)</f>
-        <v>1.520122437292493E-2</v>
-      </c>
-      <c r="K152" s="394" t="s">
+        <v>3.7607195714267412E-2</v>
+      </c>
+      <c r="K152" s="374" t="s">
         <v>393</v>
       </c>
-      <c r="L152" s="398"/>
-      <c r="M152" s="399"/>
-      <c r="N152" s="399"/>
-      <c r="O152" s="400"/>
+      <c r="L152" s="378"/>
+      <c r="M152" s="379"/>
+      <c r="N152" s="379"/>
+      <c r="O152" s="380"/>
       <c r="P152" s="161"/>
       <c r="Q152" s="290"/>
       <c r="R152" s="6"/>
@@ -44348,20 +44359,20 @@
       <c r="Z152" s="120"/>
     </row>
     <row r="153" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="391"/>
-      <c r="C153" s="392"/>
-      <c r="D153" s="392"/>
-      <c r="E153" s="392"/>
-      <c r="F153" s="392"/>
-      <c r="G153" s="392"/>
-      <c r="H153" s="393"/>
-      <c r="I153" s="395"/>
-      <c r="J153" s="497"/>
-      <c r="K153" s="395"/>
-      <c r="L153" s="401"/>
-      <c r="M153" s="402"/>
-      <c r="N153" s="402"/>
-      <c r="O153" s="403"/>
+      <c r="B153" s="371"/>
+      <c r="C153" s="372"/>
+      <c r="D153" s="372"/>
+      <c r="E153" s="372"/>
+      <c r="F153" s="372"/>
+      <c r="G153" s="372"/>
+      <c r="H153" s="373"/>
+      <c r="I153" s="375"/>
+      <c r="J153" s="377"/>
+      <c r="K153" s="375"/>
+      <c r="L153" s="381"/>
+      <c r="M153" s="382"/>
+      <c r="N153" s="382"/>
+      <c r="O153" s="383"/>
       <c r="P153" s="161"/>
       <c r="Q153" s="290"/>
       <c r="R153" s="6"/>
@@ -44375,29 +44386,29 @@
       <c r="Z153" s="120"/>
     </row>
     <row r="154" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="388" t="s">
+      <c r="B154" s="368" t="s">
         <v>394</v>
       </c>
-      <c r="C154" s="389"/>
-      <c r="D154" s="389"/>
-      <c r="E154" s="389"/>
-      <c r="F154" s="389"/>
-      <c r="G154" s="389"/>
-      <c r="H154" s="390"/>
-      <c r="I154" s="394" t="s">
+      <c r="C154" s="369"/>
+      <c r="D154" s="369"/>
+      <c r="E154" s="369"/>
+      <c r="F154" s="369"/>
+      <c r="G154" s="369"/>
+      <c r="H154" s="370"/>
+      <c r="I154" s="374" t="s">
         <v>395</v>
       </c>
-      <c r="J154" s="496">
+      <c r="J154" s="376">
         <f>J152/0.4</f>
-        <v>3.8003060932312323E-2</v>
-      </c>
-      <c r="K154" s="394" t="s">
+        <v>9.4017989285668527E-2</v>
+      </c>
+      <c r="K154" s="374" t="s">
         <v>393</v>
       </c>
-      <c r="L154" s="398"/>
-      <c r="M154" s="399"/>
-      <c r="N154" s="399"/>
-      <c r="O154" s="400"/>
+      <c r="L154" s="378"/>
+      <c r="M154" s="379"/>
+      <c r="N154" s="379"/>
+      <c r="O154" s="380"/>
       <c r="P154" s="161"/>
       <c r="Q154" s="290"/>
       <c r="R154" s="6"/>
@@ -44411,20 +44422,20 @@
       <c r="Z154" s="120"/>
     </row>
     <row r="155" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="391"/>
-      <c r="C155" s="392"/>
-      <c r="D155" s="392"/>
-      <c r="E155" s="392"/>
-      <c r="F155" s="392"/>
-      <c r="G155" s="392"/>
-      <c r="H155" s="393"/>
-      <c r="I155" s="395"/>
-      <c r="J155" s="497"/>
-      <c r="K155" s="395"/>
-      <c r="L155" s="401"/>
-      <c r="M155" s="402"/>
-      <c r="N155" s="402"/>
-      <c r="O155" s="403"/>
+      <c r="B155" s="371"/>
+      <c r="C155" s="372"/>
+      <c r="D155" s="372"/>
+      <c r="E155" s="372"/>
+      <c r="F155" s="372"/>
+      <c r="G155" s="372"/>
+      <c r="H155" s="373"/>
+      <c r="I155" s="375"/>
+      <c r="J155" s="377"/>
+      <c r="K155" s="375"/>
+      <c r="L155" s="381"/>
+      <c r="M155" s="382"/>
+      <c r="N155" s="382"/>
+      <c r="O155" s="383"/>
       <c r="P155" s="161"/>
       <c r="Q155" s="280"/>
       <c r="R155" s="6"/>
@@ -44438,19 +44449,19 @@
       <c r="Z155" s="120"/>
     </row>
     <row r="156" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="382" t="s">
+      <c r="B156" s="365" t="s">
         <v>396</v>
       </c>
-      <c r="C156" s="383"/>
-      <c r="D156" s="383"/>
-      <c r="E156" s="383"/>
-      <c r="F156" s="383"/>
-      <c r="G156" s="383"/>
-      <c r="H156" s="384"/>
+      <c r="C156" s="366"/>
+      <c r="D156" s="366"/>
+      <c r="E156" s="366"/>
+      <c r="F156" s="366"/>
+      <c r="G156" s="366"/>
+      <c r="H156" s="367"/>
       <c r="I156" s="291"/>
       <c r="J156" s="295" t="str">
         <f>INDEX(AL8:AL16,MATCH(J154,AM8:AM16,1),1)</f>
-        <v>6 X 6</v>
+        <v>12 X 12</v>
       </c>
       <c r="K156" s="153" t="s">
         <v>408</v>
@@ -44472,21 +44483,21 @@
       <c r="Z156" s="120"/>
     </row>
     <row r="157" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="498" t="s">
+      <c r="B157" s="384" t="s">
         <v>410</v>
       </c>
-      <c r="C157" s="498"/>
-      <c r="D157" s="498"/>
-      <c r="E157" s="498"/>
-      <c r="F157" s="498"/>
-      <c r="G157" s="498"/>
-      <c r="H157" s="498"/>
+      <c r="C157" s="384"/>
+      <c r="D157" s="384"/>
+      <c r="E157" s="384"/>
+      <c r="F157" s="384"/>
+      <c r="G157" s="384"/>
+      <c r="H157" s="384"/>
       <c r="I157" s="300" t="s">
         <v>395</v>
       </c>
       <c r="J157" s="289">
         <f>VLOOKUP(J156,AL8:AM16,2,FALSE)</f>
-        <v>2.3225759999999995E-2</v>
+        <v>9.2903039999999978E-2</v>
       </c>
       <c r="K157" s="153" t="s">
         <v>393</v>
@@ -44508,28 +44519,28 @@
       <c r="Z157" s="120"/>
     </row>
     <row r="158" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="382" t="s">
+      <c r="B158" s="365" t="s">
         <v>409</v>
       </c>
-      <c r="C158" s="383"/>
-      <c r="D158" s="383"/>
-      <c r="E158" s="383"/>
-      <c r="F158" s="383"/>
-      <c r="G158" s="383"/>
-      <c r="H158" s="384"/>
+      <c r="C158" s="366"/>
+      <c r="D158" s="366"/>
+      <c r="E158" s="366"/>
+      <c r="F158" s="366"/>
+      <c r="G158" s="366"/>
+      <c r="H158" s="367"/>
       <c r="I158" s="300"/>
       <c r="J158" s="289">
         <f>J152/J126</f>
-        <v>2.3976694594518818E-3</v>
+        <v>4.5639800624110933E-3</v>
       </c>
       <c r="K158" s="291"/>
-      <c r="L158" s="493" t="str">
+      <c r="L158" s="362" t="str">
         <f>IF(AND(J158&gt;0.0015,J158&lt;0.005),"¡ok!","¡error!")</f>
         <v>¡ok!</v>
       </c>
-      <c r="M158" s="494"/>
-      <c r="N158" s="494"/>
-      <c r="O158" s="495"/>
+      <c r="M158" s="363"/>
+      <c r="N158" s="363"/>
+      <c r="O158" s="364"/>
       <c r="P158" s="161"/>
       <c r="Q158" s="290"/>
       <c r="R158" s="6"/>
@@ -44543,28 +44554,28 @@
       <c r="Z158" s="120"/>
     </row>
     <row r="159" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="382" t="s">
+      <c r="B159" s="365" t="s">
         <v>411</v>
       </c>
-      <c r="C159" s="383"/>
-      <c r="D159" s="383"/>
-      <c r="E159" s="383"/>
-      <c r="F159" s="383"/>
-      <c r="G159" s="383"/>
-      <c r="H159" s="384"/>
+      <c r="C159" s="366"/>
+      <c r="D159" s="366"/>
+      <c r="E159" s="366"/>
+      <c r="F159" s="366"/>
+      <c r="G159" s="366"/>
+      <c r="H159" s="367"/>
       <c r="I159" s="300"/>
       <c r="J159" s="289">
         <f>((0.0254*J147)^2)/(J152/J148)</f>
-        <v>4.2441318157838763</v>
+        <v>2.0371832715762603</v>
       </c>
       <c r="K159" s="291"/>
-      <c r="L159" s="493" t="str">
+      <c r="L159" s="362" t="str">
         <f>IF(AND(J159&gt;2,J159&lt;4),"¡ok!","¡error!")</f>
-        <v>¡error!</v>
-      </c>
-      <c r="M159" s="494"/>
-      <c r="N159" s="494"/>
-      <c r="O159" s="495"/>
+        <v>¡ok!</v>
+      </c>
+      <c r="M159" s="363"/>
+      <c r="N159" s="363"/>
+      <c r="O159" s="364"/>
       <c r="P159" s="161"/>
       <c r="Q159" s="290"/>
       <c r="R159" s="6"/>
@@ -44634,15 +44645,15 @@
       <c r="Z161" s="120"/>
     </row>
     <row r="162" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="334" t="s">
+      <c r="B162" s="340" t="s">
         <v>232</v>
       </c>
-      <c r="C162" s="378"/>
-      <c r="D162" s="378"/>
-      <c r="E162" s="378"/>
-      <c r="F162" s="378"/>
-      <c r="G162" s="378"/>
-      <c r="H162" s="335"/>
+      <c r="C162" s="496"/>
+      <c r="D162" s="496"/>
+      <c r="E162" s="496"/>
+      <c r="F162" s="496"/>
+      <c r="G162" s="496"/>
+      <c r="H162" s="341"/>
       <c r="I162" s="153" t="s">
         <v>88</v>
       </c>
@@ -44653,10 +44664,10 @@
       <c r="K162" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="L162" s="381"/>
-      <c r="M162" s="381"/>
-      <c r="N162" s="381"/>
-      <c r="O162" s="381"/>
+      <c r="L162" s="495"/>
+      <c r="M162" s="495"/>
+      <c r="N162" s="495"/>
+      <c r="O162" s="495"/>
       <c r="P162" s="121"/>
       <c r="Q162" s="121"/>
       <c r="R162" s="121"/>
@@ -44670,15 +44681,15 @@
       <c r="Z162" s="120"/>
     </row>
     <row r="163" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="334" t="s">
+      <c r="B163" s="340" t="s">
         <v>231</v>
       </c>
-      <c r="C163" s="378"/>
-      <c r="D163" s="378"/>
-      <c r="E163" s="378"/>
-      <c r="F163" s="378"/>
-      <c r="G163" s="378"/>
-      <c r="H163" s="335"/>
+      <c r="C163" s="496"/>
+      <c r="D163" s="496"/>
+      <c r="E163" s="496"/>
+      <c r="F163" s="496"/>
+      <c r="G163" s="496"/>
+      <c r="H163" s="341"/>
       <c r="I163" s="153" t="s">
         <v>11</v>
       </c>
@@ -44687,10 +44698,10 @@
         <v>0.45</v>
       </c>
       <c r="K163" s="156"/>
-      <c r="L163" s="381"/>
-      <c r="M163" s="381"/>
-      <c r="N163" s="381"/>
-      <c r="O163" s="381"/>
+      <c r="L163" s="495"/>
+      <c r="M163" s="495"/>
+      <c r="N163" s="495"/>
+      <c r="O163" s="495"/>
       <c r="P163" s="121"/>
       <c r="Q163" s="121"/>
       <c r="R163" s="121"/>
@@ -44704,15 +44715,15 @@
       <c r="Z163" s="120"/>
     </row>
     <row r="164" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="334" t="s">
+      <c r="B164" s="340" t="s">
         <v>233</v>
       </c>
-      <c r="C164" s="378"/>
-      <c r="D164" s="378"/>
-      <c r="E164" s="378"/>
-      <c r="F164" s="378"/>
-      <c r="G164" s="378"/>
-      <c r="H164" s="335"/>
+      <c r="C164" s="496"/>
+      <c r="D164" s="496"/>
+      <c r="E164" s="496"/>
+      <c r="F164" s="496"/>
+      <c r="G164" s="496"/>
+      <c r="H164" s="341"/>
       <c r="I164" s="153" t="s">
         <v>234</v>
       </c>
@@ -44721,10 +44732,10 @@
         <v>2.65</v>
       </c>
       <c r="K164" s="156"/>
-      <c r="L164" s="381"/>
-      <c r="M164" s="381"/>
-      <c r="N164" s="381"/>
-      <c r="O164" s="381"/>
+      <c r="L164" s="495"/>
+      <c r="M164" s="495"/>
+      <c r="N164" s="495"/>
+      <c r="O164" s="495"/>
       <c r="P164" s="121"/>
       <c r="Q164" s="121"/>
       <c r="R164" s="121"/>
@@ -44738,15 +44749,15 @@
       <c r="Z164" s="120"/>
     </row>
     <row r="165" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="331" t="s">
+      <c r="B165" s="333" t="s">
         <v>236</v>
       </c>
-      <c r="C165" s="331"/>
-      <c r="D165" s="331"/>
-      <c r="E165" s="331"/>
-      <c r="F165" s="331"/>
-      <c r="G165" s="331"/>
-      <c r="H165" s="331"/>
+      <c r="C165" s="333"/>
+      <c r="D165" s="333"/>
+      <c r="E165" s="333"/>
+      <c r="F165" s="333"/>
+      <c r="G165" s="333"/>
+      <c r="H165" s="333"/>
       <c r="I165" s="153" t="s">
         <v>235</v>
       </c>
@@ -44757,10 +44768,10 @@
       <c r="K165" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="L165" s="381"/>
-      <c r="M165" s="381"/>
-      <c r="N165" s="381"/>
-      <c r="O165" s="381"/>
+      <c r="L165" s="495"/>
+      <c r="M165" s="495"/>
+      <c r="N165" s="495"/>
+      <c r="O165" s="495"/>
       <c r="P165" s="121"/>
       <c r="Q165" s="121"/>
       <c r="R165" s="121"/>
@@ -44828,14 +44839,14 @@
       <c r="Z167" s="120"/>
     </row>
     <row r="168" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="499" t="s">
+      <c r="B168" s="314" t="s">
         <v>412</v>
       </c>
-      <c r="C168" s="500"/>
-      <c r="D168" s="501"/>
-      <c r="E168" s="502"/>
-      <c r="F168" s="501"/>
-      <c r="G168" s="503"/>
+      <c r="C168" s="315"/>
+      <c r="D168" s="316"/>
+      <c r="E168" s="317"/>
+      <c r="F168" s="316"/>
+      <c r="G168" s="318"/>
       <c r="H168" s="131" t="s">
         <v>414</v>
       </c>
@@ -44886,8 +44897,8 @@
       <c r="Z169" s="120"/>
     </row>
     <row r="170" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="472"/>
-      <c r="C170" s="472"/>
+      <c r="B170" s="407"/>
+      <c r="C170" s="407"/>
       <c r="D170" s="130"/>
       <c r="E170" s="5"/>
       <c r="F170" s="131"/>
@@ -44992,13 +45003,13 @@
       <c r="Y173" s="113"/>
     </row>
     <row r="174" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="327" t="s">
+      <c r="B174" s="346" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="327"/>
-      <c r="D174" s="327"/>
-      <c r="E174" s="327"/>
-      <c r="F174" s="327"/>
+      <c r="C174" s="346"/>
+      <c r="D174" s="346"/>
+      <c r="E174" s="346"/>
+      <c r="F174" s="346"/>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
@@ -45049,16 +45060,16 @@
       <c r="B176" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C176" s="314" t="s">
+      <c r="C176" s="350" t="s">
         <v>202</v>
       </c>
-      <c r="D176" s="314"/>
-      <c r="E176" s="314"/>
-      <c r="F176" s="314"/>
-      <c r="G176" s="314"/>
-      <c r="H176" s="314"/>
-      <c r="I176" s="314"/>
-      <c r="J176" s="314"/>
+      <c r="D176" s="350"/>
+      <c r="E176" s="350"/>
+      <c r="F176" s="350"/>
+      <c r="G176" s="350"/>
+      <c r="H176" s="350"/>
+      <c r="I176" s="350"/>
+      <c r="J176" s="350"/>
       <c r="K176" s="113"/>
       <c r="L176" s="113"/>
       <c r="M176" s="113"/>
@@ -45079,16 +45090,16 @@
       <c r="B177" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C177" s="314" t="s">
+      <c r="C177" s="350" t="s">
         <v>64</v>
       </c>
-      <c r="D177" s="314"/>
-      <c r="E177" s="314"/>
-      <c r="F177" s="314"/>
-      <c r="G177" s="314"/>
-      <c r="H177" s="314"/>
-      <c r="I177" s="314"/>
-      <c r="J177" s="314"/>
+      <c r="D177" s="350"/>
+      <c r="E177" s="350"/>
+      <c r="F177" s="350"/>
+      <c r="G177" s="350"/>
+      <c r="H177" s="350"/>
+      <c r="I177" s="350"/>
+      <c r="J177" s="350"/>
       <c r="K177" s="113"/>
       <c r="L177" s="113"/>
       <c r="M177" s="113"/>
@@ -45109,16 +45120,16 @@
       <c r="B178" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C178" s="471" t="s">
+      <c r="C178" s="443" t="s">
         <v>40</v>
       </c>
-      <c r="D178" s="471"/>
-      <c r="E178" s="471"/>
-      <c r="F178" s="471"/>
-      <c r="G178" s="471"/>
-      <c r="H178" s="471"/>
-      <c r="I178" s="471"/>
-      <c r="J178" s="471"/>
+      <c r="D178" s="443"/>
+      <c r="E178" s="443"/>
+      <c r="F178" s="443"/>
+      <c r="G178" s="443"/>
+      <c r="H178" s="443"/>
+      <c r="I178" s="443"/>
+      <c r="J178" s="443"/>
       <c r="K178" s="23"/>
       <c r="L178" s="23"/>
       <c r="M178" s="23"/>
@@ -45139,16 +45150,16 @@
       <c r="B179" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C179" s="314" t="s">
+      <c r="C179" s="350" t="s">
         <v>65</v>
       </c>
-      <c r="D179" s="314"/>
-      <c r="E179" s="314"/>
-      <c r="F179" s="314"/>
-      <c r="G179" s="314"/>
-      <c r="H179" s="314"/>
-      <c r="I179" s="314"/>
-      <c r="J179" s="314"/>
+      <c r="D179" s="350"/>
+      <c r="E179" s="350"/>
+      <c r="F179" s="350"/>
+      <c r="G179" s="350"/>
+      <c r="H179" s="350"/>
+      <c r="I179" s="350"/>
+      <c r="J179" s="350"/>
       <c r="K179" s="23"/>
       <c r="L179" s="23"/>
       <c r="M179" s="23"/>
@@ -45169,16 +45180,16 @@
       <c r="B180" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C180" s="314" t="s">
+      <c r="C180" s="350" t="s">
         <v>66</v>
       </c>
-      <c r="D180" s="314"/>
-      <c r="E180" s="314"/>
-      <c r="F180" s="314"/>
-      <c r="G180" s="314"/>
-      <c r="H180" s="314"/>
-      <c r="I180" s="314"/>
-      <c r="J180" s="314"/>
+      <c r="D180" s="350"/>
+      <c r="E180" s="350"/>
+      <c r="F180" s="350"/>
+      <c r="G180" s="350"/>
+      <c r="H180" s="350"/>
+      <c r="I180" s="350"/>
+      <c r="J180" s="350"/>
       <c r="K180" s="23"/>
       <c r="L180" s="23"/>
       <c r="M180" s="23"/>
@@ -45199,16 +45210,16 @@
       <c r="B181" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C181" s="326" t="s">
+      <c r="C181" s="342" t="s">
         <v>56</v>
       </c>
-      <c r="D181" s="326"/>
-      <c r="E181" s="326"/>
-      <c r="F181" s="326"/>
-      <c r="G181" s="326"/>
-      <c r="H181" s="326"/>
-      <c r="I181" s="326"/>
-      <c r="J181" s="326"/>
+      <c r="D181" s="342"/>
+      <c r="E181" s="342"/>
+      <c r="F181" s="342"/>
+      <c r="G181" s="342"/>
+      <c r="H181" s="342"/>
+      <c r="I181" s="342"/>
+      <c r="J181" s="342"/>
       <c r="K181" s="113"/>
       <c r="L181" s="113"/>
       <c r="M181" s="113"/>
@@ -45229,16 +45240,16 @@
       <c r="B182" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C182" s="471" t="s">
+      <c r="C182" s="443" t="s">
         <v>78</v>
       </c>
-      <c r="D182" s="471"/>
-      <c r="E182" s="471"/>
-      <c r="F182" s="471"/>
-      <c r="G182" s="471"/>
-      <c r="H182" s="471"/>
-      <c r="I182" s="471"/>
-      <c r="J182" s="471"/>
+      <c r="D182" s="443"/>
+      <c r="E182" s="443"/>
+      <c r="F182" s="443"/>
+      <c r="G182" s="443"/>
+      <c r="H182" s="443"/>
+      <c r="I182" s="443"/>
+      <c r="J182" s="443"/>
       <c r="K182" s="113"/>
       <c r="L182" s="113"/>
       <c r="M182" s="113"/>
@@ -45259,16 +45270,16 @@
       <c r="B183" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C183" s="314" t="s">
+      <c r="C183" s="350" t="s">
         <v>83</v>
       </c>
-      <c r="D183" s="314"/>
-      <c r="E183" s="314"/>
-      <c r="F183" s="314"/>
-      <c r="G183" s="314"/>
-      <c r="H183" s="314"/>
-      <c r="I183" s="314"/>
-      <c r="J183" s="314"/>
+      <c r="D183" s="350"/>
+      <c r="E183" s="350"/>
+      <c r="F183" s="350"/>
+      <c r="G183" s="350"/>
+      <c r="H183" s="350"/>
+      <c r="I183" s="350"/>
+      <c r="J183" s="350"/>
       <c r="K183" s="113"/>
       <c r="L183" s="113"/>
       <c r="M183" s="113"/>
@@ -45289,16 +45300,16 @@
       <c r="B184" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C184" s="314" t="s">
+      <c r="C184" s="350" t="s">
         <v>169</v>
       </c>
-      <c r="D184" s="314"/>
-      <c r="E184" s="314"/>
-      <c r="F184" s="314"/>
-      <c r="G184" s="314"/>
-      <c r="H184" s="314"/>
-      <c r="I184" s="314"/>
-      <c r="J184" s="314"/>
+      <c r="D184" s="350"/>
+      <c r="E184" s="350"/>
+      <c r="F184" s="350"/>
+      <c r="G184" s="350"/>
+      <c r="H184" s="350"/>
+      <c r="I184" s="350"/>
+      <c r="J184" s="350"/>
       <c r="K184" s="121"/>
       <c r="L184" s="121"/>
       <c r="M184" s="121"/>
@@ -46961,22 +46972,210 @@
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="Q119:R119"/>
-    <mergeCell ref="L158:O158"/>
-    <mergeCell ref="B159:H159"/>
-    <mergeCell ref="L159:O159"/>
-    <mergeCell ref="B152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="L152:O153"/>
-    <mergeCell ref="K154:K155"/>
-    <mergeCell ref="B154:H155"/>
-    <mergeCell ref="I154:I155"/>
-    <mergeCell ref="J154:J155"/>
-    <mergeCell ref="L154:O155"/>
-    <mergeCell ref="B157:H157"/>
-    <mergeCell ref="L157:O157"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="V88:V96"/>
+    <mergeCell ref="Q97:Q99"/>
+    <mergeCell ref="R88:R96"/>
+    <mergeCell ref="X84:X87"/>
+    <mergeCell ref="Y84:Y87"/>
+    <mergeCell ref="U97:U99"/>
+    <mergeCell ref="S84:V84"/>
+    <mergeCell ref="S85:S87"/>
+    <mergeCell ref="T85:T87"/>
+    <mergeCell ref="U85:U87"/>
+    <mergeCell ref="V85:V87"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B158:H158"/>
+    <mergeCell ref="B139:H139"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L164:O164"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="L145:O145"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="L147:O147"/>
+    <mergeCell ref="B148:H149"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="L148:O149"/>
+    <mergeCell ref="B150:H151"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="L150:O151"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="B165:H165"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="B136:H136"/>
+    <mergeCell ref="B137:H137"/>
+    <mergeCell ref="B115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:O116"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L136:O136"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="L138:O138"/>
+    <mergeCell ref="L119:O119"/>
+    <mergeCell ref="B129:H129"/>
+    <mergeCell ref="B138:H138"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B140:H140"/>
+    <mergeCell ref="L162:O162"/>
+    <mergeCell ref="L163:O163"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="O96:P96"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="O85:P87"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="K85:M87"/>
+    <mergeCell ref="N84:R84"/>
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="Q85:Q87"/>
+    <mergeCell ref="R85:R87"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="H60:J62"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="L122:O123"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="L124:O125"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B102:C105"/>
+    <mergeCell ref="F102:F105"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="H102:H105"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B124:H125"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H53:J55"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B53:C55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B38:C41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C184:J184"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="C179:J179"/>
+    <mergeCell ref="C180:J180"/>
+    <mergeCell ref="C181:J181"/>
+    <mergeCell ref="C182:J182"/>
+    <mergeCell ref="C183:J183"/>
+    <mergeCell ref="C176:J176"/>
+    <mergeCell ref="C177:J177"/>
+    <mergeCell ref="C178:J178"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="B84:C87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="K88:M96"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B121:H121"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B67:C69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G67:H69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B135:H135"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="L127:O128"/>
     <mergeCell ref="B2:F5"/>
     <mergeCell ref="B74:H74"/>
     <mergeCell ref="B76:H76"/>
@@ -47001,218 +47200,30 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B60:C62"/>
     <mergeCell ref="F60:F62"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="B84:C87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="K88:M96"/>
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B121:H121"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B67:C69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G67:H69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B135:H135"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="L127:O128"/>
-    <mergeCell ref="C184:J184"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="C179:J179"/>
-    <mergeCell ref="C180:J180"/>
-    <mergeCell ref="C181:J181"/>
-    <mergeCell ref="C182:J182"/>
-    <mergeCell ref="C183:J183"/>
-    <mergeCell ref="C176:J176"/>
-    <mergeCell ref="C177:J177"/>
-    <mergeCell ref="C178:J178"/>
+    <mergeCell ref="Q119:R119"/>
+    <mergeCell ref="L158:O158"/>
+    <mergeCell ref="B159:H159"/>
+    <mergeCell ref="L159:O159"/>
+    <mergeCell ref="B152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="L152:O153"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="B154:H155"/>
+    <mergeCell ref="I154:I155"/>
+    <mergeCell ref="J154:J155"/>
+    <mergeCell ref="L154:O155"/>
+    <mergeCell ref="B157:H157"/>
+    <mergeCell ref="L157:O157"/>
     <mergeCell ref="L139:O139"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H53:J55"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B53:C55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="L122:O123"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="L124:O125"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="O96:P96"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="O85:P87"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="K85:M87"/>
-    <mergeCell ref="N84:R84"/>
-    <mergeCell ref="N85:N87"/>
-    <mergeCell ref="Q85:Q87"/>
-    <mergeCell ref="R85:R87"/>
-    <mergeCell ref="H63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="H60:J62"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B38:C41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
     <mergeCell ref="B134:H134"/>
     <mergeCell ref="L134:O134"/>
-    <mergeCell ref="B102:C105"/>
-    <mergeCell ref="F102:F105"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="H102:H105"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B124:H125"/>
     <mergeCell ref="I124:I125"/>
     <mergeCell ref="J124:J125"/>
     <mergeCell ref="L126:O126"/>
     <mergeCell ref="B126:H126"/>
     <mergeCell ref="B127:H128"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="B165:H165"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="B136:H136"/>
-    <mergeCell ref="B137:H137"/>
-    <mergeCell ref="B115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:O116"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="L136:O136"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="L138:O138"/>
-    <mergeCell ref="L119:O119"/>
-    <mergeCell ref="B129:H129"/>
-    <mergeCell ref="B138:H138"/>
-    <mergeCell ref="B164:H164"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="B140:H140"/>
-    <mergeCell ref="L162:O162"/>
-    <mergeCell ref="L163:O163"/>
-    <mergeCell ref="L164:O164"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="L145:O145"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="B148:H149"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="J148:J149"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="L148:O149"/>
-    <mergeCell ref="B150:H151"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="L150:O151"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="B158:H158"/>
-    <mergeCell ref="B139:H139"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="V88:V96"/>
-    <mergeCell ref="Q97:Q99"/>
-    <mergeCell ref="R88:R96"/>
-    <mergeCell ref="X84:X87"/>
-    <mergeCell ref="Y84:Y87"/>
-    <mergeCell ref="U97:U99"/>
-    <mergeCell ref="S84:V84"/>
-    <mergeCell ref="S85:S87"/>
-    <mergeCell ref="T85:T87"/>
-    <mergeCell ref="U85:U87"/>
-    <mergeCell ref="V85:V87"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:J28">
     <cfRule type="expression" dxfId="4" priority="6">

--- a/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v5.xlsx
+++ b/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v5.xlsx
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="418">
   <si>
     <t>Q</t>
   </si>
@@ -3391,6 +3391,9 @@
   <si>
     <t>Preguntar</t>
   </si>
+  <si>
+    <t>¿Y  si es mayor que 2?</t>
+  </si>
 </sst>
 </file>
 
@@ -3989,7 +3992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="510">
+  <cellXfs count="513">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4870,32 +4873,14 @@
     <xf numFmtId="2" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4903,49 +4888,34 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4960,29 +4930,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4990,20 +5002,74 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5013,6 +5079,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5038,10 +5125,10 @@
     <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5062,163 +5149,46 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5239,47 +5209,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5326,23 +5266,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5362,12 +5311,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5377,67 +5320,136 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -34394,7 +34406,7 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" s="43"/>
-      <c r="C2" s="339"/>
+      <c r="C2" s="340"/>
       <c r="D2" s="41" t="s">
         <v>119</v>
       </c>
@@ -34408,14 +34420,14 @@
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="43"/>
-      <c r="C3" s="339"/>
+      <c r="C3" s="340"/>
       <c r="D3" s="41" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
-      <c r="C4" s="339"/>
+      <c r="C4" s="340"/>
       <c r="D4" s="41" t="s">
         <v>121</v>
       </c>
@@ -34424,7 +34436,7 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="43"/>
-      <c r="C5" s="339"/>
+      <c r="C5" s="340"/>
       <c r="D5" s="41" t="s">
         <v>127</v>
       </c>
@@ -34445,27 +34457,27 @@
       </c>
     </row>
     <row r="7" spans="2:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="334" t="s">
+      <c r="B7" s="353" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="334"/>
-      <c r="D7" s="334"/>
-      <c r="E7" s="334"/>
-      <c r="F7" s="334"/>
-      <c r="G7" s="334"/>
+      <c r="C7" s="353"/>
+      <c r="D7" s="353"/>
+      <c r="E7" s="353"/>
+      <c r="F7" s="353"/>
+      <c r="G7" s="353"/>
       <c r="H7" s="40"/>
-      <c r="J7" s="332" t="s">
+      <c r="J7" s="352" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="332"/>
-      <c r="L7" s="332"/>
-      <c r="M7" s="332"/>
+      <c r="K7" s="352"/>
+      <c r="L7" s="352"/>
+      <c r="M7" s="352"/>
     </row>
     <row r="8" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="333" t="s">
+      <c r="B8" s="339" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="333"/>
+      <c r="C8" s="339"/>
       <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
@@ -34507,10 +34519,10 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="333" t="s">
+      <c r="B9" s="339" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="333"/>
+      <c r="C9" s="339"/>
       <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
@@ -34540,10 +34552,10 @@
       </c>
     </row>
     <row r="10" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="333" t="s">
+      <c r="B10" s="339" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="333"/>
+      <c r="C10" s="339"/>
       <c r="D10" s="9" t="s">
         <v>92</v>
       </c>
@@ -34578,10 +34590,10 @@
       </c>
     </row>
     <row r="11" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="333" t="s">
+      <c r="B11" s="339" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="333"/>
+      <c r="C11" s="339"/>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
@@ -34611,10 +34623,10 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="333" t="s">
+      <c r="B12" s="339" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="333"/>
+      <c r="C12" s="339"/>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
@@ -34640,11 +34652,11 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="333" t="str">
+      <c r="B13" s="339" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F12</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C13" s="333"/>
+      <c r="C13" s="339"/>
       <c r="D13" s="8" t="s">
         <v>108</v>
       </c>
@@ -34679,10 +34691,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="333" t="s">
+      <c r="B14" s="339" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="333"/>
+      <c r="C14" s="339"/>
       <c r="D14" s="9" t="s">
         <v>11</v>
       </c>
@@ -34717,10 +34729,10 @@
       </c>
     </row>
     <row r="15" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="333" t="s">
+      <c r="B15" s="339" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="333"/>
+      <c r="C15" s="339"/>
       <c r="D15" s="9" t="s">
         <v>105</v>
       </c>
@@ -34752,10 +34764,10 @@
       </c>
     </row>
     <row r="16" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="333" t="s">
+      <c r="B16" s="339" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="333"/>
+      <c r="C16" s="339"/>
       <c r="D16" s="9" t="s">
         <v>105</v>
       </c>
@@ -34786,10 +34798,10 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="333" t="s">
+      <c r="B17" s="339" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="333"/>
+      <c r="C17" s="339"/>
       <c r="D17" s="9" t="s">
         <v>105</v>
       </c>
@@ -34822,10 +34834,10 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="333" t="s">
+      <c r="B18" s="339" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="333"/>
+      <c r="C18" s="339"/>
       <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
@@ -34855,10 +34867,10 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="333" t="s">
+      <c r="B19" s="339" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="333"/>
+      <c r="C19" s="339"/>
       <c r="D19" s="177" t="s">
         <v>13</v>
       </c>
@@ -34888,10 +34900,10 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="333" t="s">
+      <c r="B20" s="339" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="333"/>
+      <c r="C20" s="339"/>
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
@@ -34921,10 +34933,10 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="333" t="s">
+      <c r="B21" s="339" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="333"/>
+      <c r="C21" s="339"/>
       <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
@@ -35006,10 +35018,10 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="333" t="s">
+      <c r="B24" s="339" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="333"/>
+      <c r="C24" s="339"/>
       <c r="D24" s="9" t="s">
         <v>46</v>
       </c>
@@ -35041,10 +35053,10 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="340" t="s">
+      <c r="B25" s="342" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="341"/>
+      <c r="C25" s="343"/>
       <c r="D25" s="28" t="s">
         <v>158</v>
       </c>
@@ -35076,10 +35088,10 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="333" t="s">
+      <c r="B26" s="339" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="333"/>
+      <c r="C26" s="339"/>
       <c r="D26" s="9" t="s">
         <v>54</v>
       </c>
@@ -35111,10 +35123,10 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="340" t="s">
+      <c r="B27" s="342" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="341"/>
+      <c r="C27" s="343"/>
       <c r="D27" s="9" t="s">
         <v>63</v>
       </c>
@@ -35144,10 +35156,10 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="340" t="s">
+      <c r="B28" s="342" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="341"/>
+      <c r="C28" s="343"/>
       <c r="D28" s="9" t="s">
         <v>75</v>
       </c>
@@ -35212,10 +35224,10 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="333" t="s">
+      <c r="B30" s="339" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="333"/>
+      <c r="C30" s="339"/>
       <c r="D30" s="9" t="s">
         <v>84</v>
       </c>
@@ -35247,8 +35259,8 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="339"/>
-      <c r="C31" s="339"/>
+      <c r="B31" s="340"/>
+      <c r="C31" s="340"/>
       <c r="D31" s="11"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
@@ -35258,14 +35270,14 @@
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="346" t="s">
+      <c r="B32" s="335" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="346"/>
-      <c r="D32" s="346"/>
-      <c r="E32" s="346"/>
-      <c r="F32" s="346"/>
-      <c r="G32" s="346"/>
+      <c r="C32" s="335"/>
+      <c r="D32" s="335"/>
+      <c r="E32" s="335"/>
+      <c r="F32" s="335"/>
+      <c r="G32" s="335"/>
       <c r="H32" s="66"/>
       <c r="J32" s="22"/>
       <c r="K32" s="23"/>
@@ -35273,10 +35285,10 @@
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="343" t="s">
+      <c r="B33" s="344" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="343"/>
+      <c r="C33" s="344"/>
       <c r="D33" s="7" t="s">
         <v>157</v>
       </c>
@@ -35294,10 +35306,10 @@
       <c r="M33" s="24"/>
     </row>
     <row r="34" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="344" t="s">
+      <c r="B34" s="345" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="345"/>
+      <c r="C34" s="346"/>
       <c r="D34" s="7" t="s">
         <v>166</v>
       </c>
@@ -35341,10 +35353,10 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="3.5">
-      <c r="B37" s="333" t="s">
+      <c r="B37" s="339" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="333"/>
+      <c r="C37" s="339"/>
       <c r="D37" s="38" t="s">
         <v>258</v>
       </c>
@@ -35356,21 +35368,21 @@
         <v>3.4760947255444699E-3</v>
       </c>
       <c r="G37" s="327"/>
-      <c r="H37" s="328"/>
-      <c r="I37" s="336" t="s">
+      <c r="H37" s="329"/>
+      <c r="I37" s="349" t="s">
         <v>72</v>
       </c>
-      <c r="J37" s="337"/>
-      <c r="K37" s="337"/>
-      <c r="L37" s="337"/>
-      <c r="M37" s="337"/>
-      <c r="N37" s="338"/>
+      <c r="J37" s="350"/>
+      <c r="K37" s="350"/>
+      <c r="L37" s="350"/>
+      <c r="M37" s="350"/>
+      <c r="N37" s="351"/>
     </row>
     <row r="38" spans="2:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="335" t="s">
+      <c r="B38" s="341" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="335"/>
+      <c r="C38" s="341"/>
       <c r="D38" s="45" t="s">
         <v>135</v>
       </c>
@@ -35382,19 +35394,19 @@
         <v>2.5100000000000001E-3</v>
       </c>
       <c r="G38" s="327"/>
-      <c r="H38" s="328"/>
+      <c r="H38" s="329"/>
       <c r="I38" s="327"/>
-      <c r="J38" s="331"/>
-      <c r="K38" s="331"/>
-      <c r="L38" s="331"/>
-      <c r="M38" s="331"/>
-      <c r="N38" s="328"/>
+      <c r="J38" s="328"/>
+      <c r="K38" s="328"/>
+      <c r="L38" s="328"/>
+      <c r="M38" s="328"/>
+      <c r="N38" s="329"/>
     </row>
     <row r="39" spans="2:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="335" t="s">
+      <c r="B39" s="341" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="335"/>
+      <c r="C39" s="341"/>
       <c r="D39" s="45" t="s">
         <v>135</v>
       </c>
@@ -35406,19 +35418,19 @@
         <v>2.5100000000000001E-3</v>
       </c>
       <c r="G39" s="327"/>
-      <c r="H39" s="328"/>
+      <c r="H39" s="329"/>
       <c r="I39" s="327"/>
-      <c r="J39" s="331"/>
-      <c r="K39" s="331"/>
-      <c r="L39" s="331"/>
-      <c r="M39" s="331"/>
-      <c r="N39" s="328"/>
+      <c r="J39" s="328"/>
+      <c r="K39" s="328"/>
+      <c r="L39" s="328"/>
+      <c r="M39" s="328"/>
+      <c r="N39" s="329"/>
     </row>
     <row r="40" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="335" t="s">
+      <c r="B40" s="341" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="335"/>
+      <c r="C40" s="341"/>
       <c r="D40" s="45" t="s">
         <v>259</v>
       </c>
@@ -35430,19 +35442,19 @@
         <v>8.095617529880478</v>
       </c>
       <c r="G40" s="327"/>
-      <c r="H40" s="328"/>
+      <c r="H40" s="329"/>
       <c r="I40" s="327"/>
-      <c r="J40" s="331"/>
-      <c r="K40" s="331"/>
-      <c r="L40" s="331"/>
-      <c r="M40" s="331"/>
-      <c r="N40" s="328"/>
+      <c r="J40" s="328"/>
+      <c r="K40" s="328"/>
+      <c r="L40" s="328"/>
+      <c r="M40" s="328"/>
+      <c r="N40" s="329"/>
     </row>
     <row r="41" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="335" t="s">
+      <c r="B41" s="341" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="335"/>
+      <c r="C41" s="341"/>
       <c r="D41" s="45" t="s">
         <v>27</v>
       </c>
@@ -35454,19 +35466,19 @@
         <v>94</v>
       </c>
       <c r="G41" s="327"/>
-      <c r="H41" s="328"/>
+      <c r="H41" s="329"/>
       <c r="I41" s="327"/>
-      <c r="J41" s="331"/>
-      <c r="K41" s="331"/>
-      <c r="L41" s="331"/>
-      <c r="M41" s="331"/>
-      <c r="N41" s="328"/>
+      <c r="J41" s="328"/>
+      <c r="K41" s="328"/>
+      <c r="L41" s="328"/>
+      <c r="M41" s="328"/>
+      <c r="N41" s="329"/>
     </row>
     <row r="42" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="335" t="s">
+      <c r="B42" s="341" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="335"/>
+      <c r="C42" s="341"/>
       <c r="D42" s="45" t="s">
         <v>260</v>
       </c>
@@ -35478,22 +35490,22 @@
         <v>5.8566411306595638</v>
       </c>
       <c r="G42" s="327"/>
-      <c r="H42" s="328"/>
-      <c r="I42" s="347" t="s">
+      <c r="H42" s="329"/>
+      <c r="I42" s="336" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="348"/>
-      <c r="K42" s="348"/>
-      <c r="L42" s="348"/>
-      <c r="M42" s="348"/>
-      <c r="N42" s="349"/>
+      <c r="J42" s="337"/>
+      <c r="K42" s="337"/>
+      <c r="L42" s="337"/>
+      <c r="M42" s="337"/>
+      <c r="N42" s="338"/>
       <c r="O42" s="74"/>
     </row>
     <row r="43" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="335" t="s">
+      <c r="B43" s="341" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="335"/>
+      <c r="C43" s="341"/>
       <c r="D43" s="45" t="s">
         <v>261</v>
       </c>
@@ -35505,19 +35517,19 @@
         <v>1.0558581722939875</v>
       </c>
       <c r="G43" s="327"/>
-      <c r="H43" s="328"/>
+      <c r="H43" s="329"/>
       <c r="I43" s="327"/>
-      <c r="J43" s="331"/>
-      <c r="K43" s="331"/>
-      <c r="L43" s="331"/>
-      <c r="M43" s="331"/>
-      <c r="N43" s="328"/>
+      <c r="J43" s="328"/>
+      <c r="K43" s="328"/>
+      <c r="L43" s="328"/>
+      <c r="M43" s="328"/>
+      <c r="N43" s="329"/>
     </row>
     <row r="44" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="329" t="s">
+      <c r="B44" s="323" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="330"/>
+      <c r="C44" s="324"/>
       <c r="D44" s="56" t="s">
         <v>262</v>
       </c>
@@ -35529,19 +35541,19 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="G44" s="327"/>
-      <c r="H44" s="328"/>
+      <c r="H44" s="329"/>
       <c r="I44" s="327"/>
-      <c r="J44" s="331"/>
-      <c r="K44" s="331"/>
-      <c r="L44" s="331"/>
-      <c r="M44" s="331"/>
-      <c r="N44" s="328"/>
+      <c r="J44" s="328"/>
+      <c r="K44" s="328"/>
+      <c r="L44" s="328"/>
+      <c r="M44" s="328"/>
+      <c r="N44" s="329"/>
     </row>
     <row r="45" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="329" t="s">
+      <c r="B45" s="323" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="330"/>
+      <c r="C45" s="324"/>
       <c r="D45" s="56" t="s">
         <v>263</v>
       </c>
@@ -35562,10 +35574,10 @@
       <c r="N45" s="93"/>
     </row>
     <row r="46" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="329" t="s">
+      <c r="B46" s="323" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="330"/>
+      <c r="C46" s="324"/>
       <c r="D46" s="56" t="s">
         <v>262</v>
       </c>
@@ -35586,10 +35598,10 @@
       <c r="N46" s="93"/>
     </row>
     <row r="47" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="335" t="s">
+      <c r="B47" s="341" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="335"/>
+      <c r="C47" s="341"/>
       <c r="D47" s="56" t="s">
         <v>264</v>
       </c>
@@ -35601,23 +35613,23 @@
         <v>2.2558581722939874</v>
       </c>
       <c r="G47" s="327"/>
-      <c r="H47" s="328"/>
+      <c r="H47" s="329"/>
       <c r="I47" s="327"/>
-      <c r="J47" s="331"/>
-      <c r="K47" s="331"/>
-      <c r="L47" s="331"/>
-      <c r="M47" s="331"/>
-      <c r="N47" s="328"/>
+      <c r="J47" s="328"/>
+      <c r="K47" s="328"/>
+      <c r="L47" s="328"/>
+      <c r="M47" s="328"/>
+      <c r="N47" s="329"/>
       <c r="Q47" s="12">
         <f>6*0.0254</f>
         <v>0.15239999999999998</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="329" t="s">
+      <c r="B48" s="323" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="330"/>
+      <c r="C48" s="324"/>
       <c r="D48" s="56" t="s">
         <v>265</v>
       </c>
@@ -35629,25 +35641,25 @@
         <v>15.554808847800167</v>
       </c>
       <c r="G48" s="327"/>
-      <c r="H48" s="328"/>
-      <c r="I48" s="347" t="s">
+      <c r="H48" s="329"/>
+      <c r="I48" s="336" t="s">
         <v>130</v>
       </c>
-      <c r="J48" s="348"/>
-      <c r="K48" s="348"/>
-      <c r="L48" s="348"/>
-      <c r="M48" s="348"/>
-      <c r="N48" s="349"/>
+      <c r="J48" s="337"/>
+      <c r="K48" s="337"/>
+      <c r="L48" s="337"/>
+      <c r="M48" s="337"/>
+      <c r="N48" s="338"/>
       <c r="Q48" s="75">
         <f>Q47/2</f>
         <v>7.619999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="335" t="s">
+      <c r="B49" s="341" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="335"/>
+      <c r="C49" s="341"/>
       <c r="D49" s="56" t="s">
         <v>266</v>
       </c>
@@ -35659,23 +35671,23 @@
         <v>18.110151179182871</v>
       </c>
       <c r="G49" s="327"/>
-      <c r="H49" s="328"/>
+      <c r="H49" s="329"/>
       <c r="I49" s="327"/>
-      <c r="J49" s="331"/>
-      <c r="K49" s="331"/>
-      <c r="L49" s="331"/>
-      <c r="M49" s="331"/>
-      <c r="N49" s="328"/>
+      <c r="J49" s="328"/>
+      <c r="K49" s="328"/>
+      <c r="L49" s="328"/>
+      <c r="M49" s="328"/>
+      <c r="N49" s="329"/>
       <c r="Q49" s="12">
         <f>Q48/3</f>
         <v>2.5399999999999995E-2</v>
       </c>
     </row>
     <row r="50" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="329" t="s">
+      <c r="B50" s="323" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="330"/>
+      <c r="C50" s="324"/>
       <c r="D50" s="56" t="s">
         <v>91</v>
       </c>
@@ -35687,13 +35699,13 @@
         <v>173.21341640466753</v>
       </c>
       <c r="G50" s="327"/>
-      <c r="H50" s="328"/>
+      <c r="H50" s="329"/>
       <c r="I50" s="327"/>
-      <c r="J50" s="331"/>
-      <c r="K50" s="331"/>
-      <c r="L50" s="331"/>
-      <c r="M50" s="331"/>
-      <c r="N50" s="328"/>
+      <c r="J50" s="328"/>
+      <c r="K50" s="328"/>
+      <c r="L50" s="328"/>
+      <c r="M50" s="328"/>
+      <c r="N50" s="329"/>
       <c r="Q50" s="12">
         <f>Q49/2</f>
         <v>1.2699999999999998E-2</v>
@@ -35704,10 +35716,10 @@
       </c>
     </row>
     <row r="51" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="335" t="s">
+      <c r="B51" s="341" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="335"/>
+      <c r="C51" s="341"/>
       <c r="D51" s="56" t="s">
         <v>73</v>
       </c>
@@ -35717,19 +35729,19 @@
         <v>1: 4,8</v>
       </c>
       <c r="G51" s="327"/>
-      <c r="H51" s="328"/>
+      <c r="H51" s="329"/>
       <c r="I51" s="327"/>
-      <c r="J51" s="331"/>
-      <c r="K51" s="331"/>
-      <c r="L51" s="331"/>
-      <c r="M51" s="331"/>
-      <c r="N51" s="328"/>
+      <c r="J51" s="328"/>
+      <c r="K51" s="328"/>
+      <c r="L51" s="328"/>
+      <c r="M51" s="328"/>
+      <c r="N51" s="329"/>
     </row>
     <row r="52" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="329" t="s">
+      <c r="B52" s="323" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="330"/>
+      <c r="C52" s="324"/>
       <c r="D52" s="56" t="s">
         <v>267</v>
       </c>
@@ -35741,19 +35753,19 @@
         <v>0.79919162457288717</v>
       </c>
       <c r="G52" s="327"/>
-      <c r="H52" s="328"/>
+      <c r="H52" s="329"/>
       <c r="I52" s="327"/>
-      <c r="J52" s="331"/>
-      <c r="K52" s="331"/>
-      <c r="L52" s="331"/>
-      <c r="M52" s="331"/>
-      <c r="N52" s="328"/>
+      <c r="J52" s="328"/>
+      <c r="K52" s="328"/>
+      <c r="L52" s="328"/>
+      <c r="M52" s="328"/>
+      <c r="N52" s="329"/>
     </row>
     <row r="53" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="329" t="s">
+      <c r="B53" s="323" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="330"/>
+      <c r="C53" s="324"/>
       <c r="D53" s="56" t="s">
         <v>268</v>
       </c>
@@ -35765,19 +35777,19 @@
         <v>6.4566411306595635</v>
       </c>
       <c r="G53" s="327"/>
-      <c r="H53" s="328"/>
+      <c r="H53" s="329"/>
       <c r="I53" s="327"/>
-      <c r="J53" s="331"/>
-      <c r="K53" s="331"/>
-      <c r="L53" s="331"/>
-      <c r="M53" s="331"/>
-      <c r="N53" s="328"/>
+      <c r="J53" s="328"/>
+      <c r="K53" s="328"/>
+      <c r="L53" s="328"/>
+      <c r="M53" s="328"/>
+      <c r="N53" s="329"/>
     </row>
     <row r="54" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="329" t="s">
+      <c r="B54" s="323" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="330"/>
+      <c r="C54" s="324"/>
       <c r="D54" s="56" t="s">
         <v>269</v>
       </c>
@@ -35789,19 +35801,19 @@
         <v>7.8767999999999994</v>
       </c>
       <c r="G54" s="327"/>
-      <c r="H54" s="328"/>
+      <c r="H54" s="329"/>
       <c r="I54" s="327"/>
-      <c r="J54" s="331"/>
-      <c r="K54" s="331"/>
-      <c r="L54" s="331"/>
-      <c r="M54" s="331"/>
-      <c r="N54" s="328"/>
+      <c r="J54" s="328"/>
+      <c r="K54" s="328"/>
+      <c r="L54" s="328"/>
+      <c r="M54" s="328"/>
+      <c r="N54" s="329"/>
     </row>
     <row r="55" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="335" t="s">
+      <c r="B55" s="341" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="335"/>
+      <c r="C55" s="341"/>
       <c r="D55" s="56" t="s">
         <v>270</v>
       </c>
@@ -35813,13 +35825,13 @@
         <v>3.6550497968668743</v>
       </c>
       <c r="G55" s="327"/>
-      <c r="H55" s="328"/>
+      <c r="H55" s="329"/>
       <c r="I55" s="327"/>
-      <c r="J55" s="331"/>
-      <c r="K55" s="331"/>
-      <c r="L55" s="331"/>
-      <c r="M55" s="331"/>
-      <c r="N55" s="328"/>
+      <c r="J55" s="328"/>
+      <c r="K55" s="328"/>
+      <c r="L55" s="328"/>
+      <c r="M55" s="328"/>
+      <c r="N55" s="329"/>
     </row>
     <row r="56" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="80"/>
@@ -35854,10 +35866,10 @@
       <c r="N57" s="83"/>
     </row>
     <row r="58" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="329" t="s">
+      <c r="B58" s="323" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="330"/>
+      <c r="C58" s="324"/>
       <c r="D58" s="56" t="s">
         <v>271</v>
       </c>
@@ -35869,19 +35881,19 @@
         <v>6.1566411306595636</v>
       </c>
       <c r="G58" s="327"/>
-      <c r="H58" s="328"/>
+      <c r="H58" s="329"/>
       <c r="I58" s="327"/>
-      <c r="J58" s="331"/>
-      <c r="K58" s="331"/>
-      <c r="L58" s="331"/>
-      <c r="M58" s="331"/>
-      <c r="N58" s="328"/>
+      <c r="J58" s="328"/>
+      <c r="K58" s="328"/>
+      <c r="L58" s="328"/>
+      <c r="M58" s="328"/>
+      <c r="N58" s="329"/>
     </row>
     <row r="59" spans="2:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="329" t="s">
+      <c r="B59" s="323" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="330"/>
+      <c r="C59" s="324"/>
       <c r="D59" s="56" t="s">
         <v>272</v>
       </c>
@@ -35892,19 +35904,19 @@
         <v>8</v>
       </c>
       <c r="G59" s="327"/>
-      <c r="H59" s="328"/>
+      <c r="H59" s="329"/>
       <c r="I59" s="327"/>
-      <c r="J59" s="331"/>
-      <c r="K59" s="331"/>
-      <c r="L59" s="331"/>
-      <c r="M59" s="331"/>
-      <c r="N59" s="328"/>
+      <c r="J59" s="328"/>
+      <c r="K59" s="328"/>
+      <c r="L59" s="328"/>
+      <c r="M59" s="328"/>
+      <c r="N59" s="329"/>
     </row>
     <row r="60" spans="2:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="329" t="s">
+      <c r="B60" s="323" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="330"/>
+      <c r="C60" s="324"/>
       <c r="D60" s="56" t="s">
         <v>273</v>
       </c>
@@ -35916,7 +35928,7 @@
         <v>0.20942</v>
       </c>
       <c r="G60" s="327"/>
-      <c r="H60" s="328"/>
+      <c r="H60" s="329"/>
       <c r="I60" s="67"/>
       <c r="J60" s="68"/>
       <c r="K60" s="68"/>
@@ -35925,10 +35937,10 @@
       <c r="N60" s="69"/>
     </row>
     <row r="61" spans="2:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="324" t="s">
+      <c r="B61" s="330" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="324"/>
+      <c r="C61" s="330"/>
       <c r="D61" s="176" t="s">
         <v>274</v>
       </c>
@@ -35940,19 +35952,19 @@
         <v>4.1884000000000005E-2</v>
       </c>
       <c r="G61" s="327"/>
-      <c r="H61" s="328"/>
-      <c r="I61" s="353"/>
-      <c r="J61" s="354"/>
-      <c r="K61" s="354"/>
-      <c r="L61" s="354"/>
-      <c r="M61" s="354"/>
-      <c r="N61" s="355"/>
+      <c r="H61" s="329"/>
+      <c r="I61" s="331"/>
+      <c r="J61" s="332"/>
+      <c r="K61" s="332"/>
+      <c r="L61" s="332"/>
+      <c r="M61" s="332"/>
+      <c r="N61" s="333"/>
     </row>
     <row r="62" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="324" t="s">
+      <c r="B62" s="330" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="324"/>
+      <c r="C62" s="330"/>
       <c r="D62" s="176" t="s">
         <v>275</v>
       </c>
@@ -35963,8 +35975,8 @@
         <f>IF(AND(F61&gt;0.02363,F61&lt;0.0302),1,IF(AND(F61&gt;0.0302,F61&lt;0.03814),1.25,IF(AND(F61&gt;0.03814,F61&lt;0.04368),1.5,IF(AND(F61&gt;0.04368,F61&lt;0.05458),2,IF(AND(F61&gt;0.05458,F61&lt;0.06607),2.5,IF(AND(F61&gt;0.06607,F61&lt;0.08042),3,IF(AND(F61&gt;0.08042,F61&lt;0.10342),4)))))))</f>
         <v>1.5</v>
       </c>
-      <c r="G62" s="351"/>
-      <c r="H62" s="352"/>
+      <c r="G62" s="325"/>
+      <c r="H62" s="326"/>
       <c r="I62" s="76"/>
       <c r="J62" s="77"/>
       <c r="K62" s="77"/>
@@ -35973,10 +35985,10 @@
       <c r="N62" s="78"/>
     </row>
     <row r="63" spans="2:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="324" t="s">
+      <c r="B63" s="330" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="324"/>
+      <c r="C63" s="330"/>
       <c r="D63" s="176" t="s">
         <v>274</v>
       </c>
@@ -35988,7 +36000,7 @@
         <v>4.3679999999999997E-2</v>
       </c>
       <c r="G63" s="327"/>
-      <c r="H63" s="328"/>
+      <c r="H63" s="329"/>
       <c r="I63" s="98"/>
       <c r="J63" s="77"/>
       <c r="K63" s="77"/>
@@ -35997,10 +36009,10 @@
       <c r="N63" s="78"/>
     </row>
     <row r="64" spans="2:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="325" t="s">
+      <c r="B64" s="347" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="326"/>
+      <c r="C64" s="348"/>
       <c r="D64" s="56"/>
       <c r="E64" s="46"/>
       <c r="F64" s="89">
@@ -36008,19 +36020,19 @@
         <v>0.4350397582251469</v>
       </c>
       <c r="G64" s="327"/>
-      <c r="H64" s="328"/>
+      <c r="H64" s="329"/>
       <c r="I64" s="327"/>
-      <c r="J64" s="331"/>
-      <c r="K64" s="331"/>
-      <c r="L64" s="331"/>
-      <c r="M64" s="331"/>
-      <c r="N64" s="328"/>
+      <c r="J64" s="328"/>
+      <c r="K64" s="328"/>
+      <c r="L64" s="328"/>
+      <c r="M64" s="328"/>
+      <c r="N64" s="329"/>
     </row>
     <row r="65" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="324" t="s">
+      <c r="B65" s="330" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="324"/>
+      <c r="C65" s="330"/>
       <c r="D65" s="176" t="s">
         <v>275</v>
       </c>
@@ -36041,10 +36053,10 @@
       <c r="N65" s="93"/>
     </row>
     <row r="66" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="324" t="s">
+      <c r="B66" s="330" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="324"/>
+      <c r="C66" s="330"/>
       <c r="D66" s="176" t="s">
         <v>274</v>
       </c>
@@ -36054,7 +36066,7 @@
         <v>4.3679999999999997E-2</v>
       </c>
       <c r="G66" s="327"/>
-      <c r="H66" s="328"/>
+      <c r="H66" s="329"/>
       <c r="I66" s="92"/>
       <c r="J66" s="94"/>
       <c r="K66" s="94"/>
@@ -36063,10 +36075,10 @@
       <c r="N66" s="93"/>
     </row>
     <row r="67" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="325" t="s">
+      <c r="B67" s="347" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="326"/>
+      <c r="C67" s="348"/>
       <c r="D67" s="56"/>
       <c r="E67" s="46"/>
       <c r="F67" s="89">
@@ -36074,7 +36086,7 @@
         <v>0.4350397582251469</v>
       </c>
       <c r="G67" s="327"/>
-      <c r="H67" s="328"/>
+      <c r="H67" s="329"/>
       <c r="I67" s="92"/>
       <c r="J67" s="101"/>
       <c r="K67" s="94"/>
@@ -36083,10 +36095,10 @@
       <c r="N67" s="93"/>
     </row>
     <row r="68" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="329" t="s">
+      <c r="B68" s="323" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="330"/>
+      <c r="C68" s="324"/>
       <c r="D68" s="56" t="s">
         <v>276</v>
       </c>
@@ -36098,7 +36110,7 @@
         <v>3.0550497968668746</v>
       </c>
       <c r="G68" s="327"/>
-      <c r="H68" s="328"/>
+      <c r="H68" s="329"/>
       <c r="I68" s="76"/>
       <c r="J68" s="77"/>
       <c r="K68" s="77"/>
@@ -36107,10 +36119,10 @@
       <c r="N68" s="78"/>
     </row>
     <row r="69" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="329" t="s">
+      <c r="B69" s="323" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="330"/>
+      <c r="C69" s="324"/>
       <c r="D69" s="56" t="s">
         <v>277</v>
       </c>
@@ -36119,8 +36131,8 @@
         <f>F58/F33</f>
         <v>0.61566411306595636</v>
       </c>
-      <c r="G69" s="351"/>
-      <c r="H69" s="352"/>
+      <c r="G69" s="325"/>
+      <c r="H69" s="326"/>
       <c r="I69" s="76"/>
       <c r="J69" s="77"/>
       <c r="K69" s="77"/>
@@ -36129,10 +36141,10 @@
       <c r="N69" s="78"/>
     </row>
     <row r="70" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="325" t="s">
+      <c r="B70" s="347" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="326"/>
+      <c r="C70" s="348"/>
       <c r="D70" s="56" t="s">
         <v>278</v>
       </c>
@@ -36153,10 +36165,10 @@
       <c r="N70" s="78"/>
     </row>
     <row r="71" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="325" t="s">
+      <c r="B71" s="347" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="326"/>
+      <c r="C71" s="348"/>
       <c r="D71" s="56" t="s">
         <v>278</v>
       </c>
@@ -36166,29 +36178,29 @@
         <v>0.58566411306595634</v>
       </c>
       <c r="G71" s="327"/>
-      <c r="H71" s="328"/>
-      <c r="I71" s="320" t="s">
+      <c r="H71" s="329"/>
+      <c r="I71" s="354" t="s">
         <v>171</v>
       </c>
-      <c r="J71" s="321"/>
-      <c r="K71" s="321"/>
-      <c r="L71" s="321"/>
-      <c r="M71" s="321"/>
-      <c r="N71" s="322"/>
+      <c r="J71" s="355"/>
+      <c r="K71" s="355"/>
+      <c r="L71" s="355"/>
+      <c r="M71" s="355"/>
+      <c r="N71" s="356"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="339"/>
-      <c r="C72" s="339"/>
+      <c r="B72" s="340"/>
+      <c r="C72" s="340"/>
       <c r="J72" s="22"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="24"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="346" t="s">
+      <c r="B73" s="335" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="346"/>
+      <c r="C73" s="335"/>
       <c r="J73" s="22"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
@@ -36204,13 +36216,13 @@
       <c r="B75" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="350" t="s">
+      <c r="C75" s="322" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="350"/>
-      <c r="E75" s="350"/>
-      <c r="F75" s="350"/>
-      <c r="G75" s="350"/>
+      <c r="D75" s="322"/>
+      <c r="E75" s="322"/>
+      <c r="F75" s="322"/>
+      <c r="G75" s="322"/>
       <c r="H75" s="65"/>
       <c r="I75" s="96"/>
       <c r="J75" s="22"/>
@@ -36222,13 +36234,13 @@
       <c r="B76" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="350" t="s">
+      <c r="C76" s="322" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="350"/>
-      <c r="E76" s="350"/>
-      <c r="F76" s="350"/>
-      <c r="G76" s="350"/>
+      <c r="D76" s="322"/>
+      <c r="E76" s="322"/>
+      <c r="F76" s="322"/>
+      <c r="G76" s="322"/>
       <c r="H76" s="65"/>
       <c r="J76" s="97"/>
       <c r="K76" s="23"/>
@@ -36239,13 +36251,13 @@
       <c r="B77" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="342" t="s">
+      <c r="C77" s="334" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="342"/>
-      <c r="E77" s="342"/>
-      <c r="F77" s="342"/>
-      <c r="G77" s="342"/>
+      <c r="D77" s="334"/>
+      <c r="E77" s="334"/>
+      <c r="F77" s="334"/>
+      <c r="G77" s="334"/>
       <c r="H77" s="64"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23"/>
@@ -36256,13 +36268,13 @@
       <c r="B78" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="350" t="s">
+      <c r="C78" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="350"/>
-      <c r="E78" s="350"/>
-      <c r="F78" s="350"/>
-      <c r="G78" s="350"/>
+      <c r="D78" s="322"/>
+      <c r="E78" s="322"/>
+      <c r="F78" s="322"/>
+      <c r="G78" s="322"/>
       <c r="H78" s="65"/>
       <c r="J78" s="22"/>
       <c r="K78" s="23"/>
@@ -36273,16 +36285,16 @@
       <c r="B79" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="350" t="s">
+      <c r="C79" s="322" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="350"/>
-      <c r="E79" s="350"/>
-      <c r="F79" s="350"/>
-      <c r="G79" s="350"/>
+      <c r="D79" s="322"/>
+      <c r="E79" s="322"/>
+      <c r="F79" s="322"/>
+      <c r="G79" s="322"/>
       <c r="H79" s="65"/>
-      <c r="J79" s="323"/>
-      <c r="K79" s="323"/>
+      <c r="J79" s="357"/>
+      <c r="K79" s="357"/>
       <c r="L79" s="23"/>
       <c r="M79" s="24"/>
     </row>
@@ -36290,13 +36302,13 @@
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="342" t="s">
+      <c r="C80" s="334" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="342"/>
-      <c r="E80" s="342"/>
-      <c r="F80" s="342"/>
-      <c r="G80" s="342"/>
+      <c r="D80" s="334"/>
+      <c r="E80" s="334"/>
+      <c r="F80" s="334"/>
+      <c r="G80" s="334"/>
       <c r="H80" s="64"/>
       <c r="J80" s="22"/>
       <c r="K80" s="23"/>
@@ -36307,13 +36319,13 @@
       <c r="B81" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="342" t="s">
+      <c r="C81" s="334" t="s">
         <v>78</v>
       </c>
-      <c r="D81" s="342"/>
-      <c r="E81" s="342"/>
-      <c r="F81" s="342"/>
-      <c r="G81" s="342"/>
+      <c r="D81" s="334"/>
+      <c r="E81" s="334"/>
+      <c r="F81" s="334"/>
+      <c r="G81" s="334"/>
       <c r="H81" s="64"/>
       <c r="J81" s="22"/>
       <c r="K81" s="23"/>
@@ -36324,13 +36336,13 @@
       <c r="B82" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="350" t="s">
+      <c r="C82" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="350"/>
-      <c r="E82" s="350"/>
-      <c r="F82" s="350"/>
-      <c r="G82" s="350"/>
+      <c r="D82" s="322"/>
+      <c r="E82" s="322"/>
+      <c r="F82" s="322"/>
+      <c r="G82" s="322"/>
       <c r="H82" s="65"/>
       <c r="J82" s="22"/>
       <c r="K82" s="23"/>
@@ -36341,13 +36353,13 @@
       <c r="B83" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="350" t="s">
+      <c r="C83" s="322" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="350"/>
-      <c r="E83" s="350"/>
-      <c r="F83" s="350"/>
-      <c r="G83" s="350"/>
+      <c r="D83" s="322"/>
+      <c r="E83" s="322"/>
+      <c r="F83" s="322"/>
+      <c r="G83" s="322"/>
       <c r="H83" s="79"/>
       <c r="J83" s="22"/>
       <c r="K83" s="23"/>
@@ -37769,6 +37781,105 @@
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="I71:N71"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I59:N59"/>
+    <mergeCell ref="I64:N64"/>
+    <mergeCell ref="I54:N54"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="G69:H69"/>
@@ -37793,105 +37904,6 @@
     <mergeCell ref="C76:G76"/>
     <mergeCell ref="C77:G77"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I71:N71"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I59:N59"/>
-    <mergeCell ref="I64:N64"/>
-    <mergeCell ref="I54:N54"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="G68:H68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37944,13 +37956,13 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="360" t="s">
+      <c r="B7" s="359" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="360"/>
-      <c r="D7" s="360"/>
-      <c r="E7" s="360"/>
-      <c r="F7" s="360"/>
+      <c r="C7" s="359"/>
+      <c r="D7" s="359"/>
+      <c r="E7" s="359"/>
+      <c r="F7" s="359"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
@@ -37959,10 +37971,10 @@
       <c r="C9" s="41"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="340" t="s">
+      <c r="B10" s="342" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="341"/>
+      <c r="C10" s="343"/>
       <c r="D10" s="9" t="s">
         <v>0</v>
       </c>
@@ -37974,10 +37986,10 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="340" t="s">
+      <c r="B11" s="342" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="341"/>
+      <c r="C11" s="343"/>
       <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
@@ -37989,10 +38001,10 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="340" t="s">
+      <c r="B12" s="342" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="341"/>
+      <c r="C12" s="343"/>
       <c r="D12" s="9" t="s">
         <v>92</v>
       </c>
@@ -38005,10 +38017,10 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="340" t="s">
+      <c r="B13" s="342" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="341"/>
+      <c r="C13" s="343"/>
       <c r="D13" s="9" t="s">
         <v>2</v>
       </c>
@@ -38020,10 +38032,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="340" t="s">
+      <c r="B14" s="342" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="341"/>
+      <c r="C14" s="343"/>
       <c r="D14" s="36"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3" t="s">
@@ -38031,11 +38043,11 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="340" t="str">
+      <c r="B15" s="342" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F14</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C15" s="341"/>
+      <c r="C15" s="343"/>
       <c r="D15" s="8" t="s">
         <v>108</v>
       </c>
@@ -38045,10 +38057,10 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="340" t="s">
+      <c r="B16" s="342" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="341"/>
+      <c r="C16" s="343"/>
       <c r="D16" s="9" t="s">
         <v>11</v>
       </c>
@@ -38061,10 +38073,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="340" t="s">
+      <c r="B17" s="342" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="341"/>
+      <c r="C17" s="343"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -38077,10 +38089,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="340" t="s">
+      <c r="B18" s="342" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="341"/>
+      <c r="C18" s="343"/>
       <c r="D18" s="25" t="s">
         <v>13</v>
       </c>
@@ -38094,10 +38106,10 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="340" t="s">
+      <c r="B19" s="342" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="341"/>
+      <c r="C19" s="343"/>
       <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
@@ -38110,10 +38122,10 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="340" t="s">
+      <c r="B20" s="342" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="341"/>
+      <c r="C20" s="343"/>
       <c r="D20" s="7" t="s">
         <v>24</v>
       </c>
@@ -38142,10 +38154,10 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="340" t="s">
+      <c r="B23" s="342" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="341"/>
+      <c r="C23" s="343"/>
       <c r="D23" s="9" t="s">
         <v>46</v>
       </c>
@@ -38157,10 +38169,10 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="358" t="s">
+      <c r="B24" s="361" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="359"/>
+      <c r="C24" s="362"/>
       <c r="D24" s="28" t="s">
         <v>61</v>
       </c>
@@ -38189,22 +38201,22 @@
       <c r="C27" s="41"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="357" t="s">
+      <c r="B28" s="358" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="357"/>
-      <c r="D28" s="357"/>
-      <c r="E28" s="357"/>
-      <c r="F28" s="357"/>
-      <c r="G28" s="357"/>
+      <c r="C28" s="358"/>
+      <c r="D28" s="358"/>
+      <c r="E28" s="358"/>
+      <c r="F28" s="358"/>
+      <c r="G28" s="358"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="357"/>
-      <c r="C29" s="357"/>
-      <c r="D29" s="357"/>
-      <c r="E29" s="357"/>
-      <c r="F29" s="357"/>
-      <c r="G29" s="357"/>
+      <c r="B29" s="358"/>
+      <c r="C29" s="358"/>
+      <c r="D29" s="358"/>
+      <c r="E29" s="358"/>
+      <c r="F29" s="358"/>
+      <c r="G29" s="358"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="53"/>
@@ -38215,10 +38227,10 @@
       <c r="G30" s="53"/>
     </row>
     <row r="31" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="329" t="s">
+      <c r="B31" s="323" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="330"/>
+      <c r="C31" s="324"/>
       <c r="D31" s="51" t="s">
         <v>137</v>
       </c>
@@ -38232,10 +38244,10 @@
       <c r="G31" s="53"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="329" t="s">
+      <c r="B32" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="330"/>
+      <c r="C32" s="324"/>
       <c r="D32" s="51" t="s">
         <v>14</v>
       </c>
@@ -38275,10 +38287,10 @@
       <c r="G35" s="53"/>
     </row>
     <row r="36" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="329" t="s">
+      <c r="B36" s="323" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="330"/>
+      <c r="C36" s="324"/>
       <c r="D36" s="55" t="s">
         <v>91</v>
       </c>
@@ -38300,14 +38312,14 @@
       <c r="G37" s="53"/>
     </row>
     <row r="38" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="357" t="s">
+      <c r="B38" s="358" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="357"/>
-      <c r="D38" s="357"/>
-      <c r="E38" s="357"/>
-      <c r="F38" s="357"/>
-      <c r="G38" s="357"/>
+      <c r="C38" s="358"/>
+      <c r="D38" s="358"/>
+      <c r="E38" s="358"/>
+      <c r="F38" s="358"/>
+      <c r="G38" s="358"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="53"/>
@@ -38318,10 +38330,10 @@
       <c r="G39" s="53"/>
     </row>
     <row r="40" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="329" t="s">
+      <c r="B40" s="323" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="330"/>
+      <c r="C40" s="324"/>
       <c r="D40" s="51" t="s">
         <v>131</v>
       </c>
@@ -38335,10 +38347,10 @@
       <c r="G40" s="49"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="329" t="s">
+      <c r="B41" s="323" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="330"/>
+      <c r="C41" s="324"/>
       <c r="D41" s="48" t="s">
         <v>144</v>
       </c>
@@ -38353,10 +38365,10 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="329" t="s">
+      <c r="B42" s="323" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="330"/>
+      <c r="C42" s="324"/>
       <c r="D42" s="45" t="s">
         <v>135</v>
       </c>
@@ -38396,10 +38408,10 @@
       <c r="G45" s="53"/>
     </row>
     <row r="46" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="329" t="s">
+      <c r="B46" s="323" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="330"/>
+      <c r="C46" s="324"/>
       <c r="D46" s="51" t="s">
         <v>88</v>
       </c>
@@ -38411,10 +38423,10 @@
       <c r="G46" s="49"/>
     </row>
     <row r="47" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="329" t="s">
+      <c r="B47" s="323" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="330"/>
+      <c r="C47" s="324"/>
       <c r="D47" s="51" t="s">
         <v>101</v>
       </c>
@@ -38426,10 +38438,10 @@
       <c r="G47" s="49"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="329" t="s">
+      <c r="B48" s="323" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="330"/>
+      <c r="C48" s="324"/>
       <c r="D48" s="51" t="s">
         <v>145</v>
       </c>
@@ -38467,10 +38479,10 @@
       <c r="G51" s="53"/>
     </row>
     <row r="52" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="329" t="s">
+      <c r="B52" s="323" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="330"/>
+      <c r="C52" s="324"/>
       <c r="D52" s="51" t="s">
         <v>146</v>
       </c>
@@ -38528,10 +38540,10 @@
       <c r="G57" s="53"/>
     </row>
     <row r="58" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="329" t="s">
+      <c r="B58" s="323" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="330"/>
+      <c r="C58" s="324"/>
       <c r="D58" s="56" t="s">
         <v>1</v>
       </c>
@@ -38569,10 +38581,10 @@
       <c r="G61" s="53"/>
     </row>
     <row r="62" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="329" t="s">
+      <c r="B62" s="323" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="330"/>
+      <c r="C62" s="324"/>
       <c r="D62" s="48" t="s">
         <v>136</v>
       </c>
@@ -38594,14 +38606,14 @@
       <c r="G63" s="53"/>
     </row>
     <row r="64" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="357" t="s">
+      <c r="B64" s="358" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="357"/>
-      <c r="D64" s="357"/>
-      <c r="E64" s="357"/>
-      <c r="F64" s="357"/>
-      <c r="G64" s="357"/>
+      <c r="C64" s="358"/>
+      <c r="D64" s="358"/>
+      <c r="E64" s="358"/>
+      <c r="F64" s="358"/>
+      <c r="G64" s="358"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="53"/>
@@ -38612,10 +38624,10 @@
       <c r="G65" s="53"/>
     </row>
     <row r="66" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="329" t="s">
+      <c r="B66" s="323" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="330"/>
+      <c r="C66" s="324"/>
       <c r="D66" s="51" t="s">
         <v>27</v>
       </c>
@@ -38655,10 +38667,10 @@
       <c r="G69" s="53"/>
     </row>
     <row r="70" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="329" t="s">
+      <c r="B70" s="323" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="330"/>
+      <c r="C70" s="324"/>
       <c r="D70" s="48" t="s">
         <v>138</v>
       </c>
@@ -38672,10 +38684,10 @@
       <c r="G70" s="49"/>
     </row>
     <row r="71" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="329" t="s">
+      <c r="B71" s="323" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="330"/>
+      <c r="C71" s="324"/>
       <c r="D71" s="51" t="s">
         <v>139</v>
       </c>
@@ -38689,10 +38701,10 @@
       <c r="G71" s="49"/>
     </row>
     <row r="72" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="329" t="s">
+      <c r="B72" s="323" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="330"/>
+      <c r="C72" s="324"/>
       <c r="D72" s="51" t="s">
         <v>140</v>
       </c>
@@ -38706,10 +38718,10 @@
       <c r="G72" s="49"/>
     </row>
     <row r="73" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="329" t="s">
+      <c r="B73" s="323" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="330"/>
+      <c r="C73" s="324"/>
       <c r="D73" s="51" t="s">
         <v>142</v>
       </c>
@@ -38729,46 +38741,46 @@
       <c r="C75" s="41"/>
     </row>
     <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="356" t="s">
+      <c r="B76" s="360" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="356"/>
-      <c r="D76" s="356"/>
-      <c r="E76" s="356"/>
-      <c r="F76" s="356"/>
-      <c r="G76" s="356"/>
+      <c r="C76" s="360"/>
+      <c r="D76" s="360"/>
+      <c r="E76" s="360"/>
+      <c r="F76" s="360"/>
+      <c r="G76" s="360"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="356"/>
-      <c r="C77" s="356"/>
-      <c r="D77" s="356"/>
-      <c r="E77" s="356"/>
-      <c r="F77" s="356"/>
-      <c r="G77" s="356"/>
+      <c r="B77" s="360"/>
+      <c r="C77" s="360"/>
+      <c r="D77" s="360"/>
+      <c r="E77" s="360"/>
+      <c r="F77" s="360"/>
+      <c r="G77" s="360"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="356"/>
-      <c r="C78" s="356"/>
-      <c r="D78" s="356"/>
-      <c r="E78" s="356"/>
-      <c r="F78" s="356"/>
-      <c r="G78" s="356"/>
+      <c r="B78" s="360"/>
+      <c r="C78" s="360"/>
+      <c r="D78" s="360"/>
+      <c r="E78" s="360"/>
+      <c r="F78" s="360"/>
+      <c r="G78" s="360"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="356"/>
-      <c r="C79" s="356"/>
-      <c r="D79" s="356"/>
-      <c r="E79" s="356"/>
-      <c r="F79" s="356"/>
-      <c r="G79" s="356"/>
+      <c r="B79" s="360"/>
+      <c r="C79" s="360"/>
+      <c r="D79" s="360"/>
+      <c r="E79" s="360"/>
+      <c r="F79" s="360"/>
+      <c r="G79" s="360"/>
     </row>
     <row r="80" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="356"/>
-      <c r="C80" s="356"/>
-      <c r="D80" s="356"/>
-      <c r="E80" s="356"/>
-      <c r="F80" s="356"/>
-      <c r="G80" s="356"/>
+      <c r="B80" s="360"/>
+      <c r="C80" s="360"/>
+      <c r="D80" s="360"/>
+      <c r="E80" s="360"/>
+      <c r="F80" s="360"/>
+      <c r="G80" s="360"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="42"/>
@@ -38806,25 +38818,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B76:G80"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B17:C17"/>
@@ -38841,6 +38834,25 @@
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B70:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38852,8 +38864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J156" sqref="J156"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119:H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38901,11 +38913,11 @@
     </row>
     <row r="2" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
+      <c r="B2" s="498"/>
+      <c r="C2" s="498"/>
+      <c r="D2" s="498"/>
+      <c r="E2" s="498"/>
+      <c r="F2" s="498"/>
       <c r="G2" s="254" t="s">
         <v>119</v>
       </c>
@@ -38918,11 +38930,11 @@
     </row>
     <row r="3" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="388"/>
-      <c r="C3" s="388"/>
-      <c r="D3" s="388"/>
-      <c r="E3" s="388"/>
-      <c r="F3" s="388"/>
+      <c r="B3" s="498"/>
+      <c r="C3" s="498"/>
+      <c r="D3" s="498"/>
+      <c r="E3" s="498"/>
+      <c r="F3" s="498"/>
       <c r="G3" s="254" t="s">
         <v>120</v>
       </c>
@@ -38935,11 +38947,11 @@
     </row>
     <row r="4" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="388"/>
-      <c r="C4" s="388"/>
-      <c r="D4" s="388"/>
-      <c r="E4" s="388"/>
-      <c r="F4" s="388"/>
+      <c r="B4" s="498"/>
+      <c r="C4" s="498"/>
+      <c r="D4" s="498"/>
+      <c r="E4" s="498"/>
+      <c r="F4" s="498"/>
       <c r="G4" s="254" t="s">
         <v>121</v>
       </c>
@@ -38952,11 +38964,11 @@
     </row>
     <row r="5" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="388"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
+      <c r="B5" s="498"/>
+      <c r="C5" s="498"/>
+      <c r="D5" s="498"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
       <c r="G5" s="254" t="s">
         <v>314</v>
       </c>
@@ -39037,15 +39049,15 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="335" t="s">
+      <c r="B8" s="341" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="335"/>
-      <c r="D8" s="335"/>
-      <c r="E8" s="335"/>
-      <c r="F8" s="335"/>
-      <c r="G8" s="335"/>
-      <c r="H8" s="335"/>
+      <c r="C8" s="341"/>
+      <c r="D8" s="341"/>
+      <c r="E8" s="341"/>
+      <c r="F8" s="341"/>
+      <c r="G8" s="341"/>
+      <c r="H8" s="341"/>
       <c r="I8" s="247" t="s">
         <v>310</v>
       </c>
@@ -39054,10 +39066,10 @@
       </c>
       <c r="K8" s="49"/>
       <c r="L8" s="253"/>
-      <c r="X8" s="335" t="s">
+      <c r="X8" s="341" t="s">
         <v>315</v>
       </c>
-      <c r="Y8" s="335"/>
+      <c r="Y8" s="341"/>
       <c r="Z8" s="116"/>
       <c r="AA8" s="13" t="s">
         <v>313</v>
@@ -39085,15 +39097,15 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="335" t="s">
+      <c r="B9" s="341" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="335"/>
-      <c r="D9" s="335"/>
-      <c r="E9" s="335"/>
-      <c r="F9" s="335"/>
-      <c r="G9" s="335"/>
-      <c r="H9" s="335"/>
+      <c r="C9" s="341"/>
+      <c r="D9" s="341"/>
+      <c r="E9" s="341"/>
+      <c r="F9" s="341"/>
+      <c r="G9" s="341"/>
+      <c r="H9" s="341"/>
       <c r="I9" s="247" t="s">
         <v>311</v>
       </c>
@@ -39102,10 +39114,10 @@
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="253"/>
-      <c r="X9" s="335" t="s">
+      <c r="X9" s="341" t="s">
         <v>316</v>
       </c>
-      <c r="Y9" s="335"/>
+      <c r="Y9" s="341"/>
       <c r="Z9" s="116"/>
       <c r="AA9" s="13" t="s">
         <v>326</v>
@@ -39137,15 +39149,15 @@
       </c>
     </row>
     <row r="10" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="335" t="s">
+      <c r="B10" s="341" t="s">
         <v>304</v>
       </c>
-      <c r="C10" s="335"/>
-      <c r="D10" s="335"/>
-      <c r="E10" s="335"/>
-      <c r="F10" s="335"/>
-      <c r="G10" s="335"/>
-      <c r="H10" s="335"/>
+      <c r="C10" s="341"/>
+      <c r="D10" s="341"/>
+      <c r="E10" s="341"/>
+      <c r="F10" s="341"/>
+      <c r="G10" s="341"/>
+      <c r="H10" s="341"/>
       <c r="I10" s="247" t="s">
         <v>305</v>
       </c>
@@ -39194,15 +39206,15 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="335" t="s">
+      <c r="B11" s="341" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="335"/>
-      <c r="D11" s="335"/>
-      <c r="E11" s="335"/>
-      <c r="F11" s="335"/>
-      <c r="G11" s="335"/>
-      <c r="H11" s="335"/>
+      <c r="C11" s="341"/>
+      <c r="D11" s="341"/>
+      <c r="E11" s="341"/>
+      <c r="F11" s="341"/>
+      <c r="G11" s="341"/>
+      <c r="H11" s="341"/>
       <c r="I11" s="247" t="s">
         <v>302</v>
       </c>
@@ -39247,15 +39259,15 @@
       </c>
     </row>
     <row r="12" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="335" t="s">
+      <c r="B12" s="341" t="s">
         <v>306</v>
       </c>
-      <c r="C12" s="335"/>
-      <c r="D12" s="335"/>
-      <c r="E12" s="335"/>
-      <c r="F12" s="335"/>
-      <c r="G12" s="335"/>
-      <c r="H12" s="335"/>
+      <c r="C12" s="341"/>
+      <c r="D12" s="341"/>
+      <c r="E12" s="341"/>
+      <c r="F12" s="341"/>
+      <c r="G12" s="341"/>
+      <c r="H12" s="341"/>
       <c r="I12" s="247" t="s">
         <v>346</v>
       </c>
@@ -39380,18 +39392,18 @@
       </c>
     </row>
     <row r="15" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="329" t="s">
+      <c r="B15" s="323" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="403"/>
-      <c r="D15" s="403"/>
-      <c r="E15" s="403"/>
-      <c r="F15" s="403"/>
-      <c r="G15" s="330"/>
-      <c r="H15" s="329" t="s">
+      <c r="C15" s="380"/>
+      <c r="D15" s="380"/>
+      <c r="E15" s="380"/>
+      <c r="F15" s="380"/>
+      <c r="G15" s="324"/>
+      <c r="H15" s="323" t="s">
         <v>313</v>
       </c>
-      <c r="I15" s="330"/>
+      <c r="I15" s="324"/>
       <c r="J15" s="208"/>
       <c r="K15" s="196"/>
       <c r="L15" s="249"/>
@@ -39424,19 +39436,19 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="329" t="s">
+      <c r="B16" s="323" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="403"/>
-      <c r="D16" s="403"/>
-      <c r="E16" s="403"/>
-      <c r="F16" s="403"/>
-      <c r="G16" s="330"/>
-      <c r="H16" s="329" t="str">
+      <c r="C16" s="380"/>
+      <c r="D16" s="380"/>
+      <c r="E16" s="380"/>
+      <c r="F16" s="380"/>
+      <c r="G16" s="324"/>
+      <c r="H16" s="323" t="str">
         <f>IF($H$15=$AA$8,$AA$9,IF($H$15=$AB$8,$AB$9,""))</f>
         <v>Arena</v>
       </c>
-      <c r="I16" s="330"/>
+      <c r="I16" s="324"/>
       <c r="J16" s="208"/>
       <c r="K16" s="196"/>
       <c r="L16" s="249"/>
@@ -39469,19 +39481,19 @@
       </c>
     </row>
     <row r="17" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="329" t="s">
+      <c r="B17" s="323" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="403"/>
-      <c r="D17" s="403"/>
-      <c r="E17" s="403"/>
-      <c r="F17" s="403"/>
-      <c r="G17" s="330"/>
-      <c r="H17" s="329" t="str">
+      <c r="C17" s="380"/>
+      <c r="D17" s="380"/>
+      <c r="E17" s="380"/>
+      <c r="F17" s="380"/>
+      <c r="G17" s="324"/>
+      <c r="H17" s="323" t="str">
         <f>IF($H$15=$AA$8,AA10,IF($H$15=$AB$8,AB10,""))</f>
         <v>Estratificado fino a grueso</v>
       </c>
-      <c r="I17" s="330"/>
+      <c r="I17" s="324"/>
       <c r="J17" s="208"/>
       <c r="K17" s="196"/>
       <c r="L17" s="249"/>
@@ -39507,18 +39519,18 @@
       <c r="AK17" s="217"/>
     </row>
     <row r="18" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="329" t="s">
+      <c r="B18" s="323" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="403"/>
-      <c r="D18" s="403"/>
-      <c r="E18" s="403"/>
-      <c r="F18" s="403"/>
-      <c r="G18" s="330"/>
-      <c r="H18" s="329" t="s">
+      <c r="C18" s="380"/>
+      <c r="D18" s="380"/>
+      <c r="E18" s="380"/>
+      <c r="F18" s="380"/>
+      <c r="G18" s="324"/>
+      <c r="H18" s="323" t="s">
         <v>328</v>
       </c>
-      <c r="I18" s="330"/>
+      <c r="I18" s="324"/>
       <c r="J18" s="208"/>
       <c r="K18" s="196"/>
       <c r="L18" s="249"/>
@@ -39540,19 +39552,19 @@
       <c r="AK18" s="217"/>
     </row>
     <row r="19" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="329" t="s">
+      <c r="B19" s="323" t="s">
         <v>357</v>
       </c>
-      <c r="C19" s="403"/>
-      <c r="D19" s="403"/>
-      <c r="E19" s="403"/>
-      <c r="F19" s="403"/>
-      <c r="G19" s="330"/>
-      <c r="H19" s="397">
+      <c r="C19" s="380"/>
+      <c r="D19" s="380"/>
+      <c r="E19" s="380"/>
+      <c r="F19" s="380"/>
+      <c r="G19" s="324"/>
+      <c r="H19" s="384">
         <f t="shared" ref="H19:H25" si="0">IF($H$15=$AA$8,AA11,IF($H$15=$AB$8,AB11,""))</f>
         <v>120</v>
       </c>
-      <c r="I19" s="398"/>
+      <c r="I19" s="385"/>
       <c r="J19" s="247" t="s">
         <v>4</v>
       </c>
@@ -39583,19 +39595,19 @@
       <c r="AK19" s="217"/>
     </row>
     <row r="20" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="430" t="s">
+      <c r="B20" s="381" t="s">
         <v>359</v>
       </c>
-      <c r="C20" s="431"/>
-      <c r="D20" s="431"/>
-      <c r="E20" s="431"/>
-      <c r="F20" s="431"/>
-      <c r="G20" s="432"/>
-      <c r="H20" s="397">
+      <c r="C20" s="382"/>
+      <c r="D20" s="382"/>
+      <c r="E20" s="382"/>
+      <c r="F20" s="382"/>
+      <c r="G20" s="383"/>
+      <c r="H20" s="384">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I20" s="398"/>
+      <c r="I20" s="385"/>
       <c r="J20" s="247" t="s">
         <v>4</v>
       </c>
@@ -39624,19 +39636,19 @@
       <c r="AK20" s="217"/>
     </row>
     <row r="21" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="329" t="s">
+      <c r="B21" s="323" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="403"/>
-      <c r="D21" s="403"/>
-      <c r="E21" s="403"/>
-      <c r="F21" s="403"/>
-      <c r="G21" s="330"/>
-      <c r="H21" s="397" t="str">
+      <c r="C21" s="380"/>
+      <c r="D21" s="380"/>
+      <c r="E21" s="380"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="324"/>
+      <c r="H21" s="384" t="str">
         <f t="shared" si="0"/>
         <v>12 - 36</v>
       </c>
-      <c r="I21" s="398"/>
+      <c r="I21" s="385"/>
       <c r="J21" s="266" t="s">
         <v>331</v>
       </c>
@@ -39663,19 +39675,19 @@
       <c r="AK21" s="217"/>
     </row>
     <row r="22" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="329" t="s">
+      <c r="B22" s="323" t="s">
         <v>319</v>
       </c>
-      <c r="C22" s="403"/>
-      <c r="D22" s="403"/>
-      <c r="E22" s="403"/>
-      <c r="F22" s="403"/>
-      <c r="G22" s="330"/>
-      <c r="H22" s="397">
+      <c r="C22" s="380"/>
+      <c r="D22" s="380"/>
+      <c r="E22" s="380"/>
+      <c r="F22" s="380"/>
+      <c r="G22" s="324"/>
+      <c r="H22" s="384">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="I22" s="398"/>
+      <c r="I22" s="385"/>
       <c r="J22" s="266" t="s">
         <v>3</v>
       </c>
@@ -39702,19 +39714,19 @@
       <c r="AK22" s="217"/>
     </row>
     <row r="23" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="329" t="s">
+      <c r="B23" s="323" t="s">
         <v>320</v>
       </c>
-      <c r="C23" s="403"/>
-      <c r="D23" s="403"/>
-      <c r="E23" s="403"/>
-      <c r="F23" s="403"/>
-      <c r="G23" s="330"/>
-      <c r="H23" s="397" t="str">
+      <c r="C23" s="380"/>
+      <c r="D23" s="380"/>
+      <c r="E23" s="380"/>
+      <c r="F23" s="380"/>
+      <c r="G23" s="324"/>
+      <c r="H23" s="384" t="str">
         <f t="shared" si="0"/>
         <v>2,4 - 3,0</v>
       </c>
-      <c r="I23" s="398"/>
+      <c r="I23" s="385"/>
       <c r="J23" s="266" t="s">
         <v>3</v>
       </c>
@@ -39739,19 +39751,19 @@
       <c r="AK23" s="217"/>
     </row>
     <row r="24" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="329" t="s">
+      <c r="B24" s="323" t="s">
         <v>330</v>
       </c>
-      <c r="C24" s="403"/>
-      <c r="D24" s="403"/>
-      <c r="E24" s="403"/>
-      <c r="F24" s="403"/>
-      <c r="G24" s="330"/>
-      <c r="H24" s="397" t="str">
+      <c r="C24" s="380"/>
+      <c r="D24" s="380"/>
+      <c r="E24" s="380"/>
+      <c r="F24" s="380"/>
+      <c r="G24" s="324"/>
+      <c r="H24" s="384" t="str">
         <f t="shared" si="0"/>
         <v>2 - 4</v>
       </c>
-      <c r="I24" s="398"/>
+      <c r="I24" s="385"/>
       <c r="J24" s="266" t="s">
         <v>332</v>
       </c>
@@ -39760,11 +39772,11 @@
       <c r="M24" s="236"/>
       <c r="N24" s="236"/>
       <c r="O24" s="236"/>
-      <c r="X24" s="503"/>
-      <c r="Y24" s="503"/>
+      <c r="X24" s="364"/>
+      <c r="Y24" s="364"/>
       <c r="Z24" s="207"/>
-      <c r="AA24" s="502"/>
-      <c r="AB24" s="502"/>
+      <c r="AA24" s="363"/>
+      <c r="AB24" s="363"/>
       <c r="AC24" s="113"/>
       <c r="AD24" s="217"/>
       <c r="AE24" s="217"/>
@@ -39776,20 +39788,20 @@
       <c r="AK24" s="217"/>
     </row>
     <row r="25" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="329" t="str">
+      <c r="B25" s="323" t="str">
         <f>IF($H$15=$AA$8,$X$17,IF($H$15=$AB$8,X17&amp;" (antracita)",IF($H$15="",X17&amp;" (antracita)")))</f>
         <v>Profundidad del medio</v>
       </c>
-      <c r="C25" s="403"/>
-      <c r="D25" s="403"/>
-      <c r="E25" s="403"/>
-      <c r="F25" s="403"/>
-      <c r="G25" s="330"/>
-      <c r="H25" s="397" t="str">
+      <c r="C25" s="380"/>
+      <c r="D25" s="380"/>
+      <c r="E25" s="380"/>
+      <c r="F25" s="380"/>
+      <c r="G25" s="324"/>
+      <c r="H25" s="384" t="str">
         <f t="shared" si="0"/>
         <v>0,60 - 0,75</v>
       </c>
-      <c r="I25" s="398"/>
+      <c r="I25" s="385"/>
       <c r="J25" s="266" t="s">
         <v>3</v>
       </c>
@@ -39798,11 +39810,11 @@
       <c r="M25" s="236"/>
       <c r="N25" s="236"/>
       <c r="O25" s="236"/>
-      <c r="X25" s="503"/>
-      <c r="Y25" s="503"/>
+      <c r="X25" s="364"/>
+      <c r="Y25" s="364"/>
       <c r="Z25" s="207"/>
-      <c r="AA25" s="502"/>
-      <c r="AB25" s="502"/>
+      <c r="AA25" s="363"/>
+      <c r="AB25" s="363"/>
       <c r="AC25" s="113"/>
       <c r="AD25" s="217"/>
       <c r="AE25" s="217"/>
@@ -39814,20 +39826,20 @@
       <c r="AK25" s="217"/>
     </row>
     <row r="26" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="329" t="str">
+      <c r="B26" s="323" t="str">
         <f>IF($H$15=$AA$8,$X$19,IF($H$15=$AB$8,X17&amp;" (arena)",IF($H$15="",X17&amp;" (arena)")))</f>
         <v>Profundidad de grava</v>
       </c>
-      <c r="C26" s="403"/>
-      <c r="D26" s="403"/>
-      <c r="E26" s="403"/>
-      <c r="F26" s="403"/>
-      <c r="G26" s="330"/>
-      <c r="H26" s="397" t="str">
+      <c r="C26" s="380"/>
+      <c r="D26" s="380"/>
+      <c r="E26" s="380"/>
+      <c r="F26" s="380"/>
+      <c r="G26" s="324"/>
+      <c r="H26" s="384" t="str">
         <f>IF($H$15=$AA$8,AA19,IF($H$15=$AB$8,AB18,""))</f>
         <v>0,30 - 0,45</v>
       </c>
-      <c r="I26" s="398"/>
+      <c r="I26" s="385"/>
       <c r="J26" s="266" t="s">
         <v>3</v>
       </c>
@@ -39836,11 +39848,11 @@
       <c r="M26" s="236"/>
       <c r="N26" s="236"/>
       <c r="O26" s="236"/>
-      <c r="X26" s="503"/>
-      <c r="Y26" s="503"/>
+      <c r="X26" s="364"/>
+      <c r="Y26" s="364"/>
       <c r="Z26" s="207"/>
-      <c r="AA26" s="502"/>
-      <c r="AB26" s="502"/>
+      <c r="AA26" s="363"/>
+      <c r="AB26" s="363"/>
       <c r="AD26" s="217"/>
       <c r="AE26" s="217"/>
       <c r="AF26" s="217"/>
@@ -39851,20 +39863,20 @@
       <c r="AK26" s="217"/>
     </row>
     <row r="27" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="329" t="str">
+      <c r="B27" s="323" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$X$19,IF($H$15="",$X$19)))</f>
         <v/>
       </c>
-      <c r="C27" s="403"/>
-      <c r="D27" s="403"/>
-      <c r="E27" s="403"/>
-      <c r="F27" s="403"/>
-      <c r="G27" s="403"/>
-      <c r="H27" s="397" t="str">
+      <c r="C27" s="380"/>
+      <c r="D27" s="380"/>
+      <c r="E27" s="380"/>
+      <c r="F27" s="380"/>
+      <c r="G27" s="380"/>
+      <c r="H27" s="384" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$AB$19,IF($H$15="","")))</f>
         <v/>
       </c>
-      <c r="I27" s="398"/>
+      <c r="I27" s="385"/>
       <c r="J27" s="267" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,"m",IF($H$15="","m")))</f>
         <v/>
@@ -39934,15 +39946,15 @@
       <c r="AB29" s="207"/>
     </row>
     <row r="30" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="335" t="s">
+      <c r="B30" s="341" t="s">
         <v>254</v>
       </c>
-      <c r="C30" s="335"/>
-      <c r="D30" s="335"/>
-      <c r="E30" s="335"/>
-      <c r="F30" s="335"/>
-      <c r="G30" s="335"/>
-      <c r="H30" s="335"/>
+      <c r="C30" s="341"/>
+      <c r="D30" s="341"/>
+      <c r="E30" s="341"/>
+      <c r="F30" s="341"/>
+      <c r="G30" s="341"/>
+      <c r="H30" s="341"/>
       <c r="I30" s="247" t="s">
         <v>251</v>
       </c>
@@ -39960,16 +39972,16 @@
       <c r="AB30" s="207"/>
     </row>
     <row r="31" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="335" t="str">
+      <c r="B31" s="341" t="str">
         <f>"Densidad del agua a "&amp;J30&amp;" °C"</f>
         <v>Densidad del agua a 3 °C</v>
       </c>
-      <c r="C31" s="335"/>
-      <c r="D31" s="335"/>
-      <c r="E31" s="335"/>
-      <c r="F31" s="335"/>
-      <c r="G31" s="335"/>
-      <c r="H31" s="335"/>
+      <c r="C31" s="341"/>
+      <c r="D31" s="341"/>
+      <c r="E31" s="341"/>
+      <c r="F31" s="341"/>
+      <c r="G31" s="341"/>
+      <c r="H31" s="341"/>
       <c r="I31" s="275" t="s">
         <v>250</v>
       </c>
@@ -39987,25 +39999,25 @@
       <c r="Y31" s="183" t="s">
         <v>312</v>
       </c>
-      <c r="Z31" s="484" t="s">
+      <c r="Z31" s="390" t="s">
         <v>248</v>
       </c>
-      <c r="AA31" s="484" t="s">
+      <c r="AA31" s="390" t="s">
         <v>246</v>
       </c>
       <c r="AB31" s="181"/>
     </row>
     <row r="32" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="335" t="str">
+      <c r="B32" s="341" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad dinámica del agua a 3 °C</v>
       </c>
-      <c r="C32" s="335"/>
-      <c r="D32" s="335"/>
-      <c r="E32" s="335"/>
-      <c r="F32" s="335"/>
-      <c r="G32" s="335"/>
-      <c r="H32" s="335"/>
+      <c r="C32" s="341"/>
+      <c r="D32" s="341"/>
+      <c r="E32" s="341"/>
+      <c r="F32" s="341"/>
+      <c r="G32" s="341"/>
+      <c r="H32" s="341"/>
       <c r="I32" s="275" t="s">
         <v>213</v>
       </c>
@@ -40023,21 +40035,21 @@
       <c r="Y32" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="Z32" s="485"/>
-      <c r="AA32" s="485"/>
+      <c r="Z32" s="391"/>
+      <c r="AA32" s="391"/>
       <c r="AB32" s="181"/>
     </row>
     <row r="33" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="399" t="str">
+      <c r="B33" s="500" t="str">
         <f>"Viscocidad cinemática del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad cinemática del agua a 3 °C</v>
       </c>
-      <c r="C33" s="399"/>
-      <c r="D33" s="399"/>
-      <c r="E33" s="399"/>
-      <c r="F33" s="399"/>
-      <c r="G33" s="399"/>
-      <c r="H33" s="399"/>
+      <c r="C33" s="500"/>
+      <c r="D33" s="500"/>
+      <c r="E33" s="500"/>
+      <c r="F33" s="500"/>
+      <c r="G33" s="500"/>
+      <c r="H33" s="500"/>
       <c r="I33" s="51" t="s">
         <v>2</v>
       </c>
@@ -40171,26 +40183,26 @@
       <c r="AB37" s="157"/>
     </row>
     <row r="38" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="411" t="s">
+      <c r="B38" s="473" t="s">
         <v>192</v>
       </c>
-      <c r="C38" s="412"/>
+      <c r="C38" s="474"/>
       <c r="D38" s="54"/>
       <c r="E38" s="248"/>
-      <c r="F38" s="395" t="s">
+      <c r="F38" s="367" t="s">
         <v>204</v>
       </c>
-      <c r="G38" s="395" t="s">
+      <c r="G38" s="367" t="s">
         <v>203</v>
       </c>
-      <c r="H38" s="457" t="s">
+      <c r="H38" s="436" t="s">
         <v>210</v>
       </c>
-      <c r="I38" s="458"/>
-      <c r="J38" s="457" t="s">
+      <c r="I38" s="437"/>
+      <c r="J38" s="436" t="s">
         <v>209</v>
       </c>
-      <c r="K38" s="458"/>
+      <c r="K38" s="437"/>
       <c r="L38" s="253"/>
       <c r="X38" s="165">
         <v>3</v>
@@ -40208,22 +40220,22 @@
       <c r="AB38" s="157"/>
     </row>
     <row r="39" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="413"/>
-      <c r="C39" s="414"/>
+      <c r="B39" s="475"/>
+      <c r="C39" s="476"/>
       <c r="D39" s="54"/>
       <c r="E39" s="248"/>
-      <c r="F39" s="417"/>
-      <c r="G39" s="417"/>
-      <c r="H39" s="395" t="s">
+      <c r="F39" s="368"/>
+      <c r="G39" s="368"/>
+      <c r="H39" s="367" t="s">
         <v>186</v>
       </c>
-      <c r="I39" s="395" t="s">
+      <c r="I39" s="367" t="s">
         <v>207</v>
       </c>
-      <c r="J39" s="395" t="s">
+      <c r="J39" s="367" t="s">
         <v>186</v>
       </c>
-      <c r="K39" s="395" t="s">
+      <c r="K39" s="367" t="s">
         <v>207</v>
       </c>
       <c r="L39" s="253"/>
@@ -40243,16 +40255,16 @@
       <c r="AB39" s="157"/>
     </row>
     <row r="40" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="413"/>
-      <c r="C40" s="414"/>
+      <c r="B40" s="475"/>
+      <c r="C40" s="476"/>
       <c r="D40" s="54"/>
       <c r="E40" s="248"/>
-      <c r="F40" s="417"/>
-      <c r="G40" s="417"/>
-      <c r="H40" s="417"/>
-      <c r="I40" s="417"/>
-      <c r="J40" s="417"/>
-      <c r="K40" s="417"/>
+      <c r="F40" s="368"/>
+      <c r="G40" s="368"/>
+      <c r="H40" s="368"/>
+      <c r="I40" s="368"/>
+      <c r="J40" s="368"/>
+      <c r="K40" s="368"/>
       <c r="L40" s="253"/>
       <c r="X40" s="165">
         <v>5</v>
@@ -40270,16 +40282,16 @@
       <c r="AB40" s="157"/>
     </row>
     <row r="41" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="415"/>
-      <c r="C41" s="416"/>
+      <c r="B41" s="477"/>
+      <c r="C41" s="478"/>
       <c r="D41" s="54"/>
       <c r="E41" s="248"/>
-      <c r="F41" s="396"/>
-      <c r="G41" s="396"/>
-      <c r="H41" s="396"/>
-      <c r="I41" s="396"/>
-      <c r="J41" s="396"/>
-      <c r="K41" s="396"/>
+      <c r="F41" s="369"/>
+      <c r="G41" s="369"/>
+      <c r="H41" s="369"/>
+      <c r="I41" s="369"/>
+      <c r="J41" s="369"/>
+      <c r="K41" s="369"/>
       <c r="L41" s="253"/>
       <c r="X41" s="165">
         <v>6</v>
@@ -40297,10 +40309,10 @@
       <c r="AB41" s="157"/>
     </row>
     <row r="42" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="397" t="s">
+      <c r="B42" s="384" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="398"/>
+      <c r="C42" s="385"/>
       <c r="D42" s="128">
         <f>LEFT(B42,2)+0</f>
         <v>14</v>
@@ -40351,10 +40363,10 @@
       <c r="AB42" s="157"/>
     </row>
     <row r="43" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="397" t="s">
+      <c r="B43" s="384" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="398"/>
+      <c r="C43" s="385"/>
       <c r="D43" s="128">
         <f t="shared" ref="D43:D50" si="3">LEFT(B43,2)+0</f>
         <v>20</v>
@@ -40405,10 +40417,10 @@
       <c r="AB43" s="157"/>
     </row>
     <row r="44" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="397" t="s">
+      <c r="B44" s="384" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="398"/>
+      <c r="C44" s="385"/>
       <c r="D44" s="128">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -40459,10 +40471,10 @@
       <c r="AB44" s="157"/>
     </row>
     <row r="45" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="397" t="s">
+      <c r="B45" s="384" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="398"/>
+      <c r="C45" s="385"/>
       <c r="D45" s="128">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -40513,10 +40525,10 @@
       <c r="AB45" s="157"/>
     </row>
     <row r="46" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="397" t="s">
+      <c r="B46" s="384" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="398"/>
+      <c r="C46" s="385"/>
       <c r="D46" s="128">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -40567,10 +40579,10 @@
       <c r="AB46" s="157"/>
     </row>
     <row r="47" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="397" t="s">
+      <c r="B47" s="384" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="398"/>
+      <c r="C47" s="385"/>
       <c r="D47" s="128">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -40621,10 +40633,10 @@
       <c r="AB47" s="157"/>
     </row>
     <row r="48" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="397" t="s">
+      <c r="B48" s="384" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="398"/>
+      <c r="C48" s="385"/>
       <c r="D48" s="128">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -40675,10 +40687,10 @@
       <c r="AB48" s="157"/>
     </row>
     <row r="49" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="397" t="s">
+      <c r="B49" s="384" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="398"/>
+      <c r="C49" s="385"/>
       <c r="D49" s="128">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -40729,10 +40741,10 @@
       <c r="AB49" s="157"/>
     </row>
     <row r="50" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="397" t="s">
+      <c r="B50" s="384" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="398"/>
+      <c r="C50" s="385"/>
       <c r="D50" s="128">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -40837,20 +40849,20 @@
       <c r="AB52" s="157"/>
     </row>
     <row r="53" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="406"/>
-      <c r="C53" s="406"/>
+      <c r="B53" s="451"/>
+      <c r="C53" s="451"/>
       <c r="D53" s="54"/>
       <c r="E53" s="248"/>
-      <c r="F53" s="394" t="s">
+      <c r="F53" s="472" t="s">
         <v>186</v>
       </c>
-      <c r="G53" s="394" t="s">
+      <c r="G53" s="472" t="s">
         <v>207</v>
       </c>
-      <c r="H53" s="405"/>
-      <c r="I53" s="405"/>
-      <c r="J53" s="405"/>
-      <c r="K53" s="404" t="s">
+      <c r="H53" s="452"/>
+      <c r="I53" s="452"/>
+      <c r="J53" s="452"/>
+      <c r="K53" s="453" t="s">
         <v>349</v>
       </c>
       <c r="L53" s="253"/>
@@ -40870,16 +40882,16 @@
       <c r="AB53" s="157"/>
     </row>
     <row r="54" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="406"/>
-      <c r="C54" s="406"/>
+      <c r="B54" s="451"/>
+      <c r="C54" s="451"/>
       <c r="D54" s="54"/>
       <c r="E54" s="248"/>
-      <c r="F54" s="394"/>
-      <c r="G54" s="394"/>
-      <c r="H54" s="405"/>
-      <c r="I54" s="405"/>
-      <c r="J54" s="405"/>
-      <c r="K54" s="404"/>
+      <c r="F54" s="472"/>
+      <c r="G54" s="472"/>
+      <c r="H54" s="452"/>
+      <c r="I54" s="452"/>
+      <c r="J54" s="452"/>
+      <c r="K54" s="453"/>
       <c r="L54" s="253"/>
       <c r="X54" s="165">
         <v>19</v>
@@ -40898,16 +40910,16 @@
       <c r="AD54" s="172"/>
     </row>
     <row r="55" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="406"/>
-      <c r="C55" s="406"/>
+      <c r="B55" s="451"/>
+      <c r="C55" s="451"/>
       <c r="D55" s="54"/>
       <c r="E55" s="248"/>
-      <c r="F55" s="394"/>
-      <c r="G55" s="394"/>
-      <c r="H55" s="405"/>
-      <c r="I55" s="405"/>
-      <c r="J55" s="405"/>
-      <c r="K55" s="404"/>
+      <c r="F55" s="472"/>
+      <c r="G55" s="472"/>
+      <c r="H55" s="452"/>
+      <c r="I55" s="452"/>
+      <c r="J55" s="452"/>
+      <c r="K55" s="453"/>
       <c r="L55" s="253"/>
       <c r="X55" s="167">
         <v>20</v>
@@ -40926,10 +40938,10 @@
       <c r="AD55" s="172"/>
     </row>
     <row r="56" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="405" t="s">
+      <c r="B56" s="452" t="s">
         <v>350</v>
       </c>
-      <c r="C56" s="405"/>
+      <c r="C56" s="452"/>
       <c r="D56" s="54"/>
       <c r="E56" s="248"/>
       <c r="F56" s="114">
@@ -40940,13 +40952,13 @@
         <f>VLOOKUP(F56,J$42:K$50,2,FALSE)</f>
         <v>2.0699999999999932</v>
       </c>
-      <c r="H56" s="406">
+      <c r="H56" s="451">
         <f>(LOG(F56)+((10-G56)/(G57-G56))*LOG(F57/F56))</f>
         <v>-0.61321454811239473</v>
       </c>
-      <c r="I56" s="406"/>
-      <c r="J56" s="406"/>
-      <c r="K56" s="405">
+      <c r="I56" s="451"/>
+      <c r="J56" s="451"/>
+      <c r="K56" s="452">
         <f>10^(H56)</f>
         <v>0.2436606799987964</v>
       </c>
@@ -40967,10 +40979,10 @@
       <c r="AB56" s="157"/>
     </row>
     <row r="57" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="405" t="s">
+      <c r="B57" s="452" t="s">
         <v>351</v>
       </c>
-      <c r="C57" s="405"/>
+      <c r="C57" s="452"/>
       <c r="D57" s="54"/>
       <c r="E57" s="248"/>
       <c r="F57" s="114">
@@ -40981,10 +40993,10 @@
         <f>VLOOKUP(F57,J$42:K$50,2,FALSE)</f>
         <v>11.36999999999999</v>
       </c>
-      <c r="H57" s="406"/>
-      <c r="I57" s="406"/>
-      <c r="J57" s="406"/>
-      <c r="K57" s="405"/>
+      <c r="H57" s="451"/>
+      <c r="I57" s="451"/>
+      <c r="J57" s="451"/>
+      <c r="K57" s="452"/>
       <c r="L57" s="253"/>
       <c r="X57" s="165">
         <v>22</v>
@@ -41058,20 +41070,20 @@
       <c r="AB59" s="157"/>
     </row>
     <row r="60" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="406"/>
-      <c r="C60" s="406"/>
+      <c r="B60" s="451"/>
+      <c r="C60" s="451"/>
       <c r="D60" s="54"/>
       <c r="E60" s="248"/>
-      <c r="F60" s="394" t="s">
+      <c r="F60" s="472" t="s">
         <v>186</v>
       </c>
-      <c r="G60" s="394" t="s">
+      <c r="G60" s="472" t="s">
         <v>207</v>
       </c>
-      <c r="H60" s="405"/>
-      <c r="I60" s="405"/>
-      <c r="J60" s="405"/>
-      <c r="K60" s="404" t="s">
+      <c r="H60" s="452"/>
+      <c r="I60" s="452"/>
+      <c r="J60" s="452"/>
+      <c r="K60" s="453" t="s">
         <v>353</v>
       </c>
       <c r="L60" s="253"/>
@@ -41091,16 +41103,16 @@
       <c r="AB60" s="157"/>
     </row>
     <row r="61" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="406"/>
-      <c r="C61" s="406"/>
+      <c r="B61" s="451"/>
+      <c r="C61" s="451"/>
       <c r="D61" s="54"/>
       <c r="E61" s="248"/>
-      <c r="F61" s="394"/>
-      <c r="G61" s="394"/>
-      <c r="H61" s="405"/>
-      <c r="I61" s="405"/>
-      <c r="J61" s="405"/>
-      <c r="K61" s="404"/>
+      <c r="F61" s="472"/>
+      <c r="G61" s="472"/>
+      <c r="H61" s="452"/>
+      <c r="I61" s="452"/>
+      <c r="J61" s="452"/>
+      <c r="K61" s="453"/>
       <c r="L61" s="253"/>
       <c r="X61" s="165">
         <v>26</v>
@@ -41118,16 +41130,16 @@
       <c r="AB61" s="157"/>
     </row>
     <row r="62" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="406"/>
-      <c r="C62" s="406"/>
+      <c r="B62" s="451"/>
+      <c r="C62" s="451"/>
       <c r="D62" s="54"/>
       <c r="E62" s="248"/>
-      <c r="F62" s="394"/>
-      <c r="G62" s="394"/>
-      <c r="H62" s="405"/>
-      <c r="I62" s="405"/>
-      <c r="J62" s="405"/>
-      <c r="K62" s="404"/>
+      <c r="F62" s="472"/>
+      <c r="G62" s="472"/>
+      <c r="H62" s="452"/>
+      <c r="I62" s="452"/>
+      <c r="J62" s="452"/>
+      <c r="K62" s="453"/>
       <c r="L62" s="253"/>
       <c r="X62" s="165">
         <v>27</v>
@@ -41145,10 +41157,10 @@
       <c r="AB62" s="157"/>
     </row>
     <row r="63" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="405" t="s">
+      <c r="B63" s="452" t="s">
         <v>350</v>
       </c>
-      <c r="C63" s="405"/>
+      <c r="C63" s="452"/>
       <c r="D63" s="54"/>
       <c r="E63" s="248"/>
       <c r="F63" s="114">
@@ -41159,13 +41171,13 @@
         <f>VLOOKUP(F63,J$42:K$50,2,FALSE)</f>
         <v>45.269999999999996</v>
       </c>
-      <c r="H63" s="406">
+      <c r="H63" s="451">
         <f>(LOG(F63)+((60-G63)/(G64-G63))*LOG(F64/F63))</f>
         <v>-0.31867934839393264</v>
       </c>
-      <c r="I63" s="406"/>
-      <c r="J63" s="406"/>
-      <c r="K63" s="405">
+      <c r="I63" s="451"/>
+      <c r="J63" s="451"/>
+      <c r="K63" s="452">
         <f>10^(H63)</f>
         <v>0.48008777987655482</v>
       </c>
@@ -41186,10 +41198,10 @@
       <c r="AB63" s="157"/>
     </row>
     <row r="64" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="405" t="s">
+      <c r="B64" s="452" t="s">
         <v>351</v>
       </c>
-      <c r="C64" s="405"/>
+      <c r="C64" s="452"/>
       <c r="D64" s="54"/>
       <c r="E64" s="248"/>
       <c r="F64" s="114">
@@ -41200,10 +41212,10 @@
         <f>VLOOKUP(F64,J$42:K$50,2,FALSE)</f>
         <v>63.28</v>
       </c>
-      <c r="H64" s="406"/>
-      <c r="I64" s="406"/>
-      <c r="J64" s="406"/>
-      <c r="K64" s="405"/>
+      <c r="H64" s="451"/>
+      <c r="I64" s="451"/>
+      <c r="J64" s="451"/>
+      <c r="K64" s="452"/>
       <c r="L64" s="253"/>
       <c r="X64" s="165">
         <v>29</v>
@@ -41277,19 +41289,19 @@
       <c r="AB66" s="157"/>
     </row>
     <row r="67" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="411" t="s">
+      <c r="B67" s="473" t="s">
         <v>354</v>
       </c>
-      <c r="C67" s="412"/>
+      <c r="C67" s="474"/>
       <c r="D67" s="54"/>
       <c r="E67" s="248"/>
-      <c r="F67" s="411" t="s">
+      <c r="F67" s="473" t="s">
         <v>353</v>
       </c>
-      <c r="G67" s="433" t="s">
+      <c r="G67" s="496" t="s">
         <v>211</v>
       </c>
-      <c r="H67" s="433"/>
+      <c r="H67" s="496"/>
       <c r="I67" s="249"/>
       <c r="J67" s="249"/>
       <c r="K67" s="135"/>
@@ -41310,13 +41322,13 @@
       <c r="AB67" s="157"/>
     </row>
     <row r="68" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="413"/>
-      <c r="C68" s="414"/>
+      <c r="B68" s="475"/>
+      <c r="C68" s="476"/>
       <c r="D68" s="54"/>
       <c r="E68" s="248"/>
-      <c r="F68" s="413"/>
-      <c r="G68" s="433"/>
-      <c r="H68" s="433"/>
+      <c r="F68" s="475"/>
+      <c r="G68" s="496"/>
+      <c r="H68" s="496"/>
       <c r="I68" s="249"/>
       <c r="J68" s="249"/>
       <c r="K68" s="135"/>
@@ -41338,13 +41350,13 @@
       <c r="AB68" s="157"/>
     </row>
     <row r="69" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="415"/>
-      <c r="C69" s="416"/>
+      <c r="B69" s="477"/>
+      <c r="C69" s="478"/>
       <c r="D69" s="54"/>
       <c r="E69" s="248"/>
-      <c r="F69" s="415"/>
-      <c r="G69" s="433"/>
-      <c r="H69" s="433"/>
+      <c r="F69" s="477"/>
+      <c r="G69" s="496"/>
+      <c r="H69" s="496"/>
       <c r="I69" s="249"/>
       <c r="J69" s="249"/>
       <c r="K69" s="135"/>
@@ -41366,22 +41378,22 @@
       <c r="AB69" s="157"/>
     </row>
     <row r="70" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="405">
+      <c r="B70" s="452">
         <f>K56</f>
         <v>0.2436606799987964</v>
       </c>
-      <c r="C70" s="405"/>
+      <c r="C70" s="452"/>
       <c r="D70" s="54"/>
       <c r="E70" s="248"/>
       <c r="F70" s="114">
         <f>K63</f>
         <v>0.48008777987655482</v>
       </c>
-      <c r="G70" s="434">
+      <c r="G70" s="497">
         <f>F70/B70</f>
         <v>1.9703128952891631</v>
       </c>
-      <c r="H70" s="434"/>
+      <c r="H70" s="497"/>
       <c r="I70" s="249"/>
       <c r="J70" s="249"/>
       <c r="K70" s="135"/>
@@ -41424,15 +41436,15 @@
       <c r="AB72" s="157"/>
     </row>
     <row r="73" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="389" t="s">
+      <c r="B73" s="469" t="s">
         <v>358</v>
       </c>
-      <c r="C73" s="390"/>
-      <c r="D73" s="390"/>
-      <c r="E73" s="390"/>
-      <c r="F73" s="390"/>
-      <c r="G73" s="390"/>
-      <c r="H73" s="391"/>
+      <c r="C73" s="470"/>
+      <c r="D73" s="470"/>
+      <c r="E73" s="470"/>
+      <c r="F73" s="470"/>
+      <c r="G73" s="470"/>
+      <c r="H73" s="471"/>
       <c r="I73" s="206" t="s">
         <v>181</v>
       </c>
@@ -41454,15 +41466,15 @@
       <c r="AA73" s="113"/>
     </row>
     <row r="74" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="389" t="s">
+      <c r="B74" s="469" t="s">
         <v>287</v>
       </c>
-      <c r="C74" s="390"/>
-      <c r="D74" s="390"/>
-      <c r="E74" s="390"/>
-      <c r="F74" s="390"/>
-      <c r="G74" s="390"/>
-      <c r="H74" s="391"/>
+      <c r="C74" s="470"/>
+      <c r="D74" s="470"/>
+      <c r="E74" s="470"/>
+      <c r="F74" s="470"/>
+      <c r="G74" s="470"/>
+      <c r="H74" s="471"/>
       <c r="I74" s="251" t="s">
         <v>88</v>
       </c>
@@ -41480,15 +41492,15 @@
       <c r="AA74" s="113"/>
     </row>
     <row r="75" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="389" t="s">
+      <c r="B75" s="469" t="s">
         <v>283</v>
       </c>
-      <c r="C75" s="390"/>
-      <c r="D75" s="390"/>
-      <c r="E75" s="390"/>
-      <c r="F75" s="390"/>
-      <c r="G75" s="390"/>
-      <c r="H75" s="391"/>
+      <c r="C75" s="470"/>
+      <c r="D75" s="470"/>
+      <c r="E75" s="470"/>
+      <c r="F75" s="470"/>
+      <c r="G75" s="470"/>
+      <c r="H75" s="471"/>
       <c r="I75" s="251" t="s">
         <v>284</v>
       </c>
@@ -41504,15 +41516,15 @@
       <c r="AA75" s="113"/>
     </row>
     <row r="76" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="389" t="s">
+      <c r="B76" s="469" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="390"/>
-      <c r="D76" s="390"/>
-      <c r="E76" s="390"/>
-      <c r="F76" s="390"/>
-      <c r="G76" s="390"/>
-      <c r="H76" s="391"/>
+      <c r="C76" s="470"/>
+      <c r="D76" s="470"/>
+      <c r="E76" s="470"/>
+      <c r="F76" s="470"/>
+      <c r="G76" s="470"/>
+      <c r="H76" s="471"/>
       <c r="I76" s="251" t="s">
         <v>240</v>
       </c>
@@ -41528,15 +41540,15 @@
       <c r="AA76" s="113"/>
     </row>
     <row r="77" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="389" t="s">
+      <c r="B77" s="469" t="s">
         <v>190</v>
       </c>
-      <c r="C77" s="390"/>
-      <c r="D77" s="390"/>
-      <c r="E77" s="390"/>
-      <c r="F77" s="390"/>
-      <c r="G77" s="390"/>
-      <c r="H77" s="391"/>
+      <c r="C77" s="470"/>
+      <c r="D77" s="470"/>
+      <c r="E77" s="470"/>
+      <c r="F77" s="470"/>
+      <c r="G77" s="470"/>
+      <c r="H77" s="471"/>
       <c r="I77" s="251" t="s">
         <v>191</v>
       </c>
@@ -41552,15 +41564,15 @@
       <c r="AA77" s="113"/>
     </row>
     <row r="78" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="389" t="s">
+      <c r="B78" s="469" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="390"/>
-      <c r="D78" s="390"/>
-      <c r="E78" s="390"/>
-      <c r="F78" s="390"/>
-      <c r="G78" s="390"/>
-      <c r="H78" s="391"/>
+      <c r="C78" s="470"/>
+      <c r="D78" s="470"/>
+      <c r="E78" s="470"/>
+      <c r="F78" s="470"/>
+      <c r="G78" s="470"/>
+      <c r="H78" s="471"/>
       <c r="I78" s="252" t="s">
         <v>189</v>
       </c>
@@ -41576,15 +41588,15 @@
       <c r="AA78" s="113"/>
     </row>
     <row r="79" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="389" t="s">
+      <c r="B79" s="469" t="s">
         <v>230</v>
       </c>
-      <c r="C79" s="390"/>
-      <c r="D79" s="390"/>
-      <c r="E79" s="390"/>
-      <c r="F79" s="390"/>
-      <c r="G79" s="390"/>
-      <c r="H79" s="391"/>
+      <c r="C79" s="470"/>
+      <c r="D79" s="470"/>
+      <c r="E79" s="470"/>
+      <c r="F79" s="470"/>
+      <c r="G79" s="470"/>
+      <c r="H79" s="471"/>
       <c r="I79" s="252" t="s">
         <v>189</v>
       </c>
@@ -41600,15 +41612,15 @@
       <c r="AA79" s="113"/>
     </row>
     <row r="80" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="389" t="s">
+      <c r="B80" s="469" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="390"/>
-      <c r="D80" s="390"/>
-      <c r="E80" s="390"/>
-      <c r="F80" s="390"/>
-      <c r="G80" s="390"/>
-      <c r="H80" s="391"/>
+      <c r="C80" s="470"/>
+      <c r="D80" s="470"/>
+      <c r="E80" s="470"/>
+      <c r="F80" s="470"/>
+      <c r="G80" s="470"/>
+      <c r="H80" s="471"/>
       <c r="I80" s="151" t="s">
         <v>238</v>
       </c>
@@ -41690,139 +41702,139 @@
       <c r="Z83" s="109"/>
     </row>
     <row r="84" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="411" t="s">
+      <c r="B84" s="473" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="412"/>
-      <c r="D84" s="394"/>
-      <c r="E84" s="395"/>
-      <c r="F84" s="395" t="s">
+      <c r="C84" s="474"/>
+      <c r="D84" s="472"/>
+      <c r="E84" s="367"/>
+      <c r="F84" s="367" t="s">
         <v>204</v>
       </c>
-      <c r="G84" s="395" t="s">
+      <c r="G84" s="367" t="s">
         <v>205</v>
       </c>
-      <c r="H84" s="395" t="s">
+      <c r="H84" s="367" t="s">
         <v>206</v>
       </c>
-      <c r="I84" s="418" t="s">
+      <c r="I84" s="484" t="s">
         <v>208</v>
       </c>
-      <c r="J84" s="400" t="s">
+      <c r="J84" s="501" t="s">
         <v>182</v>
       </c>
-      <c r="K84" s="401"/>
-      <c r="L84" s="401"/>
-      <c r="M84" s="402"/>
-      <c r="N84" s="468" t="s">
+      <c r="K84" s="502"/>
+      <c r="L84" s="502"/>
+      <c r="M84" s="503"/>
+      <c r="N84" s="447" t="s">
         <v>183</v>
       </c>
-      <c r="O84" s="469"/>
-      <c r="P84" s="469"/>
-      <c r="Q84" s="469"/>
-      <c r="R84" s="470"/>
-      <c r="S84" s="508" t="s">
+      <c r="O84" s="448"/>
+      <c r="P84" s="448"/>
+      <c r="Q84" s="448"/>
+      <c r="R84" s="449"/>
+      <c r="S84" s="373" t="s">
         <v>184</v>
       </c>
-      <c r="T84" s="508"/>
-      <c r="U84" s="508"/>
-      <c r="V84" s="508"/>
+      <c r="T84" s="373"/>
+      <c r="U84" s="373"/>
+      <c r="V84" s="373"/>
       <c r="W84" s="112"/>
-      <c r="X84" s="395" t="s">
+      <c r="X84" s="367" t="s">
         <v>185</v>
       </c>
-      <c r="Y84" s="395" t="s">
+      <c r="Y84" s="367" t="s">
         <v>186</v>
       </c>
       <c r="Z84" s="109"/>
     </row>
     <row r="85" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="413"/>
-      <c r="C85" s="414"/>
-      <c r="D85" s="394"/>
-      <c r="E85" s="396"/>
-      <c r="F85" s="417"/>
-      <c r="G85" s="417"/>
-      <c r="H85" s="417"/>
-      <c r="I85" s="419"/>
-      <c r="J85" s="444" t="s">
+      <c r="B85" s="475"/>
+      <c r="C85" s="476"/>
+      <c r="D85" s="472"/>
+      <c r="E85" s="369"/>
+      <c r="F85" s="368"/>
+      <c r="G85" s="368"/>
+      <c r="H85" s="368"/>
+      <c r="I85" s="485"/>
+      <c r="J85" s="377" t="s">
         <v>187</v>
       </c>
-      <c r="K85" s="459"/>
-      <c r="L85" s="465"/>
-      <c r="M85" s="460"/>
-      <c r="N85" s="471"/>
-      <c r="O85" s="459"/>
-      <c r="P85" s="460"/>
-      <c r="Q85" s="444" t="s">
+      <c r="K85" s="438"/>
+      <c r="L85" s="444"/>
+      <c r="M85" s="439"/>
+      <c r="N85" s="450"/>
+      <c r="O85" s="438"/>
+      <c r="P85" s="439"/>
+      <c r="Q85" s="377" t="s">
         <v>188</v>
       </c>
-      <c r="R85" s="472"/>
-      <c r="S85" s="472"/>
-      <c r="T85" s="472"/>
-      <c r="U85" s="444" t="s">
+      <c r="R85" s="374"/>
+      <c r="S85" s="374"/>
+      <c r="T85" s="374"/>
+      <c r="U85" s="377" t="s">
         <v>188</v>
       </c>
-      <c r="V85" s="472"/>
-      <c r="X85" s="417"/>
-      <c r="Y85" s="417"/>
+      <c r="V85" s="374"/>
+      <c r="X85" s="368"/>
+      <c r="Y85" s="368"/>
     </row>
     <row r="86" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="413"/>
-      <c r="C86" s="414"/>
+      <c r="B86" s="475"/>
+      <c r="C86" s="476"/>
       <c r="D86" s="123"/>
       <c r="E86" s="124"/>
-      <c r="F86" s="417"/>
-      <c r="G86" s="417"/>
-      <c r="H86" s="417"/>
-      <c r="I86" s="419"/>
-      <c r="J86" s="445"/>
-      <c r="K86" s="461"/>
-      <c r="L86" s="466"/>
-      <c r="M86" s="462"/>
-      <c r="N86" s="471"/>
-      <c r="O86" s="461"/>
-      <c r="P86" s="462"/>
-      <c r="Q86" s="445"/>
-      <c r="R86" s="473"/>
-      <c r="S86" s="473"/>
-      <c r="T86" s="473"/>
-      <c r="U86" s="445"/>
-      <c r="V86" s="473"/>
-      <c r="X86" s="417"/>
-      <c r="Y86" s="417"/>
+      <c r="F86" s="368"/>
+      <c r="G86" s="368"/>
+      <c r="H86" s="368"/>
+      <c r="I86" s="485"/>
+      <c r="J86" s="378"/>
+      <c r="K86" s="440"/>
+      <c r="L86" s="445"/>
+      <c r="M86" s="441"/>
+      <c r="N86" s="450"/>
+      <c r="O86" s="440"/>
+      <c r="P86" s="441"/>
+      <c r="Q86" s="378"/>
+      <c r="R86" s="375"/>
+      <c r="S86" s="375"/>
+      <c r="T86" s="375"/>
+      <c r="U86" s="378"/>
+      <c r="V86" s="375"/>
+      <c r="X86" s="368"/>
+      <c r="Y86" s="368"/>
     </row>
     <row r="87" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="415"/>
-      <c r="C87" s="416"/>
+      <c r="B87" s="477"/>
+      <c r="C87" s="478"/>
       <c r="D87" s="123"/>
       <c r="E87" s="124"/>
-      <c r="F87" s="396"/>
-      <c r="G87" s="396"/>
-      <c r="H87" s="396"/>
-      <c r="I87" s="420"/>
-      <c r="J87" s="446"/>
-      <c r="K87" s="463"/>
-      <c r="L87" s="467"/>
-      <c r="M87" s="464"/>
-      <c r="N87" s="471"/>
-      <c r="O87" s="463"/>
-      <c r="P87" s="464"/>
-      <c r="Q87" s="446"/>
-      <c r="R87" s="474"/>
-      <c r="S87" s="474"/>
-      <c r="T87" s="474"/>
-      <c r="U87" s="446"/>
-      <c r="V87" s="474"/>
-      <c r="X87" s="396"/>
-      <c r="Y87" s="396"/>
+      <c r="F87" s="369"/>
+      <c r="G87" s="369"/>
+      <c r="H87" s="369"/>
+      <c r="I87" s="486"/>
+      <c r="J87" s="379"/>
+      <c r="K87" s="442"/>
+      <c r="L87" s="446"/>
+      <c r="M87" s="443"/>
+      <c r="N87" s="450"/>
+      <c r="O87" s="442"/>
+      <c r="P87" s="443"/>
+      <c r="Q87" s="379"/>
+      <c r="R87" s="376"/>
+      <c r="S87" s="376"/>
+      <c r="T87" s="376"/>
+      <c r="U87" s="379"/>
+      <c r="V87" s="376"/>
+      <c r="X87" s="369"/>
+      <c r="Y87" s="369"/>
     </row>
     <row r="88" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="397" t="str">
+      <c r="B88" s="384" t="str">
         <f t="shared" ref="B88:B96" si="6">B42</f>
         <v>14-20</v>
       </c>
-      <c r="C88" s="398"/>
+      <c r="C88" s="385"/>
       <c r="D88" s="128">
         <f>LEFT(B88,2)+0</f>
         <v>14</v>
@@ -41851,26 +41863,26 @@
         <f t="shared" ref="J88:J96" si="10">(F88/100)/((I88/1000)^2)</f>
         <v>6746.44335939147</v>
       </c>
-      <c r="K88" s="421" t="str">
+      <c r="K88" s="487" t="str">
         <f>ROUND((J77*J33*((1-J76)^2)/(J76^3)*(J74*(J73/3600))/9.806*((6/J78)^2)*J97),4)&amp;" m"</f>
         <v>1.1339 m</v>
       </c>
-      <c r="L88" s="422"/>
-      <c r="M88" s="423"/>
+      <c r="L88" s="488"/>
+      <c r="M88" s="489"/>
       <c r="N88" s="103">
         <f t="shared" ref="N88:N96" si="11">$J$79*(I88/1000)*($J$73/3600)/$J$33</f>
         <v>0.99256086514638053</v>
       </c>
-      <c r="O88" s="455">
+      <c r="O88" s="416">
         <f>150*(1-$J$76)/N88+1.75</f>
         <v>84.868328454178069</v>
       </c>
-      <c r="P88" s="456"/>
+      <c r="P88" s="417"/>
       <c r="Q88" s="116">
         <f t="shared" ref="Q88:Q96" si="12">O88*(F88/100)/(I88/1000)</f>
         <v>623.48797422856558</v>
       </c>
-      <c r="R88" s="504" t="str">
+      <c r="R88" s="365" t="str">
         <f>ROUND((1/J79*(1-J76)/(J76^3)*J74*((J73/3600)^2)/9.806*Q97),4)&amp; " m"</f>
         <v>0.951 m</v>
       </c>
@@ -41886,7 +41898,7 @@
         <f t="shared" ref="U88:U96" si="14">T88*(F88/100)/(I88/1000)</f>
         <v>173.88585816662274</v>
       </c>
-      <c r="V88" s="504" t="str">
+      <c r="V88" s="365" t="str">
         <f>ROUND((0.178*((J73/3600)^2)*J74*1/(9.806*(J76^4))*J80*U97),4)&amp;" m"</f>
         <v>0.9548 m</v>
       </c>
@@ -41901,11 +41913,11 @@
       <c r="AM88" s="155"/>
     </row>
     <row r="89" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="397" t="str">
+      <c r="B89" s="384" t="str">
         <f t="shared" si="6"/>
         <v>20-25</v>
       </c>
-      <c r="C89" s="398"/>
+      <c r="C89" s="385"/>
       <c r="D89" s="128">
         <f t="shared" ref="D89:D96" si="15">LEFT(B89,2)+0</f>
         <v>20</v>
@@ -41934,23 +41946,23 @@
         <f t="shared" si="10"/>
         <v>71478.185698644607</v>
       </c>
-      <c r="K89" s="424"/>
-      <c r="L89" s="425"/>
-      <c r="M89" s="426"/>
+      <c r="K89" s="490"/>
+      <c r="L89" s="491"/>
+      <c r="M89" s="492"/>
       <c r="N89" s="103">
         <f t="shared" si="11"/>
         <v>0.70284134041417956</v>
       </c>
-      <c r="O89" s="455">
+      <c r="O89" s="416">
         <f t="shared" ref="O89:O96" si="18">150*(1-$J$76)/N89+1.75</f>
         <v>119.13068786816569</v>
       </c>
-      <c r="P89" s="456"/>
+      <c r="P89" s="417"/>
       <c r="Q89" s="116">
         <f t="shared" si="12"/>
         <v>6566.0604193475147</v>
       </c>
-      <c r="R89" s="504"/>
+      <c r="R89" s="365"/>
       <c r="S89" s="117">
         <f t="shared" si="13"/>
         <v>0.82687216519315243</v>
@@ -41963,7 +41975,7 @@
         <f t="shared" si="14"/>
         <v>1800.334303150498</v>
       </c>
-      <c r="V89" s="504"/>
+      <c r="V89" s="365"/>
       <c r="X89" s="46">
         <v>100</v>
       </c>
@@ -41975,11 +41987,11 @@
       <c r="AM89" s="155"/>
     </row>
     <row r="90" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="397" t="str">
+      <c r="B90" s="384" t="str">
         <f t="shared" si="6"/>
         <v>25-30</v>
       </c>
-      <c r="C90" s="398"/>
+      <c r="C90" s="385"/>
       <c r="D90" s="128">
         <f t="shared" si="15"/>
         <v>25</v>
@@ -42008,23 +42020,23 @@
         <f t="shared" si="10"/>
         <v>357053.7125741386</v>
       </c>
-      <c r="K90" s="424"/>
-      <c r="L90" s="425"/>
-      <c r="M90" s="426"/>
+      <c r="K90" s="490"/>
+      <c r="L90" s="491"/>
+      <c r="M90" s="492"/>
       <c r="N90" s="103">
         <f t="shared" si="11"/>
         <v>0.59117734575652048</v>
       </c>
-      <c r="O90" s="455">
+      <c r="O90" s="416">
         <f t="shared" si="18"/>
         <v>141.3020322153516</v>
       </c>
-      <c r="P90" s="456"/>
+      <c r="P90" s="417"/>
       <c r="Q90" s="116">
         <f t="shared" si="12"/>
         <v>32722.776859257607</v>
       </c>
-      <c r="R90" s="504"/>
+      <c r="R90" s="365"/>
       <c r="S90" s="117">
         <f t="shared" si="13"/>
         <v>0.69550275971355346</v>
@@ -42037,7 +42049,7 @@
         <f t="shared" si="14"/>
         <v>8903.0312574751879</v>
       </c>
-      <c r="V90" s="504"/>
+      <c r="V90" s="365"/>
       <c r="X90" s="46">
         <v>80</v>
       </c>
@@ -42049,11 +42061,11 @@
       <c r="AM90" s="155"/>
     </row>
     <row r="91" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="397" t="str">
+      <c r="B91" s="384" t="str">
         <f t="shared" si="6"/>
         <v>30-35</v>
       </c>
-      <c r="C91" s="398"/>
+      <c r="C91" s="385"/>
       <c r="D91" s="128">
         <f t="shared" si="15"/>
         <v>30</v>
@@ -42082,23 +42094,23 @@
         <f t="shared" si="10"/>
         <v>559663.86554621835</v>
       </c>
-      <c r="K91" s="424"/>
-      <c r="L91" s="425"/>
-      <c r="M91" s="426"/>
+      <c r="K91" s="490"/>
+      <c r="L91" s="491"/>
+      <c r="M91" s="492"/>
       <c r="N91" s="103">
         <f t="shared" si="11"/>
         <v>0.4971564503894913</v>
       </c>
-      <c r="O91" s="455">
+      <c r="O91" s="416">
         <f t="shared" si="18"/>
         <v>167.69373850599013</v>
       </c>
-      <c r="P91" s="456"/>
+      <c r="P91" s="417"/>
       <c r="Q91" s="116">
         <f t="shared" si="12"/>
         <v>51190.291150477846</v>
       </c>
-      <c r="R91" s="504"/>
+      <c r="R91" s="365"/>
       <c r="S91" s="117">
         <f t="shared" si="13"/>
         <v>0.58488994163469576</v>
@@ -42111,7 +42123,7 @@
         <f t="shared" si="14"/>
         <v>13827.100144683696</v>
       </c>
-      <c r="V91" s="504"/>
+      <c r="V91" s="365"/>
       <c r="X91" s="46">
         <v>70</v>
       </c>
@@ -42123,11 +42135,11 @@
       <c r="AF91" s="141"/>
     </row>
     <row r="92" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="397" t="str">
+      <c r="B92" s="384" t="str">
         <f t="shared" si="6"/>
         <v>35-40</v>
       </c>
-      <c r="C92" s="398"/>
+      <c r="C92" s="385"/>
       <c r="D92" s="128">
         <f t="shared" si="15"/>
         <v>35</v>
@@ -42156,23 +42168,23 @@
         <f t="shared" si="10"/>
         <v>900500</v>
       </c>
-      <c r="K92" s="424"/>
-      <c r="L92" s="425"/>
-      <c r="M92" s="426"/>
+      <c r="K92" s="490"/>
+      <c r="L92" s="491"/>
+      <c r="M92" s="492"/>
       <c r="N92" s="103">
         <f t="shared" si="11"/>
         <v>0.40762854747332483</v>
       </c>
-      <c r="O92" s="455">
+      <c r="O92" s="416">
         <f t="shared" si="18"/>
         <v>204.14014296563414</v>
       </c>
-      <c r="P92" s="456"/>
+      <c r="P92" s="417"/>
       <c r="Q92" s="116">
         <f t="shared" si="12"/>
         <v>82210.469713043785</v>
       </c>
-      <c r="R92" s="504"/>
+      <c r="R92" s="365"/>
       <c r="S92" s="117">
         <f t="shared" si="13"/>
         <v>0.47956299702744098</v>
@@ -42185,7 +42197,7 @@
         <f t="shared" si="14"/>
         <v>22035.669411183146</v>
       </c>
-      <c r="V92" s="504"/>
+      <c r="V92" s="365"/>
       <c r="X92" s="46">
         <v>60</v>
       </c>
@@ -42198,11 +42210,11 @@
       <c r="AF92" s="141"/>
     </row>
     <row r="93" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="397" t="str">
+      <c r="B93" s="384" t="str">
         <f t="shared" si="6"/>
         <v>40-50</v>
       </c>
-      <c r="C93" s="398"/>
+      <c r="C93" s="385"/>
       <c r="D93" s="128">
         <f t="shared" si="15"/>
         <v>40</v>
@@ -42231,23 +42243,23 @@
         <f t="shared" si="10"/>
         <v>1536195.2861952859</v>
       </c>
-      <c r="K93" s="424"/>
-      <c r="L93" s="425"/>
-      <c r="M93" s="426"/>
+      <c r="K93" s="490"/>
+      <c r="L93" s="491"/>
+      <c r="M93" s="492"/>
       <c r="N93" s="103">
         <f t="shared" si="11"/>
         <v>0.31416500987989782</v>
       </c>
-      <c r="O93" s="455">
+      <c r="O93" s="416">
         <f t="shared" si="18"/>
         <v>264.35085434574313</v>
       </c>
-      <c r="P93" s="456"/>
+      <c r="P93" s="417"/>
       <c r="Q93" s="116">
         <f t="shared" si="12"/>
         <v>139970.13026794555</v>
       </c>
-      <c r="R93" s="504"/>
+      <c r="R93" s="365"/>
       <c r="S93" s="117">
         <f t="shared" si="13"/>
         <v>0.36960589397635041</v>
@@ -42260,7 +42272,7 @@
         <f t="shared" si="14"/>
         <v>37174.499791542286</v>
       </c>
-      <c r="V93" s="504"/>
+      <c r="V93" s="365"/>
       <c r="W93" s="121"/>
       <c r="X93" s="46">
         <v>50</v>
@@ -42274,11 +42286,11 @@
       <c r="AF93" s="141"/>
     </row>
     <row r="94" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="397" t="str">
+      <c r="B94" s="384" t="str">
         <f t="shared" si="6"/>
         <v>50-60</v>
       </c>
-      <c r="C94" s="398"/>
+      <c r="C94" s="385"/>
       <c r="D94" s="128">
         <f t="shared" si="15"/>
         <v>50</v>
@@ -42307,23 +42319,23 @@
         <f t="shared" si="10"/>
         <v>2107744.1077441075</v>
       </c>
-      <c r="K94" s="424"/>
-      <c r="L94" s="425"/>
-      <c r="M94" s="426"/>
+      <c r="K94" s="490"/>
+      <c r="L94" s="491"/>
+      <c r="M94" s="492"/>
       <c r="N94" s="103">
         <f t="shared" si="11"/>
         <v>0.24836924808744476</v>
       </c>
-      <c r="O94" s="455">
+      <c r="O94" s="416">
         <f t="shared" si="18"/>
         <v>333.91672609546958</v>
       </c>
-      <c r="P94" s="456"/>
+      <c r="P94" s="417"/>
       <c r="Q94" s="116">
         <f t="shared" si="12"/>
         <v>191780.42934705055</v>
       </c>
-      <c r="R94" s="504"/>
+      <c r="R94" s="365"/>
       <c r="S94" s="117">
         <f t="shared" si="13"/>
         <v>0.29219911539699384</v>
@@ -42336,7 +42348,7 @@
         <f t="shared" si="14"/>
         <v>50556.296490488276</v>
       </c>
-      <c r="V94" s="504"/>
+      <c r="V94" s="365"/>
       <c r="W94" s="121"/>
       <c r="X94" s="46">
         <v>45</v>
@@ -42349,11 +42361,11 @@
       <c r="AF94" s="141"/>
     </row>
     <row r="95" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="397" t="str">
+      <c r="B95" s="384" t="str">
         <f t="shared" si="6"/>
         <v>60-70</v>
       </c>
-      <c r="C95" s="398"/>
+      <c r="C95" s="385"/>
       <c r="D95" s="128">
         <f t="shared" si="15"/>
         <v>60</v>
@@ -42382,23 +42394,23 @@
         <f t="shared" si="10"/>
         <v>1771428.5714285716</v>
       </c>
-      <c r="K95" s="424"/>
-      <c r="L95" s="425"/>
-      <c r="M95" s="426"/>
+      <c r="K95" s="490"/>
+      <c r="L95" s="491"/>
+      <c r="M95" s="492"/>
       <c r="N95" s="103">
         <f t="shared" si="11"/>
         <v>0.20884748283793922</v>
       </c>
-      <c r="O95" s="455">
+      <c r="O95" s="416">
         <f t="shared" si="18"/>
         <v>396.77511056845287</v>
       </c>
-      <c r="P95" s="456"/>
+      <c r="P95" s="417"/>
       <c r="Q95" s="116">
         <f t="shared" si="12"/>
         <v>161045.17519910476</v>
       </c>
-      <c r="R95" s="504"/>
+      <c r="R95" s="365"/>
       <c r="S95" s="117">
         <f t="shared" si="13"/>
         <v>0.24570292098581084</v>
@@ -42411,7 +42423,7 @@
         <f t="shared" si="14"/>
         <v>42240.957889352372</v>
       </c>
-      <c r="V95" s="504"/>
+      <c r="V95" s="365"/>
       <c r="W95" s="121"/>
       <c r="X95" s="46">
         <v>40</v>
@@ -42424,11 +42436,11 @@
       <c r="AF95" s="141"/>
     </row>
     <row r="96" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="397" t="str">
+      <c r="B96" s="384" t="str">
         <f t="shared" si="6"/>
         <v>70-100</v>
       </c>
-      <c r="C96" s="398"/>
+      <c r="C96" s="385"/>
       <c r="D96" s="128">
         <f t="shared" si="15"/>
         <v>70</v>
@@ -42457,23 +42469,23 @@
         <f t="shared" si="10"/>
         <v>661553.21188878256</v>
       </c>
-      <c r="K96" s="427"/>
-      <c r="L96" s="428"/>
-      <c r="M96" s="429"/>
+      <c r="K96" s="493"/>
+      <c r="L96" s="494"/>
+      <c r="M96" s="495"/>
       <c r="N96" s="103">
         <f t="shared" si="11"/>
         <v>0.16123242095898396</v>
       </c>
-      <c r="O96" s="455">
+      <c r="O96" s="416">
         <f t="shared" si="18"/>
         <v>513.43368935542583</v>
       </c>
-      <c r="P96" s="456"/>
+      <c r="P96" s="417"/>
       <c r="Q96" s="116">
         <f t="shared" si="12"/>
         <v>60083.043781598011</v>
       </c>
-      <c r="R96" s="504"/>
+      <c r="R96" s="365"/>
       <c r="S96" s="117">
         <f t="shared" si="13"/>
         <v>0.18968520112821644</v>
@@ -42486,7 +42498,7 @@
         <f t="shared" si="14"/>
         <v>15652.115733941762</v>
       </c>
-      <c r="V96" s="504"/>
+      <c r="V96" s="365"/>
       <c r="W96" s="121"/>
       <c r="X96" s="46">
         <v>35</v>
@@ -42510,7 +42522,7 @@
       <c r="G97" s="127"/>
       <c r="H97" s="5"/>
       <c r="I97" s="121"/>
-      <c r="J97" s="392">
+      <c r="J97" s="499">
         <f>SUM(J88:J96)</f>
         <v>7972363.3844351405</v>
       </c>
@@ -42520,14 +42532,14 @@
       <c r="N97" s="121"/>
       <c r="O97" s="121"/>
       <c r="P97" s="121"/>
-      <c r="Q97" s="393">
+      <c r="Q97" s="366">
         <f>SUM(Q88:Q96)</f>
         <v>726191.86471205414</v>
       </c>
       <c r="R97" s="121"/>
       <c r="S97" s="121"/>
       <c r="T97" s="121"/>
-      <c r="U97" s="505">
+      <c r="U97" s="370">
         <f>SUM(U88:U96)</f>
         <v>192363.89087998384</v>
       </c>
@@ -42550,18 +42562,18 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="121"/>
-      <c r="J98" s="393"/>
+      <c r="J98" s="366"/>
       <c r="K98" s="121"/>
       <c r="L98" s="121"/>
       <c r="M98" s="121"/>
       <c r="N98" s="121"/>
       <c r="O98" s="121"/>
       <c r="P98" s="121"/>
-      <c r="Q98" s="393"/>
+      <c r="Q98" s="366"/>
       <c r="R98" s="121"/>
       <c r="S98" s="121"/>
       <c r="T98" s="121"/>
-      <c r="U98" s="506"/>
+      <c r="U98" s="371"/>
       <c r="V98" s="121"/>
       <c r="W98" s="121"/>
       <c r="X98" s="46">
@@ -42581,7 +42593,7 @@
       <c r="G99" s="122"/>
       <c r="H99" s="122"/>
       <c r="I99" s="121"/>
-      <c r="J99" s="393"/>
+      <c r="J99" s="366"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6">
@@ -42590,13 +42602,13 @@
       <c r="N99" s="121"/>
       <c r="O99" s="121"/>
       <c r="P99" s="121"/>
-      <c r="Q99" s="393"/>
+      <c r="Q99" s="366"/>
       <c r="R99" s="6">
         <v>0.47220000000000001</v>
       </c>
       <c r="S99" s="121"/>
       <c r="T99" s="121"/>
-      <c r="U99" s="507"/>
+      <c r="U99" s="372"/>
       <c r="V99" s="6" t="s">
         <v>239</v>
       </c>
@@ -42674,19 +42686,19 @@
       <c r="Z101" s="120"/>
     </row>
     <row r="102" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="478" t="s">
+      <c r="B102" s="460" t="s">
         <v>224</v>
       </c>
-      <c r="C102" s="479"/>
+      <c r="C102" s="461"/>
       <c r="D102" s="145"/>
       <c r="E102" s="186"/>
-      <c r="F102" s="484" t="s">
+      <c r="F102" s="390" t="s">
         <v>222</v>
       </c>
-      <c r="G102" s="484" t="s">
+      <c r="G102" s="390" t="s">
         <v>223</v>
       </c>
-      <c r="H102" s="484" t="s">
+      <c r="H102" s="390" t="s">
         <v>216</v>
       </c>
       <c r="I102" s="121"/>
@@ -42713,13 +42725,13 @@
       <c r="Z102" s="120"/>
     </row>
     <row r="103" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="480"/>
-      <c r="C103" s="481"/>
+      <c r="B103" s="462"/>
+      <c r="C103" s="463"/>
       <c r="D103" s="145"/>
       <c r="E103" s="186"/>
-      <c r="F103" s="485"/>
-      <c r="G103" s="485"/>
-      <c r="H103" s="485"/>
+      <c r="F103" s="391"/>
+      <c r="G103" s="391"/>
+      <c r="H103" s="391"/>
       <c r="I103" s="121"/>
       <c r="J103" s="144"/>
       <c r="K103" s="6"/>
@@ -42744,13 +42756,13 @@
       <c r="Z103" s="120"/>
     </row>
     <row r="104" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="480"/>
-      <c r="C104" s="481"/>
+      <c r="B104" s="462"/>
+      <c r="C104" s="463"/>
       <c r="D104" s="145"/>
       <c r="E104" s="186"/>
-      <c r="F104" s="485"/>
-      <c r="G104" s="485"/>
-      <c r="H104" s="485"/>
+      <c r="F104" s="391"/>
+      <c r="G104" s="391"/>
+      <c r="H104" s="391"/>
       <c r="I104" s="150"/>
       <c r="J104" s="150"/>
       <c r="K104" s="150"/>
@@ -42775,13 +42787,13 @@
       <c r="Z104" s="120"/>
     </row>
     <row r="105" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="482"/>
-      <c r="C105" s="483"/>
+      <c r="B105" s="464"/>
+      <c r="C105" s="465"/>
       <c r="D105" s="145"/>
       <c r="E105" s="186"/>
-      <c r="F105" s="486"/>
-      <c r="G105" s="486"/>
-      <c r="H105" s="486"/>
+      <c r="F105" s="466"/>
+      <c r="G105" s="466"/>
+      <c r="H105" s="466"/>
       <c r="I105" s="150"/>
       <c r="J105" s="150"/>
       <c r="K105" s="150"/>
@@ -42806,10 +42818,10 @@
       <c r="Z105" s="120"/>
     </row>
     <row r="106" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="487">
+      <c r="B106" s="467">
         <v>1</v>
       </c>
-      <c r="C106" s="488"/>
+      <c r="C106" s="468"/>
       <c r="D106" s="146"/>
       <c r="E106" s="132"/>
       <c r="F106" s="148">
@@ -42841,10 +42853,10 @@
       <c r="Z106" s="120"/>
     </row>
     <row r="107" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="487">
+      <c r="B107" s="467">
         <v>2</v>
       </c>
-      <c r="C107" s="488"/>
+      <c r="C107" s="468"/>
       <c r="D107" s="146"/>
       <c r="E107" s="132"/>
       <c r="F107" s="148" t="s">
@@ -42876,10 +42888,10 @@
       <c r="Z107" s="120"/>
     </row>
     <row r="108" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="487">
+      <c r="B108" s="467">
         <v>3</v>
       </c>
-      <c r="C108" s="488"/>
+      <c r="C108" s="468"/>
       <c r="D108" s="146"/>
       <c r="E108" s="132"/>
       <c r="F108" s="148" t="s">
@@ -42911,10 +42923,10 @@
       <c r="Z108" s="120"/>
     </row>
     <row r="109" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="487">
+      <c r="B109" s="467">
         <v>4</v>
       </c>
-      <c r="C109" s="488"/>
+      <c r="C109" s="468"/>
       <c r="D109" s="146"/>
       <c r="E109" s="132"/>
       <c r="F109" s="148" t="s">
@@ -42946,10 +42958,10 @@
       <c r="Z109" s="120"/>
     </row>
     <row r="110" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="487">
+      <c r="B110" s="467">
         <v>5</v>
       </c>
-      <c r="C110" s="488"/>
+      <c r="C110" s="468"/>
       <c r="D110" s="182"/>
       <c r="E110" s="187"/>
       <c r="F110" s="133" t="s">
@@ -43037,15 +43049,15 @@
       <c r="Z112" s="120"/>
     </row>
     <row r="113" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="335" t="s">
+      <c r="B113" s="341" t="s">
         <v>180</v>
       </c>
-      <c r="C113" s="335"/>
-      <c r="D113" s="335"/>
-      <c r="E113" s="335"/>
-      <c r="F113" s="335"/>
-      <c r="G113" s="335"/>
-      <c r="H113" s="335"/>
+      <c r="C113" s="341"/>
+      <c r="D113" s="341"/>
+      <c r="E113" s="341"/>
+      <c r="F113" s="341"/>
+      <c r="G113" s="341"/>
+      <c r="H113" s="341"/>
       <c r="I113" s="206" t="s">
         <v>212</v>
       </c>
@@ -43056,10 +43068,10 @@
       <c r="K113" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="L113" s="475"/>
-      <c r="M113" s="476"/>
-      <c r="N113" s="476"/>
-      <c r="O113" s="477"/>
+      <c r="L113" s="432"/>
+      <c r="M113" s="433"/>
+      <c r="N113" s="433"/>
+      <c r="O113" s="434"/>
       <c r="P113" s="121"/>
       <c r="Q113" s="188"/>
       <c r="R113" s="6"/>
@@ -43073,15 +43085,15 @@
       <c r="Z113" s="120"/>
     </row>
     <row r="114" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="329" t="s">
+      <c r="B114" s="323" t="s">
         <v>295</v>
       </c>
-      <c r="C114" s="403"/>
-      <c r="D114" s="403"/>
-      <c r="E114" s="403"/>
-      <c r="F114" s="403"/>
-      <c r="G114" s="403"/>
-      <c r="H114" s="330"/>
+      <c r="C114" s="380"/>
+      <c r="D114" s="380"/>
+      <c r="E114" s="380"/>
+      <c r="F114" s="380"/>
+      <c r="G114" s="380"/>
+      <c r="H114" s="324"/>
       <c r="I114" s="206" t="s">
         <v>296</v>
       </c>
@@ -43092,10 +43104,10 @@
       <c r="K114" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L114" s="475"/>
-      <c r="M114" s="476"/>
-      <c r="N114" s="476"/>
-      <c r="O114" s="477"/>
+      <c r="L114" s="432"/>
+      <c r="M114" s="433"/>
+      <c r="N114" s="433"/>
+      <c r="O114" s="434"/>
       <c r="P114" s="121"/>
       <c r="Q114" s="188"/>
       <c r="R114" s="6"/>
@@ -43109,29 +43121,29 @@
       <c r="Z114" s="120"/>
     </row>
     <row r="115" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="489" t="s">
+      <c r="B115" s="418" t="s">
         <v>298</v>
       </c>
-      <c r="C115" s="490"/>
-      <c r="D115" s="490"/>
-      <c r="E115" s="490"/>
-      <c r="F115" s="490"/>
-      <c r="G115" s="490"/>
-      <c r="H115" s="491"/>
-      <c r="I115" s="374" t="s">
+      <c r="C115" s="419"/>
+      <c r="D115" s="419"/>
+      <c r="E115" s="419"/>
+      <c r="F115" s="419"/>
+      <c r="G115" s="419"/>
+      <c r="H115" s="420"/>
+      <c r="I115" s="402" t="s">
         <v>299</v>
       </c>
-      <c r="J115" s="497">
+      <c r="J115" s="424">
         <f>J113/(24*60)*J114/3</f>
         <v>1.5625E-2</v>
       </c>
-      <c r="K115" s="374" t="s">
+      <c r="K115" s="402" t="s">
         <v>3</v>
       </c>
-      <c r="L115" s="437"/>
-      <c r="M115" s="438"/>
-      <c r="N115" s="438"/>
-      <c r="O115" s="439"/>
+      <c r="L115" s="426"/>
+      <c r="M115" s="427"/>
+      <c r="N115" s="427"/>
+      <c r="O115" s="428"/>
       <c r="P115" s="121"/>
       <c r="Q115" s="188"/>
       <c r="R115" s="6"/>
@@ -43145,20 +43157,20 @@
       <c r="Z115" s="120"/>
     </row>
     <row r="116" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="492"/>
-      <c r="C116" s="493"/>
-      <c r="D116" s="493"/>
-      <c r="E116" s="493"/>
-      <c r="F116" s="493"/>
-      <c r="G116" s="493"/>
-      <c r="H116" s="494"/>
-      <c r="I116" s="375"/>
-      <c r="J116" s="498"/>
-      <c r="K116" s="375"/>
-      <c r="L116" s="440"/>
-      <c r="M116" s="441"/>
-      <c r="N116" s="441"/>
-      <c r="O116" s="442"/>
+      <c r="B116" s="421"/>
+      <c r="C116" s="422"/>
+      <c r="D116" s="422"/>
+      <c r="E116" s="422"/>
+      <c r="F116" s="422"/>
+      <c r="G116" s="422"/>
+      <c r="H116" s="423"/>
+      <c r="I116" s="403"/>
+      <c r="J116" s="425"/>
+      <c r="K116" s="403"/>
+      <c r="L116" s="429"/>
+      <c r="M116" s="430"/>
+      <c r="N116" s="430"/>
+      <c r="O116" s="431"/>
       <c r="P116" s="121"/>
       <c r="Q116" s="188"/>
       <c r="R116" s="6"/>
@@ -43209,7 +43221,7 @@
       <c r="G118" s="308"/>
       <c r="H118" s="131"/>
       <c r="I118" s="138"/>
-      <c r="J118" s="509"/>
+      <c r="J118" s="321"/>
       <c r="K118" s="138"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
@@ -43228,34 +43240,34 @@
       <c r="Z118" s="120"/>
     </row>
     <row r="119" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="408" t="s">
-        <v>33</v>
-      </c>
-      <c r="C119" s="409"/>
-      <c r="D119" s="409"/>
-      <c r="E119" s="409"/>
-      <c r="F119" s="409"/>
-      <c r="G119" s="409"/>
-      <c r="H119" s="410"/>
+      <c r="B119" s="481" t="s">
+        <v>362</v>
+      </c>
+      <c r="C119" s="482"/>
+      <c r="D119" s="482"/>
+      <c r="E119" s="482"/>
+      <c r="F119" s="482"/>
+      <c r="G119" s="482"/>
+      <c r="H119" s="483"/>
       <c r="I119" s="250" t="s">
         <v>0</v>
       </c>
       <c r="J119" s="277">
         <f>IF(B119=AD8,J10,IF(B119=AD9,J11,IF(B119=AD10,J12,FALSE)))</f>
-        <v>5.7252000000000004E-2</v>
+        <v>4.4040000000000003E-2</v>
       </c>
       <c r="K119" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="L119" s="475"/>
-      <c r="M119" s="476"/>
-      <c r="N119" s="476"/>
-      <c r="O119" s="477"/>
+      <c r="L119" s="432"/>
+      <c r="M119" s="433"/>
+      <c r="N119" s="433"/>
+      <c r="O119" s="434"/>
       <c r="P119" s="310"/>
-      <c r="Q119" s="361" t="s">
+      <c r="Q119" s="504" t="s">
         <v>415</v>
       </c>
-      <c r="R119" s="361"/>
+      <c r="R119" s="504"/>
       <c r="S119" s="121"/>
       <c r="T119" s="121"/>
       <c r="U119" s="195"/>
@@ -43266,15 +43278,15 @@
       <c r="Z119" s="120"/>
     </row>
     <row r="120" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="430" t="s">
+      <c r="B120" s="381" t="s">
         <v>347</v>
       </c>
-      <c r="C120" s="431"/>
-      <c r="D120" s="431"/>
-      <c r="E120" s="431"/>
-      <c r="F120" s="431"/>
-      <c r="G120" s="431"/>
-      <c r="H120" s="432"/>
+      <c r="C120" s="382"/>
+      <c r="D120" s="382"/>
+      <c r="E120" s="382"/>
+      <c r="F120" s="382"/>
+      <c r="G120" s="382"/>
+      <c r="H120" s="383"/>
       <c r="I120" s="206" t="s">
         <v>212</v>
       </c>
@@ -43302,15 +43314,15 @@
       <c r="Z120" s="120"/>
     </row>
     <row r="121" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="430" t="s">
+      <c r="B121" s="381" t="s">
         <v>355</v>
       </c>
-      <c r="C121" s="431"/>
-      <c r="D121" s="431"/>
-      <c r="E121" s="431"/>
-      <c r="F121" s="431"/>
-      <c r="G121" s="431"/>
-      <c r="H121" s="432"/>
+      <c r="C121" s="382"/>
+      <c r="D121" s="382"/>
+      <c r="E121" s="382"/>
+      <c r="F121" s="382"/>
+      <c r="G121" s="382"/>
+      <c r="H121" s="383"/>
       <c r="I121" s="206" t="s">
         <v>356</v>
       </c>
@@ -43338,29 +43350,29 @@
       <c r="Z121" s="120"/>
     </row>
     <row r="122" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="447" t="s">
+      <c r="B122" s="454" t="s">
         <v>365</v>
       </c>
-      <c r="C122" s="448"/>
-      <c r="D122" s="448"/>
-      <c r="E122" s="448"/>
-      <c r="F122" s="448"/>
-      <c r="G122" s="448"/>
-      <c r="H122" s="449"/>
-      <c r="I122" s="435" t="s">
+      <c r="C122" s="455"/>
+      <c r="D122" s="455"/>
+      <c r="E122" s="455"/>
+      <c r="F122" s="455"/>
+      <c r="G122" s="455"/>
+      <c r="H122" s="456"/>
+      <c r="I122" s="412" t="s">
         <v>269</v>
       </c>
-      <c r="J122" s="453">
+      <c r="J122" s="414">
         <f>(J119*86400)/J120</f>
-        <v>41.221440000000001</v>
-      </c>
-      <c r="K122" s="435" t="s">
+        <v>31.7088</v>
+      </c>
+      <c r="K122" s="412" t="s">
         <v>363</v>
       </c>
-      <c r="L122" s="437"/>
-      <c r="M122" s="438"/>
-      <c r="N122" s="438"/>
-      <c r="O122" s="439"/>
+      <c r="L122" s="426"/>
+      <c r="M122" s="427"/>
+      <c r="N122" s="427"/>
+      <c r="O122" s="428"/>
       <c r="P122" s="121"/>
       <c r="Q122" s="196"/>
       <c r="R122" s="6"/>
@@ -43374,20 +43386,20 @@
       <c r="Z122" s="120"/>
     </row>
     <row r="123" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="450"/>
-      <c r="C123" s="451"/>
-      <c r="D123" s="451"/>
-      <c r="E123" s="451"/>
-      <c r="F123" s="451"/>
-      <c r="G123" s="451"/>
-      <c r="H123" s="452"/>
-      <c r="I123" s="436"/>
-      <c r="J123" s="454"/>
-      <c r="K123" s="436"/>
-      <c r="L123" s="440"/>
-      <c r="M123" s="441"/>
-      <c r="N123" s="441"/>
-      <c r="O123" s="442"/>
+      <c r="B123" s="457"/>
+      <c r="C123" s="458"/>
+      <c r="D123" s="458"/>
+      <c r="E123" s="458"/>
+      <c r="F123" s="458"/>
+      <c r="G123" s="458"/>
+      <c r="H123" s="459"/>
+      <c r="I123" s="413"/>
+      <c r="J123" s="415"/>
+      <c r="K123" s="413"/>
+      <c r="L123" s="429"/>
+      <c r="M123" s="430"/>
+      <c r="N123" s="430"/>
+      <c r="O123" s="431"/>
       <c r="P123" s="121"/>
       <c r="Q123" s="196"/>
       <c r="R123" s="6"/>
@@ -43401,29 +43413,29 @@
       <c r="Z123" s="120"/>
     </row>
     <row r="124" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="447" t="s">
+      <c r="B124" s="454" t="s">
         <v>366</v>
       </c>
-      <c r="C124" s="448"/>
-      <c r="D124" s="448"/>
-      <c r="E124" s="448"/>
-      <c r="F124" s="448"/>
-      <c r="G124" s="448"/>
-      <c r="H124" s="449"/>
-      <c r="I124" s="435" t="s">
+      <c r="C124" s="455"/>
+      <c r="D124" s="455"/>
+      <c r="E124" s="455"/>
+      <c r="F124" s="455"/>
+      <c r="G124" s="455"/>
+      <c r="H124" s="456"/>
+      <c r="I124" s="412" t="s">
         <v>369</v>
       </c>
-      <c r="J124" s="453">
+      <c r="J124" s="414">
         <f>(J119*86400)/J121</f>
-        <v>32.977151999999997</v>
-      </c>
-      <c r="K124" s="435" t="s">
+        <v>25.367039999999999</v>
+      </c>
+      <c r="K124" s="412" t="s">
         <v>363</v>
       </c>
-      <c r="L124" s="437"/>
-      <c r="M124" s="438"/>
-      <c r="N124" s="438"/>
-      <c r="O124" s="439"/>
+      <c r="L124" s="426"/>
+      <c r="M124" s="427"/>
+      <c r="N124" s="427"/>
+      <c r="O124" s="428"/>
       <c r="P124" s="121"/>
       <c r="Q124" s="196"/>
       <c r="R124" s="6"/>
@@ -43437,20 +43449,20 @@
       <c r="Z124" s="120"/>
     </row>
     <row r="125" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="450"/>
-      <c r="C125" s="451"/>
-      <c r="D125" s="451"/>
-      <c r="E125" s="451"/>
-      <c r="F125" s="451"/>
-      <c r="G125" s="451"/>
-      <c r="H125" s="452"/>
-      <c r="I125" s="436"/>
-      <c r="J125" s="454"/>
-      <c r="K125" s="436"/>
-      <c r="L125" s="440"/>
-      <c r="M125" s="441"/>
-      <c r="N125" s="441"/>
-      <c r="O125" s="442"/>
+      <c r="B125" s="457"/>
+      <c r="C125" s="458"/>
+      <c r="D125" s="458"/>
+      <c r="E125" s="458"/>
+      <c r="F125" s="458"/>
+      <c r="G125" s="458"/>
+      <c r="H125" s="459"/>
+      <c r="I125" s="413"/>
+      <c r="J125" s="415"/>
+      <c r="K125" s="413"/>
+      <c r="L125" s="429"/>
+      <c r="M125" s="430"/>
+      <c r="N125" s="430"/>
+      <c r="O125" s="431"/>
       <c r="P125" s="121"/>
       <c r="Q125" s="196"/>
       <c r="R125" s="6"/>
@@ -43464,29 +43476,29 @@
       <c r="Z125" s="120"/>
     </row>
     <row r="126" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="430" t="s">
+      <c r="B126" s="381" t="s">
         <v>367</v>
       </c>
-      <c r="C126" s="431"/>
-      <c r="D126" s="431"/>
-      <c r="E126" s="431"/>
-      <c r="F126" s="431"/>
-      <c r="G126" s="431"/>
-      <c r="H126" s="432"/>
+      <c r="C126" s="382"/>
+      <c r="D126" s="382"/>
+      <c r="E126" s="382"/>
+      <c r="F126" s="382"/>
+      <c r="G126" s="382"/>
+      <c r="H126" s="383"/>
       <c r="I126" s="281" t="s">
         <v>368</v>
       </c>
       <c r="J126" s="277">
         <f>ROUND((J122-J124),2)</f>
-        <v>8.24</v>
+        <v>6.34</v>
       </c>
       <c r="K126" s="281" t="s">
         <v>363</v>
       </c>
-      <c r="L126" s="475"/>
-      <c r="M126" s="476"/>
-      <c r="N126" s="476"/>
-      <c r="O126" s="477"/>
+      <c r="L126" s="432"/>
+      <c r="M126" s="433"/>
+      <c r="N126" s="433"/>
+      <c r="O126" s="434"/>
       <c r="P126" s="121"/>
       <c r="Q126" s="196"/>
       <c r="R126" s="6"/>
@@ -43500,27 +43512,27 @@
       <c r="Z126" s="120"/>
     </row>
     <row r="127" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="489" t="s">
+      <c r="B127" s="418" t="s">
         <v>345</v>
       </c>
-      <c r="C127" s="490"/>
-      <c r="D127" s="490"/>
-      <c r="E127" s="490"/>
-      <c r="F127" s="490"/>
-      <c r="G127" s="490"/>
-      <c r="H127" s="491"/>
-      <c r="I127" s="435" t="s">
+      <c r="C127" s="419"/>
+      <c r="D127" s="419"/>
+      <c r="E127" s="419"/>
+      <c r="F127" s="419"/>
+      <c r="G127" s="419"/>
+      <c r="H127" s="420"/>
+      <c r="I127" s="412" t="s">
         <v>381</v>
       </c>
-      <c r="J127" s="453">
+      <c r="J127" s="414">
         <f>ROUND(J122/J126,2)</f>
         <v>5</v>
       </c>
-      <c r="K127" s="435"/>
-      <c r="L127" s="437"/>
-      <c r="M127" s="438"/>
-      <c r="N127" s="438"/>
-      <c r="O127" s="439"/>
+      <c r="K127" s="412"/>
+      <c r="L127" s="426"/>
+      <c r="M127" s="427"/>
+      <c r="N127" s="427"/>
+      <c r="O127" s="428"/>
       <c r="P127" s="121"/>
       <c r="Q127" s="196"/>
       <c r="R127" s="6"/>
@@ -43534,20 +43546,20 @@
       <c r="Z127" s="120"/>
     </row>
     <row r="128" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="492"/>
-      <c r="C128" s="493"/>
-      <c r="D128" s="493"/>
-      <c r="E128" s="493"/>
-      <c r="F128" s="493"/>
-      <c r="G128" s="493"/>
-      <c r="H128" s="494"/>
-      <c r="I128" s="436"/>
-      <c r="J128" s="454"/>
-      <c r="K128" s="436"/>
-      <c r="L128" s="440"/>
-      <c r="M128" s="441"/>
-      <c r="N128" s="441"/>
-      <c r="O128" s="442"/>
+      <c r="B128" s="421"/>
+      <c r="C128" s="422"/>
+      <c r="D128" s="422"/>
+      <c r="E128" s="422"/>
+      <c r="F128" s="422"/>
+      <c r="G128" s="422"/>
+      <c r="H128" s="423"/>
+      <c r="I128" s="413"/>
+      <c r="J128" s="415"/>
+      <c r="K128" s="413"/>
+      <c r="L128" s="429"/>
+      <c r="M128" s="430"/>
+      <c r="N128" s="430"/>
+      <c r="O128" s="431"/>
       <c r="P128" s="121"/>
       <c r="Q128" s="196"/>
       <c r="R128" s="6"/>
@@ -43561,29 +43573,29 @@
       <c r="Z128" s="120"/>
     </row>
     <row r="129" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="499" t="s">
+      <c r="B129" s="435" t="s">
         <v>371</v>
       </c>
-      <c r="C129" s="499"/>
-      <c r="D129" s="499"/>
-      <c r="E129" s="499"/>
-      <c r="F129" s="499"/>
-      <c r="G129" s="499"/>
-      <c r="H129" s="499"/>
+      <c r="C129" s="435"/>
+      <c r="D129" s="435"/>
+      <c r="E129" s="435"/>
+      <c r="F129" s="435"/>
+      <c r="G129" s="435"/>
+      <c r="H129" s="435"/>
       <c r="I129" s="275" t="s">
         <v>370</v>
       </c>
       <c r="J129" s="277">
         <f>SQRT(J126)</f>
-        <v>2.8705400188814649</v>
+        <v>2.5179356624028344</v>
       </c>
       <c r="K129" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="L129" s="393"/>
-      <c r="M129" s="393"/>
-      <c r="N129" s="393"/>
-      <c r="O129" s="393"/>
+      <c r="L129" s="366"/>
+      <c r="M129" s="366"/>
+      <c r="N129" s="366"/>
+      <c r="O129" s="366"/>
       <c r="P129" s="121"/>
       <c r="Q129" s="196"/>
       <c r="R129" s="6"/>
@@ -43709,15 +43721,15 @@
       <c r="Z133" s="120"/>
     </row>
     <row r="134" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="389" t="s">
+      <c r="B134" s="469" t="s">
         <v>231</v>
       </c>
-      <c r="C134" s="390"/>
-      <c r="D134" s="390"/>
-      <c r="E134" s="390"/>
-      <c r="F134" s="390"/>
-      <c r="G134" s="390"/>
-      <c r="H134" s="391"/>
+      <c r="C134" s="470"/>
+      <c r="D134" s="470"/>
+      <c r="E134" s="470"/>
+      <c r="F134" s="470"/>
+      <c r="G134" s="470"/>
+      <c r="H134" s="471"/>
       <c r="I134" s="56" t="s">
         <v>11</v>
       </c>
@@ -43726,10 +43738,10 @@
         <v>0.45</v>
       </c>
       <c r="K134" s="203"/>
-      <c r="L134" s="475"/>
-      <c r="M134" s="476"/>
-      <c r="N134" s="476"/>
-      <c r="O134" s="477"/>
+      <c r="L134" s="432"/>
+      <c r="M134" s="433"/>
+      <c r="N134" s="433"/>
+      <c r="O134" s="434"/>
       <c r="P134" s="121"/>
       <c r="Q134" s="188"/>
       <c r="R134" s="6"/>
@@ -43743,16 +43755,16 @@
       <c r="Z134" s="120"/>
     </row>
     <row r="135" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="389" t="str">
+      <c r="B135" s="469" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad dinámica del agua a 3 °C</v>
       </c>
-      <c r="C135" s="390"/>
-      <c r="D135" s="390"/>
-      <c r="E135" s="390"/>
-      <c r="F135" s="390"/>
-      <c r="G135" s="390"/>
-      <c r="H135" s="391"/>
+      <c r="C135" s="470"/>
+      <c r="D135" s="470"/>
+      <c r="E135" s="470"/>
+      <c r="F135" s="470"/>
+      <c r="G135" s="470"/>
+      <c r="H135" s="471"/>
       <c r="I135" s="275" t="s">
         <v>213</v>
       </c>
@@ -43780,15 +43792,15 @@
       <c r="Z135" s="120"/>
     </row>
     <row r="136" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="340" t="s">
+      <c r="B136" s="342" t="s">
         <v>243</v>
       </c>
-      <c r="C136" s="496"/>
-      <c r="D136" s="496"/>
-      <c r="E136" s="496"/>
-      <c r="F136" s="496"/>
-      <c r="G136" s="496"/>
-      <c r="H136" s="341"/>
+      <c r="C136" s="389"/>
+      <c r="D136" s="389"/>
+      <c r="E136" s="389"/>
+      <c r="F136" s="389"/>
+      <c r="G136" s="389"/>
+      <c r="H136" s="343"/>
       <c r="I136" s="153" t="s">
         <v>257</v>
       </c>
@@ -43799,10 +43811,10 @@
       <c r="K136" s="153" t="s">
         <v>244</v>
       </c>
-      <c r="L136" s="495"/>
-      <c r="M136" s="495"/>
-      <c r="N136" s="495"/>
-      <c r="O136" s="495"/>
+      <c r="L136" s="392"/>
+      <c r="M136" s="392"/>
+      <c r="N136" s="392"/>
+      <c r="O136" s="392"/>
       <c r="P136" s="161"/>
       <c r="Q136" s="149"/>
       <c r="R136" s="6"/>
@@ -43816,15 +43828,15 @@
       <c r="Z136" s="120"/>
     </row>
     <row r="137" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="340" t="s">
+      <c r="B137" s="342" t="s">
         <v>280</v>
       </c>
-      <c r="C137" s="496"/>
-      <c r="D137" s="496"/>
-      <c r="E137" s="496"/>
-      <c r="F137" s="496"/>
-      <c r="G137" s="496"/>
-      <c r="H137" s="341"/>
+      <c r="C137" s="389"/>
+      <c r="D137" s="389"/>
+      <c r="E137" s="389"/>
+      <c r="F137" s="389"/>
+      <c r="G137" s="389"/>
+      <c r="H137" s="343"/>
       <c r="I137" s="153" t="s">
         <v>279</v>
       </c>
@@ -43835,10 +43847,10 @@
       <c r="K137" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L137" s="495"/>
-      <c r="M137" s="495"/>
-      <c r="N137" s="495"/>
-      <c r="O137" s="495"/>
+      <c r="L137" s="392"/>
+      <c r="M137" s="392"/>
+      <c r="N137" s="392"/>
+      <c r="O137" s="392"/>
       <c r="P137" s="161"/>
       <c r="Q137" s="149"/>
       <c r="R137" s="6"/>
@@ -43852,16 +43864,16 @@
       <c r="Z137" s="120"/>
     </row>
     <row r="138" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="340" t="str">
+      <c r="B138" s="342" t="str">
         <f>"Velocidad de arrastre del medio filtrante a "&amp;J30&amp;" °C"</f>
         <v>Velocidad de arrastre del medio filtrante a 3 °C</v>
       </c>
-      <c r="C138" s="496"/>
-      <c r="D138" s="496"/>
-      <c r="E138" s="496"/>
-      <c r="F138" s="496"/>
-      <c r="G138" s="496"/>
-      <c r="H138" s="341"/>
+      <c r="C138" s="389"/>
+      <c r="D138" s="389"/>
+      <c r="E138" s="389"/>
+      <c r="F138" s="389"/>
+      <c r="G138" s="389"/>
+      <c r="H138" s="343"/>
       <c r="I138" s="153" t="s">
         <v>289</v>
       </c>
@@ -43872,10 +43884,10 @@
       <c r="K138" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L138" s="495"/>
-      <c r="M138" s="495"/>
-      <c r="N138" s="495"/>
-      <c r="O138" s="495"/>
+      <c r="L138" s="392"/>
+      <c r="M138" s="392"/>
+      <c r="N138" s="392"/>
+      <c r="O138" s="392"/>
       <c r="P138" s="161"/>
       <c r="Q138" s="149"/>
       <c r="R138" s="6"/>
@@ -43889,16 +43901,16 @@
       <c r="Z138" s="120"/>
     </row>
     <row r="139" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="340" t="str">
+      <c r="B139" s="342" t="str">
         <f>"Velocidad de fluidización del medio filtrante a "&amp;J30&amp;" °C"</f>
         <v>Velocidad de fluidización del medio filtrante a 3 °C</v>
       </c>
-      <c r="C139" s="496"/>
-      <c r="D139" s="496"/>
-      <c r="E139" s="496"/>
-      <c r="F139" s="496"/>
-      <c r="G139" s="496"/>
-      <c r="H139" s="341"/>
+      <c r="C139" s="389"/>
+      <c r="D139" s="389"/>
+      <c r="E139" s="389"/>
+      <c r="F139" s="389"/>
+      <c r="G139" s="389"/>
+      <c r="H139" s="343"/>
       <c r="I139" s="153" t="s">
         <v>288</v>
       </c>
@@ -43909,10 +43921,10 @@
       <c r="K139" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L139" s="385"/>
-      <c r="M139" s="386"/>
-      <c r="N139" s="386"/>
-      <c r="O139" s="387"/>
+      <c r="L139" s="393"/>
+      <c r="M139" s="394"/>
+      <c r="N139" s="394"/>
+      <c r="O139" s="395"/>
       <c r="P139" s="161"/>
       <c r="Q139" s="188"/>
       <c r="R139" s="6"/>
@@ -43926,16 +43938,16 @@
       <c r="Z139" s="120"/>
     </row>
     <row r="140" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="340" t="str">
+      <c r="B140" s="342" t="str">
         <f>"Velocidad óptima de lavado a "&amp;J30&amp;" °C"</f>
         <v>Velocidad óptima de lavado a 3 °C</v>
       </c>
-      <c r="C140" s="496"/>
-      <c r="D140" s="496"/>
-      <c r="E140" s="496"/>
-      <c r="F140" s="496"/>
-      <c r="G140" s="496"/>
-      <c r="H140" s="341"/>
+      <c r="C140" s="389"/>
+      <c r="D140" s="389"/>
+      <c r="E140" s="389"/>
+      <c r="F140" s="389"/>
+      <c r="G140" s="389"/>
+      <c r="H140" s="343"/>
       <c r="I140" s="153" t="s">
         <v>281</v>
       </c>
@@ -43946,10 +43958,10 @@
       <c r="K140" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L140" s="495"/>
-      <c r="M140" s="495"/>
-      <c r="N140" s="495"/>
-      <c r="O140" s="495"/>
+      <c r="L140" s="392"/>
+      <c r="M140" s="392"/>
+      <c r="N140" s="392"/>
+      <c r="O140" s="392"/>
       <c r="P140" s="161"/>
       <c r="Q140" s="149"/>
       <c r="R140" s="6"/>
@@ -44019,28 +44031,28 @@
       <c r="Z142" s="120"/>
     </row>
     <row r="143" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="365" t="s">
+      <c r="B143" s="386" t="s">
         <v>374</v>
       </c>
-      <c r="C143" s="366"/>
-      <c r="D143" s="366"/>
-      <c r="E143" s="366"/>
-      <c r="F143" s="366"/>
-      <c r="G143" s="366"/>
-      <c r="H143" s="367"/>
+      <c r="C143" s="387"/>
+      <c r="D143" s="387"/>
+      <c r="E143" s="387"/>
+      <c r="F143" s="387"/>
+      <c r="G143" s="387"/>
+      <c r="H143" s="388"/>
       <c r="I143" s="298" t="s">
         <v>382</v>
       </c>
       <c r="J143" s="286">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="K143" s="153" t="s">
         <v>375</v>
       </c>
-      <c r="L143" s="385"/>
-      <c r="M143" s="386"/>
-      <c r="N143" s="386"/>
-      <c r="O143" s="387"/>
+      <c r="L143" s="393"/>
+      <c r="M143" s="394"/>
+      <c r="N143" s="394"/>
+      <c r="O143" s="395"/>
       <c r="P143" s="319" t="s">
         <v>416</v>
       </c>
@@ -44056,29 +44068,29 @@
       <c r="Z143" s="120"/>
     </row>
     <row r="144" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="365" t="s">
+      <c r="B144" s="386" t="s">
         <v>376</v>
       </c>
-      <c r="C144" s="366"/>
-      <c r="D144" s="366"/>
-      <c r="E144" s="366"/>
-      <c r="F144" s="366"/>
-      <c r="G144" s="366"/>
-      <c r="H144" s="367"/>
+      <c r="C144" s="387"/>
+      <c r="D144" s="387"/>
+      <c r="E144" s="387"/>
+      <c r="F144" s="387"/>
+      <c r="G144" s="387"/>
+      <c r="H144" s="388"/>
       <c r="I144" s="299" t="s">
         <v>383</v>
       </c>
       <c r="J144" s="143">
         <f>IF(J143=1/4,0.075,IF(J143=3/8,0.15,IF(J143=1/2,0.2,IF(J143=5/8,0.25))))</f>
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="K144" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L144" s="385"/>
-      <c r="M144" s="386"/>
-      <c r="N144" s="386"/>
-      <c r="O144" s="387"/>
+      <c r="L144" s="393"/>
+      <c r="M144" s="394"/>
+      <c r="N144" s="394"/>
+      <c r="O144" s="395"/>
       <c r="P144" s="161"/>
       <c r="Q144" s="188"/>
       <c r="R144" s="6"/>
@@ -44092,29 +44104,29 @@
       <c r="Z144" s="120"/>
     </row>
     <row r="145" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="365" t="s">
+      <c r="B145" s="386" t="s">
         <v>377</v>
       </c>
-      <c r="C145" s="366"/>
-      <c r="D145" s="366"/>
-      <c r="E145" s="366"/>
-      <c r="F145" s="366"/>
-      <c r="G145" s="366"/>
-      <c r="H145" s="367"/>
+      <c r="C145" s="387"/>
+      <c r="D145" s="387"/>
+      <c r="E145" s="387"/>
+      <c r="F145" s="387"/>
+      <c r="G145" s="387"/>
+      <c r="H145" s="388"/>
       <c r="I145" s="300" t="s">
         <v>384</v>
       </c>
       <c r="J145" s="279">
         <f>ROUND(J129/2-0.1,2)</f>
-        <v>1.34</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K145" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L145" s="385"/>
-      <c r="M145" s="386"/>
-      <c r="N145" s="386"/>
-      <c r="O145" s="387"/>
+      <c r="L145" s="393"/>
+      <c r="M145" s="394"/>
+      <c r="N145" s="394"/>
+      <c r="O145" s="395"/>
       <c r="P145" s="161"/>
       <c r="Q145" s="188"/>
       <c r="R145" s="6"/>
@@ -44128,15 +44140,15 @@
       <c r="Z145" s="120"/>
     </row>
     <row r="146" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="365" t="s">
+      <c r="B146" s="386" t="s">
         <v>378</v>
       </c>
-      <c r="C146" s="366"/>
-      <c r="D146" s="366"/>
-      <c r="E146" s="366"/>
-      <c r="F146" s="366"/>
-      <c r="G146" s="366"/>
-      <c r="H146" s="367"/>
+      <c r="C146" s="387"/>
+      <c r="D146" s="387"/>
+      <c r="E146" s="387"/>
+      <c r="F146" s="387"/>
+      <c r="G146" s="387"/>
+      <c r="H146" s="388"/>
       <c r="I146" s="299" t="s">
         <v>385</v>
       </c>
@@ -44146,10 +44158,10 @@
       <c r="K146" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L146" s="385"/>
-      <c r="M146" s="386"/>
-      <c r="N146" s="386"/>
-      <c r="O146" s="387"/>
+      <c r="L146" s="393"/>
+      <c r="M146" s="394"/>
+      <c r="N146" s="394"/>
+      <c r="O146" s="395"/>
       <c r="P146" s="319" t="s">
         <v>416</v>
       </c>
@@ -44165,31 +44177,33 @@
       <c r="Z146" s="120"/>
     </row>
     <row r="147" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="365" t="s">
+      <c r="B147" s="386" t="s">
         <v>379</v>
       </c>
-      <c r="C147" s="366"/>
-      <c r="D147" s="366"/>
-      <c r="E147" s="366"/>
-      <c r="F147" s="366"/>
-      <c r="G147" s="366"/>
-      <c r="H147" s="367"/>
+      <c r="C147" s="387"/>
+      <c r="D147" s="387"/>
+      <c r="E147" s="387"/>
+      <c r="F147" s="387"/>
+      <c r="G147" s="387"/>
+      <c r="H147" s="388"/>
       <c r="I147" s="298" t="s">
         <v>386</v>
       </c>
-      <c r="J147" s="286">
+      <c r="J147" s="320">
         <f>IF(J145&lt;1,2,IF(J145&lt;1.5,2.5,IF(J145&lt;2,3)))</f>
         <v>2.5</v>
       </c>
       <c r="K147" s="153" t="s">
         <v>375</v>
       </c>
-      <c r="L147" s="385"/>
-      <c r="M147" s="386"/>
-      <c r="N147" s="386"/>
-      <c r="O147" s="387"/>
-      <c r="P147" s="161"/>
-      <c r="Q147" s="188"/>
+      <c r="L147" s="393"/>
+      <c r="M147" s="394"/>
+      <c r="N147" s="394"/>
+      <c r="O147" s="395"/>
+      <c r="P147" s="512" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q147" s="511"/>
       <c r="R147" s="6"/>
       <c r="S147" s="121"/>
       <c r="T147" s="121"/>
@@ -44201,27 +44215,27 @@
       <c r="Z147" s="120"/>
     </row>
     <row r="148" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="368" t="s">
+      <c r="B148" s="396" t="s">
         <v>389</v>
       </c>
-      <c r="C148" s="369"/>
-      <c r="D148" s="369"/>
-      <c r="E148" s="369"/>
-      <c r="F148" s="369"/>
-      <c r="G148" s="369"/>
-      <c r="H148" s="370"/>
-      <c r="I148" s="374" t="s">
+      <c r="C148" s="397"/>
+      <c r="D148" s="397"/>
+      <c r="E148" s="397"/>
+      <c r="F148" s="397"/>
+      <c r="G148" s="397"/>
+      <c r="H148" s="398"/>
+      <c r="I148" s="402" t="s">
         <v>388</v>
       </c>
-      <c r="J148" s="500">
+      <c r="J148" s="404">
         <f>ROUNDDOWN(2*(J129/J146),0)</f>
-        <v>19</v>
-      </c>
-      <c r="K148" s="374"/>
-      <c r="L148" s="378"/>
-      <c r="M148" s="379"/>
-      <c r="N148" s="379"/>
-      <c r="O148" s="380"/>
+        <v>16</v>
+      </c>
+      <c r="K148" s="402"/>
+      <c r="L148" s="406"/>
+      <c r="M148" s="407"/>
+      <c r="N148" s="407"/>
+      <c r="O148" s="408"/>
       <c r="P148" s="161"/>
       <c r="Q148" s="290"/>
       <c r="R148" s="6"/>
@@ -44235,20 +44249,20 @@
       <c r="Z148" s="120"/>
     </row>
     <row r="149" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="371"/>
-      <c r="C149" s="372"/>
-      <c r="D149" s="372"/>
-      <c r="E149" s="372"/>
-      <c r="F149" s="372"/>
-      <c r="G149" s="372"/>
-      <c r="H149" s="373"/>
-      <c r="I149" s="375"/>
-      <c r="J149" s="501"/>
-      <c r="K149" s="375"/>
-      <c r="L149" s="381"/>
-      <c r="M149" s="382"/>
-      <c r="N149" s="382"/>
-      <c r="O149" s="383"/>
+      <c r="B149" s="399"/>
+      <c r="C149" s="400"/>
+      <c r="D149" s="400"/>
+      <c r="E149" s="400"/>
+      <c r="F149" s="400"/>
+      <c r="G149" s="400"/>
+      <c r="H149" s="401"/>
+      <c r="I149" s="403"/>
+      <c r="J149" s="405"/>
+      <c r="K149" s="403"/>
+      <c r="L149" s="409"/>
+      <c r="M149" s="410"/>
+      <c r="N149" s="410"/>
+      <c r="O149" s="411"/>
       <c r="P149" s="161"/>
       <c r="Q149" s="280"/>
       <c r="R149" s="6"/>
@@ -44262,27 +44276,27 @@
       <c r="Z149" s="120"/>
     </row>
     <row r="150" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="368" t="s">
+      <c r="B150" s="396" t="s">
         <v>390</v>
       </c>
-      <c r="C150" s="369"/>
-      <c r="D150" s="369"/>
-      <c r="E150" s="369"/>
-      <c r="F150" s="369"/>
-      <c r="G150" s="369"/>
-      <c r="H150" s="370"/>
-      <c r="I150" s="374" t="s">
+      <c r="C150" s="397"/>
+      <c r="D150" s="397"/>
+      <c r="E150" s="397"/>
+      <c r="F150" s="397"/>
+      <c r="G150" s="397"/>
+      <c r="H150" s="398"/>
+      <c r="I150" s="402" t="s">
         <v>387</v>
       </c>
-      <c r="J150" s="500">
+      <c r="J150" s="404">
         <f>J148*ROUND(J145/J144,0)*2</f>
-        <v>190</v>
-      </c>
-      <c r="K150" s="374"/>
-      <c r="L150" s="378"/>
-      <c r="M150" s="379"/>
-      <c r="N150" s="379"/>
-      <c r="O150" s="380"/>
+        <v>256</v>
+      </c>
+      <c r="K150" s="402"/>
+      <c r="L150" s="406"/>
+      <c r="M150" s="407"/>
+      <c r="N150" s="407"/>
+      <c r="O150" s="408"/>
       <c r="P150" s="161"/>
       <c r="Q150" s="290"/>
       <c r="R150" s="6"/>
@@ -44296,20 +44310,20 @@
       <c r="Z150" s="120"/>
     </row>
     <row r="151" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="371"/>
-      <c r="C151" s="372"/>
-      <c r="D151" s="372"/>
-      <c r="E151" s="372"/>
-      <c r="F151" s="372"/>
-      <c r="G151" s="372"/>
-      <c r="H151" s="373"/>
-      <c r="I151" s="375"/>
-      <c r="J151" s="501"/>
-      <c r="K151" s="375"/>
-      <c r="L151" s="381"/>
-      <c r="M151" s="382"/>
-      <c r="N151" s="382"/>
-      <c r="O151" s="383"/>
+      <c r="B151" s="399"/>
+      <c r="C151" s="400"/>
+      <c r="D151" s="400"/>
+      <c r="E151" s="400"/>
+      <c r="F151" s="400"/>
+      <c r="G151" s="400"/>
+      <c r="H151" s="401"/>
+      <c r="I151" s="403"/>
+      <c r="J151" s="405"/>
+      <c r="K151" s="403"/>
+      <c r="L151" s="409"/>
+      <c r="M151" s="410"/>
+      <c r="N151" s="410"/>
+      <c r="O151" s="411"/>
       <c r="P151" s="161"/>
       <c r="Q151" s="280"/>
       <c r="R151" s="6"/>
@@ -44323,29 +44337,29 @@
       <c r="Z151" s="120"/>
     </row>
     <row r="152" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="368" t="s">
+      <c r="B152" s="396" t="s">
         <v>392</v>
       </c>
-      <c r="C152" s="369"/>
-      <c r="D152" s="369"/>
-      <c r="E152" s="369"/>
-      <c r="F152" s="369"/>
-      <c r="G152" s="369"/>
-      <c r="H152" s="370"/>
-      <c r="I152" s="374" t="s">
+      <c r="C152" s="397"/>
+      <c r="D152" s="397"/>
+      <c r="E152" s="397"/>
+      <c r="F152" s="397"/>
+      <c r="G152" s="397"/>
+      <c r="H152" s="398"/>
+      <c r="I152" s="402" t="s">
         <v>391</v>
       </c>
-      <c r="J152" s="376">
+      <c r="J152" s="508">
         <f>J150*PI()*(((J143*0.0254)^2)/4)</f>
-        <v>3.7607195714267412E-2</v>
-      </c>
-      <c r="K152" s="374" t="s">
+        <v>1.8241469247509915E-2</v>
+      </c>
+      <c r="K152" s="402" t="s">
         <v>393</v>
       </c>
-      <c r="L152" s="378"/>
-      <c r="M152" s="379"/>
-      <c r="N152" s="379"/>
-      <c r="O152" s="380"/>
+      <c r="L152" s="406"/>
+      <c r="M152" s="407"/>
+      <c r="N152" s="407"/>
+      <c r="O152" s="408"/>
       <c r="P152" s="161"/>
       <c r="Q152" s="290"/>
       <c r="R152" s="6"/>
@@ -44359,20 +44373,20 @@
       <c r="Z152" s="120"/>
     </row>
     <row r="153" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="371"/>
-      <c r="C153" s="372"/>
-      <c r="D153" s="372"/>
-      <c r="E153" s="372"/>
-      <c r="F153" s="372"/>
-      <c r="G153" s="372"/>
-      <c r="H153" s="373"/>
-      <c r="I153" s="375"/>
-      <c r="J153" s="377"/>
-      <c r="K153" s="375"/>
-      <c r="L153" s="381"/>
-      <c r="M153" s="382"/>
-      <c r="N153" s="382"/>
-      <c r="O153" s="383"/>
+      <c r="B153" s="399"/>
+      <c r="C153" s="400"/>
+      <c r="D153" s="400"/>
+      <c r="E153" s="400"/>
+      <c r="F153" s="400"/>
+      <c r="G153" s="400"/>
+      <c r="H153" s="401"/>
+      <c r="I153" s="403"/>
+      <c r="J153" s="509"/>
+      <c r="K153" s="403"/>
+      <c r="L153" s="409"/>
+      <c r="M153" s="410"/>
+      <c r="N153" s="410"/>
+      <c r="O153" s="411"/>
       <c r="P153" s="161"/>
       <c r="Q153" s="290"/>
       <c r="R153" s="6"/>
@@ -44386,29 +44400,29 @@
       <c r="Z153" s="120"/>
     </row>
     <row r="154" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="368" t="s">
+      <c r="B154" s="396" t="s">
         <v>394</v>
       </c>
-      <c r="C154" s="369"/>
-      <c r="D154" s="369"/>
-      <c r="E154" s="369"/>
-      <c r="F154" s="369"/>
-      <c r="G154" s="369"/>
-      <c r="H154" s="370"/>
-      <c r="I154" s="374" t="s">
+      <c r="C154" s="397"/>
+      <c r="D154" s="397"/>
+      <c r="E154" s="397"/>
+      <c r="F154" s="397"/>
+      <c r="G154" s="397"/>
+      <c r="H154" s="398"/>
+      <c r="I154" s="402" t="s">
         <v>395</v>
       </c>
-      <c r="J154" s="376">
+      <c r="J154" s="508">
         <f>J152/0.4</f>
-        <v>9.4017989285668527E-2</v>
-      </c>
-      <c r="K154" s="374" t="s">
+        <v>4.5603673118774786E-2</v>
+      </c>
+      <c r="K154" s="402" t="s">
         <v>393</v>
       </c>
-      <c r="L154" s="378"/>
-      <c r="M154" s="379"/>
-      <c r="N154" s="379"/>
-      <c r="O154" s="380"/>
+      <c r="L154" s="406"/>
+      <c r="M154" s="407"/>
+      <c r="N154" s="407"/>
+      <c r="O154" s="408"/>
       <c r="P154" s="161"/>
       <c r="Q154" s="290"/>
       <c r="R154" s="6"/>
@@ -44422,20 +44436,20 @@
       <c r="Z154" s="120"/>
     </row>
     <row r="155" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="371"/>
-      <c r="C155" s="372"/>
-      <c r="D155" s="372"/>
-      <c r="E155" s="372"/>
-      <c r="F155" s="372"/>
-      <c r="G155" s="372"/>
-      <c r="H155" s="373"/>
-      <c r="I155" s="375"/>
-      <c r="J155" s="377"/>
-      <c r="K155" s="375"/>
-      <c r="L155" s="381"/>
-      <c r="M155" s="382"/>
-      <c r="N155" s="382"/>
-      <c r="O155" s="383"/>
+      <c r="B155" s="399"/>
+      <c r="C155" s="400"/>
+      <c r="D155" s="400"/>
+      <c r="E155" s="400"/>
+      <c r="F155" s="400"/>
+      <c r="G155" s="400"/>
+      <c r="H155" s="401"/>
+      <c r="I155" s="403"/>
+      <c r="J155" s="509"/>
+      <c r="K155" s="403"/>
+      <c r="L155" s="409"/>
+      <c r="M155" s="410"/>
+      <c r="N155" s="410"/>
+      <c r="O155" s="411"/>
       <c r="P155" s="161"/>
       <c r="Q155" s="280"/>
       <c r="R155" s="6"/>
@@ -44449,19 +44463,19 @@
       <c r="Z155" s="120"/>
     </row>
     <row r="156" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="365" t="s">
+      <c r="B156" s="386" t="s">
         <v>396</v>
       </c>
-      <c r="C156" s="366"/>
-      <c r="D156" s="366"/>
-      <c r="E156" s="366"/>
-      <c r="F156" s="366"/>
-      <c r="G156" s="366"/>
-      <c r="H156" s="367"/>
+      <c r="C156" s="387"/>
+      <c r="D156" s="387"/>
+      <c r="E156" s="387"/>
+      <c r="F156" s="387"/>
+      <c r="G156" s="387"/>
+      <c r="H156" s="388"/>
       <c r="I156" s="291"/>
       <c r="J156" s="295" t="str">
         <f>INDEX(AL8:AL16,MATCH(J154,AM8:AM16,1),1)</f>
-        <v>12 X 12</v>
+        <v>8 X 8</v>
       </c>
       <c r="K156" s="153" t="s">
         <v>408</v>
@@ -44483,29 +44497,29 @@
       <c r="Z156" s="120"/>
     </row>
     <row r="157" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="384" t="s">
+      <c r="B157" s="510" t="s">
         <v>410</v>
       </c>
-      <c r="C157" s="384"/>
-      <c r="D157" s="384"/>
-      <c r="E157" s="384"/>
-      <c r="F157" s="384"/>
-      <c r="G157" s="384"/>
-      <c r="H157" s="384"/>
+      <c r="C157" s="510"/>
+      <c r="D157" s="510"/>
+      <c r="E157" s="510"/>
+      <c r="F157" s="510"/>
+      <c r="G157" s="510"/>
+      <c r="H157" s="510"/>
       <c r="I157" s="300" t="s">
         <v>395</v>
       </c>
       <c r="J157" s="289">
         <f>VLOOKUP(J156,AL8:AM16,2,FALSE)</f>
-        <v>9.2903039999999978E-2</v>
+        <v>4.1290239999999999E-2</v>
       </c>
       <c r="K157" s="153" t="s">
         <v>393</v>
       </c>
-      <c r="L157" s="385"/>
-      <c r="M157" s="386"/>
-      <c r="N157" s="386"/>
-      <c r="O157" s="387"/>
+      <c r="L157" s="393"/>
+      <c r="M157" s="394"/>
+      <c r="N157" s="394"/>
+      <c r="O157" s="395"/>
       <c r="P157" s="161"/>
       <c r="Q157" s="290"/>
       <c r="R157" s="6"/>
@@ -44519,28 +44533,28 @@
       <c r="Z157" s="120"/>
     </row>
     <row r="158" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="365" t="s">
+      <c r="B158" s="386" t="s">
         <v>409</v>
       </c>
-      <c r="C158" s="366"/>
-      <c r="D158" s="366"/>
-      <c r="E158" s="366"/>
-      <c r="F158" s="366"/>
-      <c r="G158" s="366"/>
-      <c r="H158" s="367"/>
+      <c r="C158" s="387"/>
+      <c r="D158" s="387"/>
+      <c r="E158" s="387"/>
+      <c r="F158" s="387"/>
+      <c r="G158" s="387"/>
+      <c r="H158" s="388"/>
       <c r="I158" s="300"/>
       <c r="J158" s="289">
         <f>J152/J126</f>
-        <v>4.5639800624110933E-3</v>
+        <v>2.8772033513422579E-3</v>
       </c>
       <c r="K158" s="291"/>
-      <c r="L158" s="362" t="str">
+      <c r="L158" s="505" t="str">
         <f>IF(AND(J158&gt;0.0015,J158&lt;0.005),"¡ok!","¡error!")</f>
         <v>¡ok!</v>
       </c>
-      <c r="M158" s="363"/>
-      <c r="N158" s="363"/>
-      <c r="O158" s="364"/>
+      <c r="M158" s="506"/>
+      <c r="N158" s="506"/>
+      <c r="O158" s="507"/>
       <c r="P158" s="161"/>
       <c r="Q158" s="290"/>
       <c r="R158" s="6"/>
@@ -44554,28 +44568,28 @@
       <c r="Z158" s="120"/>
     </row>
     <row r="159" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="365" t="s">
+      <c r="B159" s="386" t="s">
         <v>411</v>
       </c>
-      <c r="C159" s="366"/>
-      <c r="D159" s="366"/>
-      <c r="E159" s="366"/>
-      <c r="F159" s="366"/>
-      <c r="G159" s="366"/>
-      <c r="H159" s="367"/>
+      <c r="C159" s="387"/>
+      <c r="D159" s="387"/>
+      <c r="E159" s="387"/>
+      <c r="F159" s="387"/>
+      <c r="G159" s="387"/>
+      <c r="H159" s="388"/>
       <c r="I159" s="300"/>
       <c r="J159" s="289">
         <f>((0.0254*J147)^2)/(J152/J148)</f>
-        <v>2.0371832715762603</v>
+        <v>3.5367765131532307</v>
       </c>
       <c r="K159" s="291"/>
-      <c r="L159" s="362" t="str">
+      <c r="L159" s="505" t="str">
         <f>IF(AND(J159&gt;2,J159&lt;4),"¡ok!","¡error!")</f>
         <v>¡ok!</v>
       </c>
-      <c r="M159" s="363"/>
-      <c r="N159" s="363"/>
-      <c r="O159" s="364"/>
+      <c r="M159" s="506"/>
+      <c r="N159" s="506"/>
+      <c r="O159" s="507"/>
       <c r="P159" s="161"/>
       <c r="Q159" s="290"/>
       <c r="R159" s="6"/>
@@ -44645,15 +44659,15 @@
       <c r="Z161" s="120"/>
     </row>
     <row r="162" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="340" t="s">
+      <c r="B162" s="342" t="s">
         <v>232</v>
       </c>
-      <c r="C162" s="496"/>
-      <c r="D162" s="496"/>
-      <c r="E162" s="496"/>
-      <c r="F162" s="496"/>
-      <c r="G162" s="496"/>
-      <c r="H162" s="341"/>
+      <c r="C162" s="389"/>
+      <c r="D162" s="389"/>
+      <c r="E162" s="389"/>
+      <c r="F162" s="389"/>
+      <c r="G162" s="389"/>
+      <c r="H162" s="343"/>
       <c r="I162" s="153" t="s">
         <v>88</v>
       </c>
@@ -44664,10 +44678,10 @@
       <c r="K162" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="L162" s="495"/>
-      <c r="M162" s="495"/>
-      <c r="N162" s="495"/>
-      <c r="O162" s="495"/>
+      <c r="L162" s="392"/>
+      <c r="M162" s="392"/>
+      <c r="N162" s="392"/>
+      <c r="O162" s="392"/>
       <c r="P162" s="121"/>
       <c r="Q162" s="121"/>
       <c r="R162" s="121"/>
@@ -44681,15 +44695,15 @@
       <c r="Z162" s="120"/>
     </row>
     <row r="163" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="340" t="s">
+      <c r="B163" s="342" t="s">
         <v>231</v>
       </c>
-      <c r="C163" s="496"/>
-      <c r="D163" s="496"/>
-      <c r="E163" s="496"/>
-      <c r="F163" s="496"/>
-      <c r="G163" s="496"/>
-      <c r="H163" s="341"/>
+      <c r="C163" s="389"/>
+      <c r="D163" s="389"/>
+      <c r="E163" s="389"/>
+      <c r="F163" s="389"/>
+      <c r="G163" s="389"/>
+      <c r="H163" s="343"/>
       <c r="I163" s="153" t="s">
         <v>11</v>
       </c>
@@ -44698,10 +44712,10 @@
         <v>0.45</v>
       </c>
       <c r="K163" s="156"/>
-      <c r="L163" s="495"/>
-      <c r="M163" s="495"/>
-      <c r="N163" s="495"/>
-      <c r="O163" s="495"/>
+      <c r="L163" s="392"/>
+      <c r="M163" s="392"/>
+      <c r="N163" s="392"/>
+      <c r="O163" s="392"/>
       <c r="P163" s="121"/>
       <c r="Q163" s="121"/>
       <c r="R163" s="121"/>
@@ -44715,15 +44729,15 @@
       <c r="Z163" s="120"/>
     </row>
     <row r="164" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="340" t="s">
+      <c r="B164" s="342" t="s">
         <v>233</v>
       </c>
-      <c r="C164" s="496"/>
-      <c r="D164" s="496"/>
-      <c r="E164" s="496"/>
-      <c r="F164" s="496"/>
-      <c r="G164" s="496"/>
-      <c r="H164" s="341"/>
+      <c r="C164" s="389"/>
+      <c r="D164" s="389"/>
+      <c r="E164" s="389"/>
+      <c r="F164" s="389"/>
+      <c r="G164" s="389"/>
+      <c r="H164" s="343"/>
       <c r="I164" s="153" t="s">
         <v>234</v>
       </c>
@@ -44732,10 +44746,10 @@
         <v>2.65</v>
       </c>
       <c r="K164" s="156"/>
-      <c r="L164" s="495"/>
-      <c r="M164" s="495"/>
-      <c r="N164" s="495"/>
-      <c r="O164" s="495"/>
+      <c r="L164" s="392"/>
+      <c r="M164" s="392"/>
+      <c r="N164" s="392"/>
+      <c r="O164" s="392"/>
       <c r="P164" s="121"/>
       <c r="Q164" s="121"/>
       <c r="R164" s="121"/>
@@ -44749,15 +44763,15 @@
       <c r="Z164" s="120"/>
     </row>
     <row r="165" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="333" t="s">
+      <c r="B165" s="339" t="s">
         <v>236</v>
       </c>
-      <c r="C165" s="333"/>
-      <c r="D165" s="333"/>
-      <c r="E165" s="333"/>
-      <c r="F165" s="333"/>
-      <c r="G165" s="333"/>
-      <c r="H165" s="333"/>
+      <c r="C165" s="339"/>
+      <c r="D165" s="339"/>
+      <c r="E165" s="339"/>
+      <c r="F165" s="339"/>
+      <c r="G165" s="339"/>
+      <c r="H165" s="339"/>
       <c r="I165" s="153" t="s">
         <v>235</v>
       </c>
@@ -44768,10 +44782,10 @@
       <c r="K165" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="L165" s="495"/>
-      <c r="M165" s="495"/>
-      <c r="N165" s="495"/>
-      <c r="O165" s="495"/>
+      <c r="L165" s="392"/>
+      <c r="M165" s="392"/>
+      <c r="N165" s="392"/>
+      <c r="O165" s="392"/>
       <c r="P165" s="121"/>
       <c r="Q165" s="121"/>
       <c r="R165" s="121"/>
@@ -44897,8 +44911,8 @@
       <c r="Z169" s="120"/>
     </row>
     <row r="170" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="407"/>
-      <c r="C170" s="407"/>
+      <c r="B170" s="480"/>
+      <c r="C170" s="480"/>
       <c r="D170" s="130"/>
       <c r="E170" s="5"/>
       <c r="F170" s="131"/>
@@ -45003,13 +45017,13 @@
       <c r="Y173" s="113"/>
     </row>
     <row r="174" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="346" t="s">
+      <c r="B174" s="335" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="346"/>
-      <c r="D174" s="346"/>
-      <c r="E174" s="346"/>
-      <c r="F174" s="346"/>
+      <c r="C174" s="335"/>
+      <c r="D174" s="335"/>
+      <c r="E174" s="335"/>
+      <c r="F174" s="335"/>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
@@ -45060,16 +45074,16 @@
       <c r="B176" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C176" s="350" t="s">
+      <c r="C176" s="322" t="s">
         <v>202</v>
       </c>
-      <c r="D176" s="350"/>
-      <c r="E176" s="350"/>
-      <c r="F176" s="350"/>
-      <c r="G176" s="350"/>
-      <c r="H176" s="350"/>
-      <c r="I176" s="350"/>
-      <c r="J176" s="350"/>
+      <c r="D176" s="322"/>
+      <c r="E176" s="322"/>
+      <c r="F176" s="322"/>
+      <c r="G176" s="322"/>
+      <c r="H176" s="322"/>
+      <c r="I176" s="322"/>
+      <c r="J176" s="322"/>
       <c r="K176" s="113"/>
       <c r="L176" s="113"/>
       <c r="M176" s="113"/>
@@ -45090,16 +45104,16 @@
       <c r="B177" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C177" s="350" t="s">
+      <c r="C177" s="322" t="s">
         <v>64</v>
       </c>
-      <c r="D177" s="350"/>
-      <c r="E177" s="350"/>
-      <c r="F177" s="350"/>
-      <c r="G177" s="350"/>
-      <c r="H177" s="350"/>
-      <c r="I177" s="350"/>
-      <c r="J177" s="350"/>
+      <c r="D177" s="322"/>
+      <c r="E177" s="322"/>
+      <c r="F177" s="322"/>
+      <c r="G177" s="322"/>
+      <c r="H177" s="322"/>
+      <c r="I177" s="322"/>
+      <c r="J177" s="322"/>
       <c r="K177" s="113"/>
       <c r="L177" s="113"/>
       <c r="M177" s="113"/>
@@ -45120,16 +45134,16 @@
       <c r="B178" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C178" s="443" t="s">
+      <c r="C178" s="479" t="s">
         <v>40</v>
       </c>
-      <c r="D178" s="443"/>
-      <c r="E178" s="443"/>
-      <c r="F178" s="443"/>
-      <c r="G178" s="443"/>
-      <c r="H178" s="443"/>
-      <c r="I178" s="443"/>
-      <c r="J178" s="443"/>
+      <c r="D178" s="479"/>
+      <c r="E178" s="479"/>
+      <c r="F178" s="479"/>
+      <c r="G178" s="479"/>
+      <c r="H178" s="479"/>
+      <c r="I178" s="479"/>
+      <c r="J178" s="479"/>
       <c r="K178" s="23"/>
       <c r="L178" s="23"/>
       <c r="M178" s="23"/>
@@ -45150,16 +45164,16 @@
       <c r="B179" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C179" s="350" t="s">
+      <c r="C179" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="D179" s="350"/>
-      <c r="E179" s="350"/>
-      <c r="F179" s="350"/>
-      <c r="G179" s="350"/>
-      <c r="H179" s="350"/>
-      <c r="I179" s="350"/>
-      <c r="J179" s="350"/>
+      <c r="D179" s="322"/>
+      <c r="E179" s="322"/>
+      <c r="F179" s="322"/>
+      <c r="G179" s="322"/>
+      <c r="H179" s="322"/>
+      <c r="I179" s="322"/>
+      <c r="J179" s="322"/>
       <c r="K179" s="23"/>
       <c r="L179" s="23"/>
       <c r="M179" s="23"/>
@@ -45180,16 +45194,16 @@
       <c r="B180" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C180" s="350" t="s">
+      <c r="C180" s="322" t="s">
         <v>66</v>
       </c>
-      <c r="D180" s="350"/>
-      <c r="E180" s="350"/>
-      <c r="F180" s="350"/>
-      <c r="G180" s="350"/>
-      <c r="H180" s="350"/>
-      <c r="I180" s="350"/>
-      <c r="J180" s="350"/>
+      <c r="D180" s="322"/>
+      <c r="E180" s="322"/>
+      <c r="F180" s="322"/>
+      <c r="G180" s="322"/>
+      <c r="H180" s="322"/>
+      <c r="I180" s="322"/>
+      <c r="J180" s="322"/>
       <c r="K180" s="23"/>
       <c r="L180" s="23"/>
       <c r="M180" s="23"/>
@@ -45210,16 +45224,16 @@
       <c r="B181" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C181" s="342" t="s">
+      <c r="C181" s="334" t="s">
         <v>56</v>
       </c>
-      <c r="D181" s="342"/>
-      <c r="E181" s="342"/>
-      <c r="F181" s="342"/>
-      <c r="G181" s="342"/>
-      <c r="H181" s="342"/>
-      <c r="I181" s="342"/>
-      <c r="J181" s="342"/>
+      <c r="D181" s="334"/>
+      <c r="E181" s="334"/>
+      <c r="F181" s="334"/>
+      <c r="G181" s="334"/>
+      <c r="H181" s="334"/>
+      <c r="I181" s="334"/>
+      <c r="J181" s="334"/>
       <c r="K181" s="113"/>
       <c r="L181" s="113"/>
       <c r="M181" s="113"/>
@@ -45240,16 +45254,16 @@
       <c r="B182" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C182" s="443" t="s">
+      <c r="C182" s="479" t="s">
         <v>78</v>
       </c>
-      <c r="D182" s="443"/>
-      <c r="E182" s="443"/>
-      <c r="F182" s="443"/>
-      <c r="G182" s="443"/>
-      <c r="H182" s="443"/>
-      <c r="I182" s="443"/>
-      <c r="J182" s="443"/>
+      <c r="D182" s="479"/>
+      <c r="E182" s="479"/>
+      <c r="F182" s="479"/>
+      <c r="G182" s="479"/>
+      <c r="H182" s="479"/>
+      <c r="I182" s="479"/>
+      <c r="J182" s="479"/>
       <c r="K182" s="113"/>
       <c r="L182" s="113"/>
       <c r="M182" s="113"/>
@@ -45270,16 +45284,16 @@
       <c r="B183" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C183" s="350" t="s">
+      <c r="C183" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="D183" s="350"/>
-      <c r="E183" s="350"/>
-      <c r="F183" s="350"/>
-      <c r="G183" s="350"/>
-      <c r="H183" s="350"/>
-      <c r="I183" s="350"/>
-      <c r="J183" s="350"/>
+      <c r="D183" s="322"/>
+      <c r="E183" s="322"/>
+      <c r="F183" s="322"/>
+      <c r="G183" s="322"/>
+      <c r="H183" s="322"/>
+      <c r="I183" s="322"/>
+      <c r="J183" s="322"/>
       <c r="K183" s="113"/>
       <c r="L183" s="113"/>
       <c r="M183" s="113"/>
@@ -45300,16 +45314,16 @@
       <c r="B184" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C184" s="350" t="s">
+      <c r="C184" s="322" t="s">
         <v>169</v>
       </c>
-      <c r="D184" s="350"/>
-      <c r="E184" s="350"/>
-      <c r="F184" s="350"/>
-      <c r="G184" s="350"/>
-      <c r="H184" s="350"/>
-      <c r="I184" s="350"/>
-      <c r="J184" s="350"/>
+      <c r="D184" s="322"/>
+      <c r="E184" s="322"/>
+      <c r="F184" s="322"/>
+      <c r="G184" s="322"/>
+      <c r="H184" s="322"/>
+      <c r="I184" s="322"/>
+      <c r="J184" s="322"/>
       <c r="K184" s="121"/>
       <c r="L184" s="121"/>
       <c r="M184" s="121"/>
@@ -46971,33 +46985,209 @@
       <c r="X249" s="113"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="V88:V96"/>
-    <mergeCell ref="Q97:Q99"/>
-    <mergeCell ref="R88:R96"/>
-    <mergeCell ref="X84:X87"/>
-    <mergeCell ref="Y84:Y87"/>
-    <mergeCell ref="U97:U99"/>
-    <mergeCell ref="S84:V84"/>
-    <mergeCell ref="S85:S87"/>
-    <mergeCell ref="T85:T87"/>
-    <mergeCell ref="U85:U87"/>
-    <mergeCell ref="V85:V87"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:I20"/>
+  <mergeCells count="253">
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="Q119:R119"/>
+    <mergeCell ref="L158:O158"/>
+    <mergeCell ref="B159:H159"/>
+    <mergeCell ref="L159:O159"/>
+    <mergeCell ref="B152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="L152:O153"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="B154:H155"/>
+    <mergeCell ref="I154:I155"/>
+    <mergeCell ref="J154:J155"/>
+    <mergeCell ref="L154:O155"/>
+    <mergeCell ref="B157:H157"/>
+    <mergeCell ref="L157:O157"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="B126:H126"/>
+    <mergeCell ref="B127:H128"/>
+    <mergeCell ref="B2:F5"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="H56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B60:C62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="B84:C87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="K88:M96"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B121:H121"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="L127:O128"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C184:J184"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="C179:J179"/>
+    <mergeCell ref="C180:J180"/>
+    <mergeCell ref="C181:J181"/>
+    <mergeCell ref="C182:J182"/>
+    <mergeCell ref="C183:J183"/>
+    <mergeCell ref="C176:J176"/>
+    <mergeCell ref="C177:J177"/>
+    <mergeCell ref="C178:J178"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B67:C69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G67:H69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B135:H135"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H53:J55"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B53:C55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B38:C41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="L122:O123"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="L124:O125"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B102:C105"/>
+    <mergeCell ref="F102:F105"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="H102:H105"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B124:H125"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="O96:P96"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="O85:P87"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="K85:M87"/>
+    <mergeCell ref="N84:R84"/>
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="Q85:Q87"/>
+    <mergeCell ref="R85:R87"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="H60:J62"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="B165:H165"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="B136:H136"/>
+    <mergeCell ref="B137:H137"/>
+    <mergeCell ref="B115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:O116"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L136:O136"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="L138:O138"/>
+    <mergeCell ref="L119:O119"/>
+    <mergeCell ref="B129:H129"/>
+    <mergeCell ref="B138:H138"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B140:H140"/>
+    <mergeCell ref="L162:O162"/>
+    <mergeCell ref="L163:O163"/>
+    <mergeCell ref="L164:O164"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="L145:O145"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="L147:O147"/>
+    <mergeCell ref="B148:H149"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="L148:O149"/>
+    <mergeCell ref="B150:H151"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="L150:O151"/>
+    <mergeCell ref="B156:H156"/>
     <mergeCell ref="B158:H158"/>
     <mergeCell ref="B139:H139"/>
     <mergeCell ref="B10:H10"/>
@@ -47022,208 +47212,33 @@
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L164:O164"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="L145:O145"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="B148:H149"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="J148:J149"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="L148:O149"/>
-    <mergeCell ref="B150:H151"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="L150:O151"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="B165:H165"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="B136:H136"/>
-    <mergeCell ref="B137:H137"/>
-    <mergeCell ref="B115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:O116"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="L136:O136"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="L138:O138"/>
-    <mergeCell ref="L119:O119"/>
-    <mergeCell ref="B129:H129"/>
-    <mergeCell ref="B138:H138"/>
-    <mergeCell ref="B164:H164"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="B140:H140"/>
-    <mergeCell ref="L162:O162"/>
-    <mergeCell ref="L163:O163"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="O96:P96"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="O85:P87"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="K85:M87"/>
-    <mergeCell ref="N84:R84"/>
-    <mergeCell ref="N85:N87"/>
-    <mergeCell ref="Q85:Q87"/>
-    <mergeCell ref="R85:R87"/>
-    <mergeCell ref="H63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="H60:J62"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="L122:O123"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="L124:O125"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B102:C105"/>
-    <mergeCell ref="F102:F105"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="H102:H105"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B124:H125"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H53:J55"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B53:C55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B38:C41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C184:J184"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="C179:J179"/>
-    <mergeCell ref="C180:J180"/>
-    <mergeCell ref="C181:J181"/>
-    <mergeCell ref="C182:J182"/>
-    <mergeCell ref="C183:J183"/>
-    <mergeCell ref="C176:J176"/>
-    <mergeCell ref="C177:J177"/>
-    <mergeCell ref="C178:J178"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="B84:C87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="K88:M96"/>
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B121:H121"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B67:C69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G67:H69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B135:H135"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="L127:O128"/>
-    <mergeCell ref="B2:F5"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="H56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="Q119:R119"/>
-    <mergeCell ref="L158:O158"/>
-    <mergeCell ref="B159:H159"/>
-    <mergeCell ref="L159:O159"/>
-    <mergeCell ref="B152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="L152:O153"/>
-    <mergeCell ref="K154:K155"/>
-    <mergeCell ref="B154:H155"/>
-    <mergeCell ref="I154:I155"/>
-    <mergeCell ref="J154:J155"/>
-    <mergeCell ref="L154:O155"/>
-    <mergeCell ref="B157:H157"/>
-    <mergeCell ref="L157:O157"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="L134:O134"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="B126:H126"/>
-    <mergeCell ref="B127:H128"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="V88:V96"/>
+    <mergeCell ref="Q97:Q99"/>
+    <mergeCell ref="R88:R96"/>
+    <mergeCell ref="X84:X87"/>
+    <mergeCell ref="Y84:Y87"/>
+    <mergeCell ref="U97:U99"/>
+    <mergeCell ref="S84:V84"/>
+    <mergeCell ref="S85:S87"/>
+    <mergeCell ref="T85:T87"/>
+    <mergeCell ref="U85:U87"/>
+    <mergeCell ref="V85:V87"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:J28">
     <cfRule type="expression" dxfId="4" priority="6">

--- a/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v5.xlsx
+++ b/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v5.xlsx
@@ -1,37 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco V\Desktop\Proyecto\Aplicacion\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Proyecto\Aplicacion\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB7002E-DAD2-492A-9163-0247D9461D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedimentador alta tasa" sheetId="1" r:id="rId1"/>
     <sheet name="Sedimentador alta tasa (Romero)" sheetId="2" r:id="rId2"/>
     <sheet name="Filtro rápido" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ariel Puerto</author>
   </authors>
   <commentList>
-    <comment ref="K8" authorId="0" shapeId="0">
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0">
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0" shapeId="0">
+    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0" shapeId="0">
+    <comment ref="F39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F49" authorId="0" shapeId="0">
+    <comment ref="F49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F50" authorId="0" shapeId="0">
+    <comment ref="F50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F51" authorId="0" shapeId="0">
+    <comment ref="F51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F55" authorId="0" shapeId="0">
+    <comment ref="F55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -256,12 +265,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ariel Puerto</author>
   </authors>
   <commentList>
-    <comment ref="F48" authorId="0" shapeId="0">
+    <comment ref="F48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -290,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="419">
   <si>
     <t>Q</t>
   </si>
@@ -3394,11 +3403,14 @@
   <si>
     <t>¿Y  si es mayor que 2?</t>
   </si>
+  <si>
+    <t>gi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
@@ -4879,8 +4891,32 @@
     <xf numFmtId="174" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4888,34 +4924,49 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4930,71 +4981,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5002,74 +5011,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5079,27 +5040,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5125,10 +5065,10 @@
     <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5149,6 +5089,36 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5161,11 +5131,173 @@
     <xf numFmtId="2" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5185,41 +5317,56 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5266,191 +5413,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="174" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5533,7 +5545,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+            <xdr:cNvPr id="3" name="CuadroTexto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5725,7 +5743,13 @@
     <xdr:ext cx="65" cy="172227"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3"/>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5776,7 +5800,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+            <xdr:cNvPr id="5" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6013,7 +6043,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="CuadroTexto 7"/>
+            <xdr:cNvPr id="8" name="CuadroTexto 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6245,7 +6281,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="CuadroTexto 8"/>
+            <xdr:cNvPr id="9" name="CuadroTexto 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6659,7 +6701,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="CuadroTexto 10"/>
+            <xdr:cNvPr id="11" name="CuadroTexto 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7198,7 +7246,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="CuadroTexto 15"/>
+            <xdr:cNvPr id="16" name="CuadroTexto 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7819,7 +7873,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="CuadroTexto 20"/>
+            <xdr:cNvPr id="21" name="CuadroTexto 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8271,7 +8331,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="CuadroTexto 9"/>
+            <xdr:cNvPr id="10" name="CuadroTexto 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8466,7 +8532,13 @@
     <xdr:ext cx="65" cy="172227"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CuadroTexto 12"/>
+        <xdr:cNvPr id="13" name="CuadroTexto 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8517,7 +8589,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="CuadroTexto 13"/>
+            <xdr:cNvPr id="14" name="CuadroTexto 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9070,7 +9148,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="CuadroTexto 14"/>
+            <xdr:cNvPr id="15" name="CuadroTexto 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9351,7 +9435,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="CuadroTexto 16"/>
+            <xdr:cNvPr id="17" name="CuadroTexto 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9636,7 +9726,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="CuadroTexto 19"/>
+            <xdr:cNvPr id="20" name="CuadroTexto 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10405,7 +10501,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="CuadroTexto 17"/>
+            <xdr:cNvPr id="18" name="CuadroTexto 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10760,7 +10862,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="CuadroTexto 18"/>
+            <xdr:cNvPr id="19" name="CuadroTexto 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10951,7 +11059,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="CuadroTexto 22"/>
+            <xdr:cNvPr id="23" name="CuadroTexto 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11348,7 +11462,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="CuadroTexto 23"/>
+            <xdr:cNvPr id="24" name="CuadroTexto 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11680,7 +11800,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="CuadroTexto 24"/>
+            <xdr:cNvPr id="25" name="CuadroTexto 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11893,7 +12019,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="26" name="CuadroTexto 25"/>
+            <xdr:cNvPr id="26" name="CuadroTexto 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -12235,7 +12367,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="27" name="CuadroTexto 26"/>
+            <xdr:cNvPr id="27" name="CuadroTexto 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -12452,7 +12590,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="AutoShape 1" descr="Inicio de Sesion"/>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="Inicio de Sesion">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -12494,7 +12638,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Imagen 28" descr="http://www.alfredoaguirre.org/wp-content/uploads/2018/02/universidad-manuela-beltran-logo.jpg"/>
+        <xdr:cNvPr id="29" name="Imagen 28" descr="http://www.alfredoaguirre.org/wp-content/uploads/2018/02/universidad-manuela-beltran-logo.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12546,7 +12696,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="CuadroTexto 5"/>
+            <xdr:cNvPr id="6" name="CuadroTexto 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -12792,7 +12948,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="CuadroTexto 6"/>
+            <xdr:cNvPr id="7" name="CuadroTexto 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13077,7 +13239,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="CuadroTexto 27"/>
+            <xdr:cNvPr id="28" name="CuadroTexto 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13362,7 +13530,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="31" name="CuadroTexto 30"/>
+            <xdr:cNvPr id="31" name="CuadroTexto 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13647,7 +13821,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="CuadroTexto 11"/>
+            <xdr:cNvPr id="12" name="CuadroTexto 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13968,7 +14148,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14211,7 +14397,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="CuadroTexto 43"/>
+            <xdr:cNvPr id="44" name="CuadroTexto 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14637,7 +14829,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="48" name="CuadroTexto 47"/>
+            <xdr:cNvPr id="48" name="CuadroTexto 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15153,7 +15351,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="49" name="CuadroTexto 48"/>
+            <xdr:cNvPr id="49" name="CuadroTexto 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15433,7 +15637,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="35" name="CuadroTexto 34"/>
+            <xdr:cNvPr id="35" name="CuadroTexto 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15716,7 +15926,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="CuadroTexto 35"/>
+            <xdr:cNvPr id="36" name="CuadroTexto 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -16037,7 +16253,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="CuadroTexto 21"/>
+            <xdr:cNvPr id="22" name="CuadroTexto 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -16324,7 +16546,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="CuadroTexto 37"/>
+            <xdr:cNvPr id="38" name="CuadroTexto 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -16616,7 +16844,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+            <xdr:cNvPr id="3" name="CuadroTexto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -16816,7 +17050,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="CuadroTexto 5"/>
+            <xdr:cNvPr id="6" name="CuadroTexto 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -17027,7 +17267,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="CuadroTexto 7"/>
+            <xdr:cNvPr id="8" name="CuadroTexto 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -17185,7 +17431,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="CuadroTexto 8"/>
+            <xdr:cNvPr id="9" name="CuadroTexto 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -17787,7 +18039,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="CuadroTexto 9"/>
+            <xdr:cNvPr id="10" name="CuadroTexto 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -17993,7 +18251,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="CuadroTexto 10"/>
+            <xdr:cNvPr id="11" name="CuadroTexto 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -18297,7 +18561,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="CuadroTexto 11"/>
+            <xdr:cNvPr id="12" name="CuadroTexto 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -18555,7 +18825,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="CuadroTexto 12"/>
+            <xdr:cNvPr id="13" name="CuadroTexto 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -18790,7 +19066,13 @@
     <xdr:ext cx="65" cy="172227"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CuadroTexto 16"/>
+        <xdr:cNvPr id="17" name="CuadroTexto 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18841,7 +19123,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="CuadroTexto 17"/>
+            <xdr:cNvPr id="18" name="CuadroTexto 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -19121,7 +19409,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="CuadroTexto 18"/>
+            <xdr:cNvPr id="19" name="CuadroTexto 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -19408,7 +19702,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="CuadroTexto 19"/>
+            <xdr:cNvPr id="20" name="CuadroTexto 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -19763,7 +20063,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="CuadroTexto 20"/>
+            <xdr:cNvPr id="21" name="CuadroTexto 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -19963,7 +20269,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Imagen 21" descr="http://www.alfredoaguirre.org/wp-content/uploads/2018/02/universidad-manuela-beltran-logo.jpg"/>
+        <xdr:cNvPr id="22" name="Imagen 21" descr="http://www.alfredoaguirre.org/wp-content/uploads/2018/02/universidad-manuela-beltran-logo.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -20015,7 +20327,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="CuadroTexto 24"/>
+            <xdr:cNvPr id="25" name="CuadroTexto 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -20429,7 +20747,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="CuadroTexto 27"/>
+            <xdr:cNvPr id="28" name="CuadroTexto 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -20657,7 +20981,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="29" name="CuadroTexto 28"/>
+            <xdr:cNvPr id="29" name="CuadroTexto 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -20941,7 +21271,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="31" name="CuadroTexto 30"/>
+            <xdr:cNvPr id="31" name="CuadroTexto 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -21171,7 +21507,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Imagen 29" descr="http://www.alfredoaguirre.org/wp-content/uploads/2018/02/universidad-manuela-beltran-logo.jpg"/>
+        <xdr:cNvPr id="30" name="Imagen 29" descr="http://www.alfredoaguirre.org/wp-content/uploads/2018/02/universidad-manuela-beltran-logo.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -21223,7 +21565,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -21608,7 +21956,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="CuadroTexto 9"/>
+            <xdr:cNvPr id="10" name="CuadroTexto 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -22030,7 +22384,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="CuadroTexto 10"/>
+            <xdr:cNvPr id="11" name="CuadroTexto 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -22223,7 +22583,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="CuadroTexto 11"/>
+            <xdr:cNvPr id="12" name="CuadroTexto 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -22519,7 +22885,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="CuadroTexto 12"/>
+            <xdr:cNvPr id="13" name="CuadroTexto 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -23159,7 +23531,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="CuadroTexto 13"/>
+            <xdr:cNvPr id="14" name="CuadroTexto 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -23344,7 +23722,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="CuadroTexto 14"/>
+            <xdr:cNvPr id="15" name="CuadroTexto 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -23662,7 +24046,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="CuadroTexto 15"/>
+            <xdr:cNvPr id="16" name="CuadroTexto 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -24366,7 +24756,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="CuadroTexto 16"/>
+            <xdr:cNvPr id="17" name="CuadroTexto 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -24605,7 +25001,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="CuadroTexto 17"/>
+            <xdr:cNvPr id="18" name="CuadroTexto 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -24813,7 +25215,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="CuadroTexto 18"/>
+            <xdr:cNvPr id="19" name="CuadroTexto 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -25077,7 +25485,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="20" name="CuadroTexto 19"/>
+            <xdr:cNvPr id="20" name="CuadroTexto 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -25472,7 +25886,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="21" name="CuadroTexto 20"/>
+            <xdr:cNvPr id="21" name="CuadroTexto 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -25834,7 +26254,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="CuadroTexto 21"/>
+            <xdr:cNvPr id="22" name="CuadroTexto 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -26219,7 +26645,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="CuadroTexto 23"/>
+            <xdr:cNvPr id="24" name="CuadroTexto 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -26929,7 +27361,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="AutoShape 1" descr="Inicio de Sesion"/>
+        <xdr:cNvPr id="26" name="AutoShape 1" descr="Inicio de Sesion">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -26966,7 +27404,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="AutoShape 1" descr="Inicio de Sesion"/>
+        <xdr:cNvPr id="28" name="AutoShape 1" descr="Inicio de Sesion">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -27003,7 +27447,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="AutoShape 1" descr="Inicio de Sesion"/>
+        <xdr:cNvPr id="29" name="AutoShape 1" descr="Inicio de Sesion">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -27040,7 +27490,13 @@
     <xdr:ext cx="65" cy="172227"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CuadroTexto 26"/>
+        <xdr:cNvPr id="27" name="CuadroTexto 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -27091,7 +27547,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="34" name="CuadroTexto 33"/>
+            <xdr:cNvPr id="34" name="CuadroTexto 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -27664,7 +28126,13 @@
     <xdr:ext cx="65" cy="172227"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CuadroTexto 37"/>
+        <xdr:cNvPr id="38" name="CuadroTexto 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -27715,7 +28183,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="40" name="CuadroTexto 39"/>
+            <xdr:cNvPr id="40" name="CuadroTexto 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -27917,7 +28391,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="41" name="CuadroTexto 40"/>
+            <xdr:cNvPr id="41" name="CuadroTexto 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -28492,7 +28972,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="42" name="CuadroTexto 41"/>
+            <xdr:cNvPr id="42" name="CuadroTexto 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -28694,7 +29180,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="CuadroTexto 42"/>
+            <xdr:cNvPr id="43" name="CuadroTexto 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -28889,7 +29381,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="CuadroTexto 3"/>
+            <xdr:cNvPr id="4" name="CuadroTexto 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -29145,7 +29643,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+            <xdr:cNvPr id="3" name="CuadroTexto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -29378,7 +29882,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+            <xdr:cNvPr id="5" name="CuadroTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -29749,7 +30259,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="CuadroTexto 5"/>
+            <xdr:cNvPr id="6" name="CuadroTexto 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -30107,7 +30623,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="45" name="CuadroTexto 44"/>
+            <xdr:cNvPr id="45" name="CuadroTexto 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -30594,7 +31116,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="46" name="CuadroTexto 45"/>
+            <xdr:cNvPr id="46" name="CuadroTexto 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -30918,7 +31446,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="CuadroTexto 6"/>
+            <xdr:cNvPr id="7" name="CuadroTexto 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -31364,7 +31898,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="CuadroTexto 7"/>
+            <xdr:cNvPr id="8" name="CuadroTexto 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -31564,7 +32104,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="CuadroTexto 43"/>
+            <xdr:cNvPr id="44" name="CuadroTexto 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -31764,7 +32310,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="CuadroTexto 8"/>
+            <xdr:cNvPr id="9" name="CuadroTexto 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -32027,7 +32579,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="CuadroTexto 22"/>
+            <xdr:cNvPr id="23" name="CuadroTexto 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -32265,7 +32823,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="31" name="CuadroTexto 30"/>
+            <xdr:cNvPr id="31" name="CuadroTexto 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -32508,7 +33072,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="32" name="CuadroTexto 31"/>
+            <xdr:cNvPr id="32" name="CuadroTexto 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -32779,7 +33349,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="CuadroTexto 24"/>
+            <xdr:cNvPr id="25" name="CuadroTexto 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -33182,7 +33758,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="33" name="CuadroTexto 32"/>
+            <xdr:cNvPr id="33" name="CuadroTexto 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -33452,7 +34034,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="35" name="CuadroTexto 34"/>
+            <xdr:cNvPr id="35" name="CuadroTexto 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -33816,7 +34404,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="CuadroTexto 35"/>
+            <xdr:cNvPr id="36" name="CuadroTexto 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -34375,7 +34969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -34406,7 +35000,7 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" s="43"/>
-      <c r="C2" s="340"/>
+      <c r="C2" s="341"/>
       <c r="D2" s="41" t="s">
         <v>119</v>
       </c>
@@ -34420,14 +35014,14 @@
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="43"/>
-      <c r="C3" s="340"/>
+      <c r="C3" s="341"/>
       <c r="D3" s="41" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
-      <c r="C4" s="340"/>
+      <c r="C4" s="341"/>
       <c r="D4" s="41" t="s">
         <v>121</v>
       </c>
@@ -34436,7 +35030,7 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="43"/>
-      <c r="C5" s="340"/>
+      <c r="C5" s="341"/>
       <c r="D5" s="41" t="s">
         <v>127</v>
       </c>
@@ -34457,27 +35051,27 @@
       </c>
     </row>
     <row r="7" spans="2:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="353" t="s">
+      <c r="B7" s="336" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="353"/>
-      <c r="D7" s="353"/>
-      <c r="E7" s="353"/>
-      <c r="F7" s="353"/>
-      <c r="G7" s="353"/>
+      <c r="C7" s="336"/>
+      <c r="D7" s="336"/>
+      <c r="E7" s="336"/>
+      <c r="F7" s="336"/>
+      <c r="G7" s="336"/>
       <c r="H7" s="40"/>
-      <c r="J7" s="352" t="s">
+      <c r="J7" s="334" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="352"/>
-      <c r="L7" s="352"/>
-      <c r="M7" s="352"/>
+      <c r="K7" s="334"/>
+      <c r="L7" s="334"/>
+      <c r="M7" s="334"/>
     </row>
     <row r="8" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="339" t="s">
+      <c r="B8" s="335" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="339"/>
+      <c r="C8" s="335"/>
       <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
@@ -34519,10 +35113,10 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="339" t="s">
+      <c r="B9" s="335" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="339"/>
+      <c r="C9" s="335"/>
       <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
@@ -34552,10 +35146,10 @@
       </c>
     </row>
     <row r="10" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="339" t="s">
+      <c r="B10" s="335" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="339"/>
+      <c r="C10" s="335"/>
       <c r="D10" s="9" t="s">
         <v>92</v>
       </c>
@@ -34590,10 +35184,10 @@
       </c>
     </row>
     <row r="11" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="339" t="s">
+      <c r="B11" s="335" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="339"/>
+      <c r="C11" s="335"/>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
@@ -34623,10 +35217,10 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="339" t="s">
+      <c r="B12" s="335" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="339"/>
+      <c r="C12" s="335"/>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
@@ -34652,11 +35246,11 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="339" t="str">
+      <c r="B13" s="335" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F12</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C13" s="339"/>
+      <c r="C13" s="335"/>
       <c r="D13" s="8" t="s">
         <v>108</v>
       </c>
@@ -34691,10 +35285,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="339" t="s">
+      <c r="B14" s="335" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="339"/>
+      <c r="C14" s="335"/>
       <c r="D14" s="9" t="s">
         <v>11</v>
       </c>
@@ -34729,10 +35323,10 @@
       </c>
     </row>
     <row r="15" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="339" t="s">
+      <c r="B15" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="339"/>
+      <c r="C15" s="335"/>
       <c r="D15" s="9" t="s">
         <v>105</v>
       </c>
@@ -34764,10 +35358,10 @@
       </c>
     </row>
     <row r="16" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="339" t="s">
+      <c r="B16" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="339"/>
+      <c r="C16" s="335"/>
       <c r="D16" s="9" t="s">
         <v>105</v>
       </c>
@@ -34798,10 +35392,10 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="339" t="s">
+      <c r="B17" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="339"/>
+      <c r="C17" s="335"/>
       <c r="D17" s="9" t="s">
         <v>105</v>
       </c>
@@ -34834,10 +35428,10 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="339" t="s">
+      <c r="B18" s="335" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="339"/>
+      <c r="C18" s="335"/>
       <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
@@ -34867,10 +35461,10 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="339" t="s">
+      <c r="B19" s="335" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="339"/>
+      <c r="C19" s="335"/>
       <c r="D19" s="177" t="s">
         <v>13</v>
       </c>
@@ -34900,10 +35494,10 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="339" t="s">
+      <c r="B20" s="335" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="339"/>
+      <c r="C20" s="335"/>
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
@@ -34933,10 +35527,10 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="339" t="s">
+      <c r="B21" s="335" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="339"/>
+      <c r="C21" s="335"/>
       <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
@@ -35018,10 +35612,10 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="339" t="s">
+      <c r="B24" s="335" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="339"/>
+      <c r="C24" s="335"/>
       <c r="D24" s="9" t="s">
         <v>46</v>
       </c>
@@ -35088,10 +35682,10 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="339" t="s">
+      <c r="B26" s="335" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="339"/>
+      <c r="C26" s="335"/>
       <c r="D26" s="9" t="s">
         <v>54</v>
       </c>
@@ -35224,10 +35818,10 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="339" t="s">
+      <c r="B30" s="335" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="339"/>
+      <c r="C30" s="335"/>
       <c r="D30" s="9" t="s">
         <v>84</v>
       </c>
@@ -35259,8 +35853,8 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="340"/>
-      <c r="C31" s="340"/>
+      <c r="B31" s="341"/>
+      <c r="C31" s="341"/>
       <c r="D31" s="11"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
@@ -35270,14 +35864,14 @@
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="335" t="s">
+      <c r="B32" s="348" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="335"/>
-      <c r="D32" s="335"/>
-      <c r="E32" s="335"/>
-      <c r="F32" s="335"/>
-      <c r="G32" s="335"/>
+      <c r="C32" s="348"/>
+      <c r="D32" s="348"/>
+      <c r="E32" s="348"/>
+      <c r="F32" s="348"/>
+      <c r="G32" s="348"/>
       <c r="H32" s="66"/>
       <c r="J32" s="22"/>
       <c r="K32" s="23"/>
@@ -35285,10 +35879,10 @@
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="344" t="s">
+      <c r="B33" s="345" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="344"/>
+      <c r="C33" s="345"/>
       <c r="D33" s="7" t="s">
         <v>157</v>
       </c>
@@ -35306,10 +35900,10 @@
       <c r="M33" s="24"/>
     </row>
     <row r="34" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="345" t="s">
+      <c r="B34" s="346" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="346"/>
+      <c r="C34" s="347"/>
       <c r="D34" s="7" t="s">
         <v>166</v>
       </c>
@@ -35353,10 +35947,10 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="3.5">
-      <c r="B37" s="339" t="s">
+      <c r="B37" s="335" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="339"/>
+      <c r="C37" s="335"/>
       <c r="D37" s="38" t="s">
         <v>258</v>
       </c>
@@ -35367,22 +35961,22 @@
         <f>J9</f>
         <v>3.4760947255444699E-3</v>
       </c>
-      <c r="G37" s="327"/>
-      <c r="H37" s="329"/>
-      <c r="I37" s="349" t="s">
+      <c r="G37" s="329"/>
+      <c r="H37" s="330"/>
+      <c r="I37" s="338" t="s">
         <v>72</v>
       </c>
-      <c r="J37" s="350"/>
-      <c r="K37" s="350"/>
-      <c r="L37" s="350"/>
-      <c r="M37" s="350"/>
-      <c r="N37" s="351"/>
+      <c r="J37" s="339"/>
+      <c r="K37" s="339"/>
+      <c r="L37" s="339"/>
+      <c r="M37" s="339"/>
+      <c r="N37" s="340"/>
     </row>
     <row r="38" spans="2:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="341" t="s">
+      <c r="B38" s="337" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="341"/>
+      <c r="C38" s="337"/>
       <c r="D38" s="45" t="s">
         <v>135</v>
       </c>
@@ -35393,20 +35987,20 @@
         <f>ROUND(MIN(J16:J30),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G38" s="327"/>
-      <c r="H38" s="329"/>
-      <c r="I38" s="327"/>
-      <c r="J38" s="328"/>
-      <c r="K38" s="328"/>
-      <c r="L38" s="328"/>
-      <c r="M38" s="328"/>
-      <c r="N38" s="329"/>
+      <c r="G38" s="329"/>
+      <c r="H38" s="330"/>
+      <c r="I38" s="329"/>
+      <c r="J38" s="333"/>
+      <c r="K38" s="333"/>
+      <c r="L38" s="333"/>
+      <c r="M38" s="333"/>
+      <c r="N38" s="330"/>
     </row>
     <row r="39" spans="2:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="341" t="s">
+      <c r="B39" s="337" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="341"/>
+      <c r="C39" s="337"/>
       <c r="D39" s="45" t="s">
         <v>135</v>
       </c>
@@ -35417,20 +36011,20 @@
         <f>ROUND((F16/F13*(SIN(F21*PI()/180)+(F18/F14)*COS(F21*PI()/180)))/(1+0.058*(F16/F13)*(F14/F11)*COS(F21*PI()/180)),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G39" s="327"/>
-      <c r="H39" s="329"/>
-      <c r="I39" s="327"/>
-      <c r="J39" s="328"/>
-      <c r="K39" s="328"/>
-      <c r="L39" s="328"/>
-      <c r="M39" s="328"/>
-      <c r="N39" s="329"/>
+      <c r="G39" s="329"/>
+      <c r="H39" s="330"/>
+      <c r="I39" s="329"/>
+      <c r="J39" s="333"/>
+      <c r="K39" s="333"/>
+      <c r="L39" s="333"/>
+      <c r="M39" s="333"/>
+      <c r="N39" s="330"/>
     </row>
     <row r="40" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="341" t="s">
+      <c r="B40" s="337" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="341"/>
+      <c r="C40" s="337"/>
       <c r="D40" s="45" t="s">
         <v>259</v>
       </c>
@@ -35441,20 +36035,20 @@
         <f>(F18/F39)/60</f>
         <v>8.095617529880478</v>
       </c>
-      <c r="G40" s="327"/>
-      <c r="H40" s="329"/>
-      <c r="I40" s="327"/>
-      <c r="J40" s="328"/>
-      <c r="K40" s="328"/>
-      <c r="L40" s="328"/>
-      <c r="M40" s="328"/>
-      <c r="N40" s="329"/>
+      <c r="G40" s="329"/>
+      <c r="H40" s="330"/>
+      <c r="I40" s="329"/>
+      <c r="J40" s="333"/>
+      <c r="K40" s="333"/>
+      <c r="L40" s="333"/>
+      <c r="M40" s="333"/>
+      <c r="N40" s="330"/>
     </row>
     <row r="41" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="341" t="s">
+      <c r="B41" s="337" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="341"/>
+      <c r="C41" s="337"/>
       <c r="D41" s="45" t="s">
         <v>27</v>
       </c>
@@ -35465,20 +36059,20 @@
         <f>ROUND(F10/(F20*F14*F39),0)</f>
         <v>94</v>
       </c>
-      <c r="G41" s="327"/>
-      <c r="H41" s="329"/>
-      <c r="I41" s="327"/>
-      <c r="J41" s="328"/>
-      <c r="K41" s="328"/>
-      <c r="L41" s="328"/>
-      <c r="M41" s="328"/>
-      <c r="N41" s="329"/>
+      <c r="G41" s="329"/>
+      <c r="H41" s="330"/>
+      <c r="I41" s="329"/>
+      <c r="J41" s="333"/>
+      <c r="K41" s="333"/>
+      <c r="L41" s="333"/>
+      <c r="M41" s="333"/>
+      <c r="N41" s="330"/>
     </row>
     <row r="42" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="341" t="s">
+      <c r="B42" s="337" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="341"/>
+      <c r="C42" s="337"/>
       <c r="D42" s="45" t="s">
         <v>260</v>
       </c>
@@ -35489,23 +36083,23 @@
         <f>((F41*F14+(F41-1)*F19)/SIN(F21*PI()/180))</f>
         <v>5.8566411306595638</v>
       </c>
-      <c r="G42" s="327"/>
-      <c r="H42" s="329"/>
-      <c r="I42" s="336" t="s">
+      <c r="G42" s="329"/>
+      <c r="H42" s="330"/>
+      <c r="I42" s="349" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="337"/>
-      <c r="K42" s="337"/>
-      <c r="L42" s="337"/>
-      <c r="M42" s="337"/>
-      <c r="N42" s="338"/>
+      <c r="J42" s="350"/>
+      <c r="K42" s="350"/>
+      <c r="L42" s="350"/>
+      <c r="M42" s="350"/>
+      <c r="N42" s="351"/>
       <c r="O42" s="74"/>
     </row>
     <row r="43" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="341" t="s">
+      <c r="B43" s="337" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="341"/>
+      <c r="C43" s="337"/>
       <c r="D43" s="45" t="s">
         <v>261</v>
       </c>
@@ -35516,20 +36110,20 @@
         <f>F18*SIN(F21*PI()/180)</f>
         <v>1.0558581722939875</v>
       </c>
-      <c r="G43" s="327"/>
-      <c r="H43" s="329"/>
-      <c r="I43" s="327"/>
-      <c r="J43" s="328"/>
-      <c r="K43" s="328"/>
-      <c r="L43" s="328"/>
-      <c r="M43" s="328"/>
-      <c r="N43" s="329"/>
+      <c r="G43" s="329"/>
+      <c r="H43" s="330"/>
+      <c r="I43" s="329"/>
+      <c r="J43" s="333"/>
+      <c r="K43" s="333"/>
+      <c r="L43" s="333"/>
+      <c r="M43" s="333"/>
+      <c r="N43" s="330"/>
     </row>
     <row r="44" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="323" t="s">
+      <c r="B44" s="331" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="324"/>
+      <c r="C44" s="332"/>
       <c r="D44" s="56" t="s">
         <v>262</v>
       </c>
@@ -35540,20 +36134,20 @@
         <f>1.5*F24</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G44" s="327"/>
-      <c r="H44" s="329"/>
-      <c r="I44" s="327"/>
-      <c r="J44" s="328"/>
-      <c r="K44" s="328"/>
-      <c r="L44" s="328"/>
-      <c r="M44" s="328"/>
-      <c r="N44" s="329"/>
+      <c r="G44" s="329"/>
+      <c r="H44" s="330"/>
+      <c r="I44" s="329"/>
+      <c r="J44" s="333"/>
+      <c r="K44" s="333"/>
+      <c r="L44" s="333"/>
+      <c r="M44" s="333"/>
+      <c r="N44" s="330"/>
     </row>
     <row r="45" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="323" t="s">
+      <c r="B45" s="331" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="324"/>
+      <c r="C45" s="332"/>
       <c r="D45" s="56" t="s">
         <v>263</v>
       </c>
@@ -35574,10 +36168,10 @@
       <c r="N45" s="93"/>
     </row>
     <row r="46" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="323" t="s">
+      <c r="B46" s="331" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="324"/>
+      <c r="C46" s="332"/>
       <c r="D46" s="56" t="s">
         <v>262</v>
       </c>
@@ -35598,10 +36192,10 @@
       <c r="N46" s="93"/>
     </row>
     <row r="47" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="341" t="s">
+      <c r="B47" s="337" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="341"/>
+      <c r="C47" s="337"/>
       <c r="D47" s="56" t="s">
         <v>264</v>
       </c>
@@ -35612,24 +36206,24 @@
         <f>F25+F43+F24</f>
         <v>2.2558581722939874</v>
       </c>
-      <c r="G47" s="327"/>
-      <c r="H47" s="329"/>
-      <c r="I47" s="327"/>
-      <c r="J47" s="328"/>
-      <c r="K47" s="328"/>
-      <c r="L47" s="328"/>
-      <c r="M47" s="328"/>
-      <c r="N47" s="329"/>
+      <c r="G47" s="329"/>
+      <c r="H47" s="330"/>
+      <c r="I47" s="329"/>
+      <c r="J47" s="333"/>
+      <c r="K47" s="333"/>
+      <c r="L47" s="333"/>
+      <c r="M47" s="333"/>
+      <c r="N47" s="330"/>
       <c r="Q47" s="12">
         <f>6*0.0254</f>
         <v>0.15239999999999998</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="323" t="s">
+      <c r="B48" s="331" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="324"/>
+      <c r="C48" s="332"/>
       <c r="D48" s="56" t="s">
         <v>265</v>
       </c>
@@ -35640,26 +36234,26 @@
         <f>F47*F42*F20-(F41-1)*F18*F20*F19</f>
         <v>15.554808847800167</v>
       </c>
-      <c r="G48" s="327"/>
-      <c r="H48" s="329"/>
-      <c r="I48" s="336" t="s">
+      <c r="G48" s="329"/>
+      <c r="H48" s="330"/>
+      <c r="I48" s="349" t="s">
         <v>130</v>
       </c>
-      <c r="J48" s="337"/>
-      <c r="K48" s="337"/>
-      <c r="L48" s="337"/>
-      <c r="M48" s="337"/>
-      <c r="N48" s="338"/>
+      <c r="J48" s="350"/>
+      <c r="K48" s="350"/>
+      <c r="L48" s="350"/>
+      <c r="M48" s="350"/>
+      <c r="N48" s="351"/>
       <c r="Q48" s="75">
         <f>Q47/2</f>
         <v>7.619999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="341" t="s">
+      <c r="B49" s="337" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="341"/>
+      <c r="C49" s="337"/>
       <c r="D49" s="56" t="s">
         <v>266</v>
       </c>
@@ -35670,24 +36264,24 @@
         <f>(F48/F10)/60</f>
         <v>18.110151179182871</v>
       </c>
-      <c r="G49" s="327"/>
-      <c r="H49" s="329"/>
-      <c r="I49" s="327"/>
-      <c r="J49" s="328"/>
-      <c r="K49" s="328"/>
-      <c r="L49" s="328"/>
-      <c r="M49" s="328"/>
-      <c r="N49" s="329"/>
+      <c r="G49" s="329"/>
+      <c r="H49" s="330"/>
+      <c r="I49" s="329"/>
+      <c r="J49" s="333"/>
+      <c r="K49" s="333"/>
+      <c r="L49" s="333"/>
+      <c r="M49" s="333"/>
+      <c r="N49" s="330"/>
       <c r="Q49" s="12">
         <f>Q48/3</f>
         <v>2.5399999999999995E-2</v>
       </c>
     </row>
     <row r="50" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="323" t="s">
+      <c r="B50" s="331" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="324"/>
+      <c r="C50" s="332"/>
       <c r="D50" s="56" t="s">
         <v>91</v>
       </c>
@@ -35698,14 +36292,14 @@
         <f>F10*86400/(F42*F20)</f>
         <v>173.21341640466753</v>
       </c>
-      <c r="G50" s="327"/>
-      <c r="H50" s="329"/>
-      <c r="I50" s="327"/>
-      <c r="J50" s="328"/>
-      <c r="K50" s="328"/>
-      <c r="L50" s="328"/>
-      <c r="M50" s="328"/>
-      <c r="N50" s="329"/>
+      <c r="G50" s="329"/>
+      <c r="H50" s="330"/>
+      <c r="I50" s="329"/>
+      <c r="J50" s="333"/>
+      <c r="K50" s="333"/>
+      <c r="L50" s="333"/>
+      <c r="M50" s="333"/>
+      <c r="N50" s="330"/>
       <c r="Q50" s="12">
         <f>Q49/2</f>
         <v>1.2699999999999998E-2</v>
@@ -35716,10 +36310,10 @@
       </c>
     </row>
     <row r="51" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="341" t="s">
+      <c r="B51" s="337" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="341"/>
+      <c r="C51" s="337"/>
       <c r="D51" s="56" t="s">
         <v>73</v>
       </c>
@@ -35728,20 +36322,20 @@
         <f>"1: "&amp;ROUND(F42/F20,1)</f>
         <v>1: 4,8</v>
       </c>
-      <c r="G51" s="327"/>
-      <c r="H51" s="329"/>
-      <c r="I51" s="327"/>
-      <c r="J51" s="328"/>
-      <c r="K51" s="328"/>
-      <c r="L51" s="328"/>
-      <c r="M51" s="328"/>
-      <c r="N51" s="329"/>
+      <c r="G51" s="329"/>
+      <c r="H51" s="330"/>
+      <c r="I51" s="329"/>
+      <c r="J51" s="333"/>
+      <c r="K51" s="333"/>
+      <c r="L51" s="333"/>
+      <c r="M51" s="333"/>
+      <c r="N51" s="330"/>
     </row>
     <row r="52" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="323" t="s">
+      <c r="B52" s="331" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="324"/>
+      <c r="C52" s="332"/>
       <c r="D52" s="56" t="s">
         <v>267</v>
       </c>
@@ -35752,20 +36346,20 @@
         <f>((F20-F30)/2)*TAN(F29*PI()/180)</f>
         <v>0.79919162457288717</v>
       </c>
-      <c r="G52" s="327"/>
-      <c r="H52" s="329"/>
-      <c r="I52" s="327"/>
-      <c r="J52" s="328"/>
-      <c r="K52" s="328"/>
-      <c r="L52" s="328"/>
-      <c r="M52" s="328"/>
-      <c r="N52" s="329"/>
+      <c r="G52" s="329"/>
+      <c r="H52" s="330"/>
+      <c r="I52" s="329"/>
+      <c r="J52" s="333"/>
+      <c r="K52" s="333"/>
+      <c r="L52" s="333"/>
+      <c r="M52" s="333"/>
+      <c r="N52" s="330"/>
     </row>
     <row r="53" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="323" t="s">
+      <c r="B53" s="331" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="324"/>
+      <c r="C53" s="332"/>
       <c r="D53" s="56" t="s">
         <v>268</v>
       </c>
@@ -35776,20 +36370,20 @@
         <f>2*F28+F42</f>
         <v>6.4566411306595635</v>
       </c>
-      <c r="G53" s="327"/>
-      <c r="H53" s="329"/>
-      <c r="I53" s="327"/>
-      <c r="J53" s="328"/>
-      <c r="K53" s="328"/>
-      <c r="L53" s="328"/>
-      <c r="M53" s="328"/>
-      <c r="N53" s="329"/>
+      <c r="G53" s="329"/>
+      <c r="H53" s="330"/>
+      <c r="I53" s="329"/>
+      <c r="J53" s="333"/>
+      <c r="K53" s="333"/>
+      <c r="L53" s="333"/>
+      <c r="M53" s="333"/>
+      <c r="N53" s="330"/>
     </row>
     <row r="54" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="323" t="s">
+      <c r="B54" s="331" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="324"/>
+      <c r="C54" s="332"/>
       <c r="D54" s="56" t="s">
         <v>269</v>
       </c>
@@ -35800,20 +36394,20 @@
         <f>(2*F28+F20)*F9+(F9-1)*F27</f>
         <v>7.8767999999999994</v>
       </c>
-      <c r="G54" s="327"/>
-      <c r="H54" s="329"/>
-      <c r="I54" s="327"/>
-      <c r="J54" s="328"/>
-      <c r="K54" s="328"/>
-      <c r="L54" s="328"/>
-      <c r="M54" s="328"/>
-      <c r="N54" s="329"/>
+      <c r="G54" s="329"/>
+      <c r="H54" s="330"/>
+      <c r="I54" s="329"/>
+      <c r="J54" s="333"/>
+      <c r="K54" s="333"/>
+      <c r="L54" s="333"/>
+      <c r="M54" s="333"/>
+      <c r="N54" s="330"/>
     </row>
     <row r="55" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="341" t="s">
+      <c r="B55" s="337" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="341"/>
+      <c r="C55" s="337"/>
       <c r="D55" s="56" t="s">
         <v>270</v>
       </c>
@@ -35824,14 +36418,14 @@
         <f>F28+F52+F25+F43+F24+F26</f>
         <v>3.6550497968668743</v>
       </c>
-      <c r="G55" s="327"/>
-      <c r="H55" s="329"/>
-      <c r="I55" s="327"/>
-      <c r="J55" s="328"/>
-      <c r="K55" s="328"/>
-      <c r="L55" s="328"/>
-      <c r="M55" s="328"/>
-      <c r="N55" s="329"/>
+      <c r="G55" s="329"/>
+      <c r="H55" s="330"/>
+      <c r="I55" s="329"/>
+      <c r="J55" s="333"/>
+      <c r="K55" s="333"/>
+      <c r="L55" s="333"/>
+      <c r="M55" s="333"/>
+      <c r="N55" s="330"/>
     </row>
     <row r="56" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="80"/>
@@ -35866,10 +36460,10 @@
       <c r="N57" s="83"/>
     </row>
     <row r="58" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="323" t="s">
+      <c r="B58" s="331" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="324"/>
+      <c r="C58" s="332"/>
       <c r="D58" s="56" t="s">
         <v>271</v>
       </c>
@@ -35880,20 +36474,20 @@
         <f>F42+F28</f>
         <v>6.1566411306595636</v>
       </c>
-      <c r="G58" s="327"/>
-      <c r="H58" s="329"/>
-      <c r="I58" s="327"/>
-      <c r="J58" s="328"/>
-      <c r="K58" s="328"/>
-      <c r="L58" s="328"/>
-      <c r="M58" s="328"/>
-      <c r="N58" s="329"/>
+      <c r="G58" s="329"/>
+      <c r="H58" s="330"/>
+      <c r="I58" s="329"/>
+      <c r="J58" s="333"/>
+      <c r="K58" s="333"/>
+      <c r="L58" s="333"/>
+      <c r="M58" s="333"/>
+      <c r="N58" s="330"/>
     </row>
     <row r="59" spans="2:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="323" t="s">
+      <c r="B59" s="331" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="324"/>
+      <c r="C59" s="332"/>
       <c r="D59" s="56" t="s">
         <v>272</v>
       </c>
@@ -35903,20 +36497,20 @@
       <c r="F59" s="95">
         <v>8</v>
       </c>
-      <c r="G59" s="327"/>
-      <c r="H59" s="329"/>
-      <c r="I59" s="327"/>
-      <c r="J59" s="328"/>
-      <c r="K59" s="328"/>
-      <c r="L59" s="328"/>
-      <c r="M59" s="328"/>
-      <c r="N59" s="329"/>
+      <c r="G59" s="329"/>
+      <c r="H59" s="330"/>
+      <c r="I59" s="329"/>
+      <c r="J59" s="333"/>
+      <c r="K59" s="333"/>
+      <c r="L59" s="333"/>
+      <c r="M59" s="333"/>
+      <c r="N59" s="330"/>
     </row>
     <row r="60" spans="2:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="323" t="s">
+      <c r="B60" s="331" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="324"/>
+      <c r="C60" s="332"/>
       <c r="D60" s="56" t="s">
         <v>273</v>
       </c>
@@ -35927,8 +36521,8 @@
         <f>IF(F59=4,0.10342,IF(F59=6,0.15222,IF(F59=8,0.20942)))</f>
         <v>0.20942</v>
       </c>
-      <c r="G60" s="327"/>
-      <c r="H60" s="329"/>
+      <c r="G60" s="329"/>
+      <c r="H60" s="330"/>
       <c r="I60" s="67"/>
       <c r="J60" s="68"/>
       <c r="K60" s="68"/>
@@ -35937,10 +36531,10 @@
       <c r="N60" s="69"/>
     </row>
     <row r="61" spans="2:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="330" t="s">
+      <c r="B61" s="326" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="330"/>
+      <c r="C61" s="326"/>
       <c r="D61" s="176" t="s">
         <v>274</v>
       </c>
@@ -35951,20 +36545,20 @@
         <f>F60*SQRT(0.4/F33)</f>
         <v>4.1884000000000005E-2</v>
       </c>
-      <c r="G61" s="327"/>
-      <c r="H61" s="329"/>
-      <c r="I61" s="331"/>
-      <c r="J61" s="332"/>
-      <c r="K61" s="332"/>
-      <c r="L61" s="332"/>
-      <c r="M61" s="332"/>
-      <c r="N61" s="333"/>
+      <c r="G61" s="329"/>
+      <c r="H61" s="330"/>
+      <c r="I61" s="355"/>
+      <c r="J61" s="356"/>
+      <c r="K61" s="356"/>
+      <c r="L61" s="356"/>
+      <c r="M61" s="356"/>
+      <c r="N61" s="357"/>
     </row>
     <row r="62" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="330" t="s">
+      <c r="B62" s="326" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="330"/>
+      <c r="C62" s="326"/>
       <c r="D62" s="176" t="s">
         <v>275</v>
       </c>
@@ -35975,8 +36569,8 @@
         <f>IF(AND(F61&gt;0.02363,F61&lt;0.0302),1,IF(AND(F61&gt;0.0302,F61&lt;0.03814),1.25,IF(AND(F61&gt;0.03814,F61&lt;0.04368),1.5,IF(AND(F61&gt;0.04368,F61&lt;0.05458),2,IF(AND(F61&gt;0.05458,F61&lt;0.06607),2.5,IF(AND(F61&gt;0.06607,F61&lt;0.08042),3,IF(AND(F61&gt;0.08042,F61&lt;0.10342),4)))))))</f>
         <v>1.5</v>
       </c>
-      <c r="G62" s="325"/>
-      <c r="H62" s="326"/>
+      <c r="G62" s="353"/>
+      <c r="H62" s="354"/>
       <c r="I62" s="76"/>
       <c r="J62" s="77"/>
       <c r="K62" s="77"/>
@@ -35985,10 +36579,10 @@
       <c r="N62" s="78"/>
     </row>
     <row r="63" spans="2:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="330" t="s">
+      <c r="B63" s="326" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="330"/>
+      <c r="C63" s="326"/>
       <c r="D63" s="176" t="s">
         <v>274</v>
       </c>
@@ -35999,8 +36593,8 @@
         <f>IF(F62=1,0.0302,IF(F62=1.25,0.03814,IF(F62=1.5,0.04368,IF(F62=2,0.05458,IF(F62=2.5,0.06607,IF(F62=3,0.08042,IF(F62=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G63" s="327"/>
-      <c r="H63" s="329"/>
+      <c r="G63" s="329"/>
+      <c r="H63" s="330"/>
       <c r="I63" s="98"/>
       <c r="J63" s="77"/>
       <c r="K63" s="77"/>
@@ -36009,30 +36603,30 @@
       <c r="N63" s="78"/>
     </row>
     <row r="64" spans="2:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="347" t="s">
+      <c r="B64" s="327" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="348"/>
+      <c r="C64" s="328"/>
       <c r="D64" s="56"/>
       <c r="E64" s="46"/>
       <c r="F64" s="89">
         <f>(F63/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G64" s="327"/>
-      <c r="H64" s="329"/>
-      <c r="I64" s="327"/>
-      <c r="J64" s="328"/>
-      <c r="K64" s="328"/>
-      <c r="L64" s="328"/>
-      <c r="M64" s="328"/>
-      <c r="N64" s="329"/>
+      <c r="G64" s="329"/>
+      <c r="H64" s="330"/>
+      <c r="I64" s="329"/>
+      <c r="J64" s="333"/>
+      <c r="K64" s="333"/>
+      <c r="L64" s="333"/>
+      <c r="M64" s="333"/>
+      <c r="N64" s="330"/>
     </row>
     <row r="65" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="330" t="s">
+      <c r="B65" s="326" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="330"/>
+      <c r="C65" s="326"/>
       <c r="D65" s="176" t="s">
         <v>275</v>
       </c>
@@ -36053,10 +36647,10 @@
       <c r="N65" s="93"/>
     </row>
     <row r="66" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="330" t="s">
+      <c r="B66" s="326" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="330"/>
+      <c r="C66" s="326"/>
       <c r="D66" s="176" t="s">
         <v>274</v>
       </c>
@@ -36065,8 +36659,8 @@
         <f>IF(F65=1,0.0302,IF(F65=1.25,0.03814,IF(F65=1.5,0.04368,IF(F65=2,0.05458,IF(F65=2.5,0.06607,IF(F65=3,0.08042,IF(F65=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G66" s="327"/>
-      <c r="H66" s="329"/>
+      <c r="G66" s="329"/>
+      <c r="H66" s="330"/>
       <c r="I66" s="92"/>
       <c r="J66" s="94"/>
       <c r="K66" s="94"/>
@@ -36075,18 +36669,18 @@
       <c r="N66" s="93"/>
     </row>
     <row r="67" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="347" t="s">
+      <c r="B67" s="327" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="348"/>
+      <c r="C67" s="328"/>
       <c r="D67" s="56"/>
       <c r="E67" s="46"/>
       <c r="F67" s="89">
         <f>(F66/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G67" s="327"/>
-      <c r="H67" s="329"/>
+      <c r="G67" s="329"/>
+      <c r="H67" s="330"/>
       <c r="I67" s="92"/>
       <c r="J67" s="101"/>
       <c r="K67" s="94"/>
@@ -36095,10 +36689,10 @@
       <c r="N67" s="93"/>
     </row>
     <row r="68" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="323" t="s">
+      <c r="B68" s="331" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="324"/>
+      <c r="C68" s="332"/>
       <c r="D68" s="56" t="s">
         <v>276</v>
       </c>
@@ -36109,8 +36703,8 @@
         <f>F52+F25+F43+F24</f>
         <v>3.0550497968668746</v>
       </c>
-      <c r="G68" s="327"/>
-      <c r="H68" s="329"/>
+      <c r="G68" s="329"/>
+      <c r="H68" s="330"/>
       <c r="I68" s="76"/>
       <c r="J68" s="77"/>
       <c r="K68" s="77"/>
@@ -36119,10 +36713,10 @@
       <c r="N68" s="78"/>
     </row>
     <row r="69" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="323" t="s">
+      <c r="B69" s="331" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="324"/>
+      <c r="C69" s="332"/>
       <c r="D69" s="56" t="s">
         <v>277</v>
       </c>
@@ -36131,8 +36725,8 @@
         <f>F58/F33</f>
         <v>0.61566411306595636</v>
       </c>
-      <c r="G69" s="325"/>
-      <c r="H69" s="326"/>
+      <c r="G69" s="353"/>
+      <c r="H69" s="354"/>
       <c r="I69" s="76"/>
       <c r="J69" s="77"/>
       <c r="K69" s="77"/>
@@ -36141,10 +36735,10 @@
       <c r="N69" s="78"/>
     </row>
     <row r="70" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="347" t="s">
+      <c r="B70" s="327" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="348"/>
+      <c r="C70" s="328"/>
       <c r="D70" s="56" t="s">
         <v>278</v>
       </c>
@@ -36165,10 +36759,10 @@
       <c r="N70" s="78"/>
     </row>
     <row r="71" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="347" t="s">
+      <c r="B71" s="327" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="348"/>
+      <c r="C71" s="328"/>
       <c r="D71" s="56" t="s">
         <v>278</v>
       </c>
@@ -36177,30 +36771,30 @@
         <f>F42/F33</f>
         <v>0.58566411306595634</v>
       </c>
-      <c r="G71" s="327"/>
-      <c r="H71" s="329"/>
-      <c r="I71" s="354" t="s">
+      <c r="G71" s="329"/>
+      <c r="H71" s="330"/>
+      <c r="I71" s="322" t="s">
         <v>171</v>
       </c>
-      <c r="J71" s="355"/>
-      <c r="K71" s="355"/>
-      <c r="L71" s="355"/>
-      <c r="M71" s="355"/>
-      <c r="N71" s="356"/>
+      <c r="J71" s="323"/>
+      <c r="K71" s="323"/>
+      <c r="L71" s="323"/>
+      <c r="M71" s="323"/>
+      <c r="N71" s="324"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="340"/>
-      <c r="C72" s="340"/>
+      <c r="B72" s="341"/>
+      <c r="C72" s="341"/>
       <c r="J72" s="22"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="24"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="335" t="s">
+      <c r="B73" s="348" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="335"/>
+      <c r="C73" s="348"/>
       <c r="J73" s="22"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
@@ -36216,13 +36810,13 @@
       <c r="B75" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="322" t="s">
+      <c r="C75" s="352" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="322"/>
-      <c r="E75" s="322"/>
-      <c r="F75" s="322"/>
-      <c r="G75" s="322"/>
+      <c r="D75" s="352"/>
+      <c r="E75" s="352"/>
+      <c r="F75" s="352"/>
+      <c r="G75" s="352"/>
       <c r="H75" s="65"/>
       <c r="I75" s="96"/>
       <c r="J75" s="22"/>
@@ -36234,13 +36828,13 @@
       <c r="B76" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="322" t="s">
+      <c r="C76" s="352" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="322"/>
-      <c r="E76" s="322"/>
-      <c r="F76" s="322"/>
-      <c r="G76" s="322"/>
+      <c r="D76" s="352"/>
+      <c r="E76" s="352"/>
+      <c r="F76" s="352"/>
+      <c r="G76" s="352"/>
       <c r="H76" s="65"/>
       <c r="J76" s="97"/>
       <c r="K76" s="23"/>
@@ -36251,13 +36845,13 @@
       <c r="B77" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="334" t="s">
+      <c r="C77" s="344" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="334"/>
-      <c r="E77" s="334"/>
-      <c r="F77" s="334"/>
-      <c r="G77" s="334"/>
+      <c r="D77" s="344"/>
+      <c r="E77" s="344"/>
+      <c r="F77" s="344"/>
+      <c r="G77" s="344"/>
       <c r="H77" s="64"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23"/>
@@ -36268,13 +36862,13 @@
       <c r="B78" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="322" t="s">
+      <c r="C78" s="352" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="322"/>
-      <c r="E78" s="322"/>
-      <c r="F78" s="322"/>
-      <c r="G78" s="322"/>
+      <c r="D78" s="352"/>
+      <c r="E78" s="352"/>
+      <c r="F78" s="352"/>
+      <c r="G78" s="352"/>
       <c r="H78" s="65"/>
       <c r="J78" s="22"/>
       <c r="K78" s="23"/>
@@ -36285,16 +36879,16 @@
       <c r="B79" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="322" t="s">
+      <c r="C79" s="352" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="322"/>
-      <c r="E79" s="322"/>
-      <c r="F79" s="322"/>
-      <c r="G79" s="322"/>
+      <c r="D79" s="352"/>
+      <c r="E79" s="352"/>
+      <c r="F79" s="352"/>
+      <c r="G79" s="352"/>
       <c r="H79" s="65"/>
-      <c r="J79" s="357"/>
-      <c r="K79" s="357"/>
+      <c r="J79" s="325"/>
+      <c r="K79" s="325"/>
       <c r="L79" s="23"/>
       <c r="M79" s="24"/>
     </row>
@@ -36302,13 +36896,13 @@
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="334" t="s">
+      <c r="C80" s="344" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="334"/>
-      <c r="E80" s="334"/>
-      <c r="F80" s="334"/>
-      <c r="G80" s="334"/>
+      <c r="D80" s="344"/>
+      <c r="E80" s="344"/>
+      <c r="F80" s="344"/>
+      <c r="G80" s="344"/>
       <c r="H80" s="64"/>
       <c r="J80" s="22"/>
       <c r="K80" s="23"/>
@@ -36319,13 +36913,13 @@
       <c r="B81" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="334" t="s">
+      <c r="C81" s="344" t="s">
         <v>78</v>
       </c>
-      <c r="D81" s="334"/>
-      <c r="E81" s="334"/>
-      <c r="F81" s="334"/>
-      <c r="G81" s="334"/>
+      <c r="D81" s="344"/>
+      <c r="E81" s="344"/>
+      <c r="F81" s="344"/>
+      <c r="G81" s="344"/>
       <c r="H81" s="64"/>
       <c r="J81" s="22"/>
       <c r="K81" s="23"/>
@@ -36336,13 +36930,13 @@
       <c r="B82" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="322" t="s">
+      <c r="C82" s="352" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="322"/>
-      <c r="E82" s="322"/>
-      <c r="F82" s="322"/>
-      <c r="G82" s="322"/>
+      <c r="D82" s="352"/>
+      <c r="E82" s="352"/>
+      <c r="F82" s="352"/>
+      <c r="G82" s="352"/>
       <c r="H82" s="65"/>
       <c r="J82" s="22"/>
       <c r="K82" s="23"/>
@@ -36353,13 +36947,13 @@
       <c r="B83" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="322" t="s">
+      <c r="C83" s="352" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="322"/>
-      <c r="E83" s="322"/>
-      <c r="F83" s="322"/>
-      <c r="G83" s="322"/>
+      <c r="D83" s="352"/>
+      <c r="E83" s="352"/>
+      <c r="F83" s="352"/>
+      <c r="G83" s="352"/>
       <c r="H83" s="79"/>
       <c r="J83" s="22"/>
       <c r="K83" s="23"/>
@@ -37781,6 +38375,105 @@
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="I71:N71"/>
     <mergeCell ref="J79:K79"/>
     <mergeCell ref="B65:C65"/>
@@ -37805,105 +38498,6 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="I52:N52"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="I61:N61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="B73:C73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37913,7 +38507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -37956,13 +38550,13 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="359" t="s">
+      <c r="B7" s="362" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="359"/>
-      <c r="D7" s="359"/>
-      <c r="E7" s="359"/>
-      <c r="F7" s="359"/>
+      <c r="C7" s="362"/>
+      <c r="D7" s="362"/>
+      <c r="E7" s="362"/>
+      <c r="F7" s="362"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
@@ -38169,10 +38763,10 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="361" t="s">
+      <c r="B24" s="360" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="362"/>
+      <c r="C24" s="361"/>
       <c r="D24" s="28" t="s">
         <v>61</v>
       </c>
@@ -38201,22 +38795,22 @@
       <c r="C27" s="41"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="358" t="s">
+      <c r="B28" s="359" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="358"/>
-      <c r="D28" s="358"/>
-      <c r="E28" s="358"/>
-      <c r="F28" s="358"/>
-      <c r="G28" s="358"/>
+      <c r="C28" s="359"/>
+      <c r="D28" s="359"/>
+      <c r="E28" s="359"/>
+      <c r="F28" s="359"/>
+      <c r="G28" s="359"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="358"/>
-      <c r="C29" s="358"/>
-      <c r="D29" s="358"/>
-      <c r="E29" s="358"/>
-      <c r="F29" s="358"/>
-      <c r="G29" s="358"/>
+      <c r="B29" s="359"/>
+      <c r="C29" s="359"/>
+      <c r="D29" s="359"/>
+      <c r="E29" s="359"/>
+      <c r="F29" s="359"/>
+      <c r="G29" s="359"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="53"/>
@@ -38227,10 +38821,10 @@
       <c r="G30" s="53"/>
     </row>
     <row r="31" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="323" t="s">
+      <c r="B31" s="331" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="324"/>
+      <c r="C31" s="332"/>
       <c r="D31" s="51" t="s">
         <v>137</v>
       </c>
@@ -38244,10 +38838,10 @@
       <c r="G31" s="53"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="323" t="s">
+      <c r="B32" s="331" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="324"/>
+      <c r="C32" s="332"/>
       <c r="D32" s="51" t="s">
         <v>14</v>
       </c>
@@ -38287,10 +38881,10 @@
       <c r="G35" s="53"/>
     </row>
     <row r="36" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="323" t="s">
+      <c r="B36" s="331" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="324"/>
+      <c r="C36" s="332"/>
       <c r="D36" s="55" t="s">
         <v>91</v>
       </c>
@@ -38312,14 +38906,14 @@
       <c r="G37" s="53"/>
     </row>
     <row r="38" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="358" t="s">
+      <c r="B38" s="359" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="358"/>
-      <c r="D38" s="358"/>
-      <c r="E38" s="358"/>
-      <c r="F38" s="358"/>
-      <c r="G38" s="358"/>
+      <c r="C38" s="359"/>
+      <c r="D38" s="359"/>
+      <c r="E38" s="359"/>
+      <c r="F38" s="359"/>
+      <c r="G38" s="359"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="53"/>
@@ -38330,10 +38924,10 @@
       <c r="G39" s="53"/>
     </row>
     <row r="40" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="323" t="s">
+      <c r="B40" s="331" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="324"/>
+      <c r="C40" s="332"/>
       <c r="D40" s="51" t="s">
         <v>131</v>
       </c>
@@ -38347,10 +38941,10 @@
       <c r="G40" s="49"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="323" t="s">
+      <c r="B41" s="331" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="324"/>
+      <c r="C41" s="332"/>
       <c r="D41" s="48" t="s">
         <v>144</v>
       </c>
@@ -38365,10 +38959,10 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="323" t="s">
+      <c r="B42" s="331" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="324"/>
+      <c r="C42" s="332"/>
       <c r="D42" s="45" t="s">
         <v>135</v>
       </c>
@@ -38408,10 +39002,10 @@
       <c r="G45" s="53"/>
     </row>
     <row r="46" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="323" t="s">
+      <c r="B46" s="331" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="324"/>
+      <c r="C46" s="332"/>
       <c r="D46" s="51" t="s">
         <v>88</v>
       </c>
@@ -38423,10 +39017,10 @@
       <c r="G46" s="49"/>
     </row>
     <row r="47" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="323" t="s">
+      <c r="B47" s="331" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="324"/>
+      <c r="C47" s="332"/>
       <c r="D47" s="51" t="s">
         <v>101</v>
       </c>
@@ -38438,10 +39032,10 @@
       <c r="G47" s="49"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="323" t="s">
+      <c r="B48" s="331" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="324"/>
+      <c r="C48" s="332"/>
       <c r="D48" s="51" t="s">
         <v>145</v>
       </c>
@@ -38479,10 +39073,10 @@
       <c r="G51" s="53"/>
     </row>
     <row r="52" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="323" t="s">
+      <c r="B52" s="331" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="324"/>
+      <c r="C52" s="332"/>
       <c r="D52" s="51" t="s">
         <v>146</v>
       </c>
@@ -38540,10 +39134,10 @@
       <c r="G57" s="53"/>
     </row>
     <row r="58" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="323" t="s">
+      <c r="B58" s="331" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="324"/>
+      <c r="C58" s="332"/>
       <c r="D58" s="56" t="s">
         <v>1</v>
       </c>
@@ -38581,10 +39175,10 @@
       <c r="G61" s="53"/>
     </row>
     <row r="62" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="323" t="s">
+      <c r="B62" s="331" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="324"/>
+      <c r="C62" s="332"/>
       <c r="D62" s="48" t="s">
         <v>136</v>
       </c>
@@ -38606,14 +39200,14 @@
       <c r="G63" s="53"/>
     </row>
     <row r="64" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="358" t="s">
+      <c r="B64" s="359" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="358"/>
-      <c r="D64" s="358"/>
-      <c r="E64" s="358"/>
-      <c r="F64" s="358"/>
-      <c r="G64" s="358"/>
+      <c r="C64" s="359"/>
+      <c r="D64" s="359"/>
+      <c r="E64" s="359"/>
+      <c r="F64" s="359"/>
+      <c r="G64" s="359"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="53"/>
@@ -38624,10 +39218,10 @@
       <c r="G65" s="53"/>
     </row>
     <row r="66" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="323" t="s">
+      <c r="B66" s="331" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="324"/>
+      <c r="C66" s="332"/>
       <c r="D66" s="51" t="s">
         <v>27</v>
       </c>
@@ -38667,10 +39261,10 @@
       <c r="G69" s="53"/>
     </row>
     <row r="70" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="323" t="s">
+      <c r="B70" s="331" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="324"/>
+      <c r="C70" s="332"/>
       <c r="D70" s="48" t="s">
         <v>138</v>
       </c>
@@ -38684,10 +39278,10 @@
       <c r="G70" s="49"/>
     </row>
     <row r="71" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="323" t="s">
+      <c r="B71" s="331" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="324"/>
+      <c r="C71" s="332"/>
       <c r="D71" s="51" t="s">
         <v>139</v>
       </c>
@@ -38701,10 +39295,10 @@
       <c r="G71" s="49"/>
     </row>
     <row r="72" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="323" t="s">
+      <c r="B72" s="331" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="324"/>
+      <c r="C72" s="332"/>
       <c r="D72" s="51" t="s">
         <v>140</v>
       </c>
@@ -38718,10 +39312,10 @@
       <c r="G72" s="49"/>
     </row>
     <row r="73" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="323" t="s">
+      <c r="B73" s="331" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="324"/>
+      <c r="C73" s="332"/>
       <c r="D73" s="51" t="s">
         <v>142</v>
       </c>
@@ -38741,46 +39335,46 @@
       <c r="C75" s="41"/>
     </row>
     <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="360" t="s">
+      <c r="B76" s="358" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="360"/>
-      <c r="D76" s="360"/>
-      <c r="E76" s="360"/>
-      <c r="F76" s="360"/>
-      <c r="G76" s="360"/>
+      <c r="C76" s="358"/>
+      <c r="D76" s="358"/>
+      <c r="E76" s="358"/>
+      <c r="F76" s="358"/>
+      <c r="G76" s="358"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="360"/>
-      <c r="C77" s="360"/>
-      <c r="D77" s="360"/>
-      <c r="E77" s="360"/>
-      <c r="F77" s="360"/>
-      <c r="G77" s="360"/>
+      <c r="B77" s="358"/>
+      <c r="C77" s="358"/>
+      <c r="D77" s="358"/>
+      <c r="E77" s="358"/>
+      <c r="F77" s="358"/>
+      <c r="G77" s="358"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="360"/>
-      <c r="C78" s="360"/>
-      <c r="D78" s="360"/>
-      <c r="E78" s="360"/>
-      <c r="F78" s="360"/>
-      <c r="G78" s="360"/>
+      <c r="B78" s="358"/>
+      <c r="C78" s="358"/>
+      <c r="D78" s="358"/>
+      <c r="E78" s="358"/>
+      <c r="F78" s="358"/>
+      <c r="G78" s="358"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="360"/>
-      <c r="C79" s="360"/>
-      <c r="D79" s="360"/>
-      <c r="E79" s="360"/>
-      <c r="F79" s="360"/>
-      <c r="G79" s="360"/>
+      <c r="B79" s="358"/>
+      <c r="C79" s="358"/>
+      <c r="D79" s="358"/>
+      <c r="E79" s="358"/>
+      <c r="F79" s="358"/>
+      <c r="G79" s="358"/>
     </row>
     <row r="80" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="360"/>
-      <c r="C80" s="360"/>
-      <c r="D80" s="360"/>
-      <c r="E80" s="360"/>
-      <c r="F80" s="360"/>
-      <c r="G80" s="360"/>
+      <c r="B80" s="358"/>
+      <c r="C80" s="358"/>
+      <c r="D80" s="358"/>
+      <c r="E80" s="358"/>
+      <c r="F80" s="358"/>
+      <c r="G80" s="358"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="42"/>
@@ -38818,6 +39412,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B76:G80"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B17:C17"/>
@@ -38834,25 +39447,6 @@
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B70:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38861,11 +39455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AO249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119:H119"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76:J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38880,7 +39474,9 @@
     <col min="8" max="8" width="13.85546875" style="108" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="108" customWidth="1"/>
     <col min="10" max="10" width="15" style="108" customWidth="1"/>
-    <col min="11" max="16" width="13.85546875" style="108" customWidth="1"/>
+    <col min="11" max="12" width="13.85546875" style="108" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" style="108" customWidth="1"/>
+    <col min="14" max="16" width="13.85546875" style="108" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" style="108" customWidth="1"/>
     <col min="18" max="18" width="27.5703125" style="108" customWidth="1"/>
     <col min="19" max="19" width="17.42578125" style="108" customWidth="1"/>
@@ -38913,11 +39509,11 @@
     </row>
     <row r="2" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="498"/>
-      <c r="C2" s="498"/>
-      <c r="D2" s="498"/>
-      <c r="E2" s="498"/>
-      <c r="F2" s="498"/>
+      <c r="B2" s="405"/>
+      <c r="C2" s="405"/>
+      <c r="D2" s="405"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405"/>
       <c r="G2" s="254" t="s">
         <v>119</v>
       </c>
@@ -38930,11 +39526,11 @@
     </row>
     <row r="3" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="498"/>
-      <c r="C3" s="498"/>
-      <c r="D3" s="498"/>
-      <c r="E3" s="498"/>
-      <c r="F3" s="498"/>
+      <c r="B3" s="405"/>
+      <c r="C3" s="405"/>
+      <c r="D3" s="405"/>
+      <c r="E3" s="405"/>
+      <c r="F3" s="405"/>
       <c r="G3" s="254" t="s">
         <v>120</v>
       </c>
@@ -38947,11 +39543,11 @@
     </row>
     <row r="4" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="498"/>
-      <c r="C4" s="498"/>
-      <c r="D4" s="498"/>
-      <c r="E4" s="498"/>
-      <c r="F4" s="498"/>
+      <c r="B4" s="405"/>
+      <c r="C4" s="405"/>
+      <c r="D4" s="405"/>
+      <c r="E4" s="405"/>
+      <c r="F4" s="405"/>
       <c r="G4" s="254" t="s">
         <v>121</v>
       </c>
@@ -38964,11 +39560,11 @@
     </row>
     <row r="5" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="498"/>
-      <c r="C5" s="498"/>
-      <c r="D5" s="498"/>
-      <c r="E5" s="498"/>
-      <c r="F5" s="498"/>
+      <c r="B5" s="405"/>
+      <c r="C5" s="405"/>
+      <c r="D5" s="405"/>
+      <c r="E5" s="405"/>
+      <c r="F5" s="405"/>
       <c r="G5" s="254" t="s">
         <v>314</v>
       </c>
@@ -39049,15 +39645,15 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="341" t="s">
+      <c r="B8" s="337" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="341"/>
-      <c r="D8" s="341"/>
-      <c r="E8" s="341"/>
-      <c r="F8" s="341"/>
-      <c r="G8" s="341"/>
-      <c r="H8" s="341"/>
+      <c r="C8" s="337"/>
+      <c r="D8" s="337"/>
+      <c r="E8" s="337"/>
+      <c r="F8" s="337"/>
+      <c r="G8" s="337"/>
+      <c r="H8" s="337"/>
       <c r="I8" s="247" t="s">
         <v>310</v>
       </c>
@@ -39066,10 +39662,10 @@
       </c>
       <c r="K8" s="49"/>
       <c r="L8" s="253"/>
-      <c r="X8" s="341" t="s">
+      <c r="X8" s="337" t="s">
         <v>315</v>
       </c>
-      <c r="Y8" s="341"/>
+      <c r="Y8" s="337"/>
       <c r="Z8" s="116"/>
       <c r="AA8" s="13" t="s">
         <v>313</v>
@@ -39097,15 +39693,15 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="341" t="s">
+      <c r="B9" s="337" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="341"/>
-      <c r="D9" s="341"/>
-      <c r="E9" s="341"/>
-      <c r="F9" s="341"/>
-      <c r="G9" s="341"/>
-      <c r="H9" s="341"/>
+      <c r="C9" s="337"/>
+      <c r="D9" s="337"/>
+      <c r="E9" s="337"/>
+      <c r="F9" s="337"/>
+      <c r="G9" s="337"/>
+      <c r="H9" s="337"/>
       <c r="I9" s="247" t="s">
         <v>311</v>
       </c>
@@ -39114,10 +39710,10 @@
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="253"/>
-      <c r="X9" s="341" t="s">
+      <c r="X9" s="337" t="s">
         <v>316</v>
       </c>
-      <c r="Y9" s="341"/>
+      <c r="Y9" s="337"/>
       <c r="Z9" s="116"/>
       <c r="AA9" s="13" t="s">
         <v>326</v>
@@ -39149,15 +39745,15 @@
       </c>
     </row>
     <row r="10" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="341" t="s">
+      <c r="B10" s="337" t="s">
         <v>304</v>
       </c>
-      <c r="C10" s="341"/>
-      <c r="D10" s="341"/>
-      <c r="E10" s="341"/>
-      <c r="F10" s="341"/>
-      <c r="G10" s="341"/>
-      <c r="H10" s="341"/>
+      <c r="C10" s="337"/>
+      <c r="D10" s="337"/>
+      <c r="E10" s="337"/>
+      <c r="F10" s="337"/>
+      <c r="G10" s="337"/>
+      <c r="H10" s="337"/>
       <c r="I10" s="247" t="s">
         <v>305</v>
       </c>
@@ -39206,15 +39802,15 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="341" t="s">
+      <c r="B11" s="337" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="341"/>
-      <c r="D11" s="341"/>
-      <c r="E11" s="341"/>
-      <c r="F11" s="341"/>
-      <c r="G11" s="341"/>
-      <c r="H11" s="341"/>
+      <c r="C11" s="337"/>
+      <c r="D11" s="337"/>
+      <c r="E11" s="337"/>
+      <c r="F11" s="337"/>
+      <c r="G11" s="337"/>
+      <c r="H11" s="337"/>
       <c r="I11" s="247" t="s">
         <v>302</v>
       </c>
@@ -39259,15 +39855,15 @@
       </c>
     </row>
     <row r="12" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="341" t="s">
+      <c r="B12" s="337" t="s">
         <v>306</v>
       </c>
-      <c r="C12" s="341"/>
-      <c r="D12" s="341"/>
-      <c r="E12" s="341"/>
-      <c r="F12" s="341"/>
-      <c r="G12" s="341"/>
-      <c r="H12" s="341"/>
+      <c r="C12" s="337"/>
+      <c r="D12" s="337"/>
+      <c r="E12" s="337"/>
+      <c r="F12" s="337"/>
+      <c r="G12" s="337"/>
+      <c r="H12" s="337"/>
       <c r="I12" s="247" t="s">
         <v>346</v>
       </c>
@@ -39392,18 +39988,18 @@
       </c>
     </row>
     <row r="15" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="323" t="s">
+      <c r="B15" s="331" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="380"/>
-      <c r="D15" s="380"/>
-      <c r="E15" s="380"/>
-      <c r="F15" s="380"/>
-      <c r="G15" s="324"/>
-      <c r="H15" s="323" t="s">
+      <c r="C15" s="417"/>
+      <c r="D15" s="417"/>
+      <c r="E15" s="417"/>
+      <c r="F15" s="417"/>
+      <c r="G15" s="332"/>
+      <c r="H15" s="331" t="s">
         <v>313</v>
       </c>
-      <c r="I15" s="324"/>
+      <c r="I15" s="332"/>
       <c r="J15" s="208"/>
       <c r="K15" s="196"/>
       <c r="L15" s="249"/>
@@ -39436,19 +40032,19 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="323" t="s">
+      <c r="B16" s="331" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="380"/>
-      <c r="D16" s="380"/>
-      <c r="E16" s="380"/>
-      <c r="F16" s="380"/>
-      <c r="G16" s="324"/>
-      <c r="H16" s="323" t="str">
+      <c r="C16" s="417"/>
+      <c r="D16" s="417"/>
+      <c r="E16" s="417"/>
+      <c r="F16" s="417"/>
+      <c r="G16" s="332"/>
+      <c r="H16" s="331" t="str">
         <f>IF($H$15=$AA$8,$AA$9,IF($H$15=$AB$8,$AB$9,""))</f>
         <v>Arena</v>
       </c>
-      <c r="I16" s="324"/>
+      <c r="I16" s="332"/>
       <c r="J16" s="208"/>
       <c r="K16" s="196"/>
       <c r="L16" s="249"/>
@@ -39481,19 +40077,19 @@
       </c>
     </row>
     <row r="17" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="323" t="s">
+      <c r="B17" s="331" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="380"/>
-      <c r="D17" s="380"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="380"/>
-      <c r="G17" s="324"/>
-      <c r="H17" s="323" t="str">
+      <c r="C17" s="417"/>
+      <c r="D17" s="417"/>
+      <c r="E17" s="417"/>
+      <c r="F17" s="417"/>
+      <c r="G17" s="332"/>
+      <c r="H17" s="331" t="str">
         <f>IF($H$15=$AA$8,AA10,IF($H$15=$AB$8,AB10,""))</f>
         <v>Estratificado fino a grueso</v>
       </c>
-      <c r="I17" s="324"/>
+      <c r="I17" s="332"/>
       <c r="J17" s="208"/>
       <c r="K17" s="196"/>
       <c r="L17" s="249"/>
@@ -39519,18 +40115,18 @@
       <c r="AK17" s="217"/>
     </row>
     <row r="18" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="323" t="s">
+      <c r="B18" s="331" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="380"/>
-      <c r="D18" s="380"/>
-      <c r="E18" s="380"/>
-      <c r="F18" s="380"/>
-      <c r="G18" s="324"/>
-      <c r="H18" s="323" t="s">
+      <c r="C18" s="417"/>
+      <c r="D18" s="417"/>
+      <c r="E18" s="417"/>
+      <c r="F18" s="417"/>
+      <c r="G18" s="332"/>
+      <c r="H18" s="331" t="s">
         <v>328</v>
       </c>
-      <c r="I18" s="324"/>
+      <c r="I18" s="332"/>
       <c r="J18" s="208"/>
       <c r="K18" s="196"/>
       <c r="L18" s="249"/>
@@ -39552,19 +40148,19 @@
       <c r="AK18" s="217"/>
     </row>
     <row r="19" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="323" t="s">
+      <c r="B19" s="331" t="s">
         <v>357</v>
       </c>
-      <c r="C19" s="380"/>
-      <c r="D19" s="380"/>
-      <c r="E19" s="380"/>
-      <c r="F19" s="380"/>
-      <c r="G19" s="324"/>
-      <c r="H19" s="384">
+      <c r="C19" s="417"/>
+      <c r="D19" s="417"/>
+      <c r="E19" s="417"/>
+      <c r="F19" s="417"/>
+      <c r="G19" s="332"/>
+      <c r="H19" s="411">
         <f t="shared" ref="H19:H25" si="0">IF($H$15=$AA$8,AA11,IF($H$15=$AB$8,AB11,""))</f>
         <v>120</v>
       </c>
-      <c r="I19" s="385"/>
+      <c r="I19" s="412"/>
       <c r="J19" s="247" t="s">
         <v>4</v>
       </c>
@@ -39595,19 +40191,19 @@
       <c r="AK19" s="217"/>
     </row>
     <row r="20" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="381" t="s">
+      <c r="B20" s="402" t="s">
         <v>359</v>
       </c>
-      <c r="C20" s="382"/>
-      <c r="D20" s="382"/>
-      <c r="E20" s="382"/>
-      <c r="F20" s="382"/>
-      <c r="G20" s="383"/>
-      <c r="H20" s="384">
+      <c r="C20" s="403"/>
+      <c r="D20" s="403"/>
+      <c r="E20" s="403"/>
+      <c r="F20" s="403"/>
+      <c r="G20" s="404"/>
+      <c r="H20" s="411">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I20" s="385"/>
+      <c r="I20" s="412"/>
       <c r="J20" s="247" t="s">
         <v>4</v>
       </c>
@@ -39636,19 +40232,19 @@
       <c r="AK20" s="217"/>
     </row>
     <row r="21" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="323" t="s">
+      <c r="B21" s="331" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="380"/>
-      <c r="D21" s="380"/>
-      <c r="E21" s="380"/>
-      <c r="F21" s="380"/>
-      <c r="G21" s="324"/>
-      <c r="H21" s="384" t="str">
+      <c r="C21" s="417"/>
+      <c r="D21" s="417"/>
+      <c r="E21" s="417"/>
+      <c r="F21" s="417"/>
+      <c r="G21" s="332"/>
+      <c r="H21" s="411" t="str">
         <f t="shared" si="0"/>
         <v>12 - 36</v>
       </c>
-      <c r="I21" s="385"/>
+      <c r="I21" s="412"/>
       <c r="J21" s="266" t="s">
         <v>331</v>
       </c>
@@ -39675,19 +40271,19 @@
       <c r="AK21" s="217"/>
     </row>
     <row r="22" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="323" t="s">
+      <c r="B22" s="331" t="s">
         <v>319</v>
       </c>
-      <c r="C22" s="380"/>
-      <c r="D22" s="380"/>
-      <c r="E22" s="380"/>
-      <c r="F22" s="380"/>
-      <c r="G22" s="324"/>
-      <c r="H22" s="384">
+      <c r="C22" s="417"/>
+      <c r="D22" s="417"/>
+      <c r="E22" s="417"/>
+      <c r="F22" s="417"/>
+      <c r="G22" s="332"/>
+      <c r="H22" s="411">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="I22" s="385"/>
+      <c r="I22" s="412"/>
       <c r="J22" s="266" t="s">
         <v>3</v>
       </c>
@@ -39714,19 +40310,19 @@
       <c r="AK22" s="217"/>
     </row>
     <row r="23" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="323" t="s">
+      <c r="B23" s="331" t="s">
         <v>320</v>
       </c>
-      <c r="C23" s="380"/>
-      <c r="D23" s="380"/>
-      <c r="E23" s="380"/>
-      <c r="F23" s="380"/>
-      <c r="G23" s="324"/>
-      <c r="H23" s="384" t="str">
+      <c r="C23" s="417"/>
+      <c r="D23" s="417"/>
+      <c r="E23" s="417"/>
+      <c r="F23" s="417"/>
+      <c r="G23" s="332"/>
+      <c r="H23" s="411" t="str">
         <f t="shared" si="0"/>
         <v>2,4 - 3,0</v>
       </c>
-      <c r="I23" s="385"/>
+      <c r="I23" s="412"/>
       <c r="J23" s="266" t="s">
         <v>3</v>
       </c>
@@ -39751,19 +40347,19 @@
       <c r="AK23" s="217"/>
     </row>
     <row r="24" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="323" t="s">
+      <c r="B24" s="331" t="s">
         <v>330</v>
       </c>
-      <c r="C24" s="380"/>
-      <c r="D24" s="380"/>
-      <c r="E24" s="380"/>
-      <c r="F24" s="380"/>
-      <c r="G24" s="324"/>
-      <c r="H24" s="384" t="str">
+      <c r="C24" s="417"/>
+      <c r="D24" s="417"/>
+      <c r="E24" s="417"/>
+      <c r="F24" s="417"/>
+      <c r="G24" s="332"/>
+      <c r="H24" s="411" t="str">
         <f t="shared" si="0"/>
         <v>2 - 4</v>
       </c>
-      <c r="I24" s="385"/>
+      <c r="I24" s="412"/>
       <c r="J24" s="266" t="s">
         <v>332</v>
       </c>
@@ -39772,11 +40368,11 @@
       <c r="M24" s="236"/>
       <c r="N24" s="236"/>
       <c r="O24" s="236"/>
-      <c r="X24" s="364"/>
-      <c r="Y24" s="364"/>
+      <c r="X24" s="507"/>
+      <c r="Y24" s="507"/>
       <c r="Z24" s="207"/>
-      <c r="AA24" s="363"/>
-      <c r="AB24" s="363"/>
+      <c r="AA24" s="506"/>
+      <c r="AB24" s="506"/>
       <c r="AC24" s="113"/>
       <c r="AD24" s="217"/>
       <c r="AE24" s="217"/>
@@ -39788,20 +40384,20 @@
       <c r="AK24" s="217"/>
     </row>
     <row r="25" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="323" t="str">
+      <c r="B25" s="331" t="str">
         <f>IF($H$15=$AA$8,$X$17,IF($H$15=$AB$8,X17&amp;" (antracita)",IF($H$15="",X17&amp;" (antracita)")))</f>
         <v>Profundidad del medio</v>
       </c>
-      <c r="C25" s="380"/>
-      <c r="D25" s="380"/>
-      <c r="E25" s="380"/>
-      <c r="F25" s="380"/>
-      <c r="G25" s="324"/>
-      <c r="H25" s="384" t="str">
+      <c r="C25" s="417"/>
+      <c r="D25" s="417"/>
+      <c r="E25" s="417"/>
+      <c r="F25" s="417"/>
+      <c r="G25" s="332"/>
+      <c r="H25" s="411" t="str">
         <f t="shared" si="0"/>
         <v>0,60 - 0,75</v>
       </c>
-      <c r="I25" s="385"/>
+      <c r="I25" s="412"/>
       <c r="J25" s="266" t="s">
         <v>3</v>
       </c>
@@ -39810,11 +40406,11 @@
       <c r="M25" s="236"/>
       <c r="N25" s="236"/>
       <c r="O25" s="236"/>
-      <c r="X25" s="364"/>
-      <c r="Y25" s="364"/>
+      <c r="X25" s="507"/>
+      <c r="Y25" s="507"/>
       <c r="Z25" s="207"/>
-      <c r="AA25" s="363"/>
-      <c r="AB25" s="363"/>
+      <c r="AA25" s="506"/>
+      <c r="AB25" s="506"/>
       <c r="AC25" s="113"/>
       <c r="AD25" s="217"/>
       <c r="AE25" s="217"/>
@@ -39826,20 +40422,20 @@
       <c r="AK25" s="217"/>
     </row>
     <row r="26" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="323" t="str">
+      <c r="B26" s="331" t="str">
         <f>IF($H$15=$AA$8,$X$19,IF($H$15=$AB$8,X17&amp;" (arena)",IF($H$15="",X17&amp;" (arena)")))</f>
         <v>Profundidad de grava</v>
       </c>
-      <c r="C26" s="380"/>
-      <c r="D26" s="380"/>
-      <c r="E26" s="380"/>
-      <c r="F26" s="380"/>
-      <c r="G26" s="324"/>
-      <c r="H26" s="384" t="str">
+      <c r="C26" s="417"/>
+      <c r="D26" s="417"/>
+      <c r="E26" s="417"/>
+      <c r="F26" s="417"/>
+      <c r="G26" s="332"/>
+      <c r="H26" s="411" t="str">
         <f>IF($H$15=$AA$8,AA19,IF($H$15=$AB$8,AB18,""))</f>
         <v>0,30 - 0,45</v>
       </c>
-      <c r="I26" s="385"/>
+      <c r="I26" s="412"/>
       <c r="J26" s="266" t="s">
         <v>3</v>
       </c>
@@ -39848,11 +40444,11 @@
       <c r="M26" s="236"/>
       <c r="N26" s="236"/>
       <c r="O26" s="236"/>
-      <c r="X26" s="364"/>
-      <c r="Y26" s="364"/>
+      <c r="X26" s="507"/>
+      <c r="Y26" s="507"/>
       <c r="Z26" s="207"/>
-      <c r="AA26" s="363"/>
-      <c r="AB26" s="363"/>
+      <c r="AA26" s="506"/>
+      <c r="AB26" s="506"/>
       <c r="AD26" s="217"/>
       <c r="AE26" s="217"/>
       <c r="AF26" s="217"/>
@@ -39863,20 +40459,20 @@
       <c r="AK26" s="217"/>
     </row>
     <row r="27" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="323" t="str">
+      <c r="B27" s="331" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$X$19,IF($H$15="",$X$19)))</f>
         <v/>
       </c>
-      <c r="C27" s="380"/>
-      <c r="D27" s="380"/>
-      <c r="E27" s="380"/>
-      <c r="F27" s="380"/>
-      <c r="G27" s="380"/>
-      <c r="H27" s="384" t="str">
+      <c r="C27" s="417"/>
+      <c r="D27" s="417"/>
+      <c r="E27" s="417"/>
+      <c r="F27" s="417"/>
+      <c r="G27" s="417"/>
+      <c r="H27" s="411" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$AB$19,IF($H$15="","")))</f>
         <v/>
       </c>
-      <c r="I27" s="385"/>
+      <c r="I27" s="412"/>
       <c r="J27" s="267" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,"m",IF($H$15="","m")))</f>
         <v/>
@@ -39946,15 +40542,15 @@
       <c r="AB29" s="207"/>
     </row>
     <row r="30" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="341" t="s">
+      <c r="B30" s="337" t="s">
         <v>254</v>
       </c>
-      <c r="C30" s="341"/>
-      <c r="D30" s="341"/>
-      <c r="E30" s="341"/>
-      <c r="F30" s="341"/>
-      <c r="G30" s="341"/>
-      <c r="H30" s="341"/>
+      <c r="C30" s="337"/>
+      <c r="D30" s="337"/>
+      <c r="E30" s="337"/>
+      <c r="F30" s="337"/>
+      <c r="G30" s="337"/>
+      <c r="H30" s="337"/>
       <c r="I30" s="247" t="s">
         <v>251</v>
       </c>
@@ -39972,16 +40568,16 @@
       <c r="AB30" s="207"/>
     </row>
     <row r="31" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="341" t="str">
+      <c r="B31" s="337" t="str">
         <f>"Densidad del agua a "&amp;J30&amp;" °C"</f>
         <v>Densidad del agua a 3 °C</v>
       </c>
-      <c r="C31" s="341"/>
-      <c r="D31" s="341"/>
-      <c r="E31" s="341"/>
-      <c r="F31" s="341"/>
-      <c r="G31" s="341"/>
-      <c r="H31" s="341"/>
+      <c r="C31" s="337"/>
+      <c r="D31" s="337"/>
+      <c r="E31" s="337"/>
+      <c r="F31" s="337"/>
+      <c r="G31" s="337"/>
+      <c r="H31" s="337"/>
       <c r="I31" s="275" t="s">
         <v>250</v>
       </c>
@@ -39999,25 +40595,25 @@
       <c r="Y31" s="183" t="s">
         <v>312</v>
       </c>
-      <c r="Z31" s="390" t="s">
+      <c r="Z31" s="474" t="s">
         <v>248</v>
       </c>
-      <c r="AA31" s="390" t="s">
+      <c r="AA31" s="474" t="s">
         <v>246</v>
       </c>
       <c r="AB31" s="181"/>
     </row>
     <row r="32" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="341" t="str">
+      <c r="B32" s="337" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad dinámica del agua a 3 °C</v>
       </c>
-      <c r="C32" s="341"/>
-      <c r="D32" s="341"/>
-      <c r="E32" s="341"/>
-      <c r="F32" s="341"/>
-      <c r="G32" s="341"/>
-      <c r="H32" s="341"/>
+      <c r="C32" s="337"/>
+      <c r="D32" s="337"/>
+      <c r="E32" s="337"/>
+      <c r="F32" s="337"/>
+      <c r="G32" s="337"/>
+      <c r="H32" s="337"/>
       <c r="I32" s="275" t="s">
         <v>213</v>
       </c>
@@ -40035,21 +40631,21 @@
       <c r="Y32" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="Z32" s="391"/>
-      <c r="AA32" s="391"/>
+      <c r="Z32" s="475"/>
+      <c r="AA32" s="475"/>
       <c r="AB32" s="181"/>
     </row>
     <row r="33" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="500" t="str">
+      <c r="B33" s="413" t="str">
         <f>"Viscocidad cinemática del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad cinemática del agua a 3 °C</v>
       </c>
-      <c r="C33" s="500"/>
-      <c r="D33" s="500"/>
-      <c r="E33" s="500"/>
-      <c r="F33" s="500"/>
-      <c r="G33" s="500"/>
-      <c r="H33" s="500"/>
+      <c r="C33" s="413"/>
+      <c r="D33" s="413"/>
+      <c r="E33" s="413"/>
+      <c r="F33" s="413"/>
+      <c r="G33" s="413"/>
+      <c r="H33" s="413"/>
       <c r="I33" s="51" t="s">
         <v>2</v>
       </c>
@@ -40183,26 +40779,26 @@
       <c r="AB37" s="157"/>
     </row>
     <row r="38" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="473" t="s">
+      <c r="B38" s="424" t="s">
         <v>192</v>
       </c>
-      <c r="C38" s="474"/>
+      <c r="C38" s="425"/>
       <c r="D38" s="54"/>
       <c r="E38" s="248"/>
-      <c r="F38" s="367" t="s">
+      <c r="F38" s="409" t="s">
         <v>204</v>
       </c>
-      <c r="G38" s="367" t="s">
+      <c r="G38" s="409" t="s">
         <v>203</v>
       </c>
-      <c r="H38" s="436" t="s">
+      <c r="H38" s="481" t="s">
         <v>210</v>
       </c>
-      <c r="I38" s="437"/>
-      <c r="J38" s="436" t="s">
+      <c r="I38" s="482"/>
+      <c r="J38" s="481" t="s">
         <v>209</v>
       </c>
-      <c r="K38" s="437"/>
+      <c r="K38" s="482"/>
       <c r="L38" s="253"/>
       <c r="X38" s="165">
         <v>3</v>
@@ -40220,22 +40816,22 @@
       <c r="AB38" s="157"/>
     </row>
     <row r="39" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="475"/>
-      <c r="C39" s="476"/>
+      <c r="B39" s="426"/>
+      <c r="C39" s="427"/>
       <c r="D39" s="54"/>
       <c r="E39" s="248"/>
-      <c r="F39" s="368"/>
-      <c r="G39" s="368"/>
-      <c r="H39" s="367" t="s">
+      <c r="F39" s="430"/>
+      <c r="G39" s="430"/>
+      <c r="H39" s="409" t="s">
         <v>186</v>
       </c>
-      <c r="I39" s="367" t="s">
+      <c r="I39" s="409" t="s">
         <v>207</v>
       </c>
-      <c r="J39" s="367" t="s">
+      <c r="J39" s="409" t="s">
         <v>186</v>
       </c>
-      <c r="K39" s="367" t="s">
+      <c r="K39" s="409" t="s">
         <v>207</v>
       </c>
       <c r="L39" s="253"/>
@@ -40255,16 +40851,16 @@
       <c r="AB39" s="157"/>
     </row>
     <row r="40" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="475"/>
-      <c r="C40" s="476"/>
+      <c r="B40" s="426"/>
+      <c r="C40" s="427"/>
       <c r="D40" s="54"/>
       <c r="E40" s="248"/>
-      <c r="F40" s="368"/>
-      <c r="G40" s="368"/>
-      <c r="H40" s="368"/>
-      <c r="I40" s="368"/>
-      <c r="J40" s="368"/>
-      <c r="K40" s="368"/>
+      <c r="F40" s="430"/>
+      <c r="G40" s="430"/>
+      <c r="H40" s="430"/>
+      <c r="I40" s="430"/>
+      <c r="J40" s="430"/>
+      <c r="K40" s="430"/>
       <c r="L40" s="253"/>
       <c r="X40" s="165">
         <v>5</v>
@@ -40282,16 +40878,16 @@
       <c r="AB40" s="157"/>
     </row>
     <row r="41" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="477"/>
-      <c r="C41" s="478"/>
+      <c r="B41" s="428"/>
+      <c r="C41" s="429"/>
       <c r="D41" s="54"/>
       <c r="E41" s="248"/>
-      <c r="F41" s="369"/>
-      <c r="G41" s="369"/>
-      <c r="H41" s="369"/>
-      <c r="I41" s="369"/>
-      <c r="J41" s="369"/>
-      <c r="K41" s="369"/>
+      <c r="F41" s="410"/>
+      <c r="G41" s="410"/>
+      <c r="H41" s="410"/>
+      <c r="I41" s="410"/>
+      <c r="J41" s="410"/>
+      <c r="K41" s="410"/>
       <c r="L41" s="253"/>
       <c r="X41" s="165">
         <v>6</v>
@@ -40309,10 +40905,10 @@
       <c r="AB41" s="157"/>
     </row>
     <row r="42" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="384" t="s">
+      <c r="B42" s="411" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="385"/>
+      <c r="C42" s="412"/>
       <c r="D42" s="128">
         <f>LEFT(B42,2)+0</f>
         <v>14</v>
@@ -40334,7 +40930,7 @@
       </c>
       <c r="I42" s="258">
         <f>SUM(F$42:F$50)-SUM(F$42:F42)</f>
-        <v>99.2</v>
+        <v>97.13000000000001</v>
       </c>
       <c r="J42" s="114">
         <f>H50</f>
@@ -40363,10 +40959,10 @@
       <c r="AB42" s="157"/>
     </row>
     <row r="43" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="384" t="s">
+      <c r="B43" s="411" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="385"/>
+      <c r="C43" s="412"/>
       <c r="D43" s="128">
         <f t="shared" ref="D43:D50" si="3">LEFT(B43,2)+0</f>
         <v>20</v>
@@ -40388,7 +40984,7 @@
       </c>
       <c r="I43" s="258">
         <f>SUM(F$42:F$50)-SUM(F$42:F43)</f>
-        <v>94.95</v>
+        <v>92.88000000000001</v>
       </c>
       <c r="J43" s="114">
         <f>H49</f>
@@ -40396,7 +40992,7 @@
       </c>
       <c r="K43" s="258">
         <f>I49</f>
-        <v>2.0699999999999932</v>
+        <v>0</v>
       </c>
       <c r="L43" s="253"/>
       <c r="N43" s="231"/>
@@ -40417,10 +41013,10 @@
       <c r="AB43" s="157"/>
     </row>
     <row r="44" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="384" t="s">
+      <c r="B44" s="411" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="385"/>
+      <c r="C44" s="412"/>
       <c r="D44" s="128">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -40442,7 +41038,7 @@
       </c>
       <c r="I44" s="258">
         <f>SUM(F$42:F$50)-SUM(F$42:F44)</f>
-        <v>79.930000000000007</v>
+        <v>77.860000000000014</v>
       </c>
       <c r="J44" s="114">
         <f>H48</f>
@@ -40450,7 +41046,7 @@
       </c>
       <c r="K44" s="258">
         <f>I48</f>
-        <v>11.36999999999999</v>
+        <v>9.2999999999999972</v>
       </c>
       <c r="L44" s="253"/>
       <c r="N44" s="231"/>
@@ -40471,10 +41067,10 @@
       <c r="AB44" s="157"/>
     </row>
     <row r="45" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="384" t="s">
+      <c r="B45" s="411" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="385"/>
+      <c r="C45" s="412"/>
       <c r="D45" s="128">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -40496,7 +41092,7 @@
       </c>
       <c r="I45" s="258">
         <f>SUM(F$42:F$50)-SUM(F$42:F45)</f>
-        <v>63.28</v>
+        <v>61.210000000000008</v>
       </c>
       <c r="J45" s="114">
         <f>H47</f>
@@ -40504,7 +41100,7 @@
       </c>
       <c r="K45" s="258">
         <f>I47</f>
-        <v>27.019999999999996</v>
+        <v>24.950000000000003</v>
       </c>
       <c r="L45" s="253"/>
       <c r="N45" s="231"/>
@@ -40525,10 +41121,10 @@
       <c r="AB45" s="157"/>
     </row>
     <row r="46" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="384" t="s">
+      <c r="B46" s="411" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="385"/>
+      <c r="C46" s="412"/>
       <c r="D46" s="128">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -40550,7 +41146,7 @@
       </c>
       <c r="I46" s="258">
         <f>SUM(F$42:F$50)-SUM(F$42:F46)</f>
-        <v>45.269999999999996</v>
+        <v>43.2</v>
       </c>
       <c r="J46" s="114">
         <f>H46</f>
@@ -40558,7 +41154,7 @@
       </c>
       <c r="K46" s="258">
         <f>I46</f>
-        <v>45.269999999999996</v>
+        <v>43.2</v>
       </c>
       <c r="L46" s="253"/>
       <c r="N46" s="231"/>
@@ -40579,10 +41175,10 @@
       <c r="AB46" s="157"/>
     </row>
     <row r="47" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="384" t="s">
+      <c r="B47" s="411" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="385"/>
+      <c r="C47" s="412"/>
       <c r="D47" s="128">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -40604,7 +41200,7 @@
       </c>
       <c r="I47" s="258">
         <f>SUM(F$42:F$50)-SUM(F$42:F47)</f>
-        <v>27.019999999999996</v>
+        <v>24.950000000000003</v>
       </c>
       <c r="J47" s="114">
         <f>H45</f>
@@ -40612,7 +41208,7 @@
       </c>
       <c r="K47" s="258">
         <f>I45</f>
-        <v>63.28</v>
+        <v>61.210000000000008</v>
       </c>
       <c r="L47" s="253"/>
       <c r="N47" s="231"/>
@@ -40633,10 +41229,10 @@
       <c r="AB47" s="157"/>
     </row>
     <row r="48" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="384" t="s">
+      <c r="B48" s="411" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="385"/>
+      <c r="C48" s="412"/>
       <c r="D48" s="128">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -40658,7 +41254,7 @@
       </c>
       <c r="I48" s="258">
         <f>SUM(F$42:F$50)-SUM(F$42:F48)</f>
-        <v>11.36999999999999</v>
+        <v>9.2999999999999972</v>
       </c>
       <c r="J48" s="114">
         <f>H44</f>
@@ -40666,7 +41262,7 @@
       </c>
       <c r="K48" s="258">
         <f>I44</f>
-        <v>79.930000000000007</v>
+        <v>77.860000000000014</v>
       </c>
       <c r="L48" s="253"/>
       <c r="N48" s="231"/>
@@ -40687,10 +41283,10 @@
       <c r="AB48" s="157"/>
     </row>
     <row r="49" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="384" t="s">
+      <c r="B49" s="411" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="385"/>
+      <c r="C49" s="412"/>
       <c r="D49" s="128">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -40712,7 +41308,7 @@
       </c>
       <c r="I49" s="258">
         <f>SUM(F$42:F$50)-SUM(F$42:F49)</f>
-        <v>2.0699999999999932</v>
+        <v>0</v>
       </c>
       <c r="J49" s="114">
         <f>H43</f>
@@ -40720,7 +41316,7 @@
       </c>
       <c r="K49" s="258">
         <f>I43</f>
-        <v>94.95</v>
+        <v>92.88000000000001</v>
       </c>
       <c r="L49" s="253"/>
       <c r="N49" s="231"/>
@@ -40741,10 +41337,10 @@
       <c r="AB49" s="157"/>
     </row>
     <row r="50" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="384" t="s">
+      <c r="B50" s="411" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="385"/>
+      <c r="C50" s="412"/>
       <c r="D50" s="128">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -40753,8 +41349,8 @@
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="F50" s="54">
-        <v>2.0699999999999998</v>
+      <c r="F50" s="54" t="s">
+        <v>418</v>
       </c>
       <c r="G50" s="208">
         <f t="shared" si="5"/>
@@ -40774,7 +41370,7 @@
       </c>
       <c r="K50" s="258">
         <f>I42</f>
-        <v>99.2</v>
+        <v>97.13000000000001</v>
       </c>
       <c r="L50" s="253"/>
       <c r="X50" s="165">
@@ -40849,20 +41445,20 @@
       <c r="AB52" s="157"/>
     </row>
     <row r="53" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="451"/>
-      <c r="C53" s="451"/>
+      <c r="B53" s="420"/>
+      <c r="C53" s="420"/>
       <c r="D53" s="54"/>
       <c r="E53" s="248"/>
-      <c r="F53" s="472" t="s">
+      <c r="F53" s="408" t="s">
         <v>186</v>
       </c>
-      <c r="G53" s="472" t="s">
+      <c r="G53" s="408" t="s">
         <v>207</v>
       </c>
-      <c r="H53" s="452"/>
-      <c r="I53" s="452"/>
-      <c r="J53" s="452"/>
-      <c r="K53" s="453" t="s">
+      <c r="H53" s="419"/>
+      <c r="I53" s="419"/>
+      <c r="J53" s="419"/>
+      <c r="K53" s="418" t="s">
         <v>349</v>
       </c>
       <c r="L53" s="253"/>
@@ -40882,16 +41478,16 @@
       <c r="AB53" s="157"/>
     </row>
     <row r="54" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="451"/>
-      <c r="C54" s="451"/>
+      <c r="B54" s="420"/>
+      <c r="C54" s="420"/>
       <c r="D54" s="54"/>
       <c r="E54" s="248"/>
-      <c r="F54" s="472"/>
-      <c r="G54" s="472"/>
-      <c r="H54" s="452"/>
-      <c r="I54" s="452"/>
-      <c r="J54" s="452"/>
-      <c r="K54" s="453"/>
+      <c r="F54" s="408"/>
+      <c r="G54" s="408"/>
+      <c r="H54" s="419"/>
+      <c r="I54" s="419"/>
+      <c r="J54" s="419"/>
+      <c r="K54" s="418"/>
       <c r="L54" s="253"/>
       <c r="X54" s="165">
         <v>19</v>
@@ -40910,16 +41506,16 @@
       <c r="AD54" s="172"/>
     </row>
     <row r="55" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="451"/>
-      <c r="C55" s="451"/>
+      <c r="B55" s="420"/>
+      <c r="C55" s="420"/>
       <c r="D55" s="54"/>
       <c r="E55" s="248"/>
-      <c r="F55" s="472"/>
-      <c r="G55" s="472"/>
-      <c r="H55" s="452"/>
-      <c r="I55" s="452"/>
-      <c r="J55" s="452"/>
-      <c r="K55" s="453"/>
+      <c r="F55" s="408"/>
+      <c r="G55" s="408"/>
+      <c r="H55" s="419"/>
+      <c r="I55" s="419"/>
+      <c r="J55" s="419"/>
+      <c r="K55" s="418"/>
       <c r="L55" s="253"/>
       <c r="X55" s="167">
         <v>20</v>
@@ -40938,29 +41534,29 @@
       <c r="AD55" s="172"/>
     </row>
     <row r="56" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="452" t="s">
+      <c r="B56" s="419" t="s">
         <v>350</v>
       </c>
-      <c r="C56" s="452"/>
+      <c r="C56" s="419"/>
       <c r="D56" s="54"/>
       <c r="E56" s="248"/>
       <c r="F56" s="114">
         <f>INDEX(J42:J50,MATCH(10,K42:K50,1),1)</f>
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="G56" s="258">
         <f>VLOOKUP(F56,J$42:K$50,2,FALSE)</f>
-        <v>2.0699999999999932</v>
-      </c>
-      <c r="H56" s="451">
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="H56" s="420">
         <f>(LOG(F56)+((10-G56)/(G57-G56))*LOG(F57/F56))</f>
-        <v>-0.61321454811239473</v>
-      </c>
-      <c r="I56" s="451"/>
-      <c r="J56" s="451"/>
-      <c r="K56" s="452">
+        <v>-0.59871356906268303</v>
+      </c>
+      <c r="I56" s="420"/>
+      <c r="J56" s="420"/>
+      <c r="K56" s="419">
         <f>10^(H56)</f>
-        <v>0.2436606799987964</v>
+        <v>0.251933796295991</v>
       </c>
       <c r="L56" s="253"/>
       <c r="X56" s="165">
@@ -40979,24 +41575,24 @@
       <c r="AB56" s="157"/>
     </row>
     <row r="57" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="452" t="s">
+      <c r="B57" s="419" t="s">
         <v>351</v>
       </c>
-      <c r="C57" s="452"/>
+      <c r="C57" s="419"/>
       <c r="D57" s="54"/>
       <c r="E57" s="248"/>
       <c r="F57" s="114">
         <f>INDEX(H42:H50,MATCH(10,I42:I50,-1),1)</f>
-        <v>0.25</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="G57" s="258">
         <f>VLOOKUP(F57,J$42:K$50,2,FALSE)</f>
-        <v>11.36999999999999</v>
-      </c>
-      <c r="H57" s="451"/>
-      <c r="I57" s="451"/>
-      <c r="J57" s="451"/>
-      <c r="K57" s="452"/>
+        <v>24.950000000000003</v>
+      </c>
+      <c r="H57" s="420"/>
+      <c r="I57" s="420"/>
+      <c r="J57" s="420"/>
+      <c r="K57" s="419"/>
       <c r="L57" s="253"/>
       <c r="X57" s="165">
         <v>22</v>
@@ -41070,20 +41666,20 @@
       <c r="AB59" s="157"/>
     </row>
     <row r="60" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="451"/>
-      <c r="C60" s="451"/>
+      <c r="B60" s="420"/>
+      <c r="C60" s="420"/>
       <c r="D60" s="54"/>
       <c r="E60" s="248"/>
-      <c r="F60" s="472" t="s">
+      <c r="F60" s="408" t="s">
         <v>186</v>
       </c>
-      <c r="G60" s="472" t="s">
+      <c r="G60" s="408" t="s">
         <v>207</v>
       </c>
-      <c r="H60" s="452"/>
-      <c r="I60" s="452"/>
-      <c r="J60" s="452"/>
-      <c r="K60" s="453" t="s">
+      <c r="H60" s="419"/>
+      <c r="I60" s="419"/>
+      <c r="J60" s="419"/>
+      <c r="K60" s="418" t="s">
         <v>353</v>
       </c>
       <c r="L60" s="253"/>
@@ -41103,16 +41699,16 @@
       <c r="AB60" s="157"/>
     </row>
     <row r="61" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="451"/>
-      <c r="C61" s="451"/>
+      <c r="B61" s="420"/>
+      <c r="C61" s="420"/>
       <c r="D61" s="54"/>
       <c r="E61" s="248"/>
-      <c r="F61" s="472"/>
-      <c r="G61" s="472"/>
-      <c r="H61" s="452"/>
-      <c r="I61" s="452"/>
-      <c r="J61" s="452"/>
-      <c r="K61" s="453"/>
+      <c r="F61" s="408"/>
+      <c r="G61" s="408"/>
+      <c r="H61" s="419"/>
+      <c r="I61" s="419"/>
+      <c r="J61" s="419"/>
+      <c r="K61" s="418"/>
       <c r="L61" s="253"/>
       <c r="X61" s="165">
         <v>26</v>
@@ -41130,16 +41726,16 @@
       <c r="AB61" s="157"/>
     </row>
     <row r="62" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="451"/>
-      <c r="C62" s="451"/>
+      <c r="B62" s="420"/>
+      <c r="C62" s="420"/>
       <c r="D62" s="54"/>
       <c r="E62" s="248"/>
-      <c r="F62" s="472"/>
-      <c r="G62" s="472"/>
-      <c r="H62" s="452"/>
-      <c r="I62" s="452"/>
-      <c r="J62" s="452"/>
-      <c r="K62" s="453"/>
+      <c r="F62" s="408"/>
+      <c r="G62" s="408"/>
+      <c r="H62" s="419"/>
+      <c r="I62" s="419"/>
+      <c r="J62" s="419"/>
+      <c r="K62" s="418"/>
       <c r="L62" s="253"/>
       <c r="X62" s="165">
         <v>27</v>
@@ -41157,10 +41753,10 @@
       <c r="AB62" s="157"/>
     </row>
     <row r="63" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="452" t="s">
+      <c r="B63" s="419" t="s">
         <v>350</v>
       </c>
-      <c r="C63" s="452"/>
+      <c r="C63" s="419"/>
       <c r="D63" s="54"/>
       <c r="E63" s="248"/>
       <c r="F63" s="114">
@@ -41169,17 +41765,17 @@
       </c>
       <c r="G63" s="258">
         <f>VLOOKUP(F63,J$42:K$50,2,FALSE)</f>
-        <v>45.269999999999996</v>
-      </c>
-      <c r="H63" s="451">
+        <v>43.2</v>
+      </c>
+      <c r="H63" s="420">
         <f>(LOG(F63)+((60-G63)/(G64-G63))*LOG(F64/F63))</f>
-        <v>-0.31867934839393264</v>
-      </c>
-      <c r="I63" s="451"/>
-      <c r="J63" s="451"/>
-      <c r="K63" s="452">
+        <v>-0.30754088493326209</v>
+      </c>
+      <c r="I63" s="420"/>
+      <c r="J63" s="420"/>
+      <c r="K63" s="419">
         <f>10^(H63)</f>
-        <v>0.48008777987655482</v>
+        <v>0.49255997105996119</v>
       </c>
       <c r="L63" s="253"/>
       <c r="X63" s="165">
@@ -41198,10 +41794,10 @@
       <c r="AB63" s="157"/>
     </row>
     <row r="64" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="452" t="s">
+      <c r="B64" s="419" t="s">
         <v>351</v>
       </c>
-      <c r="C64" s="452"/>
+      <c r="C64" s="419"/>
       <c r="D64" s="54"/>
       <c r="E64" s="248"/>
       <c r="F64" s="114">
@@ -41210,12 +41806,12 @@
       </c>
       <c r="G64" s="258">
         <f>VLOOKUP(F64,J$42:K$50,2,FALSE)</f>
-        <v>63.28</v>
-      </c>
-      <c r="H64" s="451"/>
-      <c r="I64" s="451"/>
-      <c r="J64" s="451"/>
-      <c r="K64" s="452"/>
+        <v>61.210000000000008</v>
+      </c>
+      <c r="H64" s="420"/>
+      <c r="I64" s="420"/>
+      <c r="J64" s="420"/>
+      <c r="K64" s="419"/>
       <c r="L64" s="253"/>
       <c r="X64" s="165">
         <v>29</v>
@@ -41289,19 +41885,19 @@
       <c r="AB66" s="157"/>
     </row>
     <row r="67" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="473" t="s">
+      <c r="B67" s="424" t="s">
         <v>354</v>
       </c>
-      <c r="C67" s="474"/>
+      <c r="C67" s="425"/>
       <c r="D67" s="54"/>
       <c r="E67" s="248"/>
-      <c r="F67" s="473" t="s">
+      <c r="F67" s="424" t="s">
         <v>353</v>
       </c>
-      <c r="G67" s="496" t="s">
+      <c r="G67" s="466" t="s">
         <v>211</v>
       </c>
-      <c r="H67" s="496"/>
+      <c r="H67" s="466"/>
       <c r="I67" s="249"/>
       <c r="J67" s="249"/>
       <c r="K67" s="135"/>
@@ -41322,13 +41918,13 @@
       <c r="AB67" s="157"/>
     </row>
     <row r="68" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="475"/>
-      <c r="C68" s="476"/>
+      <c r="B68" s="426"/>
+      <c r="C68" s="427"/>
       <c r="D68" s="54"/>
       <c r="E68" s="248"/>
-      <c r="F68" s="475"/>
-      <c r="G68" s="496"/>
-      <c r="H68" s="496"/>
+      <c r="F68" s="426"/>
+      <c r="G68" s="466"/>
+      <c r="H68" s="466"/>
       <c r="I68" s="249"/>
       <c r="J68" s="249"/>
       <c r="K68" s="135"/>
@@ -41350,13 +41946,13 @@
       <c r="AB68" s="157"/>
     </row>
     <row r="69" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="477"/>
-      <c r="C69" s="478"/>
+      <c r="B69" s="428"/>
+      <c r="C69" s="429"/>
       <c r="D69" s="54"/>
       <c r="E69" s="248"/>
-      <c r="F69" s="477"/>
-      <c r="G69" s="496"/>
-      <c r="H69" s="496"/>
+      <c r="F69" s="428"/>
+      <c r="G69" s="466"/>
+      <c r="H69" s="466"/>
       <c r="I69" s="249"/>
       <c r="J69" s="249"/>
       <c r="K69" s="135"/>
@@ -41378,22 +41974,22 @@
       <c r="AB69" s="157"/>
     </row>
     <row r="70" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="452">
+      <c r="B70" s="419">
         <f>K56</f>
-        <v>0.2436606799987964</v>
-      </c>
-      <c r="C70" s="452"/>
+        <v>0.251933796295991</v>
+      </c>
+      <c r="C70" s="419"/>
       <c r="D70" s="54"/>
       <c r="E70" s="248"/>
       <c r="F70" s="114">
         <f>K63</f>
-        <v>0.48008777987655482</v>
-      </c>
-      <c r="G70" s="497">
+        <v>0.49255997105996119</v>
+      </c>
+      <c r="G70" s="467">
         <f>F70/B70</f>
-        <v>1.9703128952891631</v>
-      </c>
-      <c r="H70" s="497"/>
+        <v>1.9551166945512315</v>
+      </c>
+      <c r="H70" s="467"/>
       <c r="I70" s="249"/>
       <c r="J70" s="249"/>
       <c r="K70" s="135"/>
@@ -41436,15 +42032,15 @@
       <c r="AB72" s="157"/>
     </row>
     <row r="73" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="469" t="s">
+      <c r="B73" s="392" t="s">
         <v>358</v>
       </c>
-      <c r="C73" s="470"/>
-      <c r="D73" s="470"/>
-      <c r="E73" s="470"/>
-      <c r="F73" s="470"/>
-      <c r="G73" s="470"/>
-      <c r="H73" s="471"/>
+      <c r="C73" s="393"/>
+      <c r="D73" s="393"/>
+      <c r="E73" s="393"/>
+      <c r="F73" s="393"/>
+      <c r="G73" s="393"/>
+      <c r="H73" s="394"/>
       <c r="I73" s="206" t="s">
         <v>181</v>
       </c>
@@ -41466,15 +42062,15 @@
       <c r="AA73" s="113"/>
     </row>
     <row r="74" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="469" t="s">
+      <c r="B74" s="392" t="s">
         <v>287</v>
       </c>
-      <c r="C74" s="470"/>
-      <c r="D74" s="470"/>
-      <c r="E74" s="470"/>
-      <c r="F74" s="470"/>
-      <c r="G74" s="470"/>
-      <c r="H74" s="471"/>
+      <c r="C74" s="393"/>
+      <c r="D74" s="393"/>
+      <c r="E74" s="393"/>
+      <c r="F74" s="393"/>
+      <c r="G74" s="393"/>
+      <c r="H74" s="394"/>
       <c r="I74" s="251" t="s">
         <v>88</v>
       </c>
@@ -41492,15 +42088,15 @@
       <c r="AA74" s="113"/>
     </row>
     <row r="75" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="469" t="s">
+      <c r="B75" s="392" t="s">
         <v>283</v>
       </c>
-      <c r="C75" s="470"/>
-      <c r="D75" s="470"/>
-      <c r="E75" s="470"/>
-      <c r="F75" s="470"/>
-      <c r="G75" s="470"/>
-      <c r="H75" s="471"/>
+      <c r="C75" s="393"/>
+      <c r="D75" s="393"/>
+      <c r="E75" s="393"/>
+      <c r="F75" s="393"/>
+      <c r="G75" s="393"/>
+      <c r="H75" s="394"/>
       <c r="I75" s="251" t="s">
         <v>284</v>
       </c>
@@ -41516,15 +42112,15 @@
       <c r="AA75" s="113"/>
     </row>
     <row r="76" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="469" t="s">
+      <c r="B76" s="392" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="470"/>
-      <c r="D76" s="470"/>
-      <c r="E76" s="470"/>
-      <c r="F76" s="470"/>
-      <c r="G76" s="470"/>
-      <c r="H76" s="471"/>
+      <c r="C76" s="393"/>
+      <c r="D76" s="393"/>
+      <c r="E76" s="393"/>
+      <c r="F76" s="393"/>
+      <c r="G76" s="393"/>
+      <c r="H76" s="394"/>
       <c r="I76" s="251" t="s">
         <v>240</v>
       </c>
@@ -41540,15 +42136,15 @@
       <c r="AA76" s="113"/>
     </row>
     <row r="77" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="469" t="s">
+      <c r="B77" s="392" t="s">
         <v>190</v>
       </c>
-      <c r="C77" s="470"/>
-      <c r="D77" s="470"/>
-      <c r="E77" s="470"/>
-      <c r="F77" s="470"/>
-      <c r="G77" s="470"/>
-      <c r="H77" s="471"/>
+      <c r="C77" s="393"/>
+      <c r="D77" s="393"/>
+      <c r="E77" s="393"/>
+      <c r="F77" s="393"/>
+      <c r="G77" s="393"/>
+      <c r="H77" s="394"/>
       <c r="I77" s="251" t="s">
         <v>191</v>
       </c>
@@ -41564,15 +42160,15 @@
       <c r="AA77" s="113"/>
     </row>
     <row r="78" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="469" t="s">
+      <c r="B78" s="392" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="470"/>
-      <c r="D78" s="470"/>
-      <c r="E78" s="470"/>
-      <c r="F78" s="470"/>
-      <c r="G78" s="470"/>
-      <c r="H78" s="471"/>
+      <c r="C78" s="393"/>
+      <c r="D78" s="393"/>
+      <c r="E78" s="393"/>
+      <c r="F78" s="393"/>
+      <c r="G78" s="393"/>
+      <c r="H78" s="394"/>
       <c r="I78" s="252" t="s">
         <v>189</v>
       </c>
@@ -41588,15 +42184,15 @@
       <c r="AA78" s="113"/>
     </row>
     <row r="79" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="469" t="s">
+      <c r="B79" s="392" t="s">
         <v>230</v>
       </c>
-      <c r="C79" s="470"/>
-      <c r="D79" s="470"/>
-      <c r="E79" s="470"/>
-      <c r="F79" s="470"/>
-      <c r="G79" s="470"/>
-      <c r="H79" s="471"/>
+      <c r="C79" s="393"/>
+      <c r="D79" s="393"/>
+      <c r="E79" s="393"/>
+      <c r="F79" s="393"/>
+      <c r="G79" s="393"/>
+      <c r="H79" s="394"/>
       <c r="I79" s="252" t="s">
         <v>189</v>
       </c>
@@ -41612,15 +42208,15 @@
       <c r="AA79" s="113"/>
     </row>
     <row r="80" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="469" t="s">
+      <c r="B80" s="392" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="470"/>
-      <c r="D80" s="470"/>
-      <c r="E80" s="470"/>
-      <c r="F80" s="470"/>
-      <c r="G80" s="470"/>
-      <c r="H80" s="471"/>
+      <c r="C80" s="393"/>
+      <c r="D80" s="393"/>
+      <c r="E80" s="393"/>
+      <c r="F80" s="393"/>
+      <c r="G80" s="393"/>
+      <c r="H80" s="394"/>
       <c r="I80" s="151" t="s">
         <v>238</v>
       </c>
@@ -41702,139 +42298,139 @@
       <c r="Z83" s="109"/>
     </row>
     <row r="84" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="473" t="s">
+      <c r="B84" s="424" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="474"/>
-      <c r="D84" s="472"/>
-      <c r="E84" s="367"/>
-      <c r="F84" s="367" t="s">
+      <c r="C84" s="425"/>
+      <c r="D84" s="408"/>
+      <c r="E84" s="409"/>
+      <c r="F84" s="409" t="s">
         <v>204</v>
       </c>
-      <c r="G84" s="367" t="s">
+      <c r="G84" s="409" t="s">
         <v>205</v>
       </c>
-      <c r="H84" s="367" t="s">
+      <c r="H84" s="409" t="s">
         <v>206</v>
       </c>
-      <c r="I84" s="484" t="s">
+      <c r="I84" s="431" t="s">
         <v>208</v>
       </c>
-      <c r="J84" s="501" t="s">
+      <c r="J84" s="414" t="s">
         <v>182</v>
       </c>
-      <c r="K84" s="502"/>
-      <c r="L84" s="502"/>
-      <c r="M84" s="503"/>
-      <c r="N84" s="447" t="s">
+      <c r="K84" s="415"/>
+      <c r="L84" s="415"/>
+      <c r="M84" s="416"/>
+      <c r="N84" s="492" t="s">
         <v>183</v>
       </c>
-      <c r="O84" s="448"/>
-      <c r="P84" s="448"/>
-      <c r="Q84" s="448"/>
-      <c r="R84" s="449"/>
-      <c r="S84" s="373" t="s">
+      <c r="O84" s="493"/>
+      <c r="P84" s="493"/>
+      <c r="Q84" s="493"/>
+      <c r="R84" s="494"/>
+      <c r="S84" s="512" t="s">
         <v>184</v>
       </c>
-      <c r="T84" s="373"/>
-      <c r="U84" s="373"/>
-      <c r="V84" s="373"/>
+      <c r="T84" s="512"/>
+      <c r="U84" s="512"/>
+      <c r="V84" s="512"/>
       <c r="W84" s="112"/>
-      <c r="X84" s="367" t="s">
+      <c r="X84" s="409" t="s">
         <v>185</v>
       </c>
-      <c r="Y84" s="367" t="s">
+      <c r="Y84" s="409" t="s">
         <v>186</v>
       </c>
       <c r="Z84" s="109"/>
     </row>
     <row r="85" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="475"/>
-      <c r="C85" s="476"/>
-      <c r="D85" s="472"/>
-      <c r="E85" s="369"/>
-      <c r="F85" s="368"/>
-      <c r="G85" s="368"/>
-      <c r="H85" s="368"/>
-      <c r="I85" s="485"/>
-      <c r="J85" s="377" t="s">
+      <c r="B85" s="426"/>
+      <c r="C85" s="427"/>
+      <c r="D85" s="408"/>
+      <c r="E85" s="410"/>
+      <c r="F85" s="430"/>
+      <c r="G85" s="430"/>
+      <c r="H85" s="430"/>
+      <c r="I85" s="432"/>
+      <c r="J85" s="449" t="s">
         <v>187</v>
       </c>
-      <c r="K85" s="438"/>
-      <c r="L85" s="444"/>
-      <c r="M85" s="439"/>
-      <c r="N85" s="450"/>
-      <c r="O85" s="438"/>
-      <c r="P85" s="439"/>
-      <c r="Q85" s="377" t="s">
+      <c r="K85" s="483"/>
+      <c r="L85" s="489"/>
+      <c r="M85" s="484"/>
+      <c r="N85" s="495"/>
+      <c r="O85" s="483"/>
+      <c r="P85" s="484"/>
+      <c r="Q85" s="449" t="s">
         <v>188</v>
       </c>
-      <c r="R85" s="374"/>
-      <c r="S85" s="374"/>
-      <c r="T85" s="374"/>
-      <c r="U85" s="377" t="s">
+      <c r="R85" s="496"/>
+      <c r="S85" s="496"/>
+      <c r="T85" s="496"/>
+      <c r="U85" s="449" t="s">
         <v>188</v>
       </c>
-      <c r="V85" s="374"/>
-      <c r="X85" s="368"/>
-      <c r="Y85" s="368"/>
+      <c r="V85" s="496"/>
+      <c r="X85" s="430"/>
+      <c r="Y85" s="430"/>
     </row>
     <row r="86" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="475"/>
-      <c r="C86" s="476"/>
+      <c r="B86" s="426"/>
+      <c r="C86" s="427"/>
       <c r="D86" s="123"/>
       <c r="E86" s="124"/>
-      <c r="F86" s="368"/>
-      <c r="G86" s="368"/>
-      <c r="H86" s="368"/>
-      <c r="I86" s="485"/>
-      <c r="J86" s="378"/>
-      <c r="K86" s="440"/>
-      <c r="L86" s="445"/>
-      <c r="M86" s="441"/>
-      <c r="N86" s="450"/>
-      <c r="O86" s="440"/>
-      <c r="P86" s="441"/>
-      <c r="Q86" s="378"/>
-      <c r="R86" s="375"/>
-      <c r="S86" s="375"/>
-      <c r="T86" s="375"/>
-      <c r="U86" s="378"/>
-      <c r="V86" s="375"/>
-      <c r="X86" s="368"/>
-      <c r="Y86" s="368"/>
+      <c r="F86" s="430"/>
+      <c r="G86" s="430"/>
+      <c r="H86" s="430"/>
+      <c r="I86" s="432"/>
+      <c r="J86" s="450"/>
+      <c r="K86" s="485"/>
+      <c r="L86" s="490"/>
+      <c r="M86" s="486"/>
+      <c r="N86" s="495"/>
+      <c r="O86" s="485"/>
+      <c r="P86" s="486"/>
+      <c r="Q86" s="450"/>
+      <c r="R86" s="497"/>
+      <c r="S86" s="497"/>
+      <c r="T86" s="497"/>
+      <c r="U86" s="450"/>
+      <c r="V86" s="497"/>
+      <c r="X86" s="430"/>
+      <c r="Y86" s="430"/>
     </row>
     <row r="87" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="477"/>
-      <c r="C87" s="478"/>
+      <c r="B87" s="428"/>
+      <c r="C87" s="429"/>
       <c r="D87" s="123"/>
       <c r="E87" s="124"/>
-      <c r="F87" s="369"/>
-      <c r="G87" s="369"/>
-      <c r="H87" s="369"/>
-      <c r="I87" s="486"/>
-      <c r="J87" s="379"/>
-      <c r="K87" s="442"/>
-      <c r="L87" s="446"/>
-      <c r="M87" s="443"/>
-      <c r="N87" s="450"/>
-      <c r="O87" s="442"/>
-      <c r="P87" s="443"/>
-      <c r="Q87" s="379"/>
-      <c r="R87" s="376"/>
-      <c r="S87" s="376"/>
-      <c r="T87" s="376"/>
-      <c r="U87" s="379"/>
-      <c r="V87" s="376"/>
-      <c r="X87" s="369"/>
-      <c r="Y87" s="369"/>
+      <c r="F87" s="410"/>
+      <c r="G87" s="410"/>
+      <c r="H87" s="410"/>
+      <c r="I87" s="433"/>
+      <c r="J87" s="451"/>
+      <c r="K87" s="487"/>
+      <c r="L87" s="491"/>
+      <c r="M87" s="488"/>
+      <c r="N87" s="495"/>
+      <c r="O87" s="487"/>
+      <c r="P87" s="488"/>
+      <c r="Q87" s="451"/>
+      <c r="R87" s="498"/>
+      <c r="S87" s="498"/>
+      <c r="T87" s="498"/>
+      <c r="U87" s="451"/>
+      <c r="V87" s="498"/>
+      <c r="X87" s="410"/>
+      <c r="Y87" s="410"/>
     </row>
     <row r="88" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="384" t="str">
+      <c r="B88" s="411" t="str">
         <f t="shared" ref="B88:B96" si="6">B42</f>
         <v>14-20</v>
       </c>
-      <c r="C88" s="385"/>
+      <c r="C88" s="412"/>
       <c r="D88" s="128">
         <f>LEFT(B88,2)+0</f>
         <v>14</v>
@@ -41863,28 +42459,28 @@
         <f t="shared" ref="J88:J96" si="10">(F88/100)/((I88/1000)^2)</f>
         <v>6746.44335939147</v>
       </c>
-      <c r="K88" s="487" t="str">
+      <c r="K88" s="434" t="e">
         <f>ROUND((J77*J33*((1-J76)^2)/(J76^3)*(J74*(J73/3600))/9.806*((6/J78)^2)*J97),4)&amp;" m"</f>
-        <v>1.1339 m</v>
-      </c>
-      <c r="L88" s="488"/>
-      <c r="M88" s="489"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L88" s="435"/>
+      <c r="M88" s="436"/>
       <c r="N88" s="103">
         <f t="shared" ref="N88:N96" si="11">$J$79*(I88/1000)*($J$73/3600)/$J$33</f>
         <v>0.99256086514638053</v>
       </c>
-      <c r="O88" s="416">
+      <c r="O88" s="479">
         <f>150*(1-$J$76)/N88+1.75</f>
         <v>84.868328454178069</v>
       </c>
-      <c r="P88" s="417"/>
+      <c r="P88" s="480"/>
       <c r="Q88" s="116">
         <f t="shared" ref="Q88:Q96" si="12">O88*(F88/100)/(I88/1000)</f>
         <v>623.48797422856558</v>
       </c>
-      <c r="R88" s="365" t="str">
+      <c r="R88" s="508" t="e">
         <f>ROUND((1/J79*(1-J76)/(J76^3)*J74*((J73/3600)^2)/9.806*Q97),4)&amp; " m"</f>
-        <v>0.951 m</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S88" s="117">
         <f t="shared" ref="S88:S96" si="13">(I88/1000)*($J$73/3600)/$J$33</f>
@@ -41898,9 +42494,9 @@
         <f t="shared" ref="U88:U96" si="14">T88*(F88/100)/(I88/1000)</f>
         <v>173.88585816662274</v>
       </c>
-      <c r="V88" s="365" t="str">
+      <c r="V88" s="508" t="e">
         <f>ROUND((0.178*((J73/3600)^2)*J74*1/(9.806*(J76^4))*J80*U97),4)&amp;" m"</f>
-        <v>0.9548 m</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X88" s="46">
         <v>140</v>
@@ -41913,11 +42509,11 @@
       <c r="AM88" s="155"/>
     </row>
     <row r="89" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="384" t="str">
+      <c r="B89" s="411" t="str">
         <f t="shared" si="6"/>
         <v>20-25</v>
       </c>
-      <c r="C89" s="385"/>
+      <c r="C89" s="412"/>
       <c r="D89" s="128">
         <f t="shared" ref="D89:D96" si="15">LEFT(B89,2)+0</f>
         <v>20</v>
@@ -41946,23 +42542,23 @@
         <f t="shared" si="10"/>
         <v>71478.185698644607</v>
       </c>
-      <c r="K89" s="490"/>
-      <c r="L89" s="491"/>
-      <c r="M89" s="492"/>
+      <c r="K89" s="437"/>
+      <c r="L89" s="438"/>
+      <c r="M89" s="439"/>
       <c r="N89" s="103">
         <f t="shared" si="11"/>
         <v>0.70284134041417956</v>
       </c>
-      <c r="O89" s="416">
+      <c r="O89" s="479">
         <f t="shared" ref="O89:O96" si="18">150*(1-$J$76)/N89+1.75</f>
         <v>119.13068786816569</v>
       </c>
-      <c r="P89" s="417"/>
+      <c r="P89" s="480"/>
       <c r="Q89" s="116">
         <f t="shared" si="12"/>
         <v>6566.0604193475147</v>
       </c>
-      <c r="R89" s="365"/>
+      <c r="R89" s="508"/>
       <c r="S89" s="117">
         <f t="shared" si="13"/>
         <v>0.82687216519315243</v>
@@ -41975,7 +42571,7 @@
         <f t="shared" si="14"/>
         <v>1800.334303150498</v>
       </c>
-      <c r="V89" s="365"/>
+      <c r="V89" s="508"/>
       <c r="X89" s="46">
         <v>100</v>
       </c>
@@ -41987,11 +42583,11 @@
       <c r="AM89" s="155"/>
     </row>
     <row r="90" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="384" t="str">
+      <c r="B90" s="411" t="str">
         <f t="shared" si="6"/>
         <v>25-30</v>
       </c>
-      <c r="C90" s="385"/>
+      <c r="C90" s="412"/>
       <c r="D90" s="128">
         <f t="shared" si="15"/>
         <v>25</v>
@@ -42020,23 +42616,23 @@
         <f t="shared" si="10"/>
         <v>357053.7125741386</v>
       </c>
-      <c r="K90" s="490"/>
-      <c r="L90" s="491"/>
-      <c r="M90" s="492"/>
+      <c r="K90" s="437"/>
+      <c r="L90" s="438"/>
+      <c r="M90" s="439"/>
       <c r="N90" s="103">
         <f t="shared" si="11"/>
         <v>0.59117734575652048</v>
       </c>
-      <c r="O90" s="416">
+      <c r="O90" s="479">
         <f t="shared" si="18"/>
         <v>141.3020322153516</v>
       </c>
-      <c r="P90" s="417"/>
+      <c r="P90" s="480"/>
       <c r="Q90" s="116">
         <f t="shared" si="12"/>
         <v>32722.776859257607</v>
       </c>
-      <c r="R90" s="365"/>
+      <c r="R90" s="508"/>
       <c r="S90" s="117">
         <f t="shared" si="13"/>
         <v>0.69550275971355346</v>
@@ -42049,7 +42645,7 @@
         <f t="shared" si="14"/>
         <v>8903.0312574751879</v>
       </c>
-      <c r="V90" s="365"/>
+      <c r="V90" s="508"/>
       <c r="X90" s="46">
         <v>80</v>
       </c>
@@ -42061,11 +42657,11 @@
       <c r="AM90" s="155"/>
     </row>
     <row r="91" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="384" t="str">
+      <c r="B91" s="411" t="str">
         <f t="shared" si="6"/>
         <v>30-35</v>
       </c>
-      <c r="C91" s="385"/>
+      <c r="C91" s="412"/>
       <c r="D91" s="128">
         <f t="shared" si="15"/>
         <v>30</v>
@@ -42094,23 +42690,23 @@
         <f t="shared" si="10"/>
         <v>559663.86554621835</v>
       </c>
-      <c r="K91" s="490"/>
-      <c r="L91" s="491"/>
-      <c r="M91" s="492"/>
+      <c r="K91" s="437"/>
+      <c r="L91" s="438"/>
+      <c r="M91" s="439"/>
       <c r="N91" s="103">
         <f t="shared" si="11"/>
         <v>0.4971564503894913</v>
       </c>
-      <c r="O91" s="416">
+      <c r="O91" s="479">
         <f t="shared" si="18"/>
         <v>167.69373850599013</v>
       </c>
-      <c r="P91" s="417"/>
+      <c r="P91" s="480"/>
       <c r="Q91" s="116">
         <f t="shared" si="12"/>
         <v>51190.291150477846</v>
       </c>
-      <c r="R91" s="365"/>
+      <c r="R91" s="508"/>
       <c r="S91" s="117">
         <f t="shared" si="13"/>
         <v>0.58488994163469576</v>
@@ -42123,7 +42719,7 @@
         <f t="shared" si="14"/>
         <v>13827.100144683696</v>
       </c>
-      <c r="V91" s="365"/>
+      <c r="V91" s="508"/>
       <c r="X91" s="46">
         <v>70</v>
       </c>
@@ -42135,11 +42731,11 @@
       <c r="AF91" s="141"/>
     </row>
     <row r="92" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="384" t="str">
+      <c r="B92" s="411" t="str">
         <f t="shared" si="6"/>
         <v>35-40</v>
       </c>
-      <c r="C92" s="385"/>
+      <c r="C92" s="412"/>
       <c r="D92" s="128">
         <f t="shared" si="15"/>
         <v>35</v>
@@ -42168,23 +42764,23 @@
         <f t="shared" si="10"/>
         <v>900500</v>
       </c>
-      <c r="K92" s="490"/>
-      <c r="L92" s="491"/>
-      <c r="M92" s="492"/>
+      <c r="K92" s="437"/>
+      <c r="L92" s="438"/>
+      <c r="M92" s="439"/>
       <c r="N92" s="103">
         <f t="shared" si="11"/>
         <v>0.40762854747332483</v>
       </c>
-      <c r="O92" s="416">
+      <c r="O92" s="479">
         <f t="shared" si="18"/>
         <v>204.14014296563414</v>
       </c>
-      <c r="P92" s="417"/>
+      <c r="P92" s="480"/>
       <c r="Q92" s="116">
         <f t="shared" si="12"/>
         <v>82210.469713043785</v>
       </c>
-      <c r="R92" s="365"/>
+      <c r="R92" s="508"/>
       <c r="S92" s="117">
         <f t="shared" si="13"/>
         <v>0.47956299702744098</v>
@@ -42197,7 +42793,7 @@
         <f t="shared" si="14"/>
         <v>22035.669411183146</v>
       </c>
-      <c r="V92" s="365"/>
+      <c r="V92" s="508"/>
       <c r="X92" s="46">
         <v>60</v>
       </c>
@@ -42210,11 +42806,11 @@
       <c r="AF92" s="141"/>
     </row>
     <row r="93" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="384" t="str">
+      <c r="B93" s="411" t="str">
         <f t="shared" si="6"/>
         <v>40-50</v>
       </c>
-      <c r="C93" s="385"/>
+      <c r="C93" s="412"/>
       <c r="D93" s="128">
         <f t="shared" si="15"/>
         <v>40</v>
@@ -42243,23 +42839,23 @@
         <f t="shared" si="10"/>
         <v>1536195.2861952859</v>
       </c>
-      <c r="K93" s="490"/>
-      <c r="L93" s="491"/>
-      <c r="M93" s="492"/>
+      <c r="K93" s="437"/>
+      <c r="L93" s="438"/>
+      <c r="M93" s="439"/>
       <c r="N93" s="103">
         <f t="shared" si="11"/>
         <v>0.31416500987989782</v>
       </c>
-      <c r="O93" s="416">
+      <c r="O93" s="479">
         <f t="shared" si="18"/>
         <v>264.35085434574313</v>
       </c>
-      <c r="P93" s="417"/>
+      <c r="P93" s="480"/>
       <c r="Q93" s="116">
         <f t="shared" si="12"/>
         <v>139970.13026794555</v>
       </c>
-      <c r="R93" s="365"/>
+      <c r="R93" s="508"/>
       <c r="S93" s="117">
         <f t="shared" si="13"/>
         <v>0.36960589397635041</v>
@@ -42272,7 +42868,7 @@
         <f t="shared" si="14"/>
         <v>37174.499791542286</v>
       </c>
-      <c r="V93" s="365"/>
+      <c r="V93" s="508"/>
       <c r="W93" s="121"/>
       <c r="X93" s="46">
         <v>50</v>
@@ -42286,11 +42882,11 @@
       <c r="AF93" s="141"/>
     </row>
     <row r="94" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="384" t="str">
+      <c r="B94" s="411" t="str">
         <f t="shared" si="6"/>
         <v>50-60</v>
       </c>
-      <c r="C94" s="385"/>
+      <c r="C94" s="412"/>
       <c r="D94" s="128">
         <f t="shared" si="15"/>
         <v>50</v>
@@ -42319,23 +42915,23 @@
         <f t="shared" si="10"/>
         <v>2107744.1077441075</v>
       </c>
-      <c r="K94" s="490"/>
-      <c r="L94" s="491"/>
-      <c r="M94" s="492"/>
+      <c r="K94" s="437"/>
+      <c r="L94" s="438"/>
+      <c r="M94" s="439"/>
       <c r="N94" s="103">
         <f t="shared" si="11"/>
         <v>0.24836924808744476</v>
       </c>
-      <c r="O94" s="416">
+      <c r="O94" s="479">
         <f t="shared" si="18"/>
         <v>333.91672609546958</v>
       </c>
-      <c r="P94" s="417"/>
+      <c r="P94" s="480"/>
       <c r="Q94" s="116">
         <f t="shared" si="12"/>
         <v>191780.42934705055</v>
       </c>
-      <c r="R94" s="365"/>
+      <c r="R94" s="508"/>
       <c r="S94" s="117">
         <f t="shared" si="13"/>
         <v>0.29219911539699384</v>
@@ -42348,7 +42944,7 @@
         <f t="shared" si="14"/>
         <v>50556.296490488276</v>
       </c>
-      <c r="V94" s="365"/>
+      <c r="V94" s="508"/>
       <c r="W94" s="121"/>
       <c r="X94" s="46">
         <v>45</v>
@@ -42361,11 +42957,11 @@
       <c r="AF94" s="141"/>
     </row>
     <row r="95" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="384" t="str">
+      <c r="B95" s="411" t="str">
         <f t="shared" si="6"/>
         <v>60-70</v>
       </c>
-      <c r="C95" s="385"/>
+      <c r="C95" s="412"/>
       <c r="D95" s="128">
         <f t="shared" si="15"/>
         <v>60</v>
@@ -42394,23 +42990,23 @@
         <f t="shared" si="10"/>
         <v>1771428.5714285716</v>
       </c>
-      <c r="K95" s="490"/>
-      <c r="L95" s="491"/>
-      <c r="M95" s="492"/>
+      <c r="K95" s="437"/>
+      <c r="L95" s="438"/>
+      <c r="M95" s="439"/>
       <c r="N95" s="103">
         <f t="shared" si="11"/>
         <v>0.20884748283793922</v>
       </c>
-      <c r="O95" s="416">
+      <c r="O95" s="479">
         <f t="shared" si="18"/>
         <v>396.77511056845287</v>
       </c>
-      <c r="P95" s="417"/>
+      <c r="P95" s="480"/>
       <c r="Q95" s="116">
         <f t="shared" si="12"/>
         <v>161045.17519910476</v>
       </c>
-      <c r="R95" s="365"/>
+      <c r="R95" s="508"/>
       <c r="S95" s="117">
         <f t="shared" si="13"/>
         <v>0.24570292098581084</v>
@@ -42423,7 +43019,7 @@
         <f t="shared" si="14"/>
         <v>42240.957889352372</v>
       </c>
-      <c r="V95" s="365"/>
+      <c r="V95" s="508"/>
       <c r="W95" s="121"/>
       <c r="X95" s="46">
         <v>40</v>
@@ -42436,11 +43032,11 @@
       <c r="AF95" s="141"/>
     </row>
     <row r="96" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="384" t="str">
+      <c r="B96" s="411" t="str">
         <f t="shared" si="6"/>
         <v>70-100</v>
       </c>
-      <c r="C96" s="385"/>
+      <c r="C96" s="412"/>
       <c r="D96" s="128">
         <f t="shared" si="15"/>
         <v>70</v>
@@ -42449,9 +43045,9 @@
         <f t="shared" si="16"/>
         <v>100</v>
       </c>
-      <c r="F96" s="54">
+      <c r="F96" s="54" t="str">
         <f t="shared" si="7"/>
-        <v>2.0699999999999998</v>
+        <v>gi</v>
       </c>
       <c r="G96" s="114">
         <f t="shared" si="8"/>
@@ -42465,27 +43061,27 @@
         <f t="shared" si="9"/>
         <v>0.17688979620091147</v>
       </c>
-      <c r="J96" s="115">
+      <c r="J96" s="115" t="e">
         <f t="shared" si="10"/>
-        <v>661553.21188878256</v>
-      </c>
-      <c r="K96" s="493"/>
-      <c r="L96" s="494"/>
-      <c r="M96" s="495"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K96" s="440"/>
+      <c r="L96" s="441"/>
+      <c r="M96" s="442"/>
       <c r="N96" s="103">
         <f t="shared" si="11"/>
         <v>0.16123242095898396</v>
       </c>
-      <c r="O96" s="416">
+      <c r="O96" s="479">
         <f t="shared" si="18"/>
         <v>513.43368935542583</v>
       </c>
-      <c r="P96" s="417"/>
-      <c r="Q96" s="116">
+      <c r="P96" s="480"/>
+      <c r="Q96" s="116" t="e">
         <f t="shared" si="12"/>
-        <v>60083.043781598011</v>
-      </c>
-      <c r="R96" s="365"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R96" s="508"/>
       <c r="S96" s="117">
         <f t="shared" si="13"/>
         <v>0.18968520112821644</v>
@@ -42494,11 +43090,11 @@
         <f t="shared" si="19"/>
         <v>133.75360204299702</v>
       </c>
-      <c r="U96" s="116">
+      <c r="U96" s="116" t="e">
         <f t="shared" si="14"/>
-        <v>15652.115733941762</v>
-      </c>
-      <c r="V96" s="365"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V96" s="508"/>
       <c r="W96" s="121"/>
       <c r="X96" s="46">
         <v>35</v>
@@ -42517,14 +43113,14 @@
       <c r="E97" s="83"/>
       <c r="F97" s="127">
         <f>SUM(F88:F96)</f>
-        <v>100</v>
+        <v>97.93</v>
       </c>
       <c r="G97" s="127"/>
       <c r="H97" s="5"/>
       <c r="I97" s="121"/>
-      <c r="J97" s="499">
+      <c r="J97" s="406" t="e">
         <f>SUM(J88:J96)</f>
-        <v>7972363.3844351405</v>
+        <v>#VALUE!</v>
       </c>
       <c r="K97" s="121"/>
       <c r="L97" s="121"/>
@@ -42532,16 +43128,16 @@
       <c r="N97" s="121"/>
       <c r="O97" s="121"/>
       <c r="P97" s="121"/>
-      <c r="Q97" s="366">
+      <c r="Q97" s="407" t="e">
         <f>SUM(Q88:Q96)</f>
-        <v>726191.86471205414</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R97" s="121"/>
       <c r="S97" s="121"/>
       <c r="T97" s="121"/>
-      <c r="U97" s="370">
+      <c r="U97" s="509" t="e">
         <f>SUM(U88:U96)</f>
-        <v>192363.89087998384</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V97" s="121"/>
       <c r="W97" s="121"/>
@@ -42562,18 +43158,18 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="121"/>
-      <c r="J98" s="366"/>
+      <c r="J98" s="407"/>
       <c r="K98" s="121"/>
       <c r="L98" s="121"/>
       <c r="M98" s="121"/>
       <c r="N98" s="121"/>
       <c r="O98" s="121"/>
       <c r="P98" s="121"/>
-      <c r="Q98" s="366"/>
+      <c r="Q98" s="407"/>
       <c r="R98" s="121"/>
       <c r="S98" s="121"/>
       <c r="T98" s="121"/>
-      <c r="U98" s="371"/>
+      <c r="U98" s="510"/>
       <c r="V98" s="121"/>
       <c r="W98" s="121"/>
       <c r="X98" s="46">
@@ -42593,7 +43189,7 @@
       <c r="G99" s="122"/>
       <c r="H99" s="122"/>
       <c r="I99" s="121"/>
-      <c r="J99" s="366"/>
+      <c r="J99" s="407"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6">
@@ -42602,13 +43198,13 @@
       <c r="N99" s="121"/>
       <c r="O99" s="121"/>
       <c r="P99" s="121"/>
-      <c r="Q99" s="366"/>
+      <c r="Q99" s="407"/>
       <c r="R99" s="6">
         <v>0.47220000000000001</v>
       </c>
       <c r="S99" s="121"/>
       <c r="T99" s="121"/>
-      <c r="U99" s="372"/>
+      <c r="U99" s="511"/>
       <c r="V99" s="6" t="s">
         <v>239</v>
       </c>
@@ -42686,19 +43282,19 @@
       <c r="Z101" s="120"/>
     </row>
     <row r="102" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="460" t="s">
+      <c r="B102" s="468" t="s">
         <v>224</v>
       </c>
-      <c r="C102" s="461"/>
+      <c r="C102" s="469"/>
       <c r="D102" s="145"/>
       <c r="E102" s="186"/>
-      <c r="F102" s="390" t="s">
+      <c r="F102" s="474" t="s">
         <v>222</v>
       </c>
-      <c r="G102" s="390" t="s">
+      <c r="G102" s="474" t="s">
         <v>223</v>
       </c>
-      <c r="H102" s="390" t="s">
+      <c r="H102" s="474" t="s">
         <v>216</v>
       </c>
       <c r="I102" s="121"/>
@@ -42725,13 +43321,13 @@
       <c r="Z102" s="120"/>
     </row>
     <row r="103" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="462"/>
-      <c r="C103" s="463"/>
+      <c r="B103" s="470"/>
+      <c r="C103" s="471"/>
       <c r="D103" s="145"/>
       <c r="E103" s="186"/>
-      <c r="F103" s="391"/>
-      <c r="G103" s="391"/>
-      <c r="H103" s="391"/>
+      <c r="F103" s="475"/>
+      <c r="G103" s="475"/>
+      <c r="H103" s="475"/>
       <c r="I103" s="121"/>
       <c r="J103" s="144"/>
       <c r="K103" s="6"/>
@@ -42756,13 +43352,13 @@
       <c r="Z103" s="120"/>
     </row>
     <row r="104" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="462"/>
-      <c r="C104" s="463"/>
+      <c r="B104" s="470"/>
+      <c r="C104" s="471"/>
       <c r="D104" s="145"/>
       <c r="E104" s="186"/>
-      <c r="F104" s="391"/>
-      <c r="G104" s="391"/>
-      <c r="H104" s="391"/>
+      <c r="F104" s="475"/>
+      <c r="G104" s="475"/>
+      <c r="H104" s="475"/>
       <c r="I104" s="150"/>
       <c r="J104" s="150"/>
       <c r="K104" s="150"/>
@@ -42787,13 +43383,13 @@
       <c r="Z104" s="120"/>
     </row>
     <row r="105" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="464"/>
-      <c r="C105" s="465"/>
+      <c r="B105" s="472"/>
+      <c r="C105" s="473"/>
       <c r="D105" s="145"/>
       <c r="E105" s="186"/>
-      <c r="F105" s="466"/>
-      <c r="G105" s="466"/>
-      <c r="H105" s="466"/>
+      <c r="F105" s="476"/>
+      <c r="G105" s="476"/>
+      <c r="H105" s="476"/>
       <c r="I105" s="150"/>
       <c r="J105" s="150"/>
       <c r="K105" s="150"/>
@@ -42818,10 +43414,10 @@
       <c r="Z105" s="120"/>
     </row>
     <row r="106" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="467">
+      <c r="B106" s="477">
         <v>1</v>
       </c>
-      <c r="C106" s="468"/>
+      <c r="C106" s="478"/>
       <c r="D106" s="146"/>
       <c r="E106" s="132"/>
       <c r="F106" s="148">
@@ -42853,10 +43449,10 @@
       <c r="Z106" s="120"/>
     </row>
     <row r="107" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="467">
+      <c r="B107" s="477">
         <v>2</v>
       </c>
-      <c r="C107" s="468"/>
+      <c r="C107" s="478"/>
       <c r="D107" s="146"/>
       <c r="E107" s="132"/>
       <c r="F107" s="148" t="s">
@@ -42888,10 +43484,10 @@
       <c r="Z107" s="120"/>
     </row>
     <row r="108" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="467">
+      <c r="B108" s="477">
         <v>3</v>
       </c>
-      <c r="C108" s="468"/>
+      <c r="C108" s="478"/>
       <c r="D108" s="146"/>
       <c r="E108" s="132"/>
       <c r="F108" s="148" t="s">
@@ -42923,10 +43519,10 @@
       <c r="Z108" s="120"/>
     </row>
     <row r="109" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="467">
+      <c r="B109" s="477">
         <v>4</v>
       </c>
-      <c r="C109" s="468"/>
+      <c r="C109" s="478"/>
       <c r="D109" s="146"/>
       <c r="E109" s="132"/>
       <c r="F109" s="148" t="s">
@@ -42958,10 +43554,10 @@
       <c r="Z109" s="120"/>
     </row>
     <row r="110" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="467">
+      <c r="B110" s="477">
         <v>5</v>
       </c>
-      <c r="C110" s="468"/>
+      <c r="C110" s="478"/>
       <c r="D110" s="182"/>
       <c r="E110" s="187"/>
       <c r="F110" s="133" t="s">
@@ -43049,15 +43645,15 @@
       <c r="Z112" s="120"/>
     </row>
     <row r="113" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="341" t="s">
+      <c r="B113" s="337" t="s">
         <v>180</v>
       </c>
-      <c r="C113" s="341"/>
-      <c r="D113" s="341"/>
-      <c r="E113" s="341"/>
-      <c r="F113" s="341"/>
-      <c r="G113" s="341"/>
-      <c r="H113" s="341"/>
+      <c r="C113" s="337"/>
+      <c r="D113" s="337"/>
+      <c r="E113" s="337"/>
+      <c r="F113" s="337"/>
+      <c r="G113" s="337"/>
+      <c r="H113" s="337"/>
       <c r="I113" s="206" t="s">
         <v>212</v>
       </c>
@@ -43068,10 +43664,10 @@
       <c r="K113" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="L113" s="432"/>
-      <c r="M113" s="433"/>
-      <c r="N113" s="433"/>
-      <c r="O113" s="434"/>
+      <c r="L113" s="395"/>
+      <c r="M113" s="396"/>
+      <c r="N113" s="396"/>
+      <c r="O113" s="397"/>
       <c r="P113" s="121"/>
       <c r="Q113" s="188"/>
       <c r="R113" s="6"/>
@@ -43085,15 +43681,15 @@
       <c r="Z113" s="120"/>
     </row>
     <row r="114" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="323" t="s">
+      <c r="B114" s="331" t="s">
         <v>295</v>
       </c>
-      <c r="C114" s="380"/>
-      <c r="D114" s="380"/>
-      <c r="E114" s="380"/>
-      <c r="F114" s="380"/>
-      <c r="G114" s="380"/>
-      <c r="H114" s="324"/>
+      <c r="C114" s="417"/>
+      <c r="D114" s="417"/>
+      <c r="E114" s="417"/>
+      <c r="F114" s="417"/>
+      <c r="G114" s="417"/>
+      <c r="H114" s="332"/>
       <c r="I114" s="206" t="s">
         <v>296</v>
       </c>
@@ -43104,10 +43700,10 @@
       <c r="K114" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L114" s="432"/>
-      <c r="M114" s="433"/>
-      <c r="N114" s="433"/>
-      <c r="O114" s="434"/>
+      <c r="L114" s="395"/>
+      <c r="M114" s="396"/>
+      <c r="N114" s="396"/>
+      <c r="O114" s="397"/>
       <c r="P114" s="121"/>
       <c r="Q114" s="188"/>
       <c r="R114" s="6"/>
@@ -43121,29 +43717,29 @@
       <c r="Z114" s="120"/>
     </row>
     <row r="115" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="418" t="s">
+      <c r="B115" s="458" t="s">
         <v>298</v>
       </c>
-      <c r="C115" s="419"/>
-      <c r="D115" s="419"/>
-      <c r="E115" s="419"/>
-      <c r="F115" s="419"/>
-      <c r="G115" s="419"/>
-      <c r="H115" s="420"/>
-      <c r="I115" s="402" t="s">
+      <c r="C115" s="459"/>
+      <c r="D115" s="459"/>
+      <c r="E115" s="459"/>
+      <c r="F115" s="459"/>
+      <c r="G115" s="459"/>
+      <c r="H115" s="460"/>
+      <c r="I115" s="378" t="s">
         <v>299</v>
       </c>
-      <c r="J115" s="424">
+      <c r="J115" s="501">
         <f>J113/(24*60)*J114/3</f>
         <v>1.5625E-2</v>
       </c>
-      <c r="K115" s="402" t="s">
+      <c r="K115" s="378" t="s">
         <v>3</v>
       </c>
-      <c r="L115" s="426"/>
-      <c r="M115" s="427"/>
-      <c r="N115" s="427"/>
-      <c r="O115" s="428"/>
+      <c r="L115" s="443"/>
+      <c r="M115" s="444"/>
+      <c r="N115" s="444"/>
+      <c r="O115" s="445"/>
       <c r="P115" s="121"/>
       <c r="Q115" s="188"/>
       <c r="R115" s="6"/>
@@ -43157,20 +43753,20 @@
       <c r="Z115" s="120"/>
     </row>
     <row r="116" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="421"/>
-      <c r="C116" s="422"/>
-      <c r="D116" s="422"/>
-      <c r="E116" s="422"/>
-      <c r="F116" s="422"/>
-      <c r="G116" s="422"/>
-      <c r="H116" s="423"/>
-      <c r="I116" s="403"/>
-      <c r="J116" s="425"/>
-      <c r="K116" s="403"/>
-      <c r="L116" s="429"/>
-      <c r="M116" s="430"/>
-      <c r="N116" s="430"/>
-      <c r="O116" s="431"/>
+      <c r="B116" s="461"/>
+      <c r="C116" s="462"/>
+      <c r="D116" s="462"/>
+      <c r="E116" s="462"/>
+      <c r="F116" s="462"/>
+      <c r="G116" s="462"/>
+      <c r="H116" s="463"/>
+      <c r="I116" s="379"/>
+      <c r="J116" s="502"/>
+      <c r="K116" s="379"/>
+      <c r="L116" s="446"/>
+      <c r="M116" s="447"/>
+      <c r="N116" s="447"/>
+      <c r="O116" s="448"/>
       <c r="P116" s="121"/>
       <c r="Q116" s="188"/>
       <c r="R116" s="6"/>
@@ -43240,34 +43836,34 @@
       <c r="Z118" s="120"/>
     </row>
     <row r="119" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="481" t="s">
-        <v>362</v>
-      </c>
-      <c r="C119" s="482"/>
-      <c r="D119" s="482"/>
-      <c r="E119" s="482"/>
-      <c r="F119" s="482"/>
-      <c r="G119" s="482"/>
-      <c r="H119" s="483"/>
+      <c r="B119" s="421" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="422"/>
+      <c r="D119" s="422"/>
+      <c r="E119" s="422"/>
+      <c r="F119" s="422"/>
+      <c r="G119" s="422"/>
+      <c r="H119" s="423"/>
       <c r="I119" s="250" t="s">
         <v>0</v>
       </c>
       <c r="J119" s="277">
         <f>IF(B119=AD8,J10,IF(B119=AD9,J11,IF(B119=AD10,J12,FALSE)))</f>
-        <v>4.4040000000000003E-2</v>
+        <v>5.7252000000000004E-2</v>
       </c>
       <c r="K119" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="L119" s="432"/>
-      <c r="M119" s="433"/>
-      <c r="N119" s="433"/>
-      <c r="O119" s="434"/>
+      <c r="L119" s="395"/>
+      <c r="M119" s="396"/>
+      <c r="N119" s="396"/>
+      <c r="O119" s="397"/>
       <c r="P119" s="310"/>
-      <c r="Q119" s="504" t="s">
+      <c r="Q119" s="365" t="s">
         <v>415</v>
       </c>
-      <c r="R119" s="504"/>
+      <c r="R119" s="365"/>
       <c r="S119" s="121"/>
       <c r="T119" s="121"/>
       <c r="U119" s="195"/>
@@ -43278,15 +43874,15 @@
       <c r="Z119" s="120"/>
     </row>
     <row r="120" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="381" t="s">
+      <c r="B120" s="402" t="s">
         <v>347</v>
       </c>
-      <c r="C120" s="382"/>
-      <c r="D120" s="382"/>
-      <c r="E120" s="382"/>
-      <c r="F120" s="382"/>
-      <c r="G120" s="382"/>
-      <c r="H120" s="383"/>
+      <c r="C120" s="403"/>
+      <c r="D120" s="403"/>
+      <c r="E120" s="403"/>
+      <c r="F120" s="403"/>
+      <c r="G120" s="403"/>
+      <c r="H120" s="404"/>
       <c r="I120" s="206" t="s">
         <v>212</v>
       </c>
@@ -43314,15 +43910,15 @@
       <c r="Z120" s="120"/>
     </row>
     <row r="121" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="381" t="s">
+      <c r="B121" s="402" t="s">
         <v>355</v>
       </c>
-      <c r="C121" s="382"/>
-      <c r="D121" s="382"/>
-      <c r="E121" s="382"/>
-      <c r="F121" s="382"/>
-      <c r="G121" s="382"/>
-      <c r="H121" s="383"/>
+      <c r="C121" s="403"/>
+      <c r="D121" s="403"/>
+      <c r="E121" s="403"/>
+      <c r="F121" s="403"/>
+      <c r="G121" s="403"/>
+      <c r="H121" s="404"/>
       <c r="I121" s="206" t="s">
         <v>356</v>
       </c>
@@ -43350,29 +43946,29 @@
       <c r="Z121" s="120"/>
     </row>
     <row r="122" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="454" t="s">
+      <c r="B122" s="452" t="s">
         <v>365</v>
       </c>
-      <c r="C122" s="455"/>
-      <c r="D122" s="455"/>
-      <c r="E122" s="455"/>
-      <c r="F122" s="455"/>
-      <c r="G122" s="455"/>
-      <c r="H122" s="456"/>
-      <c r="I122" s="412" t="s">
+      <c r="C122" s="453"/>
+      <c r="D122" s="453"/>
+      <c r="E122" s="453"/>
+      <c r="F122" s="453"/>
+      <c r="G122" s="453"/>
+      <c r="H122" s="454"/>
+      <c r="I122" s="398" t="s">
         <v>269</v>
       </c>
-      <c r="J122" s="414">
+      <c r="J122" s="400">
         <f>(J119*86400)/J120</f>
-        <v>31.7088</v>
-      </c>
-      <c r="K122" s="412" t="s">
+        <v>41.221440000000001</v>
+      </c>
+      <c r="K122" s="398" t="s">
         <v>363</v>
       </c>
-      <c r="L122" s="426"/>
-      <c r="M122" s="427"/>
-      <c r="N122" s="427"/>
-      <c r="O122" s="428"/>
+      <c r="L122" s="443"/>
+      <c r="M122" s="444"/>
+      <c r="N122" s="444"/>
+      <c r="O122" s="445"/>
       <c r="P122" s="121"/>
       <c r="Q122" s="196"/>
       <c r="R122" s="6"/>
@@ -43386,20 +43982,20 @@
       <c r="Z122" s="120"/>
     </row>
     <row r="123" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="457"/>
-      <c r="C123" s="458"/>
-      <c r="D123" s="458"/>
-      <c r="E123" s="458"/>
-      <c r="F123" s="458"/>
-      <c r="G123" s="458"/>
-      <c r="H123" s="459"/>
-      <c r="I123" s="413"/>
-      <c r="J123" s="415"/>
-      <c r="K123" s="413"/>
-      <c r="L123" s="429"/>
-      <c r="M123" s="430"/>
-      <c r="N123" s="430"/>
-      <c r="O123" s="431"/>
+      <c r="B123" s="455"/>
+      <c r="C123" s="456"/>
+      <c r="D123" s="456"/>
+      <c r="E123" s="456"/>
+      <c r="F123" s="456"/>
+      <c r="G123" s="456"/>
+      <c r="H123" s="457"/>
+      <c r="I123" s="399"/>
+      <c r="J123" s="401"/>
+      <c r="K123" s="399"/>
+      <c r="L123" s="446"/>
+      <c r="M123" s="447"/>
+      <c r="N123" s="447"/>
+      <c r="O123" s="448"/>
       <c r="P123" s="121"/>
       <c r="Q123" s="196"/>
       <c r="R123" s="6"/>
@@ -43413,29 +44009,29 @@
       <c r="Z123" s="120"/>
     </row>
     <row r="124" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="454" t="s">
+      <c r="B124" s="452" t="s">
         <v>366</v>
       </c>
-      <c r="C124" s="455"/>
-      <c r="D124" s="455"/>
-      <c r="E124" s="455"/>
-      <c r="F124" s="455"/>
-      <c r="G124" s="455"/>
-      <c r="H124" s="456"/>
-      <c r="I124" s="412" t="s">
+      <c r="C124" s="453"/>
+      <c r="D124" s="453"/>
+      <c r="E124" s="453"/>
+      <c r="F124" s="453"/>
+      <c r="G124" s="453"/>
+      <c r="H124" s="454"/>
+      <c r="I124" s="398" t="s">
         <v>369</v>
       </c>
-      <c r="J124" s="414">
+      <c r="J124" s="400">
         <f>(J119*86400)/J121</f>
-        <v>25.367039999999999</v>
-      </c>
-      <c r="K124" s="412" t="s">
+        <v>32.977151999999997</v>
+      </c>
+      <c r="K124" s="398" t="s">
         <v>363</v>
       </c>
-      <c r="L124" s="426"/>
-      <c r="M124" s="427"/>
-      <c r="N124" s="427"/>
-      <c r="O124" s="428"/>
+      <c r="L124" s="443"/>
+      <c r="M124" s="444"/>
+      <c r="N124" s="444"/>
+      <c r="O124" s="445"/>
       <c r="P124" s="121"/>
       <c r="Q124" s="196"/>
       <c r="R124" s="6"/>
@@ -43449,20 +44045,20 @@
       <c r="Z124" s="120"/>
     </row>
     <row r="125" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="457"/>
-      <c r="C125" s="458"/>
-      <c r="D125" s="458"/>
-      <c r="E125" s="458"/>
-      <c r="F125" s="458"/>
-      <c r="G125" s="458"/>
-      <c r="H125" s="459"/>
-      <c r="I125" s="413"/>
-      <c r="J125" s="415"/>
-      <c r="K125" s="413"/>
-      <c r="L125" s="429"/>
-      <c r="M125" s="430"/>
-      <c r="N125" s="430"/>
-      <c r="O125" s="431"/>
+      <c r="B125" s="455"/>
+      <c r="C125" s="456"/>
+      <c r="D125" s="456"/>
+      <c r="E125" s="456"/>
+      <c r="F125" s="456"/>
+      <c r="G125" s="456"/>
+      <c r="H125" s="457"/>
+      <c r="I125" s="399"/>
+      <c r="J125" s="401"/>
+      <c r="K125" s="399"/>
+      <c r="L125" s="446"/>
+      <c r="M125" s="447"/>
+      <c r="N125" s="447"/>
+      <c r="O125" s="448"/>
       <c r="P125" s="121"/>
       <c r="Q125" s="196"/>
       <c r="R125" s="6"/>
@@ -43476,29 +44072,29 @@
       <c r="Z125" s="120"/>
     </row>
     <row r="126" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="381" t="s">
+      <c r="B126" s="402" t="s">
         <v>367</v>
       </c>
-      <c r="C126" s="382"/>
-      <c r="D126" s="382"/>
-      <c r="E126" s="382"/>
-      <c r="F126" s="382"/>
-      <c r="G126" s="382"/>
-      <c r="H126" s="383"/>
+      <c r="C126" s="403"/>
+      <c r="D126" s="403"/>
+      <c r="E126" s="403"/>
+      <c r="F126" s="403"/>
+      <c r="G126" s="403"/>
+      <c r="H126" s="404"/>
       <c r="I126" s="281" t="s">
         <v>368</v>
       </c>
       <c r="J126" s="277">
         <f>ROUND((J122-J124),2)</f>
-        <v>6.34</v>
+        <v>8.24</v>
       </c>
       <c r="K126" s="281" t="s">
         <v>363</v>
       </c>
-      <c r="L126" s="432"/>
-      <c r="M126" s="433"/>
-      <c r="N126" s="433"/>
-      <c r="O126" s="434"/>
+      <c r="L126" s="395"/>
+      <c r="M126" s="396"/>
+      <c r="N126" s="396"/>
+      <c r="O126" s="397"/>
       <c r="P126" s="121"/>
       <c r="Q126" s="196"/>
       <c r="R126" s="6"/>
@@ -43512,27 +44108,27 @@
       <c r="Z126" s="120"/>
     </row>
     <row r="127" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="418" t="s">
+      <c r="B127" s="458" t="s">
         <v>345</v>
       </c>
-      <c r="C127" s="419"/>
-      <c r="D127" s="419"/>
-      <c r="E127" s="419"/>
-      <c r="F127" s="419"/>
-      <c r="G127" s="419"/>
-      <c r="H127" s="420"/>
-      <c r="I127" s="412" t="s">
+      <c r="C127" s="459"/>
+      <c r="D127" s="459"/>
+      <c r="E127" s="459"/>
+      <c r="F127" s="459"/>
+      <c r="G127" s="459"/>
+      <c r="H127" s="460"/>
+      <c r="I127" s="398" t="s">
         <v>381</v>
       </c>
-      <c r="J127" s="414">
+      <c r="J127" s="400">
         <f>ROUND(J122/J126,2)</f>
         <v>5</v>
       </c>
-      <c r="K127" s="412"/>
-      <c r="L127" s="426"/>
-      <c r="M127" s="427"/>
-      <c r="N127" s="427"/>
-      <c r="O127" s="428"/>
+      <c r="K127" s="398"/>
+      <c r="L127" s="443"/>
+      <c r="M127" s="444"/>
+      <c r="N127" s="444"/>
+      <c r="O127" s="445"/>
       <c r="P127" s="121"/>
       <c r="Q127" s="196"/>
       <c r="R127" s="6"/>
@@ -43546,20 +44142,20 @@
       <c r="Z127" s="120"/>
     </row>
     <row r="128" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="421"/>
-      <c r="C128" s="422"/>
-      <c r="D128" s="422"/>
-      <c r="E128" s="422"/>
-      <c r="F128" s="422"/>
-      <c r="G128" s="422"/>
-      <c r="H128" s="423"/>
-      <c r="I128" s="413"/>
-      <c r="J128" s="415"/>
-      <c r="K128" s="413"/>
-      <c r="L128" s="429"/>
-      <c r="M128" s="430"/>
-      <c r="N128" s="430"/>
-      <c r="O128" s="431"/>
+      <c r="B128" s="461"/>
+      <c r="C128" s="462"/>
+      <c r="D128" s="462"/>
+      <c r="E128" s="462"/>
+      <c r="F128" s="462"/>
+      <c r="G128" s="462"/>
+      <c r="H128" s="463"/>
+      <c r="I128" s="399"/>
+      <c r="J128" s="401"/>
+      <c r="K128" s="399"/>
+      <c r="L128" s="446"/>
+      <c r="M128" s="447"/>
+      <c r="N128" s="447"/>
+      <c r="O128" s="448"/>
       <c r="P128" s="121"/>
       <c r="Q128" s="196"/>
       <c r="R128" s="6"/>
@@ -43573,29 +44169,29 @@
       <c r="Z128" s="120"/>
     </row>
     <row r="129" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="435" t="s">
+      <c r="B129" s="503" t="s">
         <v>371</v>
       </c>
-      <c r="C129" s="435"/>
-      <c r="D129" s="435"/>
-      <c r="E129" s="435"/>
-      <c r="F129" s="435"/>
-      <c r="G129" s="435"/>
-      <c r="H129" s="435"/>
+      <c r="C129" s="503"/>
+      <c r="D129" s="503"/>
+      <c r="E129" s="503"/>
+      <c r="F129" s="503"/>
+      <c r="G129" s="503"/>
+      <c r="H129" s="503"/>
       <c r="I129" s="275" t="s">
         <v>370</v>
       </c>
       <c r="J129" s="277">
         <f>SQRT(J126)</f>
-        <v>2.5179356624028344</v>
+        <v>2.8705400188814649</v>
       </c>
       <c r="K129" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="L129" s="366"/>
-      <c r="M129" s="366"/>
-      <c r="N129" s="366"/>
-      <c r="O129" s="366"/>
+      <c r="L129" s="407"/>
+      <c r="M129" s="407"/>
+      <c r="N129" s="407"/>
+      <c r="O129" s="407"/>
       <c r="P129" s="121"/>
       <c r="Q129" s="196"/>
       <c r="R129" s="6"/>
@@ -43721,15 +44317,15 @@
       <c r="Z133" s="120"/>
     </row>
     <row r="134" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="469" t="s">
+      <c r="B134" s="392" t="s">
         <v>231</v>
       </c>
-      <c r="C134" s="470"/>
-      <c r="D134" s="470"/>
-      <c r="E134" s="470"/>
-      <c r="F134" s="470"/>
-      <c r="G134" s="470"/>
-      <c r="H134" s="471"/>
+      <c r="C134" s="393"/>
+      <c r="D134" s="393"/>
+      <c r="E134" s="393"/>
+      <c r="F134" s="393"/>
+      <c r="G134" s="393"/>
+      <c r="H134" s="394"/>
       <c r="I134" s="56" t="s">
         <v>11</v>
       </c>
@@ -43738,10 +44334,10 @@
         <v>0.45</v>
       </c>
       <c r="K134" s="203"/>
-      <c r="L134" s="432"/>
-      <c r="M134" s="433"/>
-      <c r="N134" s="433"/>
-      <c r="O134" s="434"/>
+      <c r="L134" s="395"/>
+      <c r="M134" s="396"/>
+      <c r="N134" s="396"/>
+      <c r="O134" s="397"/>
       <c r="P134" s="121"/>
       <c r="Q134" s="188"/>
       <c r="R134" s="6"/>
@@ -43755,16 +44351,16 @@
       <c r="Z134" s="120"/>
     </row>
     <row r="135" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="469" t="str">
+      <c r="B135" s="392" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad dinámica del agua a 3 °C</v>
       </c>
-      <c r="C135" s="470"/>
-      <c r="D135" s="470"/>
-      <c r="E135" s="470"/>
-      <c r="F135" s="470"/>
-      <c r="G135" s="470"/>
-      <c r="H135" s="471"/>
+      <c r="C135" s="393"/>
+      <c r="D135" s="393"/>
+      <c r="E135" s="393"/>
+      <c r="F135" s="393"/>
+      <c r="G135" s="393"/>
+      <c r="H135" s="394"/>
       <c r="I135" s="275" t="s">
         <v>213</v>
       </c>
@@ -43795,26 +44391,26 @@
       <c r="B136" s="342" t="s">
         <v>243</v>
       </c>
-      <c r="C136" s="389"/>
-      <c r="D136" s="389"/>
-      <c r="E136" s="389"/>
-      <c r="F136" s="389"/>
-      <c r="G136" s="389"/>
+      <c r="C136" s="500"/>
+      <c r="D136" s="500"/>
+      <c r="E136" s="500"/>
+      <c r="F136" s="500"/>
+      <c r="G136" s="500"/>
       <c r="H136" s="343"/>
       <c r="I136" s="153" t="s">
         <v>257</v>
       </c>
       <c r="J136" s="143">
         <f>K56*G70</f>
-        <v>0.48008777987655482</v>
+        <v>0.49255997105996119</v>
       </c>
       <c r="K136" s="153" t="s">
         <v>244</v>
       </c>
-      <c r="L136" s="392"/>
-      <c r="M136" s="392"/>
-      <c r="N136" s="392"/>
-      <c r="O136" s="392"/>
+      <c r="L136" s="499"/>
+      <c r="M136" s="499"/>
+      <c r="N136" s="499"/>
+      <c r="O136" s="499"/>
       <c r="P136" s="161"/>
       <c r="Q136" s="149"/>
       <c r="R136" s="6"/>
@@ -43831,26 +44427,26 @@
       <c r="B137" s="342" t="s">
         <v>280</v>
       </c>
-      <c r="C137" s="389"/>
-      <c r="D137" s="389"/>
-      <c r="E137" s="389"/>
-      <c r="F137" s="389"/>
-      <c r="G137" s="389"/>
+      <c r="C137" s="500"/>
+      <c r="D137" s="500"/>
+      <c r="E137" s="500"/>
+      <c r="F137" s="500"/>
+      <c r="G137" s="500"/>
       <c r="H137" s="343"/>
       <c r="I137" s="153" t="s">
         <v>279</v>
       </c>
       <c r="J137" s="143">
         <f>10*J136</f>
-        <v>4.8008777987655478</v>
+        <v>4.9255997105996121</v>
       </c>
       <c r="K137" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L137" s="392"/>
-      <c r="M137" s="392"/>
-      <c r="N137" s="392"/>
-      <c r="O137" s="392"/>
+      <c r="L137" s="499"/>
+      <c r="M137" s="499"/>
+      <c r="N137" s="499"/>
+      <c r="O137" s="499"/>
       <c r="P137" s="161"/>
       <c r="Q137" s="149"/>
       <c r="R137" s="6"/>
@@ -43868,26 +44464,26 @@
         <f>"Velocidad de arrastre del medio filtrante a "&amp;J30&amp;" °C"</f>
         <v>Velocidad de arrastre del medio filtrante a 3 °C</v>
       </c>
-      <c r="C138" s="389"/>
-      <c r="D138" s="389"/>
-      <c r="E138" s="389"/>
-      <c r="F138" s="389"/>
-      <c r="G138" s="389"/>
+      <c r="C138" s="500"/>
+      <c r="D138" s="500"/>
+      <c r="E138" s="500"/>
+      <c r="F138" s="500"/>
+      <c r="G138" s="500"/>
       <c r="H138" s="343"/>
       <c r="I138" s="153" t="s">
         <v>289</v>
       </c>
       <c r="J138" s="143">
         <f>IF(J30=20,J137,J137*((J135)^(-1/3)))</f>
-        <v>4.0885724887338961</v>
+        <v>4.1947894346428658</v>
       </c>
       <c r="K138" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L138" s="392"/>
-      <c r="M138" s="392"/>
-      <c r="N138" s="392"/>
-      <c r="O138" s="392"/>
+      <c r="L138" s="499"/>
+      <c r="M138" s="499"/>
+      <c r="N138" s="499"/>
+      <c r="O138" s="499"/>
       <c r="P138" s="161"/>
       <c r="Q138" s="149"/>
       <c r="R138" s="6"/>
@@ -43905,26 +44501,26 @@
         <f>"Velocidad de fluidización del medio filtrante a "&amp;J30&amp;" °C"</f>
         <v>Velocidad de fluidización del medio filtrante a 3 °C</v>
       </c>
-      <c r="C139" s="389"/>
-      <c r="D139" s="389"/>
-      <c r="E139" s="389"/>
-      <c r="F139" s="389"/>
-      <c r="G139" s="389"/>
+      <c r="C139" s="500"/>
+      <c r="D139" s="500"/>
+      <c r="E139" s="500"/>
+      <c r="F139" s="500"/>
+      <c r="G139" s="500"/>
       <c r="H139" s="343"/>
       <c r="I139" s="153" t="s">
         <v>288</v>
       </c>
       <c r="J139" s="143">
         <f>J138*(J134^4.5)</f>
-        <v>0.1124677518549367</v>
+        <v>0.11538954941342355</v>
       </c>
       <c r="K139" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L139" s="393"/>
-      <c r="M139" s="394"/>
-      <c r="N139" s="394"/>
-      <c r="O139" s="395"/>
+      <c r="L139" s="389"/>
+      <c r="M139" s="390"/>
+      <c r="N139" s="390"/>
+      <c r="O139" s="391"/>
       <c r="P139" s="161"/>
       <c r="Q139" s="188"/>
       <c r="R139" s="6"/>
@@ -43942,26 +44538,26 @@
         <f>"Velocidad óptima de lavado a "&amp;J30&amp;" °C"</f>
         <v>Velocidad óptima de lavado a 3 °C</v>
       </c>
-      <c r="C140" s="389"/>
-      <c r="D140" s="389"/>
-      <c r="E140" s="389"/>
-      <c r="F140" s="389"/>
-      <c r="G140" s="389"/>
+      <c r="C140" s="500"/>
+      <c r="D140" s="500"/>
+      <c r="E140" s="500"/>
+      <c r="F140" s="500"/>
+      <c r="G140" s="500"/>
       <c r="H140" s="343"/>
       <c r="I140" s="153" t="s">
         <v>281</v>
       </c>
       <c r="J140" s="143">
         <f>0.1*J138</f>
-        <v>0.40885724887338964</v>
+        <v>0.4194789434642866</v>
       </c>
       <c r="K140" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L140" s="392"/>
-      <c r="M140" s="392"/>
-      <c r="N140" s="392"/>
-      <c r="O140" s="392"/>
+      <c r="L140" s="499"/>
+      <c r="M140" s="499"/>
+      <c r="N140" s="499"/>
+      <c r="O140" s="499"/>
       <c r="P140" s="161"/>
       <c r="Q140" s="149"/>
       <c r="R140" s="6"/>
@@ -44031,15 +44627,15 @@
       <c r="Z142" s="120"/>
     </row>
     <row r="143" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="386" t="s">
+      <c r="B143" s="369" t="s">
         <v>374</v>
       </c>
-      <c r="C143" s="387"/>
-      <c r="D143" s="387"/>
-      <c r="E143" s="387"/>
-      <c r="F143" s="387"/>
-      <c r="G143" s="387"/>
-      <c r="H143" s="388"/>
+      <c r="C143" s="370"/>
+      <c r="D143" s="370"/>
+      <c r="E143" s="370"/>
+      <c r="F143" s="370"/>
+      <c r="G143" s="370"/>
+      <c r="H143" s="371"/>
       <c r="I143" s="298" t="s">
         <v>382</v>
       </c>
@@ -44049,10 +44645,10 @@
       <c r="K143" s="153" t="s">
         <v>375</v>
       </c>
-      <c r="L143" s="393"/>
-      <c r="M143" s="394"/>
-      <c r="N143" s="394"/>
-      <c r="O143" s="395"/>
+      <c r="L143" s="389"/>
+      <c r="M143" s="390"/>
+      <c r="N143" s="390"/>
+      <c r="O143" s="391"/>
       <c r="P143" s="319" t="s">
         <v>416</v>
       </c>
@@ -44068,15 +44664,15 @@
       <c r="Z143" s="120"/>
     </row>
     <row r="144" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="386" t="s">
+      <c r="B144" s="369" t="s">
         <v>376</v>
       </c>
-      <c r="C144" s="387"/>
-      <c r="D144" s="387"/>
-      <c r="E144" s="387"/>
-      <c r="F144" s="387"/>
-      <c r="G144" s="387"/>
-      <c r="H144" s="388"/>
+      <c r="C144" s="370"/>
+      <c r="D144" s="370"/>
+      <c r="E144" s="370"/>
+      <c r="F144" s="370"/>
+      <c r="G144" s="370"/>
+      <c r="H144" s="371"/>
       <c r="I144" s="299" t="s">
         <v>383</v>
       </c>
@@ -44087,10 +44683,10 @@
       <c r="K144" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L144" s="393"/>
-      <c r="M144" s="394"/>
-      <c r="N144" s="394"/>
-      <c r="O144" s="395"/>
+      <c r="L144" s="389"/>
+      <c r="M144" s="390"/>
+      <c r="N144" s="390"/>
+      <c r="O144" s="391"/>
       <c r="P144" s="161"/>
       <c r="Q144" s="188"/>
       <c r="R144" s="6"/>
@@ -44104,29 +44700,29 @@
       <c r="Z144" s="120"/>
     </row>
     <row r="145" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="386" t="s">
+      <c r="B145" s="369" t="s">
         <v>377</v>
       </c>
-      <c r="C145" s="387"/>
-      <c r="D145" s="387"/>
-      <c r="E145" s="387"/>
-      <c r="F145" s="387"/>
-      <c r="G145" s="387"/>
-      <c r="H145" s="388"/>
+      <c r="C145" s="370"/>
+      <c r="D145" s="370"/>
+      <c r="E145" s="370"/>
+      <c r="F145" s="370"/>
+      <c r="G145" s="370"/>
+      <c r="H145" s="371"/>
       <c r="I145" s="300" t="s">
         <v>384</v>
       </c>
       <c r="J145" s="279">
         <f>ROUND(J129/2-0.1,2)</f>
-        <v>1.1599999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="K145" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L145" s="393"/>
-      <c r="M145" s="394"/>
-      <c r="N145" s="394"/>
-      <c r="O145" s="395"/>
+      <c r="L145" s="389"/>
+      <c r="M145" s="390"/>
+      <c r="N145" s="390"/>
+      <c r="O145" s="391"/>
       <c r="P145" s="161"/>
       <c r="Q145" s="188"/>
       <c r="R145" s="6"/>
@@ -44140,15 +44736,15 @@
       <c r="Z145" s="120"/>
     </row>
     <row r="146" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="386" t="s">
+      <c r="B146" s="369" t="s">
         <v>378</v>
       </c>
-      <c r="C146" s="387"/>
-      <c r="D146" s="387"/>
-      <c r="E146" s="387"/>
-      <c r="F146" s="387"/>
-      <c r="G146" s="387"/>
-      <c r="H146" s="388"/>
+      <c r="C146" s="370"/>
+      <c r="D146" s="370"/>
+      <c r="E146" s="370"/>
+      <c r="F146" s="370"/>
+      <c r="G146" s="370"/>
+      <c r="H146" s="371"/>
       <c r="I146" s="299" t="s">
         <v>385</v>
       </c>
@@ -44158,10 +44754,10 @@
       <c r="K146" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L146" s="393"/>
-      <c r="M146" s="394"/>
-      <c r="N146" s="394"/>
-      <c r="O146" s="395"/>
+      <c r="L146" s="389"/>
+      <c r="M146" s="390"/>
+      <c r="N146" s="390"/>
+      <c r="O146" s="391"/>
       <c r="P146" s="319" t="s">
         <v>416</v>
       </c>
@@ -44177,15 +44773,15 @@
       <c r="Z146" s="120"/>
     </row>
     <row r="147" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="386" t="s">
+      <c r="B147" s="369" t="s">
         <v>379</v>
       </c>
-      <c r="C147" s="387"/>
-      <c r="D147" s="387"/>
-      <c r="E147" s="387"/>
-      <c r="F147" s="387"/>
-      <c r="G147" s="387"/>
-      <c r="H147" s="388"/>
+      <c r="C147" s="370"/>
+      <c r="D147" s="370"/>
+      <c r="E147" s="370"/>
+      <c r="F147" s="370"/>
+      <c r="G147" s="370"/>
+      <c r="H147" s="371"/>
       <c r="I147" s="298" t="s">
         <v>386</v>
       </c>
@@ -44196,14 +44792,14 @@
       <c r="K147" s="153" t="s">
         <v>375</v>
       </c>
-      <c r="L147" s="393"/>
-      <c r="M147" s="394"/>
-      <c r="N147" s="394"/>
-      <c r="O147" s="395"/>
-      <c r="P147" s="512" t="s">
+      <c r="L147" s="389"/>
+      <c r="M147" s="390"/>
+      <c r="N147" s="390"/>
+      <c r="O147" s="391"/>
+      <c r="P147" s="363" t="s">
         <v>417</v>
       </c>
-      <c r="Q147" s="511"/>
+      <c r="Q147" s="364"/>
       <c r="R147" s="6"/>
       <c r="S147" s="121"/>
       <c r="T147" s="121"/>
@@ -44215,27 +44811,27 @@
       <c r="Z147" s="120"/>
     </row>
     <row r="148" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="396" t="s">
+      <c r="B148" s="372" t="s">
         <v>389</v>
       </c>
-      <c r="C148" s="397"/>
-      <c r="D148" s="397"/>
-      <c r="E148" s="397"/>
-      <c r="F148" s="397"/>
-      <c r="G148" s="397"/>
-      <c r="H148" s="398"/>
-      <c r="I148" s="402" t="s">
+      <c r="C148" s="373"/>
+      <c r="D148" s="373"/>
+      <c r="E148" s="373"/>
+      <c r="F148" s="373"/>
+      <c r="G148" s="373"/>
+      <c r="H148" s="374"/>
+      <c r="I148" s="378" t="s">
         <v>388</v>
       </c>
-      <c r="J148" s="404">
+      <c r="J148" s="504">
         <f>ROUNDDOWN(2*(J129/J146),0)</f>
-        <v>16</v>
-      </c>
-      <c r="K148" s="402"/>
-      <c r="L148" s="406"/>
-      <c r="M148" s="407"/>
-      <c r="N148" s="407"/>
-      <c r="O148" s="408"/>
+        <v>19</v>
+      </c>
+      <c r="K148" s="378"/>
+      <c r="L148" s="382"/>
+      <c r="M148" s="383"/>
+      <c r="N148" s="383"/>
+      <c r="O148" s="384"/>
       <c r="P148" s="161"/>
       <c r="Q148" s="290"/>
       <c r="R148" s="6"/>
@@ -44249,20 +44845,20 @@
       <c r="Z148" s="120"/>
     </row>
     <row r="149" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="399"/>
-      <c r="C149" s="400"/>
-      <c r="D149" s="400"/>
-      <c r="E149" s="400"/>
-      <c r="F149" s="400"/>
-      <c r="G149" s="400"/>
-      <c r="H149" s="401"/>
-      <c r="I149" s="403"/>
-      <c r="J149" s="405"/>
-      <c r="K149" s="403"/>
-      <c r="L149" s="409"/>
-      <c r="M149" s="410"/>
-      <c r="N149" s="410"/>
-      <c r="O149" s="411"/>
+      <c r="B149" s="375"/>
+      <c r="C149" s="376"/>
+      <c r="D149" s="376"/>
+      <c r="E149" s="376"/>
+      <c r="F149" s="376"/>
+      <c r="G149" s="376"/>
+      <c r="H149" s="377"/>
+      <c r="I149" s="379"/>
+      <c r="J149" s="505"/>
+      <c r="K149" s="379"/>
+      <c r="L149" s="385"/>
+      <c r="M149" s="386"/>
+      <c r="N149" s="386"/>
+      <c r="O149" s="387"/>
       <c r="P149" s="161"/>
       <c r="Q149" s="280"/>
       <c r="R149" s="6"/>
@@ -44276,27 +44872,27 @@
       <c r="Z149" s="120"/>
     </row>
     <row r="150" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="396" t="s">
+      <c r="B150" s="372" t="s">
         <v>390</v>
       </c>
-      <c r="C150" s="397"/>
-      <c r="D150" s="397"/>
-      <c r="E150" s="397"/>
-      <c r="F150" s="397"/>
-      <c r="G150" s="397"/>
-      <c r="H150" s="398"/>
-      <c r="I150" s="402" t="s">
+      <c r="C150" s="373"/>
+      <c r="D150" s="373"/>
+      <c r="E150" s="373"/>
+      <c r="F150" s="373"/>
+      <c r="G150" s="373"/>
+      <c r="H150" s="374"/>
+      <c r="I150" s="378" t="s">
         <v>387</v>
       </c>
-      <c r="J150" s="404">
+      <c r="J150" s="504">
         <f>J148*ROUND(J145/J144,0)*2</f>
-        <v>256</v>
-      </c>
-      <c r="K150" s="402"/>
-      <c r="L150" s="406"/>
-      <c r="M150" s="407"/>
-      <c r="N150" s="407"/>
-      <c r="O150" s="408"/>
+        <v>342</v>
+      </c>
+      <c r="K150" s="378"/>
+      <c r="L150" s="382"/>
+      <c r="M150" s="383"/>
+      <c r="N150" s="383"/>
+      <c r="O150" s="384"/>
       <c r="P150" s="161"/>
       <c r="Q150" s="290"/>
       <c r="R150" s="6"/>
@@ -44310,20 +44906,20 @@
       <c r="Z150" s="120"/>
     </row>
     <row r="151" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="399"/>
-      <c r="C151" s="400"/>
-      <c r="D151" s="400"/>
-      <c r="E151" s="400"/>
-      <c r="F151" s="400"/>
-      <c r="G151" s="400"/>
-      <c r="H151" s="401"/>
-      <c r="I151" s="403"/>
-      <c r="J151" s="405"/>
-      <c r="K151" s="403"/>
-      <c r="L151" s="409"/>
-      <c r="M151" s="410"/>
-      <c r="N151" s="410"/>
-      <c r="O151" s="411"/>
+      <c r="B151" s="375"/>
+      <c r="C151" s="376"/>
+      <c r="D151" s="376"/>
+      <c r="E151" s="376"/>
+      <c r="F151" s="376"/>
+      <c r="G151" s="376"/>
+      <c r="H151" s="377"/>
+      <c r="I151" s="379"/>
+      <c r="J151" s="505"/>
+      <c r="K151" s="379"/>
+      <c r="L151" s="385"/>
+      <c r="M151" s="386"/>
+      <c r="N151" s="386"/>
+      <c r="O151" s="387"/>
       <c r="P151" s="161"/>
       <c r="Q151" s="280"/>
       <c r="R151" s="6"/>
@@ -44337,29 +44933,29 @@
       <c r="Z151" s="120"/>
     </row>
     <row r="152" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="396" t="s">
+      <c r="B152" s="372" t="s">
         <v>392</v>
       </c>
-      <c r="C152" s="397"/>
-      <c r="D152" s="397"/>
-      <c r="E152" s="397"/>
-      <c r="F152" s="397"/>
-      <c r="G152" s="397"/>
-      <c r="H152" s="398"/>
-      <c r="I152" s="402" t="s">
+      <c r="C152" s="373"/>
+      <c r="D152" s="373"/>
+      <c r="E152" s="373"/>
+      <c r="F152" s="373"/>
+      <c r="G152" s="373"/>
+      <c r="H152" s="374"/>
+      <c r="I152" s="378" t="s">
         <v>391</v>
       </c>
-      <c r="J152" s="508">
+      <c r="J152" s="380">
         <f>J150*PI()*(((J143*0.0254)^2)/4)</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-      <c r="K152" s="402" t="s">
+        <v>2.4369462822845276E-2</v>
+      </c>
+      <c r="K152" s="378" t="s">
         <v>393</v>
       </c>
-      <c r="L152" s="406"/>
-      <c r="M152" s="407"/>
-      <c r="N152" s="407"/>
-      <c r="O152" s="408"/>
+      <c r="L152" s="382"/>
+      <c r="M152" s="383"/>
+      <c r="N152" s="383"/>
+      <c r="O152" s="384"/>
       <c r="P152" s="161"/>
       <c r="Q152" s="290"/>
       <c r="R152" s="6"/>
@@ -44373,20 +44969,20 @@
       <c r="Z152" s="120"/>
     </row>
     <row r="153" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="399"/>
-      <c r="C153" s="400"/>
-      <c r="D153" s="400"/>
-      <c r="E153" s="400"/>
-      <c r="F153" s="400"/>
-      <c r="G153" s="400"/>
-      <c r="H153" s="401"/>
-      <c r="I153" s="403"/>
-      <c r="J153" s="509"/>
-      <c r="K153" s="403"/>
-      <c r="L153" s="409"/>
-      <c r="M153" s="410"/>
-      <c r="N153" s="410"/>
-      <c r="O153" s="411"/>
+      <c r="B153" s="375"/>
+      <c r="C153" s="376"/>
+      <c r="D153" s="376"/>
+      <c r="E153" s="376"/>
+      <c r="F153" s="376"/>
+      <c r="G153" s="376"/>
+      <c r="H153" s="377"/>
+      <c r="I153" s="379"/>
+      <c r="J153" s="381"/>
+      <c r="K153" s="379"/>
+      <c r="L153" s="385"/>
+      <c r="M153" s="386"/>
+      <c r="N153" s="386"/>
+      <c r="O153" s="387"/>
       <c r="P153" s="161"/>
       <c r="Q153" s="290"/>
       <c r="R153" s="6"/>
@@ -44400,29 +44996,29 @@
       <c r="Z153" s="120"/>
     </row>
     <row r="154" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="396" t="s">
+      <c r="B154" s="372" t="s">
         <v>394</v>
       </c>
-      <c r="C154" s="397"/>
-      <c r="D154" s="397"/>
-      <c r="E154" s="397"/>
-      <c r="F154" s="397"/>
-      <c r="G154" s="397"/>
-      <c r="H154" s="398"/>
-      <c r="I154" s="402" t="s">
+      <c r="C154" s="373"/>
+      <c r="D154" s="373"/>
+      <c r="E154" s="373"/>
+      <c r="F154" s="373"/>
+      <c r="G154" s="373"/>
+      <c r="H154" s="374"/>
+      <c r="I154" s="378" t="s">
         <v>395</v>
       </c>
-      <c r="J154" s="508">
+      <c r="J154" s="380">
         <f>J152/0.4</f>
-        <v>4.5603673118774786E-2</v>
-      </c>
-      <c r="K154" s="402" t="s">
+        <v>6.0923657057113188E-2</v>
+      </c>
+      <c r="K154" s="378" t="s">
         <v>393</v>
       </c>
-      <c r="L154" s="406"/>
-      <c r="M154" s="407"/>
-      <c r="N154" s="407"/>
-      <c r="O154" s="408"/>
+      <c r="L154" s="382"/>
+      <c r="M154" s="383"/>
+      <c r="N154" s="383"/>
+      <c r="O154" s="384"/>
       <c r="P154" s="161"/>
       <c r="Q154" s="290"/>
       <c r="R154" s="6"/>
@@ -44436,20 +45032,20 @@
       <c r="Z154" s="120"/>
     </row>
     <row r="155" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="399"/>
-      <c r="C155" s="400"/>
-      <c r="D155" s="400"/>
-      <c r="E155" s="400"/>
-      <c r="F155" s="400"/>
-      <c r="G155" s="400"/>
-      <c r="H155" s="401"/>
-      <c r="I155" s="403"/>
-      <c r="J155" s="509"/>
-      <c r="K155" s="403"/>
-      <c r="L155" s="409"/>
-      <c r="M155" s="410"/>
-      <c r="N155" s="410"/>
-      <c r="O155" s="411"/>
+      <c r="B155" s="375"/>
+      <c r="C155" s="376"/>
+      <c r="D155" s="376"/>
+      <c r="E155" s="376"/>
+      <c r="F155" s="376"/>
+      <c r="G155" s="376"/>
+      <c r="H155" s="377"/>
+      <c r="I155" s="379"/>
+      <c r="J155" s="381"/>
+      <c r="K155" s="379"/>
+      <c r="L155" s="385"/>
+      <c r="M155" s="386"/>
+      <c r="N155" s="386"/>
+      <c r="O155" s="387"/>
       <c r="P155" s="161"/>
       <c r="Q155" s="280"/>
       <c r="R155" s="6"/>
@@ -44463,15 +45059,15 @@
       <c r="Z155" s="120"/>
     </row>
     <row r="156" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="386" t="s">
+      <c r="B156" s="369" t="s">
         <v>396</v>
       </c>
-      <c r="C156" s="387"/>
-      <c r="D156" s="387"/>
-      <c r="E156" s="387"/>
-      <c r="F156" s="387"/>
-      <c r="G156" s="387"/>
-      <c r="H156" s="388"/>
+      <c r="C156" s="370"/>
+      <c r="D156" s="370"/>
+      <c r="E156" s="370"/>
+      <c r="F156" s="370"/>
+      <c r="G156" s="370"/>
+      <c r="H156" s="371"/>
       <c r="I156" s="291"/>
       <c r="J156" s="295" t="str">
         <f>INDEX(AL8:AL16,MATCH(J154,AM8:AM16,1),1)</f>
@@ -44497,15 +45093,15 @@
       <c r="Z156" s="120"/>
     </row>
     <row r="157" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="510" t="s">
+      <c r="B157" s="388" t="s">
         <v>410</v>
       </c>
-      <c r="C157" s="510"/>
-      <c r="D157" s="510"/>
-      <c r="E157" s="510"/>
-      <c r="F157" s="510"/>
-      <c r="G157" s="510"/>
-      <c r="H157" s="510"/>
+      <c r="C157" s="388"/>
+      <c r="D157" s="388"/>
+      <c r="E157" s="388"/>
+      <c r="F157" s="388"/>
+      <c r="G157" s="388"/>
+      <c r="H157" s="388"/>
       <c r="I157" s="300" t="s">
         <v>395</v>
       </c>
@@ -44516,10 +45112,10 @@
       <c r="K157" s="153" t="s">
         <v>393</v>
       </c>
-      <c r="L157" s="393"/>
-      <c r="M157" s="394"/>
-      <c r="N157" s="394"/>
-      <c r="O157" s="395"/>
+      <c r="L157" s="389"/>
+      <c r="M157" s="390"/>
+      <c r="N157" s="390"/>
+      <c r="O157" s="391"/>
       <c r="P157" s="161"/>
       <c r="Q157" s="290"/>
       <c r="R157" s="6"/>
@@ -44533,28 +45129,28 @@
       <c r="Z157" s="120"/>
     </row>
     <row r="158" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="386" t="s">
+      <c r="B158" s="369" t="s">
         <v>409</v>
       </c>
-      <c r="C158" s="387"/>
-      <c r="D158" s="387"/>
-      <c r="E158" s="387"/>
-      <c r="F158" s="387"/>
-      <c r="G158" s="387"/>
-      <c r="H158" s="388"/>
+      <c r="C158" s="370"/>
+      <c r="D158" s="370"/>
+      <c r="E158" s="370"/>
+      <c r="F158" s="370"/>
+      <c r="G158" s="370"/>
+      <c r="H158" s="371"/>
       <c r="I158" s="300"/>
       <c r="J158" s="289">
         <f>J152/J126</f>
-        <v>2.8772033513422579E-3</v>
+        <v>2.9574590804423879E-3</v>
       </c>
       <c r="K158" s="291"/>
-      <c r="L158" s="505" t="str">
+      <c r="L158" s="366" t="str">
         <f>IF(AND(J158&gt;0.0015,J158&lt;0.005),"¡ok!","¡error!")</f>
         <v>¡ok!</v>
       </c>
-      <c r="M158" s="506"/>
-      <c r="N158" s="506"/>
-      <c r="O158" s="507"/>
+      <c r="M158" s="367"/>
+      <c r="N158" s="367"/>
+      <c r="O158" s="368"/>
       <c r="P158" s="161"/>
       <c r="Q158" s="290"/>
       <c r="R158" s="6"/>
@@ -44568,28 +45164,28 @@
       <c r="Z158" s="120"/>
     </row>
     <row r="159" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="386" t="s">
+      <c r="B159" s="369" t="s">
         <v>411</v>
       </c>
-      <c r="C159" s="387"/>
-      <c r="D159" s="387"/>
-      <c r="E159" s="387"/>
-      <c r="F159" s="387"/>
-      <c r="G159" s="387"/>
-      <c r="H159" s="388"/>
+      <c r="C159" s="370"/>
+      <c r="D159" s="370"/>
+      <c r="E159" s="370"/>
+      <c r="F159" s="370"/>
+      <c r="G159" s="370"/>
+      <c r="H159" s="371"/>
       <c r="I159" s="300"/>
       <c r="J159" s="289">
         <f>((0.0254*J147)^2)/(J152/J148)</f>
-        <v>3.5367765131532307</v>
+        <v>3.1438013450250941</v>
       </c>
       <c r="K159" s="291"/>
-      <c r="L159" s="505" t="str">
+      <c r="L159" s="366" t="str">
         <f>IF(AND(J159&gt;2,J159&lt;4),"¡ok!","¡error!")</f>
         <v>¡ok!</v>
       </c>
-      <c r="M159" s="506"/>
-      <c r="N159" s="506"/>
-      <c r="O159" s="507"/>
+      <c r="M159" s="367"/>
+      <c r="N159" s="367"/>
+      <c r="O159" s="368"/>
       <c r="P159" s="161"/>
       <c r="Q159" s="290"/>
       <c r="R159" s="6"/>
@@ -44662,11 +45258,11 @@
       <c r="B162" s="342" t="s">
         <v>232</v>
       </c>
-      <c r="C162" s="389"/>
-      <c r="D162" s="389"/>
-      <c r="E162" s="389"/>
-      <c r="F162" s="389"/>
-      <c r="G162" s="389"/>
+      <c r="C162" s="500"/>
+      <c r="D162" s="500"/>
+      <c r="E162" s="500"/>
+      <c r="F162" s="500"/>
+      <c r="G162" s="500"/>
       <c r="H162" s="343"/>
       <c r="I162" s="153" t="s">
         <v>88</v>
@@ -44678,10 +45274,10 @@
       <c r="K162" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="L162" s="392"/>
-      <c r="M162" s="392"/>
-      <c r="N162" s="392"/>
-      <c r="O162" s="392"/>
+      <c r="L162" s="499"/>
+      <c r="M162" s="499"/>
+      <c r="N162" s="499"/>
+      <c r="O162" s="499"/>
       <c r="P162" s="121"/>
       <c r="Q162" s="121"/>
       <c r="R162" s="121"/>
@@ -44698,11 +45294,11 @@
       <c r="B163" s="342" t="s">
         <v>231</v>
       </c>
-      <c r="C163" s="389"/>
-      <c r="D163" s="389"/>
-      <c r="E163" s="389"/>
-      <c r="F163" s="389"/>
-      <c r="G163" s="389"/>
+      <c r="C163" s="500"/>
+      <c r="D163" s="500"/>
+      <c r="E163" s="500"/>
+      <c r="F163" s="500"/>
+      <c r="G163" s="500"/>
       <c r="H163" s="343"/>
       <c r="I163" s="153" t="s">
         <v>11</v>
@@ -44712,10 +45308,10 @@
         <v>0.45</v>
       </c>
       <c r="K163" s="156"/>
-      <c r="L163" s="392"/>
-      <c r="M163" s="392"/>
-      <c r="N163" s="392"/>
-      <c r="O163" s="392"/>
+      <c r="L163" s="499"/>
+      <c r="M163" s="499"/>
+      <c r="N163" s="499"/>
+      <c r="O163" s="499"/>
       <c r="P163" s="121"/>
       <c r="Q163" s="121"/>
       <c r="R163" s="121"/>
@@ -44732,11 +45328,11 @@
       <c r="B164" s="342" t="s">
         <v>233</v>
       </c>
-      <c r="C164" s="389"/>
-      <c r="D164" s="389"/>
-      <c r="E164" s="389"/>
-      <c r="F164" s="389"/>
-      <c r="G164" s="389"/>
+      <c r="C164" s="500"/>
+      <c r="D164" s="500"/>
+      <c r="E164" s="500"/>
+      <c r="F164" s="500"/>
+      <c r="G164" s="500"/>
       <c r="H164" s="343"/>
       <c r="I164" s="153" t="s">
         <v>234</v>
@@ -44746,10 +45342,10 @@
         <v>2.65</v>
       </c>
       <c r="K164" s="156"/>
-      <c r="L164" s="392"/>
-      <c r="M164" s="392"/>
-      <c r="N164" s="392"/>
-      <c r="O164" s="392"/>
+      <c r="L164" s="499"/>
+      <c r="M164" s="499"/>
+      <c r="N164" s="499"/>
+      <c r="O164" s="499"/>
       <c r="P164" s="121"/>
       <c r="Q164" s="121"/>
       <c r="R164" s="121"/>
@@ -44763,15 +45359,15 @@
       <c r="Z164" s="120"/>
     </row>
     <row r="165" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="339" t="s">
+      <c r="B165" s="335" t="s">
         <v>236</v>
       </c>
-      <c r="C165" s="339"/>
-      <c r="D165" s="339"/>
-      <c r="E165" s="339"/>
-      <c r="F165" s="339"/>
-      <c r="G165" s="339"/>
-      <c r="H165" s="339"/>
+      <c r="C165" s="335"/>
+      <c r="D165" s="335"/>
+      <c r="E165" s="335"/>
+      <c r="F165" s="335"/>
+      <c r="G165" s="335"/>
+      <c r="H165" s="335"/>
       <c r="I165" s="153" t="s">
         <v>235</v>
       </c>
@@ -44782,10 +45378,10 @@
       <c r="K165" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="L165" s="392"/>
-      <c r="M165" s="392"/>
-      <c r="N165" s="392"/>
-      <c r="O165" s="392"/>
+      <c r="L165" s="499"/>
+      <c r="M165" s="499"/>
+      <c r="N165" s="499"/>
+      <c r="O165" s="499"/>
       <c r="P165" s="121"/>
       <c r="Q165" s="121"/>
       <c r="R165" s="121"/>
@@ -44911,8 +45507,8 @@
       <c r="Z169" s="120"/>
     </row>
     <row r="170" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="480"/>
-      <c r="C170" s="480"/>
+      <c r="B170" s="465"/>
+      <c r="C170" s="465"/>
       <c r="D170" s="130"/>
       <c r="E170" s="5"/>
       <c r="F170" s="131"/>
@@ -45017,13 +45613,13 @@
       <c r="Y173" s="113"/>
     </row>
     <row r="174" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="335" t="s">
+      <c r="B174" s="348" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="335"/>
-      <c r="D174" s="335"/>
-      <c r="E174" s="335"/>
-      <c r="F174" s="335"/>
+      <c r="C174" s="348"/>
+      <c r="D174" s="348"/>
+      <c r="E174" s="348"/>
+      <c r="F174" s="348"/>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
@@ -45074,16 +45670,16 @@
       <c r="B176" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C176" s="322" t="s">
+      <c r="C176" s="352" t="s">
         <v>202</v>
       </c>
-      <c r="D176" s="322"/>
-      <c r="E176" s="322"/>
-      <c r="F176" s="322"/>
-      <c r="G176" s="322"/>
-      <c r="H176" s="322"/>
-      <c r="I176" s="322"/>
-      <c r="J176" s="322"/>
+      <c r="D176" s="352"/>
+      <c r="E176" s="352"/>
+      <c r="F176" s="352"/>
+      <c r="G176" s="352"/>
+      <c r="H176" s="352"/>
+      <c r="I176" s="352"/>
+      <c r="J176" s="352"/>
       <c r="K176" s="113"/>
       <c r="L176" s="113"/>
       <c r="M176" s="113"/>
@@ -45104,16 +45700,16 @@
       <c r="B177" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C177" s="322" t="s">
+      <c r="C177" s="352" t="s">
         <v>64</v>
       </c>
-      <c r="D177" s="322"/>
-      <c r="E177" s="322"/>
-      <c r="F177" s="322"/>
-      <c r="G177" s="322"/>
-      <c r="H177" s="322"/>
-      <c r="I177" s="322"/>
-      <c r="J177" s="322"/>
+      <c r="D177" s="352"/>
+      <c r="E177" s="352"/>
+      <c r="F177" s="352"/>
+      <c r="G177" s="352"/>
+      <c r="H177" s="352"/>
+      <c r="I177" s="352"/>
+      <c r="J177" s="352"/>
       <c r="K177" s="113"/>
       <c r="L177" s="113"/>
       <c r="M177" s="113"/>
@@ -45134,16 +45730,16 @@
       <c r="B178" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C178" s="479" t="s">
+      <c r="C178" s="464" t="s">
         <v>40</v>
       </c>
-      <c r="D178" s="479"/>
-      <c r="E178" s="479"/>
-      <c r="F178" s="479"/>
-      <c r="G178" s="479"/>
-      <c r="H178" s="479"/>
-      <c r="I178" s="479"/>
-      <c r="J178" s="479"/>
+      <c r="D178" s="464"/>
+      <c r="E178" s="464"/>
+      <c r="F178" s="464"/>
+      <c r="G178" s="464"/>
+      <c r="H178" s="464"/>
+      <c r="I178" s="464"/>
+      <c r="J178" s="464"/>
       <c r="K178" s="23"/>
       <c r="L178" s="23"/>
       <c r="M178" s="23"/>
@@ -45164,16 +45760,16 @@
       <c r="B179" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C179" s="322" t="s">
+      <c r="C179" s="352" t="s">
         <v>65</v>
       </c>
-      <c r="D179" s="322"/>
-      <c r="E179" s="322"/>
-      <c r="F179" s="322"/>
-      <c r="G179" s="322"/>
-      <c r="H179" s="322"/>
-      <c r="I179" s="322"/>
-      <c r="J179" s="322"/>
+      <c r="D179" s="352"/>
+      <c r="E179" s="352"/>
+      <c r="F179" s="352"/>
+      <c r="G179" s="352"/>
+      <c r="H179" s="352"/>
+      <c r="I179" s="352"/>
+      <c r="J179" s="352"/>
       <c r="K179" s="23"/>
       <c r="L179" s="23"/>
       <c r="M179" s="23"/>
@@ -45194,16 +45790,16 @@
       <c r="B180" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C180" s="322" t="s">
+      <c r="C180" s="352" t="s">
         <v>66</v>
       </c>
-      <c r="D180" s="322"/>
-      <c r="E180" s="322"/>
-      <c r="F180" s="322"/>
-      <c r="G180" s="322"/>
-      <c r="H180" s="322"/>
-      <c r="I180" s="322"/>
-      <c r="J180" s="322"/>
+      <c r="D180" s="352"/>
+      <c r="E180" s="352"/>
+      <c r="F180" s="352"/>
+      <c r="G180" s="352"/>
+      <c r="H180" s="352"/>
+      <c r="I180" s="352"/>
+      <c r="J180" s="352"/>
       <c r="K180" s="23"/>
       <c r="L180" s="23"/>
       <c r="M180" s="23"/>
@@ -45224,16 +45820,16 @@
       <c r="B181" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C181" s="334" t="s">
+      <c r="C181" s="344" t="s">
         <v>56</v>
       </c>
-      <c r="D181" s="334"/>
-      <c r="E181" s="334"/>
-      <c r="F181" s="334"/>
-      <c r="G181" s="334"/>
-      <c r="H181" s="334"/>
-      <c r="I181" s="334"/>
-      <c r="J181" s="334"/>
+      <c r="D181" s="344"/>
+      <c r="E181" s="344"/>
+      <c r="F181" s="344"/>
+      <c r="G181" s="344"/>
+      <c r="H181" s="344"/>
+      <c r="I181" s="344"/>
+      <c r="J181" s="344"/>
       <c r="K181" s="113"/>
       <c r="L181" s="113"/>
       <c r="M181" s="113"/>
@@ -45254,16 +45850,16 @@
       <c r="B182" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C182" s="479" t="s">
+      <c r="C182" s="464" t="s">
         <v>78</v>
       </c>
-      <c r="D182" s="479"/>
-      <c r="E182" s="479"/>
-      <c r="F182" s="479"/>
-      <c r="G182" s="479"/>
-      <c r="H182" s="479"/>
-      <c r="I182" s="479"/>
-      <c r="J182" s="479"/>
+      <c r="D182" s="464"/>
+      <c r="E182" s="464"/>
+      <c r="F182" s="464"/>
+      <c r="G182" s="464"/>
+      <c r="H182" s="464"/>
+      <c r="I182" s="464"/>
+      <c r="J182" s="464"/>
       <c r="K182" s="113"/>
       <c r="L182" s="113"/>
       <c r="M182" s="113"/>
@@ -45284,16 +45880,16 @@
       <c r="B183" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C183" s="322" t="s">
+      <c r="C183" s="352" t="s">
         <v>83</v>
       </c>
-      <c r="D183" s="322"/>
-      <c r="E183" s="322"/>
-      <c r="F183" s="322"/>
-      <c r="G183" s="322"/>
-      <c r="H183" s="322"/>
-      <c r="I183" s="322"/>
-      <c r="J183" s="322"/>
+      <c r="D183" s="352"/>
+      <c r="E183" s="352"/>
+      <c r="F183" s="352"/>
+      <c r="G183" s="352"/>
+      <c r="H183" s="352"/>
+      <c r="I183" s="352"/>
+      <c r="J183" s="352"/>
       <c r="K183" s="113"/>
       <c r="L183" s="113"/>
       <c r="M183" s="113"/>
@@ -45314,16 +45910,16 @@
       <c r="B184" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C184" s="322" t="s">
+      <c r="C184" s="352" t="s">
         <v>169</v>
       </c>
-      <c r="D184" s="322"/>
-      <c r="E184" s="322"/>
-      <c r="F184" s="322"/>
-      <c r="G184" s="322"/>
-      <c r="H184" s="322"/>
-      <c r="I184" s="322"/>
-      <c r="J184" s="322"/>
+      <c r="D184" s="352"/>
+      <c r="E184" s="352"/>
+      <c r="F184" s="352"/>
+      <c r="G184" s="352"/>
+      <c r="H184" s="352"/>
+      <c r="I184" s="352"/>
+      <c r="J184" s="352"/>
       <c r="K184" s="121"/>
       <c r="L184" s="121"/>
       <c r="M184" s="121"/>
@@ -46986,6 +47582,235 @@
     </row>
   </sheetData>
   <mergeCells count="253">
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="V88:V96"/>
+    <mergeCell ref="Q97:Q99"/>
+    <mergeCell ref="R88:R96"/>
+    <mergeCell ref="X84:X87"/>
+    <mergeCell ref="Y84:Y87"/>
+    <mergeCell ref="U97:U99"/>
+    <mergeCell ref="S84:V84"/>
+    <mergeCell ref="S85:S87"/>
+    <mergeCell ref="T85:T87"/>
+    <mergeCell ref="U85:U87"/>
+    <mergeCell ref="V85:V87"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B158:H158"/>
+    <mergeCell ref="B139:H139"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L164:O164"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="L145:O145"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="L147:O147"/>
+    <mergeCell ref="B148:H149"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="L148:O149"/>
+    <mergeCell ref="B150:H151"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="L150:O151"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="B165:H165"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="B136:H136"/>
+    <mergeCell ref="B137:H137"/>
+    <mergeCell ref="B115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:O116"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L136:O136"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="L138:O138"/>
+    <mergeCell ref="L119:O119"/>
+    <mergeCell ref="B129:H129"/>
+    <mergeCell ref="B138:H138"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B140:H140"/>
+    <mergeCell ref="L162:O162"/>
+    <mergeCell ref="L163:O163"/>
+    <mergeCell ref="B124:H125"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="O96:P96"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="O85:P87"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="K85:M87"/>
+    <mergeCell ref="N84:R84"/>
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="Q85:Q87"/>
+    <mergeCell ref="R85:R87"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B102:C105"/>
+    <mergeCell ref="F102:F105"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="H102:H105"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H53:J55"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B53:C55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B38:C41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H60:J62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C184:J184"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="C179:J179"/>
+    <mergeCell ref="C180:J180"/>
+    <mergeCell ref="C181:J181"/>
+    <mergeCell ref="C182:J182"/>
+    <mergeCell ref="C183:J183"/>
+    <mergeCell ref="C176:J176"/>
+    <mergeCell ref="C177:J177"/>
+    <mergeCell ref="C178:J178"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B67:C69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G67:H69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B135:H135"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="B84:C87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="K88:M96"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B121:H121"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="L127:O128"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="L122:O123"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="L124:O125"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B127:H128"/>
+    <mergeCell ref="B2:F5"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="H56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B60:C62"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="P147:Q147"/>
     <mergeCell ref="Q119:R119"/>
     <mergeCell ref="L158:O158"/>
@@ -47010,235 +47835,6 @@
     <mergeCell ref="J124:J125"/>
     <mergeCell ref="L126:O126"/>
     <mergeCell ref="B126:H126"/>
-    <mergeCell ref="B127:H128"/>
-    <mergeCell ref="B2:F5"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="H56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B60:C62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="B84:C87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="K88:M96"/>
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B121:H121"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="L127:O128"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C184:J184"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="C179:J179"/>
-    <mergeCell ref="C180:J180"/>
-    <mergeCell ref="C181:J181"/>
-    <mergeCell ref="C182:J182"/>
-    <mergeCell ref="C183:J183"/>
-    <mergeCell ref="C176:J176"/>
-    <mergeCell ref="C177:J177"/>
-    <mergeCell ref="C178:J178"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B67:C69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G67:H69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B135:H135"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H53:J55"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B53:C55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B38:C41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="L122:O123"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="L124:O125"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B102:C105"/>
-    <mergeCell ref="F102:F105"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="H102:H105"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B124:H125"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="O96:P96"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="O85:P87"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="K85:M87"/>
-    <mergeCell ref="N84:R84"/>
-    <mergeCell ref="N85:N87"/>
-    <mergeCell ref="Q85:Q87"/>
-    <mergeCell ref="R85:R87"/>
-    <mergeCell ref="H63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="H60:J62"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="B165:H165"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="B136:H136"/>
-    <mergeCell ref="B137:H137"/>
-    <mergeCell ref="B115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:O116"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="L136:O136"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="L138:O138"/>
-    <mergeCell ref="L119:O119"/>
-    <mergeCell ref="B129:H129"/>
-    <mergeCell ref="B138:H138"/>
-    <mergeCell ref="B164:H164"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="B140:H140"/>
-    <mergeCell ref="L162:O162"/>
-    <mergeCell ref="L163:O163"/>
-    <mergeCell ref="L164:O164"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="L145:O145"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="B148:H149"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="J148:J149"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="L148:O149"/>
-    <mergeCell ref="B150:H151"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="L150:O151"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="B158:H158"/>
-    <mergeCell ref="B139:H139"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="V88:V96"/>
-    <mergeCell ref="Q97:Q99"/>
-    <mergeCell ref="R88:R96"/>
-    <mergeCell ref="X84:X87"/>
-    <mergeCell ref="Y84:Y87"/>
-    <mergeCell ref="U97:U99"/>
-    <mergeCell ref="S84:V84"/>
-    <mergeCell ref="S85:S87"/>
-    <mergeCell ref="T85:T87"/>
-    <mergeCell ref="U85:U87"/>
-    <mergeCell ref="V85:V87"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:J28">
     <cfRule type="expression" dxfId="4" priority="6">
@@ -47266,47 +47862,47 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione un valor de temperatura del agua" sqref="J30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione un valor de temperatura del agua" sqref="J30" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$X$34:$X$70</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Ingrese un valor correcto de densidad relativa de arena" sqref="J75">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Ingrese un valor correcto de densidad relativa de arena" sqref="J75" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>2.5</formula1>
       <formula2>2.7</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J32">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J32" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>IF(J30="…","",ROUND(VLOOKUP(J30,X$35:AA$70,3,FALSE),9))</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Ingrese un valor correcto de profundidad del lecho fijo de arena" sqref="J74">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Ingrese un valor correcto de profundidad del lecho fijo de arena" sqref="J74" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>0.6</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J135">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J135" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>J32</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Ingrese un valor correcto para k1" sqref="J8">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Ingrese un valor correcto para k1" sqref="J8" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>1</formula1>
       <formula2>1.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Ingrese un valor correcto para k2" sqref="J9">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Ingrese un valor correcto para k2" sqref="J9" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>1</formula1>
       <formula2>1.6</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione un tipo de filtro" sqref="H15:I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione un tipo de filtro" sqref="H15:I15" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>$Z$8:$AB$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione el sistema de drenaje del filtro" sqref="H18:I18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione el sistema de drenaje del filtro" sqref="H18:I18" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>$AA$20:$AA$22</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J73">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J73" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>6.25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B119:H119">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B119:H119" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>$AD$8:$AD$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J143">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J143" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>$AG$8:$AG$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J146">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J146" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>$AI$8:$AI$11</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v5.xlsx
+++ b/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Proyecto\Aplicacion\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB7002E-DAD2-492A-9163-0247D9461D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9321BFA-5D49-4A7E-96F4-080895EB7F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2340" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedimentador alta tasa" sheetId="1" r:id="rId1"/>
@@ -4891,32 +4891,8 @@
     <xf numFmtId="174" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4924,49 +4900,34 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4981,29 +4942,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5011,26 +5014,74 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5040,6 +5091,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5065,10 +5137,10 @@
     <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5089,36 +5161,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5131,128 +5173,35 @@
     <xf numFmtId="2" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5272,14 +5221,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5298,75 +5250,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5413,56 +5296,173 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -35000,7 +35000,7 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" s="43"/>
-      <c r="C2" s="341"/>
+      <c r="C2" s="340"/>
       <c r="D2" s="41" t="s">
         <v>119</v>
       </c>
@@ -35014,14 +35014,14 @@
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="43"/>
-      <c r="C3" s="341"/>
+      <c r="C3" s="340"/>
       <c r="D3" s="41" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
-      <c r="C4" s="341"/>
+      <c r="C4" s="340"/>
       <c r="D4" s="41" t="s">
         <v>121</v>
       </c>
@@ -35030,7 +35030,7 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="43"/>
-      <c r="C5" s="341"/>
+      <c r="C5" s="340"/>
       <c r="D5" s="41" t="s">
         <v>127</v>
       </c>
@@ -35051,27 +35051,27 @@
       </c>
     </row>
     <row r="7" spans="2:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="336" t="s">
+      <c r="B7" s="353" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="336"/>
-      <c r="D7" s="336"/>
-      <c r="E7" s="336"/>
-      <c r="F7" s="336"/>
-      <c r="G7" s="336"/>
+      <c r="C7" s="353"/>
+      <c r="D7" s="353"/>
+      <c r="E7" s="353"/>
+      <c r="F7" s="353"/>
+      <c r="G7" s="353"/>
       <c r="H7" s="40"/>
-      <c r="J7" s="334" t="s">
+      <c r="J7" s="352" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="334"/>
-      <c r="L7" s="334"/>
-      <c r="M7" s="334"/>
+      <c r="K7" s="352"/>
+      <c r="L7" s="352"/>
+      <c r="M7" s="352"/>
     </row>
     <row r="8" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="335" t="s">
+      <c r="B8" s="339" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="335"/>
+      <c r="C8" s="339"/>
       <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
@@ -35113,10 +35113,10 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="335" t="s">
+      <c r="B9" s="339" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="335"/>
+      <c r="C9" s="339"/>
       <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
@@ -35146,10 +35146,10 @@
       </c>
     </row>
     <row r="10" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="335" t="s">
+      <c r="B10" s="339" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="335"/>
+      <c r="C10" s="339"/>
       <c r="D10" s="9" t="s">
         <v>92</v>
       </c>
@@ -35184,10 +35184,10 @@
       </c>
     </row>
     <row r="11" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="335" t="s">
+      <c r="B11" s="339" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="335"/>
+      <c r="C11" s="339"/>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
@@ -35217,10 +35217,10 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="335" t="s">
+      <c r="B12" s="339" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="335"/>
+      <c r="C12" s="339"/>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
@@ -35246,11 +35246,11 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="335" t="str">
+      <c r="B13" s="339" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F12</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C13" s="335"/>
+      <c r="C13" s="339"/>
       <c r="D13" s="8" t="s">
         <v>108</v>
       </c>
@@ -35285,10 +35285,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="335" t="s">
+      <c r="B14" s="339" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="335"/>
+      <c r="C14" s="339"/>
       <c r="D14" s="9" t="s">
         <v>11</v>
       </c>
@@ -35323,10 +35323,10 @@
       </c>
     </row>
     <row r="15" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="335" t="s">
+      <c r="B15" s="339" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="335"/>
+      <c r="C15" s="339"/>
       <c r="D15" s="9" t="s">
         <v>105</v>
       </c>
@@ -35358,10 +35358,10 @@
       </c>
     </row>
     <row r="16" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="335" t="s">
+      <c r="B16" s="339" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="335"/>
+      <c r="C16" s="339"/>
       <c r="D16" s="9" t="s">
         <v>105</v>
       </c>
@@ -35392,10 +35392,10 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="335" t="s">
+      <c r="B17" s="339" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="335"/>
+      <c r="C17" s="339"/>
       <c r="D17" s="9" t="s">
         <v>105</v>
       </c>
@@ -35428,10 +35428,10 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="335" t="s">
+      <c r="B18" s="339" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="335"/>
+      <c r="C18" s="339"/>
       <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
@@ -35461,10 +35461,10 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="335" t="s">
+      <c r="B19" s="339" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="335"/>
+      <c r="C19" s="339"/>
       <c r="D19" s="177" t="s">
         <v>13</v>
       </c>
@@ -35494,10 +35494,10 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="335" t="s">
+      <c r="B20" s="339" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="335"/>
+      <c r="C20" s="339"/>
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
@@ -35527,10 +35527,10 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="335" t="s">
+      <c r="B21" s="339" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="335"/>
+      <c r="C21" s="339"/>
       <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
@@ -35612,10 +35612,10 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="335" t="s">
+      <c r="B24" s="339" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="335"/>
+      <c r="C24" s="339"/>
       <c r="D24" s="9" t="s">
         <v>46</v>
       </c>
@@ -35682,10 +35682,10 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="335" t="s">
+      <c r="B26" s="339" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="335"/>
+      <c r="C26" s="339"/>
       <c r="D26" s="9" t="s">
         <v>54</v>
       </c>
@@ -35818,10 +35818,10 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="335" t="s">
+      <c r="B30" s="339" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="335"/>
+      <c r="C30" s="339"/>
       <c r="D30" s="9" t="s">
         <v>84</v>
       </c>
@@ -35853,8 +35853,8 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="341"/>
-      <c r="C31" s="341"/>
+      <c r="B31" s="340"/>
+      <c r="C31" s="340"/>
       <c r="D31" s="11"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
@@ -35864,14 +35864,14 @@
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="348" t="s">
+      <c r="B32" s="335" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="348"/>
-      <c r="D32" s="348"/>
-      <c r="E32" s="348"/>
-      <c r="F32" s="348"/>
-      <c r="G32" s="348"/>
+      <c r="C32" s="335"/>
+      <c r="D32" s="335"/>
+      <c r="E32" s="335"/>
+      <c r="F32" s="335"/>
+      <c r="G32" s="335"/>
       <c r="H32" s="66"/>
       <c r="J32" s="22"/>
       <c r="K32" s="23"/>
@@ -35879,10 +35879,10 @@
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="345" t="s">
+      <c r="B33" s="344" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="345"/>
+      <c r="C33" s="344"/>
       <c r="D33" s="7" t="s">
         <v>157</v>
       </c>
@@ -35900,10 +35900,10 @@
       <c r="M33" s="24"/>
     </row>
     <row r="34" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="346" t="s">
+      <c r="B34" s="345" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="347"/>
+      <c r="C34" s="346"/>
       <c r="D34" s="7" t="s">
         <v>166</v>
       </c>
@@ -35947,10 +35947,10 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="3.5">
-      <c r="B37" s="335" t="s">
+      <c r="B37" s="339" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="335"/>
+      <c r="C37" s="339"/>
       <c r="D37" s="38" t="s">
         <v>258</v>
       </c>
@@ -35961,22 +35961,22 @@
         <f>J9</f>
         <v>3.4760947255444699E-3</v>
       </c>
-      <c r="G37" s="329"/>
-      <c r="H37" s="330"/>
-      <c r="I37" s="338" t="s">
+      <c r="G37" s="327"/>
+      <c r="H37" s="329"/>
+      <c r="I37" s="349" t="s">
         <v>72</v>
       </c>
-      <c r="J37" s="339"/>
-      <c r="K37" s="339"/>
-      <c r="L37" s="339"/>
-      <c r="M37" s="339"/>
-      <c r="N37" s="340"/>
+      <c r="J37" s="350"/>
+      <c r="K37" s="350"/>
+      <c r="L37" s="350"/>
+      <c r="M37" s="350"/>
+      <c r="N37" s="351"/>
     </row>
     <row r="38" spans="2:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="337" t="s">
+      <c r="B38" s="341" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="337"/>
+      <c r="C38" s="341"/>
       <c r="D38" s="45" t="s">
         <v>135</v>
       </c>
@@ -35987,20 +35987,20 @@
         <f>ROUND(MIN(J16:J30),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G38" s="329"/>
-      <c r="H38" s="330"/>
-      <c r="I38" s="329"/>
-      <c r="J38" s="333"/>
-      <c r="K38" s="333"/>
-      <c r="L38" s="333"/>
-      <c r="M38" s="333"/>
-      <c r="N38" s="330"/>
+      <c r="G38" s="327"/>
+      <c r="H38" s="329"/>
+      <c r="I38" s="327"/>
+      <c r="J38" s="328"/>
+      <c r="K38" s="328"/>
+      <c r="L38" s="328"/>
+      <c r="M38" s="328"/>
+      <c r="N38" s="329"/>
     </row>
     <row r="39" spans="2:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="337" t="s">
+      <c r="B39" s="341" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="337"/>
+      <c r="C39" s="341"/>
       <c r="D39" s="45" t="s">
         <v>135</v>
       </c>
@@ -36011,20 +36011,20 @@
         <f>ROUND((F16/F13*(SIN(F21*PI()/180)+(F18/F14)*COS(F21*PI()/180)))/(1+0.058*(F16/F13)*(F14/F11)*COS(F21*PI()/180)),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G39" s="329"/>
-      <c r="H39" s="330"/>
-      <c r="I39" s="329"/>
-      <c r="J39" s="333"/>
-      <c r="K39" s="333"/>
-      <c r="L39" s="333"/>
-      <c r="M39" s="333"/>
-      <c r="N39" s="330"/>
+      <c r="G39" s="327"/>
+      <c r="H39" s="329"/>
+      <c r="I39" s="327"/>
+      <c r="J39" s="328"/>
+      <c r="K39" s="328"/>
+      <c r="L39" s="328"/>
+      <c r="M39" s="328"/>
+      <c r="N39" s="329"/>
     </row>
     <row r="40" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="337" t="s">
+      <c r="B40" s="341" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="337"/>
+      <c r="C40" s="341"/>
       <c r="D40" s="45" t="s">
         <v>259</v>
       </c>
@@ -36035,20 +36035,20 @@
         <f>(F18/F39)/60</f>
         <v>8.095617529880478</v>
       </c>
-      <c r="G40" s="329"/>
-      <c r="H40" s="330"/>
-      <c r="I40" s="329"/>
-      <c r="J40" s="333"/>
-      <c r="K40" s="333"/>
-      <c r="L40" s="333"/>
-      <c r="M40" s="333"/>
-      <c r="N40" s="330"/>
+      <c r="G40" s="327"/>
+      <c r="H40" s="329"/>
+      <c r="I40" s="327"/>
+      <c r="J40" s="328"/>
+      <c r="K40" s="328"/>
+      <c r="L40" s="328"/>
+      <c r="M40" s="328"/>
+      <c r="N40" s="329"/>
     </row>
     <row r="41" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="337" t="s">
+      <c r="B41" s="341" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="337"/>
+      <c r="C41" s="341"/>
       <c r="D41" s="45" t="s">
         <v>27</v>
       </c>
@@ -36059,20 +36059,20 @@
         <f>ROUND(F10/(F20*F14*F39),0)</f>
         <v>94</v>
       </c>
-      <c r="G41" s="329"/>
-      <c r="H41" s="330"/>
-      <c r="I41" s="329"/>
-      <c r="J41" s="333"/>
-      <c r="K41" s="333"/>
-      <c r="L41" s="333"/>
-      <c r="M41" s="333"/>
-      <c r="N41" s="330"/>
+      <c r="G41" s="327"/>
+      <c r="H41" s="329"/>
+      <c r="I41" s="327"/>
+      <c r="J41" s="328"/>
+      <c r="K41" s="328"/>
+      <c r="L41" s="328"/>
+      <c r="M41" s="328"/>
+      <c r="N41" s="329"/>
     </row>
     <row r="42" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="337" t="s">
+      <c r="B42" s="341" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="337"/>
+      <c r="C42" s="341"/>
       <c r="D42" s="45" t="s">
         <v>260</v>
       </c>
@@ -36083,23 +36083,23 @@
         <f>((F41*F14+(F41-1)*F19)/SIN(F21*PI()/180))</f>
         <v>5.8566411306595638</v>
       </c>
-      <c r="G42" s="329"/>
-      <c r="H42" s="330"/>
-      <c r="I42" s="349" t="s">
+      <c r="G42" s="327"/>
+      <c r="H42" s="329"/>
+      <c r="I42" s="336" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="350"/>
-      <c r="K42" s="350"/>
-      <c r="L42" s="350"/>
-      <c r="M42" s="350"/>
-      <c r="N42" s="351"/>
+      <c r="J42" s="337"/>
+      <c r="K42" s="337"/>
+      <c r="L42" s="337"/>
+      <c r="M42" s="337"/>
+      <c r="N42" s="338"/>
       <c r="O42" s="74"/>
     </row>
     <row r="43" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="337" t="s">
+      <c r="B43" s="341" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="337"/>
+      <c r="C43" s="341"/>
       <c r="D43" s="45" t="s">
         <v>261</v>
       </c>
@@ -36110,20 +36110,20 @@
         <f>F18*SIN(F21*PI()/180)</f>
         <v>1.0558581722939875</v>
       </c>
-      <c r="G43" s="329"/>
-      <c r="H43" s="330"/>
-      <c r="I43" s="329"/>
-      <c r="J43" s="333"/>
-      <c r="K43" s="333"/>
-      <c r="L43" s="333"/>
-      <c r="M43" s="333"/>
-      <c r="N43" s="330"/>
+      <c r="G43" s="327"/>
+      <c r="H43" s="329"/>
+      <c r="I43" s="327"/>
+      <c r="J43" s="328"/>
+      <c r="K43" s="328"/>
+      <c r="L43" s="328"/>
+      <c r="M43" s="328"/>
+      <c r="N43" s="329"/>
     </row>
     <row r="44" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="331" t="s">
+      <c r="B44" s="323" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="332"/>
+      <c r="C44" s="324"/>
       <c r="D44" s="56" t="s">
         <v>262</v>
       </c>
@@ -36134,20 +36134,20 @@
         <f>1.5*F24</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G44" s="329"/>
-      <c r="H44" s="330"/>
-      <c r="I44" s="329"/>
-      <c r="J44" s="333"/>
-      <c r="K44" s="333"/>
-      <c r="L44" s="333"/>
-      <c r="M44" s="333"/>
-      <c r="N44" s="330"/>
+      <c r="G44" s="327"/>
+      <c r="H44" s="329"/>
+      <c r="I44" s="327"/>
+      <c r="J44" s="328"/>
+      <c r="K44" s="328"/>
+      <c r="L44" s="328"/>
+      <c r="M44" s="328"/>
+      <c r="N44" s="329"/>
     </row>
     <row r="45" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="331" t="s">
+      <c r="B45" s="323" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="332"/>
+      <c r="C45" s="324"/>
       <c r="D45" s="56" t="s">
         <v>263</v>
       </c>
@@ -36168,10 +36168,10 @@
       <c r="N45" s="93"/>
     </row>
     <row r="46" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="331" t="s">
+      <c r="B46" s="323" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="332"/>
+      <c r="C46" s="324"/>
       <c r="D46" s="56" t="s">
         <v>262</v>
       </c>
@@ -36192,10 +36192,10 @@
       <c r="N46" s="93"/>
     </row>
     <row r="47" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="337" t="s">
+      <c r="B47" s="341" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="337"/>
+      <c r="C47" s="341"/>
       <c r="D47" s="56" t="s">
         <v>264</v>
       </c>
@@ -36206,24 +36206,24 @@
         <f>F25+F43+F24</f>
         <v>2.2558581722939874</v>
       </c>
-      <c r="G47" s="329"/>
-      <c r="H47" s="330"/>
-      <c r="I47" s="329"/>
-      <c r="J47" s="333"/>
-      <c r="K47" s="333"/>
-      <c r="L47" s="333"/>
-      <c r="M47" s="333"/>
-      <c r="N47" s="330"/>
+      <c r="G47" s="327"/>
+      <c r="H47" s="329"/>
+      <c r="I47" s="327"/>
+      <c r="J47" s="328"/>
+      <c r="K47" s="328"/>
+      <c r="L47" s="328"/>
+      <c r="M47" s="328"/>
+      <c r="N47" s="329"/>
       <c r="Q47" s="12">
         <f>6*0.0254</f>
         <v>0.15239999999999998</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="331" t="s">
+      <c r="B48" s="323" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="332"/>
+      <c r="C48" s="324"/>
       <c r="D48" s="56" t="s">
         <v>265</v>
       </c>
@@ -36234,26 +36234,26 @@
         <f>F47*F42*F20-(F41-1)*F18*F20*F19</f>
         <v>15.554808847800167</v>
       </c>
-      <c r="G48" s="329"/>
-      <c r="H48" s="330"/>
-      <c r="I48" s="349" t="s">
+      <c r="G48" s="327"/>
+      <c r="H48" s="329"/>
+      <c r="I48" s="336" t="s">
         <v>130</v>
       </c>
-      <c r="J48" s="350"/>
-      <c r="K48" s="350"/>
-      <c r="L48" s="350"/>
-      <c r="M48" s="350"/>
-      <c r="N48" s="351"/>
+      <c r="J48" s="337"/>
+      <c r="K48" s="337"/>
+      <c r="L48" s="337"/>
+      <c r="M48" s="337"/>
+      <c r="N48" s="338"/>
       <c r="Q48" s="75">
         <f>Q47/2</f>
         <v>7.619999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="337" t="s">
+      <c r="B49" s="341" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="337"/>
+      <c r="C49" s="341"/>
       <c r="D49" s="56" t="s">
         <v>266</v>
       </c>
@@ -36264,24 +36264,24 @@
         <f>(F48/F10)/60</f>
         <v>18.110151179182871</v>
       </c>
-      <c r="G49" s="329"/>
-      <c r="H49" s="330"/>
-      <c r="I49" s="329"/>
-      <c r="J49" s="333"/>
-      <c r="K49" s="333"/>
-      <c r="L49" s="333"/>
-      <c r="M49" s="333"/>
-      <c r="N49" s="330"/>
+      <c r="G49" s="327"/>
+      <c r="H49" s="329"/>
+      <c r="I49" s="327"/>
+      <c r="J49" s="328"/>
+      <c r="K49" s="328"/>
+      <c r="L49" s="328"/>
+      <c r="M49" s="328"/>
+      <c r="N49" s="329"/>
       <c r="Q49" s="12">
         <f>Q48/3</f>
         <v>2.5399999999999995E-2</v>
       </c>
     </row>
     <row r="50" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="331" t="s">
+      <c r="B50" s="323" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="332"/>
+      <c r="C50" s="324"/>
       <c r="D50" s="56" t="s">
         <v>91</v>
       </c>
@@ -36292,14 +36292,14 @@
         <f>F10*86400/(F42*F20)</f>
         <v>173.21341640466753</v>
       </c>
-      <c r="G50" s="329"/>
-      <c r="H50" s="330"/>
-      <c r="I50" s="329"/>
-      <c r="J50" s="333"/>
-      <c r="K50" s="333"/>
-      <c r="L50" s="333"/>
-      <c r="M50" s="333"/>
-      <c r="N50" s="330"/>
+      <c r="G50" s="327"/>
+      <c r="H50" s="329"/>
+      <c r="I50" s="327"/>
+      <c r="J50" s="328"/>
+      <c r="K50" s="328"/>
+      <c r="L50" s="328"/>
+      <c r="M50" s="328"/>
+      <c r="N50" s="329"/>
       <c r="Q50" s="12">
         <f>Q49/2</f>
         <v>1.2699999999999998E-2</v>
@@ -36310,10 +36310,10 @@
       </c>
     </row>
     <row r="51" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="337" t="s">
+      <c r="B51" s="341" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="337"/>
+      <c r="C51" s="341"/>
       <c r="D51" s="56" t="s">
         <v>73</v>
       </c>
@@ -36322,20 +36322,20 @@
         <f>"1: "&amp;ROUND(F42/F20,1)</f>
         <v>1: 4,8</v>
       </c>
-      <c r="G51" s="329"/>
-      <c r="H51" s="330"/>
-      <c r="I51" s="329"/>
-      <c r="J51" s="333"/>
-      <c r="K51" s="333"/>
-      <c r="L51" s="333"/>
-      <c r="M51" s="333"/>
-      <c r="N51" s="330"/>
+      <c r="G51" s="327"/>
+      <c r="H51" s="329"/>
+      <c r="I51" s="327"/>
+      <c r="J51" s="328"/>
+      <c r="K51" s="328"/>
+      <c r="L51" s="328"/>
+      <c r="M51" s="328"/>
+      <c r="N51" s="329"/>
     </row>
     <row r="52" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="331" t="s">
+      <c r="B52" s="323" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="332"/>
+      <c r="C52" s="324"/>
       <c r="D52" s="56" t="s">
         <v>267</v>
       </c>
@@ -36346,20 +36346,20 @@
         <f>((F20-F30)/2)*TAN(F29*PI()/180)</f>
         <v>0.79919162457288717</v>
       </c>
-      <c r="G52" s="329"/>
-      <c r="H52" s="330"/>
-      <c r="I52" s="329"/>
-      <c r="J52" s="333"/>
-      <c r="K52" s="333"/>
-      <c r="L52" s="333"/>
-      <c r="M52" s="333"/>
-      <c r="N52" s="330"/>
+      <c r="G52" s="327"/>
+      <c r="H52" s="329"/>
+      <c r="I52" s="327"/>
+      <c r="J52" s="328"/>
+      <c r="K52" s="328"/>
+      <c r="L52" s="328"/>
+      <c r="M52" s="328"/>
+      <c r="N52" s="329"/>
     </row>
     <row r="53" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="331" t="s">
+      <c r="B53" s="323" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="332"/>
+      <c r="C53" s="324"/>
       <c r="D53" s="56" t="s">
         <v>268</v>
       </c>
@@ -36370,20 +36370,20 @@
         <f>2*F28+F42</f>
         <v>6.4566411306595635</v>
       </c>
-      <c r="G53" s="329"/>
-      <c r="H53" s="330"/>
-      <c r="I53" s="329"/>
-      <c r="J53" s="333"/>
-      <c r="K53" s="333"/>
-      <c r="L53" s="333"/>
-      <c r="M53" s="333"/>
-      <c r="N53" s="330"/>
+      <c r="G53" s="327"/>
+      <c r="H53" s="329"/>
+      <c r="I53" s="327"/>
+      <c r="J53" s="328"/>
+      <c r="K53" s="328"/>
+      <c r="L53" s="328"/>
+      <c r="M53" s="328"/>
+      <c r="N53" s="329"/>
     </row>
     <row r="54" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="331" t="s">
+      <c r="B54" s="323" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="332"/>
+      <c r="C54" s="324"/>
       <c r="D54" s="56" t="s">
         <v>269</v>
       </c>
@@ -36394,20 +36394,20 @@
         <f>(2*F28+F20)*F9+(F9-1)*F27</f>
         <v>7.8767999999999994</v>
       </c>
-      <c r="G54" s="329"/>
-      <c r="H54" s="330"/>
-      <c r="I54" s="329"/>
-      <c r="J54" s="333"/>
-      <c r="K54" s="333"/>
-      <c r="L54" s="333"/>
-      <c r="M54" s="333"/>
-      <c r="N54" s="330"/>
+      <c r="G54" s="327"/>
+      <c r="H54" s="329"/>
+      <c r="I54" s="327"/>
+      <c r="J54" s="328"/>
+      <c r="K54" s="328"/>
+      <c r="L54" s="328"/>
+      <c r="M54" s="328"/>
+      <c r="N54" s="329"/>
     </row>
     <row r="55" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="337" t="s">
+      <c r="B55" s="341" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="337"/>
+      <c r="C55" s="341"/>
       <c r="D55" s="56" t="s">
         <v>270</v>
       </c>
@@ -36418,14 +36418,14 @@
         <f>F28+F52+F25+F43+F24+F26</f>
         <v>3.6550497968668743</v>
       </c>
-      <c r="G55" s="329"/>
-      <c r="H55" s="330"/>
-      <c r="I55" s="329"/>
-      <c r="J55" s="333"/>
-      <c r="K55" s="333"/>
-      <c r="L55" s="333"/>
-      <c r="M55" s="333"/>
-      <c r="N55" s="330"/>
+      <c r="G55" s="327"/>
+      <c r="H55" s="329"/>
+      <c r="I55" s="327"/>
+      <c r="J55" s="328"/>
+      <c r="K55" s="328"/>
+      <c r="L55" s="328"/>
+      <c r="M55" s="328"/>
+      <c r="N55" s="329"/>
     </row>
     <row r="56" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="80"/>
@@ -36460,10 +36460,10 @@
       <c r="N57" s="83"/>
     </row>
     <row r="58" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="331" t="s">
+      <c r="B58" s="323" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="332"/>
+      <c r="C58" s="324"/>
       <c r="D58" s="56" t="s">
         <v>271</v>
       </c>
@@ -36474,20 +36474,20 @@
         <f>F42+F28</f>
         <v>6.1566411306595636</v>
       </c>
-      <c r="G58" s="329"/>
-      <c r="H58" s="330"/>
-      <c r="I58" s="329"/>
-      <c r="J58" s="333"/>
-      <c r="K58" s="333"/>
-      <c r="L58" s="333"/>
-      <c r="M58" s="333"/>
-      <c r="N58" s="330"/>
+      <c r="G58" s="327"/>
+      <c r="H58" s="329"/>
+      <c r="I58" s="327"/>
+      <c r="J58" s="328"/>
+      <c r="K58" s="328"/>
+      <c r="L58" s="328"/>
+      <c r="M58" s="328"/>
+      <c r="N58" s="329"/>
     </row>
     <row r="59" spans="2:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="331" t="s">
+      <c r="B59" s="323" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="332"/>
+      <c r="C59" s="324"/>
       <c r="D59" s="56" t="s">
         <v>272</v>
       </c>
@@ -36497,20 +36497,20 @@
       <c r="F59" s="95">
         <v>8</v>
       </c>
-      <c r="G59" s="329"/>
-      <c r="H59" s="330"/>
-      <c r="I59" s="329"/>
-      <c r="J59" s="333"/>
-      <c r="K59" s="333"/>
-      <c r="L59" s="333"/>
-      <c r="M59" s="333"/>
-      <c r="N59" s="330"/>
+      <c r="G59" s="327"/>
+      <c r="H59" s="329"/>
+      <c r="I59" s="327"/>
+      <c r="J59" s="328"/>
+      <c r="K59" s="328"/>
+      <c r="L59" s="328"/>
+      <c r="M59" s="328"/>
+      <c r="N59" s="329"/>
     </row>
     <row r="60" spans="2:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="331" t="s">
+      <c r="B60" s="323" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="332"/>
+      <c r="C60" s="324"/>
       <c r="D60" s="56" t="s">
         <v>273</v>
       </c>
@@ -36521,8 +36521,8 @@
         <f>IF(F59=4,0.10342,IF(F59=6,0.15222,IF(F59=8,0.20942)))</f>
         <v>0.20942</v>
       </c>
-      <c r="G60" s="329"/>
-      <c r="H60" s="330"/>
+      <c r="G60" s="327"/>
+      <c r="H60" s="329"/>
       <c r="I60" s="67"/>
       <c r="J60" s="68"/>
       <c r="K60" s="68"/>
@@ -36531,10 +36531,10 @@
       <c r="N60" s="69"/>
     </row>
     <row r="61" spans="2:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="326" t="s">
+      <c r="B61" s="330" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="326"/>
+      <c r="C61" s="330"/>
       <c r="D61" s="176" t="s">
         <v>274</v>
       </c>
@@ -36545,20 +36545,20 @@
         <f>F60*SQRT(0.4/F33)</f>
         <v>4.1884000000000005E-2</v>
       </c>
-      <c r="G61" s="329"/>
-      <c r="H61" s="330"/>
-      <c r="I61" s="355"/>
-      <c r="J61" s="356"/>
-      <c r="K61" s="356"/>
-      <c r="L61" s="356"/>
-      <c r="M61" s="356"/>
-      <c r="N61" s="357"/>
+      <c r="G61" s="327"/>
+      <c r="H61" s="329"/>
+      <c r="I61" s="331"/>
+      <c r="J61" s="332"/>
+      <c r="K61" s="332"/>
+      <c r="L61" s="332"/>
+      <c r="M61" s="332"/>
+      <c r="N61" s="333"/>
     </row>
     <row r="62" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="326" t="s">
+      <c r="B62" s="330" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="326"/>
+      <c r="C62" s="330"/>
       <c r="D62" s="176" t="s">
         <v>275</v>
       </c>
@@ -36569,8 +36569,8 @@
         <f>IF(AND(F61&gt;0.02363,F61&lt;0.0302),1,IF(AND(F61&gt;0.0302,F61&lt;0.03814),1.25,IF(AND(F61&gt;0.03814,F61&lt;0.04368),1.5,IF(AND(F61&gt;0.04368,F61&lt;0.05458),2,IF(AND(F61&gt;0.05458,F61&lt;0.06607),2.5,IF(AND(F61&gt;0.06607,F61&lt;0.08042),3,IF(AND(F61&gt;0.08042,F61&lt;0.10342),4)))))))</f>
         <v>1.5</v>
       </c>
-      <c r="G62" s="353"/>
-      <c r="H62" s="354"/>
+      <c r="G62" s="325"/>
+      <c r="H62" s="326"/>
       <c r="I62" s="76"/>
       <c r="J62" s="77"/>
       <c r="K62" s="77"/>
@@ -36579,10 +36579,10 @@
       <c r="N62" s="78"/>
     </row>
     <row r="63" spans="2:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="326" t="s">
+      <c r="B63" s="330" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="326"/>
+      <c r="C63" s="330"/>
       <c r="D63" s="176" t="s">
         <v>274</v>
       </c>
@@ -36593,8 +36593,8 @@
         <f>IF(F62=1,0.0302,IF(F62=1.25,0.03814,IF(F62=1.5,0.04368,IF(F62=2,0.05458,IF(F62=2.5,0.06607,IF(F62=3,0.08042,IF(F62=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G63" s="329"/>
-      <c r="H63" s="330"/>
+      <c r="G63" s="327"/>
+      <c r="H63" s="329"/>
       <c r="I63" s="98"/>
       <c r="J63" s="77"/>
       <c r="K63" s="77"/>
@@ -36603,30 +36603,30 @@
       <c r="N63" s="78"/>
     </row>
     <row r="64" spans="2:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="327" t="s">
+      <c r="B64" s="347" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="328"/>
+      <c r="C64" s="348"/>
       <c r="D64" s="56"/>
       <c r="E64" s="46"/>
       <c r="F64" s="89">
         <f>(F63/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G64" s="329"/>
-      <c r="H64" s="330"/>
-      <c r="I64" s="329"/>
-      <c r="J64" s="333"/>
-      <c r="K64" s="333"/>
-      <c r="L64" s="333"/>
-      <c r="M64" s="333"/>
-      <c r="N64" s="330"/>
+      <c r="G64" s="327"/>
+      <c r="H64" s="329"/>
+      <c r="I64" s="327"/>
+      <c r="J64" s="328"/>
+      <c r="K64" s="328"/>
+      <c r="L64" s="328"/>
+      <c r="M64" s="328"/>
+      <c r="N64" s="329"/>
     </row>
     <row r="65" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="326" t="s">
+      <c r="B65" s="330" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="326"/>
+      <c r="C65" s="330"/>
       <c r="D65" s="176" t="s">
         <v>275</v>
       </c>
@@ -36647,10 +36647,10 @@
       <c r="N65" s="93"/>
     </row>
     <row r="66" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="326" t="s">
+      <c r="B66" s="330" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="326"/>
+      <c r="C66" s="330"/>
       <c r="D66" s="176" t="s">
         <v>274</v>
       </c>
@@ -36659,8 +36659,8 @@
         <f>IF(F65=1,0.0302,IF(F65=1.25,0.03814,IF(F65=1.5,0.04368,IF(F65=2,0.05458,IF(F65=2.5,0.06607,IF(F65=3,0.08042,IF(F65=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G66" s="329"/>
-      <c r="H66" s="330"/>
+      <c r="G66" s="327"/>
+      <c r="H66" s="329"/>
       <c r="I66" s="92"/>
       <c r="J66" s="94"/>
       <c r="K66" s="94"/>
@@ -36669,18 +36669,18 @@
       <c r="N66" s="93"/>
     </row>
     <row r="67" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="327" t="s">
+      <c r="B67" s="347" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="328"/>
+      <c r="C67" s="348"/>
       <c r="D67" s="56"/>
       <c r="E67" s="46"/>
       <c r="F67" s="89">
         <f>(F66/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G67" s="329"/>
-      <c r="H67" s="330"/>
+      <c r="G67" s="327"/>
+      <c r="H67" s="329"/>
       <c r="I67" s="92"/>
       <c r="J67" s="101"/>
       <c r="K67" s="94"/>
@@ -36689,10 +36689,10 @@
       <c r="N67" s="93"/>
     </row>
     <row r="68" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="331" t="s">
+      <c r="B68" s="323" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="332"/>
+      <c r="C68" s="324"/>
       <c r="D68" s="56" t="s">
         <v>276</v>
       </c>
@@ -36703,8 +36703,8 @@
         <f>F52+F25+F43+F24</f>
         <v>3.0550497968668746</v>
       </c>
-      <c r="G68" s="329"/>
-      <c r="H68" s="330"/>
+      <c r="G68" s="327"/>
+      <c r="H68" s="329"/>
       <c r="I68" s="76"/>
       <c r="J68" s="77"/>
       <c r="K68" s="77"/>
@@ -36713,10 +36713,10 @@
       <c r="N68" s="78"/>
     </row>
     <row r="69" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="331" t="s">
+      <c r="B69" s="323" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="332"/>
+      <c r="C69" s="324"/>
       <c r="D69" s="56" t="s">
         <v>277</v>
       </c>
@@ -36725,8 +36725,8 @@
         <f>F58/F33</f>
         <v>0.61566411306595636</v>
       </c>
-      <c r="G69" s="353"/>
-      <c r="H69" s="354"/>
+      <c r="G69" s="325"/>
+      <c r="H69" s="326"/>
       <c r="I69" s="76"/>
       <c r="J69" s="77"/>
       <c r="K69" s="77"/>
@@ -36735,10 +36735,10 @@
       <c r="N69" s="78"/>
     </row>
     <row r="70" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="327" t="s">
+      <c r="B70" s="347" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="328"/>
+      <c r="C70" s="348"/>
       <c r="D70" s="56" t="s">
         <v>278</v>
       </c>
@@ -36759,10 +36759,10 @@
       <c r="N70" s="78"/>
     </row>
     <row r="71" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="327" t="s">
+      <c r="B71" s="347" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="328"/>
+      <c r="C71" s="348"/>
       <c r="D71" s="56" t="s">
         <v>278</v>
       </c>
@@ -36771,30 +36771,30 @@
         <f>F42/F33</f>
         <v>0.58566411306595634</v>
       </c>
-      <c r="G71" s="329"/>
-      <c r="H71" s="330"/>
-      <c r="I71" s="322" t="s">
+      <c r="G71" s="327"/>
+      <c r="H71" s="329"/>
+      <c r="I71" s="354" t="s">
         <v>171</v>
       </c>
-      <c r="J71" s="323"/>
-      <c r="K71" s="323"/>
-      <c r="L71" s="323"/>
-      <c r="M71" s="323"/>
-      <c r="N71" s="324"/>
+      <c r="J71" s="355"/>
+      <c r="K71" s="355"/>
+      <c r="L71" s="355"/>
+      <c r="M71" s="355"/>
+      <c r="N71" s="356"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="341"/>
-      <c r="C72" s="341"/>
+      <c r="B72" s="340"/>
+      <c r="C72" s="340"/>
       <c r="J72" s="22"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="24"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="348" t="s">
+      <c r="B73" s="335" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="348"/>
+      <c r="C73" s="335"/>
       <c r="J73" s="22"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
@@ -36810,13 +36810,13 @@
       <c r="B75" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="352" t="s">
+      <c r="C75" s="322" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="352"/>
-      <c r="E75" s="352"/>
-      <c r="F75" s="352"/>
-      <c r="G75" s="352"/>
+      <c r="D75" s="322"/>
+      <c r="E75" s="322"/>
+      <c r="F75" s="322"/>
+      <c r="G75" s="322"/>
       <c r="H75" s="65"/>
       <c r="I75" s="96"/>
       <c r="J75" s="22"/>
@@ -36828,13 +36828,13 @@
       <c r="B76" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="352" t="s">
+      <c r="C76" s="322" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="352"/>
-      <c r="E76" s="352"/>
-      <c r="F76" s="352"/>
-      <c r="G76" s="352"/>
+      <c r="D76" s="322"/>
+      <c r="E76" s="322"/>
+      <c r="F76" s="322"/>
+      <c r="G76" s="322"/>
       <c r="H76" s="65"/>
       <c r="J76" s="97"/>
       <c r="K76" s="23"/>
@@ -36845,13 +36845,13 @@
       <c r="B77" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="344" t="s">
+      <c r="C77" s="334" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="344"/>
-      <c r="E77" s="344"/>
-      <c r="F77" s="344"/>
-      <c r="G77" s="344"/>
+      <c r="D77" s="334"/>
+      <c r="E77" s="334"/>
+      <c r="F77" s="334"/>
+      <c r="G77" s="334"/>
       <c r="H77" s="64"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23"/>
@@ -36862,13 +36862,13 @@
       <c r="B78" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="352" t="s">
+      <c r="C78" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="352"/>
-      <c r="E78" s="352"/>
-      <c r="F78" s="352"/>
-      <c r="G78" s="352"/>
+      <c r="D78" s="322"/>
+      <c r="E78" s="322"/>
+      <c r="F78" s="322"/>
+      <c r="G78" s="322"/>
       <c r="H78" s="65"/>
       <c r="J78" s="22"/>
       <c r="K78" s="23"/>
@@ -36879,16 +36879,16 @@
       <c r="B79" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="352" t="s">
+      <c r="C79" s="322" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="352"/>
-      <c r="E79" s="352"/>
-      <c r="F79" s="352"/>
-      <c r="G79" s="352"/>
+      <c r="D79" s="322"/>
+      <c r="E79" s="322"/>
+      <c r="F79" s="322"/>
+      <c r="G79" s="322"/>
       <c r="H79" s="65"/>
-      <c r="J79" s="325"/>
-      <c r="K79" s="325"/>
+      <c r="J79" s="357"/>
+      <c r="K79" s="357"/>
       <c r="L79" s="23"/>
       <c r="M79" s="24"/>
     </row>
@@ -36896,13 +36896,13 @@
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="344" t="s">
+      <c r="C80" s="334" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="344"/>
-      <c r="E80" s="344"/>
-      <c r="F80" s="344"/>
-      <c r="G80" s="344"/>
+      <c r="D80" s="334"/>
+      <c r="E80" s="334"/>
+      <c r="F80" s="334"/>
+      <c r="G80" s="334"/>
       <c r="H80" s="64"/>
       <c r="J80" s="22"/>
       <c r="K80" s="23"/>
@@ -36913,13 +36913,13 @@
       <c r="B81" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="344" t="s">
+      <c r="C81" s="334" t="s">
         <v>78</v>
       </c>
-      <c r="D81" s="344"/>
-      <c r="E81" s="344"/>
-      <c r="F81" s="344"/>
-      <c r="G81" s="344"/>
+      <c r="D81" s="334"/>
+      <c r="E81" s="334"/>
+      <c r="F81" s="334"/>
+      <c r="G81" s="334"/>
       <c r="H81" s="64"/>
       <c r="J81" s="22"/>
       <c r="K81" s="23"/>
@@ -36930,13 +36930,13 @@
       <c r="B82" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="352" t="s">
+      <c r="C82" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="352"/>
-      <c r="E82" s="352"/>
-      <c r="F82" s="352"/>
-      <c r="G82" s="352"/>
+      <c r="D82" s="322"/>
+      <c r="E82" s="322"/>
+      <c r="F82" s="322"/>
+      <c r="G82" s="322"/>
       <c r="H82" s="65"/>
       <c r="J82" s="22"/>
       <c r="K82" s="23"/>
@@ -36947,13 +36947,13 @@
       <c r="B83" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="352" t="s">
+      <c r="C83" s="322" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="352"/>
-      <c r="E83" s="352"/>
-      <c r="F83" s="352"/>
-      <c r="G83" s="352"/>
+      <c r="D83" s="322"/>
+      <c r="E83" s="322"/>
+      <c r="F83" s="322"/>
+      <c r="G83" s="322"/>
       <c r="H83" s="79"/>
       <c r="J83" s="22"/>
       <c r="K83" s="23"/>
@@ -38375,6 +38375,105 @@
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="I71:N71"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I59:N59"/>
+    <mergeCell ref="I64:N64"/>
+    <mergeCell ref="I54:N54"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="G69:H69"/>
@@ -38399,105 +38498,6 @@
     <mergeCell ref="C76:G76"/>
     <mergeCell ref="C77:G77"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I71:N71"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I59:N59"/>
-    <mergeCell ref="I64:N64"/>
-    <mergeCell ref="I54:N54"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="G68:H68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38550,13 +38550,13 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="362" t="s">
+      <c r="B7" s="359" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="362"/>
-      <c r="D7" s="362"/>
-      <c r="E7" s="362"/>
-      <c r="F7" s="362"/>
+      <c r="C7" s="359"/>
+      <c r="D7" s="359"/>
+      <c r="E7" s="359"/>
+      <c r="F7" s="359"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
@@ -38763,10 +38763,10 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="360" t="s">
+      <c r="B24" s="361" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="361"/>
+      <c r="C24" s="362"/>
       <c r="D24" s="28" t="s">
         <v>61</v>
       </c>
@@ -38795,22 +38795,22 @@
       <c r="C27" s="41"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="359" t="s">
+      <c r="B28" s="358" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="359"/>
-      <c r="D28" s="359"/>
-      <c r="E28" s="359"/>
-      <c r="F28" s="359"/>
-      <c r="G28" s="359"/>
+      <c r="C28" s="358"/>
+      <c r="D28" s="358"/>
+      <c r="E28" s="358"/>
+      <c r="F28" s="358"/>
+      <c r="G28" s="358"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="359"/>
-      <c r="C29" s="359"/>
-      <c r="D29" s="359"/>
-      <c r="E29" s="359"/>
-      <c r="F29" s="359"/>
-      <c r="G29" s="359"/>
+      <c r="B29" s="358"/>
+      <c r="C29" s="358"/>
+      <c r="D29" s="358"/>
+      <c r="E29" s="358"/>
+      <c r="F29" s="358"/>
+      <c r="G29" s="358"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="53"/>
@@ -38821,10 +38821,10 @@
       <c r="G30" s="53"/>
     </row>
     <row r="31" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="331" t="s">
+      <c r="B31" s="323" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="332"/>
+      <c r="C31" s="324"/>
       <c r="D31" s="51" t="s">
         <v>137</v>
       </c>
@@ -38838,10 +38838,10 @@
       <c r="G31" s="53"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="331" t="s">
+      <c r="B32" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="332"/>
+      <c r="C32" s="324"/>
       <c r="D32" s="51" t="s">
         <v>14</v>
       </c>
@@ -38881,10 +38881,10 @@
       <c r="G35" s="53"/>
     </row>
     <row r="36" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="331" t="s">
+      <c r="B36" s="323" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="332"/>
+      <c r="C36" s="324"/>
       <c r="D36" s="55" t="s">
         <v>91</v>
       </c>
@@ -38906,14 +38906,14 @@
       <c r="G37" s="53"/>
     </row>
     <row r="38" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="359" t="s">
+      <c r="B38" s="358" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="359"/>
-      <c r="D38" s="359"/>
-      <c r="E38" s="359"/>
-      <c r="F38" s="359"/>
-      <c r="G38" s="359"/>
+      <c r="C38" s="358"/>
+      <c r="D38" s="358"/>
+      <c r="E38" s="358"/>
+      <c r="F38" s="358"/>
+      <c r="G38" s="358"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="53"/>
@@ -38924,10 +38924,10 @@
       <c r="G39" s="53"/>
     </row>
     <row r="40" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="331" t="s">
+      <c r="B40" s="323" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="332"/>
+      <c r="C40" s="324"/>
       <c r="D40" s="51" t="s">
         <v>131</v>
       </c>
@@ -38941,10 +38941,10 @@
       <c r="G40" s="49"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="331" t="s">
+      <c r="B41" s="323" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="332"/>
+      <c r="C41" s="324"/>
       <c r="D41" s="48" t="s">
         <v>144</v>
       </c>
@@ -38959,10 +38959,10 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="331" t="s">
+      <c r="B42" s="323" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="332"/>
+      <c r="C42" s="324"/>
       <c r="D42" s="45" t="s">
         <v>135</v>
       </c>
@@ -39002,10 +39002,10 @@
       <c r="G45" s="53"/>
     </row>
     <row r="46" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="331" t="s">
+      <c r="B46" s="323" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="332"/>
+      <c r="C46" s="324"/>
       <c r="D46" s="51" t="s">
         <v>88</v>
       </c>
@@ -39017,10 +39017,10 @@
       <c r="G46" s="49"/>
     </row>
     <row r="47" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="331" t="s">
+      <c r="B47" s="323" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="332"/>
+      <c r="C47" s="324"/>
       <c r="D47" s="51" t="s">
         <v>101</v>
       </c>
@@ -39032,10 +39032,10 @@
       <c r="G47" s="49"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="331" t="s">
+      <c r="B48" s="323" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="332"/>
+      <c r="C48" s="324"/>
       <c r="D48" s="51" t="s">
         <v>145</v>
       </c>
@@ -39073,10 +39073,10 @@
       <c r="G51" s="53"/>
     </row>
     <row r="52" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="331" t="s">
+      <c r="B52" s="323" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="332"/>
+      <c r="C52" s="324"/>
       <c r="D52" s="51" t="s">
         <v>146</v>
       </c>
@@ -39134,10 +39134,10 @@
       <c r="G57" s="53"/>
     </row>
     <row r="58" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="331" t="s">
+      <c r="B58" s="323" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="332"/>
+      <c r="C58" s="324"/>
       <c r="D58" s="56" t="s">
         <v>1</v>
       </c>
@@ -39175,10 +39175,10 @@
       <c r="G61" s="53"/>
     </row>
     <row r="62" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="331" t="s">
+      <c r="B62" s="323" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="332"/>
+      <c r="C62" s="324"/>
       <c r="D62" s="48" t="s">
         <v>136</v>
       </c>
@@ -39200,14 +39200,14 @@
       <c r="G63" s="53"/>
     </row>
     <row r="64" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="359" t="s">
+      <c r="B64" s="358" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="359"/>
-      <c r="D64" s="359"/>
-      <c r="E64" s="359"/>
-      <c r="F64" s="359"/>
-      <c r="G64" s="359"/>
+      <c r="C64" s="358"/>
+      <c r="D64" s="358"/>
+      <c r="E64" s="358"/>
+      <c r="F64" s="358"/>
+      <c r="G64" s="358"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="53"/>
@@ -39218,10 +39218,10 @@
       <c r="G65" s="53"/>
     </row>
     <row r="66" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="331" t="s">
+      <c r="B66" s="323" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="332"/>
+      <c r="C66" s="324"/>
       <c r="D66" s="51" t="s">
         <v>27</v>
       </c>
@@ -39261,10 +39261,10 @@
       <c r="G69" s="53"/>
     </row>
     <row r="70" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="331" t="s">
+      <c r="B70" s="323" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="332"/>
+      <c r="C70" s="324"/>
       <c r="D70" s="48" t="s">
         <v>138</v>
       </c>
@@ -39278,10 +39278,10 @@
       <c r="G70" s="49"/>
     </row>
     <row r="71" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="331" t="s">
+      <c r="B71" s="323" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="332"/>
+      <c r="C71" s="324"/>
       <c r="D71" s="51" t="s">
         <v>139</v>
       </c>
@@ -39295,10 +39295,10 @@
       <c r="G71" s="49"/>
     </row>
     <row r="72" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="331" t="s">
+      <c r="B72" s="323" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="332"/>
+      <c r="C72" s="324"/>
       <c r="D72" s="51" t="s">
         <v>140</v>
       </c>
@@ -39312,10 +39312,10 @@
       <c r="G72" s="49"/>
     </row>
     <row r="73" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="331" t="s">
+      <c r="B73" s="323" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="332"/>
+      <c r="C73" s="324"/>
       <c r="D73" s="51" t="s">
         <v>142</v>
       </c>
@@ -39335,46 +39335,46 @@
       <c r="C75" s="41"/>
     </row>
     <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="358" t="s">
+      <c r="B76" s="360" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="358"/>
-      <c r="D76" s="358"/>
-      <c r="E76" s="358"/>
-      <c r="F76" s="358"/>
-      <c r="G76" s="358"/>
+      <c r="C76" s="360"/>
+      <c r="D76" s="360"/>
+      <c r="E76" s="360"/>
+      <c r="F76" s="360"/>
+      <c r="G76" s="360"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="358"/>
-      <c r="C77" s="358"/>
-      <c r="D77" s="358"/>
-      <c r="E77" s="358"/>
-      <c r="F77" s="358"/>
-      <c r="G77" s="358"/>
+      <c r="B77" s="360"/>
+      <c r="C77" s="360"/>
+      <c r="D77" s="360"/>
+      <c r="E77" s="360"/>
+      <c r="F77" s="360"/>
+      <c r="G77" s="360"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="358"/>
-      <c r="C78" s="358"/>
-      <c r="D78" s="358"/>
-      <c r="E78" s="358"/>
-      <c r="F78" s="358"/>
-      <c r="G78" s="358"/>
+      <c r="B78" s="360"/>
+      <c r="C78" s="360"/>
+      <c r="D78" s="360"/>
+      <c r="E78" s="360"/>
+      <c r="F78" s="360"/>
+      <c r="G78" s="360"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="358"/>
-      <c r="C79" s="358"/>
-      <c r="D79" s="358"/>
-      <c r="E79" s="358"/>
-      <c r="F79" s="358"/>
-      <c r="G79" s="358"/>
+      <c r="B79" s="360"/>
+      <c r="C79" s="360"/>
+      <c r="D79" s="360"/>
+      <c r="E79" s="360"/>
+      <c r="F79" s="360"/>
+      <c r="G79" s="360"/>
     </row>
     <row r="80" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="358"/>
-      <c r="C80" s="358"/>
-      <c r="D80" s="358"/>
-      <c r="E80" s="358"/>
-      <c r="F80" s="358"/>
-      <c r="G80" s="358"/>
+      <c r="B80" s="360"/>
+      <c r="C80" s="360"/>
+      <c r="D80" s="360"/>
+      <c r="E80" s="360"/>
+      <c r="F80" s="360"/>
+      <c r="G80" s="360"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="42"/>
@@ -39412,25 +39412,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B76:G80"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B17:C17"/>
@@ -39447,6 +39428,25 @@
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B70:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39458,8 +39458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AO249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76:J80"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39509,11 +39509,11 @@
     </row>
     <row r="2" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="405"/>
-      <c r="C2" s="405"/>
-      <c r="D2" s="405"/>
-      <c r="E2" s="405"/>
-      <c r="F2" s="405"/>
+      <c r="B2" s="498"/>
+      <c r="C2" s="498"/>
+      <c r="D2" s="498"/>
+      <c r="E2" s="498"/>
+      <c r="F2" s="498"/>
       <c r="G2" s="254" t="s">
         <v>119</v>
       </c>
@@ -39526,11 +39526,11 @@
     </row>
     <row r="3" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="405"/>
-      <c r="C3" s="405"/>
-      <c r="D3" s="405"/>
-      <c r="E3" s="405"/>
-      <c r="F3" s="405"/>
+      <c r="B3" s="498"/>
+      <c r="C3" s="498"/>
+      <c r="D3" s="498"/>
+      <c r="E3" s="498"/>
+      <c r="F3" s="498"/>
       <c r="G3" s="254" t="s">
         <v>120</v>
       </c>
@@ -39543,11 +39543,11 @@
     </row>
     <row r="4" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="405"/>
-      <c r="C4" s="405"/>
-      <c r="D4" s="405"/>
-      <c r="E4" s="405"/>
-      <c r="F4" s="405"/>
+      <c r="B4" s="498"/>
+      <c r="C4" s="498"/>
+      <c r="D4" s="498"/>
+      <c r="E4" s="498"/>
+      <c r="F4" s="498"/>
       <c r="G4" s="254" t="s">
         <v>121</v>
       </c>
@@ -39560,11 +39560,11 @@
     </row>
     <row r="5" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="405"/>
-      <c r="C5" s="405"/>
-      <c r="D5" s="405"/>
-      <c r="E5" s="405"/>
-      <c r="F5" s="405"/>
+      <c r="B5" s="498"/>
+      <c r="C5" s="498"/>
+      <c r="D5" s="498"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
       <c r="G5" s="254" t="s">
         <v>314</v>
       </c>
@@ -39645,15 +39645,15 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="337" t="s">
+      <c r="B8" s="341" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="337"/>
-      <c r="D8" s="337"/>
-      <c r="E8" s="337"/>
-      <c r="F8" s="337"/>
-      <c r="G8" s="337"/>
-      <c r="H8" s="337"/>
+      <c r="C8" s="341"/>
+      <c r="D8" s="341"/>
+      <c r="E8" s="341"/>
+      <c r="F8" s="341"/>
+      <c r="G8" s="341"/>
+      <c r="H8" s="341"/>
       <c r="I8" s="247" t="s">
         <v>310</v>
       </c>
@@ -39662,10 +39662,10 @@
       </c>
       <c r="K8" s="49"/>
       <c r="L8" s="253"/>
-      <c r="X8" s="337" t="s">
+      <c r="X8" s="341" t="s">
         <v>315</v>
       </c>
-      <c r="Y8" s="337"/>
+      <c r="Y8" s="341"/>
       <c r="Z8" s="116"/>
       <c r="AA8" s="13" t="s">
         <v>313</v>
@@ -39693,15 +39693,15 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="337" t="s">
+      <c r="B9" s="341" t="s">
         <v>309</v>
       </c>
-      <c r="C9" s="337"/>
-      <c r="D9" s="337"/>
-      <c r="E9" s="337"/>
-      <c r="F9" s="337"/>
-      <c r="G9" s="337"/>
-      <c r="H9" s="337"/>
+      <c r="C9" s="341"/>
+      <c r="D9" s="341"/>
+      <c r="E9" s="341"/>
+      <c r="F9" s="341"/>
+      <c r="G9" s="341"/>
+      <c r="H9" s="341"/>
       <c r="I9" s="247" t="s">
         <v>311</v>
       </c>
@@ -39710,10 +39710,10 @@
       </c>
       <c r="K9" s="49"/>
       <c r="L9" s="253"/>
-      <c r="X9" s="337" t="s">
+      <c r="X9" s="341" t="s">
         <v>316</v>
       </c>
-      <c r="Y9" s="337"/>
+      <c r="Y9" s="341"/>
       <c r="Z9" s="116"/>
       <c r="AA9" s="13" t="s">
         <v>326</v>
@@ -39745,15 +39745,15 @@
       </c>
     </row>
     <row r="10" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="337" t="s">
+      <c r="B10" s="341" t="s">
         <v>304</v>
       </c>
-      <c r="C10" s="337"/>
-      <c r="D10" s="337"/>
-      <c r="E10" s="337"/>
-      <c r="F10" s="337"/>
-      <c r="G10" s="337"/>
-      <c r="H10" s="337"/>
+      <c r="C10" s="341"/>
+      <c r="D10" s="341"/>
+      <c r="E10" s="341"/>
+      <c r="F10" s="341"/>
+      <c r="G10" s="341"/>
+      <c r="H10" s="341"/>
       <c r="I10" s="247" t="s">
         <v>305</v>
       </c>
@@ -39802,15 +39802,15 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="337" t="s">
+      <c r="B11" s="341" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="337"/>
-      <c r="D11" s="337"/>
-      <c r="E11" s="337"/>
-      <c r="F11" s="337"/>
-      <c r="G11" s="337"/>
-      <c r="H11" s="337"/>
+      <c r="C11" s="341"/>
+      <c r="D11" s="341"/>
+      <c r="E11" s="341"/>
+      <c r="F11" s="341"/>
+      <c r="G11" s="341"/>
+      <c r="H11" s="341"/>
       <c r="I11" s="247" t="s">
         <v>302</v>
       </c>
@@ -39855,15 +39855,15 @@
       </c>
     </row>
     <row r="12" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="337" t="s">
+      <c r="B12" s="341" t="s">
         <v>306</v>
       </c>
-      <c r="C12" s="337"/>
-      <c r="D12" s="337"/>
-      <c r="E12" s="337"/>
-      <c r="F12" s="337"/>
-      <c r="G12" s="337"/>
-      <c r="H12" s="337"/>
+      <c r="C12" s="341"/>
+      <c r="D12" s="341"/>
+      <c r="E12" s="341"/>
+      <c r="F12" s="341"/>
+      <c r="G12" s="341"/>
+      <c r="H12" s="341"/>
       <c r="I12" s="247" t="s">
         <v>346</v>
       </c>
@@ -39988,18 +39988,18 @@
       </c>
     </row>
     <row r="15" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="331" t="s">
+      <c r="B15" s="323" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="417"/>
-      <c r="D15" s="417"/>
-      <c r="E15" s="417"/>
-      <c r="F15" s="417"/>
-      <c r="G15" s="332"/>
-      <c r="H15" s="331" t="s">
+      <c r="C15" s="380"/>
+      <c r="D15" s="380"/>
+      <c r="E15" s="380"/>
+      <c r="F15" s="380"/>
+      <c r="G15" s="324"/>
+      <c r="H15" s="323" t="s">
         <v>313</v>
       </c>
-      <c r="I15" s="332"/>
+      <c r="I15" s="324"/>
       <c r="J15" s="208"/>
       <c r="K15" s="196"/>
       <c r="L15" s="249"/>
@@ -40032,19 +40032,19 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="331" t="s">
+      <c r="B16" s="323" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="417"/>
-      <c r="D16" s="417"/>
-      <c r="E16" s="417"/>
-      <c r="F16" s="417"/>
-      <c r="G16" s="332"/>
-      <c r="H16" s="331" t="str">
+      <c r="C16" s="380"/>
+      <c r="D16" s="380"/>
+      <c r="E16" s="380"/>
+      <c r="F16" s="380"/>
+      <c r="G16" s="324"/>
+      <c r="H16" s="323" t="str">
         <f>IF($H$15=$AA$8,$AA$9,IF($H$15=$AB$8,$AB$9,""))</f>
         <v>Arena</v>
       </c>
-      <c r="I16" s="332"/>
+      <c r="I16" s="324"/>
       <c r="J16" s="208"/>
       <c r="K16" s="196"/>
       <c r="L16" s="249"/>
@@ -40077,19 +40077,19 @@
       </c>
     </row>
     <row r="17" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="331" t="s">
+      <c r="B17" s="323" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="417"/>
-      <c r="D17" s="417"/>
-      <c r="E17" s="417"/>
-      <c r="F17" s="417"/>
-      <c r="G17" s="332"/>
-      <c r="H17" s="331" t="str">
+      <c r="C17" s="380"/>
+      <c r="D17" s="380"/>
+      <c r="E17" s="380"/>
+      <c r="F17" s="380"/>
+      <c r="G17" s="324"/>
+      <c r="H17" s="323" t="str">
         <f>IF($H$15=$AA$8,AA10,IF($H$15=$AB$8,AB10,""))</f>
         <v>Estratificado fino a grueso</v>
       </c>
-      <c r="I17" s="332"/>
+      <c r="I17" s="324"/>
       <c r="J17" s="208"/>
       <c r="K17" s="196"/>
       <c r="L17" s="249"/>
@@ -40115,18 +40115,18 @@
       <c r="AK17" s="217"/>
     </row>
     <row r="18" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="331" t="s">
+      <c r="B18" s="323" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="417"/>
-      <c r="D18" s="417"/>
-      <c r="E18" s="417"/>
-      <c r="F18" s="417"/>
-      <c r="G18" s="332"/>
-      <c r="H18" s="331" t="s">
+      <c r="C18" s="380"/>
+      <c r="D18" s="380"/>
+      <c r="E18" s="380"/>
+      <c r="F18" s="380"/>
+      <c r="G18" s="324"/>
+      <c r="H18" s="323" t="s">
         <v>328</v>
       </c>
-      <c r="I18" s="332"/>
+      <c r="I18" s="324"/>
       <c r="J18" s="208"/>
       <c r="K18" s="196"/>
       <c r="L18" s="249"/>
@@ -40148,19 +40148,19 @@
       <c r="AK18" s="217"/>
     </row>
     <row r="19" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="331" t="s">
+      <c r="B19" s="323" t="s">
         <v>357</v>
       </c>
-      <c r="C19" s="417"/>
-      <c r="D19" s="417"/>
-      <c r="E19" s="417"/>
-      <c r="F19" s="417"/>
-      <c r="G19" s="332"/>
-      <c r="H19" s="411">
+      <c r="C19" s="380"/>
+      <c r="D19" s="380"/>
+      <c r="E19" s="380"/>
+      <c r="F19" s="380"/>
+      <c r="G19" s="324"/>
+      <c r="H19" s="384">
         <f t="shared" ref="H19:H25" si="0">IF($H$15=$AA$8,AA11,IF($H$15=$AB$8,AB11,""))</f>
         <v>120</v>
       </c>
-      <c r="I19" s="412"/>
+      <c r="I19" s="385"/>
       <c r="J19" s="247" t="s">
         <v>4</v>
       </c>
@@ -40191,19 +40191,19 @@
       <c r="AK19" s="217"/>
     </row>
     <row r="20" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="402" t="s">
+      <c r="B20" s="381" t="s">
         <v>359</v>
       </c>
-      <c r="C20" s="403"/>
-      <c r="D20" s="403"/>
-      <c r="E20" s="403"/>
-      <c r="F20" s="403"/>
-      <c r="G20" s="404"/>
-      <c r="H20" s="411">
+      <c r="C20" s="382"/>
+      <c r="D20" s="382"/>
+      <c r="E20" s="382"/>
+      <c r="F20" s="382"/>
+      <c r="G20" s="383"/>
+      <c r="H20" s="384">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I20" s="412"/>
+      <c r="I20" s="385"/>
       <c r="J20" s="247" t="s">
         <v>4</v>
       </c>
@@ -40232,19 +40232,19 @@
       <c r="AK20" s="217"/>
     </row>
     <row r="21" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="331" t="s">
+      <c r="B21" s="323" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="417"/>
-      <c r="D21" s="417"/>
-      <c r="E21" s="417"/>
-      <c r="F21" s="417"/>
-      <c r="G21" s="332"/>
-      <c r="H21" s="411" t="str">
+      <c r="C21" s="380"/>
+      <c r="D21" s="380"/>
+      <c r="E21" s="380"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="324"/>
+      <c r="H21" s="384" t="str">
         <f t="shared" si="0"/>
         <v>12 - 36</v>
       </c>
-      <c r="I21" s="412"/>
+      <c r="I21" s="385"/>
       <c r="J21" s="266" t="s">
         <v>331</v>
       </c>
@@ -40271,19 +40271,19 @@
       <c r="AK21" s="217"/>
     </row>
     <row r="22" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="331" t="s">
+      <c r="B22" s="323" t="s">
         <v>319</v>
       </c>
-      <c r="C22" s="417"/>
-      <c r="D22" s="417"/>
-      <c r="E22" s="417"/>
-      <c r="F22" s="417"/>
-      <c r="G22" s="332"/>
-      <c r="H22" s="411">
+      <c r="C22" s="380"/>
+      <c r="D22" s="380"/>
+      <c r="E22" s="380"/>
+      <c r="F22" s="380"/>
+      <c r="G22" s="324"/>
+      <c r="H22" s="384">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="I22" s="412"/>
+      <c r="I22" s="385"/>
       <c r="J22" s="266" t="s">
         <v>3</v>
       </c>
@@ -40310,19 +40310,19 @@
       <c r="AK22" s="217"/>
     </row>
     <row r="23" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="331" t="s">
+      <c r="B23" s="323" t="s">
         <v>320</v>
       </c>
-      <c r="C23" s="417"/>
-      <c r="D23" s="417"/>
-      <c r="E23" s="417"/>
-      <c r="F23" s="417"/>
-      <c r="G23" s="332"/>
-      <c r="H23" s="411" t="str">
+      <c r="C23" s="380"/>
+      <c r="D23" s="380"/>
+      <c r="E23" s="380"/>
+      <c r="F23" s="380"/>
+      <c r="G23" s="324"/>
+      <c r="H23" s="384" t="str">
         <f t="shared" si="0"/>
         <v>2,4 - 3,0</v>
       </c>
-      <c r="I23" s="412"/>
+      <c r="I23" s="385"/>
       <c r="J23" s="266" t="s">
         <v>3</v>
       </c>
@@ -40347,19 +40347,19 @@
       <c r="AK23" s="217"/>
     </row>
     <row r="24" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="331" t="s">
+      <c r="B24" s="323" t="s">
         <v>330</v>
       </c>
-      <c r="C24" s="417"/>
-      <c r="D24" s="417"/>
-      <c r="E24" s="417"/>
-      <c r="F24" s="417"/>
-      <c r="G24" s="332"/>
-      <c r="H24" s="411" t="str">
+      <c r="C24" s="380"/>
+      <c r="D24" s="380"/>
+      <c r="E24" s="380"/>
+      <c r="F24" s="380"/>
+      <c r="G24" s="324"/>
+      <c r="H24" s="384" t="str">
         <f t="shared" si="0"/>
         <v>2 - 4</v>
       </c>
-      <c r="I24" s="412"/>
+      <c r="I24" s="385"/>
       <c r="J24" s="266" t="s">
         <v>332</v>
       </c>
@@ -40368,11 +40368,11 @@
       <c r="M24" s="236"/>
       <c r="N24" s="236"/>
       <c r="O24" s="236"/>
-      <c r="X24" s="507"/>
-      <c r="Y24" s="507"/>
+      <c r="X24" s="364"/>
+      <c r="Y24" s="364"/>
       <c r="Z24" s="207"/>
-      <c r="AA24" s="506"/>
-      <c r="AB24" s="506"/>
+      <c r="AA24" s="363"/>
+      <c r="AB24" s="363"/>
       <c r="AC24" s="113"/>
       <c r="AD24" s="217"/>
       <c r="AE24" s="217"/>
@@ -40384,20 +40384,20 @@
       <c r="AK24" s="217"/>
     </row>
     <row r="25" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="331" t="str">
+      <c r="B25" s="323" t="str">
         <f>IF($H$15=$AA$8,$X$17,IF($H$15=$AB$8,X17&amp;" (antracita)",IF($H$15="",X17&amp;" (antracita)")))</f>
         <v>Profundidad del medio</v>
       </c>
-      <c r="C25" s="417"/>
-      <c r="D25" s="417"/>
-      <c r="E25" s="417"/>
-      <c r="F25" s="417"/>
-      <c r="G25" s="332"/>
-      <c r="H25" s="411" t="str">
+      <c r="C25" s="380"/>
+      <c r="D25" s="380"/>
+      <c r="E25" s="380"/>
+      <c r="F25" s="380"/>
+      <c r="G25" s="324"/>
+      <c r="H25" s="384" t="str">
         <f t="shared" si="0"/>
         <v>0,60 - 0,75</v>
       </c>
-      <c r="I25" s="412"/>
+      <c r="I25" s="385"/>
       <c r="J25" s="266" t="s">
         <v>3</v>
       </c>
@@ -40406,11 +40406,11 @@
       <c r="M25" s="236"/>
       <c r="N25" s="236"/>
       <c r="O25" s="236"/>
-      <c r="X25" s="507"/>
-      <c r="Y25" s="507"/>
+      <c r="X25" s="364"/>
+      <c r="Y25" s="364"/>
       <c r="Z25" s="207"/>
-      <c r="AA25" s="506"/>
-      <c r="AB25" s="506"/>
+      <c r="AA25" s="363"/>
+      <c r="AB25" s="363"/>
       <c r="AC25" s="113"/>
       <c r="AD25" s="217"/>
       <c r="AE25" s="217"/>
@@ -40422,20 +40422,20 @@
       <c r="AK25" s="217"/>
     </row>
     <row r="26" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="331" t="str">
+      <c r="B26" s="323" t="str">
         <f>IF($H$15=$AA$8,$X$19,IF($H$15=$AB$8,X17&amp;" (arena)",IF($H$15="",X17&amp;" (arena)")))</f>
         <v>Profundidad de grava</v>
       </c>
-      <c r="C26" s="417"/>
-      <c r="D26" s="417"/>
-      <c r="E26" s="417"/>
-      <c r="F26" s="417"/>
-      <c r="G26" s="332"/>
-      <c r="H26" s="411" t="str">
+      <c r="C26" s="380"/>
+      <c r="D26" s="380"/>
+      <c r="E26" s="380"/>
+      <c r="F26" s="380"/>
+      <c r="G26" s="324"/>
+      <c r="H26" s="384" t="str">
         <f>IF($H$15=$AA$8,AA19,IF($H$15=$AB$8,AB18,""))</f>
         <v>0,30 - 0,45</v>
       </c>
-      <c r="I26" s="412"/>
+      <c r="I26" s="385"/>
       <c r="J26" s="266" t="s">
         <v>3</v>
       </c>
@@ -40444,11 +40444,11 @@
       <c r="M26" s="236"/>
       <c r="N26" s="236"/>
       <c r="O26" s="236"/>
-      <c r="X26" s="507"/>
-      <c r="Y26" s="507"/>
+      <c r="X26" s="364"/>
+      <c r="Y26" s="364"/>
       <c r="Z26" s="207"/>
-      <c r="AA26" s="506"/>
-      <c r="AB26" s="506"/>
+      <c r="AA26" s="363"/>
+      <c r="AB26" s="363"/>
       <c r="AD26" s="217"/>
       <c r="AE26" s="217"/>
       <c r="AF26" s="217"/>
@@ -40459,20 +40459,20 @@
       <c r="AK26" s="217"/>
     </row>
     <row r="27" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="331" t="str">
+      <c r="B27" s="323" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$X$19,IF($H$15="",$X$19)))</f>
         <v/>
       </c>
-      <c r="C27" s="417"/>
-      <c r="D27" s="417"/>
-      <c r="E27" s="417"/>
-      <c r="F27" s="417"/>
-      <c r="G27" s="417"/>
-      <c r="H27" s="411" t="str">
+      <c r="C27" s="380"/>
+      <c r="D27" s="380"/>
+      <c r="E27" s="380"/>
+      <c r="F27" s="380"/>
+      <c r="G27" s="380"/>
+      <c r="H27" s="384" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$AB$19,IF($H$15="","")))</f>
         <v/>
       </c>
-      <c r="I27" s="412"/>
+      <c r="I27" s="385"/>
       <c r="J27" s="267" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,"m",IF($H$15="","m")))</f>
         <v/>
@@ -40542,15 +40542,15 @@
       <c r="AB29" s="207"/>
     </row>
     <row r="30" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="337" t="s">
+      <c r="B30" s="341" t="s">
         <v>254</v>
       </c>
-      <c r="C30" s="337"/>
-      <c r="D30" s="337"/>
-      <c r="E30" s="337"/>
-      <c r="F30" s="337"/>
-      <c r="G30" s="337"/>
-      <c r="H30" s="337"/>
+      <c r="C30" s="341"/>
+      <c r="D30" s="341"/>
+      <c r="E30" s="341"/>
+      <c r="F30" s="341"/>
+      <c r="G30" s="341"/>
+      <c r="H30" s="341"/>
       <c r="I30" s="247" t="s">
         <v>251</v>
       </c>
@@ -40568,16 +40568,16 @@
       <c r="AB30" s="207"/>
     </row>
     <row r="31" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="337" t="str">
+      <c r="B31" s="341" t="str">
         <f>"Densidad del agua a "&amp;J30&amp;" °C"</f>
         <v>Densidad del agua a 3 °C</v>
       </c>
-      <c r="C31" s="337"/>
-      <c r="D31" s="337"/>
-      <c r="E31" s="337"/>
-      <c r="F31" s="337"/>
-      <c r="G31" s="337"/>
-      <c r="H31" s="337"/>
+      <c r="C31" s="341"/>
+      <c r="D31" s="341"/>
+      <c r="E31" s="341"/>
+      <c r="F31" s="341"/>
+      <c r="G31" s="341"/>
+      <c r="H31" s="341"/>
       <c r="I31" s="275" t="s">
         <v>250</v>
       </c>
@@ -40595,25 +40595,25 @@
       <c r="Y31" s="183" t="s">
         <v>312</v>
       </c>
-      <c r="Z31" s="474" t="s">
+      <c r="Z31" s="390" t="s">
         <v>248</v>
       </c>
-      <c r="AA31" s="474" t="s">
+      <c r="AA31" s="390" t="s">
         <v>246</v>
       </c>
       <c r="AB31" s="181"/>
     </row>
     <row r="32" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="337" t="str">
+      <c r="B32" s="341" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad dinámica del agua a 3 °C</v>
       </c>
-      <c r="C32" s="337"/>
-      <c r="D32" s="337"/>
-      <c r="E32" s="337"/>
-      <c r="F32" s="337"/>
-      <c r="G32" s="337"/>
-      <c r="H32" s="337"/>
+      <c r="C32" s="341"/>
+      <c r="D32" s="341"/>
+      <c r="E32" s="341"/>
+      <c r="F32" s="341"/>
+      <c r="G32" s="341"/>
+      <c r="H32" s="341"/>
       <c r="I32" s="275" t="s">
         <v>213</v>
       </c>
@@ -40631,21 +40631,21 @@
       <c r="Y32" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="Z32" s="475"/>
-      <c r="AA32" s="475"/>
+      <c r="Z32" s="391"/>
+      <c r="AA32" s="391"/>
       <c r="AB32" s="181"/>
     </row>
     <row r="33" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="413" t="str">
+      <c r="B33" s="500" t="str">
         <f>"Viscocidad cinemática del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad cinemática del agua a 3 °C</v>
       </c>
-      <c r="C33" s="413"/>
-      <c r="D33" s="413"/>
-      <c r="E33" s="413"/>
-      <c r="F33" s="413"/>
-      <c r="G33" s="413"/>
-      <c r="H33" s="413"/>
+      <c r="C33" s="500"/>
+      <c r="D33" s="500"/>
+      <c r="E33" s="500"/>
+      <c r="F33" s="500"/>
+      <c r="G33" s="500"/>
+      <c r="H33" s="500"/>
       <c r="I33" s="51" t="s">
         <v>2</v>
       </c>
@@ -40779,26 +40779,26 @@
       <c r="AB37" s="157"/>
     </row>
     <row r="38" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="424" t="s">
+      <c r="B38" s="473" t="s">
         <v>192</v>
       </c>
-      <c r="C38" s="425"/>
+      <c r="C38" s="474"/>
       <c r="D38" s="54"/>
       <c r="E38" s="248"/>
-      <c r="F38" s="409" t="s">
+      <c r="F38" s="367" t="s">
         <v>204</v>
       </c>
-      <c r="G38" s="409" t="s">
+      <c r="G38" s="367" t="s">
         <v>203</v>
       </c>
-      <c r="H38" s="481" t="s">
+      <c r="H38" s="442" t="s">
         <v>210</v>
       </c>
-      <c r="I38" s="482"/>
-      <c r="J38" s="481" t="s">
+      <c r="I38" s="443"/>
+      <c r="J38" s="442" t="s">
         <v>209</v>
       </c>
-      <c r="K38" s="482"/>
+      <c r="K38" s="443"/>
       <c r="L38" s="253"/>
       <c r="X38" s="165">
         <v>3</v>
@@ -40816,22 +40816,22 @@
       <c r="AB38" s="157"/>
     </row>
     <row r="39" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="426"/>
-      <c r="C39" s="427"/>
+      <c r="B39" s="475"/>
+      <c r="C39" s="476"/>
       <c r="D39" s="54"/>
       <c r="E39" s="248"/>
-      <c r="F39" s="430"/>
-      <c r="G39" s="430"/>
-      <c r="H39" s="409" t="s">
+      <c r="F39" s="368"/>
+      <c r="G39" s="368"/>
+      <c r="H39" s="367" t="s">
         <v>186</v>
       </c>
-      <c r="I39" s="409" t="s">
+      <c r="I39" s="367" t="s">
         <v>207</v>
       </c>
-      <c r="J39" s="409" t="s">
+      <c r="J39" s="367" t="s">
         <v>186</v>
       </c>
-      <c r="K39" s="409" t="s">
+      <c r="K39" s="367" t="s">
         <v>207</v>
       </c>
       <c r="L39" s="253"/>
@@ -40851,16 +40851,16 @@
       <c r="AB39" s="157"/>
     </row>
     <row r="40" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="426"/>
-      <c r="C40" s="427"/>
+      <c r="B40" s="475"/>
+      <c r="C40" s="476"/>
       <c r="D40" s="54"/>
       <c r="E40" s="248"/>
-      <c r="F40" s="430"/>
-      <c r="G40" s="430"/>
-      <c r="H40" s="430"/>
-      <c r="I40" s="430"/>
-      <c r="J40" s="430"/>
-      <c r="K40" s="430"/>
+      <c r="F40" s="368"/>
+      <c r="G40" s="368"/>
+      <c r="H40" s="368"/>
+      <c r="I40" s="368"/>
+      <c r="J40" s="368"/>
+      <c r="K40" s="368"/>
       <c r="L40" s="253"/>
       <c r="X40" s="165">
         <v>5</v>
@@ -40878,16 +40878,16 @@
       <c r="AB40" s="157"/>
     </row>
     <row r="41" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="428"/>
-      <c r="C41" s="429"/>
+      <c r="B41" s="477"/>
+      <c r="C41" s="478"/>
       <c r="D41" s="54"/>
       <c r="E41" s="248"/>
-      <c r="F41" s="410"/>
-      <c r="G41" s="410"/>
-      <c r="H41" s="410"/>
-      <c r="I41" s="410"/>
-      <c r="J41" s="410"/>
-      <c r="K41" s="410"/>
+      <c r="F41" s="369"/>
+      <c r="G41" s="369"/>
+      <c r="H41" s="369"/>
+      <c r="I41" s="369"/>
+      <c r="J41" s="369"/>
+      <c r="K41" s="369"/>
       <c r="L41" s="253"/>
       <c r="X41" s="165">
         <v>6</v>
@@ -40905,10 +40905,10 @@
       <c r="AB41" s="157"/>
     </row>
     <row r="42" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="411" t="s">
+      <c r="B42" s="384" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="412"/>
+      <c r="C42" s="385"/>
       <c r="D42" s="128">
         <f>LEFT(B42,2)+0</f>
         <v>14</v>
@@ -40959,10 +40959,10 @@
       <c r="AB42" s="157"/>
     </row>
     <row r="43" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="411" t="s">
+      <c r="B43" s="384" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="412"/>
+      <c r="C43" s="385"/>
       <c r="D43" s="128">
         <f t="shared" ref="D43:D50" si="3">LEFT(B43,2)+0</f>
         <v>20</v>
@@ -41013,10 +41013,10 @@
       <c r="AB43" s="157"/>
     </row>
     <row r="44" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="411" t="s">
+      <c r="B44" s="384" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="412"/>
+      <c r="C44" s="385"/>
       <c r="D44" s="128">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -41067,10 +41067,10 @@
       <c r="AB44" s="157"/>
     </row>
     <row r="45" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="411" t="s">
+      <c r="B45" s="384" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="412"/>
+      <c r="C45" s="385"/>
       <c r="D45" s="128">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -41121,10 +41121,10 @@
       <c r="AB45" s="157"/>
     </row>
     <row r="46" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="411" t="s">
+      <c r="B46" s="384" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="412"/>
+      <c r="C46" s="385"/>
       <c r="D46" s="128">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -41175,10 +41175,10 @@
       <c r="AB46" s="157"/>
     </row>
     <row r="47" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="411" t="s">
+      <c r="B47" s="384" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="412"/>
+      <c r="C47" s="385"/>
       <c r="D47" s="128">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -41229,10 +41229,10 @@
       <c r="AB47" s="157"/>
     </row>
     <row r="48" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="411" t="s">
+      <c r="B48" s="384" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="412"/>
+      <c r="C48" s="385"/>
       <c r="D48" s="128">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -41283,10 +41283,10 @@
       <c r="AB48" s="157"/>
     </row>
     <row r="49" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="411" t="s">
+      <c r="B49" s="384" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="412"/>
+      <c r="C49" s="385"/>
       <c r="D49" s="128">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -41337,10 +41337,10 @@
       <c r="AB49" s="157"/>
     </row>
     <row r="50" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="411" t="s">
+      <c r="B50" s="384" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="412"/>
+      <c r="C50" s="385"/>
       <c r="D50" s="128">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -41445,20 +41445,20 @@
       <c r="AB52" s="157"/>
     </row>
     <row r="53" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="420"/>
-      <c r="C53" s="420"/>
+      <c r="B53" s="457"/>
+      <c r="C53" s="457"/>
       <c r="D53" s="54"/>
       <c r="E53" s="248"/>
-      <c r="F53" s="408" t="s">
+      <c r="F53" s="472" t="s">
         <v>186</v>
       </c>
-      <c r="G53" s="408" t="s">
+      <c r="G53" s="472" t="s">
         <v>207</v>
       </c>
-      <c r="H53" s="419"/>
-      <c r="I53" s="419"/>
-      <c r="J53" s="419"/>
-      <c r="K53" s="418" t="s">
+      <c r="H53" s="458"/>
+      <c r="I53" s="458"/>
+      <c r="J53" s="458"/>
+      <c r="K53" s="459" t="s">
         <v>349</v>
       </c>
       <c r="L53" s="253"/>
@@ -41478,16 +41478,16 @@
       <c r="AB53" s="157"/>
     </row>
     <row r="54" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="420"/>
-      <c r="C54" s="420"/>
+      <c r="B54" s="457"/>
+      <c r="C54" s="457"/>
       <c r="D54" s="54"/>
       <c r="E54" s="248"/>
-      <c r="F54" s="408"/>
-      <c r="G54" s="408"/>
-      <c r="H54" s="419"/>
-      <c r="I54" s="419"/>
-      <c r="J54" s="419"/>
-      <c r="K54" s="418"/>
+      <c r="F54" s="472"/>
+      <c r="G54" s="472"/>
+      <c r="H54" s="458"/>
+      <c r="I54" s="458"/>
+      <c r="J54" s="458"/>
+      <c r="K54" s="459"/>
       <c r="L54" s="253"/>
       <c r="X54" s="165">
         <v>19</v>
@@ -41506,16 +41506,16 @@
       <c r="AD54" s="172"/>
     </row>
     <row r="55" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="420"/>
-      <c r="C55" s="420"/>
+      <c r="B55" s="457"/>
+      <c r="C55" s="457"/>
       <c r="D55" s="54"/>
       <c r="E55" s="248"/>
-      <c r="F55" s="408"/>
-      <c r="G55" s="408"/>
-      <c r="H55" s="419"/>
-      <c r="I55" s="419"/>
-      <c r="J55" s="419"/>
-      <c r="K55" s="418"/>
+      <c r="F55" s="472"/>
+      <c r="G55" s="472"/>
+      <c r="H55" s="458"/>
+      <c r="I55" s="458"/>
+      <c r="J55" s="458"/>
+      <c r="K55" s="459"/>
       <c r="L55" s="253"/>
       <c r="X55" s="167">
         <v>20</v>
@@ -41534,10 +41534,10 @@
       <c r="AD55" s="172"/>
     </row>
     <row r="56" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="419" t="s">
+      <c r="B56" s="458" t="s">
         <v>350</v>
       </c>
-      <c r="C56" s="419"/>
+      <c r="C56" s="458"/>
       <c r="D56" s="54"/>
       <c r="E56" s="248"/>
       <c r="F56" s="114">
@@ -41548,13 +41548,13 @@
         <f>VLOOKUP(F56,J$42:K$50,2,FALSE)</f>
         <v>9.2999999999999972</v>
       </c>
-      <c r="H56" s="420">
+      <c r="H56" s="457">
         <f>(LOG(F56)+((10-G56)/(G57-G56))*LOG(F57/F56))</f>
         <v>-0.59871356906268303</v>
       </c>
-      <c r="I56" s="420"/>
-      <c r="J56" s="420"/>
-      <c r="K56" s="419">
+      <c r="I56" s="457"/>
+      <c r="J56" s="457"/>
+      <c r="K56" s="458">
         <f>10^(H56)</f>
         <v>0.251933796295991</v>
       </c>
@@ -41575,10 +41575,10 @@
       <c r="AB56" s="157"/>
     </row>
     <row r="57" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="419" t="s">
+      <c r="B57" s="458" t="s">
         <v>351</v>
       </c>
-      <c r="C57" s="419"/>
+      <c r="C57" s="458"/>
       <c r="D57" s="54"/>
       <c r="E57" s="248"/>
       <c r="F57" s="114">
@@ -41589,10 +41589,10 @@
         <f>VLOOKUP(F57,J$42:K$50,2,FALSE)</f>
         <v>24.950000000000003</v>
       </c>
-      <c r="H57" s="420"/>
-      <c r="I57" s="420"/>
-      <c r="J57" s="420"/>
-      <c r="K57" s="419"/>
+      <c r="H57" s="457"/>
+      <c r="I57" s="457"/>
+      <c r="J57" s="457"/>
+      <c r="K57" s="458"/>
       <c r="L57" s="253"/>
       <c r="X57" s="165">
         <v>22</v>
@@ -41666,20 +41666,20 @@
       <c r="AB59" s="157"/>
     </row>
     <row r="60" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="420"/>
-      <c r="C60" s="420"/>
+      <c r="B60" s="457"/>
+      <c r="C60" s="457"/>
       <c r="D60" s="54"/>
       <c r="E60" s="248"/>
-      <c r="F60" s="408" t="s">
+      <c r="F60" s="472" t="s">
         <v>186</v>
       </c>
-      <c r="G60" s="408" t="s">
+      <c r="G60" s="472" t="s">
         <v>207</v>
       </c>
-      <c r="H60" s="419"/>
-      <c r="I60" s="419"/>
-      <c r="J60" s="419"/>
-      <c r="K60" s="418" t="s">
+      <c r="H60" s="458"/>
+      <c r="I60" s="458"/>
+      <c r="J60" s="458"/>
+      <c r="K60" s="459" t="s">
         <v>353</v>
       </c>
       <c r="L60" s="253"/>
@@ -41699,16 +41699,16 @@
       <c r="AB60" s="157"/>
     </row>
     <row r="61" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="420"/>
-      <c r="C61" s="420"/>
+      <c r="B61" s="457"/>
+      <c r="C61" s="457"/>
       <c r="D61" s="54"/>
       <c r="E61" s="248"/>
-      <c r="F61" s="408"/>
-      <c r="G61" s="408"/>
-      <c r="H61" s="419"/>
-      <c r="I61" s="419"/>
-      <c r="J61" s="419"/>
-      <c r="K61" s="418"/>
+      <c r="F61" s="472"/>
+      <c r="G61" s="472"/>
+      <c r="H61" s="458"/>
+      <c r="I61" s="458"/>
+      <c r="J61" s="458"/>
+      <c r="K61" s="459"/>
       <c r="L61" s="253"/>
       <c r="X61" s="165">
         <v>26</v>
@@ -41726,16 +41726,16 @@
       <c r="AB61" s="157"/>
     </row>
     <row r="62" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="420"/>
-      <c r="C62" s="420"/>
+      <c r="B62" s="457"/>
+      <c r="C62" s="457"/>
       <c r="D62" s="54"/>
       <c r="E62" s="248"/>
-      <c r="F62" s="408"/>
-      <c r="G62" s="408"/>
-      <c r="H62" s="419"/>
-      <c r="I62" s="419"/>
-      <c r="J62" s="419"/>
-      <c r="K62" s="418"/>
+      <c r="F62" s="472"/>
+      <c r="G62" s="472"/>
+      <c r="H62" s="458"/>
+      <c r="I62" s="458"/>
+      <c r="J62" s="458"/>
+      <c r="K62" s="459"/>
       <c r="L62" s="253"/>
       <c r="X62" s="165">
         <v>27</v>
@@ -41753,10 +41753,10 @@
       <c r="AB62" s="157"/>
     </row>
     <row r="63" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="419" t="s">
+      <c r="B63" s="458" t="s">
         <v>350</v>
       </c>
-      <c r="C63" s="419"/>
+      <c r="C63" s="458"/>
       <c r="D63" s="54"/>
       <c r="E63" s="248"/>
       <c r="F63" s="114">
@@ -41767,13 +41767,13 @@
         <f>VLOOKUP(F63,J$42:K$50,2,FALSE)</f>
         <v>43.2</v>
       </c>
-      <c r="H63" s="420">
+      <c r="H63" s="457">
         <f>(LOG(F63)+((60-G63)/(G64-G63))*LOG(F64/F63))</f>
         <v>-0.30754088493326209</v>
       </c>
-      <c r="I63" s="420"/>
-      <c r="J63" s="420"/>
-      <c r="K63" s="419">
+      <c r="I63" s="457"/>
+      <c r="J63" s="457"/>
+      <c r="K63" s="458">
         <f>10^(H63)</f>
         <v>0.49255997105996119</v>
       </c>
@@ -41794,10 +41794,10 @@
       <c r="AB63" s="157"/>
     </row>
     <row r="64" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="419" t="s">
+      <c r="B64" s="458" t="s">
         <v>351</v>
       </c>
-      <c r="C64" s="419"/>
+      <c r="C64" s="458"/>
       <c r="D64" s="54"/>
       <c r="E64" s="248"/>
       <c r="F64" s="114">
@@ -41808,10 +41808,10 @@
         <f>VLOOKUP(F64,J$42:K$50,2,FALSE)</f>
         <v>61.210000000000008</v>
       </c>
-      <c r="H64" s="420"/>
-      <c r="I64" s="420"/>
-      <c r="J64" s="420"/>
-      <c r="K64" s="419"/>
+      <c r="H64" s="457"/>
+      <c r="I64" s="457"/>
+      <c r="J64" s="457"/>
+      <c r="K64" s="458"/>
       <c r="L64" s="253"/>
       <c r="X64" s="165">
         <v>29</v>
@@ -41885,19 +41885,19 @@
       <c r="AB66" s="157"/>
     </row>
     <row r="67" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="424" t="s">
+      <c r="B67" s="473" t="s">
         <v>354</v>
       </c>
-      <c r="C67" s="425"/>
+      <c r="C67" s="474"/>
       <c r="D67" s="54"/>
       <c r="E67" s="248"/>
-      <c r="F67" s="424" t="s">
+      <c r="F67" s="473" t="s">
         <v>353</v>
       </c>
-      <c r="G67" s="466" t="s">
+      <c r="G67" s="481" t="s">
         <v>211</v>
       </c>
-      <c r="H67" s="466"/>
+      <c r="H67" s="481"/>
       <c r="I67" s="249"/>
       <c r="J67" s="249"/>
       <c r="K67" s="135"/>
@@ -41918,13 +41918,13 @@
       <c r="AB67" s="157"/>
     </row>
     <row r="68" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="426"/>
-      <c r="C68" s="427"/>
+      <c r="B68" s="475"/>
+      <c r="C68" s="476"/>
       <c r="D68" s="54"/>
       <c r="E68" s="248"/>
-      <c r="F68" s="426"/>
-      <c r="G68" s="466"/>
-      <c r="H68" s="466"/>
+      <c r="F68" s="475"/>
+      <c r="G68" s="481"/>
+      <c r="H68" s="481"/>
       <c r="I68" s="249"/>
       <c r="J68" s="249"/>
       <c r="K68" s="135"/>
@@ -41946,13 +41946,13 @@
       <c r="AB68" s="157"/>
     </row>
     <row r="69" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="428"/>
-      <c r="C69" s="429"/>
+      <c r="B69" s="477"/>
+      <c r="C69" s="478"/>
       <c r="D69" s="54"/>
       <c r="E69" s="248"/>
-      <c r="F69" s="428"/>
-      <c r="G69" s="466"/>
-      <c r="H69" s="466"/>
+      <c r="F69" s="477"/>
+      <c r="G69" s="481"/>
+      <c r="H69" s="481"/>
       <c r="I69" s="249"/>
       <c r="J69" s="249"/>
       <c r="K69" s="135"/>
@@ -41974,22 +41974,22 @@
       <c r="AB69" s="157"/>
     </row>
     <row r="70" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="419">
+      <c r="B70" s="458">
         <f>K56</f>
         <v>0.251933796295991</v>
       </c>
-      <c r="C70" s="419"/>
+      <c r="C70" s="458"/>
       <c r="D70" s="54"/>
       <c r="E70" s="248"/>
       <c r="F70" s="114">
         <f>K63</f>
         <v>0.49255997105996119</v>
       </c>
-      <c r="G70" s="467">
+      <c r="G70" s="482">
         <f>F70/B70</f>
         <v>1.9551166945512315</v>
       </c>
-      <c r="H70" s="467"/>
+      <c r="H70" s="482"/>
       <c r="I70" s="249"/>
       <c r="J70" s="249"/>
       <c r="K70" s="135"/>
@@ -42032,15 +42032,15 @@
       <c r="AB72" s="157"/>
     </row>
     <row r="73" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="392" t="s">
+      <c r="B73" s="469" t="s">
         <v>358</v>
       </c>
-      <c r="C73" s="393"/>
-      <c r="D73" s="393"/>
-      <c r="E73" s="393"/>
-      <c r="F73" s="393"/>
-      <c r="G73" s="393"/>
-      <c r="H73" s="394"/>
+      <c r="C73" s="470"/>
+      <c r="D73" s="470"/>
+      <c r="E73" s="470"/>
+      <c r="F73" s="470"/>
+      <c r="G73" s="470"/>
+      <c r="H73" s="471"/>
       <c r="I73" s="206" t="s">
         <v>181</v>
       </c>
@@ -42062,15 +42062,15 @@
       <c r="AA73" s="113"/>
     </row>
     <row r="74" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="392" t="s">
+      <c r="B74" s="469" t="s">
         <v>287</v>
       </c>
-      <c r="C74" s="393"/>
-      <c r="D74" s="393"/>
-      <c r="E74" s="393"/>
-      <c r="F74" s="393"/>
-      <c r="G74" s="393"/>
-      <c r="H74" s="394"/>
+      <c r="C74" s="470"/>
+      <c r="D74" s="470"/>
+      <c r="E74" s="470"/>
+      <c r="F74" s="470"/>
+      <c r="G74" s="470"/>
+      <c r="H74" s="471"/>
       <c r="I74" s="251" t="s">
         <v>88</v>
       </c>
@@ -42088,15 +42088,15 @@
       <c r="AA74" s="113"/>
     </row>
     <row r="75" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="392" t="s">
+      <c r="B75" s="469" t="s">
         <v>283</v>
       </c>
-      <c r="C75" s="393"/>
-      <c r="D75" s="393"/>
-      <c r="E75" s="393"/>
-      <c r="F75" s="393"/>
-      <c r="G75" s="393"/>
-      <c r="H75" s="394"/>
+      <c r="C75" s="470"/>
+      <c r="D75" s="470"/>
+      <c r="E75" s="470"/>
+      <c r="F75" s="470"/>
+      <c r="G75" s="470"/>
+      <c r="H75" s="471"/>
       <c r="I75" s="251" t="s">
         <v>284</v>
       </c>
@@ -42112,15 +42112,15 @@
       <c r="AA75" s="113"/>
     </row>
     <row r="76" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="392" t="s">
+      <c r="B76" s="469" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="393"/>
-      <c r="D76" s="393"/>
-      <c r="E76" s="393"/>
-      <c r="F76" s="393"/>
-      <c r="G76" s="393"/>
-      <c r="H76" s="394"/>
+      <c r="C76" s="470"/>
+      <c r="D76" s="470"/>
+      <c r="E76" s="470"/>
+      <c r="F76" s="470"/>
+      <c r="G76" s="470"/>
+      <c r="H76" s="471"/>
       <c r="I76" s="251" t="s">
         <v>240</v>
       </c>
@@ -42136,15 +42136,15 @@
       <c r="AA76" s="113"/>
     </row>
     <row r="77" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="392" t="s">
+      <c r="B77" s="469" t="s">
         <v>190</v>
       </c>
-      <c r="C77" s="393"/>
-      <c r="D77" s="393"/>
-      <c r="E77" s="393"/>
-      <c r="F77" s="393"/>
-      <c r="G77" s="393"/>
-      <c r="H77" s="394"/>
+      <c r="C77" s="470"/>
+      <c r="D77" s="470"/>
+      <c r="E77" s="470"/>
+      <c r="F77" s="470"/>
+      <c r="G77" s="470"/>
+      <c r="H77" s="471"/>
       <c r="I77" s="251" t="s">
         <v>191</v>
       </c>
@@ -42160,15 +42160,15 @@
       <c r="AA77" s="113"/>
     </row>
     <row r="78" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="392" t="s">
+      <c r="B78" s="469" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="393"/>
-      <c r="D78" s="393"/>
-      <c r="E78" s="393"/>
-      <c r="F78" s="393"/>
-      <c r="G78" s="393"/>
-      <c r="H78" s="394"/>
+      <c r="C78" s="470"/>
+      <c r="D78" s="470"/>
+      <c r="E78" s="470"/>
+      <c r="F78" s="470"/>
+      <c r="G78" s="470"/>
+      <c r="H78" s="471"/>
       <c r="I78" s="252" t="s">
         <v>189</v>
       </c>
@@ -42184,15 +42184,15 @@
       <c r="AA78" s="113"/>
     </row>
     <row r="79" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="392" t="s">
+      <c r="B79" s="469" t="s">
         <v>230</v>
       </c>
-      <c r="C79" s="393"/>
-      <c r="D79" s="393"/>
-      <c r="E79" s="393"/>
-      <c r="F79" s="393"/>
-      <c r="G79" s="393"/>
-      <c r="H79" s="394"/>
+      <c r="C79" s="470"/>
+      <c r="D79" s="470"/>
+      <c r="E79" s="470"/>
+      <c r="F79" s="470"/>
+      <c r="G79" s="470"/>
+      <c r="H79" s="471"/>
       <c r="I79" s="252" t="s">
         <v>189</v>
       </c>
@@ -42208,15 +42208,15 @@
       <c r="AA79" s="113"/>
     </row>
     <row r="80" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="392" t="s">
+      <c r="B80" s="469" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="393"/>
-      <c r="D80" s="393"/>
-      <c r="E80" s="393"/>
-      <c r="F80" s="393"/>
-      <c r="G80" s="393"/>
-      <c r="H80" s="394"/>
+      <c r="C80" s="470"/>
+      <c r="D80" s="470"/>
+      <c r="E80" s="470"/>
+      <c r="F80" s="470"/>
+      <c r="G80" s="470"/>
+      <c r="H80" s="471"/>
       <c r="I80" s="151" t="s">
         <v>238</v>
       </c>
@@ -42298,139 +42298,139 @@
       <c r="Z83" s="109"/>
     </row>
     <row r="84" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="424" t="s">
+      <c r="B84" s="473" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="425"/>
-      <c r="D84" s="408"/>
-      <c r="E84" s="409"/>
-      <c r="F84" s="409" t="s">
+      <c r="C84" s="474"/>
+      <c r="D84" s="472"/>
+      <c r="E84" s="367"/>
+      <c r="F84" s="367" t="s">
         <v>204</v>
       </c>
-      <c r="G84" s="409" t="s">
+      <c r="G84" s="367" t="s">
         <v>205</v>
       </c>
-      <c r="H84" s="409" t="s">
+      <c r="H84" s="367" t="s">
         <v>206</v>
       </c>
-      <c r="I84" s="431" t="s">
+      <c r="I84" s="486" t="s">
         <v>208</v>
       </c>
-      <c r="J84" s="414" t="s">
+      <c r="J84" s="501" t="s">
         <v>182</v>
       </c>
-      <c r="K84" s="415"/>
-      <c r="L84" s="415"/>
-      <c r="M84" s="416"/>
-      <c r="N84" s="492" t="s">
+      <c r="K84" s="502"/>
+      <c r="L84" s="502"/>
+      <c r="M84" s="503"/>
+      <c r="N84" s="453" t="s">
         <v>183</v>
       </c>
-      <c r="O84" s="493"/>
-      <c r="P84" s="493"/>
-      <c r="Q84" s="493"/>
-      <c r="R84" s="494"/>
-      <c r="S84" s="512" t="s">
+      <c r="O84" s="454"/>
+      <c r="P84" s="454"/>
+      <c r="Q84" s="454"/>
+      <c r="R84" s="455"/>
+      <c r="S84" s="373" t="s">
         <v>184</v>
       </c>
-      <c r="T84" s="512"/>
-      <c r="U84" s="512"/>
-      <c r="V84" s="512"/>
+      <c r="T84" s="373"/>
+      <c r="U84" s="373"/>
+      <c r="V84" s="373"/>
       <c r="W84" s="112"/>
-      <c r="X84" s="409" t="s">
+      <c r="X84" s="367" t="s">
         <v>185</v>
       </c>
-      <c r="Y84" s="409" t="s">
+      <c r="Y84" s="367" t="s">
         <v>186</v>
       </c>
       <c r="Z84" s="109"/>
     </row>
     <row r="85" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="426"/>
-      <c r="C85" s="427"/>
-      <c r="D85" s="408"/>
-      <c r="E85" s="410"/>
-      <c r="F85" s="430"/>
-      <c r="G85" s="430"/>
-      <c r="H85" s="430"/>
-      <c r="I85" s="432"/>
-      <c r="J85" s="449" t="s">
+      <c r="B85" s="475"/>
+      <c r="C85" s="476"/>
+      <c r="D85" s="472"/>
+      <c r="E85" s="369"/>
+      <c r="F85" s="368"/>
+      <c r="G85" s="368"/>
+      <c r="H85" s="368"/>
+      <c r="I85" s="487"/>
+      <c r="J85" s="377" t="s">
         <v>187</v>
       </c>
-      <c r="K85" s="483"/>
-      <c r="L85" s="489"/>
-      <c r="M85" s="484"/>
-      <c r="N85" s="495"/>
-      <c r="O85" s="483"/>
-      <c r="P85" s="484"/>
-      <c r="Q85" s="449" t="s">
+      <c r="K85" s="444"/>
+      <c r="L85" s="450"/>
+      <c r="M85" s="445"/>
+      <c r="N85" s="456"/>
+      <c r="O85" s="444"/>
+      <c r="P85" s="445"/>
+      <c r="Q85" s="377" t="s">
         <v>188</v>
       </c>
-      <c r="R85" s="496"/>
-      <c r="S85" s="496"/>
-      <c r="T85" s="496"/>
-      <c r="U85" s="449" t="s">
+      <c r="R85" s="374"/>
+      <c r="S85" s="374"/>
+      <c r="T85" s="374"/>
+      <c r="U85" s="377" t="s">
         <v>188</v>
       </c>
-      <c r="V85" s="496"/>
-      <c r="X85" s="430"/>
-      <c r="Y85" s="430"/>
+      <c r="V85" s="374"/>
+      <c r="X85" s="368"/>
+      <c r="Y85" s="368"/>
     </row>
     <row r="86" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="426"/>
-      <c r="C86" s="427"/>
+      <c r="B86" s="475"/>
+      <c r="C86" s="476"/>
       <c r="D86" s="123"/>
       <c r="E86" s="124"/>
-      <c r="F86" s="430"/>
-      <c r="G86" s="430"/>
-      <c r="H86" s="430"/>
-      <c r="I86" s="432"/>
-      <c r="J86" s="450"/>
-      <c r="K86" s="485"/>
-      <c r="L86" s="490"/>
-      <c r="M86" s="486"/>
-      <c r="N86" s="495"/>
-      <c r="O86" s="485"/>
-      <c r="P86" s="486"/>
-      <c r="Q86" s="450"/>
-      <c r="R86" s="497"/>
-      <c r="S86" s="497"/>
-      <c r="T86" s="497"/>
-      <c r="U86" s="450"/>
-      <c r="V86" s="497"/>
-      <c r="X86" s="430"/>
-      <c r="Y86" s="430"/>
+      <c r="F86" s="368"/>
+      <c r="G86" s="368"/>
+      <c r="H86" s="368"/>
+      <c r="I86" s="487"/>
+      <c r="J86" s="378"/>
+      <c r="K86" s="446"/>
+      <c r="L86" s="451"/>
+      <c r="M86" s="447"/>
+      <c r="N86" s="456"/>
+      <c r="O86" s="446"/>
+      <c r="P86" s="447"/>
+      <c r="Q86" s="378"/>
+      <c r="R86" s="375"/>
+      <c r="S86" s="375"/>
+      <c r="T86" s="375"/>
+      <c r="U86" s="378"/>
+      <c r="V86" s="375"/>
+      <c r="X86" s="368"/>
+      <c r="Y86" s="368"/>
     </row>
     <row r="87" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="428"/>
-      <c r="C87" s="429"/>
+      <c r="B87" s="477"/>
+      <c r="C87" s="478"/>
       <c r="D87" s="123"/>
       <c r="E87" s="124"/>
-      <c r="F87" s="410"/>
-      <c r="G87" s="410"/>
-      <c r="H87" s="410"/>
-      <c r="I87" s="433"/>
-      <c r="J87" s="451"/>
-      <c r="K87" s="487"/>
-      <c r="L87" s="491"/>
-      <c r="M87" s="488"/>
-      <c r="N87" s="495"/>
-      <c r="O87" s="487"/>
-      <c r="P87" s="488"/>
-      <c r="Q87" s="451"/>
-      <c r="R87" s="498"/>
-      <c r="S87" s="498"/>
-      <c r="T87" s="498"/>
-      <c r="U87" s="451"/>
-      <c r="V87" s="498"/>
-      <c r="X87" s="410"/>
-      <c r="Y87" s="410"/>
+      <c r="F87" s="369"/>
+      <c r="G87" s="369"/>
+      <c r="H87" s="369"/>
+      <c r="I87" s="488"/>
+      <c r="J87" s="379"/>
+      <c r="K87" s="448"/>
+      <c r="L87" s="452"/>
+      <c r="M87" s="449"/>
+      <c r="N87" s="456"/>
+      <c r="O87" s="448"/>
+      <c r="P87" s="449"/>
+      <c r="Q87" s="379"/>
+      <c r="R87" s="376"/>
+      <c r="S87" s="376"/>
+      <c r="T87" s="376"/>
+      <c r="U87" s="379"/>
+      <c r="V87" s="376"/>
+      <c r="X87" s="369"/>
+      <c r="Y87" s="369"/>
     </row>
     <row r="88" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="411" t="str">
+      <c r="B88" s="384" t="str">
         <f t="shared" ref="B88:B96" si="6">B42</f>
         <v>14-20</v>
       </c>
-      <c r="C88" s="412"/>
+      <c r="C88" s="385"/>
       <c r="D88" s="128">
         <f>LEFT(B88,2)+0</f>
         <v>14</v>
@@ -42459,26 +42459,26 @@
         <f t="shared" ref="J88:J96" si="10">(F88/100)/((I88/1000)^2)</f>
         <v>6746.44335939147</v>
       </c>
-      <c r="K88" s="434" t="e">
+      <c r="K88" s="489" t="e">
         <f>ROUND((J77*J33*((1-J76)^2)/(J76^3)*(J74*(J73/3600))/9.806*((6/J78)^2)*J97),4)&amp;" m"</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L88" s="435"/>
-      <c r="M88" s="436"/>
+      <c r="L88" s="490"/>
+      <c r="M88" s="491"/>
       <c r="N88" s="103">
         <f t="shared" ref="N88:N96" si="11">$J$79*(I88/1000)*($J$73/3600)/$J$33</f>
         <v>0.99256086514638053</v>
       </c>
-      <c r="O88" s="479">
+      <c r="O88" s="416">
         <f>150*(1-$J$76)/N88+1.75</f>
         <v>84.868328454178069</v>
       </c>
-      <c r="P88" s="480"/>
+      <c r="P88" s="417"/>
       <c r="Q88" s="116">
         <f t="shared" ref="Q88:Q96" si="12">O88*(F88/100)/(I88/1000)</f>
         <v>623.48797422856558</v>
       </c>
-      <c r="R88" s="508" t="e">
+      <c r="R88" s="365" t="e">
         <f>ROUND((1/J79*(1-J76)/(J76^3)*J74*((J73/3600)^2)/9.806*Q97),4)&amp; " m"</f>
         <v>#VALUE!</v>
       </c>
@@ -42494,7 +42494,7 @@
         <f t="shared" ref="U88:U96" si="14">T88*(F88/100)/(I88/1000)</f>
         <v>173.88585816662274</v>
       </c>
-      <c r="V88" s="508" t="e">
+      <c r="V88" s="365" t="e">
         <f>ROUND((0.178*((J73/3600)^2)*J74*1/(9.806*(J76^4))*J80*U97),4)&amp;" m"</f>
         <v>#VALUE!</v>
       </c>
@@ -42509,11 +42509,11 @@
       <c r="AM88" s="155"/>
     </row>
     <row r="89" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="411" t="str">
+      <c r="B89" s="384" t="str">
         <f t="shared" si="6"/>
         <v>20-25</v>
       </c>
-      <c r="C89" s="412"/>
+      <c r="C89" s="385"/>
       <c r="D89" s="128">
         <f t="shared" ref="D89:D96" si="15">LEFT(B89,2)+0</f>
         <v>20</v>
@@ -42542,23 +42542,23 @@
         <f t="shared" si="10"/>
         <v>71478.185698644607</v>
       </c>
-      <c r="K89" s="437"/>
-      <c r="L89" s="438"/>
-      <c r="M89" s="439"/>
+      <c r="K89" s="492"/>
+      <c r="L89" s="493"/>
+      <c r="M89" s="494"/>
       <c r="N89" s="103">
         <f t="shared" si="11"/>
         <v>0.70284134041417956</v>
       </c>
-      <c r="O89" s="479">
+      <c r="O89" s="416">
         <f t="shared" ref="O89:O96" si="18">150*(1-$J$76)/N89+1.75</f>
         <v>119.13068786816569</v>
       </c>
-      <c r="P89" s="480"/>
+      <c r="P89" s="417"/>
       <c r="Q89" s="116">
         <f t="shared" si="12"/>
         <v>6566.0604193475147</v>
       </c>
-      <c r="R89" s="508"/>
+      <c r="R89" s="365"/>
       <c r="S89" s="117">
         <f t="shared" si="13"/>
         <v>0.82687216519315243</v>
@@ -42571,7 +42571,7 @@
         <f t="shared" si="14"/>
         <v>1800.334303150498</v>
       </c>
-      <c r="V89" s="508"/>
+      <c r="V89" s="365"/>
       <c r="X89" s="46">
         <v>100</v>
       </c>
@@ -42583,11 +42583,11 @@
       <c r="AM89" s="155"/>
     </row>
     <row r="90" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="411" t="str">
+      <c r="B90" s="384" t="str">
         <f t="shared" si="6"/>
         <v>25-30</v>
       </c>
-      <c r="C90" s="412"/>
+      <c r="C90" s="385"/>
       <c r="D90" s="128">
         <f t="shared" si="15"/>
         <v>25</v>
@@ -42616,23 +42616,23 @@
         <f t="shared" si="10"/>
         <v>357053.7125741386</v>
       </c>
-      <c r="K90" s="437"/>
-      <c r="L90" s="438"/>
-      <c r="M90" s="439"/>
+      <c r="K90" s="492"/>
+      <c r="L90" s="493"/>
+      <c r="M90" s="494"/>
       <c r="N90" s="103">
         <f t="shared" si="11"/>
         <v>0.59117734575652048</v>
       </c>
-      <c r="O90" s="479">
+      <c r="O90" s="416">
         <f t="shared" si="18"/>
         <v>141.3020322153516</v>
       </c>
-      <c r="P90" s="480"/>
+      <c r="P90" s="417"/>
       <c r="Q90" s="116">
         <f t="shared" si="12"/>
         <v>32722.776859257607</v>
       </c>
-      <c r="R90" s="508"/>
+      <c r="R90" s="365"/>
       <c r="S90" s="117">
         <f t="shared" si="13"/>
         <v>0.69550275971355346</v>
@@ -42645,7 +42645,7 @@
         <f t="shared" si="14"/>
         <v>8903.0312574751879</v>
       </c>
-      <c r="V90" s="508"/>
+      <c r="V90" s="365"/>
       <c r="X90" s="46">
         <v>80</v>
       </c>
@@ -42657,11 +42657,11 @@
       <c r="AM90" s="155"/>
     </row>
     <row r="91" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="411" t="str">
+      <c r="B91" s="384" t="str">
         <f t="shared" si="6"/>
         <v>30-35</v>
       </c>
-      <c r="C91" s="412"/>
+      <c r="C91" s="385"/>
       <c r="D91" s="128">
         <f t="shared" si="15"/>
         <v>30</v>
@@ -42690,23 +42690,23 @@
         <f t="shared" si="10"/>
         <v>559663.86554621835</v>
       </c>
-      <c r="K91" s="437"/>
-      <c r="L91" s="438"/>
-      <c r="M91" s="439"/>
+      <c r="K91" s="492"/>
+      <c r="L91" s="493"/>
+      <c r="M91" s="494"/>
       <c r="N91" s="103">
         <f t="shared" si="11"/>
         <v>0.4971564503894913</v>
       </c>
-      <c r="O91" s="479">
+      <c r="O91" s="416">
         <f t="shared" si="18"/>
         <v>167.69373850599013</v>
       </c>
-      <c r="P91" s="480"/>
+      <c r="P91" s="417"/>
       <c r="Q91" s="116">
         <f t="shared" si="12"/>
         <v>51190.291150477846</v>
       </c>
-      <c r="R91" s="508"/>
+      <c r="R91" s="365"/>
       <c r="S91" s="117">
         <f t="shared" si="13"/>
         <v>0.58488994163469576</v>
@@ -42719,7 +42719,7 @@
         <f t="shared" si="14"/>
         <v>13827.100144683696</v>
       </c>
-      <c r="V91" s="508"/>
+      <c r="V91" s="365"/>
       <c r="X91" s="46">
         <v>70</v>
       </c>
@@ -42731,11 +42731,11 @@
       <c r="AF91" s="141"/>
     </row>
     <row r="92" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="411" t="str">
+      <c r="B92" s="384" t="str">
         <f t="shared" si="6"/>
         <v>35-40</v>
       </c>
-      <c r="C92" s="412"/>
+      <c r="C92" s="385"/>
       <c r="D92" s="128">
         <f t="shared" si="15"/>
         <v>35</v>
@@ -42764,23 +42764,23 @@
         <f t="shared" si="10"/>
         <v>900500</v>
       </c>
-      <c r="K92" s="437"/>
-      <c r="L92" s="438"/>
-      <c r="M92" s="439"/>
+      <c r="K92" s="492"/>
+      <c r="L92" s="493"/>
+      <c r="M92" s="494"/>
       <c r="N92" s="103">
         <f t="shared" si="11"/>
         <v>0.40762854747332483</v>
       </c>
-      <c r="O92" s="479">
+      <c r="O92" s="416">
         <f t="shared" si="18"/>
         <v>204.14014296563414</v>
       </c>
-      <c r="P92" s="480"/>
+      <c r="P92" s="417"/>
       <c r="Q92" s="116">
         <f t="shared" si="12"/>
         <v>82210.469713043785</v>
       </c>
-      <c r="R92" s="508"/>
+      <c r="R92" s="365"/>
       <c r="S92" s="117">
         <f t="shared" si="13"/>
         <v>0.47956299702744098</v>
@@ -42793,7 +42793,7 @@
         <f t="shared" si="14"/>
         <v>22035.669411183146</v>
       </c>
-      <c r="V92" s="508"/>
+      <c r="V92" s="365"/>
       <c r="X92" s="46">
         <v>60</v>
       </c>
@@ -42806,11 +42806,11 @@
       <c r="AF92" s="141"/>
     </row>
     <row r="93" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="411" t="str">
+      <c r="B93" s="384" t="str">
         <f t="shared" si="6"/>
         <v>40-50</v>
       </c>
-      <c r="C93" s="412"/>
+      <c r="C93" s="385"/>
       <c r="D93" s="128">
         <f t="shared" si="15"/>
         <v>40</v>
@@ -42839,23 +42839,23 @@
         <f t="shared" si="10"/>
         <v>1536195.2861952859</v>
       </c>
-      <c r="K93" s="437"/>
-      <c r="L93" s="438"/>
-      <c r="M93" s="439"/>
+      <c r="K93" s="492"/>
+      <c r="L93" s="493"/>
+      <c r="M93" s="494"/>
       <c r="N93" s="103">
         <f t="shared" si="11"/>
         <v>0.31416500987989782</v>
       </c>
-      <c r="O93" s="479">
+      <c r="O93" s="416">
         <f t="shared" si="18"/>
         <v>264.35085434574313</v>
       </c>
-      <c r="P93" s="480"/>
+      <c r="P93" s="417"/>
       <c r="Q93" s="116">
         <f t="shared" si="12"/>
         <v>139970.13026794555</v>
       </c>
-      <c r="R93" s="508"/>
+      <c r="R93" s="365"/>
       <c r="S93" s="117">
         <f t="shared" si="13"/>
         <v>0.36960589397635041</v>
@@ -42868,7 +42868,7 @@
         <f t="shared" si="14"/>
         <v>37174.499791542286</v>
       </c>
-      <c r="V93" s="508"/>
+      <c r="V93" s="365"/>
       <c r="W93" s="121"/>
       <c r="X93" s="46">
         <v>50</v>
@@ -42882,11 +42882,11 @@
       <c r="AF93" s="141"/>
     </row>
     <row r="94" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="411" t="str">
+      <c r="B94" s="384" t="str">
         <f t="shared" si="6"/>
         <v>50-60</v>
       </c>
-      <c r="C94" s="412"/>
+      <c r="C94" s="385"/>
       <c r="D94" s="128">
         <f t="shared" si="15"/>
         <v>50</v>
@@ -42915,23 +42915,23 @@
         <f t="shared" si="10"/>
         <v>2107744.1077441075</v>
       </c>
-      <c r="K94" s="437"/>
-      <c r="L94" s="438"/>
-      <c r="M94" s="439"/>
+      <c r="K94" s="492"/>
+      <c r="L94" s="493"/>
+      <c r="M94" s="494"/>
       <c r="N94" s="103">
         <f t="shared" si="11"/>
         <v>0.24836924808744476</v>
       </c>
-      <c r="O94" s="479">
+      <c r="O94" s="416">
         <f t="shared" si="18"/>
         <v>333.91672609546958</v>
       </c>
-      <c r="P94" s="480"/>
+      <c r="P94" s="417"/>
       <c r="Q94" s="116">
         <f t="shared" si="12"/>
         <v>191780.42934705055</v>
       </c>
-      <c r="R94" s="508"/>
+      <c r="R94" s="365"/>
       <c r="S94" s="117">
         <f t="shared" si="13"/>
         <v>0.29219911539699384</v>
@@ -42944,7 +42944,7 @@
         <f t="shared" si="14"/>
         <v>50556.296490488276</v>
       </c>
-      <c r="V94" s="508"/>
+      <c r="V94" s="365"/>
       <c r="W94" s="121"/>
       <c r="X94" s="46">
         <v>45</v>
@@ -42957,11 +42957,11 @@
       <c r="AF94" s="141"/>
     </row>
     <row r="95" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="411" t="str">
+      <c r="B95" s="384" t="str">
         <f t="shared" si="6"/>
         <v>60-70</v>
       </c>
-      <c r="C95" s="412"/>
+      <c r="C95" s="385"/>
       <c r="D95" s="128">
         <f t="shared" si="15"/>
         <v>60</v>
@@ -42990,23 +42990,23 @@
         <f t="shared" si="10"/>
         <v>1771428.5714285716</v>
       </c>
-      <c r="K95" s="437"/>
-      <c r="L95" s="438"/>
-      <c r="M95" s="439"/>
+      <c r="K95" s="492"/>
+      <c r="L95" s="493"/>
+      <c r="M95" s="494"/>
       <c r="N95" s="103">
         <f t="shared" si="11"/>
         <v>0.20884748283793922</v>
       </c>
-      <c r="O95" s="479">
+      <c r="O95" s="416">
         <f t="shared" si="18"/>
         <v>396.77511056845287</v>
       </c>
-      <c r="P95" s="480"/>
+      <c r="P95" s="417"/>
       <c r="Q95" s="116">
         <f t="shared" si="12"/>
         <v>161045.17519910476</v>
       </c>
-      <c r="R95" s="508"/>
+      <c r="R95" s="365"/>
       <c r="S95" s="117">
         <f t="shared" si="13"/>
         <v>0.24570292098581084</v>
@@ -43019,7 +43019,7 @@
         <f t="shared" si="14"/>
         <v>42240.957889352372</v>
       </c>
-      <c r="V95" s="508"/>
+      <c r="V95" s="365"/>
       <c r="W95" s="121"/>
       <c r="X95" s="46">
         <v>40</v>
@@ -43032,11 +43032,11 @@
       <c r="AF95" s="141"/>
     </row>
     <row r="96" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="411" t="str">
+      <c r="B96" s="384" t="str">
         <f t="shared" si="6"/>
         <v>70-100</v>
       </c>
-      <c r="C96" s="412"/>
+      <c r="C96" s="385"/>
       <c r="D96" s="128">
         <f t="shared" si="15"/>
         <v>70</v>
@@ -43065,23 +43065,23 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K96" s="440"/>
-      <c r="L96" s="441"/>
-      <c r="M96" s="442"/>
+      <c r="K96" s="495"/>
+      <c r="L96" s="496"/>
+      <c r="M96" s="497"/>
       <c r="N96" s="103">
         <f t="shared" si="11"/>
         <v>0.16123242095898396</v>
       </c>
-      <c r="O96" s="479">
+      <c r="O96" s="416">
         <f t="shared" si="18"/>
         <v>513.43368935542583</v>
       </c>
-      <c r="P96" s="480"/>
+      <c r="P96" s="417"/>
       <c r="Q96" s="116" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R96" s="508"/>
+      <c r="R96" s="365"/>
       <c r="S96" s="117">
         <f t="shared" si="13"/>
         <v>0.18968520112821644</v>
@@ -43094,7 +43094,7 @@
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V96" s="508"/>
+      <c r="V96" s="365"/>
       <c r="W96" s="121"/>
       <c r="X96" s="46">
         <v>35</v>
@@ -43118,7 +43118,7 @@
       <c r="G97" s="127"/>
       <c r="H97" s="5"/>
       <c r="I97" s="121"/>
-      <c r="J97" s="406" t="e">
+      <c r="J97" s="499" t="e">
         <f>SUM(J88:J96)</f>
         <v>#VALUE!</v>
       </c>
@@ -43128,14 +43128,14 @@
       <c r="N97" s="121"/>
       <c r="O97" s="121"/>
       <c r="P97" s="121"/>
-      <c r="Q97" s="407" t="e">
+      <c r="Q97" s="366" t="e">
         <f>SUM(Q88:Q96)</f>
         <v>#VALUE!</v>
       </c>
       <c r="R97" s="121"/>
       <c r="S97" s="121"/>
       <c r="T97" s="121"/>
-      <c r="U97" s="509" t="e">
+      <c r="U97" s="370" t="e">
         <f>SUM(U88:U96)</f>
         <v>#VALUE!</v>
       </c>
@@ -43158,18 +43158,18 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="121"/>
-      <c r="J98" s="407"/>
+      <c r="J98" s="366"/>
       <c r="K98" s="121"/>
       <c r="L98" s="121"/>
       <c r="M98" s="121"/>
       <c r="N98" s="121"/>
       <c r="O98" s="121"/>
       <c r="P98" s="121"/>
-      <c r="Q98" s="407"/>
+      <c r="Q98" s="366"/>
       <c r="R98" s="121"/>
       <c r="S98" s="121"/>
       <c r="T98" s="121"/>
-      <c r="U98" s="510"/>
+      <c r="U98" s="371"/>
       <c r="V98" s="121"/>
       <c r="W98" s="121"/>
       <c r="X98" s="46">
@@ -43189,7 +43189,7 @@
       <c r="G99" s="122"/>
       <c r="H99" s="122"/>
       <c r="I99" s="121"/>
-      <c r="J99" s="407"/>
+      <c r="J99" s="366"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6">
@@ -43198,13 +43198,13 @@
       <c r="N99" s="121"/>
       <c r="O99" s="121"/>
       <c r="P99" s="121"/>
-      <c r="Q99" s="407"/>
+      <c r="Q99" s="366"/>
       <c r="R99" s="6">
         <v>0.47220000000000001</v>
       </c>
       <c r="S99" s="121"/>
       <c r="T99" s="121"/>
-      <c r="U99" s="511"/>
+      <c r="U99" s="372"/>
       <c r="V99" s="6" t="s">
         <v>239</v>
       </c>
@@ -43282,19 +43282,19 @@
       <c r="Z101" s="120"/>
     </row>
     <row r="102" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="468" t="s">
+      <c r="B102" s="460" t="s">
         <v>224</v>
       </c>
-      <c r="C102" s="469"/>
+      <c r="C102" s="461"/>
       <c r="D102" s="145"/>
       <c r="E102" s="186"/>
-      <c r="F102" s="474" t="s">
+      <c r="F102" s="390" t="s">
         <v>222</v>
       </c>
-      <c r="G102" s="474" t="s">
+      <c r="G102" s="390" t="s">
         <v>223</v>
       </c>
-      <c r="H102" s="474" t="s">
+      <c r="H102" s="390" t="s">
         <v>216</v>
       </c>
       <c r="I102" s="121"/>
@@ -43321,13 +43321,13 @@
       <c r="Z102" s="120"/>
     </row>
     <row r="103" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="470"/>
-      <c r="C103" s="471"/>
+      <c r="B103" s="462"/>
+      <c r="C103" s="463"/>
       <c r="D103" s="145"/>
       <c r="E103" s="186"/>
-      <c r="F103" s="475"/>
-      <c r="G103" s="475"/>
-      <c r="H103" s="475"/>
+      <c r="F103" s="391"/>
+      <c r="G103" s="391"/>
+      <c r="H103" s="391"/>
       <c r="I103" s="121"/>
       <c r="J103" s="144"/>
       <c r="K103" s="6"/>
@@ -43352,13 +43352,13 @@
       <c r="Z103" s="120"/>
     </row>
     <row r="104" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="470"/>
-      <c r="C104" s="471"/>
+      <c r="B104" s="462"/>
+      <c r="C104" s="463"/>
       <c r="D104" s="145"/>
       <c r="E104" s="186"/>
-      <c r="F104" s="475"/>
-      <c r="G104" s="475"/>
-      <c r="H104" s="475"/>
+      <c r="F104" s="391"/>
+      <c r="G104" s="391"/>
+      <c r="H104" s="391"/>
       <c r="I104" s="150"/>
       <c r="J104" s="150"/>
       <c r="K104" s="150"/>
@@ -43383,13 +43383,13 @@
       <c r="Z104" s="120"/>
     </row>
     <row r="105" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="472"/>
-      <c r="C105" s="473"/>
+      <c r="B105" s="464"/>
+      <c r="C105" s="465"/>
       <c r="D105" s="145"/>
       <c r="E105" s="186"/>
-      <c r="F105" s="476"/>
-      <c r="G105" s="476"/>
-      <c r="H105" s="476"/>
+      <c r="F105" s="466"/>
+      <c r="G105" s="466"/>
+      <c r="H105" s="466"/>
       <c r="I105" s="150"/>
       <c r="J105" s="150"/>
       <c r="K105" s="150"/>
@@ -43414,10 +43414,10 @@
       <c r="Z105" s="120"/>
     </row>
     <row r="106" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="477">
+      <c r="B106" s="467">
         <v>1</v>
       </c>
-      <c r="C106" s="478"/>
+      <c r="C106" s="468"/>
       <c r="D106" s="146"/>
       <c r="E106" s="132"/>
       <c r="F106" s="148">
@@ -43449,10 +43449,10 @@
       <c r="Z106" s="120"/>
     </row>
     <row r="107" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="477">
+      <c r="B107" s="467">
         <v>2</v>
       </c>
-      <c r="C107" s="478"/>
+      <c r="C107" s="468"/>
       <c r="D107" s="146"/>
       <c r="E107" s="132"/>
       <c r="F107" s="148" t="s">
@@ -43484,10 +43484,10 @@
       <c r="Z107" s="120"/>
     </row>
     <row r="108" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="477">
+      <c r="B108" s="467">
         <v>3</v>
       </c>
-      <c r="C108" s="478"/>
+      <c r="C108" s="468"/>
       <c r="D108" s="146"/>
       <c r="E108" s="132"/>
       <c r="F108" s="148" t="s">
@@ -43519,10 +43519,10 @@
       <c r="Z108" s="120"/>
     </row>
     <row r="109" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="477">
+      <c r="B109" s="467">
         <v>4</v>
       </c>
-      <c r="C109" s="478"/>
+      <c r="C109" s="468"/>
       <c r="D109" s="146"/>
       <c r="E109" s="132"/>
       <c r="F109" s="148" t="s">
@@ -43554,10 +43554,10 @@
       <c r="Z109" s="120"/>
     </row>
     <row r="110" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="477">
+      <c r="B110" s="467">
         <v>5</v>
       </c>
-      <c r="C110" s="478"/>
+      <c r="C110" s="468"/>
       <c r="D110" s="182"/>
       <c r="E110" s="187"/>
       <c r="F110" s="133" t="s">
@@ -43645,15 +43645,15 @@
       <c r="Z112" s="120"/>
     </row>
     <row r="113" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="337" t="s">
+      <c r="B113" s="341" t="s">
         <v>180</v>
       </c>
-      <c r="C113" s="337"/>
-      <c r="D113" s="337"/>
-      <c r="E113" s="337"/>
-      <c r="F113" s="337"/>
-      <c r="G113" s="337"/>
-      <c r="H113" s="337"/>
+      <c r="C113" s="341"/>
+      <c r="D113" s="341"/>
+      <c r="E113" s="341"/>
+      <c r="F113" s="341"/>
+      <c r="G113" s="341"/>
+      <c r="H113" s="341"/>
       <c r="I113" s="206" t="s">
         <v>212</v>
       </c>
@@ -43664,10 +43664,10 @@
       <c r="K113" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="L113" s="395"/>
-      <c r="M113" s="396"/>
-      <c r="N113" s="396"/>
-      <c r="O113" s="397"/>
+      <c r="L113" s="432"/>
+      <c r="M113" s="433"/>
+      <c r="N113" s="433"/>
+      <c r="O113" s="434"/>
       <c r="P113" s="121"/>
       <c r="Q113" s="188"/>
       <c r="R113" s="6"/>
@@ -43681,15 +43681,15 @@
       <c r="Z113" s="120"/>
     </row>
     <row r="114" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="331" t="s">
+      <c r="B114" s="323" t="s">
         <v>295</v>
       </c>
-      <c r="C114" s="417"/>
-      <c r="D114" s="417"/>
-      <c r="E114" s="417"/>
-      <c r="F114" s="417"/>
-      <c r="G114" s="417"/>
-      <c r="H114" s="332"/>
+      <c r="C114" s="380"/>
+      <c r="D114" s="380"/>
+      <c r="E114" s="380"/>
+      <c r="F114" s="380"/>
+      <c r="G114" s="380"/>
+      <c r="H114" s="324"/>
       <c r="I114" s="206" t="s">
         <v>296</v>
       </c>
@@ -43700,10 +43700,10 @@
       <c r="K114" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L114" s="395"/>
-      <c r="M114" s="396"/>
-      <c r="N114" s="396"/>
-      <c r="O114" s="397"/>
+      <c r="L114" s="432"/>
+      <c r="M114" s="433"/>
+      <c r="N114" s="433"/>
+      <c r="O114" s="434"/>
       <c r="P114" s="121"/>
       <c r="Q114" s="188"/>
       <c r="R114" s="6"/>
@@ -43717,29 +43717,29 @@
       <c r="Z114" s="120"/>
     </row>
     <row r="115" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="458" t="s">
+      <c r="B115" s="418" t="s">
         <v>298</v>
       </c>
-      <c r="C115" s="459"/>
-      <c r="D115" s="459"/>
-      <c r="E115" s="459"/>
-      <c r="F115" s="459"/>
-      <c r="G115" s="459"/>
-      <c r="H115" s="460"/>
-      <c r="I115" s="378" t="s">
+      <c r="C115" s="419"/>
+      <c r="D115" s="419"/>
+      <c r="E115" s="419"/>
+      <c r="F115" s="419"/>
+      <c r="G115" s="419"/>
+      <c r="H115" s="420"/>
+      <c r="I115" s="402" t="s">
         <v>299</v>
       </c>
-      <c r="J115" s="501">
+      <c r="J115" s="424">
         <f>J113/(24*60)*J114/3</f>
         <v>1.5625E-2</v>
       </c>
-      <c r="K115" s="378" t="s">
+      <c r="K115" s="402" t="s">
         <v>3</v>
       </c>
-      <c r="L115" s="443"/>
-      <c r="M115" s="444"/>
-      <c r="N115" s="444"/>
-      <c r="O115" s="445"/>
+      <c r="L115" s="426"/>
+      <c r="M115" s="427"/>
+      <c r="N115" s="427"/>
+      <c r="O115" s="428"/>
       <c r="P115" s="121"/>
       <c r="Q115" s="188"/>
       <c r="R115" s="6"/>
@@ -43753,20 +43753,20 @@
       <c r="Z115" s="120"/>
     </row>
     <row r="116" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="461"/>
-      <c r="C116" s="462"/>
-      <c r="D116" s="462"/>
-      <c r="E116" s="462"/>
-      <c r="F116" s="462"/>
-      <c r="G116" s="462"/>
-      <c r="H116" s="463"/>
-      <c r="I116" s="379"/>
-      <c r="J116" s="502"/>
-      <c r="K116" s="379"/>
-      <c r="L116" s="446"/>
-      <c r="M116" s="447"/>
-      <c r="N116" s="447"/>
-      <c r="O116" s="448"/>
+      <c r="B116" s="421"/>
+      <c r="C116" s="422"/>
+      <c r="D116" s="422"/>
+      <c r="E116" s="422"/>
+      <c r="F116" s="422"/>
+      <c r="G116" s="422"/>
+      <c r="H116" s="423"/>
+      <c r="I116" s="403"/>
+      <c r="J116" s="425"/>
+      <c r="K116" s="403"/>
+      <c r="L116" s="429"/>
+      <c r="M116" s="430"/>
+      <c r="N116" s="430"/>
+      <c r="O116" s="431"/>
       <c r="P116" s="121"/>
       <c r="Q116" s="188"/>
       <c r="R116" s="6"/>
@@ -43836,15 +43836,15 @@
       <c r="Z118" s="120"/>
     </row>
     <row r="119" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="421" t="s">
+      <c r="B119" s="483" t="s">
         <v>33</v>
       </c>
-      <c r="C119" s="422"/>
-      <c r="D119" s="422"/>
-      <c r="E119" s="422"/>
-      <c r="F119" s="422"/>
-      <c r="G119" s="422"/>
-      <c r="H119" s="423"/>
+      <c r="C119" s="484"/>
+      <c r="D119" s="484"/>
+      <c r="E119" s="484"/>
+      <c r="F119" s="484"/>
+      <c r="G119" s="484"/>
+      <c r="H119" s="485"/>
       <c r="I119" s="250" t="s">
         <v>0</v>
       </c>
@@ -43855,15 +43855,15 @@
       <c r="K119" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="L119" s="395"/>
-      <c r="M119" s="396"/>
-      <c r="N119" s="396"/>
-      <c r="O119" s="397"/>
+      <c r="L119" s="432"/>
+      <c r="M119" s="433"/>
+      <c r="N119" s="433"/>
+      <c r="O119" s="434"/>
       <c r="P119" s="310"/>
-      <c r="Q119" s="365" t="s">
+      <c r="Q119" s="506" t="s">
         <v>415</v>
       </c>
-      <c r="R119" s="365"/>
+      <c r="R119" s="506"/>
       <c r="S119" s="121"/>
       <c r="T119" s="121"/>
       <c r="U119" s="195"/>
@@ -43874,15 +43874,15 @@
       <c r="Z119" s="120"/>
     </row>
     <row r="120" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="402" t="s">
+      <c r="B120" s="381" t="s">
         <v>347</v>
       </c>
-      <c r="C120" s="403"/>
-      <c r="D120" s="403"/>
-      <c r="E120" s="403"/>
-      <c r="F120" s="403"/>
-      <c r="G120" s="403"/>
-      <c r="H120" s="404"/>
+      <c r="C120" s="382"/>
+      <c r="D120" s="382"/>
+      <c r="E120" s="382"/>
+      <c r="F120" s="382"/>
+      <c r="G120" s="382"/>
+      <c r="H120" s="383"/>
       <c r="I120" s="206" t="s">
         <v>212</v>
       </c>
@@ -43910,15 +43910,15 @@
       <c r="Z120" s="120"/>
     </row>
     <row r="121" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="402" t="s">
+      <c r="B121" s="381" t="s">
         <v>355</v>
       </c>
-      <c r="C121" s="403"/>
-      <c r="D121" s="403"/>
-      <c r="E121" s="403"/>
-      <c r="F121" s="403"/>
-      <c r="G121" s="403"/>
-      <c r="H121" s="404"/>
+      <c r="C121" s="382"/>
+      <c r="D121" s="382"/>
+      <c r="E121" s="382"/>
+      <c r="F121" s="382"/>
+      <c r="G121" s="382"/>
+      <c r="H121" s="383"/>
       <c r="I121" s="206" t="s">
         <v>356</v>
       </c>
@@ -43946,29 +43946,29 @@
       <c r="Z121" s="120"/>
     </row>
     <row r="122" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="452" t="s">
+      <c r="B122" s="436" t="s">
         <v>365</v>
       </c>
-      <c r="C122" s="453"/>
-      <c r="D122" s="453"/>
-      <c r="E122" s="453"/>
-      <c r="F122" s="453"/>
-      <c r="G122" s="453"/>
-      <c r="H122" s="454"/>
-      <c r="I122" s="398" t="s">
+      <c r="C122" s="437"/>
+      <c r="D122" s="437"/>
+      <c r="E122" s="437"/>
+      <c r="F122" s="437"/>
+      <c r="G122" s="437"/>
+      <c r="H122" s="438"/>
+      <c r="I122" s="412" t="s">
         <v>269</v>
       </c>
-      <c r="J122" s="400">
+      <c r="J122" s="414">
         <f>(J119*86400)/J120</f>
         <v>41.221440000000001</v>
       </c>
-      <c r="K122" s="398" t="s">
+      <c r="K122" s="412" t="s">
         <v>363</v>
       </c>
-      <c r="L122" s="443"/>
-      <c r="M122" s="444"/>
-      <c r="N122" s="444"/>
-      <c r="O122" s="445"/>
+      <c r="L122" s="426"/>
+      <c r="M122" s="427"/>
+      <c r="N122" s="427"/>
+      <c r="O122" s="428"/>
       <c r="P122" s="121"/>
       <c r="Q122" s="196"/>
       <c r="R122" s="6"/>
@@ -43982,20 +43982,20 @@
       <c r="Z122" s="120"/>
     </row>
     <row r="123" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="455"/>
-      <c r="C123" s="456"/>
-      <c r="D123" s="456"/>
-      <c r="E123" s="456"/>
-      <c r="F123" s="456"/>
-      <c r="G123" s="456"/>
-      <c r="H123" s="457"/>
-      <c r="I123" s="399"/>
-      <c r="J123" s="401"/>
-      <c r="K123" s="399"/>
-      <c r="L123" s="446"/>
-      <c r="M123" s="447"/>
-      <c r="N123" s="447"/>
-      <c r="O123" s="448"/>
+      <c r="B123" s="439"/>
+      <c r="C123" s="440"/>
+      <c r="D123" s="440"/>
+      <c r="E123" s="440"/>
+      <c r="F123" s="440"/>
+      <c r="G123" s="440"/>
+      <c r="H123" s="441"/>
+      <c r="I123" s="413"/>
+      <c r="J123" s="415"/>
+      <c r="K123" s="413"/>
+      <c r="L123" s="429"/>
+      <c r="M123" s="430"/>
+      <c r="N123" s="430"/>
+      <c r="O123" s="431"/>
       <c r="P123" s="121"/>
       <c r="Q123" s="196"/>
       <c r="R123" s="6"/>
@@ -44009,29 +44009,29 @@
       <c r="Z123" s="120"/>
     </row>
     <row r="124" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="452" t="s">
+      <c r="B124" s="436" t="s">
         <v>366</v>
       </c>
-      <c r="C124" s="453"/>
-      <c r="D124" s="453"/>
-      <c r="E124" s="453"/>
-      <c r="F124" s="453"/>
-      <c r="G124" s="453"/>
-      <c r="H124" s="454"/>
-      <c r="I124" s="398" t="s">
+      <c r="C124" s="437"/>
+      <c r="D124" s="437"/>
+      <c r="E124" s="437"/>
+      <c r="F124" s="437"/>
+      <c r="G124" s="437"/>
+      <c r="H124" s="438"/>
+      <c r="I124" s="412" t="s">
         <v>369</v>
       </c>
-      <c r="J124" s="400">
+      <c r="J124" s="414">
         <f>(J119*86400)/J121</f>
         <v>32.977151999999997</v>
       </c>
-      <c r="K124" s="398" t="s">
+      <c r="K124" s="412" t="s">
         <v>363</v>
       </c>
-      <c r="L124" s="443"/>
-      <c r="M124" s="444"/>
-      <c r="N124" s="444"/>
-      <c r="O124" s="445"/>
+      <c r="L124" s="426"/>
+      <c r="M124" s="427"/>
+      <c r="N124" s="427"/>
+      <c r="O124" s="428"/>
       <c r="P124" s="121"/>
       <c r="Q124" s="196"/>
       <c r="R124" s="6"/>
@@ -44045,20 +44045,20 @@
       <c r="Z124" s="120"/>
     </row>
     <row r="125" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="455"/>
-      <c r="C125" s="456"/>
-      <c r="D125" s="456"/>
-      <c r="E125" s="456"/>
-      <c r="F125" s="456"/>
-      <c r="G125" s="456"/>
-      <c r="H125" s="457"/>
-      <c r="I125" s="399"/>
-      <c r="J125" s="401"/>
-      <c r="K125" s="399"/>
-      <c r="L125" s="446"/>
-      <c r="M125" s="447"/>
-      <c r="N125" s="447"/>
-      <c r="O125" s="448"/>
+      <c r="B125" s="439"/>
+      <c r="C125" s="440"/>
+      <c r="D125" s="440"/>
+      <c r="E125" s="440"/>
+      <c r="F125" s="440"/>
+      <c r="G125" s="440"/>
+      <c r="H125" s="441"/>
+      <c r="I125" s="413"/>
+      <c r="J125" s="415"/>
+      <c r="K125" s="413"/>
+      <c r="L125" s="429"/>
+      <c r="M125" s="430"/>
+      <c r="N125" s="430"/>
+      <c r="O125" s="431"/>
       <c r="P125" s="121"/>
       <c r="Q125" s="196"/>
       <c r="R125" s="6"/>
@@ -44072,15 +44072,15 @@
       <c r="Z125" s="120"/>
     </row>
     <row r="126" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="402" t="s">
+      <c r="B126" s="381" t="s">
         <v>367</v>
       </c>
-      <c r="C126" s="403"/>
-      <c r="D126" s="403"/>
-      <c r="E126" s="403"/>
-      <c r="F126" s="403"/>
-      <c r="G126" s="403"/>
-      <c r="H126" s="404"/>
+      <c r="C126" s="382"/>
+      <c r="D126" s="382"/>
+      <c r="E126" s="382"/>
+      <c r="F126" s="382"/>
+      <c r="G126" s="382"/>
+      <c r="H126" s="383"/>
       <c r="I126" s="281" t="s">
         <v>368</v>
       </c>
@@ -44091,10 +44091,10 @@
       <c r="K126" s="281" t="s">
         <v>363</v>
       </c>
-      <c r="L126" s="395"/>
-      <c r="M126" s="396"/>
-      <c r="N126" s="396"/>
-      <c r="O126" s="397"/>
+      <c r="L126" s="432"/>
+      <c r="M126" s="433"/>
+      <c r="N126" s="433"/>
+      <c r="O126" s="434"/>
       <c r="P126" s="121"/>
       <c r="Q126" s="196"/>
       <c r="R126" s="6"/>
@@ -44108,27 +44108,27 @@
       <c r="Z126" s="120"/>
     </row>
     <row r="127" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="458" t="s">
+      <c r="B127" s="418" t="s">
         <v>345</v>
       </c>
-      <c r="C127" s="459"/>
-      <c r="D127" s="459"/>
-      <c r="E127" s="459"/>
-      <c r="F127" s="459"/>
-      <c r="G127" s="459"/>
-      <c r="H127" s="460"/>
-      <c r="I127" s="398" t="s">
+      <c r="C127" s="419"/>
+      <c r="D127" s="419"/>
+      <c r="E127" s="419"/>
+      <c r="F127" s="419"/>
+      <c r="G127" s="419"/>
+      <c r="H127" s="420"/>
+      <c r="I127" s="412" t="s">
         <v>381</v>
       </c>
-      <c r="J127" s="400">
+      <c r="J127" s="414">
         <f>ROUND(J122/J126,2)</f>
         <v>5</v>
       </c>
-      <c r="K127" s="398"/>
-      <c r="L127" s="443"/>
-      <c r="M127" s="444"/>
-      <c r="N127" s="444"/>
-      <c r="O127" s="445"/>
+      <c r="K127" s="412"/>
+      <c r="L127" s="426"/>
+      <c r="M127" s="427"/>
+      <c r="N127" s="427"/>
+      <c r="O127" s="428"/>
       <c r="P127" s="121"/>
       <c r="Q127" s="196"/>
       <c r="R127" s="6"/>
@@ -44142,20 +44142,20 @@
       <c r="Z127" s="120"/>
     </row>
     <row r="128" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="461"/>
-      <c r="C128" s="462"/>
-      <c r="D128" s="462"/>
-      <c r="E128" s="462"/>
-      <c r="F128" s="462"/>
-      <c r="G128" s="462"/>
-      <c r="H128" s="463"/>
-      <c r="I128" s="399"/>
-      <c r="J128" s="401"/>
-      <c r="K128" s="399"/>
-      <c r="L128" s="446"/>
-      <c r="M128" s="447"/>
-      <c r="N128" s="447"/>
-      <c r="O128" s="448"/>
+      <c r="B128" s="421"/>
+      <c r="C128" s="422"/>
+      <c r="D128" s="422"/>
+      <c r="E128" s="422"/>
+      <c r="F128" s="422"/>
+      <c r="G128" s="422"/>
+      <c r="H128" s="423"/>
+      <c r="I128" s="413"/>
+      <c r="J128" s="415"/>
+      <c r="K128" s="413"/>
+      <c r="L128" s="429"/>
+      <c r="M128" s="430"/>
+      <c r="N128" s="430"/>
+      <c r="O128" s="431"/>
       <c r="P128" s="121"/>
       <c r="Q128" s="196"/>
       <c r="R128" s="6"/>
@@ -44169,15 +44169,15 @@
       <c r="Z128" s="120"/>
     </row>
     <row r="129" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="503" t="s">
+      <c r="B129" s="435" t="s">
         <v>371</v>
       </c>
-      <c r="C129" s="503"/>
-      <c r="D129" s="503"/>
-      <c r="E129" s="503"/>
-      <c r="F129" s="503"/>
-      <c r="G129" s="503"/>
-      <c r="H129" s="503"/>
+      <c r="C129" s="435"/>
+      <c r="D129" s="435"/>
+      <c r="E129" s="435"/>
+      <c r="F129" s="435"/>
+      <c r="G129" s="435"/>
+      <c r="H129" s="435"/>
       <c r="I129" s="275" t="s">
         <v>370</v>
       </c>
@@ -44188,10 +44188,10 @@
       <c r="K129" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="L129" s="407"/>
-      <c r="M129" s="407"/>
-      <c r="N129" s="407"/>
-      <c r="O129" s="407"/>
+      <c r="L129" s="366"/>
+      <c r="M129" s="366"/>
+      <c r="N129" s="366"/>
+      <c r="O129" s="366"/>
       <c r="P129" s="121"/>
       <c r="Q129" s="196"/>
       <c r="R129" s="6"/>
@@ -44317,15 +44317,15 @@
       <c r="Z133" s="120"/>
     </row>
     <row r="134" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="392" t="s">
+      <c r="B134" s="469" t="s">
         <v>231</v>
       </c>
-      <c r="C134" s="393"/>
-      <c r="D134" s="393"/>
-      <c r="E134" s="393"/>
-      <c r="F134" s="393"/>
-      <c r="G134" s="393"/>
-      <c r="H134" s="394"/>
+      <c r="C134" s="470"/>
+      <c r="D134" s="470"/>
+      <c r="E134" s="470"/>
+      <c r="F134" s="470"/>
+      <c r="G134" s="470"/>
+      <c r="H134" s="471"/>
       <c r="I134" s="56" t="s">
         <v>11</v>
       </c>
@@ -44334,10 +44334,10 @@
         <v>0.45</v>
       </c>
       <c r="K134" s="203"/>
-      <c r="L134" s="395"/>
-      <c r="M134" s="396"/>
-      <c r="N134" s="396"/>
-      <c r="O134" s="397"/>
+      <c r="L134" s="432"/>
+      <c r="M134" s="433"/>
+      <c r="N134" s="433"/>
+      <c r="O134" s="434"/>
       <c r="P134" s="121"/>
       <c r="Q134" s="188"/>
       <c r="R134" s="6"/>
@@ -44351,16 +44351,16 @@
       <c r="Z134" s="120"/>
     </row>
     <row r="135" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="392" t="str">
+      <c r="B135" s="469" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J30&amp;" °C"</f>
         <v>Viscocidad dinámica del agua a 3 °C</v>
       </c>
-      <c r="C135" s="393"/>
-      <c r="D135" s="393"/>
-      <c r="E135" s="393"/>
-      <c r="F135" s="393"/>
-      <c r="G135" s="393"/>
-      <c r="H135" s="394"/>
+      <c r="C135" s="470"/>
+      <c r="D135" s="470"/>
+      <c r="E135" s="470"/>
+      <c r="F135" s="470"/>
+      <c r="G135" s="470"/>
+      <c r="H135" s="471"/>
       <c r="I135" s="275" t="s">
         <v>213</v>
       </c>
@@ -44391,11 +44391,11 @@
       <c r="B136" s="342" t="s">
         <v>243</v>
       </c>
-      <c r="C136" s="500"/>
-      <c r="D136" s="500"/>
-      <c r="E136" s="500"/>
-      <c r="F136" s="500"/>
-      <c r="G136" s="500"/>
+      <c r="C136" s="389"/>
+      <c r="D136" s="389"/>
+      <c r="E136" s="389"/>
+      <c r="F136" s="389"/>
+      <c r="G136" s="389"/>
       <c r="H136" s="343"/>
       <c r="I136" s="153" t="s">
         <v>257</v>
@@ -44407,10 +44407,10 @@
       <c r="K136" s="153" t="s">
         <v>244</v>
       </c>
-      <c r="L136" s="499"/>
-      <c r="M136" s="499"/>
-      <c r="N136" s="499"/>
-      <c r="O136" s="499"/>
+      <c r="L136" s="392"/>
+      <c r="M136" s="392"/>
+      <c r="N136" s="392"/>
+      <c r="O136" s="392"/>
       <c r="P136" s="161"/>
       <c r="Q136" s="149"/>
       <c r="R136" s="6"/>
@@ -44427,11 +44427,11 @@
       <c r="B137" s="342" t="s">
         <v>280</v>
       </c>
-      <c r="C137" s="500"/>
-      <c r="D137" s="500"/>
-      <c r="E137" s="500"/>
-      <c r="F137" s="500"/>
-      <c r="G137" s="500"/>
+      <c r="C137" s="389"/>
+      <c r="D137" s="389"/>
+      <c r="E137" s="389"/>
+      <c r="F137" s="389"/>
+      <c r="G137" s="389"/>
       <c r="H137" s="343"/>
       <c r="I137" s="153" t="s">
         <v>279</v>
@@ -44443,10 +44443,10 @@
       <c r="K137" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L137" s="499"/>
-      <c r="M137" s="499"/>
-      <c r="N137" s="499"/>
-      <c r="O137" s="499"/>
+      <c r="L137" s="392"/>
+      <c r="M137" s="392"/>
+      <c r="N137" s="392"/>
+      <c r="O137" s="392"/>
       <c r="P137" s="161"/>
       <c r="Q137" s="149"/>
       <c r="R137" s="6"/>
@@ -44464,11 +44464,11 @@
         <f>"Velocidad de arrastre del medio filtrante a "&amp;J30&amp;" °C"</f>
         <v>Velocidad de arrastre del medio filtrante a 3 °C</v>
       </c>
-      <c r="C138" s="500"/>
-      <c r="D138" s="500"/>
-      <c r="E138" s="500"/>
-      <c r="F138" s="500"/>
-      <c r="G138" s="500"/>
+      <c r="C138" s="389"/>
+      <c r="D138" s="389"/>
+      <c r="E138" s="389"/>
+      <c r="F138" s="389"/>
+      <c r="G138" s="389"/>
       <c r="H138" s="343"/>
       <c r="I138" s="153" t="s">
         <v>289</v>
@@ -44480,10 +44480,10 @@
       <c r="K138" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L138" s="499"/>
-      <c r="M138" s="499"/>
-      <c r="N138" s="499"/>
-      <c r="O138" s="499"/>
+      <c r="L138" s="392"/>
+      <c r="M138" s="392"/>
+      <c r="N138" s="392"/>
+      <c r="O138" s="392"/>
       <c r="P138" s="161"/>
       <c r="Q138" s="149"/>
       <c r="R138" s="6"/>
@@ -44501,11 +44501,11 @@
         <f>"Velocidad de fluidización del medio filtrante a "&amp;J30&amp;" °C"</f>
         <v>Velocidad de fluidización del medio filtrante a 3 °C</v>
       </c>
-      <c r="C139" s="500"/>
-      <c r="D139" s="500"/>
-      <c r="E139" s="500"/>
-      <c r="F139" s="500"/>
-      <c r="G139" s="500"/>
+      <c r="C139" s="389"/>
+      <c r="D139" s="389"/>
+      <c r="E139" s="389"/>
+      <c r="F139" s="389"/>
+      <c r="G139" s="389"/>
       <c r="H139" s="343"/>
       <c r="I139" s="153" t="s">
         <v>288</v>
@@ -44517,10 +44517,10 @@
       <c r="K139" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L139" s="389"/>
-      <c r="M139" s="390"/>
-      <c r="N139" s="390"/>
-      <c r="O139" s="391"/>
+      <c r="L139" s="393"/>
+      <c r="M139" s="394"/>
+      <c r="N139" s="394"/>
+      <c r="O139" s="395"/>
       <c r="P139" s="161"/>
       <c r="Q139" s="188"/>
       <c r="R139" s="6"/>
@@ -44538,11 +44538,11 @@
         <f>"Velocidad óptima de lavado a "&amp;J30&amp;" °C"</f>
         <v>Velocidad óptima de lavado a 3 °C</v>
       </c>
-      <c r="C140" s="500"/>
-      <c r="D140" s="500"/>
-      <c r="E140" s="500"/>
-      <c r="F140" s="500"/>
-      <c r="G140" s="500"/>
+      <c r="C140" s="389"/>
+      <c r="D140" s="389"/>
+      <c r="E140" s="389"/>
+      <c r="F140" s="389"/>
+      <c r="G140" s="389"/>
       <c r="H140" s="343"/>
       <c r="I140" s="153" t="s">
         <v>281</v>
@@ -44554,10 +44554,10 @@
       <c r="K140" s="153" t="s">
         <v>242</v>
       </c>
-      <c r="L140" s="499"/>
-      <c r="M140" s="499"/>
-      <c r="N140" s="499"/>
-      <c r="O140" s="499"/>
+      <c r="L140" s="392"/>
+      <c r="M140" s="392"/>
+      <c r="N140" s="392"/>
+      <c r="O140" s="392"/>
       <c r="P140" s="161"/>
       <c r="Q140" s="149"/>
       <c r="R140" s="6"/>
@@ -44627,15 +44627,15 @@
       <c r="Z142" s="120"/>
     </row>
     <row r="143" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="369" t="s">
+      <c r="B143" s="386" t="s">
         <v>374</v>
       </c>
-      <c r="C143" s="370"/>
-      <c r="D143" s="370"/>
-      <c r="E143" s="370"/>
-      <c r="F143" s="370"/>
-      <c r="G143" s="370"/>
-      <c r="H143" s="371"/>
+      <c r="C143" s="387"/>
+      <c r="D143" s="387"/>
+      <c r="E143" s="387"/>
+      <c r="F143" s="387"/>
+      <c r="G143" s="387"/>
+      <c r="H143" s="388"/>
       <c r="I143" s="298" t="s">
         <v>382</v>
       </c>
@@ -44645,10 +44645,10 @@
       <c r="K143" s="153" t="s">
         <v>375</v>
       </c>
-      <c r="L143" s="389"/>
-      <c r="M143" s="390"/>
-      <c r="N143" s="390"/>
-      <c r="O143" s="391"/>
+      <c r="L143" s="393"/>
+      <c r="M143" s="394"/>
+      <c r="N143" s="394"/>
+      <c r="O143" s="395"/>
       <c r="P143" s="319" t="s">
         <v>416</v>
       </c>
@@ -44664,15 +44664,15 @@
       <c r="Z143" s="120"/>
     </row>
     <row r="144" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="369" t="s">
+      <c r="B144" s="386" t="s">
         <v>376</v>
       </c>
-      <c r="C144" s="370"/>
-      <c r="D144" s="370"/>
-      <c r="E144" s="370"/>
-      <c r="F144" s="370"/>
-      <c r="G144" s="370"/>
-      <c r="H144" s="371"/>
+      <c r="C144" s="387"/>
+      <c r="D144" s="387"/>
+      <c r="E144" s="387"/>
+      <c r="F144" s="387"/>
+      <c r="G144" s="387"/>
+      <c r="H144" s="388"/>
       <c r="I144" s="299" t="s">
         <v>383</v>
       </c>
@@ -44683,10 +44683,10 @@
       <c r="K144" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L144" s="389"/>
-      <c r="M144" s="390"/>
-      <c r="N144" s="390"/>
-      <c r="O144" s="391"/>
+      <c r="L144" s="393"/>
+      <c r="M144" s="394"/>
+      <c r="N144" s="394"/>
+      <c r="O144" s="395"/>
       <c r="P144" s="161"/>
       <c r="Q144" s="188"/>
       <c r="R144" s="6"/>
@@ -44700,15 +44700,15 @@
       <c r="Z144" s="120"/>
     </row>
     <row r="145" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="369" t="s">
+      <c r="B145" s="386" t="s">
         <v>377</v>
       </c>
-      <c r="C145" s="370"/>
-      <c r="D145" s="370"/>
-      <c r="E145" s="370"/>
-      <c r="F145" s="370"/>
-      <c r="G145" s="370"/>
-      <c r="H145" s="371"/>
+      <c r="C145" s="387"/>
+      <c r="D145" s="387"/>
+      <c r="E145" s="387"/>
+      <c r="F145" s="387"/>
+      <c r="G145" s="387"/>
+      <c r="H145" s="388"/>
       <c r="I145" s="300" t="s">
         <v>384</v>
       </c>
@@ -44719,10 +44719,10 @@
       <c r="K145" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L145" s="389"/>
-      <c r="M145" s="390"/>
-      <c r="N145" s="390"/>
-      <c r="O145" s="391"/>
+      <c r="L145" s="393"/>
+      <c r="M145" s="394"/>
+      <c r="N145" s="394"/>
+      <c r="O145" s="395"/>
       <c r="P145" s="161"/>
       <c r="Q145" s="188"/>
       <c r="R145" s="6"/>
@@ -44736,15 +44736,15 @@
       <c r="Z145" s="120"/>
     </row>
     <row r="146" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="369" t="s">
+      <c r="B146" s="386" t="s">
         <v>378</v>
       </c>
-      <c r="C146" s="370"/>
-      <c r="D146" s="370"/>
-      <c r="E146" s="370"/>
-      <c r="F146" s="370"/>
-      <c r="G146" s="370"/>
-      <c r="H146" s="371"/>
+      <c r="C146" s="387"/>
+      <c r="D146" s="387"/>
+      <c r="E146" s="387"/>
+      <c r="F146" s="387"/>
+      <c r="G146" s="387"/>
+      <c r="H146" s="388"/>
       <c r="I146" s="299" t="s">
         <v>385</v>
       </c>
@@ -44754,10 +44754,10 @@
       <c r="K146" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="L146" s="389"/>
-      <c r="M146" s="390"/>
-      <c r="N146" s="390"/>
-      <c r="O146" s="391"/>
+      <c r="L146" s="393"/>
+      <c r="M146" s="394"/>
+      <c r="N146" s="394"/>
+      <c r="O146" s="395"/>
       <c r="P146" s="319" t="s">
         <v>416</v>
       </c>
@@ -44773,15 +44773,15 @@
       <c r="Z146" s="120"/>
     </row>
     <row r="147" spans="2:26" s="134" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="369" t="s">
+      <c r="B147" s="386" t="s">
         <v>379</v>
       </c>
-      <c r="C147" s="370"/>
-      <c r="D147" s="370"/>
-      <c r="E147" s="370"/>
-      <c r="F147" s="370"/>
-      <c r="G147" s="370"/>
-      <c r="H147" s="371"/>
+      <c r="C147" s="387"/>
+      <c r="D147" s="387"/>
+      <c r="E147" s="387"/>
+      <c r="F147" s="387"/>
+      <c r="G147" s="387"/>
+      <c r="H147" s="388"/>
       <c r="I147" s="298" t="s">
         <v>386</v>
       </c>
@@ -44792,14 +44792,14 @@
       <c r="K147" s="153" t="s">
         <v>375</v>
       </c>
-      <c r="L147" s="389"/>
-      <c r="M147" s="390"/>
-      <c r="N147" s="390"/>
-      <c r="O147" s="391"/>
-      <c r="P147" s="363" t="s">
+      <c r="L147" s="393"/>
+      <c r="M147" s="394"/>
+      <c r="N147" s="394"/>
+      <c r="O147" s="395"/>
+      <c r="P147" s="504" t="s">
         <v>417</v>
       </c>
-      <c r="Q147" s="364"/>
+      <c r="Q147" s="505"/>
       <c r="R147" s="6"/>
       <c r="S147" s="121"/>
       <c r="T147" s="121"/>
@@ -44811,27 +44811,27 @@
       <c r="Z147" s="120"/>
     </row>
     <row r="148" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="372" t="s">
+      <c r="B148" s="396" t="s">
         <v>389</v>
       </c>
-      <c r="C148" s="373"/>
-      <c r="D148" s="373"/>
-      <c r="E148" s="373"/>
-      <c r="F148" s="373"/>
-      <c r="G148" s="373"/>
-      <c r="H148" s="374"/>
-      <c r="I148" s="378" t="s">
+      <c r="C148" s="397"/>
+      <c r="D148" s="397"/>
+      <c r="E148" s="397"/>
+      <c r="F148" s="397"/>
+      <c r="G148" s="397"/>
+      <c r="H148" s="398"/>
+      <c r="I148" s="402" t="s">
         <v>388</v>
       </c>
-      <c r="J148" s="504">
+      <c r="J148" s="404">
         <f>ROUNDDOWN(2*(J129/J146),0)</f>
         <v>19</v>
       </c>
-      <c r="K148" s="378"/>
-      <c r="L148" s="382"/>
-      <c r="M148" s="383"/>
-      <c r="N148" s="383"/>
-      <c r="O148" s="384"/>
+      <c r="K148" s="402"/>
+      <c r="L148" s="406"/>
+      <c r="M148" s="407"/>
+      <c r="N148" s="407"/>
+      <c r="O148" s="408"/>
       <c r="P148" s="161"/>
       <c r="Q148" s="290"/>
       <c r="R148" s="6"/>
@@ -44845,20 +44845,20 @@
       <c r="Z148" s="120"/>
     </row>
     <row r="149" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="375"/>
-      <c r="C149" s="376"/>
-      <c r="D149" s="376"/>
-      <c r="E149" s="376"/>
-      <c r="F149" s="376"/>
-      <c r="G149" s="376"/>
-      <c r="H149" s="377"/>
-      <c r="I149" s="379"/>
-      <c r="J149" s="505"/>
-      <c r="K149" s="379"/>
-      <c r="L149" s="385"/>
-      <c r="M149" s="386"/>
-      <c r="N149" s="386"/>
-      <c r="O149" s="387"/>
+      <c r="B149" s="399"/>
+      <c r="C149" s="400"/>
+      <c r="D149" s="400"/>
+      <c r="E149" s="400"/>
+      <c r="F149" s="400"/>
+      <c r="G149" s="400"/>
+      <c r="H149" s="401"/>
+      <c r="I149" s="403"/>
+      <c r="J149" s="405"/>
+      <c r="K149" s="403"/>
+      <c r="L149" s="409"/>
+      <c r="M149" s="410"/>
+      <c r="N149" s="410"/>
+      <c r="O149" s="411"/>
       <c r="P149" s="161"/>
       <c r="Q149" s="280"/>
       <c r="R149" s="6"/>
@@ -44872,27 +44872,27 @@
       <c r="Z149" s="120"/>
     </row>
     <row r="150" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="372" t="s">
+      <c r="B150" s="396" t="s">
         <v>390</v>
       </c>
-      <c r="C150" s="373"/>
-      <c r="D150" s="373"/>
-      <c r="E150" s="373"/>
-      <c r="F150" s="373"/>
-      <c r="G150" s="373"/>
-      <c r="H150" s="374"/>
-      <c r="I150" s="378" t="s">
+      <c r="C150" s="397"/>
+      <c r="D150" s="397"/>
+      <c r="E150" s="397"/>
+      <c r="F150" s="397"/>
+      <c r="G150" s="397"/>
+      <c r="H150" s="398"/>
+      <c r="I150" s="402" t="s">
         <v>387</v>
       </c>
-      <c r="J150" s="504">
+      <c r="J150" s="404">
         <f>J148*ROUND(J145/J144,0)*2</f>
         <v>342</v>
       </c>
-      <c r="K150" s="378"/>
-      <c r="L150" s="382"/>
-      <c r="M150" s="383"/>
-      <c r="N150" s="383"/>
-      <c r="O150" s="384"/>
+      <c r="K150" s="402"/>
+      <c r="L150" s="406"/>
+      <c r="M150" s="407"/>
+      <c r="N150" s="407"/>
+      <c r="O150" s="408"/>
       <c r="P150" s="161"/>
       <c r="Q150" s="290"/>
       <c r="R150" s="6"/>
@@ -44906,20 +44906,20 @@
       <c r="Z150" s="120"/>
     </row>
     <row r="151" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="375"/>
-      <c r="C151" s="376"/>
-      <c r="D151" s="376"/>
-      <c r="E151" s="376"/>
-      <c r="F151" s="376"/>
-      <c r="G151" s="376"/>
-      <c r="H151" s="377"/>
-      <c r="I151" s="379"/>
-      <c r="J151" s="505"/>
-      <c r="K151" s="379"/>
-      <c r="L151" s="385"/>
-      <c r="M151" s="386"/>
-      <c r="N151" s="386"/>
-      <c r="O151" s="387"/>
+      <c r="B151" s="399"/>
+      <c r="C151" s="400"/>
+      <c r="D151" s="400"/>
+      <c r="E151" s="400"/>
+      <c r="F151" s="400"/>
+      <c r="G151" s="400"/>
+      <c r="H151" s="401"/>
+      <c r="I151" s="403"/>
+      <c r="J151" s="405"/>
+      <c r="K151" s="403"/>
+      <c r="L151" s="409"/>
+      <c r="M151" s="410"/>
+      <c r="N151" s="410"/>
+      <c r="O151" s="411"/>
       <c r="P151" s="161"/>
       <c r="Q151" s="280"/>
       <c r="R151" s="6"/>
@@ -44933,29 +44933,29 @@
       <c r="Z151" s="120"/>
     </row>
     <row r="152" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="372" t="s">
+      <c r="B152" s="396" t="s">
         <v>392</v>
       </c>
-      <c r="C152" s="373"/>
-      <c r="D152" s="373"/>
-      <c r="E152" s="373"/>
-      <c r="F152" s="373"/>
-      <c r="G152" s="373"/>
-      <c r="H152" s="374"/>
-      <c r="I152" s="378" t="s">
+      <c r="C152" s="397"/>
+      <c r="D152" s="397"/>
+      <c r="E152" s="397"/>
+      <c r="F152" s="397"/>
+      <c r="G152" s="397"/>
+      <c r="H152" s="398"/>
+      <c r="I152" s="402" t="s">
         <v>391</v>
       </c>
-      <c r="J152" s="380">
+      <c r="J152" s="510">
         <f>J150*PI()*(((J143*0.0254)^2)/4)</f>
         <v>2.4369462822845276E-2</v>
       </c>
-      <c r="K152" s="378" t="s">
+      <c r="K152" s="402" t="s">
         <v>393</v>
       </c>
-      <c r="L152" s="382"/>
-      <c r="M152" s="383"/>
-      <c r="N152" s="383"/>
-      <c r="O152" s="384"/>
+      <c r="L152" s="406"/>
+      <c r="M152" s="407"/>
+      <c r="N152" s="407"/>
+      <c r="O152" s="408"/>
       <c r="P152" s="161"/>
       <c r="Q152" s="290"/>
       <c r="R152" s="6"/>
@@ -44969,20 +44969,20 @@
       <c r="Z152" s="120"/>
     </row>
     <row r="153" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="375"/>
-      <c r="C153" s="376"/>
-      <c r="D153" s="376"/>
-      <c r="E153" s="376"/>
-      <c r="F153" s="376"/>
-      <c r="G153" s="376"/>
-      <c r="H153" s="377"/>
-      <c r="I153" s="379"/>
-      <c r="J153" s="381"/>
-      <c r="K153" s="379"/>
-      <c r="L153" s="385"/>
-      <c r="M153" s="386"/>
-      <c r="N153" s="386"/>
-      <c r="O153" s="387"/>
+      <c r="B153" s="399"/>
+      <c r="C153" s="400"/>
+      <c r="D153" s="400"/>
+      <c r="E153" s="400"/>
+      <c r="F153" s="400"/>
+      <c r="G153" s="400"/>
+      <c r="H153" s="401"/>
+      <c r="I153" s="403"/>
+      <c r="J153" s="511"/>
+      <c r="K153" s="403"/>
+      <c r="L153" s="409"/>
+      <c r="M153" s="410"/>
+      <c r="N153" s="410"/>
+      <c r="O153" s="411"/>
       <c r="P153" s="161"/>
       <c r="Q153" s="290"/>
       <c r="R153" s="6"/>
@@ -44996,29 +44996,29 @@
       <c r="Z153" s="120"/>
     </row>
     <row r="154" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="372" t="s">
+      <c r="B154" s="396" t="s">
         <v>394</v>
       </c>
-      <c r="C154" s="373"/>
-      <c r="D154" s="373"/>
-      <c r="E154" s="373"/>
-      <c r="F154" s="373"/>
-      <c r="G154" s="373"/>
-      <c r="H154" s="374"/>
-      <c r="I154" s="378" t="s">
+      <c r="C154" s="397"/>
+      <c r="D154" s="397"/>
+      <c r="E154" s="397"/>
+      <c r="F154" s="397"/>
+      <c r="G154" s="397"/>
+      <c r="H154" s="398"/>
+      <c r="I154" s="402" t="s">
         <v>395</v>
       </c>
-      <c r="J154" s="380">
+      <c r="J154" s="510">
         <f>J152/0.4</f>
         <v>6.0923657057113188E-2</v>
       </c>
-      <c r="K154" s="378" t="s">
+      <c r="K154" s="402" t="s">
         <v>393</v>
       </c>
-      <c r="L154" s="382"/>
-      <c r="M154" s="383"/>
-      <c r="N154" s="383"/>
-      <c r="O154" s="384"/>
+      <c r="L154" s="406"/>
+      <c r="M154" s="407"/>
+      <c r="N154" s="407"/>
+      <c r="O154" s="408"/>
       <c r="P154" s="161"/>
       <c r="Q154" s="290"/>
       <c r="R154" s="6"/>
@@ -45032,20 +45032,20 @@
       <c r="Z154" s="120"/>
     </row>
     <row r="155" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="375"/>
-      <c r="C155" s="376"/>
-      <c r="D155" s="376"/>
-      <c r="E155" s="376"/>
-      <c r="F155" s="376"/>
-      <c r="G155" s="376"/>
-      <c r="H155" s="377"/>
-      <c r="I155" s="379"/>
-      <c r="J155" s="381"/>
-      <c r="K155" s="379"/>
-      <c r="L155" s="385"/>
-      <c r="M155" s="386"/>
-      <c r="N155" s="386"/>
-      <c r="O155" s="387"/>
+      <c r="B155" s="399"/>
+      <c r="C155" s="400"/>
+      <c r="D155" s="400"/>
+      <c r="E155" s="400"/>
+      <c r="F155" s="400"/>
+      <c r="G155" s="400"/>
+      <c r="H155" s="401"/>
+      <c r="I155" s="403"/>
+      <c r="J155" s="511"/>
+      <c r="K155" s="403"/>
+      <c r="L155" s="409"/>
+      <c r="M155" s="410"/>
+      <c r="N155" s="410"/>
+      <c r="O155" s="411"/>
       <c r="P155" s="161"/>
       <c r="Q155" s="280"/>
       <c r="R155" s="6"/>
@@ -45059,15 +45059,15 @@
       <c r="Z155" s="120"/>
     </row>
     <row r="156" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="369" t="s">
+      <c r="B156" s="386" t="s">
         <v>396</v>
       </c>
-      <c r="C156" s="370"/>
-      <c r="D156" s="370"/>
-      <c r="E156" s="370"/>
-      <c r="F156" s="370"/>
-      <c r="G156" s="370"/>
-      <c r="H156" s="371"/>
+      <c r="C156" s="387"/>
+      <c r="D156" s="387"/>
+      <c r="E156" s="387"/>
+      <c r="F156" s="387"/>
+      <c r="G156" s="387"/>
+      <c r="H156" s="388"/>
       <c r="I156" s="291"/>
       <c r="J156" s="295" t="str">
         <f>INDEX(AL8:AL16,MATCH(J154,AM8:AM16,1),1)</f>
@@ -45093,15 +45093,15 @@
       <c r="Z156" s="120"/>
     </row>
     <row r="157" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="388" t="s">
+      <c r="B157" s="512" t="s">
         <v>410</v>
       </c>
-      <c r="C157" s="388"/>
-      <c r="D157" s="388"/>
-      <c r="E157" s="388"/>
-      <c r="F157" s="388"/>
-      <c r="G157" s="388"/>
-      <c r="H157" s="388"/>
+      <c r="C157" s="512"/>
+      <c r="D157" s="512"/>
+      <c r="E157" s="512"/>
+      <c r="F157" s="512"/>
+      <c r="G157" s="512"/>
+      <c r="H157" s="512"/>
       <c r="I157" s="300" t="s">
         <v>395</v>
       </c>
@@ -45112,10 +45112,10 @@
       <c r="K157" s="153" t="s">
         <v>393</v>
       </c>
-      <c r="L157" s="389"/>
-      <c r="M157" s="390"/>
-      <c r="N157" s="390"/>
-      <c r="O157" s="391"/>
+      <c r="L157" s="393"/>
+      <c r="M157" s="394"/>
+      <c r="N157" s="394"/>
+      <c r="O157" s="395"/>
       <c r="P157" s="161"/>
       <c r="Q157" s="290"/>
       <c r="R157" s="6"/>
@@ -45129,28 +45129,28 @@
       <c r="Z157" s="120"/>
     </row>
     <row r="158" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="369" t="s">
+      <c r="B158" s="386" t="s">
         <v>409</v>
       </c>
-      <c r="C158" s="370"/>
-      <c r="D158" s="370"/>
-      <c r="E158" s="370"/>
-      <c r="F158" s="370"/>
-      <c r="G158" s="370"/>
-      <c r="H158" s="371"/>
+      <c r="C158" s="387"/>
+      <c r="D158" s="387"/>
+      <c r="E158" s="387"/>
+      <c r="F158" s="387"/>
+      <c r="G158" s="387"/>
+      <c r="H158" s="388"/>
       <c r="I158" s="300"/>
       <c r="J158" s="289">
         <f>J152/J126</f>
         <v>2.9574590804423879E-3</v>
       </c>
       <c r="K158" s="291"/>
-      <c r="L158" s="366" t="str">
+      <c r="L158" s="507" t="str">
         <f>IF(AND(J158&gt;0.0015,J158&lt;0.005),"¡ok!","¡error!")</f>
         <v>¡ok!</v>
       </c>
-      <c r="M158" s="367"/>
-      <c r="N158" s="367"/>
-      <c r="O158" s="368"/>
+      <c r="M158" s="508"/>
+      <c r="N158" s="508"/>
+      <c r="O158" s="509"/>
       <c r="P158" s="161"/>
       <c r="Q158" s="290"/>
       <c r="R158" s="6"/>
@@ -45164,28 +45164,28 @@
       <c r="Z158" s="120"/>
     </row>
     <row r="159" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="369" t="s">
+      <c r="B159" s="386" t="s">
         <v>411</v>
       </c>
-      <c r="C159" s="370"/>
-      <c r="D159" s="370"/>
-      <c r="E159" s="370"/>
-      <c r="F159" s="370"/>
-      <c r="G159" s="370"/>
-      <c r="H159" s="371"/>
+      <c r="C159" s="387"/>
+      <c r="D159" s="387"/>
+      <c r="E159" s="387"/>
+      <c r="F159" s="387"/>
+      <c r="G159" s="387"/>
+      <c r="H159" s="388"/>
       <c r="I159" s="300"/>
       <c r="J159" s="289">
         <f>((0.0254*J147)^2)/(J152/J148)</f>
         <v>3.1438013450250941</v>
       </c>
       <c r="K159" s="291"/>
-      <c r="L159" s="366" t="str">
+      <c r="L159" s="507" t="str">
         <f>IF(AND(J159&gt;2,J159&lt;4),"¡ok!","¡error!")</f>
         <v>¡ok!</v>
       </c>
-      <c r="M159" s="367"/>
-      <c r="N159" s="367"/>
-      <c r="O159" s="368"/>
+      <c r="M159" s="508"/>
+      <c r="N159" s="508"/>
+      <c r="O159" s="509"/>
       <c r="P159" s="161"/>
       <c r="Q159" s="290"/>
       <c r="R159" s="6"/>
@@ -45258,11 +45258,11 @@
       <c r="B162" s="342" t="s">
         <v>232</v>
       </c>
-      <c r="C162" s="500"/>
-      <c r="D162" s="500"/>
-      <c r="E162" s="500"/>
-      <c r="F162" s="500"/>
-      <c r="G162" s="500"/>
+      <c r="C162" s="389"/>
+      <c r="D162" s="389"/>
+      <c r="E162" s="389"/>
+      <c r="F162" s="389"/>
+      <c r="G162" s="389"/>
       <c r="H162" s="343"/>
       <c r="I162" s="153" t="s">
         <v>88</v>
@@ -45274,10 +45274,10 @@
       <c r="K162" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="L162" s="499"/>
-      <c r="M162" s="499"/>
-      <c r="N162" s="499"/>
-      <c r="O162" s="499"/>
+      <c r="L162" s="392"/>
+      <c r="M162" s="392"/>
+      <c r="N162" s="392"/>
+      <c r="O162" s="392"/>
       <c r="P162" s="121"/>
       <c r="Q162" s="121"/>
       <c r="R162" s="121"/>
@@ -45294,11 +45294,11 @@
       <c r="B163" s="342" t="s">
         <v>231</v>
       </c>
-      <c r="C163" s="500"/>
-      <c r="D163" s="500"/>
-      <c r="E163" s="500"/>
-      <c r="F163" s="500"/>
-      <c r="G163" s="500"/>
+      <c r="C163" s="389"/>
+      <c r="D163" s="389"/>
+      <c r="E163" s="389"/>
+      <c r="F163" s="389"/>
+      <c r="G163" s="389"/>
       <c r="H163" s="343"/>
       <c r="I163" s="153" t="s">
         <v>11</v>
@@ -45308,10 +45308,10 @@
         <v>0.45</v>
       </c>
       <c r="K163" s="156"/>
-      <c r="L163" s="499"/>
-      <c r="M163" s="499"/>
-      <c r="N163" s="499"/>
-      <c r="O163" s="499"/>
+      <c r="L163" s="392"/>
+      <c r="M163" s="392"/>
+      <c r="N163" s="392"/>
+      <c r="O163" s="392"/>
       <c r="P163" s="121"/>
       <c r="Q163" s="121"/>
       <c r="R163" s="121"/>
@@ -45328,11 +45328,11 @@
       <c r="B164" s="342" t="s">
         <v>233</v>
       </c>
-      <c r="C164" s="500"/>
-      <c r="D164" s="500"/>
-      <c r="E164" s="500"/>
-      <c r="F164" s="500"/>
-      <c r="G164" s="500"/>
+      <c r="C164" s="389"/>
+      <c r="D164" s="389"/>
+      <c r="E164" s="389"/>
+      <c r="F164" s="389"/>
+      <c r="G164" s="389"/>
       <c r="H164" s="343"/>
       <c r="I164" s="153" t="s">
         <v>234</v>
@@ -45342,10 +45342,10 @@
         <v>2.65</v>
       </c>
       <c r="K164" s="156"/>
-      <c r="L164" s="499"/>
-      <c r="M164" s="499"/>
-      <c r="N164" s="499"/>
-      <c r="O164" s="499"/>
+      <c r="L164" s="392"/>
+      <c r="M164" s="392"/>
+      <c r="N164" s="392"/>
+      <c r="O164" s="392"/>
       <c r="P164" s="121"/>
       <c r="Q164" s="121"/>
       <c r="R164" s="121"/>
@@ -45359,15 +45359,15 @@
       <c r="Z164" s="120"/>
     </row>
     <row r="165" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="335" t="s">
+      <c r="B165" s="339" t="s">
         <v>236</v>
       </c>
-      <c r="C165" s="335"/>
-      <c r="D165" s="335"/>
-      <c r="E165" s="335"/>
-      <c r="F165" s="335"/>
-      <c r="G165" s="335"/>
-      <c r="H165" s="335"/>
+      <c r="C165" s="339"/>
+      <c r="D165" s="339"/>
+      <c r="E165" s="339"/>
+      <c r="F165" s="339"/>
+      <c r="G165" s="339"/>
+      <c r="H165" s="339"/>
       <c r="I165" s="153" t="s">
         <v>235</v>
       </c>
@@ -45378,10 +45378,10 @@
       <c r="K165" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="L165" s="499"/>
-      <c r="M165" s="499"/>
-      <c r="N165" s="499"/>
-      <c r="O165" s="499"/>
+      <c r="L165" s="392"/>
+      <c r="M165" s="392"/>
+      <c r="N165" s="392"/>
+      <c r="O165" s="392"/>
       <c r="P165" s="121"/>
       <c r="Q165" s="121"/>
       <c r="R165" s="121"/>
@@ -45507,8 +45507,8 @@
       <c r="Z169" s="120"/>
     </row>
     <row r="170" spans="2:26" s="134" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="465"/>
-      <c r="C170" s="465"/>
+      <c r="B170" s="480"/>
+      <c r="C170" s="480"/>
       <c r="D170" s="130"/>
       <c r="E170" s="5"/>
       <c r="F170" s="131"/>
@@ -45613,13 +45613,13 @@
       <c r="Y173" s="113"/>
     </row>
     <row r="174" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="348" t="s">
+      <c r="B174" s="335" t="s">
         <v>34</v>
       </c>
-      <c r="C174" s="348"/>
-      <c r="D174" s="348"/>
-      <c r="E174" s="348"/>
-      <c r="F174" s="348"/>
+      <c r="C174" s="335"/>
+      <c r="D174" s="335"/>
+      <c r="E174" s="335"/>
+      <c r="F174" s="335"/>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
@@ -45670,16 +45670,16 @@
       <c r="B176" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C176" s="352" t="s">
+      <c r="C176" s="322" t="s">
         <v>202</v>
       </c>
-      <c r="D176" s="352"/>
-      <c r="E176" s="352"/>
-      <c r="F176" s="352"/>
-      <c r="G176" s="352"/>
-      <c r="H176" s="352"/>
-      <c r="I176" s="352"/>
-      <c r="J176" s="352"/>
+      <c r="D176" s="322"/>
+      <c r="E176" s="322"/>
+      <c r="F176" s="322"/>
+      <c r="G176" s="322"/>
+      <c r="H176" s="322"/>
+      <c r="I176" s="322"/>
+      <c r="J176" s="322"/>
       <c r="K176" s="113"/>
       <c r="L176" s="113"/>
       <c r="M176" s="113"/>
@@ -45700,16 +45700,16 @@
       <c r="B177" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C177" s="352" t="s">
+      <c r="C177" s="322" t="s">
         <v>64</v>
       </c>
-      <c r="D177" s="352"/>
-      <c r="E177" s="352"/>
-      <c r="F177" s="352"/>
-      <c r="G177" s="352"/>
-      <c r="H177" s="352"/>
-      <c r="I177" s="352"/>
-      <c r="J177" s="352"/>
+      <c r="D177" s="322"/>
+      <c r="E177" s="322"/>
+      <c r="F177" s="322"/>
+      <c r="G177" s="322"/>
+      <c r="H177" s="322"/>
+      <c r="I177" s="322"/>
+      <c r="J177" s="322"/>
       <c r="K177" s="113"/>
       <c r="L177" s="113"/>
       <c r="M177" s="113"/>
@@ -45730,16 +45730,16 @@
       <c r="B178" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C178" s="464" t="s">
+      <c r="C178" s="479" t="s">
         <v>40</v>
       </c>
-      <c r="D178" s="464"/>
-      <c r="E178" s="464"/>
-      <c r="F178" s="464"/>
-      <c r="G178" s="464"/>
-      <c r="H178" s="464"/>
-      <c r="I178" s="464"/>
-      <c r="J178" s="464"/>
+      <c r="D178" s="479"/>
+      <c r="E178" s="479"/>
+      <c r="F178" s="479"/>
+      <c r="G178" s="479"/>
+      <c r="H178" s="479"/>
+      <c r="I178" s="479"/>
+      <c r="J178" s="479"/>
       <c r="K178" s="23"/>
       <c r="L178" s="23"/>
       <c r="M178" s="23"/>
@@ -45760,16 +45760,16 @@
       <c r="B179" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C179" s="352" t="s">
+      <c r="C179" s="322" t="s">
         <v>65</v>
       </c>
-      <c r="D179" s="352"/>
-      <c r="E179" s="352"/>
-      <c r="F179" s="352"/>
-      <c r="G179" s="352"/>
-      <c r="H179" s="352"/>
-      <c r="I179" s="352"/>
-      <c r="J179" s="352"/>
+      <c r="D179" s="322"/>
+      <c r="E179" s="322"/>
+      <c r="F179" s="322"/>
+      <c r="G179" s="322"/>
+      <c r="H179" s="322"/>
+      <c r="I179" s="322"/>
+      <c r="J179" s="322"/>
       <c r="K179" s="23"/>
       <c r="L179" s="23"/>
       <c r="M179" s="23"/>
@@ -45790,16 +45790,16 @@
       <c r="B180" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C180" s="352" t="s">
+      <c r="C180" s="322" t="s">
         <v>66</v>
       </c>
-      <c r="D180" s="352"/>
-      <c r="E180" s="352"/>
-      <c r="F180" s="352"/>
-      <c r="G180" s="352"/>
-      <c r="H180" s="352"/>
-      <c r="I180" s="352"/>
-      <c r="J180" s="352"/>
+      <c r="D180" s="322"/>
+      <c r="E180" s="322"/>
+      <c r="F180" s="322"/>
+      <c r="G180" s="322"/>
+      <c r="H180" s="322"/>
+      <c r="I180" s="322"/>
+      <c r="J180" s="322"/>
       <c r="K180" s="23"/>
       <c r="L180" s="23"/>
       <c r="M180" s="23"/>
@@ -45820,16 +45820,16 @@
       <c r="B181" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C181" s="344" t="s">
+      <c r="C181" s="334" t="s">
         <v>56</v>
       </c>
-      <c r="D181" s="344"/>
-      <c r="E181" s="344"/>
-      <c r="F181" s="344"/>
-      <c r="G181" s="344"/>
-      <c r="H181" s="344"/>
-      <c r="I181" s="344"/>
-      <c r="J181" s="344"/>
+      <c r="D181" s="334"/>
+      <c r="E181" s="334"/>
+      <c r="F181" s="334"/>
+      <c r="G181" s="334"/>
+      <c r="H181" s="334"/>
+      <c r="I181" s="334"/>
+      <c r="J181" s="334"/>
       <c r="K181" s="113"/>
       <c r="L181" s="113"/>
       <c r="M181" s="113"/>
@@ -45850,16 +45850,16 @@
       <c r="B182" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C182" s="464" t="s">
+      <c r="C182" s="479" t="s">
         <v>78</v>
       </c>
-      <c r="D182" s="464"/>
-      <c r="E182" s="464"/>
-      <c r="F182" s="464"/>
-      <c r="G182" s="464"/>
-      <c r="H182" s="464"/>
-      <c r="I182" s="464"/>
-      <c r="J182" s="464"/>
+      <c r="D182" s="479"/>
+      <c r="E182" s="479"/>
+      <c r="F182" s="479"/>
+      <c r="G182" s="479"/>
+      <c r="H182" s="479"/>
+      <c r="I182" s="479"/>
+      <c r="J182" s="479"/>
       <c r="K182" s="113"/>
       <c r="L182" s="113"/>
       <c r="M182" s="113"/>
@@ -45880,16 +45880,16 @@
       <c r="B183" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C183" s="352" t="s">
+      <c r="C183" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="D183" s="352"/>
-      <c r="E183" s="352"/>
-      <c r="F183" s="352"/>
-      <c r="G183" s="352"/>
-      <c r="H183" s="352"/>
-      <c r="I183" s="352"/>
-      <c r="J183" s="352"/>
+      <c r="D183" s="322"/>
+      <c r="E183" s="322"/>
+      <c r="F183" s="322"/>
+      <c r="G183" s="322"/>
+      <c r="H183" s="322"/>
+      <c r="I183" s="322"/>
+      <c r="J183" s="322"/>
       <c r="K183" s="113"/>
       <c r="L183" s="113"/>
       <c r="M183" s="113"/>
@@ -45910,16 +45910,16 @@
       <c r="B184" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C184" s="352" t="s">
+      <c r="C184" s="322" t="s">
         <v>169</v>
       </c>
-      <c r="D184" s="352"/>
-      <c r="E184" s="352"/>
-      <c r="F184" s="352"/>
-      <c r="G184" s="352"/>
-      <c r="H184" s="352"/>
-      <c r="I184" s="352"/>
-      <c r="J184" s="352"/>
+      <c r="D184" s="322"/>
+      <c r="E184" s="322"/>
+      <c r="F184" s="322"/>
+      <c r="G184" s="322"/>
+      <c r="H184" s="322"/>
+      <c r="I184" s="322"/>
+      <c r="J184" s="322"/>
       <c r="K184" s="121"/>
       <c r="L184" s="121"/>
       <c r="M184" s="121"/>
@@ -47582,33 +47582,208 @@
     </row>
   </sheetData>
   <mergeCells count="253">
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="V88:V96"/>
-    <mergeCell ref="Q97:Q99"/>
-    <mergeCell ref="R88:R96"/>
-    <mergeCell ref="X84:X87"/>
-    <mergeCell ref="Y84:Y87"/>
-    <mergeCell ref="U97:U99"/>
-    <mergeCell ref="S84:V84"/>
-    <mergeCell ref="S85:S87"/>
-    <mergeCell ref="T85:T87"/>
-    <mergeCell ref="U85:U87"/>
-    <mergeCell ref="V85:V87"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="Q119:R119"/>
+    <mergeCell ref="L158:O158"/>
+    <mergeCell ref="B159:H159"/>
+    <mergeCell ref="L159:O159"/>
+    <mergeCell ref="B152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="L152:O153"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="B154:H155"/>
+    <mergeCell ref="I154:I155"/>
+    <mergeCell ref="J154:J155"/>
+    <mergeCell ref="L154:O155"/>
+    <mergeCell ref="B157:H157"/>
+    <mergeCell ref="L157:O157"/>
+    <mergeCell ref="L139:O139"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="B126:H126"/>
+    <mergeCell ref="B2:F5"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="H56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B60:C62"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="L129:O129"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="B84:C87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="K88:M96"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B121:H121"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="L127:O128"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="L122:O123"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="L124:O125"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B127:H128"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C184:J184"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="C179:J179"/>
+    <mergeCell ref="C180:J180"/>
+    <mergeCell ref="C181:J181"/>
+    <mergeCell ref="C182:J182"/>
+    <mergeCell ref="C183:J183"/>
+    <mergeCell ref="C176:J176"/>
+    <mergeCell ref="C177:J177"/>
+    <mergeCell ref="C178:J178"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B67:C69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G67:H69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B135:H135"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H53:J55"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B80:H80"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B53:C55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B38:C41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H60:J62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B102:C105"/>
+    <mergeCell ref="F102:F105"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="H102:H105"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B114:H114"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="L114:O114"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B124:H125"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="O96:P96"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="O85:P87"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="K85:M87"/>
+    <mergeCell ref="N84:R84"/>
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="Q85:Q87"/>
+    <mergeCell ref="R85:R87"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="L140:O140"/>
+    <mergeCell ref="B165:H165"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="B136:H136"/>
+    <mergeCell ref="B137:H137"/>
+    <mergeCell ref="B115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:O116"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="L136:O136"/>
+    <mergeCell ref="L137:O137"/>
+    <mergeCell ref="L138:O138"/>
+    <mergeCell ref="L119:O119"/>
+    <mergeCell ref="B129:H129"/>
+    <mergeCell ref="B138:H138"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B140:H140"/>
+    <mergeCell ref="L162:O162"/>
+    <mergeCell ref="L163:O163"/>
+    <mergeCell ref="L164:O164"/>
+    <mergeCell ref="L165:O165"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="B143:H143"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="L143:O143"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="L145:O145"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="L147:O147"/>
+    <mergeCell ref="B148:H149"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="K148:K149"/>
+    <mergeCell ref="L148:O149"/>
+    <mergeCell ref="B150:H151"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="L150:O151"/>
+    <mergeCell ref="B156:H156"/>
     <mergeCell ref="B158:H158"/>
     <mergeCell ref="B139:H139"/>
     <mergeCell ref="B10:H10"/>
@@ -47633,208 +47808,33 @@
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L164:O164"/>
-    <mergeCell ref="L165:O165"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="B143:H143"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="L143:O143"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="L145:O145"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="B148:H149"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="J148:J149"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="L148:O149"/>
-    <mergeCell ref="B150:H151"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="L150:O151"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="J127:J128"/>
-    <mergeCell ref="L140:O140"/>
-    <mergeCell ref="B165:H165"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="B136:H136"/>
-    <mergeCell ref="B137:H137"/>
-    <mergeCell ref="B115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="L115:O116"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="L136:O136"/>
-    <mergeCell ref="L137:O137"/>
-    <mergeCell ref="L138:O138"/>
-    <mergeCell ref="L119:O119"/>
-    <mergeCell ref="B129:H129"/>
-    <mergeCell ref="B138:H138"/>
-    <mergeCell ref="B164:H164"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="B140:H140"/>
-    <mergeCell ref="L162:O162"/>
-    <mergeCell ref="L163:O163"/>
-    <mergeCell ref="B124:H125"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="O96:P96"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="O85:P87"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="K85:M87"/>
-    <mergeCell ref="N84:R84"/>
-    <mergeCell ref="N85:N87"/>
-    <mergeCell ref="Q85:Q87"/>
-    <mergeCell ref="R85:R87"/>
-    <mergeCell ref="H63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B102:C105"/>
-    <mergeCell ref="F102:F105"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="H102:H105"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B114:H114"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="L114:O114"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H53:J55"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B80:H80"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B53:C55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B38:C41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H60:J62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C184:J184"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="C179:J179"/>
-    <mergeCell ref="C180:J180"/>
-    <mergeCell ref="C181:J181"/>
-    <mergeCell ref="C182:J182"/>
-    <mergeCell ref="C183:J183"/>
-    <mergeCell ref="C176:J176"/>
-    <mergeCell ref="C177:J177"/>
-    <mergeCell ref="C178:J178"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B67:C69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G67:H69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B135:H135"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="L129:O129"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="B84:C87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="K88:M96"/>
-    <mergeCell ref="B120:H120"/>
-    <mergeCell ref="B121:H121"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="L127:O128"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="L122:O123"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="L124:O125"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B127:H128"/>
-    <mergeCell ref="B2:F5"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="H56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B60:C62"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="P147:Q147"/>
-    <mergeCell ref="Q119:R119"/>
-    <mergeCell ref="L158:O158"/>
-    <mergeCell ref="B159:H159"/>
-    <mergeCell ref="L159:O159"/>
-    <mergeCell ref="B152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="L152:O153"/>
-    <mergeCell ref="K154:K155"/>
-    <mergeCell ref="B154:H155"/>
-    <mergeCell ref="I154:I155"/>
-    <mergeCell ref="J154:J155"/>
-    <mergeCell ref="L154:O155"/>
-    <mergeCell ref="B157:H157"/>
-    <mergeCell ref="L157:O157"/>
-    <mergeCell ref="L139:O139"/>
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="L134:O134"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="B126:H126"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="V88:V96"/>
+    <mergeCell ref="Q97:Q99"/>
+    <mergeCell ref="R88:R96"/>
+    <mergeCell ref="X84:X87"/>
+    <mergeCell ref="Y84:Y87"/>
+    <mergeCell ref="U97:U99"/>
+    <mergeCell ref="S84:V84"/>
+    <mergeCell ref="S85:S87"/>
+    <mergeCell ref="T85:T87"/>
+    <mergeCell ref="U85:U87"/>
+    <mergeCell ref="V85:V87"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:J28">
     <cfRule type="expression" dxfId="4" priority="6">
